--- a/Assets/06.Table/DosulTower.xlsx
+++ b/Assets/06.Table/DosulTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBB1BB0-83B7-483E-A612-2A27EB7FB6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68477B43-C62C-4369-BDFD-571707ED1156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="64">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -902,11 +902,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M213"/>
+  <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11061,7 +11061,7 @@
         <v>171000</v>
       </c>
       <c r="E196">
-        <f t="shared" ref="E196:E213" si="171">E195</f>
+        <f t="shared" ref="E196:E227" si="171">E195</f>
         <v>1</v>
       </c>
       <c r="F196" s="2">
@@ -11084,11 +11084,11 @@
         <v>60</v>
       </c>
       <c r="K196">
-        <f t="shared" ref="K196:K213" si="173">K195+200</f>
+        <f t="shared" ref="K196:K227" si="173">K195+200</f>
         <v>40800</v>
       </c>
       <c r="L196">
-        <f t="shared" ref="L196:L213" si="174">L195</f>
+        <f t="shared" ref="L196:L227" si="174">L195</f>
         <v>9031</v>
       </c>
       <c r="M196">
@@ -11980,9 +11980,737 @@
         <v>402000</v>
       </c>
     </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1" t="str">
+        <f t="shared" ref="B214:C214" si="209">B213</f>
+        <v>1-1</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="209"/>
+        <v>9031</v>
+      </c>
+      <c r="D214">
+        <f>VLOOKUP(A214,Balance!E:K,7,FALSE)</f>
+        <v>202875</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F214" s="2">
+        <f>VLOOKUP(A214,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999992E+124</v>
+      </c>
+      <c r="G214">
+        <f t="shared" ref="G214:I214" si="210">G213</f>
+        <v>1000</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="210"/>
+        <v>8</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="210"/>
+        <v>0</v>
+      </c>
+      <c r="J214" t="s">
+        <v>60</v>
+      </c>
+      <c r="K214">
+        <f t="shared" si="173"/>
+        <v>44400</v>
+      </c>
+      <c r="L214">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M214">
+        <f>VLOOKUP(A214,Balance!E:L,8,FALSE)/2</f>
+        <v>405750</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1" t="str">
+        <f t="shared" ref="B215:C215" si="211">B214</f>
+        <v>1-1</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="211"/>
+        <v>9031</v>
+      </c>
+      <c r="D215">
+        <f>VLOOKUP(A215,Balance!E:K,7,FALSE)</f>
+        <v>204750</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F215" s="2">
+        <f>VLOOKUP(A215,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999996E+125</v>
+      </c>
+      <c r="G215">
+        <f t="shared" ref="G215:I215" si="212">G214</f>
+        <v>1000</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="212"/>
+        <v>8</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="212"/>
+        <v>0</v>
+      </c>
+      <c r="J215" t="s">
+        <v>60</v>
+      </c>
+      <c r="K215">
+        <f t="shared" si="173"/>
+        <v>44600</v>
+      </c>
+      <c r="L215">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M215">
+        <f>VLOOKUP(A215,Balance!E:L,8,FALSE)/2</f>
+        <v>409500</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1" t="str">
+        <f t="shared" ref="B216:C216" si="213">B215</f>
+        <v>1-1</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="213"/>
+        <v>9031</v>
+      </c>
+      <c r="D216">
+        <f>VLOOKUP(A216,Balance!E:K,7,FALSE)</f>
+        <v>206625</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F216" s="2">
+        <f>VLOOKUP(A216,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999992E+125</v>
+      </c>
+      <c r="G216">
+        <f t="shared" ref="G216:I216" si="214">G215</f>
+        <v>1000</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="214"/>
+        <v>8</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="214"/>
+        <v>0</v>
+      </c>
+      <c r="J216" t="s">
+        <v>60</v>
+      </c>
+      <c r="K216">
+        <f t="shared" si="173"/>
+        <v>44800</v>
+      </c>
+      <c r="L216">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M216">
+        <f>VLOOKUP(A216,Balance!E:L,8,FALSE)/2</f>
+        <v>413250</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1" t="str">
+        <f t="shared" ref="B217:C217" si="215">B216</f>
+        <v>1-1</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="215"/>
+        <v>9031</v>
+      </c>
+      <c r="D217">
+        <f>VLOOKUP(A217,Balance!E:K,7,FALSE)</f>
+        <v>208500</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F217" s="2">
+        <f>VLOOKUP(A217,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="G217">
+        <f t="shared" ref="G217:I217" si="216">G216</f>
+        <v>1000</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="216"/>
+        <v>8</v>
+      </c>
+      <c r="I217">
+        <f t="shared" si="216"/>
+        <v>0</v>
+      </c>
+      <c r="J217" t="s">
+        <v>60</v>
+      </c>
+      <c r="K217">
+        <f t="shared" si="173"/>
+        <v>45000</v>
+      </c>
+      <c r="L217">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M217">
+        <f>VLOOKUP(A217,Balance!E:L,8,FALSE)/2</f>
+        <v>417000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1" t="str">
+        <f t="shared" ref="B218:C218" si="217">B217</f>
+        <v>1-1</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="217"/>
+        <v>9031</v>
+      </c>
+      <c r="D218">
+        <f>VLOOKUP(A218,Balance!E:K,7,FALSE)</f>
+        <v>210375</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F218" s="2">
+        <f>VLOOKUP(A218,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="G218">
+        <f t="shared" ref="G218:I218" si="218">G217</f>
+        <v>1000</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="218"/>
+        <v>8</v>
+      </c>
+      <c r="I218">
+        <f t="shared" si="218"/>
+        <v>0</v>
+      </c>
+      <c r="J218" t="s">
+        <v>60</v>
+      </c>
+      <c r="K218">
+        <f t="shared" si="173"/>
+        <v>45200</v>
+      </c>
+      <c r="L218">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M218">
+        <f>VLOOKUP(A218,Balance!E:L,8,FALSE)/2</f>
+        <v>420750</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1" t="str">
+        <f t="shared" ref="B219:C219" si="219">B218</f>
+        <v>1-1</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="219"/>
+        <v>9031</v>
+      </c>
+      <c r="D219">
+        <f>VLOOKUP(A219,Balance!E:K,7,FALSE)</f>
+        <v>212250</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F219" s="2">
+        <f>VLOOKUP(A219,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="G219">
+        <f t="shared" ref="G219:I219" si="220">G218</f>
+        <v>1000</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="220"/>
+        <v>8</v>
+      </c>
+      <c r="I219">
+        <f t="shared" si="220"/>
+        <v>0</v>
+      </c>
+      <c r="J219" t="s">
+        <v>60</v>
+      </c>
+      <c r="K219">
+        <f t="shared" si="173"/>
+        <v>45400</v>
+      </c>
+      <c r="L219">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M219">
+        <f>VLOOKUP(A219,Balance!E:L,8,FALSE)/2</f>
+        <v>424500</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1" t="str">
+        <f t="shared" ref="B220:C220" si="221">B219</f>
+        <v>1-1</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="221"/>
+        <v>9031</v>
+      </c>
+      <c r="D220">
+        <f>VLOOKUP(A220,Balance!E:K,7,FALSE)</f>
+        <v>214125</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F220" s="2">
+        <f>VLOOKUP(A220,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="G220">
+        <f t="shared" ref="G220:I220" si="222">G219</f>
+        <v>1000</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="222"/>
+        <v>8</v>
+      </c>
+      <c r="I220">
+        <f t="shared" si="222"/>
+        <v>0</v>
+      </c>
+      <c r="J220" t="s">
+        <v>60</v>
+      </c>
+      <c r="K220">
+        <f t="shared" si="173"/>
+        <v>45600</v>
+      </c>
+      <c r="L220">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M220">
+        <f>VLOOKUP(A220,Balance!E:L,8,FALSE)/2</f>
+        <v>428250</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1" t="str">
+        <f t="shared" ref="B221:C221" si="223">B220</f>
+        <v>1-1</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="223"/>
+        <v>9031</v>
+      </c>
+      <c r="D221">
+        <f>VLOOKUP(A221,Balance!E:K,7,FALSE)</f>
+        <v>216000</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F221" s="2">
+        <f>VLOOKUP(A221,Balance!E:K,3,FALSE)</f>
+        <v>5E+128</v>
+      </c>
+      <c r="G221">
+        <f t="shared" ref="G221:I221" si="224">G220</f>
+        <v>1000</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="224"/>
+        <v>8</v>
+      </c>
+      <c r="I221">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="J221" t="s">
+        <v>60</v>
+      </c>
+      <c r="K221">
+        <f t="shared" si="173"/>
+        <v>45800</v>
+      </c>
+      <c r="L221">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M221">
+        <f>VLOOKUP(A221,Balance!E:L,8,FALSE)/2</f>
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1" t="str">
+        <f t="shared" ref="B222:C222" si="225">B221</f>
+        <v>1-1</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="225"/>
+        <v>9031</v>
+      </c>
+      <c r="D222">
+        <f>VLOOKUP(A222,Balance!E:K,7,FALSE)</f>
+        <v>217875</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F222" s="2">
+        <f>VLOOKUP(A222,Balance!E:K,3,FALSE)</f>
+        <v>1E+129</v>
+      </c>
+      <c r="G222">
+        <f t="shared" ref="G222:I222" si="226">G221</f>
+        <v>1000</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="226"/>
+        <v>8</v>
+      </c>
+      <c r="I222">
+        <f t="shared" si="226"/>
+        <v>0</v>
+      </c>
+      <c r="J222" t="s">
+        <v>60</v>
+      </c>
+      <c r="K222">
+        <f t="shared" si="173"/>
+        <v>46000</v>
+      </c>
+      <c r="L222">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M222">
+        <f>VLOOKUP(A222,Balance!E:L,8,FALSE)/2</f>
+        <v>435750</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1" t="str">
+        <f t="shared" ref="B223:C223" si="227">B222</f>
+        <v>1-1</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="227"/>
+        <v>9031</v>
+      </c>
+      <c r="D223">
+        <f>VLOOKUP(A223,Balance!E:K,7,FALSE)</f>
+        <v>219750</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F223" s="2">
+        <f>VLOOKUP(A223,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="G223">
+        <f t="shared" ref="G223:I223" si="228">G222</f>
+        <v>1000</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="228"/>
+        <v>8</v>
+      </c>
+      <c r="I223">
+        <f t="shared" si="228"/>
+        <v>0</v>
+      </c>
+      <c r="J223" t="s">
+        <v>60</v>
+      </c>
+      <c r="K223">
+        <f t="shared" si="173"/>
+        <v>46200</v>
+      </c>
+      <c r="L223">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M223">
+        <f>VLOOKUP(A223,Balance!E:L,8,FALSE)/2</f>
+        <v>439500</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1" t="str">
+        <f t="shared" ref="B224:C224" si="229">B223</f>
+        <v>1-1</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="229"/>
+        <v>9031</v>
+      </c>
+      <c r="D224">
+        <f>VLOOKUP(A224,Balance!E:K,7,FALSE)</f>
+        <v>221625</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F224" s="2">
+        <f>VLOOKUP(A224,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="G224">
+        <f t="shared" ref="G224:I224" si="230">G223</f>
+        <v>1000</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="230"/>
+        <v>8</v>
+      </c>
+      <c r="I224">
+        <f t="shared" si="230"/>
+        <v>0</v>
+      </c>
+      <c r="J224" t="s">
+        <v>60</v>
+      </c>
+      <c r="K224">
+        <f t="shared" si="173"/>
+        <v>46400</v>
+      </c>
+      <c r="L224">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M224">
+        <f>VLOOKUP(A224,Balance!E:L,8,FALSE)/2</f>
+        <v>443250</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1" t="str">
+        <f t="shared" ref="B225:C225" si="231">B224</f>
+        <v>1-1</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="231"/>
+        <v>9031</v>
+      </c>
+      <c r="D225">
+        <f>VLOOKUP(A225,Balance!E:K,7,FALSE)</f>
+        <v>223500</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F225" s="2">
+        <f>VLOOKUP(A225,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="G225">
+        <f t="shared" ref="G225:I225" si="232">G224</f>
+        <v>1000</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="232"/>
+        <v>8</v>
+      </c>
+      <c r="I225">
+        <f t="shared" si="232"/>
+        <v>0</v>
+      </c>
+      <c r="J225" t="s">
+        <v>60</v>
+      </c>
+      <c r="K225">
+        <f t="shared" si="173"/>
+        <v>46600</v>
+      </c>
+      <c r="L225">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M225">
+        <f>VLOOKUP(A225,Balance!E:L,8,FALSE)/2</f>
+        <v>447000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1" t="str">
+        <f t="shared" ref="B226:C226" si="233">B225</f>
+        <v>1-1</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="233"/>
+        <v>9031</v>
+      </c>
+      <c r="D226">
+        <f>VLOOKUP(A226,Balance!E:K,7,FALSE)</f>
+        <v>225375</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F226" s="2">
+        <f>VLOOKUP(A226,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="G226">
+        <f t="shared" ref="G226:I226" si="234">G225</f>
+        <v>1000</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="234"/>
+        <v>8</v>
+      </c>
+      <c r="I226">
+        <f t="shared" si="234"/>
+        <v>0</v>
+      </c>
+      <c r="J226" t="s">
+        <v>60</v>
+      </c>
+      <c r="K226">
+        <f t="shared" si="173"/>
+        <v>46800</v>
+      </c>
+      <c r="L226">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M226">
+        <f>VLOOKUP(A226,Balance!E:L,8,FALSE)/2</f>
+        <v>450750</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1" t="str">
+        <f t="shared" ref="B227:C227" si="235">B226</f>
+        <v>1-1</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="235"/>
+        <v>9031</v>
+      </c>
+      <c r="D227">
+        <f>VLOOKUP(A227,Balance!E:K,7,FALSE)</f>
+        <v>227375</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F227" s="2">
+        <f>VLOOKUP(A227,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="G227">
+        <f t="shared" ref="G227:I227" si="236">G226</f>
+        <v>1000</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="236"/>
+        <v>8</v>
+      </c>
+      <c r="I227">
+        <f t="shared" si="236"/>
+        <v>0</v>
+      </c>
+      <c r="J227" t="s">
+        <v>60</v>
+      </c>
+      <c r="K227">
+        <f t="shared" si="173"/>
+        <v>47000</v>
+      </c>
+      <c r="L227">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M227">
+        <f>VLOOKUP(A227,Balance!E:L,8,FALSE)/2</f>
+        <v>454750</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L213">
+  <conditionalFormatting sqref="A2:L227">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -11996,7 +12724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:Z234"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B210" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -19475,7 +20203,7 @@
         <v>살</v>
       </c>
       <c r="J201" s="16" t="str">
-        <f t="shared" ref="J201:J264" si="27">VLOOKUP(I201,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J201:J234" si="27">VLOOKUP(I201,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K201" s="22">

--- a/Assets/06.Table/DosulTower.xlsx
+++ b/Assets/06.Table/DosulTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68477B43-C62C-4369-BDFD-571707ED1156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB18E05E-48FD-4323-9ECF-38952173F2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="66">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,14 @@
   </si>
   <si>
     <t>위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,11 +910,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M227"/>
+  <dimension ref="A1:M243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F230" sqref="F230"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E231" sqref="E231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11061,7 +11069,7 @@
         <v>171000</v>
       </c>
       <c r="E196">
-        <f t="shared" ref="E196:E227" si="171">E195</f>
+        <f t="shared" ref="E196:E243" si="171">E195</f>
         <v>1</v>
       </c>
       <c r="F196" s="2">
@@ -11084,11 +11092,11 @@
         <v>60</v>
       </c>
       <c r="K196">
-        <f t="shared" ref="K196:K227" si="173">K195+200</f>
+        <f t="shared" ref="K196:K243" si="173">K195+200</f>
         <v>40800</v>
       </c>
       <c r="L196">
-        <f t="shared" ref="L196:L227" si="174">L195</f>
+        <f t="shared" ref="L196:L243" si="174">L195</f>
         <v>9031</v>
       </c>
       <c r="M196">
@@ -12708,9 +12716,841 @@
         <v>454750</v>
       </c>
     </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1" t="str">
+        <f t="shared" ref="B228:C228" si="237">B227</f>
+        <v>1-1</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="237"/>
+        <v>9031</v>
+      </c>
+      <c r="D228">
+        <f>VLOOKUP(A228,Balance!E:K,7,FALSE)</f>
+        <v>229375</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F228" s="2">
+        <f>VLOOKUP(A228,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="G228">
+        <f t="shared" ref="G228:I228" si="238">G227</f>
+        <v>1000</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="238"/>
+        <v>8</v>
+      </c>
+      <c r="I228">
+        <f t="shared" si="238"/>
+        <v>0</v>
+      </c>
+      <c r="J228" t="s">
+        <v>60</v>
+      </c>
+      <c r="K228">
+        <f t="shared" si="173"/>
+        <v>47200</v>
+      </c>
+      <c r="L228">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M228">
+        <f>VLOOKUP(A228,Balance!E:L,8,FALSE)/2</f>
+        <v>458750</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1" t="str">
+        <f t="shared" ref="B229:C229" si="239">B228</f>
+        <v>1-1</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="239"/>
+        <v>9031</v>
+      </c>
+      <c r="D229">
+        <f>VLOOKUP(A229,Balance!E:K,7,FALSE)</f>
+        <v>231375</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F229" s="2">
+        <f>VLOOKUP(A229,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000001E+132</v>
+      </c>
+      <c r="G229">
+        <f t="shared" ref="G229:I229" si="240">G228</f>
+        <v>1000</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="240"/>
+        <v>8</v>
+      </c>
+      <c r="I229">
+        <f t="shared" si="240"/>
+        <v>0</v>
+      </c>
+      <c r="J229" t="s">
+        <v>60</v>
+      </c>
+      <c r="K229">
+        <f t="shared" si="173"/>
+        <v>47400</v>
+      </c>
+      <c r="L229">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M229">
+        <f>VLOOKUP(A229,Balance!E:L,8,FALSE)/2</f>
+        <v>462750</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1" t="str">
+        <f t="shared" ref="B230:C230" si="241">B229</f>
+        <v>1-1</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="241"/>
+        <v>9031</v>
+      </c>
+      <c r="D230">
+        <f>VLOOKUP(A230,Balance!E:K,7,FALSE)</f>
+        <v>233375</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F230" s="2">
+        <f>VLOOKUP(A230,Balance!E:K,3,FALSE)</f>
+        <v>1E+133</v>
+      </c>
+      <c r="G230">
+        <f t="shared" ref="G230:I230" si="242">G229</f>
+        <v>1000</v>
+      </c>
+      <c r="H230">
+        <f t="shared" si="242"/>
+        <v>8</v>
+      </c>
+      <c r="I230">
+        <f t="shared" si="242"/>
+        <v>0</v>
+      </c>
+      <c r="J230" t="s">
+        <v>60</v>
+      </c>
+      <c r="K230">
+        <f t="shared" si="173"/>
+        <v>47600</v>
+      </c>
+      <c r="L230">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M230">
+        <f>VLOOKUP(A230,Balance!E:L,8,FALSE)/2</f>
+        <v>466750</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1" t="str">
+        <f t="shared" ref="B231:C231" si="243">B230</f>
+        <v>1-1</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="243"/>
+        <v>9031</v>
+      </c>
+      <c r="D231">
+        <f>VLOOKUP(A231,Balance!E:K,7,FALSE)</f>
+        <v>235375</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F231" s="2">
+        <f>VLOOKUP(A231,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999996E+133</v>
+      </c>
+      <c r="G231">
+        <f t="shared" ref="G231:I231" si="244">G230</f>
+        <v>1000</v>
+      </c>
+      <c r="H231">
+        <f t="shared" si="244"/>
+        <v>8</v>
+      </c>
+      <c r="I231">
+        <f t="shared" si="244"/>
+        <v>0</v>
+      </c>
+      <c r="J231" t="s">
+        <v>60</v>
+      </c>
+      <c r="K231">
+        <f t="shared" si="173"/>
+        <v>47800</v>
+      </c>
+      <c r="L231">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M231">
+        <f>VLOOKUP(A231,Balance!E:L,8,FALSE)/2</f>
+        <v>470750</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1" t="str">
+        <f t="shared" ref="B232:C232" si="245">B231</f>
+        <v>1-1</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="245"/>
+        <v>9031</v>
+      </c>
+      <c r="D232">
+        <f>VLOOKUP(A232,Balance!E:K,7,FALSE)</f>
+        <v>237375</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F232" s="2">
+        <f>VLOOKUP(A232,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999992E+133</v>
+      </c>
+      <c r="G232">
+        <f t="shared" ref="G232:I232" si="246">G231</f>
+        <v>1000</v>
+      </c>
+      <c r="H232">
+        <f t="shared" si="246"/>
+        <v>8</v>
+      </c>
+      <c r="I232">
+        <f t="shared" si="246"/>
+        <v>0</v>
+      </c>
+      <c r="J232" t="s">
+        <v>60</v>
+      </c>
+      <c r="K232">
+        <f t="shared" si="173"/>
+        <v>48000</v>
+      </c>
+      <c r="L232">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M232">
+        <f>VLOOKUP(A232,Balance!E:L,8,FALSE)/2</f>
+        <v>474750</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1" t="str">
+        <f t="shared" ref="B233:C233" si="247">B232</f>
+        <v>1-1</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="247"/>
+        <v>9031</v>
+      </c>
+      <c r="D233">
+        <f>VLOOKUP(A233,Balance!E:K,7,FALSE)</f>
+        <v>239375</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F233" s="2">
+        <f>VLOOKUP(A233,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999998E+134</v>
+      </c>
+      <c r="G233">
+        <f t="shared" ref="G233:I233" si="248">G232</f>
+        <v>1000</v>
+      </c>
+      <c r="H233">
+        <f t="shared" si="248"/>
+        <v>8</v>
+      </c>
+      <c r="I233">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="J233" t="s">
+        <v>60</v>
+      </c>
+      <c r="K233">
+        <f t="shared" si="173"/>
+        <v>48200</v>
+      </c>
+      <c r="L233">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M233">
+        <f>VLOOKUP(A233,Balance!E:L,8,FALSE)/2</f>
+        <v>478750</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1" t="str">
+        <f t="shared" ref="B234:C234" si="249">B233</f>
+        <v>1-1</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="249"/>
+        <v>9031</v>
+      </c>
+      <c r="D234">
+        <f>VLOOKUP(A234,Balance!E:K,7,FALSE)</f>
+        <v>241375</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F234" s="2">
+        <f>VLOOKUP(A234,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999996E+134</v>
+      </c>
+      <c r="G234">
+        <f t="shared" ref="G234:I234" si="250">G233</f>
+        <v>1000</v>
+      </c>
+      <c r="H234">
+        <f t="shared" si="250"/>
+        <v>8</v>
+      </c>
+      <c r="I234">
+        <f t="shared" si="250"/>
+        <v>0</v>
+      </c>
+      <c r="J234" t="s">
+        <v>60</v>
+      </c>
+      <c r="K234">
+        <f t="shared" si="173"/>
+        <v>48400</v>
+      </c>
+      <c r="L234">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M234">
+        <f>VLOOKUP(A234,Balance!E:L,8,FALSE)/2</f>
+        <v>482750</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1" t="str">
+        <f t="shared" ref="B235:C235" si="251">B234</f>
+        <v>1-1</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="251"/>
+        <v>9031</v>
+      </c>
+      <c r="D235">
+        <f>VLOOKUP(A235,Balance!E:K,7,FALSE)</f>
+        <v>243375</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F235" s="2">
+        <f>VLOOKUP(A235,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999996E+135</v>
+      </c>
+      <c r="G235">
+        <f t="shared" ref="G235:I235" si="252">G234</f>
+        <v>1000</v>
+      </c>
+      <c r="H235">
+        <f t="shared" si="252"/>
+        <v>8</v>
+      </c>
+      <c r="I235">
+        <f t="shared" si="252"/>
+        <v>0</v>
+      </c>
+      <c r="J235" t="s">
+        <v>60</v>
+      </c>
+      <c r="K235">
+        <f t="shared" si="173"/>
+        <v>48600</v>
+      </c>
+      <c r="L235">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M235">
+        <f>VLOOKUP(A235,Balance!E:L,8,FALSE)/2</f>
+        <v>486750</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1" t="str">
+        <f t="shared" ref="B236:C236" si="253">B235</f>
+        <v>1-1</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="253"/>
+        <v>9031</v>
+      </c>
+      <c r="D236">
+        <f>VLOOKUP(A236,Balance!E:K,7,FALSE)</f>
+        <v>245375</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F236" s="2">
+        <f>VLOOKUP(A236,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="G236">
+        <f t="shared" ref="G236:I236" si="254">G235</f>
+        <v>1000</v>
+      </c>
+      <c r="H236">
+        <f t="shared" si="254"/>
+        <v>8</v>
+      </c>
+      <c r="I236">
+        <f t="shared" si="254"/>
+        <v>0</v>
+      </c>
+      <c r="J236" t="s">
+        <v>60</v>
+      </c>
+      <c r="K236">
+        <f t="shared" si="173"/>
+        <v>48800</v>
+      </c>
+      <c r="L236">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M236">
+        <f>VLOOKUP(A236,Balance!E:L,8,FALSE)/2</f>
+        <v>490750</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1" t="str">
+        <f t="shared" ref="B237:C237" si="255">B236</f>
+        <v>1-1</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="255"/>
+        <v>9031</v>
+      </c>
+      <c r="D237">
+        <f>VLOOKUP(A237,Balance!E:K,7,FALSE)</f>
+        <v>247375</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F237" s="2">
+        <f>VLOOKUP(A237,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+136</v>
+      </c>
+      <c r="G237">
+        <f t="shared" ref="G237:I237" si="256">G236</f>
+        <v>1000</v>
+      </c>
+      <c r="H237">
+        <f t="shared" si="256"/>
+        <v>8</v>
+      </c>
+      <c r="I237">
+        <f t="shared" si="256"/>
+        <v>0</v>
+      </c>
+      <c r="J237" t="s">
+        <v>60</v>
+      </c>
+      <c r="K237">
+        <f t="shared" si="173"/>
+        <v>49000</v>
+      </c>
+      <c r="L237">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M237">
+        <f>VLOOKUP(A237,Balance!E:L,8,FALSE)/2</f>
+        <v>494750</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1" t="str">
+        <f t="shared" ref="B238:C238" si="257">B237</f>
+        <v>1-1</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="257"/>
+        <v>9031</v>
+      </c>
+      <c r="D238">
+        <f>VLOOKUP(A238,Balance!E:K,7,FALSE)</f>
+        <v>249375</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F238" s="2">
+        <f>VLOOKUP(A238,Balance!E:K,3,FALSE)</f>
+        <v>1E+137</v>
+      </c>
+      <c r="G238">
+        <f t="shared" ref="G238:I238" si="258">G237</f>
+        <v>1000</v>
+      </c>
+      <c r="H238">
+        <f t="shared" si="258"/>
+        <v>8</v>
+      </c>
+      <c r="I238">
+        <f t="shared" si="258"/>
+        <v>0</v>
+      </c>
+      <c r="J238" t="s">
+        <v>60</v>
+      </c>
+      <c r="K238">
+        <f t="shared" si="173"/>
+        <v>49200</v>
+      </c>
+      <c r="L238">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M238">
+        <f>VLOOKUP(A238,Balance!E:L,8,FALSE)/2</f>
+        <v>498750</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1" t="str">
+        <f t="shared" ref="B239:C239" si="259">B238</f>
+        <v>1-1</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="259"/>
+        <v>9031</v>
+      </c>
+      <c r="D239">
+        <f>VLOOKUP(A239,Balance!E:K,7,FALSE)</f>
+        <v>251375</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F239" s="2">
+        <f>VLOOKUP(A239,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+137</v>
+      </c>
+      <c r="G239">
+        <f t="shared" ref="G239:I239" si="260">G238</f>
+        <v>1000</v>
+      </c>
+      <c r="H239">
+        <f t="shared" si="260"/>
+        <v>8</v>
+      </c>
+      <c r="I239">
+        <f t="shared" si="260"/>
+        <v>0</v>
+      </c>
+      <c r="J239" t="s">
+        <v>60</v>
+      </c>
+      <c r="K239">
+        <f t="shared" si="173"/>
+        <v>49400</v>
+      </c>
+      <c r="L239">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M239">
+        <f>VLOOKUP(A239,Balance!E:L,8,FALSE)/2</f>
+        <v>502750</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1" t="str">
+        <f t="shared" ref="B240:C240" si="261">B239</f>
+        <v>1-1</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="261"/>
+        <v>9031</v>
+      </c>
+      <c r="D240">
+        <f>VLOOKUP(A240,Balance!E:K,7,FALSE)</f>
+        <v>253375</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F240" s="2">
+        <f>VLOOKUP(A240,Balance!E:K,3,FALSE)</f>
+        <v>1E+138</v>
+      </c>
+      <c r="G240">
+        <f t="shared" ref="G240:I240" si="262">G239</f>
+        <v>1000</v>
+      </c>
+      <c r="H240">
+        <f t="shared" si="262"/>
+        <v>8</v>
+      </c>
+      <c r="I240">
+        <f t="shared" si="262"/>
+        <v>0</v>
+      </c>
+      <c r="J240" t="s">
+        <v>60</v>
+      </c>
+      <c r="K240">
+        <f t="shared" si="173"/>
+        <v>49600</v>
+      </c>
+      <c r="L240">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M240">
+        <f>VLOOKUP(A240,Balance!E:L,8,FALSE)/2</f>
+        <v>506750</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1" t="str">
+        <f t="shared" ref="B241:C241" si="263">B240</f>
+        <v>1-1</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="263"/>
+        <v>9031</v>
+      </c>
+      <c r="D241">
+        <f>VLOOKUP(A241,Balance!E:K,7,FALSE)</f>
+        <v>255375</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F241" s="2">
+        <f>VLOOKUP(A241,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+138</v>
+      </c>
+      <c r="G241">
+        <f t="shared" ref="G241:I241" si="264">G240</f>
+        <v>1000</v>
+      </c>
+      <c r="H241">
+        <f t="shared" si="264"/>
+        <v>8</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="J241" t="s">
+        <v>60</v>
+      </c>
+      <c r="K241">
+        <f t="shared" si="173"/>
+        <v>49800</v>
+      </c>
+      <c r="L241">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M241">
+        <f>VLOOKUP(A241,Balance!E:L,8,FALSE)/2</f>
+        <v>510750</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1" t="str">
+        <f t="shared" ref="B242:C242" si="265">B241</f>
+        <v>1-1</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="265"/>
+        <v>9031</v>
+      </c>
+      <c r="D242">
+        <f>VLOOKUP(A242,Balance!E:K,7,FALSE)</f>
+        <v>257500</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F242" s="2">
+        <f>VLOOKUP(A242,Balance!E:K,3,FALSE)</f>
+        <v>1E+139</v>
+      </c>
+      <c r="G242">
+        <f t="shared" ref="G242:I242" si="266">G241</f>
+        <v>1000</v>
+      </c>
+      <c r="H242">
+        <f t="shared" si="266"/>
+        <v>8</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="J242" t="s">
+        <v>60</v>
+      </c>
+      <c r="K242">
+        <f t="shared" si="173"/>
+        <v>50000</v>
+      </c>
+      <c r="L242">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M242">
+        <f>VLOOKUP(A242,Balance!E:L,8,FALSE)/2</f>
+        <v>515000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1" t="str">
+        <f t="shared" ref="B243:C243" si="267">B242</f>
+        <v>1-1</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="267"/>
+        <v>9031</v>
+      </c>
+      <c r="D243">
+        <f>VLOOKUP(A243,Balance!E:K,7,FALSE)</f>
+        <v>259625</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F243" s="2">
+        <f>VLOOKUP(A243,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000003E+139</v>
+      </c>
+      <c r="G243">
+        <f t="shared" ref="G243:I243" si="268">G242</f>
+        <v>1000</v>
+      </c>
+      <c r="H243">
+        <f t="shared" si="268"/>
+        <v>8</v>
+      </c>
+      <c r="I243">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="J243" t="s">
+        <v>60</v>
+      </c>
+      <c r="K243">
+        <f t="shared" si="173"/>
+        <v>50200</v>
+      </c>
+      <c r="L243">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M243">
+        <f>VLOOKUP(A243,Balance!E:L,8,FALSE)/2</f>
+        <v>519250</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L227">
+  <conditionalFormatting sqref="A2:L243">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -12722,10 +13562,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z234"/>
+  <dimension ref="A1:Z250"/>
   <sheetViews>
-    <sheetView topLeftCell="B210" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="B225" workbookViewId="0">
+      <selection activeCell="E235" sqref="E235:E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14460,8 +15300,20 @@
         <v>27000</v>
       </c>
       <c r="M40" s="22"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
+      <c r="N40" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" s="16">
+        <v>132</v>
+      </c>
+      <c r="P40" s="17">
+        <f t="shared" ref="P40:P41" si="11">POWER(10,O40)</f>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="Q40" s="17" t="str">
+        <f t="shared" ref="Q40:Q41" si="12">RIGHT(P40,O40)</f>
+        <v>1E+132</v>
+      </c>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
@@ -14505,8 +15357,20 @@
         <v>28500</v>
       </c>
       <c r="M41" s="22"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
+      <c r="N41" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O41" s="16">
+        <v>136</v>
+      </c>
+      <c r="P41" s="17">
+        <f t="shared" si="11"/>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="Q41" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+136</v>
+      </c>
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
@@ -15715,7 +16579,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F132" si="11">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="13">H69&amp;I69</f>
         <v>10극</v>
       </c>
       <c r="G69" s="17">
@@ -15749,7 +16613,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50극</v>
       </c>
       <c r="G70" s="17">
@@ -15783,7 +16647,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100극</v>
       </c>
       <c r="G71" s="17">
@@ -15817,7 +16681,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500극</v>
       </c>
       <c r="G72" s="17">
@@ -15851,7 +16715,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000극</v>
       </c>
       <c r="G73" s="17">
@@ -15867,7 +16731,7 @@
         <v>극</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J136" si="12">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="14">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="K73" s="22">
@@ -15885,11 +16749,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000극</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G137" si="13">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="15">H74*J74</f>
         <v>5E+51</v>
       </c>
       <c r="H74" s="17">
@@ -15901,11 +16765,11 @@
         <v>극</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+48</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" ref="K74:K137" si="14">L74*0.25</f>
+        <f t="shared" ref="K74:K137" si="16">L74*0.25</f>
         <v>22875</v>
       </c>
       <c r="L74" s="22">
@@ -15919,11 +16783,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1항</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="H75" s="17">
@@ -15935,15 +16799,15 @@
         <v>항</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+52</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>23500</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" ref="L75:L138" si="15">L74+500+QUOTIENT(E75,15)*500</f>
+        <f t="shared" ref="L75:L138" si="17">L74+500+QUOTIENT(E75,15)*500</f>
         <v>94000</v>
       </c>
       <c r="M75" s="22"/>
@@ -15953,11 +16817,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5항</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5E+52</v>
       </c>
       <c r="H76" s="17">
@@ -15969,15 +16833,15 @@
         <v>항</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+52</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>24125</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>96500</v>
       </c>
       <c r="M76" s="22"/>
@@ -15987,11 +16851,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10항</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999999E+52</v>
       </c>
       <c r="H77" s="17">
@@ -16003,15 +16867,15 @@
         <v>항</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+52</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>24750</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>99000</v>
       </c>
       <c r="M77" s="22"/>
@@ -16021,11 +16885,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50항</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000004E+53</v>
       </c>
       <c r="H78" s="17">
@@ -16037,15 +16901,15 @@
         <v>항</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+52</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>25375</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>101500</v>
       </c>
       <c r="M78" s="22"/>
@@ -16055,11 +16919,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100항</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+54</v>
       </c>
       <c r="H79" s="17">
@@ -16071,15 +16935,15 @@
         <v>항</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+52</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>26000</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>104000</v>
       </c>
       <c r="M79" s="22"/>
@@ -16089,11 +16953,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500항</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E+54</v>
       </c>
       <c r="H80" s="17">
@@ -16105,15 +16969,15 @@
         <v>항</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+52</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>26625</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>106500</v>
       </c>
       <c r="M80" s="22"/>
@@ -16123,11 +16987,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000항</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+55</v>
       </c>
       <c r="H81" s="17">
@@ -16139,15 +17003,15 @@
         <v>항</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+52</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>27250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>109000</v>
       </c>
       <c r="M81" s="22"/>
@@ -16157,15 +17021,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000항</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000005E+55</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" ref="H82:H145" si="16">H74</f>
+        <f t="shared" ref="H82:H145" si="18">H74</f>
         <v>5000</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -16173,11 +17037,11 @@
         <v>항</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+52</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>27875</v>
       </c>
       <c r="L82" s="22">
@@ -16191,15 +17055,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1아</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -16207,15 +17071,15 @@
         <v>아</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+56</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>114000</v>
       </c>
       <c r="M83" s="22"/>
@@ -16225,15 +17089,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5아</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000002E+56</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -16241,15 +17105,15 @@
         <v>아</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+56</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>29250</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>117000</v>
       </c>
       <c r="M84" s="22"/>
@@ -16259,15 +17123,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10아</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+57</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -16275,15 +17139,15 @@
         <v>아</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+56</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>120000</v>
       </c>
       <c r="M85" s="22"/>
@@ -16293,15 +17157,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50아</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000004E+57</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -16309,15 +17173,15 @@
         <v>아</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+56</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>30750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>123000</v>
       </c>
       <c r="M86" s="22"/>
@@ -16327,15 +17191,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100아</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+58</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -16343,15 +17207,15 @@
         <v>아</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+56</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>31500</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>126000</v>
       </c>
       <c r="M87" s="22"/>
@@ -16361,15 +17225,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500아</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000004E+58</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -16377,15 +17241,15 @@
         <v>아</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+56</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32250</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>129000</v>
       </c>
       <c r="M88" s="22"/>
@@ -16395,15 +17259,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000아</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+59</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -16411,15 +17275,15 @@
         <v>아</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+56</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>33000</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>132000</v>
       </c>
       <c r="M89" s="22"/>
@@ -16429,15 +17293,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000아</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000006E+59</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -16445,15 +17309,15 @@
         <v>아</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+56</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>33750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>135000</v>
       </c>
       <c r="M90" s="22"/>
@@ -16463,15 +17327,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1나</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -16479,15 +17343,15 @@
         <v>나</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+60</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>34500</v>
       </c>
       <c r="L91" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>138000</v>
       </c>
       <c r="M91" s="22"/>
@@ -16497,15 +17361,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5나</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999997E+60</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -16513,15 +17377,15 @@
         <v>나</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+60</v>
       </c>
       <c r="K92" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>35250</v>
       </c>
       <c r="L92" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>141000</v>
       </c>
       <c r="M92" s="22"/>
@@ -16531,15 +17395,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10나</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999995E+60</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -16547,15 +17411,15 @@
         <v>나</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+60</v>
       </c>
       <c r="K93" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>36000</v>
       </c>
       <c r="L93" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>144000</v>
       </c>
       <c r="M93" s="22"/>
@@ -16565,15 +17429,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50나</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999996E+61</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -16581,15 +17445,15 @@
         <v>나</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+60</v>
       </c>
       <c r="K94" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>36750</v>
       </c>
       <c r="L94" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>147000</v>
       </c>
       <c r="M94" s="22"/>
@@ -16599,15 +17463,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100나</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999992E+61</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -16615,15 +17479,15 @@
         <v>나</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+60</v>
       </c>
       <c r="K95" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>37500</v>
       </c>
       <c r="L95" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>150000</v>
       </c>
       <c r="M95" s="22"/>
@@ -16633,15 +17497,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500나</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999994E+62</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -16649,15 +17513,15 @@
         <v>나</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+60</v>
       </c>
       <c r="K96" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>38250</v>
       </c>
       <c r="L96" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>153000</v>
       </c>
       <c r="M96" s="22"/>
@@ -16667,15 +17531,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000나</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999988E+62</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -16683,15 +17547,15 @@
         <v>나</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+60</v>
       </c>
       <c r="K97" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>39000</v>
       </c>
       <c r="L97" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>156000</v>
       </c>
       <c r="M97" s="22"/>
@@ -16701,15 +17565,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000나</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E+63</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -16717,15 +17581,15 @@
         <v>나</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+60</v>
       </c>
       <c r="K98" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>39750</v>
       </c>
       <c r="L98" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>159000</v>
       </c>
       <c r="M98" s="22"/>
@@ -16735,15 +17599,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1불</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+64</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -16751,15 +17615,15 @@
         <v>불</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+64</v>
       </c>
       <c r="K99" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>40625</v>
       </c>
       <c r="L99" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>162500</v>
       </c>
       <c r="M99" s="22"/>
@@ -16769,15 +17633,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5불</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5E+64</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -16785,15 +17649,15 @@
         <v>불</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+64</v>
       </c>
       <c r="K100" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>41500</v>
       </c>
       <c r="L100" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>166000</v>
       </c>
       <c r="M100" s="22"/>
@@ -16803,15 +17667,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10불</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999999E+64</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -16819,15 +17683,15 @@
         <v>불</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+64</v>
       </c>
       <c r="K101" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>42375</v>
       </c>
       <c r="L101" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>169500</v>
       </c>
       <c r="M101" s="22"/>
@@ -16837,15 +17701,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50불</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999997E+65</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -16853,15 +17717,15 @@
         <v>불</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+64</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>43250</v>
       </c>
       <c r="L102" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>173000</v>
       </c>
       <c r="M102" s="22"/>
@@ -16871,15 +17735,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100불</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999995E+65</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -16887,15 +17751,15 @@
         <v>불</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+64</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>44125</v>
       </c>
       <c r="L103" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>176500</v>
       </c>
       <c r="M103" s="22"/>
@@ -16905,15 +17769,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500불</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999999E+66</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -16921,15 +17785,15 @@
         <v>불</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+64</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45000</v>
       </c>
       <c r="L104" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>180000</v>
       </c>
       <c r="M104" s="22"/>
@@ -16939,15 +17803,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000불</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999998E+66</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -16955,15 +17819,15 @@
         <v>불</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+64</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45875</v>
       </c>
       <c r="L105" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>183500</v>
       </c>
       <c r="M105" s="22"/>
@@ -16973,15 +17837,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000불</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000004E+67</v>
       </c>
       <c r="H106" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -16989,15 +17853,15 @@
         <v>불</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+64</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>46750</v>
       </c>
       <c r="L106" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>187000</v>
       </c>
       <c r="M106" s="22"/>
@@ -17007,15 +17871,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1무</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="H107" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -17023,15 +17887,15 @@
         <v>무</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+68</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>47625</v>
       </c>
       <c r="L107" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>190500</v>
       </c>
       <c r="M107" s="22"/>
@@ -17041,15 +17905,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5무</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999994E+68</v>
       </c>
       <c r="H108" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -17057,15 +17921,15 @@
         <v>무</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+68</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>48500</v>
       </c>
       <c r="L108" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>194000</v>
       </c>
       <c r="M108" s="22"/>
@@ -17075,15 +17939,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10무</v>
       </c>
       <c r="G109" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999988E+68</v>
       </c>
       <c r="H109" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -17091,15 +17955,15 @@
         <v>무</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+68</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>49375</v>
       </c>
       <c r="L109" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197500</v>
       </c>
       <c r="M109" s="22"/>
@@ -17109,15 +17973,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50무</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999996E+69</v>
       </c>
       <c r="H110" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -17125,15 +17989,15 @@
         <v>무</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+68</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>50250</v>
       </c>
       <c r="L110" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>201000</v>
       </c>
       <c r="M110" s="22"/>
@@ -17143,15 +18007,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100무</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="H111" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -17159,15 +18023,15 @@
         <v>무</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+68</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>51125</v>
       </c>
       <c r="L111" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>204500</v>
       </c>
       <c r="M111" s="22"/>
@@ -17177,15 +18041,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500무</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999996E+70</v>
       </c>
       <c r="H112" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -17193,15 +18057,15 @@
         <v>무</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+68</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>52000</v>
       </c>
       <c r="L112" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>208000</v>
       </c>
       <c r="M112" s="22"/>
@@ -17211,15 +18075,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000무</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -17227,15 +18091,15 @@
         <v>무</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+68</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>52875</v>
       </c>
       <c r="L113" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>211500</v>
       </c>
       <c r="M113" s="22"/>
@@ -17245,15 +18109,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000무</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999997E+71</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -17261,15 +18125,15 @@
         <v>무</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+68</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>53875</v>
       </c>
       <c r="L114" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>215500</v>
       </c>
       <c r="M114" s="22"/>
@@ -17279,15 +18143,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1대</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -17295,15 +18159,15 @@
         <v>대</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+72</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>54875</v>
       </c>
       <c r="L115" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>219500</v>
       </c>
       <c r="M115" s="22"/>
@@ -17313,15 +18177,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5대</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999999E+72</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -17329,15 +18193,15 @@
         <v>대</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+72</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>55875</v>
       </c>
       <c r="L116" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>223500</v>
       </c>
       <c r="M116" s="22"/>
@@ -17347,15 +18211,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10대</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -17363,15 +18227,15 @@
         <v>대</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+72</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>56875</v>
       </c>
       <c r="L117" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>227500</v>
       </c>
       <c r="M117" s="22"/>
@@ -17381,15 +18245,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50대</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999998E+73</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -17397,15 +18261,15 @@
         <v>대</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+72</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>57875</v>
       </c>
       <c r="L118" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>231500</v>
       </c>
       <c r="M118" s="22"/>
@@ -17415,15 +18279,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100대</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -17431,15 +18295,15 @@
         <v>대</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+72</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>58875</v>
       </c>
       <c r="L119" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>235500</v>
       </c>
       <c r="M119" s="22"/>
@@ -17449,15 +18313,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500대</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999996E+74</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -17465,15 +18329,15 @@
         <v>대</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+72</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>59875</v>
       </c>
       <c r="L120" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>239500</v>
       </c>
       <c r="M120" s="22"/>
@@ -17483,15 +18347,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000대</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -17499,15 +18363,15 @@
         <v>대</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+72</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>60875</v>
       </c>
       <c r="L121" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>243500</v>
       </c>
       <c r="M121" s="22"/>
@@ -17517,15 +18381,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000대</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999994E+75</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -17533,15 +18397,15 @@
         <v>대</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+72</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>61875</v>
       </c>
       <c r="L122" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>247500</v>
       </c>
       <c r="M122" s="22"/>
@@ -17551,15 +18415,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1겁</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+76</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -17567,15 +18431,15 @@
         <v>겁</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+76</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>62875</v>
       </c>
       <c r="L123" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>251500</v>
       </c>
       <c r="M123" s="22"/>
@@ -17585,15 +18449,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5겁</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000006E+76</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -17601,15 +18465,15 @@
         <v>겁</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+76</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>63875</v>
       </c>
       <c r="L124" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>255500</v>
       </c>
       <c r="M124" s="22"/>
@@ -17619,15 +18483,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10겁</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -17635,15 +18499,15 @@
         <v>겁</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+76</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>64875</v>
       </c>
       <c r="L125" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>259500</v>
       </c>
       <c r="M125" s="22"/>
@@ -17653,15 +18517,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50겁</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5E+77</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -17669,15 +18533,15 @@
         <v>겁</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+76</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>65875</v>
       </c>
       <c r="L126" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>263500</v>
       </c>
       <c r="M126" s="22"/>
@@ -17687,15 +18551,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100겁</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+78</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -17703,15 +18567,15 @@
         <v>겁</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+76</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>66875</v>
       </c>
       <c r="L127" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>267500</v>
       </c>
       <c r="M127" s="22"/>
@@ -17721,15 +18585,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500겁</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999998E+78</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -17737,15 +18601,15 @@
         <v>겁</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+76</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>67875</v>
       </c>
       <c r="L128" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>271500</v>
       </c>
       <c r="M128" s="22"/>
@@ -17755,15 +18619,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1000겁</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -17771,15 +18635,15 @@
         <v>겁</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+76</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69000</v>
       </c>
       <c r="L129" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>276000</v>
       </c>
       <c r="M129" s="22"/>
@@ -17789,15 +18653,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5000겁</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5E+79</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -17805,15 +18669,15 @@
         <v>겁</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+76</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>70125</v>
       </c>
       <c r="L130" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>280500</v>
       </c>
       <c r="M130" s="22"/>
@@ -17823,15 +18687,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1업</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+80</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -17839,15 +18703,15 @@
         <v>업</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+80</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>71250</v>
       </c>
       <c r="L131" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>285000</v>
       </c>
       <c r="M131" s="22"/>
@@ -17857,15 +18721,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5업</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999996E+80</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -17873,15 +18737,15 @@
         <v>업</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+80</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>72375</v>
       </c>
       <c r="L132" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>289500</v>
       </c>
       <c r="M132" s="22"/>
@@ -17891,15 +18755,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" ref="F133:F184" si="17">H133&amp;I133</f>
+        <f t="shared" ref="F133:F184" si="19">H133&amp;I133</f>
         <v>10업</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -17907,15 +18771,15 @@
         <v>업</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+80</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>73500</v>
       </c>
       <c r="L133" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>294000</v>
       </c>
       <c r="M133" s="22"/>
@@ -17925,15 +18789,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50업</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9999999999999998E+81</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -17941,15 +18805,15 @@
         <v>업</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+80</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>74625</v>
       </c>
       <c r="L134" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>298500</v>
       </c>
       <c r="M134" s="22"/>
@@ -17959,15 +18823,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100업</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -17975,15 +18839,15 @@
         <v>업</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+80</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>75750</v>
       </c>
       <c r="L135" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>303000</v>
       </c>
       <c r="M135" s="22"/>
@@ -17993,15 +18857,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500업</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000002E+82</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -18009,15 +18873,15 @@
         <v>업</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1E+80</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>76875</v>
       </c>
       <c r="L136" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>307500</v>
       </c>
       <c r="M136" s="22"/>
@@ -18027,15 +18891,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000업</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1E+83</v>
       </c>
       <c r="H137" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I137" s="16" t="str" cm="1">
@@ -18043,15 +18907,15 @@
         <v>업</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" ref="J137:J200" si="18">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="20">VLOOKUP(I137,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>78000</v>
       </c>
       <c r="L137" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>312000</v>
       </c>
       <c r="M137" s="22"/>
@@ -18061,15 +18925,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000업</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" ref="G138:G184" si="19">H138*J138</f>
+        <f t="shared" ref="G138:G184" si="21">H138*J138</f>
         <v>5.0000000000000003E+83</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="I138" s="16" t="str" cm="1">
@@ -18077,15 +18941,15 @@
         <v>업</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+80</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" ref="K138:K184" si="20">L138*0.25</f>
+        <f t="shared" ref="K138:K184" si="22">L138*0.25</f>
         <v>79125</v>
       </c>
       <c r="L138" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>316500</v>
       </c>
       <c r="M138" s="22"/>
@@ -18095,15 +18959,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1긍</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I139" s="16" t="str" cm="1">
@@ -18111,15 +18975,15 @@
         <v>긍</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+84</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>80250</v>
       </c>
       <c r="L139" s="22">
-        <f t="shared" ref="L139:L184" si="21">L138+500+QUOTIENT(E139,15)*500</f>
+        <f t="shared" ref="L139:L184" si="23">L138+500+QUOTIENT(E139,15)*500</f>
         <v>321000</v>
       </c>
       <c r="M139" s="22"/>
@@ -18129,15 +18993,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5긍</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000001E+84</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I140" s="16" t="str" cm="1">
@@ -18145,15 +19009,15 @@
         <v>긍</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+84</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>81375</v>
       </c>
       <c r="L140" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>325500</v>
       </c>
       <c r="M140" s="22"/>
@@ -18163,15 +19027,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10긍</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+85</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="I141" s="16" t="str" cm="1">
@@ -18179,15 +19043,15 @@
         <v>긍</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+84</v>
       </c>
       <c r="K141" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>82500</v>
       </c>
       <c r="L141" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>330000</v>
       </c>
       <c r="M141" s="22"/>
@@ -18197,15 +19061,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50긍</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000001E+85</v>
       </c>
       <c r="H142" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I142" s="16" t="str" cm="1">
@@ -18213,15 +19077,15 @@
         <v>긍</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+84</v>
       </c>
       <c r="K142" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>83625</v>
       </c>
       <c r="L142" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>334500</v>
       </c>
       <c r="M142" s="22"/>
@@ -18231,15 +19095,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100긍</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+86</v>
       </c>
       <c r="H143" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="I143" s="16" t="str" cm="1">
@@ -18247,15 +19111,15 @@
         <v>긍</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+84</v>
       </c>
       <c r="K143" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>84750</v>
       </c>
       <c r="L143" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>339000</v>
       </c>
       <c r="M143" s="22"/>
@@ -18265,15 +19129,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500긍</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999998E+86</v>
       </c>
       <c r="H144" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="I144" s="16" t="str" cm="1">
@@ -18281,15 +19145,15 @@
         <v>긍</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+84</v>
       </c>
       <c r="K144" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>86000</v>
       </c>
       <c r="L144" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>344000</v>
       </c>
       <c r="M144" s="22"/>
@@ -18299,15 +19163,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000긍</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="H145" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="I145" s="16" t="str" cm="1">
@@ -18315,15 +19179,15 @@
         <v>긍</v>
       </c>
       <c r="J145" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+84</v>
       </c>
       <c r="K145" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>87250</v>
       </c>
       <c r="L145" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>349000</v>
       </c>
       <c r="M145" s="22"/>
@@ -18333,15 +19197,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000긍</v>
       </c>
       <c r="G146" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000007E+87</v>
       </c>
       <c r="H146" s="17">
-        <f t="shared" ref="H146:H234" si="22">H138</f>
+        <f t="shared" ref="H146:H251" si="24">H138</f>
         <v>5000</v>
       </c>
       <c r="I146" s="16" t="str" cm="1">
@@ -18349,15 +19213,15 @@
         <v>긍</v>
       </c>
       <c r="J146" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+84</v>
       </c>
       <c r="K146" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>88500</v>
       </c>
       <c r="L146" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>354000</v>
       </c>
       <c r="M146" s="22"/>
@@ -18367,15 +19231,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1갈</v>
       </c>
       <c r="G147" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="H147" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I147" s="16" t="str" cm="1">
@@ -18383,15 +19247,15 @@
         <v>갈</v>
       </c>
       <c r="J147" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+88</v>
       </c>
       <c r="K147" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>89750</v>
       </c>
       <c r="L147" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>359000</v>
       </c>
       <c r="M147" s="22"/>
@@ -18401,15 +19265,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5갈</v>
       </c>
       <c r="G148" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5E+88</v>
       </c>
       <c r="H148" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I148" s="16" t="str" cm="1">
@@ -18417,15 +19281,15 @@
         <v>갈</v>
       </c>
       <c r="J148" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+88</v>
       </c>
       <c r="K148" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>91000</v>
       </c>
       <c r="L148" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>364000</v>
       </c>
       <c r="M148" s="22"/>
@@ -18435,15 +19299,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10갈</v>
       </c>
       <c r="G149" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="H149" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I149" s="16" t="str" cm="1">
@@ -18451,15 +19315,15 @@
         <v>갈</v>
       </c>
       <c r="J149" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+88</v>
       </c>
       <c r="K149" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>92250</v>
       </c>
       <c r="L149" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>369000</v>
       </c>
       <c r="M149" s="22"/>
@@ -18469,15 +19333,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50갈</v>
       </c>
       <c r="G150" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999998E+89</v>
       </c>
       <c r="H150" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I150" s="16" t="str" cm="1">
@@ -18485,15 +19349,15 @@
         <v>갈</v>
       </c>
       <c r="J150" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+88</v>
       </c>
       <c r="K150" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>93500</v>
       </c>
       <c r="L150" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>374000</v>
       </c>
       <c r="M150" s="22"/>
@@ -18503,15 +19367,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100갈</v>
       </c>
       <c r="G151" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="H151" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I151" s="16" t="str" cm="1">
@@ -18519,15 +19383,15 @@
         <v>갈</v>
       </c>
       <c r="J151" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+88</v>
       </c>
       <c r="K151" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>94750</v>
       </c>
       <c r="L151" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>379000</v>
       </c>
       <c r="M151" s="22"/>
@@ -18537,15 +19401,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500갈</v>
       </c>
       <c r="G152" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999995E+90</v>
       </c>
       <c r="H152" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I152" s="16" t="str" cm="1">
@@ -18553,15 +19417,15 @@
         <v>갈</v>
       </c>
       <c r="J152" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+88</v>
       </c>
       <c r="K152" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>96000</v>
       </c>
       <c r="L152" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>384000</v>
       </c>
       <c r="M152" s="22"/>
@@ -18571,15 +19435,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000갈</v>
       </c>
       <c r="G153" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="H153" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I153" s="16" t="str" cm="1">
@@ -18587,15 +19451,15 @@
         <v>갈</v>
       </c>
       <c r="J153" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+88</v>
       </c>
       <c r="K153" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>97250</v>
       </c>
       <c r="L153" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>389000</v>
       </c>
       <c r="M153" s="22"/>
@@ -18605,15 +19469,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000갈</v>
       </c>
       <c r="G154" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999995E+91</v>
       </c>
       <c r="H154" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I154" s="16" t="str" cm="1">
@@ -18621,15 +19485,15 @@
         <v>갈</v>
       </c>
       <c r="J154" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+88</v>
       </c>
       <c r="K154" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>98500</v>
       </c>
       <c r="L154" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>394000</v>
       </c>
       <c r="M154" s="22"/>
@@ -18639,15 +19503,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1라</v>
       </c>
       <c r="G155" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+92</v>
       </c>
       <c r="H155" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I155" s="16" t="str" cm="1">
@@ -18655,15 +19519,15 @@
         <v>라</v>
       </c>
       <c r="J155" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+92</v>
       </c>
       <c r="K155" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>99750</v>
       </c>
       <c r="L155" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>399000</v>
       </c>
       <c r="M155" s="22"/>
@@ -18673,15 +19537,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5라</v>
       </c>
       <c r="G156" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000002E+92</v>
       </c>
       <c r="H156" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I156" s="16" t="str" cm="1">
@@ -18689,15 +19553,15 @@
         <v>라</v>
       </c>
       <c r="J156" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+92</v>
       </c>
       <c r="K156" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>101000</v>
       </c>
       <c r="L156" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>404000</v>
       </c>
       <c r="M156" s="22"/>
@@ -18707,15 +19571,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10라</v>
       </c>
       <c r="G157" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+93</v>
       </c>
       <c r="H157" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I157" s="16" t="str" cm="1">
@@ -18723,15 +19587,15 @@
         <v>라</v>
       </c>
       <c r="J157" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+92</v>
       </c>
       <c r="K157" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>102250</v>
       </c>
       <c r="L157" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>409000</v>
       </c>
       <c r="M157" s="22"/>
@@ -18741,15 +19605,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50라</v>
       </c>
       <c r="G158" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000001E+93</v>
       </c>
       <c r="H158" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I158" s="16" t="str" cm="1">
@@ -18757,15 +19621,15 @@
         <v>라</v>
       </c>
       <c r="J158" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+92</v>
       </c>
       <c r="K158" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>103500</v>
       </c>
       <c r="L158" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>414000</v>
       </c>
       <c r="M158" s="22"/>
@@ -18775,15 +19639,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100라</v>
       </c>
       <c r="G159" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+94</v>
       </c>
       <c r="H159" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I159" s="16" t="str" cm="1">
@@ -18791,15 +19655,15 @@
         <v>라</v>
       </c>
       <c r="J159" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+92</v>
       </c>
       <c r="K159" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>104875</v>
       </c>
       <c r="L159" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>419500</v>
       </c>
       <c r="M159" s="22"/>
@@ -18809,15 +19673,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500라</v>
       </c>
       <c r="G160" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000001E+94</v>
       </c>
       <c r="H160" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I160" s="16" t="str" cm="1">
@@ -18825,15 +19689,15 @@
         <v>라</v>
       </c>
       <c r="J160" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+92</v>
       </c>
       <c r="K160" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>106250</v>
       </c>
       <c r="L160" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>425000</v>
       </c>
       <c r="M160" s="22"/>
@@ -18843,15 +19707,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000라</v>
       </c>
       <c r="G161" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+95</v>
       </c>
       <c r="H161" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I161" s="16" t="str" cm="1">
@@ -18859,15 +19723,15 @@
         <v>라</v>
       </c>
       <c r="J161" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+92</v>
       </c>
       <c r="K161" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>107625</v>
       </c>
       <c r="L161" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>430500</v>
       </c>
       <c r="M161" s="22"/>
@@ -18877,15 +19741,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000라</v>
       </c>
       <c r="G162" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000002E+95</v>
       </c>
       <c r="H162" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I162" s="16" t="str" cm="1">
@@ -18893,15 +19757,15 @@
         <v>라</v>
       </c>
       <c r="J162" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+92</v>
       </c>
       <c r="K162" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>109000</v>
       </c>
       <c r="L162" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>436000</v>
       </c>
       <c r="M162" s="22"/>
@@ -18911,15 +19775,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1가</v>
       </c>
       <c r="G163" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+96</v>
       </c>
       <c r="H163" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I163" s="16" t="str" cm="1">
@@ -18927,15 +19791,15 @@
         <v>가</v>
       </c>
       <c r="J163" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+96</v>
       </c>
       <c r="K163" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>110375</v>
       </c>
       <c r="L163" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>441500</v>
       </c>
       <c r="M163" s="22"/>
@@ -18945,15 +19809,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5가</v>
       </c>
       <c r="G164" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H164" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I164" s="16" t="str" cm="1">
@@ -18961,15 +19825,15 @@
         <v>가</v>
       </c>
       <c r="J164" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+96</v>
       </c>
       <c r="K164" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>111750</v>
       </c>
       <c r="L164" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>447000</v>
       </c>
       <c r="M164" s="22"/>
@@ -18979,15 +19843,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10가</v>
       </c>
       <c r="G165" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H165" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I165" s="16" t="str" cm="1">
@@ -18995,15 +19859,15 @@
         <v>가</v>
       </c>
       <c r="J165" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+96</v>
       </c>
       <c r="K165" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>113125</v>
       </c>
       <c r="L165" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>452500</v>
       </c>
       <c r="M165" s="22"/>
@@ -19013,15 +19877,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50가</v>
       </c>
       <c r="G166" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5E+97</v>
       </c>
       <c r="H166" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I166" s="16" t="str" cm="1">
@@ -19029,15 +19893,15 @@
         <v>가</v>
       </c>
       <c r="J166" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+96</v>
       </c>
       <c r="K166" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>114500</v>
       </c>
       <c r="L166" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>458000</v>
       </c>
       <c r="M166" s="22"/>
@@ -19047,15 +19911,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100가</v>
       </c>
       <c r="G167" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+98</v>
       </c>
       <c r="H167" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I167" s="16" t="str" cm="1">
@@ -19063,15 +19927,15 @@
         <v>가</v>
       </c>
       <c r="J167" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+96</v>
       </c>
       <c r="K167" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>115875</v>
       </c>
       <c r="L167" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>463500</v>
       </c>
       <c r="M167" s="22"/>
@@ -19081,15 +19945,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500가</v>
       </c>
       <c r="G168" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H168" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I168" s="16" t="str" cm="1">
@@ -19097,15 +19961,15 @@
         <v>가</v>
       </c>
       <c r="J168" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+96</v>
       </c>
       <c r="K168" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>117250</v>
       </c>
       <c r="L168" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>469000</v>
       </c>
       <c r="M168" s="22"/>
@@ -19115,15 +19979,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000가</v>
       </c>
       <c r="G169" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H169" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I169" s="16" t="str" cm="1">
@@ -19131,15 +19995,15 @@
         <v>가</v>
       </c>
       <c r="J169" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+96</v>
       </c>
       <c r="K169" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>118625</v>
       </c>
       <c r="L169" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>474500</v>
       </c>
       <c r="M169" s="22"/>
@@ -19149,15 +20013,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000가</v>
       </c>
       <c r="G170" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H170" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I170" s="16" t="str" cm="1">
@@ -19165,15 +20029,15 @@
         <v>가</v>
       </c>
       <c r="J170" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+96</v>
       </c>
       <c r="K170" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>120000</v>
       </c>
       <c r="L170" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>480000</v>
       </c>
       <c r="M170" s="22"/>
@@ -19183,15 +20047,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1언</v>
       </c>
       <c r="G171" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+100</v>
       </c>
       <c r="H171" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I171" s="16" t="str" cm="1">
@@ -19199,15 +20063,15 @@
         <v>언</v>
       </c>
       <c r="J171" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+100</v>
       </c>
       <c r="K171" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>121375</v>
       </c>
       <c r="L171" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>485500</v>
       </c>
       <c r="M171" s="22"/>
@@ -19217,15 +20081,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5언</v>
       </c>
       <c r="G172" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H172" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I172" s="16" t="str" cm="1">
@@ -19233,15 +20097,15 @@
         <v>언</v>
       </c>
       <c r="J172" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+100</v>
       </c>
       <c r="K172" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>122750</v>
       </c>
       <c r="L172" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>491000</v>
       </c>
       <c r="M172" s="22"/>
@@ -19251,15 +20115,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10언</v>
       </c>
       <c r="G173" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H173" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I173" s="16" t="str" cm="1">
@@ -19267,15 +20131,15 @@
         <v>언</v>
       </c>
       <c r="J173" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+100</v>
       </c>
       <c r="K173" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>124125</v>
       </c>
       <c r="L173" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>496500</v>
       </c>
       <c r="M173" s="22"/>
@@ -19285,15 +20149,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50언</v>
       </c>
       <c r="G174" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H174" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I174" s="16" t="str" cm="1">
@@ -19301,15 +20165,15 @@
         <v>언</v>
       </c>
       <c r="J174" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+100</v>
       </c>
       <c r="K174" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>125625</v>
       </c>
       <c r="L174" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>502500</v>
       </c>
       <c r="M174" s="22"/>
@@ -19319,15 +20183,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100언</v>
       </c>
       <c r="G175" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H175" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I175" s="16" t="str" cm="1">
@@ -19335,15 +20199,15 @@
         <v>언</v>
       </c>
       <c r="J175" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+100</v>
       </c>
       <c r="K175" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>127125</v>
       </c>
       <c r="L175" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>508500</v>
       </c>
       <c r="M175" s="22"/>
@@ -19353,15 +20217,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500언</v>
       </c>
       <c r="G176" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5E+102</v>
       </c>
       <c r="H176" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I176" s="16" t="str" cm="1">
@@ -19369,15 +20233,15 @@
         <v>언</v>
       </c>
       <c r="J176" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+100</v>
       </c>
       <c r="K176" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>128625</v>
       </c>
       <c r="L176" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>514500</v>
       </c>
       <c r="M176" s="22"/>
@@ -19387,15 +20251,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000언</v>
       </c>
       <c r="G177" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+103</v>
       </c>
       <c r="H177" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I177" s="16" t="str" cm="1">
@@ -19403,15 +20267,15 @@
         <v>언</v>
       </c>
       <c r="J177" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+100</v>
       </c>
       <c r="K177" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>130125</v>
       </c>
       <c r="L177" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>520500</v>
       </c>
       <c r="M177" s="22"/>
@@ -19421,15 +20285,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000언</v>
       </c>
       <c r="G178" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5E+103</v>
       </c>
       <c r="H178" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I178" s="16" t="str" cm="1">
@@ -19437,15 +20301,15 @@
         <v>언</v>
       </c>
       <c r="J178" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+100</v>
       </c>
       <c r="K178" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>131625</v>
       </c>
       <c r="L178" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>526500</v>
       </c>
       <c r="M178" s="22"/>
@@ -19455,15 +20319,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1승</v>
       </c>
       <c r="G179" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+104</v>
       </c>
       <c r="H179" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I179" s="16" t="str" cm="1">
@@ -19471,15 +20335,15 @@
         <v>승</v>
       </c>
       <c r="J179" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+104</v>
       </c>
       <c r="K179" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>133125</v>
       </c>
       <c r="L179" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>532500</v>
       </c>
       <c r="M179" s="22"/>
@@ -19489,15 +20353,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5승</v>
       </c>
       <c r="G180" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H180" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I180" s="16" t="str" cm="1">
@@ -19505,15 +20369,15 @@
         <v>승</v>
       </c>
       <c r="J180" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+104</v>
       </c>
       <c r="K180" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>134625</v>
       </c>
       <c r="L180" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>538500</v>
       </c>
       <c r="M180" s="22"/>
@@ -19523,15 +20387,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10승</v>
       </c>
       <c r="G181" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H181" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I181" s="16" t="str" cm="1">
@@ -19539,15 +20403,15 @@
         <v>승</v>
       </c>
       <c r="J181" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+104</v>
       </c>
       <c r="K181" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>136125</v>
       </c>
       <c r="L181" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>544500</v>
       </c>
       <c r="M181" s="22"/>
@@ -19557,15 +20421,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50승</v>
       </c>
       <c r="G182" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H182" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I182" s="16" t="str" cm="1">
@@ -19573,15 +20437,15 @@
         <v>승</v>
       </c>
       <c r="J182" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+104</v>
       </c>
       <c r="K182" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>137625</v>
       </c>
       <c r="L182" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>550500</v>
       </c>
       <c r="M182" s="22"/>
@@ -19591,15 +20455,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100승</v>
       </c>
       <c r="G183" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H183" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I183" s="16" t="str" cm="1">
@@ -19607,15 +20471,15 @@
         <v>승</v>
       </c>
       <c r="J183" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+104</v>
       </c>
       <c r="K183" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>139125</v>
       </c>
       <c r="L183" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>556500</v>
       </c>
       <c r="M183" s="22"/>
@@ -19625,15 +20489,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500승</v>
       </c>
       <c r="G184" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H184" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I184" s="16" t="str" cm="1">
@@ -19641,15 +20505,15 @@
         <v>승</v>
       </c>
       <c r="J184" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+104</v>
       </c>
       <c r="K184" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>140625</v>
       </c>
       <c r="L184" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>562500</v>
       </c>
       <c r="M184" s="22"/>
@@ -19659,15 +20523,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="17" t="str">
-        <f t="shared" ref="F185:F234" si="23">H185&amp;I185</f>
+        <f t="shared" ref="F185:F234" si="25">H185&amp;I185</f>
         <v>1000승</v>
       </c>
       <c r="G185" s="17">
-        <f t="shared" ref="G185:G234" si="24">H185*J185</f>
+        <f t="shared" ref="G185:G234" si="26">H185*J185</f>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H185" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I185" s="16" t="str" cm="1">
@@ -19675,15 +20539,15 @@
         <v>승</v>
       </c>
       <c r="J185" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+104</v>
       </c>
       <c r="K185" s="22">
-        <f t="shared" ref="K185:K234" si="25">L185*0.25</f>
+        <f t="shared" ref="K185:K234" si="27">L185*0.25</f>
         <v>142125</v>
       </c>
       <c r="L185" s="22">
-        <f t="shared" ref="L185:L234" si="26">L184+500+QUOTIENT(E185,15)*500</f>
+        <f t="shared" ref="L185:L234" si="28">L184+500+QUOTIENT(E185,15)*500</f>
         <v>568500</v>
       </c>
     </row>
@@ -19692,15 +20556,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000승</v>
       </c>
       <c r="G186" s="17">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000002E+107</v>
+      </c>
+      <c r="H186" s="17">
         <f t="shared" si="24"/>
-        <v>5.0000000000000002E+107</v>
-      </c>
-      <c r="H186" s="17">
-        <f t="shared" si="22"/>
         <v>5000</v>
       </c>
       <c r="I186" s="16" t="str" cm="1">
@@ -19708,15 +20572,15 @@
         <v>승</v>
       </c>
       <c r="J186" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+104</v>
       </c>
       <c r="K186" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>143625</v>
       </c>
       <c r="L186" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>574500</v>
       </c>
     </row>
@@ -19725,15 +20589,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1마</v>
       </c>
       <c r="G187" s="17">
+        <f t="shared" si="26"/>
+        <v>1E+108</v>
+      </c>
+      <c r="H187" s="17">
         <f t="shared" si="24"/>
-        <v>1E+108</v>
-      </c>
-      <c r="H187" s="17">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I187" s="16" t="str" cm="1">
@@ -19741,15 +20605,15 @@
         <v>마</v>
       </c>
       <c r="J187" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
       <c r="K187" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>145125</v>
       </c>
       <c r="L187" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>580500</v>
       </c>
     </row>
@@ -19758,15 +20622,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5마</v>
       </c>
       <c r="G188" s="17">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999999E+108</v>
+      </c>
+      <c r="H188" s="17">
         <f t="shared" si="24"/>
-        <v>4.9999999999999999E+108</v>
-      </c>
-      <c r="H188" s="17">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I188" s="16" t="str" cm="1">
@@ -19774,15 +20638,15 @@
         <v>마</v>
       </c>
       <c r="J188" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
       <c r="K188" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>146625</v>
       </c>
       <c r="L188" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>586500</v>
       </c>
     </row>
@@ -19791,15 +20655,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10마</v>
       </c>
       <c r="G189" s="17">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999998E+108</v>
+      </c>
+      <c r="H189" s="17">
         <f t="shared" si="24"/>
-        <v>9.9999999999999998E+108</v>
-      </c>
-      <c r="H189" s="17">
-        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="I189" s="16" t="str" cm="1">
@@ -19807,15 +20671,15 @@
         <v>마</v>
       </c>
       <c r="J189" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
       <c r="K189" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>148250</v>
       </c>
       <c r="L189" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>593000</v>
       </c>
     </row>
@@ -19824,15 +20688,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50마</v>
       </c>
       <c r="G190" s="17">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000001E+109</v>
+      </c>
+      <c r="H190" s="17">
         <f t="shared" si="24"/>
-        <v>5.0000000000000001E+109</v>
-      </c>
-      <c r="H190" s="17">
-        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="I190" s="16" t="str" cm="1">
@@ -19840,15 +20704,15 @@
         <v>마</v>
       </c>
       <c r="J190" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
       <c r="K190" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>149875</v>
       </c>
       <c r="L190" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>599500</v>
       </c>
     </row>
@@ -19857,15 +20721,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100마</v>
       </c>
       <c r="G191" s="17">
+        <f t="shared" si="26"/>
+        <v>1E+110</v>
+      </c>
+      <c r="H191" s="17">
         <f t="shared" si="24"/>
-        <v>1E+110</v>
-      </c>
-      <c r="H191" s="17">
-        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="I191" s="16" t="str" cm="1">
@@ -19873,15 +20737,15 @@
         <v>마</v>
       </c>
       <c r="J191" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
       <c r="K191" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>151500</v>
       </c>
       <c r="L191" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>606000</v>
       </c>
     </row>
@@ -19890,15 +20754,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500마</v>
       </c>
       <c r="G192" s="17">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000005E+110</v>
+      </c>
+      <c r="H192" s="17">
         <f t="shared" si="24"/>
-        <v>5.0000000000000005E+110</v>
-      </c>
-      <c r="H192" s="17">
-        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="I192" s="16" t="str" cm="1">
@@ -19906,15 +20770,15 @@
         <v>마</v>
       </c>
       <c r="J192" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
       <c r="K192" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>153125</v>
       </c>
       <c r="L192" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>612500</v>
       </c>
     </row>
@@ -19923,15 +20787,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000마</v>
       </c>
       <c r="G193" s="17">
+        <f t="shared" si="26"/>
+        <v>1.0000000000000001E+111</v>
+      </c>
+      <c r="H193" s="17">
         <f t="shared" si="24"/>
-        <v>1.0000000000000001E+111</v>
-      </c>
-      <c r="H193" s="17">
-        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="I193" s="16" t="str" cm="1">
@@ -19939,15 +20803,15 @@
         <v>마</v>
       </c>
       <c r="J193" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
       <c r="K193" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>154750</v>
       </c>
       <c r="L193" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>619000</v>
       </c>
     </row>
@@ -19956,15 +20820,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000마</v>
       </c>
       <c r="G194" s="17">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999997E+111</v>
+      </c>
+      <c r="H194" s="17">
         <f t="shared" si="24"/>
-        <v>4.9999999999999997E+111</v>
-      </c>
-      <c r="H194" s="17">
-        <f t="shared" si="22"/>
         <v>5000</v>
       </c>
       <c r="I194" s="16" t="str" cm="1">
@@ -19972,15 +20836,15 @@
         <v>마</v>
       </c>
       <c r="J194" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
       <c r="K194" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>156375</v>
       </c>
       <c r="L194" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>625500</v>
       </c>
     </row>
@@ -19989,15 +20853,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1살</v>
       </c>
       <c r="G195" s="17">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999993E+111</v>
+      </c>
+      <c r="H195" s="17">
         <f t="shared" si="24"/>
-        <v>9.9999999999999993E+111</v>
-      </c>
-      <c r="H195" s="17">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I195" s="16" t="str" cm="1">
@@ -20005,15 +20869,15 @@
         <v>살</v>
       </c>
       <c r="J195" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="K195" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>158000</v>
       </c>
       <c r="L195" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>632000</v>
       </c>
     </row>
@@ -20022,15 +20886,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5살</v>
       </c>
       <c r="G196" s="17">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000001E+112</v>
+      </c>
+      <c r="H196" s="17">
         <f t="shared" si="24"/>
-        <v>5.0000000000000001E+112</v>
-      </c>
-      <c r="H196" s="17">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I196" s="16" t="str" cm="1">
@@ -20038,15 +20902,15 @@
         <v>살</v>
       </c>
       <c r="J196" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="K196" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>159625</v>
       </c>
       <c r="L196" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>638500</v>
       </c>
     </row>
@@ -20055,15 +20919,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10살</v>
       </c>
       <c r="G197" s="17">
+        <f t="shared" si="26"/>
+        <v>1E+113</v>
+      </c>
+      <c r="H197" s="17">
         <f t="shared" si="24"/>
-        <v>1E+113</v>
-      </c>
-      <c r="H197" s="17">
-        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="I197" s="16" t="str" cm="1">
@@ -20071,15 +20935,15 @@
         <v>살</v>
       </c>
       <c r="J197" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="K197" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>161250</v>
       </c>
       <c r="L197" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>645000</v>
       </c>
     </row>
@@ -20088,15 +20952,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50살</v>
       </c>
       <c r="G198" s="17">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999994E+113</v>
+      </c>
+      <c r="H198" s="17">
         <f t="shared" si="24"/>
-        <v>4.9999999999999994E+113</v>
-      </c>
-      <c r="H198" s="17">
-        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="I198" s="16" t="str" cm="1">
@@ -20104,15 +20968,15 @@
         <v>살</v>
       </c>
       <c r="J198" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="K198" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>162875</v>
       </c>
       <c r="L198" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>651500</v>
       </c>
     </row>
@@ -20121,15 +20985,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100살</v>
       </c>
       <c r="G199" s="17">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999988E+113</v>
+      </c>
+      <c r="H199" s="17">
         <f t="shared" si="24"/>
-        <v>9.9999999999999988E+113</v>
-      </c>
-      <c r="H199" s="17">
-        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="I199" s="16" t="str" cm="1">
@@ -20137,15 +21001,15 @@
         <v>살</v>
       </c>
       <c r="J199" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="K199" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>164500</v>
       </c>
       <c r="L199" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>658000</v>
       </c>
     </row>
@@ -20154,15 +21018,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500살</v>
       </c>
       <c r="G200" s="17">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000001E+114</v>
+      </c>
+      <c r="H200" s="17">
         <f t="shared" si="24"/>
-        <v>5.0000000000000001E+114</v>
-      </c>
-      <c r="H200" s="17">
-        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="I200" s="16" t="str" cm="1">
@@ -20170,15 +21034,15 @@
         <v>살</v>
       </c>
       <c r="J200" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="K200" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>166125</v>
       </c>
       <c r="L200" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>664500</v>
       </c>
     </row>
@@ -20187,15 +21051,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000살</v>
       </c>
       <c r="G201" s="17">
+        <f t="shared" si="26"/>
+        <v>1E+115</v>
+      </c>
+      <c r="H201" s="17">
         <f t="shared" si="24"/>
-        <v>1E+115</v>
-      </c>
-      <c r="H201" s="17">
-        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="I201" s="16" t="str" cm="1">
@@ -20203,15 +21067,15 @@
         <v>살</v>
       </c>
       <c r="J201" s="16" t="str">
-        <f t="shared" ref="J201:J234" si="27">VLOOKUP(I201,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J201:J234" si="29">VLOOKUP(I201,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K201" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>167750</v>
       </c>
       <c r="L201" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>671000</v>
       </c>
     </row>
@@ -20220,15 +21084,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000살</v>
       </c>
       <c r="G202" s="17">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000001E+115</v>
+      </c>
+      <c r="H202" s="17">
         <f t="shared" si="24"/>
-        <v>5.0000000000000001E+115</v>
-      </c>
-      <c r="H202" s="17">
-        <f t="shared" si="22"/>
         <v>5000</v>
       </c>
       <c r="I202" s="16" t="str" cm="1">
@@ -20236,15 +21100,15 @@
         <v>살</v>
       </c>
       <c r="J202" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K202" s="22">
         <f t="shared" si="27"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K202" s="22">
-        <f t="shared" si="25"/>
         <v>169375</v>
       </c>
       <c r="L202" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>677500</v>
       </c>
     </row>
@@ -20253,15 +21117,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1섬</v>
       </c>
       <c r="G203" s="17">
+        <f t="shared" si="26"/>
+        <v>1E+116</v>
+      </c>
+      <c r="H203" s="17">
         <f t="shared" si="24"/>
-        <v>1E+116</v>
-      </c>
-      <c r="H203" s="17">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I203" s="16" t="str" cm="1">
@@ -20269,15 +21133,15 @@
         <v>섬</v>
       </c>
       <c r="J203" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K203" s="22">
         <f t="shared" si="27"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K203" s="22">
-        <f t="shared" si="25"/>
         <v>171000</v>
       </c>
       <c r="L203" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>684000</v>
       </c>
     </row>
@@ -20286,15 +21150,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5섬</v>
       </c>
       <c r="G204" s="17">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000003E+116</v>
+      </c>
+      <c r="H204" s="17">
         <f t="shared" si="24"/>
-        <v>5.0000000000000003E+116</v>
-      </c>
-      <c r="H204" s="17">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I204" s="16" t="str" cm="1">
@@ -20302,15 +21166,15 @@
         <v>섬</v>
       </c>
       <c r="J204" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K204" s="22">
         <f t="shared" si="27"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K204" s="22">
-        <f t="shared" si="25"/>
         <v>172750</v>
       </c>
       <c r="L204" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>691000</v>
       </c>
     </row>
@@ -20319,15 +21183,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10섬</v>
       </c>
       <c r="G205" s="17">
+        <f t="shared" si="26"/>
+        <v>1.0000000000000001E+117</v>
+      </c>
+      <c r="H205" s="17">
         <f t="shared" si="24"/>
-        <v>1.0000000000000001E+117</v>
-      </c>
-      <c r="H205" s="17">
-        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="I205" s="16" t="str" cm="1">
@@ -20335,15 +21199,15 @@
         <v>섬</v>
       </c>
       <c r="J205" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K205" s="22">
         <f t="shared" si="27"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K205" s="22">
-        <f t="shared" si="25"/>
         <v>174500</v>
       </c>
       <c r="L205" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>698000</v>
       </c>
     </row>
@@ -20352,15 +21216,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50섬</v>
       </c>
       <c r="G206" s="17">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999998E+117</v>
+      </c>
+      <c r="H206" s="17">
         <f t="shared" si="24"/>
-        <v>4.9999999999999998E+117</v>
-      </c>
-      <c r="H206" s="17">
-        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="I206" s="16" t="str" cm="1">
@@ -20368,15 +21232,15 @@
         <v>섬</v>
       </c>
       <c r="J206" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K206" s="22">
         <f t="shared" si="27"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K206" s="22">
-        <f t="shared" si="25"/>
         <v>176250</v>
       </c>
       <c r="L206" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>705000</v>
       </c>
     </row>
@@ -20385,15 +21249,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100섬</v>
       </c>
       <c r="G207" s="17">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999997E+117</v>
+      </c>
+      <c r="H207" s="17">
         <f t="shared" si="24"/>
-        <v>9.9999999999999997E+117</v>
-      </c>
-      <c r="H207" s="17">
-        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="I207" s="16" t="str" cm="1">
@@ -20401,15 +21265,15 @@
         <v>섬</v>
       </c>
       <c r="J207" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K207" s="22">
         <f t="shared" si="27"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K207" s="22">
-        <f t="shared" si="25"/>
         <v>178000</v>
       </c>
       <c r="L207" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>712000</v>
       </c>
     </row>
@@ -20418,15 +21282,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500섬</v>
       </c>
       <c r="G208" s="17">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999997E+118</v>
+      </c>
+      <c r="H208" s="17">
         <f t="shared" si="24"/>
-        <v>4.9999999999999997E+118</v>
-      </c>
-      <c r="H208" s="17">
-        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="I208" s="16" t="str" cm="1">
@@ -20434,15 +21298,15 @@
         <v>섬</v>
       </c>
       <c r="J208" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K208" s="22">
         <f t="shared" si="27"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K208" s="22">
-        <f t="shared" si="25"/>
         <v>179750</v>
       </c>
       <c r="L208" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>719000</v>
       </c>
     </row>
@@ -20451,15 +21315,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000섬</v>
       </c>
       <c r="G209" s="17">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999994E+118</v>
+      </c>
+      <c r="H209" s="17">
         <f t="shared" si="24"/>
-        <v>9.9999999999999994E+118</v>
-      </c>
-      <c r="H209" s="17">
-        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="I209" s="16" t="str" cm="1">
@@ -20467,15 +21331,15 @@
         <v>섬</v>
       </c>
       <c r="J209" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K209" s="22">
         <f t="shared" si="27"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K209" s="22">
-        <f t="shared" si="25"/>
         <v>181500</v>
       </c>
       <c r="L209" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>726000</v>
       </c>
     </row>
@@ -20484,15 +21348,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000섬</v>
       </c>
       <c r="G210" s="17">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999999E+119</v>
+      </c>
+      <c r="H210" s="17">
         <f t="shared" si="24"/>
-        <v>4.9999999999999999E+119</v>
-      </c>
-      <c r="H210" s="17">
-        <f t="shared" si="22"/>
         <v>5000</v>
       </c>
       <c r="I210" s="16" t="str" cm="1">
@@ -20500,15 +21364,15 @@
         <v>섬</v>
       </c>
       <c r="J210" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K210" s="22">
         <f t="shared" si="27"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K210" s="22">
-        <f t="shared" si="25"/>
         <v>183250</v>
       </c>
       <c r="L210" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>733000</v>
       </c>
     </row>
@@ -20517,15 +21381,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1찰</v>
       </c>
       <c r="G211" s="17">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999998E+119</v>
+      </c>
+      <c r="H211" s="17">
         <f t="shared" si="24"/>
-        <v>9.9999999999999998E+119</v>
-      </c>
-      <c r="H211" s="17">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I211" s="16" t="str" cm="1">
@@ -20533,15 +21397,15 @@
         <v>찰</v>
       </c>
       <c r="J211" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K211" s="22">
         <f t="shared" si="27"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K211" s="22">
-        <f t="shared" si="25"/>
         <v>185000</v>
       </c>
       <c r="L211" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>740000</v>
       </c>
     </row>
@@ -20550,15 +21414,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5찰</v>
       </c>
       <c r="G212" s="17">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999996E+120</v>
+      </c>
+      <c r="H212" s="17">
         <f t="shared" si="24"/>
-        <v>4.9999999999999996E+120</v>
-      </c>
-      <c r="H212" s="17">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I212" s="16" t="str" cm="1">
@@ -20566,15 +21430,15 @@
         <v>찰</v>
       </c>
       <c r="J212" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K212" s="22">
         <f t="shared" si="27"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K212" s="22">
-        <f t="shared" si="25"/>
         <v>186750</v>
       </c>
       <c r="L212" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>747000</v>
       </c>
     </row>
@@ -20583,15 +21447,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10찰</v>
       </c>
       <c r="G213" s="17">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999992E+120</v>
+      </c>
+      <c r="H213" s="17">
         <f t="shared" si="24"/>
-        <v>9.9999999999999992E+120</v>
-      </c>
-      <c r="H213" s="17">
-        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="I213" s="16" t="str" cm="1">
@@ -20599,15 +21463,15 @@
         <v>찰</v>
       </c>
       <c r="J213" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K213" s="22">
         <f t="shared" si="27"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K213" s="22">
-        <f t="shared" si="25"/>
         <v>188500</v>
       </c>
       <c r="L213" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>754000</v>
       </c>
     </row>
@@ -20616,15 +21480,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50찰</v>
       </c>
       <c r="G214" s="17">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000001E+121</v>
+      </c>
+      <c r="H214" s="17">
         <f t="shared" si="24"/>
-        <v>5.0000000000000001E+121</v>
-      </c>
-      <c r="H214" s="17">
-        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="I214" s="16" t="str" cm="1">
@@ -20632,15 +21496,15 @@
         <v>찰</v>
       </c>
       <c r="J214" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K214" s="22">
         <f t="shared" si="27"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K214" s="22">
-        <f t="shared" si="25"/>
         <v>190250</v>
       </c>
       <c r="L214" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>761000</v>
       </c>
     </row>
@@ -20649,15 +21513,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100찰</v>
       </c>
       <c r="G215" s="17">
+        <f t="shared" si="26"/>
+        <v>1E+122</v>
+      </c>
+      <c r="H215" s="17">
         <f t="shared" si="24"/>
-        <v>1E+122</v>
-      </c>
-      <c r="H215" s="17">
-        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="I215" s="16" t="str" cm="1">
@@ -20665,15 +21529,15 @@
         <v>찰</v>
       </c>
       <c r="J215" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K215" s="22">
         <f t="shared" si="27"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K215" s="22">
-        <f t="shared" si="25"/>
         <v>192000</v>
       </c>
       <c r="L215" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>768000</v>
       </c>
     </row>
@@ -20682,15 +21546,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500찰</v>
       </c>
       <c r="G216" s="17">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999999E+122</v>
+      </c>
+      <c r="H216" s="17">
         <f t="shared" si="24"/>
-        <v>4.9999999999999999E+122</v>
-      </c>
-      <c r="H216" s="17">
-        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="I216" s="16" t="str" cm="1">
@@ -20698,15 +21562,15 @@
         <v>찰</v>
       </c>
       <c r="J216" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K216" s="22">
         <f t="shared" si="27"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K216" s="22">
-        <f t="shared" si="25"/>
         <v>193750</v>
       </c>
       <c r="L216" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>775000</v>
       </c>
     </row>
@@ -20715,15 +21579,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000찰</v>
       </c>
       <c r="G217" s="17">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999998E+122</v>
+      </c>
+      <c r="H217" s="17">
         <f t="shared" si="24"/>
-        <v>9.9999999999999998E+122</v>
-      </c>
-      <c r="H217" s="17">
-        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="I217" s="16" t="str" cm="1">
@@ -20731,15 +21595,15 @@
         <v>찰</v>
       </c>
       <c r="J217" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K217" s="22">
         <f t="shared" si="27"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K217" s="22">
-        <f t="shared" si="25"/>
         <v>195500</v>
       </c>
       <c r="L217" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>782000</v>
       </c>
     </row>
@@ -20748,15 +21612,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000찰</v>
       </c>
       <c r="G218" s="17">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999997E+123</v>
+      </c>
+      <c r="H218" s="17">
         <f t="shared" si="24"/>
-        <v>4.9999999999999997E+123</v>
-      </c>
-      <c r="H218" s="17">
-        <f t="shared" si="22"/>
         <v>5000</v>
       </c>
       <c r="I218" s="16" t="str" cm="1">
@@ -20764,15 +21628,15 @@
         <v>찰</v>
       </c>
       <c r="J218" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K218" s="22">
         <f t="shared" si="27"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K218" s="22">
-        <f t="shared" si="25"/>
         <v>197250</v>
       </c>
       <c r="L218" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>789000</v>
       </c>
     </row>
@@ -20781,15 +21645,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1교</v>
       </c>
       <c r="G219" s="17">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="H219" s="17">
         <f t="shared" si="24"/>
-        <v>9.9999999999999995E+123</v>
-      </c>
-      <c r="H219" s="17">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I219" s="16" t="str" cm="1">
@@ -20797,15 +21661,15 @@
         <v>교</v>
       </c>
       <c r="J219" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K219" s="22">
         <f t="shared" si="27"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K219" s="22">
-        <f t="shared" si="25"/>
         <v>199125</v>
       </c>
       <c r="L219" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>796500</v>
       </c>
     </row>
@@ -20814,15 +21678,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5교</v>
       </c>
       <c r="G220" s="17">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999996E+124</v>
+      </c>
+      <c r="H220" s="17">
         <f t="shared" si="24"/>
-        <v>4.9999999999999996E+124</v>
-      </c>
-      <c r="H220" s="17">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I220" s="16" t="str" cm="1">
@@ -20830,15 +21694,15 @@
         <v>교</v>
       </c>
       <c r="J220" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K220" s="22">
         <f t="shared" si="27"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K220" s="22">
-        <f t="shared" si="25"/>
         <v>201000</v>
       </c>
       <c r="L220" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>804000</v>
       </c>
     </row>
@@ -20847,15 +21711,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10교</v>
       </c>
       <c r="G221" s="17">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999992E+124</v>
+      </c>
+      <c r="H221" s="17">
         <f t="shared" si="24"/>
-        <v>9.9999999999999992E+124</v>
-      </c>
-      <c r="H221" s="17">
-        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="I221" s="16" t="str" cm="1">
@@ -20863,15 +21727,15 @@
         <v>교</v>
       </c>
       <c r="J221" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K221" s="22">
         <f t="shared" si="27"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K221" s="22">
-        <f t="shared" si="25"/>
         <v>202875</v>
       </c>
       <c r="L221" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>811500</v>
       </c>
     </row>
@@ -20880,15 +21744,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50교</v>
       </c>
       <c r="G222" s="17">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999996E+125</v>
+      </c>
+      <c r="H222" s="17">
         <f t="shared" si="24"/>
-        <v>4.9999999999999996E+125</v>
-      </c>
-      <c r="H222" s="17">
-        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="I222" s="16" t="str" cm="1">
@@ -20896,15 +21760,15 @@
         <v>교</v>
       </c>
       <c r="J222" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K222" s="22">
         <f t="shared" si="27"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K222" s="22">
-        <f t="shared" si="25"/>
         <v>204750</v>
       </c>
       <c r="L222" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>819000</v>
       </c>
     </row>
@@ -20913,15 +21777,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100교</v>
       </c>
       <c r="G223" s="17">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999992E+125</v>
+      </c>
+      <c r="H223" s="17">
         <f t="shared" si="24"/>
-        <v>9.9999999999999992E+125</v>
-      </c>
-      <c r="H223" s="17">
-        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="I223" s="16" t="str" cm="1">
@@ -20929,15 +21793,15 @@
         <v>교</v>
       </c>
       <c r="J223" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K223" s="22">
         <f t="shared" si="27"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K223" s="22">
-        <f t="shared" si="25"/>
         <v>206625</v>
       </c>
       <c r="L223" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>826500</v>
       </c>
     </row>
@@ -20946,15 +21810,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500교</v>
       </c>
       <c r="G224" s="17">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="H224" s="17">
         <f t="shared" si="24"/>
-        <v>4.9999999999999998E+126</v>
-      </c>
-      <c r="H224" s="17">
-        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="I224" s="16" t="str" cm="1">
@@ -20962,15 +21826,15 @@
         <v>교</v>
       </c>
       <c r="J224" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K224" s="22">
         <f t="shared" si="27"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K224" s="22">
-        <f t="shared" si="25"/>
         <v>208500</v>
       </c>
       <c r="L224" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>834000</v>
       </c>
     </row>
@@ -20979,15 +21843,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000교</v>
       </c>
       <c r="G225" s="17">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="H225" s="17">
         <f t="shared" si="24"/>
-        <v>9.9999999999999995E+126</v>
-      </c>
-      <c r="H225" s="17">
-        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="I225" s="16" t="str" cm="1">
@@ -20995,15 +21859,15 @@
         <v>교</v>
       </c>
       <c r="J225" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K225" s="22">
         <f t="shared" si="27"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K225" s="22">
-        <f t="shared" si="25"/>
         <v>210375</v>
       </c>
       <c r="L225" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>841500</v>
       </c>
     </row>
@@ -21012,15 +21876,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000교</v>
       </c>
       <c r="G226" s="17">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="H226" s="17">
         <f t="shared" si="24"/>
-        <v>4.9999999999999994E+127</v>
-      </c>
-      <c r="H226" s="17">
-        <f t="shared" si="22"/>
         <v>5000</v>
       </c>
       <c r="I226" s="16" t="str" cm="1">
@@ -21028,15 +21892,15 @@
         <v>교</v>
       </c>
       <c r="J226" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K226" s="22">
         <f t="shared" si="27"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K226" s="22">
-        <f t="shared" si="25"/>
         <v>212250</v>
       </c>
       <c r="L226" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>849000</v>
       </c>
     </row>
@@ -21045,15 +21909,15 @@
         <v>218</v>
       </c>
       <c r="F227" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1위</v>
       </c>
       <c r="G227" s="17">
+        <f t="shared" si="26"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="H227" s="17">
         <f t="shared" si="24"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="H227" s="17">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I227" s="16" t="str" cm="1">
@@ -21061,15 +21925,15 @@
         <v>위</v>
       </c>
       <c r="J227" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K227" s="22">
         <f t="shared" si="27"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K227" s="22">
-        <f t="shared" si="25"/>
         <v>214125</v>
       </c>
       <c r="L227" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>856500</v>
       </c>
     </row>
@@ -21078,15 +21942,15 @@
         <v>219</v>
       </c>
       <c r="F228" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5위</v>
       </c>
       <c r="G228" s="17">
+        <f t="shared" si="26"/>
+        <v>5E+128</v>
+      </c>
+      <c r="H228" s="17">
         <f t="shared" si="24"/>
-        <v>5E+128</v>
-      </c>
-      <c r="H228" s="17">
-        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I228" s="16" t="str" cm="1">
@@ -21094,15 +21958,15 @@
         <v>위</v>
       </c>
       <c r="J228" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K228" s="22">
         <f t="shared" si="27"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K228" s="22">
-        <f t="shared" si="25"/>
         <v>216000</v>
       </c>
       <c r="L228" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>864000</v>
       </c>
     </row>
@@ -21111,15 +21975,15 @@
         <v>220</v>
       </c>
       <c r="F229" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10위</v>
       </c>
       <c r="G229" s="17">
+        <f t="shared" si="26"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H229" s="17">
         <f t="shared" si="24"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H229" s="17">
-        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="I229" s="16" t="str" cm="1">
@@ -21127,15 +21991,15 @@
         <v>위</v>
       </c>
       <c r="J229" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K229" s="22">
         <f t="shared" si="27"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K229" s="22">
-        <f t="shared" si="25"/>
         <v>217875</v>
       </c>
       <c r="L229" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>871500</v>
       </c>
     </row>
@@ -21144,15 +22008,15 @@
         <v>221</v>
       </c>
       <c r="F230" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50위</v>
       </c>
       <c r="G230" s="17">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H230" s="17">
         <f t="shared" si="24"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H230" s="17">
-        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="I230" s="16" t="str" cm="1">
@@ -21160,15 +22024,15 @@
         <v>위</v>
       </c>
       <c r="J230" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K230" s="22">
         <f t="shared" si="27"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K230" s="22">
-        <f t="shared" si="25"/>
         <v>219750</v>
       </c>
       <c r="L230" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>879000</v>
       </c>
     </row>
@@ -21177,15 +22041,15 @@
         <v>222</v>
       </c>
       <c r="F231" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100위</v>
       </c>
       <c r="G231" s="17">
+        <f t="shared" si="26"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H231" s="17">
         <f t="shared" si="24"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H231" s="17">
-        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="I231" s="16" t="str" cm="1">
@@ -21193,15 +22057,15 @@
         <v>위</v>
       </c>
       <c r="J231" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K231" s="22">
         <f t="shared" si="27"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K231" s="22">
-        <f t="shared" si="25"/>
         <v>221625</v>
       </c>
       <c r="L231" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>886500</v>
       </c>
     </row>
@@ -21210,15 +22074,15 @@
         <v>223</v>
       </c>
       <c r="F232" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500위</v>
       </c>
       <c r="G232" s="17">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H232" s="17">
         <f t="shared" si="24"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H232" s="17">
-        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="I232" s="16" t="str" cm="1">
@@ -21226,15 +22090,15 @@
         <v>위</v>
       </c>
       <c r="J232" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K232" s="22">
         <f t="shared" si="27"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K232" s="22">
-        <f t="shared" si="25"/>
         <v>223500</v>
       </c>
       <c r="L232" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>894000</v>
       </c>
     </row>
@@ -21243,15 +22107,15 @@
         <v>224</v>
       </c>
       <c r="F233" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000위</v>
       </c>
       <c r="G233" s="17">
+        <f t="shared" si="26"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H233" s="17">
         <f t="shared" si="24"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H233" s="17">
-        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="I233" s="16" t="str" cm="1">
@@ -21259,15 +22123,15 @@
         <v>위</v>
       </c>
       <c r="J233" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K233" s="22">
         <f t="shared" si="27"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K233" s="22">
-        <f t="shared" si="25"/>
         <v>225375</v>
       </c>
       <c r="L233" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>901500</v>
       </c>
     </row>
@@ -21276,15 +22140,15 @@
         <v>225</v>
       </c>
       <c r="F234" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000위</v>
       </c>
       <c r="G234" s="17">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H234" s="17">
         <f t="shared" si="24"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H234" s="17">
-        <f t="shared" si="22"/>
         <v>5000</v>
       </c>
       <c r="I234" s="16" t="str" cm="1">
@@ -21292,16 +22156,544 @@
         <v>위</v>
       </c>
       <c r="J234" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K234" s="22">
         <f t="shared" si="27"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K234" s="22">
-        <f t="shared" si="25"/>
         <v>227375</v>
       </c>
       <c r="L234" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>909500</v>
+      </c>
+    </row>
+    <row r="235" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E235" s="16">
+        <v>226</v>
+      </c>
+      <c r="F235" s="17" t="str">
+        <f t="shared" ref="F235:F247" si="30">H235&amp;I235</f>
+        <v>1설</v>
+      </c>
+      <c r="G235" s="17">
+        <f t="shared" ref="G235:G247" si="31">H235*J235</f>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="H235" s="17">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="I235" s="16" t="str" cm="1">
+        <f t="array" ref="I235">IF(AND(H234&gt;1000,H235&lt;2),INDEX(N:N,MATCH(I234,N:N,0)+1,0),I234)</f>
+        <v>설</v>
+      </c>
+      <c r="J235" s="16" t="str">
+        <f t="shared" ref="J235:J247" si="32">VLOOKUP(I235,N:Q,4,FALSE)</f>
+        <v>1E+132</v>
+      </c>
+      <c r="K235" s="22">
+        <f t="shared" ref="K235:K247" si="33">L235*0.25</f>
+        <v>229375</v>
+      </c>
+      <c r="L235" s="22">
+        <f t="shared" ref="L235:L247" si="34">L234+500+QUOTIENT(E235,15)*500</f>
+        <v>917500</v>
+      </c>
+    </row>
+    <row r="236" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E236" s="16">
+        <v>227</v>
+      </c>
+      <c r="F236" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>5설</v>
+      </c>
+      <c r="G236" s="17">
+        <f t="shared" si="31"/>
+        <v>5.0000000000000001E+132</v>
+      </c>
+      <c r="H236" s="17">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="I236" s="16" t="str" cm="1">
+        <f t="array" ref="I236">IF(AND(H235&gt;1000,H236&lt;2),INDEX(N:N,MATCH(I235,N:N,0)+1,0),I235)</f>
+        <v>설</v>
+      </c>
+      <c r="J236" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K236" s="22">
+        <f t="shared" si="33"/>
+        <v>231375</v>
+      </c>
+      <c r="L236" s="22">
+        <f t="shared" si="34"/>
+        <v>925500</v>
+      </c>
+    </row>
+    <row r="237" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E237" s="16">
+        <v>228</v>
+      </c>
+      <c r="F237" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>10설</v>
+      </c>
+      <c r="G237" s="17">
+        <f t="shared" si="31"/>
+        <v>1E+133</v>
+      </c>
+      <c r="H237" s="17">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="I237" s="16" t="str" cm="1">
+        <f t="array" ref="I237">IF(AND(H236&gt;1000,H237&lt;2),INDEX(N:N,MATCH(I236,N:N,0)+1,0),I236)</f>
+        <v>설</v>
+      </c>
+      <c r="J237" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K237" s="22">
+        <f t="shared" si="33"/>
+        <v>233375</v>
+      </c>
+      <c r="L237" s="22">
+        <f t="shared" si="34"/>
+        <v>933500</v>
+      </c>
+    </row>
+    <row r="238" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E238" s="16">
+        <v>229</v>
+      </c>
+      <c r="F238" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>50설</v>
+      </c>
+      <c r="G238" s="17">
+        <f t="shared" si="31"/>
+        <v>4.9999999999999996E+133</v>
+      </c>
+      <c r="H238" s="17">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="I238" s="16" t="str" cm="1">
+        <f t="array" ref="I238">IF(AND(H237&gt;1000,H238&lt;2),INDEX(N:N,MATCH(I237,N:N,0)+1,0),I237)</f>
+        <v>설</v>
+      </c>
+      <c r="J238" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K238" s="22">
+        <f t="shared" si="33"/>
+        <v>235375</v>
+      </c>
+      <c r="L238" s="22">
+        <f t="shared" si="34"/>
+        <v>941500</v>
+      </c>
+    </row>
+    <row r="239" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E239" s="16">
+        <v>230</v>
+      </c>
+      <c r="F239" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>100설</v>
+      </c>
+      <c r="G239" s="17">
+        <f t="shared" si="31"/>
+        <v>9.9999999999999992E+133</v>
+      </c>
+      <c r="H239" s="17">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="I239" s="16" t="str" cm="1">
+        <f t="array" ref="I239">IF(AND(H238&gt;1000,H239&lt;2),INDEX(N:N,MATCH(I238,N:N,0)+1,0),I238)</f>
+        <v>설</v>
+      </c>
+      <c r="J239" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K239" s="22">
+        <f t="shared" si="33"/>
+        <v>237375</v>
+      </c>
+      <c r="L239" s="22">
+        <f t="shared" si="34"/>
+        <v>949500</v>
+      </c>
+    </row>
+    <row r="240" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E240" s="16">
+        <v>231</v>
+      </c>
+      <c r="F240" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>500설</v>
+      </c>
+      <c r="G240" s="17">
+        <f t="shared" si="31"/>
+        <v>4.9999999999999998E+134</v>
+      </c>
+      <c r="H240" s="17">
+        <f t="shared" si="24"/>
+        <v>500</v>
+      </c>
+      <c r="I240" s="16" t="str" cm="1">
+        <f t="array" ref="I240">IF(AND(H239&gt;1000,H240&lt;2),INDEX(N:N,MATCH(I239,N:N,0)+1,0),I239)</f>
+        <v>설</v>
+      </c>
+      <c r="J240" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K240" s="22">
+        <f t="shared" si="33"/>
+        <v>239375</v>
+      </c>
+      <c r="L240" s="22">
+        <f t="shared" si="34"/>
+        <v>957500</v>
+      </c>
+    </row>
+    <row r="241" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E241" s="16">
+        <v>232</v>
+      </c>
+      <c r="F241" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>1000설</v>
+      </c>
+      <c r="G241" s="17">
+        <f t="shared" si="31"/>
+        <v>9.9999999999999996E+134</v>
+      </c>
+      <c r="H241" s="17">
+        <f t="shared" si="24"/>
+        <v>1000</v>
+      </c>
+      <c r="I241" s="16" t="str" cm="1">
+        <f t="array" ref="I241">IF(AND(H240&gt;1000,H241&lt;2),INDEX(N:N,MATCH(I240,N:N,0)+1,0),I240)</f>
+        <v>설</v>
+      </c>
+      <c r="J241" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K241" s="22">
+        <f t="shared" si="33"/>
+        <v>241375</v>
+      </c>
+      <c r="L241" s="22">
+        <f t="shared" si="34"/>
+        <v>965500</v>
+      </c>
+    </row>
+    <row r="242" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E242" s="16">
+        <v>233</v>
+      </c>
+      <c r="F242" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>5000설</v>
+      </c>
+      <c r="G242" s="17">
+        <f t="shared" si="31"/>
+        <v>4.9999999999999996E+135</v>
+      </c>
+      <c r="H242" s="17">
+        <f t="shared" si="24"/>
+        <v>5000</v>
+      </c>
+      <c r="I242" s="16" t="str" cm="1">
+        <f t="array" ref="I242">IF(AND(H241&gt;1000,H242&lt;2),INDEX(N:N,MATCH(I241,N:N,0)+1,0),I241)</f>
+        <v>설</v>
+      </c>
+      <c r="J242" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K242" s="22">
+        <f t="shared" si="33"/>
+        <v>243375</v>
+      </c>
+      <c r="L242" s="22">
+        <f t="shared" si="34"/>
+        <v>973500</v>
+      </c>
+    </row>
+    <row r="243" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E243" s="16">
+        <v>234</v>
+      </c>
+      <c r="F243" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>1적</v>
+      </c>
+      <c r="G243" s="17">
+        <f t="shared" si="31"/>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="H243" s="17">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="I243" s="16" t="str" cm="1">
+        <f t="array" ref="I243">IF(AND(H242&gt;1000,H243&lt;2),INDEX(N:N,MATCH(I242,N:N,0)+1,0),I242)</f>
+        <v>적</v>
+      </c>
+      <c r="J243" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K243" s="22">
+        <f t="shared" si="33"/>
+        <v>245375</v>
+      </c>
+      <c r="L243" s="22">
+        <f t="shared" si="34"/>
+        <v>981500</v>
+      </c>
+    </row>
+    <row r="244" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E244" s="16">
+        <v>235</v>
+      </c>
+      <c r="F244" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>5적</v>
+      </c>
+      <c r="G244" s="17">
+        <f t="shared" si="31"/>
+        <v>5.0000000000000002E+136</v>
+      </c>
+      <c r="H244" s="17">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="I244" s="16" t="str" cm="1">
+        <f t="array" ref="I244">IF(AND(H243&gt;1000,H244&lt;2),INDEX(N:N,MATCH(I243,N:N,0)+1,0),I243)</f>
+        <v>적</v>
+      </c>
+      <c r="J244" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K244" s="22">
+        <f t="shared" si="33"/>
+        <v>247375</v>
+      </c>
+      <c r="L244" s="22">
+        <f t="shared" si="34"/>
+        <v>989500</v>
+      </c>
+    </row>
+    <row r="245" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E245" s="16">
+        <v>236</v>
+      </c>
+      <c r="F245" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>10적</v>
+      </c>
+      <c r="G245" s="17">
+        <f t="shared" si="31"/>
+        <v>1E+137</v>
+      </c>
+      <c r="H245" s="17">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="I245" s="16" t="str" cm="1">
+        <f t="array" ref="I245">IF(AND(H244&gt;1000,H245&lt;2),INDEX(N:N,MATCH(I244,N:N,0)+1,0),I244)</f>
+        <v>적</v>
+      </c>
+      <c r="J245" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K245" s="22">
+        <f t="shared" si="33"/>
+        <v>249375</v>
+      </c>
+      <c r="L245" s="22">
+        <f t="shared" si="34"/>
+        <v>997500</v>
+      </c>
+    </row>
+    <row r="246" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E246" s="16">
+        <v>237</v>
+      </c>
+      <c r="F246" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>50적</v>
+      </c>
+      <c r="G246" s="17">
+        <f t="shared" si="31"/>
+        <v>5.0000000000000002E+137</v>
+      </c>
+      <c r="H246" s="17">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="I246" s="16" t="str" cm="1">
+        <f t="array" ref="I246">IF(AND(H245&gt;1000,H246&lt;2),INDEX(N:N,MATCH(I245,N:N,0)+1,0),I245)</f>
+        <v>적</v>
+      </c>
+      <c r="J246" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K246" s="22">
+        <f t="shared" si="33"/>
+        <v>251375</v>
+      </c>
+      <c r="L246" s="22">
+        <f t="shared" si="34"/>
+        <v>1005500</v>
+      </c>
+    </row>
+    <row r="247" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E247" s="16">
+        <v>238</v>
+      </c>
+      <c r="F247" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>100적</v>
+      </c>
+      <c r="G247" s="17">
+        <f t="shared" si="31"/>
+        <v>1E+138</v>
+      </c>
+      <c r="H247" s="17">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="I247" s="16" t="str" cm="1">
+        <f t="array" ref="I247">IF(AND(H246&gt;1000,H247&lt;2),INDEX(N:N,MATCH(I246,N:N,0)+1,0),I246)</f>
+        <v>적</v>
+      </c>
+      <c r="J247" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K247" s="22">
+        <f t="shared" si="33"/>
+        <v>253375</v>
+      </c>
+      <c r="L247" s="22">
+        <f t="shared" si="34"/>
+        <v>1013500</v>
+      </c>
+    </row>
+    <row r="248" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E248" s="16">
+        <v>239</v>
+      </c>
+      <c r="F248" s="17" t="str">
+        <f t="shared" ref="F248:F251" si="35">H248&amp;I248</f>
+        <v>500적</v>
+      </c>
+      <c r="G248" s="17">
+        <f t="shared" ref="G248:G251" si="36">H248*J248</f>
+        <v>5.0000000000000002E+138</v>
+      </c>
+      <c r="H248" s="17">
+        <f t="shared" si="24"/>
+        <v>500</v>
+      </c>
+      <c r="I248" s="16" t="str" cm="1">
+        <f t="array" ref="I248">IF(AND(H247&gt;1000,H248&lt;2),INDEX(N:N,MATCH(I247,N:N,0)+1,0),I247)</f>
+        <v>적</v>
+      </c>
+      <c r="J248" s="16" t="str">
+        <f t="shared" ref="J248:J251" si="37">VLOOKUP(I248,N:Q,4,FALSE)</f>
+        <v>1E+136</v>
+      </c>
+      <c r="K248" s="22">
+        <f t="shared" ref="K248:K251" si="38">L248*0.25</f>
+        <v>255375</v>
+      </c>
+      <c r="L248" s="22">
+        <f t="shared" ref="L248:L251" si="39">L247+500+QUOTIENT(E248,15)*500</f>
+        <v>1021500</v>
+      </c>
+    </row>
+    <row r="249" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E249" s="16">
+        <v>240</v>
+      </c>
+      <c r="F249" s="17" t="str">
+        <f t="shared" si="35"/>
+        <v>1000적</v>
+      </c>
+      <c r="G249" s="17">
+        <f t="shared" si="36"/>
+        <v>1E+139</v>
+      </c>
+      <c r="H249" s="17">
+        <f t="shared" si="24"/>
+        <v>1000</v>
+      </c>
+      <c r="I249" s="16" t="str" cm="1">
+        <f t="array" ref="I249">IF(AND(H248&gt;1000,H249&lt;2),INDEX(N:N,MATCH(I248,N:N,0)+1,0),I248)</f>
+        <v>적</v>
+      </c>
+      <c r="J249" s="16" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K249" s="22">
+        <f t="shared" si="38"/>
+        <v>257500</v>
+      </c>
+      <c r="L249" s="22">
+        <f t="shared" si="39"/>
+        <v>1030000</v>
+      </c>
+    </row>
+    <row r="250" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E250" s="16">
+        <v>241</v>
+      </c>
+      <c r="F250" s="17" t="str">
+        <f t="shared" si="35"/>
+        <v>5000적</v>
+      </c>
+      <c r="G250" s="17">
+        <f t="shared" si="36"/>
+        <v>5.0000000000000003E+139</v>
+      </c>
+      <c r="H250" s="17">
+        <f t="shared" si="24"/>
+        <v>5000</v>
+      </c>
+      <c r="I250" s="16" t="str" cm="1">
+        <f t="array" ref="I250">IF(AND(H249&gt;1000,H250&lt;2),INDEX(N:N,MATCH(I249,N:N,0)+1,0),I249)</f>
+        <v>적</v>
+      </c>
+      <c r="J250" s="16" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K250" s="22">
+        <f t="shared" si="38"/>
+        <v>259625</v>
+      </c>
+      <c r="L250" s="22">
+        <f t="shared" si="39"/>
+        <v>1038500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulTower.xlsx
+++ b/Assets/06.Table/DosulTower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB18E05E-48FD-4323-9ECF-38952173F2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0D30C6-A482-4032-8679-5F5DC867CBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="67">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,10 @@
   </si>
   <si>
     <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -910,11 +914,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M243"/>
+  <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E231" sqref="E231"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E251" sqref="E251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11069,7 +11073,7 @@
         <v>171000</v>
       </c>
       <c r="E196">
-        <f t="shared" ref="E196:E243" si="171">E195</f>
+        <f t="shared" ref="E196:E251" si="171">E195</f>
         <v>1</v>
       </c>
       <c r="F196" s="2">
@@ -11092,11 +11096,11 @@
         <v>60</v>
       </c>
       <c r="K196">
-        <f t="shared" ref="K196:K243" si="173">K195+200</f>
+        <f t="shared" ref="K196:K251" si="173">K195+200</f>
         <v>40800</v>
       </c>
       <c r="L196">
-        <f t="shared" ref="L196:L243" si="174">L195</f>
+        <f t="shared" ref="L196:L251" si="174">L195</f>
         <v>9031</v>
       </c>
       <c r="M196">
@@ -13548,9 +13552,425 @@
         <v>519250</v>
       </c>
     </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1" t="str">
+        <f t="shared" ref="B244:C244" si="269">B243</f>
+        <v>1-1</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="269"/>
+        <v>9031</v>
+      </c>
+      <c r="D244">
+        <f>VLOOKUP(A244,Balance!E:K,7,FALSE)</f>
+        <v>261750</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F244" s="2">
+        <f>VLOOKUP(A244,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="G244">
+        <f t="shared" ref="G244:I244" si="270">G243</f>
+        <v>1000</v>
+      </c>
+      <c r="H244">
+        <f t="shared" si="270"/>
+        <v>8</v>
+      </c>
+      <c r="I244">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="J244" t="s">
+        <v>60</v>
+      </c>
+      <c r="K244">
+        <f t="shared" si="173"/>
+        <v>50400</v>
+      </c>
+      <c r="L244">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M244">
+        <f>VLOOKUP(A244,Balance!E:L,8,FALSE)/2</f>
+        <v>523500</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1" t="str">
+        <f t="shared" ref="B245:C245" si="271">B244</f>
+        <v>1-1</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="271"/>
+        <v>9031</v>
+      </c>
+      <c r="D245">
+        <f>VLOOKUP(A245,Balance!E:K,7,FALSE)</f>
+        <v>263875</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F245" s="2">
+        <f>VLOOKUP(A245,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000001E+140</v>
+      </c>
+      <c r="G245">
+        <f t="shared" ref="G245:I245" si="272">G244</f>
+        <v>1000</v>
+      </c>
+      <c r="H245">
+        <f t="shared" si="272"/>
+        <v>8</v>
+      </c>
+      <c r="I245">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="J245" t="s">
+        <v>60</v>
+      </c>
+      <c r="K245">
+        <f t="shared" si="173"/>
+        <v>50600</v>
+      </c>
+      <c r="L245">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M245">
+        <f>VLOOKUP(A245,Balance!E:L,8,FALSE)/2</f>
+        <v>527750</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1" t="str">
+        <f t="shared" ref="B246:C246" si="273">B245</f>
+        <v>1-1</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="273"/>
+        <v>9031</v>
+      </c>
+      <c r="D246">
+        <f>VLOOKUP(A246,Balance!E:K,7,FALSE)</f>
+        <v>266000</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F246" s="2">
+        <f>VLOOKUP(A246,Balance!E:K,3,FALSE)</f>
+        <v>1E+141</v>
+      </c>
+      <c r="G246">
+        <f t="shared" ref="G246:I246" si="274">G245</f>
+        <v>1000</v>
+      </c>
+      <c r="H246">
+        <f t="shared" si="274"/>
+        <v>8</v>
+      </c>
+      <c r="I246">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="J246" t="s">
+        <v>60</v>
+      </c>
+      <c r="K246">
+        <f t="shared" si="173"/>
+        <v>50800</v>
+      </c>
+      <c r="L246">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M246">
+        <f>VLOOKUP(A246,Balance!E:L,8,FALSE)/2</f>
+        <v>532000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1" t="str">
+        <f t="shared" ref="B247:C247" si="275">B246</f>
+        <v>1-1</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="275"/>
+        <v>9031</v>
+      </c>
+      <c r="D247">
+        <f>VLOOKUP(A247,Balance!E:K,7,FALSE)</f>
+        <v>268125</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F247" s="2">
+        <f>VLOOKUP(A247,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000003E+141</v>
+      </c>
+      <c r="G247">
+        <f t="shared" ref="G247:I247" si="276">G246</f>
+        <v>1000</v>
+      </c>
+      <c r="H247">
+        <f t="shared" si="276"/>
+        <v>8</v>
+      </c>
+      <c r="I247">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="J247" t="s">
+        <v>60</v>
+      </c>
+      <c r="K247">
+        <f t="shared" si="173"/>
+        <v>51000</v>
+      </c>
+      <c r="L247">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M247">
+        <f>VLOOKUP(A247,Balance!E:L,8,FALSE)/2</f>
+        <v>536250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1" t="str">
+        <f t="shared" ref="B248:C248" si="277">B247</f>
+        <v>1-1</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="277"/>
+        <v>9031</v>
+      </c>
+      <c r="D248">
+        <f>VLOOKUP(A248,Balance!E:K,7,FALSE)</f>
+        <v>270250</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F248" s="2">
+        <f>VLOOKUP(A248,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+142</v>
+      </c>
+      <c r="G248">
+        <f t="shared" ref="G248:I248" si="278">G247</f>
+        <v>1000</v>
+      </c>
+      <c r="H248">
+        <f t="shared" si="278"/>
+        <v>8</v>
+      </c>
+      <c r="I248">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="J248" t="s">
+        <v>60</v>
+      </c>
+      <c r="K248">
+        <f t="shared" si="173"/>
+        <v>51200</v>
+      </c>
+      <c r="L248">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M248">
+        <f>VLOOKUP(A248,Balance!E:L,8,FALSE)/2</f>
+        <v>540500</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1" t="str">
+        <f t="shared" ref="B249:C249" si="279">B248</f>
+        <v>1-1</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="279"/>
+        <v>9031</v>
+      </c>
+      <c r="D249">
+        <f>VLOOKUP(A249,Balance!E:K,7,FALSE)</f>
+        <v>272375</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F249" s="2">
+        <f>VLOOKUP(A249,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000001E+142</v>
+      </c>
+      <c r="G249">
+        <f t="shared" ref="G249:I249" si="280">G248</f>
+        <v>1000</v>
+      </c>
+      <c r="H249">
+        <f t="shared" si="280"/>
+        <v>8</v>
+      </c>
+      <c r="I249">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="J249" t="s">
+        <v>60</v>
+      </c>
+      <c r="K249">
+        <f t="shared" si="173"/>
+        <v>51400</v>
+      </c>
+      <c r="L249">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M249">
+        <f>VLOOKUP(A249,Balance!E:L,8,FALSE)/2</f>
+        <v>544750</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1" t="str">
+        <f t="shared" ref="B250:C250" si="281">B249</f>
+        <v>1-1</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="281"/>
+        <v>9031</v>
+      </c>
+      <c r="D250">
+        <f>VLOOKUP(A250,Balance!E:K,7,FALSE)</f>
+        <v>274500</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F250" s="2">
+        <f>VLOOKUP(A250,Balance!E:K,3,FALSE)</f>
+        <v>1E+143</v>
+      </c>
+      <c r="G250">
+        <f t="shared" ref="G250:I250" si="282">G249</f>
+        <v>1000</v>
+      </c>
+      <c r="H250">
+        <f t="shared" si="282"/>
+        <v>8</v>
+      </c>
+      <c r="I250">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="J250" t="s">
+        <v>60</v>
+      </c>
+      <c r="K250">
+        <f t="shared" si="173"/>
+        <v>51600</v>
+      </c>
+      <c r="L250">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M250">
+        <f>VLOOKUP(A250,Balance!E:L,8,FALSE)/2</f>
+        <v>549000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1" t="str">
+        <f t="shared" ref="B251:C251" si="283">B250</f>
+        <v>1-1</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="283"/>
+        <v>9031</v>
+      </c>
+      <c r="D251">
+        <f>VLOOKUP(A251,Balance!E:K,7,FALSE)</f>
+        <v>276625</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F251" s="2">
+        <f>VLOOKUP(A251,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000001E+143</v>
+      </c>
+      <c r="G251">
+        <f t="shared" ref="G251:I251" si="284">G250</f>
+        <v>1000</v>
+      </c>
+      <c r="H251">
+        <f t="shared" si="284"/>
+        <v>8</v>
+      </c>
+      <c r="I251">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="J251" t="s">
+        <v>60</v>
+      </c>
+      <c r="K251">
+        <f t="shared" si="173"/>
+        <v>51800</v>
+      </c>
+      <c r="L251">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M251">
+        <f>VLOOKUP(A251,Balance!E:L,8,FALSE)/2</f>
+        <v>553250</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L243">
+  <conditionalFormatting sqref="A2:L251">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -13562,10 +13982,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z250"/>
+  <dimension ref="A1:Z258"/>
   <sheetViews>
-    <sheetView topLeftCell="B225" workbookViewId="0">
-      <selection activeCell="E235" sqref="E235:E250"/>
+    <sheetView topLeftCell="B231" workbookViewId="0">
+      <selection activeCell="F251" sqref="F251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15414,8 +15834,20 @@
         <v>30000</v>
       </c>
       <c r="M42" s="22"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
+      <c r="N42" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" s="16">
+        <v>140</v>
+      </c>
+      <c r="P42" s="17">
+        <f t="shared" ref="P42" si="13">POWER(10,O42)</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="Q42" s="17" t="str">
+        <f t="shared" ref="Q42" si="14">RIGHT(P42,O42)</f>
+        <v>1E+140</v>
+      </c>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
@@ -16579,7 +17011,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F132" si="13">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="15">H69&amp;I69</f>
         <v>10극</v>
       </c>
       <c r="G69" s="17">
@@ -16613,7 +17045,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50극</v>
       </c>
       <c r="G70" s="17">
@@ -16647,7 +17079,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100극</v>
       </c>
       <c r="G71" s="17">
@@ -16681,7 +17113,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500극</v>
       </c>
       <c r="G72" s="17">
@@ -16715,7 +17147,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000극</v>
       </c>
       <c r="G73" s="17">
@@ -16731,7 +17163,7 @@
         <v>극</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J136" si="14">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="16">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="K73" s="22">
@@ -16749,11 +17181,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000극</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G137" si="15">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="17">H74*J74</f>
         <v>5E+51</v>
       </c>
       <c r="H74" s="17">
@@ -16765,11 +17197,11 @@
         <v>극</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+48</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" ref="K74:K137" si="16">L74*0.25</f>
+        <f t="shared" ref="K74:K137" si="18">L74*0.25</f>
         <v>22875</v>
       </c>
       <c r="L74" s="22">
@@ -16783,11 +17215,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1항</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="H75" s="17">
@@ -16799,15 +17231,15 @@
         <v>항</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+52</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>23500</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" ref="L75:L138" si="17">L74+500+QUOTIENT(E75,15)*500</f>
+        <f t="shared" ref="L75:L138" si="19">L74+500+QUOTIENT(E75,15)*500</f>
         <v>94000</v>
       </c>
       <c r="M75" s="22"/>
@@ -16817,11 +17249,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5항</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5E+52</v>
       </c>
       <c r="H76" s="17">
@@ -16833,15 +17265,15 @@
         <v>항</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+52</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>24125</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>96500</v>
       </c>
       <c r="M76" s="22"/>
@@ -16851,11 +17283,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10항</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999999E+52</v>
       </c>
       <c r="H77" s="17">
@@ -16867,15 +17299,15 @@
         <v>항</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+52</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>24750</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>99000</v>
       </c>
       <c r="M77" s="22"/>
@@ -16885,11 +17317,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50항</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000004E+53</v>
       </c>
       <c r="H78" s="17">
@@ -16901,15 +17333,15 @@
         <v>항</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+52</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>25375</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>101500</v>
       </c>
       <c r="M78" s="22"/>
@@ -16919,11 +17351,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100항</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+54</v>
       </c>
       <c r="H79" s="17">
@@ -16935,15 +17367,15 @@
         <v>항</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+52</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>26000</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>104000</v>
       </c>
       <c r="M79" s="22"/>
@@ -16953,11 +17385,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500항</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000001E+54</v>
       </c>
       <c r="H80" s="17">
@@ -16969,15 +17401,15 @@
         <v>항</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+52</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>26625</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>106500</v>
       </c>
       <c r="M80" s="22"/>
@@ -16987,11 +17419,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000항</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+55</v>
       </c>
       <c r="H81" s="17">
@@ -17003,15 +17435,15 @@
         <v>항</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+52</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>27250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>109000</v>
       </c>
       <c r="M81" s="22"/>
@@ -17021,15 +17453,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000항</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000005E+55</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" ref="H82:H145" si="18">H74</f>
+        <f t="shared" ref="H82:H145" si="20">H74</f>
         <v>5000</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -17037,11 +17469,11 @@
         <v>항</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+52</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>27875</v>
       </c>
       <c r="L82" s="22">
@@ -17055,15 +17487,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1아</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -17071,15 +17503,15 @@
         <v>아</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+56</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>28500</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>114000</v>
       </c>
       <c r="M83" s="22"/>
@@ -17089,15 +17521,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5아</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000002E+56</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -17105,15 +17537,15 @@
         <v>아</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+56</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>29250</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>117000</v>
       </c>
       <c r="M84" s="22"/>
@@ -17123,15 +17555,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10아</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+57</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -17139,15 +17571,15 @@
         <v>아</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+56</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30000</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>120000</v>
       </c>
       <c r="M85" s="22"/>
@@ -17157,15 +17589,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50아</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000004E+57</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -17173,15 +17605,15 @@
         <v>아</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+56</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>123000</v>
       </c>
       <c r="M86" s="22"/>
@@ -17191,15 +17623,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100아</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+58</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -17207,15 +17639,15 @@
         <v>아</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+56</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>31500</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>126000</v>
       </c>
       <c r="M87" s="22"/>
@@ -17225,15 +17657,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500아</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000004E+58</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -17241,15 +17673,15 @@
         <v>아</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+56</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32250</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>129000</v>
       </c>
       <c r="M88" s="22"/>
@@ -17259,15 +17691,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000아</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+59</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -17275,15 +17707,15 @@
         <v>아</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+56</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>33000</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>132000</v>
       </c>
       <c r="M89" s="22"/>
@@ -17293,15 +17725,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000아</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000006E+59</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -17309,15 +17741,15 @@
         <v>아</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+56</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>33750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>135000</v>
       </c>
       <c r="M90" s="22"/>
@@ -17327,15 +17759,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1나</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -17343,15 +17775,15 @@
         <v>나</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+60</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>34500</v>
       </c>
       <c r="L91" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>138000</v>
       </c>
       <c r="M91" s="22"/>
@@ -17361,15 +17793,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5나</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999997E+60</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -17377,15 +17809,15 @@
         <v>나</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+60</v>
       </c>
       <c r="K92" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>35250</v>
       </c>
       <c r="L92" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>141000</v>
       </c>
       <c r="M92" s="22"/>
@@ -17395,15 +17827,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10나</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999995E+60</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -17411,15 +17843,15 @@
         <v>나</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+60</v>
       </c>
       <c r="K93" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>36000</v>
       </c>
       <c r="L93" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>144000</v>
       </c>
       <c r="M93" s="22"/>
@@ -17429,15 +17861,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50나</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999996E+61</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -17445,15 +17877,15 @@
         <v>나</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+60</v>
       </c>
       <c r="K94" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>36750</v>
       </c>
       <c r="L94" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>147000</v>
       </c>
       <c r="M94" s="22"/>
@@ -17463,15 +17895,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100나</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999992E+61</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -17479,15 +17911,15 @@
         <v>나</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+60</v>
       </c>
       <c r="K95" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>37500</v>
       </c>
       <c r="L95" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>150000</v>
       </c>
       <c r="M95" s="22"/>
@@ -17497,15 +17929,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500나</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999994E+62</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -17513,15 +17945,15 @@
         <v>나</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+60</v>
       </c>
       <c r="K96" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>38250</v>
       </c>
       <c r="L96" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>153000</v>
       </c>
       <c r="M96" s="22"/>
@@ -17531,15 +17963,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000나</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999988E+62</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -17547,15 +17979,15 @@
         <v>나</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+60</v>
       </c>
       <c r="K97" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>39000</v>
       </c>
       <c r="L97" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>156000</v>
       </c>
       <c r="M97" s="22"/>
@@ -17565,15 +17997,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000나</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000001E+63</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -17581,15 +18013,15 @@
         <v>나</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+60</v>
       </c>
       <c r="K98" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>39750</v>
       </c>
       <c r="L98" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>159000</v>
       </c>
       <c r="M98" s="22"/>
@@ -17599,15 +18031,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1불</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+64</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -17615,15 +18047,15 @@
         <v>불</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+64</v>
       </c>
       <c r="K99" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>40625</v>
       </c>
       <c r="L99" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>162500</v>
       </c>
       <c r="M99" s="22"/>
@@ -17633,15 +18065,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5불</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5E+64</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -17649,15 +18081,15 @@
         <v>불</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+64</v>
       </c>
       <c r="K100" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>41500</v>
       </c>
       <c r="L100" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>166000</v>
       </c>
       <c r="M100" s="22"/>
@@ -17667,15 +18099,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10불</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999999E+64</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -17683,15 +18115,15 @@
         <v>불</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+64</v>
       </c>
       <c r="K101" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>42375</v>
       </c>
       <c r="L101" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>169500</v>
       </c>
       <c r="M101" s="22"/>
@@ -17701,15 +18133,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50불</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999997E+65</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -17717,15 +18149,15 @@
         <v>불</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+64</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>43250</v>
       </c>
       <c r="L102" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>173000</v>
       </c>
       <c r="M102" s="22"/>
@@ -17735,15 +18167,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100불</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999995E+65</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -17751,15 +18183,15 @@
         <v>불</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+64</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>44125</v>
       </c>
       <c r="L103" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>176500</v>
       </c>
       <c r="M103" s="22"/>
@@ -17769,15 +18201,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500불</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999999E+66</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -17785,15 +18217,15 @@
         <v>불</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+64</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>45000</v>
       </c>
       <c r="L104" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>180000</v>
       </c>
       <c r="M104" s="22"/>
@@ -17803,15 +18235,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000불</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999998E+66</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -17819,15 +18251,15 @@
         <v>불</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+64</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>45875</v>
       </c>
       <c r="L105" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>183500</v>
       </c>
       <c r="M105" s="22"/>
@@ -17837,15 +18269,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000불</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000004E+67</v>
       </c>
       <c r="H106" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -17853,15 +18285,15 @@
         <v>불</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+64</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>46750</v>
       </c>
       <c r="L106" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>187000</v>
       </c>
       <c r="M106" s="22"/>
@@ -17871,15 +18303,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1무</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="H107" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -17887,15 +18319,15 @@
         <v>무</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+68</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>47625</v>
       </c>
       <c r="L107" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>190500</v>
       </c>
       <c r="M107" s="22"/>
@@ -17905,15 +18337,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5무</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999994E+68</v>
       </c>
       <c r="H108" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -17921,15 +18353,15 @@
         <v>무</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+68</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>48500</v>
       </c>
       <c r="L108" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>194000</v>
       </c>
       <c r="M108" s="22"/>
@@ -17939,15 +18371,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10무</v>
       </c>
       <c r="G109" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999988E+68</v>
       </c>
       <c r="H109" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -17955,15 +18387,15 @@
         <v>무</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+68</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>49375</v>
       </c>
       <c r="L109" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>197500</v>
       </c>
       <c r="M109" s="22"/>
@@ -17973,15 +18405,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50무</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999996E+69</v>
       </c>
       <c r="H110" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -17989,15 +18421,15 @@
         <v>무</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+68</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50250</v>
       </c>
       <c r="L110" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>201000</v>
       </c>
       <c r="M110" s="22"/>
@@ -18007,15 +18439,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100무</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="H111" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -18023,15 +18455,15 @@
         <v>무</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+68</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>51125</v>
       </c>
       <c r="L111" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>204500</v>
       </c>
       <c r="M111" s="22"/>
@@ -18041,15 +18473,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500무</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999996E+70</v>
       </c>
       <c r="H112" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -18057,15 +18489,15 @@
         <v>무</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+68</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>52000</v>
       </c>
       <c r="L112" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>208000</v>
       </c>
       <c r="M112" s="22"/>
@@ -18075,15 +18507,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000무</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -18091,15 +18523,15 @@
         <v>무</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+68</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>52875</v>
       </c>
       <c r="L113" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>211500</v>
       </c>
       <c r="M113" s="22"/>
@@ -18109,15 +18541,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000무</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999997E+71</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -18125,15 +18557,15 @@
         <v>무</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+68</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>53875</v>
       </c>
       <c r="L114" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>215500</v>
       </c>
       <c r="M114" s="22"/>
@@ -18143,15 +18575,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1대</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -18159,15 +18591,15 @@
         <v>대</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+72</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>54875</v>
       </c>
       <c r="L115" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>219500</v>
       </c>
       <c r="M115" s="22"/>
@@ -18177,15 +18609,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5대</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999999E+72</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -18193,15 +18625,15 @@
         <v>대</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+72</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>55875</v>
       </c>
       <c r="L116" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>223500</v>
       </c>
       <c r="M116" s="22"/>
@@ -18211,15 +18643,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10대</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -18227,15 +18659,15 @@
         <v>대</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+72</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>56875</v>
       </c>
       <c r="L117" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>227500</v>
       </c>
       <c r="M117" s="22"/>
@@ -18245,15 +18677,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50대</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999998E+73</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -18261,15 +18693,15 @@
         <v>대</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+72</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>57875</v>
       </c>
       <c r="L118" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>231500</v>
       </c>
       <c r="M118" s="22"/>
@@ -18279,15 +18711,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100대</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -18295,15 +18727,15 @@
         <v>대</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+72</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>58875</v>
       </c>
       <c r="L119" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>235500</v>
       </c>
       <c r="M119" s="22"/>
@@ -18313,15 +18745,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500대</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999996E+74</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -18329,15 +18761,15 @@
         <v>대</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+72</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>59875</v>
       </c>
       <c r="L120" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>239500</v>
       </c>
       <c r="M120" s="22"/>
@@ -18347,15 +18779,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000대</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -18363,15 +18795,15 @@
         <v>대</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+72</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>60875</v>
       </c>
       <c r="L121" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>243500</v>
       </c>
       <c r="M121" s="22"/>
@@ -18381,15 +18813,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000대</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999994E+75</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -18397,15 +18829,15 @@
         <v>대</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+72</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>61875</v>
       </c>
       <c r="L122" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>247500</v>
       </c>
       <c r="M122" s="22"/>
@@ -18415,15 +18847,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1겁</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+76</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -18431,15 +18863,15 @@
         <v>겁</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+76</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>62875</v>
       </c>
       <c r="L123" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>251500</v>
       </c>
       <c r="M123" s="22"/>
@@ -18449,15 +18881,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5겁</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000006E+76</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -18465,15 +18897,15 @@
         <v>겁</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+76</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>63875</v>
       </c>
       <c r="L124" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>255500</v>
       </c>
       <c r="M124" s="22"/>
@@ -18483,15 +18915,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10겁</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -18499,15 +18931,15 @@
         <v>겁</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+76</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>64875</v>
       </c>
       <c r="L125" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>259500</v>
       </c>
       <c r="M125" s="22"/>
@@ -18517,15 +18949,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50겁</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5E+77</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -18533,15 +18965,15 @@
         <v>겁</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+76</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>65875</v>
       </c>
       <c r="L126" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>263500</v>
       </c>
       <c r="M126" s="22"/>
@@ -18551,15 +18983,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100겁</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+78</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -18567,15 +18999,15 @@
         <v>겁</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+76</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>66875</v>
       </c>
       <c r="L127" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>267500</v>
       </c>
       <c r="M127" s="22"/>
@@ -18585,15 +19017,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500겁</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999998E+78</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -18601,15 +19033,15 @@
         <v>겁</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+76</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>67875</v>
       </c>
       <c r="L128" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>271500</v>
       </c>
       <c r="M128" s="22"/>
@@ -18619,15 +19051,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1000겁</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -18635,15 +19067,15 @@
         <v>겁</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+76</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>69000</v>
       </c>
       <c r="L129" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>276000</v>
       </c>
       <c r="M129" s="22"/>
@@ -18653,15 +19085,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5000겁</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5E+79</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -18669,15 +19101,15 @@
         <v>겁</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+76</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>70125</v>
       </c>
       <c r="L130" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>280500</v>
       </c>
       <c r="M130" s="22"/>
@@ -18687,15 +19119,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1업</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+80</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -18703,15 +19135,15 @@
         <v>업</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+80</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>71250</v>
       </c>
       <c r="L131" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>285000</v>
       </c>
       <c r="M131" s="22"/>
@@ -18721,15 +19153,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5업</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999996E+80</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -18737,15 +19169,15 @@
         <v>업</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+80</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>72375</v>
       </c>
       <c r="L132" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>289500</v>
       </c>
       <c r="M132" s="22"/>
@@ -18755,15 +19187,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" ref="F133:F184" si="19">H133&amp;I133</f>
+        <f t="shared" ref="F133:F184" si="21">H133&amp;I133</f>
         <v>10업</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -18771,15 +19203,15 @@
         <v>업</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+80</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>73500</v>
       </c>
       <c r="L133" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>294000</v>
       </c>
       <c r="M133" s="22"/>
@@ -18789,15 +19221,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50업</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999998E+81</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -18805,15 +19237,15 @@
         <v>업</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+80</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>74625</v>
       </c>
       <c r="L134" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>298500</v>
       </c>
       <c r="M134" s="22"/>
@@ -18823,15 +19255,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100업</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -18839,15 +19271,15 @@
         <v>업</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+80</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>75750</v>
       </c>
       <c r="L135" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>303000</v>
       </c>
       <c r="M135" s="22"/>
@@ -18857,15 +19289,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>500업</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000002E+82</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -18873,15 +19305,15 @@
         <v>업</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+80</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>76875</v>
       </c>
       <c r="L136" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>307500</v>
       </c>
       <c r="M136" s="22"/>
@@ -18891,15 +19323,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000업</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+83</v>
       </c>
       <c r="H137" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="I137" s="16" t="str" cm="1">
@@ -18907,15 +19339,15 @@
         <v>업</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" ref="J137:J200" si="20">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="22">VLOOKUP(I137,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78000</v>
       </c>
       <c r="L137" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>312000</v>
       </c>
       <c r="M137" s="22"/>
@@ -18925,15 +19357,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5000업</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" ref="G138:G184" si="21">H138*J138</f>
+        <f t="shared" ref="G138:G184" si="23">H138*J138</f>
         <v>5.0000000000000003E+83</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000</v>
       </c>
       <c r="I138" s="16" t="str" cm="1">
@@ -18941,15 +19373,15 @@
         <v>업</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+80</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" ref="K138:K184" si="22">L138*0.25</f>
+        <f t="shared" ref="K138:K184" si="24">L138*0.25</f>
         <v>79125</v>
       </c>
       <c r="L138" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>316500</v>
       </c>
       <c r="M138" s="22"/>
@@ -18959,15 +19391,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1긍</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I139" s="16" t="str" cm="1">
@@ -18975,15 +19407,15 @@
         <v>긍</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+84</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>80250</v>
       </c>
       <c r="L139" s="22">
-        <f t="shared" ref="L139:L184" si="23">L138+500+QUOTIENT(E139,15)*500</f>
+        <f t="shared" ref="L139:L184" si="25">L138+500+QUOTIENT(E139,15)*500</f>
         <v>321000</v>
       </c>
       <c r="M139" s="22"/>
@@ -18993,15 +19425,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5긍</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000001E+84</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="I140" s="16" t="str" cm="1">
@@ -19009,15 +19441,15 @@
         <v>긍</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+84</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>81375</v>
       </c>
       <c r="L140" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>325500</v>
       </c>
       <c r="M140" s="22"/>
@@ -19027,15 +19459,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10긍</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+85</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="I141" s="16" t="str" cm="1">
@@ -19043,15 +19475,15 @@
         <v>긍</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+84</v>
       </c>
       <c r="K141" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>82500</v>
       </c>
       <c r="L141" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>330000</v>
       </c>
       <c r="M141" s="22"/>
@@ -19061,15 +19493,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50긍</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000001E+85</v>
       </c>
       <c r="H142" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="I142" s="16" t="str" cm="1">
@@ -19077,15 +19509,15 @@
         <v>긍</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+84</v>
       </c>
       <c r="K142" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>83625</v>
       </c>
       <c r="L142" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>334500</v>
       </c>
       <c r="M142" s="22"/>
@@ -19095,15 +19527,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100긍</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+86</v>
       </c>
       <c r="H143" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I143" s="16" t="str" cm="1">
@@ -19111,15 +19543,15 @@
         <v>긍</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+84</v>
       </c>
       <c r="K143" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>84750</v>
       </c>
       <c r="L143" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>339000</v>
       </c>
       <c r="M143" s="22"/>
@@ -19129,15 +19561,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>500긍</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999998E+86</v>
       </c>
       <c r="H144" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="I144" s="16" t="str" cm="1">
@@ -19145,15 +19577,15 @@
         <v>긍</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+84</v>
       </c>
       <c r="K144" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>86000</v>
       </c>
       <c r="L144" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>344000</v>
       </c>
       <c r="M144" s="22"/>
@@ -19163,15 +19595,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000긍</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="H145" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="I145" s="16" t="str" cm="1">
@@ -19179,15 +19611,15 @@
         <v>긍</v>
       </c>
       <c r="J145" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+84</v>
       </c>
       <c r="K145" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>87250</v>
       </c>
       <c r="L145" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>349000</v>
       </c>
       <c r="M145" s="22"/>
@@ -19197,15 +19629,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5000긍</v>
       </c>
       <c r="G146" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000007E+87</v>
       </c>
       <c r="H146" s="17">
-        <f t="shared" ref="H146:H251" si="24">H138</f>
+        <f t="shared" ref="H146:H258" si="26">H138</f>
         <v>5000</v>
       </c>
       <c r="I146" s="16" t="str" cm="1">
@@ -19213,15 +19645,15 @@
         <v>긍</v>
       </c>
       <c r="J146" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+84</v>
       </c>
       <c r="K146" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>88500</v>
       </c>
       <c r="L146" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>354000</v>
       </c>
       <c r="M146" s="22"/>
@@ -19231,15 +19663,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1갈</v>
       </c>
       <c r="G147" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="H147" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I147" s="16" t="str" cm="1">
@@ -19247,15 +19679,15 @@
         <v>갈</v>
       </c>
       <c r="J147" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+88</v>
       </c>
       <c r="K147" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>89750</v>
       </c>
       <c r="L147" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>359000</v>
       </c>
       <c r="M147" s="22"/>
@@ -19265,15 +19697,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5갈</v>
       </c>
       <c r="G148" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5E+88</v>
       </c>
       <c r="H148" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I148" s="16" t="str" cm="1">
@@ -19281,15 +19713,15 @@
         <v>갈</v>
       </c>
       <c r="J148" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+88</v>
       </c>
       <c r="K148" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>91000</v>
       </c>
       <c r="L148" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>364000</v>
       </c>
       <c r="M148" s="22"/>
@@ -19299,15 +19731,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10갈</v>
       </c>
       <c r="G149" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="H149" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I149" s="16" t="str" cm="1">
@@ -19315,15 +19747,15 @@
         <v>갈</v>
       </c>
       <c r="J149" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+88</v>
       </c>
       <c r="K149" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>92250</v>
       </c>
       <c r="L149" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>369000</v>
       </c>
       <c r="M149" s="22"/>
@@ -19333,15 +19765,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50갈</v>
       </c>
       <c r="G150" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999998E+89</v>
       </c>
       <c r="H150" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I150" s="16" t="str" cm="1">
@@ -19349,15 +19781,15 @@
         <v>갈</v>
       </c>
       <c r="J150" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+88</v>
       </c>
       <c r="K150" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>93500</v>
       </c>
       <c r="L150" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>374000</v>
       </c>
       <c r="M150" s="22"/>
@@ -19367,15 +19799,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100갈</v>
       </c>
       <c r="G151" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="H151" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I151" s="16" t="str" cm="1">
@@ -19383,15 +19815,15 @@
         <v>갈</v>
       </c>
       <c r="J151" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+88</v>
       </c>
       <c r="K151" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>94750</v>
       </c>
       <c r="L151" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>379000</v>
       </c>
       <c r="M151" s="22"/>
@@ -19401,15 +19833,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>500갈</v>
       </c>
       <c r="G152" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999995E+90</v>
       </c>
       <c r="H152" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I152" s="16" t="str" cm="1">
@@ -19417,15 +19849,15 @@
         <v>갈</v>
       </c>
       <c r="J152" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+88</v>
       </c>
       <c r="K152" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>96000</v>
       </c>
       <c r="L152" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>384000</v>
       </c>
       <c r="M152" s="22"/>
@@ -19435,15 +19867,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000갈</v>
       </c>
       <c r="G153" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="H153" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I153" s="16" t="str" cm="1">
@@ -19451,15 +19883,15 @@
         <v>갈</v>
       </c>
       <c r="J153" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+88</v>
       </c>
       <c r="K153" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>97250</v>
       </c>
       <c r="L153" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>389000</v>
       </c>
       <c r="M153" s="22"/>
@@ -19469,15 +19901,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5000갈</v>
       </c>
       <c r="G154" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999995E+91</v>
       </c>
       <c r="H154" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I154" s="16" t="str" cm="1">
@@ -19485,15 +19917,15 @@
         <v>갈</v>
       </c>
       <c r="J154" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+88</v>
       </c>
       <c r="K154" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>98500</v>
       </c>
       <c r="L154" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>394000</v>
       </c>
       <c r="M154" s="22"/>
@@ -19503,15 +19935,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1라</v>
       </c>
       <c r="G155" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+92</v>
       </c>
       <c r="H155" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I155" s="16" t="str" cm="1">
@@ -19519,15 +19951,15 @@
         <v>라</v>
       </c>
       <c r="J155" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+92</v>
       </c>
       <c r="K155" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>99750</v>
       </c>
       <c r="L155" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>399000</v>
       </c>
       <c r="M155" s="22"/>
@@ -19537,15 +19969,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5라</v>
       </c>
       <c r="G156" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000002E+92</v>
       </c>
       <c r="H156" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I156" s="16" t="str" cm="1">
@@ -19553,15 +19985,15 @@
         <v>라</v>
       </c>
       <c r="J156" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+92</v>
       </c>
       <c r="K156" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>101000</v>
       </c>
       <c r="L156" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>404000</v>
       </c>
       <c r="M156" s="22"/>
@@ -19571,15 +20003,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10라</v>
       </c>
       <c r="G157" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+93</v>
       </c>
       <c r="H157" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I157" s="16" t="str" cm="1">
@@ -19587,15 +20019,15 @@
         <v>라</v>
       </c>
       <c r="J157" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+92</v>
       </c>
       <c r="K157" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>102250</v>
       </c>
       <c r="L157" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>409000</v>
       </c>
       <c r="M157" s="22"/>
@@ -19605,15 +20037,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50라</v>
       </c>
       <c r="G158" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000001E+93</v>
       </c>
       <c r="H158" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I158" s="16" t="str" cm="1">
@@ -19621,15 +20053,15 @@
         <v>라</v>
       </c>
       <c r="J158" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+92</v>
       </c>
       <c r="K158" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>103500</v>
       </c>
       <c r="L158" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>414000</v>
       </c>
       <c r="M158" s="22"/>
@@ -19639,15 +20071,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100라</v>
       </c>
       <c r="G159" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+94</v>
       </c>
       <c r="H159" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I159" s="16" t="str" cm="1">
@@ -19655,15 +20087,15 @@
         <v>라</v>
       </c>
       <c r="J159" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+92</v>
       </c>
       <c r="K159" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>104875</v>
       </c>
       <c r="L159" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>419500</v>
       </c>
       <c r="M159" s="22"/>
@@ -19673,15 +20105,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>500라</v>
       </c>
       <c r="G160" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000001E+94</v>
       </c>
       <c r="H160" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I160" s="16" t="str" cm="1">
@@ -19689,15 +20121,15 @@
         <v>라</v>
       </c>
       <c r="J160" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+92</v>
       </c>
       <c r="K160" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>106250</v>
       </c>
       <c r="L160" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>425000</v>
       </c>
       <c r="M160" s="22"/>
@@ -19707,15 +20139,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000라</v>
       </c>
       <c r="G161" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+95</v>
       </c>
       <c r="H161" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I161" s="16" t="str" cm="1">
@@ -19723,15 +20155,15 @@
         <v>라</v>
       </c>
       <c r="J161" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+92</v>
       </c>
       <c r="K161" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107625</v>
       </c>
       <c r="L161" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>430500</v>
       </c>
       <c r="M161" s="22"/>
@@ -19741,15 +20173,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5000라</v>
       </c>
       <c r="G162" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000002E+95</v>
       </c>
       <c r="H162" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I162" s="16" t="str" cm="1">
@@ -19757,15 +20189,15 @@
         <v>라</v>
       </c>
       <c r="J162" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+92</v>
       </c>
       <c r="K162" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>109000</v>
       </c>
       <c r="L162" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>436000</v>
       </c>
       <c r="M162" s="22"/>
@@ -19775,15 +20207,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1가</v>
       </c>
       <c r="G163" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+96</v>
       </c>
       <c r="H163" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I163" s="16" t="str" cm="1">
@@ -19791,15 +20223,15 @@
         <v>가</v>
       </c>
       <c r="J163" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="K163" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>110375</v>
       </c>
       <c r="L163" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>441500</v>
       </c>
       <c r="M163" s="22"/>
@@ -19809,15 +20241,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5가</v>
       </c>
       <c r="G164" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H164" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I164" s="16" t="str" cm="1">
@@ -19825,15 +20257,15 @@
         <v>가</v>
       </c>
       <c r="J164" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="K164" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111750</v>
       </c>
       <c r="L164" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>447000</v>
       </c>
       <c r="M164" s="22"/>
@@ -19843,15 +20275,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10가</v>
       </c>
       <c r="G165" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H165" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I165" s="16" t="str" cm="1">
@@ -19859,15 +20291,15 @@
         <v>가</v>
       </c>
       <c r="J165" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="K165" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>113125</v>
       </c>
       <c r="L165" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>452500</v>
       </c>
       <c r="M165" s="22"/>
@@ -19877,15 +20309,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50가</v>
       </c>
       <c r="G166" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5E+97</v>
       </c>
       <c r="H166" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I166" s="16" t="str" cm="1">
@@ -19893,15 +20325,15 @@
         <v>가</v>
       </c>
       <c r="J166" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="K166" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>114500</v>
       </c>
       <c r="L166" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>458000</v>
       </c>
       <c r="M166" s="22"/>
@@ -19911,15 +20343,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100가</v>
       </c>
       <c r="G167" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+98</v>
       </c>
       <c r="H167" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I167" s="16" t="str" cm="1">
@@ -19927,15 +20359,15 @@
         <v>가</v>
       </c>
       <c r="J167" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="K167" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115875</v>
       </c>
       <c r="L167" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>463500</v>
       </c>
       <c r="M167" s="22"/>
@@ -19945,15 +20377,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>500가</v>
       </c>
       <c r="G168" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H168" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I168" s="16" t="str" cm="1">
@@ -19961,15 +20393,15 @@
         <v>가</v>
       </c>
       <c r="J168" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="K168" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>117250</v>
       </c>
       <c r="L168" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>469000</v>
       </c>
       <c r="M168" s="22"/>
@@ -19979,15 +20411,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000가</v>
       </c>
       <c r="G169" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H169" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I169" s="16" t="str" cm="1">
@@ -19995,15 +20427,15 @@
         <v>가</v>
       </c>
       <c r="J169" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="K169" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>118625</v>
       </c>
       <c r="L169" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>474500</v>
       </c>
       <c r="M169" s="22"/>
@@ -20013,15 +20445,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5000가</v>
       </c>
       <c r="G170" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H170" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I170" s="16" t="str" cm="1">
@@ -20029,15 +20461,15 @@
         <v>가</v>
       </c>
       <c r="J170" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+96</v>
       </c>
       <c r="K170" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>120000</v>
       </c>
       <c r="L170" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>480000</v>
       </c>
       <c r="M170" s="22"/>
@@ -20047,15 +20479,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1언</v>
       </c>
       <c r="G171" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+100</v>
       </c>
       <c r="H171" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I171" s="16" t="str" cm="1">
@@ -20063,15 +20495,15 @@
         <v>언</v>
       </c>
       <c r="J171" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K171" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>121375</v>
       </c>
       <c r="L171" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>485500</v>
       </c>
       <c r="M171" s="22"/>
@@ -20081,15 +20513,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5언</v>
       </c>
       <c r="G172" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H172" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I172" s="16" t="str" cm="1">
@@ -20097,15 +20529,15 @@
         <v>언</v>
       </c>
       <c r="J172" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K172" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>122750</v>
       </c>
       <c r="L172" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>491000</v>
       </c>
       <c r="M172" s="22"/>
@@ -20115,15 +20547,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10언</v>
       </c>
       <c r="G173" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H173" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I173" s="16" t="str" cm="1">
@@ -20131,15 +20563,15 @@
         <v>언</v>
       </c>
       <c r="J173" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K173" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>124125</v>
       </c>
       <c r="L173" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>496500</v>
       </c>
       <c r="M173" s="22"/>
@@ -20149,15 +20581,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50언</v>
       </c>
       <c r="G174" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H174" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I174" s="16" t="str" cm="1">
@@ -20165,15 +20597,15 @@
         <v>언</v>
       </c>
       <c r="J174" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K174" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>125625</v>
       </c>
       <c r="L174" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>502500</v>
       </c>
       <c r="M174" s="22"/>
@@ -20183,15 +20615,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100언</v>
       </c>
       <c r="G175" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H175" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I175" s="16" t="str" cm="1">
@@ -20199,15 +20631,15 @@
         <v>언</v>
       </c>
       <c r="J175" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K175" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>127125</v>
       </c>
       <c r="L175" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>508500</v>
       </c>
       <c r="M175" s="22"/>
@@ -20217,15 +20649,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>500언</v>
       </c>
       <c r="G176" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5E+102</v>
       </c>
       <c r="H176" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I176" s="16" t="str" cm="1">
@@ -20233,15 +20665,15 @@
         <v>언</v>
       </c>
       <c r="J176" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K176" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>128625</v>
       </c>
       <c r="L176" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>514500</v>
       </c>
       <c r="M176" s="22"/>
@@ -20251,15 +20683,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1000언</v>
       </c>
       <c r="G177" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+103</v>
       </c>
       <c r="H177" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I177" s="16" t="str" cm="1">
@@ -20267,15 +20699,15 @@
         <v>언</v>
       </c>
       <c r="J177" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K177" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>130125</v>
       </c>
       <c r="L177" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>520500</v>
       </c>
       <c r="M177" s="22"/>
@@ -20285,15 +20717,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5000언</v>
       </c>
       <c r="G178" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5E+103</v>
       </c>
       <c r="H178" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I178" s="16" t="str" cm="1">
@@ -20301,15 +20733,15 @@
         <v>언</v>
       </c>
       <c r="J178" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+100</v>
       </c>
       <c r="K178" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>131625</v>
       </c>
       <c r="L178" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>526500</v>
       </c>
       <c r="M178" s="22"/>
@@ -20319,15 +20751,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1승</v>
       </c>
       <c r="G179" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+104</v>
       </c>
       <c r="H179" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I179" s="16" t="str" cm="1">
@@ -20335,15 +20767,15 @@
         <v>승</v>
       </c>
       <c r="J179" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K179" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>133125</v>
       </c>
       <c r="L179" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>532500</v>
       </c>
       <c r="M179" s="22"/>
@@ -20353,15 +20785,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5승</v>
       </c>
       <c r="G180" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H180" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I180" s="16" t="str" cm="1">
@@ -20369,15 +20801,15 @@
         <v>승</v>
       </c>
       <c r="J180" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K180" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>134625</v>
       </c>
       <c r="L180" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>538500</v>
       </c>
       <c r="M180" s="22"/>
@@ -20387,15 +20819,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10승</v>
       </c>
       <c r="G181" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H181" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I181" s="16" t="str" cm="1">
@@ -20403,15 +20835,15 @@
         <v>승</v>
       </c>
       <c r="J181" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K181" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>136125</v>
       </c>
       <c r="L181" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>544500</v>
       </c>
       <c r="M181" s="22"/>
@@ -20421,15 +20853,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50승</v>
       </c>
       <c r="G182" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H182" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I182" s="16" t="str" cm="1">
@@ -20437,15 +20869,15 @@
         <v>승</v>
       </c>
       <c r="J182" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K182" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>137625</v>
       </c>
       <c r="L182" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>550500</v>
       </c>
       <c r="M182" s="22"/>
@@ -20455,15 +20887,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100승</v>
       </c>
       <c r="G183" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H183" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I183" s="16" t="str" cm="1">
@@ -20471,15 +20903,15 @@
         <v>승</v>
       </c>
       <c r="J183" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K183" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>139125</v>
       </c>
       <c r="L183" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>556500</v>
       </c>
       <c r="M183" s="22"/>
@@ -20489,15 +20921,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>500승</v>
       </c>
       <c r="G184" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H184" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I184" s="16" t="str" cm="1">
@@ -20505,15 +20937,15 @@
         <v>승</v>
       </c>
       <c r="J184" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K184" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>140625</v>
       </c>
       <c r="L184" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>562500</v>
       </c>
       <c r="M184" s="22"/>
@@ -20523,15 +20955,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="17" t="str">
-        <f t="shared" ref="F185:F234" si="25">H185&amp;I185</f>
+        <f t="shared" ref="F185:F234" si="27">H185&amp;I185</f>
         <v>1000승</v>
       </c>
       <c r="G185" s="17">
-        <f t="shared" ref="G185:G234" si="26">H185*J185</f>
+        <f t="shared" ref="G185:G234" si="28">H185*J185</f>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H185" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I185" s="16" t="str" cm="1">
@@ -20539,15 +20971,15 @@
         <v>승</v>
       </c>
       <c r="J185" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K185" s="22">
-        <f t="shared" ref="K185:K234" si="27">L185*0.25</f>
+        <f t="shared" ref="K185:K234" si="29">L185*0.25</f>
         <v>142125</v>
       </c>
       <c r="L185" s="22">
-        <f t="shared" ref="L185:L234" si="28">L184+500+QUOTIENT(E185,15)*500</f>
+        <f t="shared" ref="L185:L234" si="30">L184+500+QUOTIENT(E185,15)*500</f>
         <v>568500</v>
       </c>
     </row>
@@ -20556,15 +20988,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000승</v>
       </c>
       <c r="G186" s="17">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000002E+107</v>
+      </c>
+      <c r="H186" s="17">
         <f t="shared" si="26"/>
-        <v>5.0000000000000002E+107</v>
-      </c>
-      <c r="H186" s="17">
-        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I186" s="16" t="str" cm="1">
@@ -20572,15 +21004,15 @@
         <v>승</v>
       </c>
       <c r="J186" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+104</v>
       </c>
       <c r="K186" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>143625</v>
       </c>
       <c r="L186" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>574500</v>
       </c>
     </row>
@@ -20589,15 +21021,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1마</v>
       </c>
       <c r="G187" s="17">
+        <f t="shared" si="28"/>
+        <v>1E+108</v>
+      </c>
+      <c r="H187" s="17">
         <f t="shared" si="26"/>
-        <v>1E+108</v>
-      </c>
-      <c r="H187" s="17">
-        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I187" s="16" t="str" cm="1">
@@ -20605,15 +21037,15 @@
         <v>마</v>
       </c>
       <c r="J187" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K187" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>145125</v>
       </c>
       <c r="L187" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>580500</v>
       </c>
     </row>
@@ -20622,15 +21054,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5마</v>
       </c>
       <c r="G188" s="17">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999999E+108</v>
+      </c>
+      <c r="H188" s="17">
         <f t="shared" si="26"/>
-        <v>4.9999999999999999E+108</v>
-      </c>
-      <c r="H188" s="17">
-        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I188" s="16" t="str" cm="1">
@@ -20638,15 +21070,15 @@
         <v>마</v>
       </c>
       <c r="J188" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K188" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>146625</v>
       </c>
       <c r="L188" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>586500</v>
       </c>
     </row>
@@ -20655,15 +21087,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10마</v>
       </c>
       <c r="G189" s="17">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999998E+108</v>
+      </c>
+      <c r="H189" s="17">
         <f t="shared" si="26"/>
-        <v>9.9999999999999998E+108</v>
-      </c>
-      <c r="H189" s="17">
-        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I189" s="16" t="str" cm="1">
@@ -20671,15 +21103,15 @@
         <v>마</v>
       </c>
       <c r="J189" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K189" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>148250</v>
       </c>
       <c r="L189" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>593000</v>
       </c>
     </row>
@@ -20688,15 +21120,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50마</v>
       </c>
       <c r="G190" s="17">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000001E+109</v>
+      </c>
+      <c r="H190" s="17">
         <f t="shared" si="26"/>
-        <v>5.0000000000000001E+109</v>
-      </c>
-      <c r="H190" s="17">
-        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I190" s="16" t="str" cm="1">
@@ -20704,15 +21136,15 @@
         <v>마</v>
       </c>
       <c r="J190" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K190" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>149875</v>
       </c>
       <c r="L190" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>599500</v>
       </c>
     </row>
@@ -20721,15 +21153,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100마</v>
       </c>
       <c r="G191" s="17">
+        <f t="shared" si="28"/>
+        <v>1E+110</v>
+      </c>
+      <c r="H191" s="17">
         <f t="shared" si="26"/>
-        <v>1E+110</v>
-      </c>
-      <c r="H191" s="17">
-        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I191" s="16" t="str" cm="1">
@@ -20737,15 +21169,15 @@
         <v>마</v>
       </c>
       <c r="J191" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K191" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>151500</v>
       </c>
       <c r="L191" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>606000</v>
       </c>
     </row>
@@ -20754,15 +21186,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>500마</v>
       </c>
       <c r="G192" s="17">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000005E+110</v>
+      </c>
+      <c r="H192" s="17">
         <f t="shared" si="26"/>
-        <v>5.0000000000000005E+110</v>
-      </c>
-      <c r="H192" s="17">
-        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I192" s="16" t="str" cm="1">
@@ -20770,15 +21202,15 @@
         <v>마</v>
       </c>
       <c r="J192" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K192" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>153125</v>
       </c>
       <c r="L192" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>612500</v>
       </c>
     </row>
@@ -20787,15 +21219,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000마</v>
       </c>
       <c r="G193" s="17">
+        <f t="shared" si="28"/>
+        <v>1.0000000000000001E+111</v>
+      </c>
+      <c r="H193" s="17">
         <f t="shared" si="26"/>
-        <v>1.0000000000000001E+111</v>
-      </c>
-      <c r="H193" s="17">
-        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I193" s="16" t="str" cm="1">
@@ -20803,15 +21235,15 @@
         <v>마</v>
       </c>
       <c r="J193" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K193" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>154750</v>
       </c>
       <c r="L193" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>619000</v>
       </c>
     </row>
@@ -20820,15 +21252,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000마</v>
       </c>
       <c r="G194" s="17">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999997E+111</v>
+      </c>
+      <c r="H194" s="17">
         <f t="shared" si="26"/>
-        <v>4.9999999999999997E+111</v>
-      </c>
-      <c r="H194" s="17">
-        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I194" s="16" t="str" cm="1">
@@ -20836,15 +21268,15 @@
         <v>마</v>
       </c>
       <c r="J194" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+108</v>
       </c>
       <c r="K194" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>156375</v>
       </c>
       <c r="L194" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>625500</v>
       </c>
     </row>
@@ -20853,15 +21285,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1살</v>
       </c>
       <c r="G195" s="17">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999993E+111</v>
+      </c>
+      <c r="H195" s="17">
         <f t="shared" si="26"/>
-        <v>9.9999999999999993E+111</v>
-      </c>
-      <c r="H195" s="17">
-        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I195" s="16" t="str" cm="1">
@@ -20869,15 +21301,15 @@
         <v>살</v>
       </c>
       <c r="J195" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+112</v>
       </c>
       <c r="K195" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>158000</v>
       </c>
       <c r="L195" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>632000</v>
       </c>
     </row>
@@ -20886,15 +21318,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5살</v>
       </c>
       <c r="G196" s="17">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000001E+112</v>
+      </c>
+      <c r="H196" s="17">
         <f t="shared" si="26"/>
-        <v>5.0000000000000001E+112</v>
-      </c>
-      <c r="H196" s="17">
-        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I196" s="16" t="str" cm="1">
@@ -20902,15 +21334,15 @@
         <v>살</v>
       </c>
       <c r="J196" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+112</v>
       </c>
       <c r="K196" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>159625</v>
       </c>
       <c r="L196" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>638500</v>
       </c>
     </row>
@@ -20919,15 +21351,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10살</v>
       </c>
       <c r="G197" s="17">
+        <f t="shared" si="28"/>
+        <v>1E+113</v>
+      </c>
+      <c r="H197" s="17">
         <f t="shared" si="26"/>
-        <v>1E+113</v>
-      </c>
-      <c r="H197" s="17">
-        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I197" s="16" t="str" cm="1">
@@ -20935,15 +21367,15 @@
         <v>살</v>
       </c>
       <c r="J197" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+112</v>
       </c>
       <c r="K197" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>161250</v>
       </c>
       <c r="L197" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>645000</v>
       </c>
     </row>
@@ -20952,15 +21384,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50살</v>
       </c>
       <c r="G198" s="17">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999994E+113</v>
+      </c>
+      <c r="H198" s="17">
         <f t="shared" si="26"/>
-        <v>4.9999999999999994E+113</v>
-      </c>
-      <c r="H198" s="17">
-        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I198" s="16" t="str" cm="1">
@@ -20968,15 +21400,15 @@
         <v>살</v>
       </c>
       <c r="J198" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+112</v>
       </c>
       <c r="K198" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>162875</v>
       </c>
       <c r="L198" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>651500</v>
       </c>
     </row>
@@ -20985,15 +21417,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100살</v>
       </c>
       <c r="G199" s="17">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999988E+113</v>
+      </c>
+      <c r="H199" s="17">
         <f t="shared" si="26"/>
-        <v>9.9999999999999988E+113</v>
-      </c>
-      <c r="H199" s="17">
-        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I199" s="16" t="str" cm="1">
@@ -21001,15 +21433,15 @@
         <v>살</v>
       </c>
       <c r="J199" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+112</v>
       </c>
       <c r="K199" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>164500</v>
       </c>
       <c r="L199" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>658000</v>
       </c>
     </row>
@@ -21018,15 +21450,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>500살</v>
       </c>
       <c r="G200" s="17">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000001E+114</v>
+      </c>
+      <c r="H200" s="17">
         <f t="shared" si="26"/>
-        <v>5.0000000000000001E+114</v>
-      </c>
-      <c r="H200" s="17">
-        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I200" s="16" t="str" cm="1">
@@ -21034,15 +21466,15 @@
         <v>살</v>
       </c>
       <c r="J200" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+112</v>
       </c>
       <c r="K200" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>166125</v>
       </c>
       <c r="L200" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>664500</v>
       </c>
     </row>
@@ -21051,15 +21483,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000살</v>
       </c>
       <c r="G201" s="17">
+        <f t="shared" si="28"/>
+        <v>1E+115</v>
+      </c>
+      <c r="H201" s="17">
         <f t="shared" si="26"/>
-        <v>1E+115</v>
-      </c>
-      <c r="H201" s="17">
-        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I201" s="16" t="str" cm="1">
@@ -21067,15 +21499,15 @@
         <v>살</v>
       </c>
       <c r="J201" s="16" t="str">
-        <f t="shared" ref="J201:J234" si="29">VLOOKUP(I201,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J201:J234" si="31">VLOOKUP(I201,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K201" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>167750</v>
       </c>
       <c r="L201" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>671000</v>
       </c>
     </row>
@@ -21084,15 +21516,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000살</v>
       </c>
       <c r="G202" s="17">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000001E+115</v>
+      </c>
+      <c r="H202" s="17">
         <f t="shared" si="26"/>
-        <v>5.0000000000000001E+115</v>
-      </c>
-      <c r="H202" s="17">
-        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I202" s="16" t="str" cm="1">
@@ -21100,15 +21532,15 @@
         <v>살</v>
       </c>
       <c r="J202" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K202" s="22">
         <f t="shared" si="29"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K202" s="22">
-        <f t="shared" si="27"/>
         <v>169375</v>
       </c>
       <c r="L202" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>677500</v>
       </c>
     </row>
@@ -21117,15 +21549,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1섬</v>
       </c>
       <c r="G203" s="17">
+        <f t="shared" si="28"/>
+        <v>1E+116</v>
+      </c>
+      <c r="H203" s="17">
         <f t="shared" si="26"/>
-        <v>1E+116</v>
-      </c>
-      <c r="H203" s="17">
-        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I203" s="16" t="str" cm="1">
@@ -21133,15 +21565,15 @@
         <v>섬</v>
       </c>
       <c r="J203" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K203" s="22">
         <f t="shared" si="29"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K203" s="22">
-        <f t="shared" si="27"/>
         <v>171000</v>
       </c>
       <c r="L203" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>684000</v>
       </c>
     </row>
@@ -21150,15 +21582,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5섬</v>
       </c>
       <c r="G204" s="17">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000003E+116</v>
+      </c>
+      <c r="H204" s="17">
         <f t="shared" si="26"/>
-        <v>5.0000000000000003E+116</v>
-      </c>
-      <c r="H204" s="17">
-        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I204" s="16" t="str" cm="1">
@@ -21166,15 +21598,15 @@
         <v>섬</v>
       </c>
       <c r="J204" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K204" s="22">
         <f t="shared" si="29"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K204" s="22">
-        <f t="shared" si="27"/>
         <v>172750</v>
       </c>
       <c r="L204" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>691000</v>
       </c>
     </row>
@@ -21183,15 +21615,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10섬</v>
       </c>
       <c r="G205" s="17">
+        <f t="shared" si="28"/>
+        <v>1.0000000000000001E+117</v>
+      </c>
+      <c r="H205" s="17">
         <f t="shared" si="26"/>
-        <v>1.0000000000000001E+117</v>
-      </c>
-      <c r="H205" s="17">
-        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I205" s="16" t="str" cm="1">
@@ -21199,15 +21631,15 @@
         <v>섬</v>
       </c>
       <c r="J205" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K205" s="22">
         <f t="shared" si="29"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K205" s="22">
-        <f t="shared" si="27"/>
         <v>174500</v>
       </c>
       <c r="L205" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>698000</v>
       </c>
     </row>
@@ -21216,15 +21648,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50섬</v>
       </c>
       <c r="G206" s="17">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999998E+117</v>
+      </c>
+      <c r="H206" s="17">
         <f t="shared" si="26"/>
-        <v>4.9999999999999998E+117</v>
-      </c>
-      <c r="H206" s="17">
-        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I206" s="16" t="str" cm="1">
@@ -21232,15 +21664,15 @@
         <v>섬</v>
       </c>
       <c r="J206" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K206" s="22">
         <f t="shared" si="29"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K206" s="22">
-        <f t="shared" si="27"/>
         <v>176250</v>
       </c>
       <c r="L206" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>705000</v>
       </c>
     </row>
@@ -21249,15 +21681,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100섬</v>
       </c>
       <c r="G207" s="17">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999997E+117</v>
+      </c>
+      <c r="H207" s="17">
         <f t="shared" si="26"/>
-        <v>9.9999999999999997E+117</v>
-      </c>
-      <c r="H207" s="17">
-        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I207" s="16" t="str" cm="1">
@@ -21265,15 +21697,15 @@
         <v>섬</v>
       </c>
       <c r="J207" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K207" s="22">
         <f t="shared" si="29"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K207" s="22">
-        <f t="shared" si="27"/>
         <v>178000</v>
       </c>
       <c r="L207" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>712000</v>
       </c>
     </row>
@@ -21282,15 +21714,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>500섬</v>
       </c>
       <c r="G208" s="17">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999997E+118</v>
+      </c>
+      <c r="H208" s="17">
         <f t="shared" si="26"/>
-        <v>4.9999999999999997E+118</v>
-      </c>
-      <c r="H208" s="17">
-        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I208" s="16" t="str" cm="1">
@@ -21298,15 +21730,15 @@
         <v>섬</v>
       </c>
       <c r="J208" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K208" s="22">
         <f t="shared" si="29"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K208" s="22">
-        <f t="shared" si="27"/>
         <v>179750</v>
       </c>
       <c r="L208" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>719000</v>
       </c>
     </row>
@@ -21315,15 +21747,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000섬</v>
       </c>
       <c r="G209" s="17">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999994E+118</v>
+      </c>
+      <c r="H209" s="17">
         <f t="shared" si="26"/>
-        <v>9.9999999999999994E+118</v>
-      </c>
-      <c r="H209" s="17">
-        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I209" s="16" t="str" cm="1">
@@ -21331,15 +21763,15 @@
         <v>섬</v>
       </c>
       <c r="J209" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K209" s="22">
         <f t="shared" si="29"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K209" s="22">
-        <f t="shared" si="27"/>
         <v>181500</v>
       </c>
       <c r="L209" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>726000</v>
       </c>
     </row>
@@ -21348,15 +21780,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000섬</v>
       </c>
       <c r="G210" s="17">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999999E+119</v>
+      </c>
+      <c r="H210" s="17">
         <f t="shared" si="26"/>
-        <v>4.9999999999999999E+119</v>
-      </c>
-      <c r="H210" s="17">
-        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I210" s="16" t="str" cm="1">
@@ -21364,15 +21796,15 @@
         <v>섬</v>
       </c>
       <c r="J210" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K210" s="22">
         <f t="shared" si="29"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K210" s="22">
-        <f t="shared" si="27"/>
         <v>183250</v>
       </c>
       <c r="L210" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>733000</v>
       </c>
     </row>
@@ -21381,15 +21813,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1찰</v>
       </c>
       <c r="G211" s="17">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999998E+119</v>
+      </c>
+      <c r="H211" s="17">
         <f t="shared" si="26"/>
-        <v>9.9999999999999998E+119</v>
-      </c>
-      <c r="H211" s="17">
-        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I211" s="16" t="str" cm="1">
@@ -21397,15 +21829,15 @@
         <v>찰</v>
       </c>
       <c r="J211" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K211" s="22">
         <f t="shared" si="29"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K211" s="22">
-        <f t="shared" si="27"/>
         <v>185000</v>
       </c>
       <c r="L211" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>740000</v>
       </c>
     </row>
@@ -21414,15 +21846,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5찰</v>
       </c>
       <c r="G212" s="17">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999996E+120</v>
+      </c>
+      <c r="H212" s="17">
         <f t="shared" si="26"/>
-        <v>4.9999999999999996E+120</v>
-      </c>
-      <c r="H212" s="17">
-        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I212" s="16" t="str" cm="1">
@@ -21430,15 +21862,15 @@
         <v>찰</v>
       </c>
       <c r="J212" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K212" s="22">
         <f t="shared" si="29"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K212" s="22">
-        <f t="shared" si="27"/>
         <v>186750</v>
       </c>
       <c r="L212" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>747000</v>
       </c>
     </row>
@@ -21447,15 +21879,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10찰</v>
       </c>
       <c r="G213" s="17">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999992E+120</v>
+      </c>
+      <c r="H213" s="17">
         <f t="shared" si="26"/>
-        <v>9.9999999999999992E+120</v>
-      </c>
-      <c r="H213" s="17">
-        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I213" s="16" t="str" cm="1">
@@ -21463,15 +21895,15 @@
         <v>찰</v>
       </c>
       <c r="J213" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K213" s="22">
         <f t="shared" si="29"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K213" s="22">
-        <f t="shared" si="27"/>
         <v>188500</v>
       </c>
       <c r="L213" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>754000</v>
       </c>
     </row>
@@ -21480,15 +21912,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50찰</v>
       </c>
       <c r="G214" s="17">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000001E+121</v>
+      </c>
+      <c r="H214" s="17">
         <f t="shared" si="26"/>
-        <v>5.0000000000000001E+121</v>
-      </c>
-      <c r="H214" s="17">
-        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I214" s="16" t="str" cm="1">
@@ -21496,15 +21928,15 @@
         <v>찰</v>
       </c>
       <c r="J214" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K214" s="22">
         <f t="shared" si="29"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K214" s="22">
-        <f t="shared" si="27"/>
         <v>190250</v>
       </c>
       <c r="L214" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>761000</v>
       </c>
     </row>
@@ -21513,15 +21945,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100찰</v>
       </c>
       <c r="G215" s="17">
+        <f t="shared" si="28"/>
+        <v>1E+122</v>
+      </c>
+      <c r="H215" s="17">
         <f t="shared" si="26"/>
-        <v>1E+122</v>
-      </c>
-      <c r="H215" s="17">
-        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I215" s="16" t="str" cm="1">
@@ -21529,15 +21961,15 @@
         <v>찰</v>
       </c>
       <c r="J215" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K215" s="22">
         <f t="shared" si="29"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K215" s="22">
-        <f t="shared" si="27"/>
         <v>192000</v>
       </c>
       <c r="L215" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>768000</v>
       </c>
     </row>
@@ -21546,15 +21978,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>500찰</v>
       </c>
       <c r="G216" s="17">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999999E+122</v>
+      </c>
+      <c r="H216" s="17">
         <f t="shared" si="26"/>
-        <v>4.9999999999999999E+122</v>
-      </c>
-      <c r="H216" s="17">
-        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I216" s="16" t="str" cm="1">
@@ -21562,15 +21994,15 @@
         <v>찰</v>
       </c>
       <c r="J216" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K216" s="22">
         <f t="shared" si="29"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K216" s="22">
-        <f t="shared" si="27"/>
         <v>193750</v>
       </c>
       <c r="L216" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>775000</v>
       </c>
     </row>
@@ -21579,15 +22011,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000찰</v>
       </c>
       <c r="G217" s="17">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999998E+122</v>
+      </c>
+      <c r="H217" s="17">
         <f t="shared" si="26"/>
-        <v>9.9999999999999998E+122</v>
-      </c>
-      <c r="H217" s="17">
-        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I217" s="16" t="str" cm="1">
@@ -21595,15 +22027,15 @@
         <v>찰</v>
       </c>
       <c r="J217" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K217" s="22">
         <f t="shared" si="29"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K217" s="22">
-        <f t="shared" si="27"/>
         <v>195500</v>
       </c>
       <c r="L217" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>782000</v>
       </c>
     </row>
@@ -21612,15 +22044,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000찰</v>
       </c>
       <c r="G218" s="17">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999997E+123</v>
+      </c>
+      <c r="H218" s="17">
         <f t="shared" si="26"/>
-        <v>4.9999999999999997E+123</v>
-      </c>
-      <c r="H218" s="17">
-        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I218" s="16" t="str" cm="1">
@@ -21628,15 +22060,15 @@
         <v>찰</v>
       </c>
       <c r="J218" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K218" s="22">
         <f t="shared" si="29"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K218" s="22">
-        <f t="shared" si="27"/>
         <v>197250</v>
       </c>
       <c r="L218" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>789000</v>
       </c>
     </row>
@@ -21645,15 +22077,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1교</v>
       </c>
       <c r="G219" s="17">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="H219" s="17">
         <f t="shared" si="26"/>
-        <v>9.9999999999999995E+123</v>
-      </c>
-      <c r="H219" s="17">
-        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I219" s="16" t="str" cm="1">
@@ -21661,15 +22093,15 @@
         <v>교</v>
       </c>
       <c r="J219" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K219" s="22">
         <f t="shared" si="29"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K219" s="22">
-        <f t="shared" si="27"/>
         <v>199125</v>
       </c>
       <c r="L219" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>796500</v>
       </c>
     </row>
@@ -21678,15 +22110,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5교</v>
       </c>
       <c r="G220" s="17">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999996E+124</v>
+      </c>
+      <c r="H220" s="17">
         <f t="shared" si="26"/>
-        <v>4.9999999999999996E+124</v>
-      </c>
-      <c r="H220" s="17">
-        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I220" s="16" t="str" cm="1">
@@ -21694,15 +22126,15 @@
         <v>교</v>
       </c>
       <c r="J220" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K220" s="22">
         <f t="shared" si="29"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K220" s="22">
-        <f t="shared" si="27"/>
         <v>201000</v>
       </c>
       <c r="L220" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>804000</v>
       </c>
     </row>
@@ -21711,15 +22143,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10교</v>
       </c>
       <c r="G221" s="17">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999992E+124</v>
+      </c>
+      <c r="H221" s="17">
         <f t="shared" si="26"/>
-        <v>9.9999999999999992E+124</v>
-      </c>
-      <c r="H221" s="17">
-        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I221" s="16" t="str" cm="1">
@@ -21727,15 +22159,15 @@
         <v>교</v>
       </c>
       <c r="J221" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K221" s="22">
         <f t="shared" si="29"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K221" s="22">
-        <f t="shared" si="27"/>
         <v>202875</v>
       </c>
       <c r="L221" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>811500</v>
       </c>
     </row>
@@ -21744,15 +22176,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50교</v>
       </c>
       <c r="G222" s="17">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999996E+125</v>
+      </c>
+      <c r="H222" s="17">
         <f t="shared" si="26"/>
-        <v>4.9999999999999996E+125</v>
-      </c>
-      <c r="H222" s="17">
-        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I222" s="16" t="str" cm="1">
@@ -21760,15 +22192,15 @@
         <v>교</v>
       </c>
       <c r="J222" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K222" s="22">
         <f t="shared" si="29"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K222" s="22">
-        <f t="shared" si="27"/>
         <v>204750</v>
       </c>
       <c r="L222" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>819000</v>
       </c>
     </row>
@@ -21777,15 +22209,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100교</v>
       </c>
       <c r="G223" s="17">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999992E+125</v>
+      </c>
+      <c r="H223" s="17">
         <f t="shared" si="26"/>
-        <v>9.9999999999999992E+125</v>
-      </c>
-      <c r="H223" s="17">
-        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I223" s="16" t="str" cm="1">
@@ -21793,15 +22225,15 @@
         <v>교</v>
       </c>
       <c r="J223" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K223" s="22">
         <f t="shared" si="29"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K223" s="22">
-        <f t="shared" si="27"/>
         <v>206625</v>
       </c>
       <c r="L223" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>826500</v>
       </c>
     </row>
@@ -21810,15 +22242,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>500교</v>
       </c>
       <c r="G224" s="17">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="H224" s="17">
         <f t="shared" si="26"/>
-        <v>4.9999999999999998E+126</v>
-      </c>
-      <c r="H224" s="17">
-        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I224" s="16" t="str" cm="1">
@@ -21826,15 +22258,15 @@
         <v>교</v>
       </c>
       <c r="J224" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K224" s="22">
         <f t="shared" si="29"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K224" s="22">
-        <f t="shared" si="27"/>
         <v>208500</v>
       </c>
       <c r="L224" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>834000</v>
       </c>
     </row>
@@ -21843,15 +22275,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000교</v>
       </c>
       <c r="G225" s="17">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="H225" s="17">
         <f t="shared" si="26"/>
-        <v>9.9999999999999995E+126</v>
-      </c>
-      <c r="H225" s="17">
-        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I225" s="16" t="str" cm="1">
@@ -21859,15 +22291,15 @@
         <v>교</v>
       </c>
       <c r="J225" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K225" s="22">
         <f t="shared" si="29"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K225" s="22">
-        <f t="shared" si="27"/>
         <v>210375</v>
       </c>
       <c r="L225" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>841500</v>
       </c>
     </row>
@@ -21876,15 +22308,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000교</v>
       </c>
       <c r="G226" s="17">
+        <f t="shared" si="28"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="H226" s="17">
         <f t="shared" si="26"/>
-        <v>4.9999999999999994E+127</v>
-      </c>
-      <c r="H226" s="17">
-        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I226" s="16" t="str" cm="1">
@@ -21892,15 +22324,15 @@
         <v>교</v>
       </c>
       <c r="J226" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K226" s="22">
         <f t="shared" si="29"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K226" s="22">
-        <f t="shared" si="27"/>
         <v>212250</v>
       </c>
       <c r="L226" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>849000</v>
       </c>
     </row>
@@ -21909,15 +22341,15 @@
         <v>218</v>
       </c>
       <c r="F227" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1위</v>
       </c>
       <c r="G227" s="17">
+        <f t="shared" si="28"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="H227" s="17">
         <f t="shared" si="26"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="H227" s="17">
-        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I227" s="16" t="str" cm="1">
@@ -21925,15 +22357,15 @@
         <v>위</v>
       </c>
       <c r="J227" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K227" s="22">
         <f t="shared" si="29"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K227" s="22">
-        <f t="shared" si="27"/>
         <v>214125</v>
       </c>
       <c r="L227" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>856500</v>
       </c>
     </row>
@@ -21942,15 +22374,15 @@
         <v>219</v>
       </c>
       <c r="F228" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5위</v>
       </c>
       <c r="G228" s="17">
+        <f t="shared" si="28"/>
+        <v>5E+128</v>
+      </c>
+      <c r="H228" s="17">
         <f t="shared" si="26"/>
-        <v>5E+128</v>
-      </c>
-      <c r="H228" s="17">
-        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I228" s="16" t="str" cm="1">
@@ -21958,15 +22390,15 @@
         <v>위</v>
       </c>
       <c r="J228" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K228" s="22">
         <f t="shared" si="29"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K228" s="22">
-        <f t="shared" si="27"/>
         <v>216000</v>
       </c>
       <c r="L228" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>864000</v>
       </c>
     </row>
@@ -21975,15 +22407,15 @@
         <v>220</v>
       </c>
       <c r="F229" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10위</v>
       </c>
       <c r="G229" s="17">
+        <f t="shared" si="28"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H229" s="17">
         <f t="shared" si="26"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H229" s="17">
-        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I229" s="16" t="str" cm="1">
@@ -21991,15 +22423,15 @@
         <v>위</v>
       </c>
       <c r="J229" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K229" s="22">
         <f t="shared" si="29"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K229" s="22">
-        <f t="shared" si="27"/>
         <v>217875</v>
       </c>
       <c r="L229" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>871500</v>
       </c>
     </row>
@@ -22008,15 +22440,15 @@
         <v>221</v>
       </c>
       <c r="F230" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50위</v>
       </c>
       <c r="G230" s="17">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H230" s="17">
         <f t="shared" si="26"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H230" s="17">
-        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I230" s="16" t="str" cm="1">
@@ -22024,15 +22456,15 @@
         <v>위</v>
       </c>
       <c r="J230" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K230" s="22">
         <f t="shared" si="29"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K230" s="22">
-        <f t="shared" si="27"/>
         <v>219750</v>
       </c>
       <c r="L230" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>879000</v>
       </c>
     </row>
@@ -22041,15 +22473,15 @@
         <v>222</v>
       </c>
       <c r="F231" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>100위</v>
       </c>
       <c r="G231" s="17">
+        <f t="shared" si="28"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H231" s="17">
         <f t="shared" si="26"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H231" s="17">
-        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I231" s="16" t="str" cm="1">
@@ -22057,15 +22489,15 @@
         <v>위</v>
       </c>
       <c r="J231" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K231" s="22">
         <f t="shared" si="29"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K231" s="22">
-        <f t="shared" si="27"/>
         <v>221625</v>
       </c>
       <c r="L231" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>886500</v>
       </c>
     </row>
@@ -22074,15 +22506,15 @@
         <v>223</v>
       </c>
       <c r="F232" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>500위</v>
       </c>
       <c r="G232" s="17">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H232" s="17">
         <f t="shared" si="26"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H232" s="17">
-        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I232" s="16" t="str" cm="1">
@@ -22090,15 +22522,15 @@
         <v>위</v>
       </c>
       <c r="J232" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K232" s="22">
         <f t="shared" si="29"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K232" s="22">
-        <f t="shared" si="27"/>
         <v>223500</v>
       </c>
       <c r="L232" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>894000</v>
       </c>
     </row>
@@ -22107,15 +22539,15 @@
         <v>224</v>
       </c>
       <c r="F233" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1000위</v>
       </c>
       <c r="G233" s="17">
+        <f t="shared" si="28"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H233" s="17">
         <f t="shared" si="26"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H233" s="17">
-        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I233" s="16" t="str" cm="1">
@@ -22123,15 +22555,15 @@
         <v>위</v>
       </c>
       <c r="J233" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K233" s="22">
         <f t="shared" si="29"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K233" s="22">
-        <f t="shared" si="27"/>
         <v>225375</v>
       </c>
       <c r="L233" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>901500</v>
       </c>
     </row>
@@ -22140,15 +22572,15 @@
         <v>225</v>
       </c>
       <c r="F234" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000위</v>
       </c>
       <c r="G234" s="17">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H234" s="17">
         <f t="shared" si="26"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H234" s="17">
-        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I234" s="16" t="str" cm="1">
@@ -22156,15 +22588,15 @@
         <v>위</v>
       </c>
       <c r="J234" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K234" s="22">
         <f t="shared" si="29"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K234" s="22">
-        <f t="shared" si="27"/>
         <v>227375</v>
       </c>
       <c r="L234" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>909500</v>
       </c>
     </row>
@@ -22173,15 +22605,15 @@
         <v>226</v>
       </c>
       <c r="F235" s="17" t="str">
-        <f t="shared" ref="F235:F247" si="30">H235&amp;I235</f>
+        <f t="shared" ref="F235:F247" si="32">H235&amp;I235</f>
         <v>1설</v>
       </c>
       <c r="G235" s="17">
-        <f t="shared" ref="G235:G247" si="31">H235*J235</f>
+        <f t="shared" ref="G235:G247" si="33">H235*J235</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="H235" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I235" s="16" t="str" cm="1">
@@ -22189,15 +22621,15 @@
         <v>설</v>
       </c>
       <c r="J235" s="16" t="str">
-        <f t="shared" ref="J235:J247" si="32">VLOOKUP(I235,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J235:J247" si="34">VLOOKUP(I235,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K235" s="22">
-        <f t="shared" ref="K235:K247" si="33">L235*0.25</f>
+        <f t="shared" ref="K235:K247" si="35">L235*0.25</f>
         <v>229375</v>
       </c>
       <c r="L235" s="22">
-        <f t="shared" ref="L235:L247" si="34">L234+500+QUOTIENT(E235,15)*500</f>
+        <f t="shared" ref="L235:L247" si="36">L234+500+QUOTIENT(E235,15)*500</f>
         <v>917500</v>
       </c>
     </row>
@@ -22206,15 +22638,15 @@
         <v>227</v>
       </c>
       <c r="F236" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5설</v>
       </c>
       <c r="G236" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H236" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I236" s="16" t="str" cm="1">
@@ -22222,15 +22654,15 @@
         <v>설</v>
       </c>
       <c r="J236" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+132</v>
       </c>
       <c r="K236" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>231375</v>
       </c>
       <c r="L236" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>925500</v>
       </c>
     </row>
@@ -22239,15 +22671,15 @@
         <v>228</v>
       </c>
       <c r="F237" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10설</v>
       </c>
       <c r="G237" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+133</v>
       </c>
       <c r="H237" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I237" s="16" t="str" cm="1">
@@ -22255,15 +22687,15 @@
         <v>설</v>
       </c>
       <c r="J237" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+132</v>
       </c>
       <c r="K237" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>233375</v>
       </c>
       <c r="L237" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>933500</v>
       </c>
     </row>
@@ -22272,15 +22704,15 @@
         <v>229</v>
       </c>
       <c r="F238" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50설</v>
       </c>
       <c r="G238" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H238" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I238" s="16" t="str" cm="1">
@@ -22288,15 +22720,15 @@
         <v>설</v>
       </c>
       <c r="J238" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+132</v>
       </c>
       <c r="K238" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>235375</v>
       </c>
       <c r="L238" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>941500</v>
       </c>
     </row>
@@ -22305,15 +22737,15 @@
         <v>230</v>
       </c>
       <c r="F239" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100설</v>
       </c>
       <c r="G239" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H239" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I239" s="16" t="str" cm="1">
@@ -22321,15 +22753,15 @@
         <v>설</v>
       </c>
       <c r="J239" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+132</v>
       </c>
       <c r="K239" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>237375</v>
       </c>
       <c r="L239" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>949500</v>
       </c>
     </row>
@@ -22338,15 +22770,15 @@
         <v>231</v>
       </c>
       <c r="F240" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>500설</v>
       </c>
       <c r="G240" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H240" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I240" s="16" t="str" cm="1">
@@ -22354,15 +22786,15 @@
         <v>설</v>
       </c>
       <c r="J240" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+132</v>
       </c>
       <c r="K240" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>239375</v>
       </c>
       <c r="L240" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>957500</v>
       </c>
     </row>
@@ -22371,15 +22803,15 @@
         <v>232</v>
       </c>
       <c r="F241" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000설</v>
       </c>
       <c r="G241" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H241" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I241" s="16" t="str" cm="1">
@@ -22387,15 +22819,15 @@
         <v>설</v>
       </c>
       <c r="J241" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+132</v>
       </c>
       <c r="K241" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>241375</v>
       </c>
       <c r="L241" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>965500</v>
       </c>
     </row>
@@ -22404,15 +22836,15 @@
         <v>233</v>
       </c>
       <c r="F242" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5000설</v>
       </c>
       <c r="G242" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H242" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I242" s="16" t="str" cm="1">
@@ -22420,15 +22852,15 @@
         <v>설</v>
       </c>
       <c r="J242" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+132</v>
       </c>
       <c r="K242" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>243375</v>
       </c>
       <c r="L242" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>973500</v>
       </c>
     </row>
@@ -22437,15 +22869,15 @@
         <v>234</v>
       </c>
       <c r="F243" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1적</v>
       </c>
       <c r="G243" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H243" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I243" s="16" t="str" cm="1">
@@ -22453,15 +22885,15 @@
         <v>적</v>
       </c>
       <c r="J243" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+136</v>
       </c>
       <c r="K243" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>245375</v>
       </c>
       <c r="L243" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>981500</v>
       </c>
     </row>
@@ -22470,15 +22902,15 @@
         <v>235</v>
       </c>
       <c r="F244" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5적</v>
       </c>
       <c r="G244" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H244" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I244" s="16" t="str" cm="1">
@@ -22486,15 +22918,15 @@
         <v>적</v>
       </c>
       <c r="J244" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+136</v>
       </c>
       <c r="K244" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>247375</v>
       </c>
       <c r="L244" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>989500</v>
       </c>
     </row>
@@ -22503,15 +22935,15 @@
         <v>236</v>
       </c>
       <c r="F245" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10적</v>
       </c>
       <c r="G245" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+137</v>
       </c>
       <c r="H245" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I245" s="16" t="str" cm="1">
@@ -22519,15 +22951,15 @@
         <v>적</v>
       </c>
       <c r="J245" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+136</v>
       </c>
       <c r="K245" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>249375</v>
       </c>
       <c r="L245" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>997500</v>
       </c>
     </row>
@@ -22536,15 +22968,15 @@
         <v>237</v>
       </c>
       <c r="F246" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50적</v>
       </c>
       <c r="G246" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H246" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I246" s="16" t="str" cm="1">
@@ -22552,15 +22984,15 @@
         <v>적</v>
       </c>
       <c r="J246" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+136</v>
       </c>
       <c r="K246" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>251375</v>
       </c>
       <c r="L246" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1005500</v>
       </c>
     </row>
@@ -22569,15 +23001,15 @@
         <v>238</v>
       </c>
       <c r="F247" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100적</v>
       </c>
       <c r="G247" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+138</v>
       </c>
       <c r="H247" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I247" s="16" t="str" cm="1">
@@ -22585,15 +23017,15 @@
         <v>적</v>
       </c>
       <c r="J247" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+136</v>
       </c>
       <c r="K247" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>253375</v>
       </c>
       <c r="L247" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1013500</v>
       </c>
     </row>
@@ -22602,15 +23034,15 @@
         <v>239</v>
       </c>
       <c r="F248" s="17" t="str">
-        <f t="shared" ref="F248:F251" si="35">H248&amp;I248</f>
+        <f t="shared" ref="F248:F257" si="37">H248&amp;I248</f>
         <v>500적</v>
       </c>
       <c r="G248" s="17">
-        <f t="shared" ref="G248:G251" si="36">H248*J248</f>
+        <f t="shared" ref="G248:G257" si="38">H248*J248</f>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H248" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I248" s="16" t="str" cm="1">
@@ -22618,15 +23050,15 @@
         <v>적</v>
       </c>
       <c r="J248" s="16" t="str">
-        <f t="shared" ref="J248:J251" si="37">VLOOKUP(I248,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J248:J257" si="39">VLOOKUP(I248,N:Q,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K248" s="22">
-        <f t="shared" ref="K248:K251" si="38">L248*0.25</f>
+        <f t="shared" ref="K248:K257" si="40">L248*0.25</f>
         <v>255375</v>
       </c>
       <c r="L248" s="22">
-        <f t="shared" ref="L248:L251" si="39">L247+500+QUOTIENT(E248,15)*500</f>
+        <f t="shared" ref="L248:L257" si="41">L247+500+QUOTIENT(E248,15)*500</f>
         <v>1021500</v>
       </c>
     </row>
@@ -22635,15 +23067,15 @@
         <v>240</v>
       </c>
       <c r="F249" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000적</v>
       </c>
       <c r="G249" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+139</v>
       </c>
       <c r="H249" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I249" s="16" t="str" cm="1">
@@ -22651,15 +23083,15 @@
         <v>적</v>
       </c>
       <c r="J249" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
       <c r="K249" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>257500</v>
       </c>
       <c r="L249" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1030000</v>
       </c>
     </row>
@@ -22668,15 +23100,15 @@
         <v>241</v>
       </c>
       <c r="F250" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5000적</v>
       </c>
       <c r="G250" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H250" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I250" s="16" t="str" cm="1">
@@ -22684,16 +23116,280 @@
         <v>적</v>
       </c>
       <c r="J250" s="16" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K250" s="22">
+        <f t="shared" si="40"/>
+        <v>259625</v>
+      </c>
+      <c r="L250" s="22">
+        <f t="shared" si="41"/>
+        <v>1038500</v>
+      </c>
+    </row>
+    <row r="251" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E251" s="16">
+        <v>242</v>
+      </c>
+      <c r="F251" s="17" t="str">
         <f t="shared" si="37"/>
-        <v>1E+136</v>
-      </c>
-      <c r="K250" s="22">
+        <v>1고</v>
+      </c>
+      <c r="G251" s="17">
         <f t="shared" si="38"/>
-        <v>259625</v>
-      </c>
-      <c r="L250" s="22">
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="H251" s="17">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="I251" s="16" t="str" cm="1">
+        <f t="array" ref="I251">IF(AND(H250&gt;1000,H251&lt;2),INDEX(N:N,MATCH(I250,N:N,0)+1,0),I250)</f>
+        <v>고</v>
+      </c>
+      <c r="J251" s="16" t="str">
         <f t="shared" si="39"/>
-        <v>1038500</v>
+        <v>1E+140</v>
+      </c>
+      <c r="K251" s="22">
+        <f t="shared" si="40"/>
+        <v>261750</v>
+      </c>
+      <c r="L251" s="22">
+        <f t="shared" si="41"/>
+        <v>1047000</v>
+      </c>
+    </row>
+    <row r="252" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E252" s="16">
+        <v>243</v>
+      </c>
+      <c r="F252" s="17" t="str">
+        <f t="shared" si="37"/>
+        <v>5고</v>
+      </c>
+      <c r="G252" s="17">
+        <f t="shared" si="38"/>
+        <v>5.0000000000000001E+140</v>
+      </c>
+      <c r="H252" s="17">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="I252" s="16" t="str" cm="1">
+        <f t="array" ref="I252">IF(AND(H251&gt;1000,H252&lt;2),INDEX(N:N,MATCH(I251,N:N,0)+1,0),I251)</f>
+        <v>고</v>
+      </c>
+      <c r="J252" s="16" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K252" s="22">
+        <f t="shared" si="40"/>
+        <v>263875</v>
+      </c>
+      <c r="L252" s="22">
+        <f t="shared" si="41"/>
+        <v>1055500</v>
+      </c>
+    </row>
+    <row r="253" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E253" s="16">
+        <v>244</v>
+      </c>
+      <c r="F253" s="17" t="str">
+        <f t="shared" si="37"/>
+        <v>10고</v>
+      </c>
+      <c r="G253" s="17">
+        <f t="shared" si="38"/>
+        <v>1E+141</v>
+      </c>
+      <c r="H253" s="17">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="I253" s="16" t="str" cm="1">
+        <f t="array" ref="I253">IF(AND(H252&gt;1000,H253&lt;2),INDEX(N:N,MATCH(I252,N:N,0)+1,0),I252)</f>
+        <v>고</v>
+      </c>
+      <c r="J253" s="16" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K253" s="22">
+        <f t="shared" si="40"/>
+        <v>266000</v>
+      </c>
+      <c r="L253" s="22">
+        <f t="shared" si="41"/>
+        <v>1064000</v>
+      </c>
+    </row>
+    <row r="254" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E254" s="16">
+        <v>245</v>
+      </c>
+      <c r="F254" s="17" t="str">
+        <f t="shared" si="37"/>
+        <v>50고</v>
+      </c>
+      <c r="G254" s="17">
+        <f t="shared" si="38"/>
+        <v>5.0000000000000003E+141</v>
+      </c>
+      <c r="H254" s="17">
+        <f t="shared" si="26"/>
+        <v>50</v>
+      </c>
+      <c r="I254" s="16" t="str" cm="1">
+        <f t="array" ref="I254">IF(AND(H253&gt;1000,H254&lt;2),INDEX(N:N,MATCH(I253,N:N,0)+1,0),I253)</f>
+        <v>고</v>
+      </c>
+      <c r="J254" s="16" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K254" s="22">
+        <f t="shared" si="40"/>
+        <v>268125</v>
+      </c>
+      <c r="L254" s="22">
+        <f t="shared" si="41"/>
+        <v>1072500</v>
+      </c>
+    </row>
+    <row r="255" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E255" s="16">
+        <v>246</v>
+      </c>
+      <c r="F255" s="17" t="str">
+        <f t="shared" si="37"/>
+        <v>100고</v>
+      </c>
+      <c r="G255" s="17">
+        <f t="shared" si="38"/>
+        <v>1.0000000000000001E+142</v>
+      </c>
+      <c r="H255" s="17">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="I255" s="16" t="str" cm="1">
+        <f t="array" ref="I255">IF(AND(H254&gt;1000,H255&lt;2),INDEX(N:N,MATCH(I254,N:N,0)+1,0),I254)</f>
+        <v>고</v>
+      </c>
+      <c r="J255" s="16" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K255" s="22">
+        <f t="shared" si="40"/>
+        <v>270250</v>
+      </c>
+      <c r="L255" s="22">
+        <f t="shared" si="41"/>
+        <v>1081000</v>
+      </c>
+    </row>
+    <row r="256" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E256" s="16">
+        <v>247</v>
+      </c>
+      <c r="F256" s="17" t="str">
+        <f t="shared" si="37"/>
+        <v>500고</v>
+      </c>
+      <c r="G256" s="17">
+        <f t="shared" si="38"/>
+        <v>5.0000000000000001E+142</v>
+      </c>
+      <c r="H256" s="17">
+        <f t="shared" si="26"/>
+        <v>500</v>
+      </c>
+      <c r="I256" s="16" t="str" cm="1">
+        <f t="array" ref="I256">IF(AND(H255&gt;1000,H256&lt;2),INDEX(N:N,MATCH(I255,N:N,0)+1,0),I255)</f>
+        <v>고</v>
+      </c>
+      <c r="J256" s="16" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K256" s="22">
+        <f t="shared" si="40"/>
+        <v>272375</v>
+      </c>
+      <c r="L256" s="22">
+        <f t="shared" si="41"/>
+        <v>1089500</v>
+      </c>
+    </row>
+    <row r="257" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E257" s="16">
+        <v>248</v>
+      </c>
+      <c r="F257" s="17" t="str">
+        <f t="shared" si="37"/>
+        <v>1000고</v>
+      </c>
+      <c r="G257" s="17">
+        <f t="shared" si="38"/>
+        <v>1E+143</v>
+      </c>
+      <c r="H257" s="17">
+        <f t="shared" si="26"/>
+        <v>1000</v>
+      </c>
+      <c r="I257" s="16" t="str" cm="1">
+        <f t="array" ref="I257">IF(AND(H256&gt;1000,H257&lt;2),INDEX(N:N,MATCH(I256,N:N,0)+1,0),I256)</f>
+        <v>고</v>
+      </c>
+      <c r="J257" s="16" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K257" s="22">
+        <f t="shared" si="40"/>
+        <v>274500</v>
+      </c>
+      <c r="L257" s="22">
+        <f t="shared" si="41"/>
+        <v>1098000</v>
+      </c>
+    </row>
+    <row r="258" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E258" s="16">
+        <v>249</v>
+      </c>
+      <c r="F258" s="17" t="str">
+        <f t="shared" ref="F258" si="42">H258&amp;I258</f>
+        <v>5000고</v>
+      </c>
+      <c r="G258" s="17">
+        <f t="shared" ref="G258" si="43">H258*J258</f>
+        <v>5.0000000000000001E+143</v>
+      </c>
+      <c r="H258" s="17">
+        <f t="shared" si="26"/>
+        <v>5000</v>
+      </c>
+      <c r="I258" s="16" t="str" cm="1">
+        <f t="array" ref="I258">IF(AND(H257&gt;1000,H258&lt;2),INDEX(N:N,MATCH(I257,N:N,0)+1,0),I257)</f>
+        <v>고</v>
+      </c>
+      <c r="J258" s="16" t="str">
+        <f t="shared" ref="J258" si="44">VLOOKUP(I258,N:Q,4,FALSE)</f>
+        <v>1E+140</v>
+      </c>
+      <c r="K258" s="22">
+        <f t="shared" ref="K258" si="45">L258*0.25</f>
+        <v>276625</v>
+      </c>
+      <c r="L258" s="22">
+        <f t="shared" ref="L258" si="46">L257+500+QUOTIENT(E258,15)*500</f>
+        <v>1106500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulTower.xlsx
+++ b/Assets/06.Table/DosulTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0D30C6-A482-4032-8679-5F5DC867CBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09344986-D12B-454C-9DB8-978D5BC68C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="68">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,6 +322,10 @@
   </si>
   <si>
     <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,11 +918,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M251"/>
+  <dimension ref="A1:M259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E251" sqref="E251"/>
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M259" sqref="M259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11073,7 +11077,7 @@
         <v>171000</v>
       </c>
       <c r="E196">
-        <f t="shared" ref="E196:E251" si="171">E195</f>
+        <f t="shared" ref="E196:E259" si="171">E195</f>
         <v>1</v>
       </c>
       <c r="F196" s="2">
@@ -11096,11 +11100,11 @@
         <v>60</v>
       </c>
       <c r="K196">
-        <f t="shared" ref="K196:K251" si="173">K195+200</f>
+        <f t="shared" ref="K196:K259" si="173">K195+200</f>
         <v>40800</v>
       </c>
       <c r="L196">
-        <f t="shared" ref="L196:L251" si="174">L195</f>
+        <f t="shared" ref="L196:L259" si="174">L195</f>
         <v>9031</v>
       </c>
       <c r="M196">
@@ -13968,9 +13972,425 @@
         <v>553250</v>
       </c>
     </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1" t="str">
+        <f t="shared" ref="B252:C252" si="285">B251</f>
+        <v>1-1</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="285"/>
+        <v>9031</v>
+      </c>
+      <c r="D252">
+        <f>VLOOKUP(A252,Balance!E:K,7,FALSE)</f>
+        <v>278750</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F252" s="2">
+        <f>VLOOKUP(A252,Balance!E:K,3,FALSE)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="G252">
+        <f t="shared" ref="G252:I252" si="286">G251</f>
+        <v>1000</v>
+      </c>
+      <c r="H252">
+        <f t="shared" si="286"/>
+        <v>8</v>
+      </c>
+      <c r="I252">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="J252" t="s">
+        <v>60</v>
+      </c>
+      <c r="K252">
+        <f t="shared" si="173"/>
+        <v>52000</v>
+      </c>
+      <c r="L252">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M252">
+        <f>VLOOKUP(A252,Balance!E:L,8,FALSE)/2</f>
+        <v>557500</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1" t="str">
+        <f t="shared" ref="B253:C253" si="287">B252</f>
+        <v>1-1</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="287"/>
+        <v>9031</v>
+      </c>
+      <c r="D253">
+        <f>VLOOKUP(A253,Balance!E:K,7,FALSE)</f>
+        <v>280875</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F253" s="2">
+        <f>VLOOKUP(A253,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999999E+144</v>
+      </c>
+      <c r="G253">
+        <f t="shared" ref="G253:I253" si="288">G252</f>
+        <v>1000</v>
+      </c>
+      <c r="H253">
+        <f t="shared" si="288"/>
+        <v>8</v>
+      </c>
+      <c r="I253">
+        <f t="shared" si="288"/>
+        <v>0</v>
+      </c>
+      <c r="J253" t="s">
+        <v>60</v>
+      </c>
+      <c r="K253">
+        <f t="shared" si="173"/>
+        <v>52200</v>
+      </c>
+      <c r="L253">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M253">
+        <f>VLOOKUP(A253,Balance!E:L,8,FALSE)/2</f>
+        <v>561750</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1" t="str">
+        <f t="shared" ref="B254:C254" si="289">B253</f>
+        <v>1-1</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="289"/>
+        <v>9031</v>
+      </c>
+      <c r="D254">
+        <f>VLOOKUP(A254,Balance!E:K,7,FALSE)</f>
+        <v>283000</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F254" s="2">
+        <f>VLOOKUP(A254,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999999E+144</v>
+      </c>
+      <c r="G254">
+        <f t="shared" ref="G254:I254" si="290">G253</f>
+        <v>1000</v>
+      </c>
+      <c r="H254">
+        <f t="shared" si="290"/>
+        <v>8</v>
+      </c>
+      <c r="I254">
+        <f t="shared" si="290"/>
+        <v>0</v>
+      </c>
+      <c r="J254" t="s">
+        <v>60</v>
+      </c>
+      <c r="K254">
+        <f t="shared" si="173"/>
+        <v>52400</v>
+      </c>
+      <c r="L254">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M254">
+        <f>VLOOKUP(A254,Balance!E:L,8,FALSE)/2</f>
+        <v>566000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1" t="str">
+        <f t="shared" ref="B255:C255" si="291">B254</f>
+        <v>1-1</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="291"/>
+        <v>9031</v>
+      </c>
+      <c r="D255">
+        <f>VLOOKUP(A255,Balance!E:K,7,FALSE)</f>
+        <v>285125</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F255" s="2">
+        <f>VLOOKUP(A255,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999997E+145</v>
+      </c>
+      <c r="G255">
+        <f t="shared" ref="G255:I255" si="292">G254</f>
+        <v>1000</v>
+      </c>
+      <c r="H255">
+        <f t="shared" si="292"/>
+        <v>8</v>
+      </c>
+      <c r="I255">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="J255" t="s">
+        <v>60</v>
+      </c>
+      <c r="K255">
+        <f t="shared" si="173"/>
+        <v>52600</v>
+      </c>
+      <c r="L255">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M255">
+        <f>VLOOKUP(A255,Balance!E:L,8,FALSE)/2</f>
+        <v>570250</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1" t="str">
+        <f t="shared" ref="B256:C256" si="293">B255</f>
+        <v>1-1</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="293"/>
+        <v>9031</v>
+      </c>
+      <c r="D256">
+        <f>VLOOKUP(A256,Balance!E:K,7,FALSE)</f>
+        <v>287250</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F256" s="2">
+        <f>VLOOKUP(A256,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999993E+145</v>
+      </c>
+      <c r="G256">
+        <f t="shared" ref="G256:I256" si="294">G255</f>
+        <v>1000</v>
+      </c>
+      <c r="H256">
+        <f t="shared" si="294"/>
+        <v>8</v>
+      </c>
+      <c r="I256">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="J256" t="s">
+        <v>60</v>
+      </c>
+      <c r="K256">
+        <f t="shared" si="173"/>
+        <v>52800</v>
+      </c>
+      <c r="L256">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M256">
+        <f>VLOOKUP(A256,Balance!E:L,8,FALSE)/2</f>
+        <v>574500</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1" t="str">
+        <f t="shared" ref="B257:C257" si="295">B256</f>
+        <v>1-1</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="295"/>
+        <v>9031</v>
+      </c>
+      <c r="D257">
+        <f>VLOOKUP(A257,Balance!E:K,7,FALSE)</f>
+        <v>289500</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F257" s="2">
+        <f>VLOOKUP(A257,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999999E+146</v>
+      </c>
+      <c r="G257">
+        <f t="shared" ref="G257:I257" si="296">G256</f>
+        <v>1000</v>
+      </c>
+      <c r="H257">
+        <f t="shared" si="296"/>
+        <v>8</v>
+      </c>
+      <c r="I257">
+        <f t="shared" si="296"/>
+        <v>0</v>
+      </c>
+      <c r="J257" t="s">
+        <v>60</v>
+      </c>
+      <c r="K257">
+        <f t="shared" si="173"/>
+        <v>53000</v>
+      </c>
+      <c r="L257">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M257">
+        <f>VLOOKUP(A257,Balance!E:L,8,FALSE)/2</f>
+        <v>579000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258" s="1" t="str">
+        <f t="shared" ref="B258:C258" si="297">B257</f>
+        <v>1-1</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="297"/>
+        <v>9031</v>
+      </c>
+      <c r="D258">
+        <f>VLOOKUP(A258,Balance!E:K,7,FALSE)</f>
+        <v>291750</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F258" s="2">
+        <f>VLOOKUP(A258,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999998E+146</v>
+      </c>
+      <c r="G258">
+        <f t="shared" ref="G258:I258" si="298">G257</f>
+        <v>1000</v>
+      </c>
+      <c r="H258">
+        <f t="shared" si="298"/>
+        <v>8</v>
+      </c>
+      <c r="I258">
+        <f t="shared" si="298"/>
+        <v>0</v>
+      </c>
+      <c r="J258" t="s">
+        <v>60</v>
+      </c>
+      <c r="K258">
+        <f t="shared" si="173"/>
+        <v>53200</v>
+      </c>
+      <c r="L258">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M258">
+        <f>VLOOKUP(A258,Balance!E:L,8,FALSE)/2</f>
+        <v>583500</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1" t="str">
+        <f t="shared" ref="B259:C259" si="299">B258</f>
+        <v>1-1</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="299"/>
+        <v>9031</v>
+      </c>
+      <c r="D259">
+        <f>VLOOKUP(A259,Balance!E:K,7,FALSE)</f>
+        <v>294000</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F259" s="2">
+        <f>VLOOKUP(A259,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+147</v>
+      </c>
+      <c r="G259">
+        <f t="shared" ref="G259:I259" si="300">G258</f>
+        <v>1000</v>
+      </c>
+      <c r="H259">
+        <f t="shared" si="300"/>
+        <v>8</v>
+      </c>
+      <c r="I259">
+        <f t="shared" si="300"/>
+        <v>0</v>
+      </c>
+      <c r="J259" t="s">
+        <v>60</v>
+      </c>
+      <c r="K259">
+        <f t="shared" si="173"/>
+        <v>53400</v>
+      </c>
+      <c r="L259">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M259">
+        <f>VLOOKUP(A259,Balance!E:L,8,FALSE)/2</f>
+        <v>588000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L251">
+  <conditionalFormatting sqref="A2:L259">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -13982,10 +14402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z258"/>
+  <dimension ref="A1:Z266"/>
   <sheetViews>
-    <sheetView topLeftCell="B231" workbookViewId="0">
-      <selection activeCell="F251" sqref="F251"/>
+    <sheetView topLeftCell="B236" workbookViewId="0">
+      <selection activeCell="F256" sqref="F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15891,8 +16311,20 @@
         <v>31500</v>
       </c>
       <c r="M43" s="22"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
+      <c r="N43" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O43" s="16">
+        <v>144</v>
+      </c>
+      <c r="P43" s="17">
+        <f t="shared" ref="P43" si="15">POWER(10,O43)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="Q43" s="17" t="str">
+        <f t="shared" ref="Q43" si="16">RIGHT(P43,O43)</f>
+        <v>1E+144</v>
+      </c>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
@@ -17011,7 +17443,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F132" si="15">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="17">H69&amp;I69</f>
         <v>10극</v>
       </c>
       <c r="G69" s="17">
@@ -17045,7 +17477,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50극</v>
       </c>
       <c r="G70" s="17">
@@ -17079,7 +17511,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100극</v>
       </c>
       <c r="G71" s="17">
@@ -17113,7 +17545,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500극</v>
       </c>
       <c r="G72" s="17">
@@ -17147,7 +17579,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000극</v>
       </c>
       <c r="G73" s="17">
@@ -17163,7 +17595,7 @@
         <v>극</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J136" si="16">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="18">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="K73" s="22">
@@ -17181,11 +17613,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000극</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G137" si="17">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="19">H74*J74</f>
         <v>5E+51</v>
       </c>
       <c r="H74" s="17">
@@ -17197,11 +17629,11 @@
         <v>극</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+48</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" ref="K74:K137" si="18">L74*0.25</f>
+        <f t="shared" ref="K74:K137" si="20">L74*0.25</f>
         <v>22875</v>
       </c>
       <c r="L74" s="22">
@@ -17215,11 +17647,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1항</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="H75" s="17">
@@ -17231,15 +17663,15 @@
         <v>항</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+52</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>23500</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" ref="L75:L138" si="19">L74+500+QUOTIENT(E75,15)*500</f>
+        <f t="shared" ref="L75:L138" si="21">L74+500+QUOTIENT(E75,15)*500</f>
         <v>94000</v>
       </c>
       <c r="M75" s="22"/>
@@ -17249,11 +17681,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5항</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5E+52</v>
       </c>
       <c r="H76" s="17">
@@ -17265,15 +17697,15 @@
         <v>항</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+52</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24125</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>96500</v>
       </c>
       <c r="M76" s="22"/>
@@ -17283,11 +17715,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10항</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999999E+52</v>
       </c>
       <c r="H77" s="17">
@@ -17299,15 +17731,15 @@
         <v>항</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+52</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24750</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99000</v>
       </c>
       <c r="M77" s="22"/>
@@ -17317,11 +17749,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50항</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000004E+53</v>
       </c>
       <c r="H78" s="17">
@@ -17333,15 +17765,15 @@
         <v>항</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+52</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>25375</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>101500</v>
       </c>
       <c r="M78" s="22"/>
@@ -17351,11 +17783,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100항</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+54</v>
       </c>
       <c r="H79" s="17">
@@ -17367,15 +17799,15 @@
         <v>항</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+52</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>26000</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>104000</v>
       </c>
       <c r="M79" s="22"/>
@@ -17385,11 +17817,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500항</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000001E+54</v>
       </c>
       <c r="H80" s="17">
@@ -17401,15 +17833,15 @@
         <v>항</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+52</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>26625</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>106500</v>
       </c>
       <c r="M80" s="22"/>
@@ -17419,11 +17851,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000항</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+55</v>
       </c>
       <c r="H81" s="17">
@@ -17435,15 +17867,15 @@
         <v>항</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+52</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>27250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>109000</v>
       </c>
       <c r="M81" s="22"/>
@@ -17453,15 +17885,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000항</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000005E+55</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" ref="H82:H145" si="20">H74</f>
+        <f t="shared" ref="H82:H145" si="22">H74</f>
         <v>5000</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -17469,11 +17901,11 @@
         <v>항</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+52</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>27875</v>
       </c>
       <c r="L82" s="22">
@@ -17487,15 +17919,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1아</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -17503,15 +17935,15 @@
         <v>아</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+56</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28500</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>114000</v>
       </c>
       <c r="M83" s="22"/>
@@ -17521,15 +17953,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5아</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000002E+56</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -17537,15 +17969,15 @@
         <v>아</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+56</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>29250</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>117000</v>
       </c>
       <c r="M84" s="22"/>
@@ -17555,15 +17987,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10아</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+57</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -17571,15 +18003,15 @@
         <v>아</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+56</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>30000</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>120000</v>
       </c>
       <c r="M85" s="22"/>
@@ -17589,15 +18021,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50아</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000004E+57</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -17605,15 +18037,15 @@
         <v>아</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+56</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>30750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>123000</v>
       </c>
       <c r="M86" s="22"/>
@@ -17623,15 +18055,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100아</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+58</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -17639,15 +18071,15 @@
         <v>아</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+56</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>31500</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>126000</v>
       </c>
       <c r="M87" s="22"/>
@@ -17657,15 +18089,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500아</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000004E+58</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -17673,15 +18105,15 @@
         <v>아</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+56</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>32250</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>129000</v>
       </c>
       <c r="M88" s="22"/>
@@ -17691,15 +18123,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000아</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+59</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -17707,15 +18139,15 @@
         <v>아</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+56</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>33000</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>132000</v>
       </c>
       <c r="M89" s="22"/>
@@ -17725,15 +18157,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000아</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000006E+59</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5000</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -17741,15 +18173,15 @@
         <v>아</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+56</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>33750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>135000</v>
       </c>
       <c r="M90" s="22"/>
@@ -17759,15 +18191,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1나</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -17775,15 +18207,15 @@
         <v>나</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+60</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>34500</v>
       </c>
       <c r="L91" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>138000</v>
       </c>
       <c r="M91" s="22"/>
@@ -17793,15 +18225,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5나</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999997E+60</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -17809,15 +18241,15 @@
         <v>나</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+60</v>
       </c>
       <c r="K92" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>35250</v>
       </c>
       <c r="L92" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>141000</v>
       </c>
       <c r="M92" s="22"/>
@@ -17827,15 +18259,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10나</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999995E+60</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -17843,15 +18275,15 @@
         <v>나</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+60</v>
       </c>
       <c r="K93" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>36000</v>
       </c>
       <c r="L93" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>144000</v>
       </c>
       <c r="M93" s="22"/>
@@ -17861,15 +18293,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50나</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999996E+61</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -17877,15 +18309,15 @@
         <v>나</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+60</v>
       </c>
       <c r="K94" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>36750</v>
       </c>
       <c r="L94" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>147000</v>
       </c>
       <c r="M94" s="22"/>
@@ -17895,15 +18327,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100나</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999992E+61</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -17911,15 +18343,15 @@
         <v>나</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+60</v>
       </c>
       <c r="K95" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>37500</v>
       </c>
       <c r="L95" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>150000</v>
       </c>
       <c r="M95" s="22"/>
@@ -17929,15 +18361,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500나</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999994E+62</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -17945,15 +18377,15 @@
         <v>나</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+60</v>
       </c>
       <c r="K96" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>38250</v>
       </c>
       <c r="L96" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>153000</v>
       </c>
       <c r="M96" s="22"/>
@@ -17963,15 +18395,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000나</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999988E+62</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -17979,15 +18411,15 @@
         <v>나</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+60</v>
       </c>
       <c r="K97" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>39000</v>
       </c>
       <c r="L97" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>156000</v>
       </c>
       <c r="M97" s="22"/>
@@ -17997,15 +18429,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000나</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000001E+63</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5000</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -18013,15 +18445,15 @@
         <v>나</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+60</v>
       </c>
       <c r="K98" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>39750</v>
       </c>
       <c r="L98" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>159000</v>
       </c>
       <c r="M98" s="22"/>
@@ -18031,15 +18463,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1불</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+64</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -18047,15 +18479,15 @@
         <v>불</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+64</v>
       </c>
       <c r="K99" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>40625</v>
       </c>
       <c r="L99" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>162500</v>
       </c>
       <c r="M99" s="22"/>
@@ -18065,15 +18497,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5불</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5E+64</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -18081,15 +18513,15 @@
         <v>불</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+64</v>
       </c>
       <c r="K100" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>41500</v>
       </c>
       <c r="L100" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>166000</v>
       </c>
       <c r="M100" s="22"/>
@@ -18099,15 +18531,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10불</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999999E+64</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -18115,15 +18547,15 @@
         <v>불</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+64</v>
       </c>
       <c r="K101" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>42375</v>
       </c>
       <c r="L101" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>169500</v>
       </c>
       <c r="M101" s="22"/>
@@ -18133,15 +18565,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50불</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999997E+65</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -18149,15 +18581,15 @@
         <v>불</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+64</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>43250</v>
       </c>
       <c r="L102" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>173000</v>
       </c>
       <c r="M102" s="22"/>
@@ -18167,15 +18599,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100불</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999995E+65</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -18183,15 +18615,15 @@
         <v>불</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+64</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>44125</v>
       </c>
       <c r="L103" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>176500</v>
       </c>
       <c r="M103" s="22"/>
@@ -18201,15 +18633,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500불</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999999E+66</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -18217,15 +18649,15 @@
         <v>불</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+64</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>45000</v>
       </c>
       <c r="L104" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>180000</v>
       </c>
       <c r="M104" s="22"/>
@@ -18235,15 +18667,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000불</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999998E+66</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -18251,15 +18683,15 @@
         <v>불</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+64</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>45875</v>
       </c>
       <c r="L105" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>183500</v>
       </c>
       <c r="M105" s="22"/>
@@ -18269,15 +18701,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000불</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000004E+67</v>
       </c>
       <c r="H106" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5000</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -18285,15 +18717,15 @@
         <v>불</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+64</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>46750</v>
       </c>
       <c r="L106" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>187000</v>
       </c>
       <c r="M106" s="22"/>
@@ -18303,15 +18735,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1무</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="H107" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -18319,15 +18751,15 @@
         <v>무</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+68</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>47625</v>
       </c>
       <c r="L107" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>190500</v>
       </c>
       <c r="M107" s="22"/>
@@ -18337,15 +18769,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5무</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999994E+68</v>
       </c>
       <c r="H108" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -18353,15 +18785,15 @@
         <v>무</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+68</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>48500</v>
       </c>
       <c r="L108" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>194000</v>
       </c>
       <c r="M108" s="22"/>
@@ -18371,15 +18803,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10무</v>
       </c>
       <c r="G109" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999988E+68</v>
       </c>
       <c r="H109" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -18387,15 +18819,15 @@
         <v>무</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+68</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>49375</v>
       </c>
       <c r="L109" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>197500</v>
       </c>
       <c r="M109" s="22"/>
@@ -18405,15 +18837,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50무</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999996E+69</v>
       </c>
       <c r="H110" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -18421,15 +18853,15 @@
         <v>무</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+68</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50250</v>
       </c>
       <c r="L110" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>201000</v>
       </c>
       <c r="M110" s="22"/>
@@ -18439,15 +18871,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100무</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="H111" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -18455,15 +18887,15 @@
         <v>무</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+68</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>51125</v>
       </c>
       <c r="L111" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>204500</v>
       </c>
       <c r="M111" s="22"/>
@@ -18473,15 +18905,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500무</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999996E+70</v>
       </c>
       <c r="H112" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -18489,15 +18921,15 @@
         <v>무</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+68</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>52000</v>
       </c>
       <c r="L112" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>208000</v>
       </c>
       <c r="M112" s="22"/>
@@ -18507,15 +18939,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000무</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -18523,15 +18955,15 @@
         <v>무</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+68</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>52875</v>
       </c>
       <c r="L113" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>211500</v>
       </c>
       <c r="M113" s="22"/>
@@ -18541,15 +18973,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000무</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999997E+71</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5000</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -18557,15 +18989,15 @@
         <v>무</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+68</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>53875</v>
       </c>
       <c r="L114" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>215500</v>
       </c>
       <c r="M114" s="22"/>
@@ -18575,15 +19007,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1대</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -18591,15 +19023,15 @@
         <v>대</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+72</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>54875</v>
       </c>
       <c r="L115" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>219500</v>
       </c>
       <c r="M115" s="22"/>
@@ -18609,15 +19041,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5대</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999999E+72</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -18625,15 +19057,15 @@
         <v>대</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+72</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>55875</v>
       </c>
       <c r="L116" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>223500</v>
       </c>
       <c r="M116" s="22"/>
@@ -18643,15 +19075,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10대</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -18659,15 +19091,15 @@
         <v>대</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+72</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>56875</v>
       </c>
       <c r="L117" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>227500</v>
       </c>
       <c r="M117" s="22"/>
@@ -18677,15 +19109,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50대</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999998E+73</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -18693,15 +19125,15 @@
         <v>대</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+72</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>57875</v>
       </c>
       <c r="L118" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>231500</v>
       </c>
       <c r="M118" s="22"/>
@@ -18711,15 +19143,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100대</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -18727,15 +19159,15 @@
         <v>대</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+72</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>58875</v>
       </c>
       <c r="L119" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>235500</v>
       </c>
       <c r="M119" s="22"/>
@@ -18745,15 +19177,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500대</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999996E+74</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -18761,15 +19193,15 @@
         <v>대</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+72</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>59875</v>
       </c>
       <c r="L120" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>239500</v>
       </c>
       <c r="M120" s="22"/>
@@ -18779,15 +19211,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000대</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -18795,15 +19227,15 @@
         <v>대</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+72</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>60875</v>
       </c>
       <c r="L121" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>243500</v>
       </c>
       <c r="M121" s="22"/>
@@ -18813,15 +19245,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000대</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999994E+75</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5000</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -18829,15 +19261,15 @@
         <v>대</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+72</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>61875</v>
       </c>
       <c r="L122" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>247500</v>
       </c>
       <c r="M122" s="22"/>
@@ -18847,15 +19279,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1겁</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+76</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -18863,15 +19295,15 @@
         <v>겁</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+76</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>62875</v>
       </c>
       <c r="L123" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>251500</v>
       </c>
       <c r="M123" s="22"/>
@@ -18881,15 +19313,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5겁</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000006E+76</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -18897,15 +19329,15 @@
         <v>겁</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+76</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>63875</v>
       </c>
       <c r="L124" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>255500</v>
       </c>
       <c r="M124" s="22"/>
@@ -18915,15 +19347,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10겁</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -18931,15 +19363,15 @@
         <v>겁</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+76</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>64875</v>
       </c>
       <c r="L125" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>259500</v>
       </c>
       <c r="M125" s="22"/>
@@ -18949,15 +19381,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50겁</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5E+77</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -18965,15 +19397,15 @@
         <v>겁</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+76</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>65875</v>
       </c>
       <c r="L126" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>263500</v>
       </c>
       <c r="M126" s="22"/>
@@ -18983,15 +19415,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100겁</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+78</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -18999,15 +19431,15 @@
         <v>겁</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+76</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>66875</v>
       </c>
       <c r="L127" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>267500</v>
       </c>
       <c r="M127" s="22"/>
@@ -19017,15 +19449,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>500겁</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999998E+78</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -19033,15 +19465,15 @@
         <v>겁</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+76</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>67875</v>
       </c>
       <c r="L128" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>271500</v>
       </c>
       <c r="M128" s="22"/>
@@ -19051,15 +19483,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000겁</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -19067,15 +19499,15 @@
         <v>겁</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+76</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>69000</v>
       </c>
       <c r="L129" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>276000</v>
       </c>
       <c r="M129" s="22"/>
@@ -19085,15 +19517,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000겁</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5E+79</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5000</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -19101,15 +19533,15 @@
         <v>겁</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+76</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>70125</v>
       </c>
       <c r="L130" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>280500</v>
       </c>
       <c r="M130" s="22"/>
@@ -19119,15 +19551,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1업</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+80</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -19135,15 +19567,15 @@
         <v>업</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+80</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>71250</v>
       </c>
       <c r="L131" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>285000</v>
       </c>
       <c r="M131" s="22"/>
@@ -19153,15 +19585,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5업</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999996E+80</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -19169,15 +19601,15 @@
         <v>업</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+80</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>72375</v>
       </c>
       <c r="L132" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>289500</v>
       </c>
       <c r="M132" s="22"/>
@@ -19187,15 +19619,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" ref="F133:F184" si="21">H133&amp;I133</f>
+        <f t="shared" ref="F133:F184" si="23">H133&amp;I133</f>
         <v>10업</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -19203,15 +19635,15 @@
         <v>업</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+80</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>73500</v>
       </c>
       <c r="L133" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>294000</v>
       </c>
       <c r="M133" s="22"/>
@@ -19221,15 +19653,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>50업</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999998E+81</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -19237,15 +19669,15 @@
         <v>업</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+80</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>74625</v>
       </c>
       <c r="L134" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>298500</v>
       </c>
       <c r="M134" s="22"/>
@@ -19255,15 +19687,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100업</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -19271,15 +19703,15 @@
         <v>업</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+80</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>75750</v>
       </c>
       <c r="L135" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>303000</v>
       </c>
       <c r="M135" s="22"/>
@@ -19289,15 +19721,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>500업</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0000000000000002E+82</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -19305,15 +19737,15 @@
         <v>업</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+80</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>76875</v>
       </c>
       <c r="L136" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>307500</v>
       </c>
       <c r="M136" s="22"/>
@@ -19323,15 +19755,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000업</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+83</v>
       </c>
       <c r="H137" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="I137" s="16" t="str" cm="1">
@@ -19339,15 +19771,15 @@
         <v>업</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" ref="J137:J200" si="22">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="24">VLOOKUP(I137,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>78000</v>
       </c>
       <c r="L137" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>312000</v>
       </c>
       <c r="M137" s="22"/>
@@ -19357,15 +19789,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5000업</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" ref="G138:G184" si="23">H138*J138</f>
+        <f t="shared" ref="G138:G184" si="25">H138*J138</f>
         <v>5.0000000000000003E+83</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5000</v>
       </c>
       <c r="I138" s="16" t="str" cm="1">
@@ -19373,15 +19805,15 @@
         <v>업</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+80</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" ref="K138:K184" si="24">L138*0.25</f>
+        <f t="shared" ref="K138:K184" si="26">L138*0.25</f>
         <v>79125</v>
       </c>
       <c r="L138" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>316500</v>
       </c>
       <c r="M138" s="22"/>
@@ -19391,15 +19823,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1긍</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I139" s="16" t="str" cm="1">
@@ -19407,15 +19839,15 @@
         <v>긍</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+84</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>80250</v>
       </c>
       <c r="L139" s="22">
-        <f t="shared" ref="L139:L184" si="25">L138+500+QUOTIENT(E139,15)*500</f>
+        <f t="shared" ref="L139:L184" si="27">L138+500+QUOTIENT(E139,15)*500</f>
         <v>321000</v>
       </c>
       <c r="M139" s="22"/>
@@ -19425,15 +19857,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5긍</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000001E+84</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="I140" s="16" t="str" cm="1">
@@ -19441,15 +19873,15 @@
         <v>긍</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+84</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>81375</v>
       </c>
       <c r="L140" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>325500</v>
       </c>
       <c r="M140" s="22"/>
@@ -19459,15 +19891,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10긍</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+85</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="I141" s="16" t="str" cm="1">
@@ -19475,15 +19907,15 @@
         <v>긍</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+84</v>
       </c>
       <c r="K141" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>82500</v>
       </c>
       <c r="L141" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>330000</v>
       </c>
       <c r="M141" s="22"/>
@@ -19493,15 +19925,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>50긍</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000001E+85</v>
       </c>
       <c r="H142" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="I142" s="16" t="str" cm="1">
@@ -19509,15 +19941,15 @@
         <v>긍</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+84</v>
       </c>
       <c r="K142" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>83625</v>
       </c>
       <c r="L142" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>334500</v>
       </c>
       <c r="M142" s="22"/>
@@ -19527,15 +19959,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100긍</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+86</v>
       </c>
       <c r="H143" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="I143" s="16" t="str" cm="1">
@@ -19543,15 +19975,15 @@
         <v>긍</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+84</v>
       </c>
       <c r="K143" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>84750</v>
       </c>
       <c r="L143" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>339000</v>
       </c>
       <c r="M143" s="22"/>
@@ -19561,15 +19993,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>500긍</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999998E+86</v>
       </c>
       <c r="H144" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="I144" s="16" t="str" cm="1">
@@ -19577,15 +20009,15 @@
         <v>긍</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+84</v>
       </c>
       <c r="K144" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>86000</v>
       </c>
       <c r="L144" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>344000</v>
       </c>
       <c r="M144" s="22"/>
@@ -19595,15 +20027,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000긍</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="H145" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="I145" s="16" t="str" cm="1">
@@ -19611,15 +20043,15 @@
         <v>긍</v>
       </c>
       <c r="J145" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+84</v>
       </c>
       <c r="K145" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>87250</v>
       </c>
       <c r="L145" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>349000</v>
       </c>
       <c r="M145" s="22"/>
@@ -19629,15 +20061,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5000긍</v>
       </c>
       <c r="G146" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000007E+87</v>
       </c>
       <c r="H146" s="17">
-        <f t="shared" ref="H146:H258" si="26">H138</f>
+        <f t="shared" ref="H146:H266" si="28">H138</f>
         <v>5000</v>
       </c>
       <c r="I146" s="16" t="str" cm="1">
@@ -19645,15 +20077,15 @@
         <v>긍</v>
       </c>
       <c r="J146" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+84</v>
       </c>
       <c r="K146" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>88500</v>
       </c>
       <c r="L146" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>354000</v>
       </c>
       <c r="M146" s="22"/>
@@ -19663,15 +20095,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1갈</v>
       </c>
       <c r="G147" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="H147" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I147" s="16" t="str" cm="1">
@@ -19679,15 +20111,15 @@
         <v>갈</v>
       </c>
       <c r="J147" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+88</v>
       </c>
       <c r="K147" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>89750</v>
       </c>
       <c r="L147" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>359000</v>
       </c>
       <c r="M147" s="22"/>
@@ -19697,15 +20129,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5갈</v>
       </c>
       <c r="G148" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5E+88</v>
       </c>
       <c r="H148" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I148" s="16" t="str" cm="1">
@@ -19713,15 +20145,15 @@
         <v>갈</v>
       </c>
       <c r="J148" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+88</v>
       </c>
       <c r="K148" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>91000</v>
       </c>
       <c r="L148" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>364000</v>
       </c>
       <c r="M148" s="22"/>
@@ -19731,15 +20163,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10갈</v>
       </c>
       <c r="G149" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="H149" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I149" s="16" t="str" cm="1">
@@ -19747,15 +20179,15 @@
         <v>갈</v>
       </c>
       <c r="J149" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+88</v>
       </c>
       <c r="K149" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>92250</v>
       </c>
       <c r="L149" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>369000</v>
       </c>
       <c r="M149" s="22"/>
@@ -19765,15 +20197,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>50갈</v>
       </c>
       <c r="G150" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999998E+89</v>
       </c>
       <c r="H150" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I150" s="16" t="str" cm="1">
@@ -19781,15 +20213,15 @@
         <v>갈</v>
       </c>
       <c r="J150" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+88</v>
       </c>
       <c r="K150" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>93500</v>
       </c>
       <c r="L150" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>374000</v>
       </c>
       <c r="M150" s="22"/>
@@ -19799,15 +20231,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100갈</v>
       </c>
       <c r="G151" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="H151" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I151" s="16" t="str" cm="1">
@@ -19815,15 +20247,15 @@
         <v>갈</v>
       </c>
       <c r="J151" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+88</v>
       </c>
       <c r="K151" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>94750</v>
       </c>
       <c r="L151" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>379000</v>
       </c>
       <c r="M151" s="22"/>
@@ -19833,15 +20265,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>500갈</v>
       </c>
       <c r="G152" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999995E+90</v>
       </c>
       <c r="H152" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I152" s="16" t="str" cm="1">
@@ -19849,15 +20281,15 @@
         <v>갈</v>
       </c>
       <c r="J152" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+88</v>
       </c>
       <c r="K152" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>96000</v>
       </c>
       <c r="L152" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>384000</v>
       </c>
       <c r="M152" s="22"/>
@@ -19867,15 +20299,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000갈</v>
       </c>
       <c r="G153" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="H153" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I153" s="16" t="str" cm="1">
@@ -19883,15 +20315,15 @@
         <v>갈</v>
       </c>
       <c r="J153" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+88</v>
       </c>
       <c r="K153" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>97250</v>
       </c>
       <c r="L153" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>389000</v>
       </c>
       <c r="M153" s="22"/>
@@ -19901,15 +20333,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5000갈</v>
       </c>
       <c r="G154" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999995E+91</v>
       </c>
       <c r="H154" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I154" s="16" t="str" cm="1">
@@ -19917,15 +20349,15 @@
         <v>갈</v>
       </c>
       <c r="J154" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+88</v>
       </c>
       <c r="K154" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>98500</v>
       </c>
       <c r="L154" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>394000</v>
       </c>
       <c r="M154" s="22"/>
@@ -19935,15 +20367,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1라</v>
       </c>
       <c r="G155" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+92</v>
       </c>
       <c r="H155" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I155" s="16" t="str" cm="1">
@@ -19951,15 +20383,15 @@
         <v>라</v>
       </c>
       <c r="J155" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+92</v>
       </c>
       <c r="K155" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>99750</v>
       </c>
       <c r="L155" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>399000</v>
       </c>
       <c r="M155" s="22"/>
@@ -19969,15 +20401,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5라</v>
       </c>
       <c r="G156" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000002E+92</v>
       </c>
       <c r="H156" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I156" s="16" t="str" cm="1">
@@ -19985,15 +20417,15 @@
         <v>라</v>
       </c>
       <c r="J156" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+92</v>
       </c>
       <c r="K156" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>101000</v>
       </c>
       <c r="L156" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>404000</v>
       </c>
       <c r="M156" s="22"/>
@@ -20003,15 +20435,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10라</v>
       </c>
       <c r="G157" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+93</v>
       </c>
       <c r="H157" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I157" s="16" t="str" cm="1">
@@ -20019,15 +20451,15 @@
         <v>라</v>
       </c>
       <c r="J157" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+92</v>
       </c>
       <c r="K157" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>102250</v>
       </c>
       <c r="L157" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>409000</v>
       </c>
       <c r="M157" s="22"/>
@@ -20037,15 +20469,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>50라</v>
       </c>
       <c r="G158" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000001E+93</v>
       </c>
       <c r="H158" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I158" s="16" t="str" cm="1">
@@ -20053,15 +20485,15 @@
         <v>라</v>
       </c>
       <c r="J158" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+92</v>
       </c>
       <c r="K158" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>103500</v>
       </c>
       <c r="L158" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>414000</v>
       </c>
       <c r="M158" s="22"/>
@@ -20071,15 +20503,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100라</v>
       </c>
       <c r="G159" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+94</v>
       </c>
       <c r="H159" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I159" s="16" t="str" cm="1">
@@ -20087,15 +20519,15 @@
         <v>라</v>
       </c>
       <c r="J159" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+92</v>
       </c>
       <c r="K159" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>104875</v>
       </c>
       <c r="L159" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>419500</v>
       </c>
       <c r="M159" s="22"/>
@@ -20105,15 +20537,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>500라</v>
       </c>
       <c r="G160" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000001E+94</v>
       </c>
       <c r="H160" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I160" s="16" t="str" cm="1">
@@ -20121,15 +20553,15 @@
         <v>라</v>
       </c>
       <c r="J160" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+92</v>
       </c>
       <c r="K160" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>106250</v>
       </c>
       <c r="L160" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>425000</v>
       </c>
       <c r="M160" s="22"/>
@@ -20139,15 +20571,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000라</v>
       </c>
       <c r="G161" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+95</v>
       </c>
       <c r="H161" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I161" s="16" t="str" cm="1">
@@ -20155,15 +20587,15 @@
         <v>라</v>
       </c>
       <c r="J161" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+92</v>
       </c>
       <c r="K161" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>107625</v>
       </c>
       <c r="L161" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>430500</v>
       </c>
       <c r="M161" s="22"/>
@@ -20173,15 +20605,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5000라</v>
       </c>
       <c r="G162" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000002E+95</v>
       </c>
       <c r="H162" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I162" s="16" t="str" cm="1">
@@ -20189,15 +20621,15 @@
         <v>라</v>
       </c>
       <c r="J162" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+92</v>
       </c>
       <c r="K162" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>109000</v>
       </c>
       <c r="L162" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>436000</v>
       </c>
       <c r="M162" s="22"/>
@@ -20207,15 +20639,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1가</v>
       </c>
       <c r="G163" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+96</v>
       </c>
       <c r="H163" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I163" s="16" t="str" cm="1">
@@ -20223,15 +20655,15 @@
         <v>가</v>
       </c>
       <c r="J163" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+96</v>
       </c>
       <c r="K163" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>110375</v>
       </c>
       <c r="L163" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>441500</v>
       </c>
       <c r="M163" s="22"/>
@@ -20241,15 +20673,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5가</v>
       </c>
       <c r="G164" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H164" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I164" s="16" t="str" cm="1">
@@ -20257,15 +20689,15 @@
         <v>가</v>
       </c>
       <c r="J164" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+96</v>
       </c>
       <c r="K164" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>111750</v>
       </c>
       <c r="L164" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>447000</v>
       </c>
       <c r="M164" s="22"/>
@@ -20275,15 +20707,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10가</v>
       </c>
       <c r="G165" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H165" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I165" s="16" t="str" cm="1">
@@ -20291,15 +20723,15 @@
         <v>가</v>
       </c>
       <c r="J165" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+96</v>
       </c>
       <c r="K165" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>113125</v>
       </c>
       <c r="L165" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>452500</v>
       </c>
       <c r="M165" s="22"/>
@@ -20309,15 +20741,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>50가</v>
       </c>
       <c r="G166" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5E+97</v>
       </c>
       <c r="H166" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I166" s="16" t="str" cm="1">
@@ -20325,15 +20757,15 @@
         <v>가</v>
       </c>
       <c r="J166" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+96</v>
       </c>
       <c r="K166" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>114500</v>
       </c>
       <c r="L166" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>458000</v>
       </c>
       <c r="M166" s="22"/>
@@ -20343,15 +20775,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100가</v>
       </c>
       <c r="G167" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+98</v>
       </c>
       <c r="H167" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I167" s="16" t="str" cm="1">
@@ -20359,15 +20791,15 @@
         <v>가</v>
       </c>
       <c r="J167" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+96</v>
       </c>
       <c r="K167" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>115875</v>
       </c>
       <c r="L167" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>463500</v>
       </c>
       <c r="M167" s="22"/>
@@ -20377,15 +20809,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>500가</v>
       </c>
       <c r="G168" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H168" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I168" s="16" t="str" cm="1">
@@ -20393,15 +20825,15 @@
         <v>가</v>
       </c>
       <c r="J168" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+96</v>
       </c>
       <c r="K168" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>117250</v>
       </c>
       <c r="L168" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>469000</v>
       </c>
       <c r="M168" s="22"/>
@@ -20411,15 +20843,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000가</v>
       </c>
       <c r="G169" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H169" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I169" s="16" t="str" cm="1">
@@ -20427,15 +20859,15 @@
         <v>가</v>
       </c>
       <c r="J169" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+96</v>
       </c>
       <c r="K169" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>118625</v>
       </c>
       <c r="L169" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>474500</v>
       </c>
       <c r="M169" s="22"/>
@@ -20445,15 +20877,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5000가</v>
       </c>
       <c r="G170" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H170" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I170" s="16" t="str" cm="1">
@@ -20461,15 +20893,15 @@
         <v>가</v>
       </c>
       <c r="J170" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+96</v>
       </c>
       <c r="K170" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>120000</v>
       </c>
       <c r="L170" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>480000</v>
       </c>
       <c r="M170" s="22"/>
@@ -20479,15 +20911,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1언</v>
       </c>
       <c r="G171" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+100</v>
       </c>
       <c r="H171" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I171" s="16" t="str" cm="1">
@@ -20495,15 +20927,15 @@
         <v>언</v>
       </c>
       <c r="J171" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+100</v>
       </c>
       <c r="K171" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>121375</v>
       </c>
       <c r="L171" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>485500</v>
       </c>
       <c r="M171" s="22"/>
@@ -20513,15 +20945,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5언</v>
       </c>
       <c r="G172" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H172" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I172" s="16" t="str" cm="1">
@@ -20529,15 +20961,15 @@
         <v>언</v>
       </c>
       <c r="J172" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+100</v>
       </c>
       <c r="K172" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>122750</v>
       </c>
       <c r="L172" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>491000</v>
       </c>
       <c r="M172" s="22"/>
@@ -20547,15 +20979,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10언</v>
       </c>
       <c r="G173" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H173" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I173" s="16" t="str" cm="1">
@@ -20563,15 +20995,15 @@
         <v>언</v>
       </c>
       <c r="J173" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+100</v>
       </c>
       <c r="K173" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>124125</v>
       </c>
       <c r="L173" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>496500</v>
       </c>
       <c r="M173" s="22"/>
@@ -20581,15 +21013,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>50언</v>
       </c>
       <c r="G174" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H174" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I174" s="16" t="str" cm="1">
@@ -20597,15 +21029,15 @@
         <v>언</v>
       </c>
       <c r="J174" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+100</v>
       </c>
       <c r="K174" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>125625</v>
       </c>
       <c r="L174" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>502500</v>
       </c>
       <c r="M174" s="22"/>
@@ -20615,15 +21047,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100언</v>
       </c>
       <c r="G175" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H175" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I175" s="16" t="str" cm="1">
@@ -20631,15 +21063,15 @@
         <v>언</v>
       </c>
       <c r="J175" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+100</v>
       </c>
       <c r="K175" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>127125</v>
       </c>
       <c r="L175" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>508500</v>
       </c>
       <c r="M175" s="22"/>
@@ -20649,15 +21081,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>500언</v>
       </c>
       <c r="G176" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5E+102</v>
       </c>
       <c r="H176" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I176" s="16" t="str" cm="1">
@@ -20665,15 +21097,15 @@
         <v>언</v>
       </c>
       <c r="J176" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+100</v>
       </c>
       <c r="K176" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>128625</v>
       </c>
       <c r="L176" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>514500</v>
       </c>
       <c r="M176" s="22"/>
@@ -20683,15 +21115,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1000언</v>
       </c>
       <c r="G177" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+103</v>
       </c>
       <c r="H177" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I177" s="16" t="str" cm="1">
@@ -20699,15 +21131,15 @@
         <v>언</v>
       </c>
       <c r="J177" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+100</v>
       </c>
       <c r="K177" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>130125</v>
       </c>
       <c r="L177" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>520500</v>
       </c>
       <c r="M177" s="22"/>
@@ -20717,15 +21149,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5000언</v>
       </c>
       <c r="G178" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5E+103</v>
       </c>
       <c r="H178" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I178" s="16" t="str" cm="1">
@@ -20733,15 +21165,15 @@
         <v>언</v>
       </c>
       <c r="J178" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+100</v>
       </c>
       <c r="K178" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>131625</v>
       </c>
       <c r="L178" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>526500</v>
       </c>
       <c r="M178" s="22"/>
@@ -20751,15 +21183,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1승</v>
       </c>
       <c r="G179" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+104</v>
       </c>
       <c r="H179" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I179" s="16" t="str" cm="1">
@@ -20767,15 +21199,15 @@
         <v>승</v>
       </c>
       <c r="J179" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+104</v>
       </c>
       <c r="K179" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>133125</v>
       </c>
       <c r="L179" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>532500</v>
       </c>
       <c r="M179" s="22"/>
@@ -20785,15 +21217,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5승</v>
       </c>
       <c r="G180" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H180" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I180" s="16" t="str" cm="1">
@@ -20801,15 +21233,15 @@
         <v>승</v>
       </c>
       <c r="J180" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+104</v>
       </c>
       <c r="K180" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>134625</v>
       </c>
       <c r="L180" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>538500</v>
       </c>
       <c r="M180" s="22"/>
@@ -20819,15 +21251,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10승</v>
       </c>
       <c r="G181" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H181" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I181" s="16" t="str" cm="1">
@@ -20835,15 +21267,15 @@
         <v>승</v>
       </c>
       <c r="J181" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+104</v>
       </c>
       <c r="K181" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>136125</v>
       </c>
       <c r="L181" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>544500</v>
       </c>
       <c r="M181" s="22"/>
@@ -20853,15 +21285,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>50승</v>
       </c>
       <c r="G182" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H182" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I182" s="16" t="str" cm="1">
@@ -20869,15 +21301,15 @@
         <v>승</v>
       </c>
       <c r="J182" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+104</v>
       </c>
       <c r="K182" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>137625</v>
       </c>
       <c r="L182" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>550500</v>
       </c>
       <c r="M182" s="22"/>
@@ -20887,15 +21319,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100승</v>
       </c>
       <c r="G183" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H183" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I183" s="16" t="str" cm="1">
@@ -20903,15 +21335,15 @@
         <v>승</v>
       </c>
       <c r="J183" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+104</v>
       </c>
       <c r="K183" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>139125</v>
       </c>
       <c r="L183" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>556500</v>
       </c>
       <c r="M183" s="22"/>
@@ -20921,15 +21353,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>500승</v>
       </c>
       <c r="G184" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H184" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I184" s="16" t="str" cm="1">
@@ -20937,15 +21369,15 @@
         <v>승</v>
       </c>
       <c r="J184" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+104</v>
       </c>
       <c r="K184" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>140625</v>
       </c>
       <c r="L184" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>562500</v>
       </c>
       <c r="M184" s="22"/>
@@ -20955,15 +21387,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="17" t="str">
-        <f t="shared" ref="F185:F234" si="27">H185&amp;I185</f>
+        <f t="shared" ref="F185:F234" si="29">H185&amp;I185</f>
         <v>1000승</v>
       </c>
       <c r="G185" s="17">
-        <f t="shared" ref="G185:G234" si="28">H185*J185</f>
+        <f t="shared" ref="G185:G234" si="30">H185*J185</f>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H185" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I185" s="16" t="str" cm="1">
@@ -20971,15 +21403,15 @@
         <v>승</v>
       </c>
       <c r="J185" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+104</v>
       </c>
       <c r="K185" s="22">
-        <f t="shared" ref="K185:K234" si="29">L185*0.25</f>
+        <f t="shared" ref="K185:K234" si="31">L185*0.25</f>
         <v>142125</v>
       </c>
       <c r="L185" s="22">
-        <f t="shared" ref="L185:L234" si="30">L184+500+QUOTIENT(E185,15)*500</f>
+        <f t="shared" ref="L185:L234" si="32">L184+500+QUOTIENT(E185,15)*500</f>
         <v>568500</v>
       </c>
     </row>
@@ -20988,15 +21420,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000승</v>
       </c>
       <c r="G186" s="17">
+        <f t="shared" si="30"/>
+        <v>5.0000000000000002E+107</v>
+      </c>
+      <c r="H186" s="17">
         <f t="shared" si="28"/>
-        <v>5.0000000000000002E+107</v>
-      </c>
-      <c r="H186" s="17">
-        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I186" s="16" t="str" cm="1">
@@ -21004,15 +21436,15 @@
         <v>승</v>
       </c>
       <c r="J186" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+104</v>
       </c>
       <c r="K186" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>143625</v>
       </c>
       <c r="L186" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>574500</v>
       </c>
     </row>
@@ -21021,15 +21453,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1마</v>
       </c>
       <c r="G187" s="17">
+        <f t="shared" si="30"/>
+        <v>1E+108</v>
+      </c>
+      <c r="H187" s="17">
         <f t="shared" si="28"/>
-        <v>1E+108</v>
-      </c>
-      <c r="H187" s="17">
-        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I187" s="16" t="str" cm="1">
@@ -21037,15 +21469,15 @@
         <v>마</v>
       </c>
       <c r="J187" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+108</v>
       </c>
       <c r="K187" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>145125</v>
       </c>
       <c r="L187" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>580500</v>
       </c>
     </row>
@@ -21054,15 +21486,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5마</v>
       </c>
       <c r="G188" s="17">
+        <f t="shared" si="30"/>
+        <v>4.9999999999999999E+108</v>
+      </c>
+      <c r="H188" s="17">
         <f t="shared" si="28"/>
-        <v>4.9999999999999999E+108</v>
-      </c>
-      <c r="H188" s="17">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I188" s="16" t="str" cm="1">
@@ -21070,15 +21502,15 @@
         <v>마</v>
       </c>
       <c r="J188" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+108</v>
       </c>
       <c r="K188" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>146625</v>
       </c>
       <c r="L188" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>586500</v>
       </c>
     </row>
@@ -21087,15 +21519,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10마</v>
       </c>
       <c r="G189" s="17">
+        <f t="shared" si="30"/>
+        <v>9.9999999999999998E+108</v>
+      </c>
+      <c r="H189" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999998E+108</v>
-      </c>
-      <c r="H189" s="17">
-        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I189" s="16" t="str" cm="1">
@@ -21103,15 +21535,15 @@
         <v>마</v>
       </c>
       <c r="J189" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+108</v>
       </c>
       <c r="K189" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>148250</v>
       </c>
       <c r="L189" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>593000</v>
       </c>
     </row>
@@ -21120,15 +21552,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50마</v>
       </c>
       <c r="G190" s="17">
+        <f t="shared" si="30"/>
+        <v>5.0000000000000001E+109</v>
+      </c>
+      <c r="H190" s="17">
         <f t="shared" si="28"/>
-        <v>5.0000000000000001E+109</v>
-      </c>
-      <c r="H190" s="17">
-        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I190" s="16" t="str" cm="1">
@@ -21136,15 +21568,15 @@
         <v>마</v>
       </c>
       <c r="J190" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+108</v>
       </c>
       <c r="K190" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>149875</v>
       </c>
       <c r="L190" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>599500</v>
       </c>
     </row>
@@ -21153,15 +21585,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100마</v>
       </c>
       <c r="G191" s="17">
+        <f t="shared" si="30"/>
+        <v>1E+110</v>
+      </c>
+      <c r="H191" s="17">
         <f t="shared" si="28"/>
-        <v>1E+110</v>
-      </c>
-      <c r="H191" s="17">
-        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I191" s="16" t="str" cm="1">
@@ -21169,15 +21601,15 @@
         <v>마</v>
       </c>
       <c r="J191" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+108</v>
       </c>
       <c r="K191" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>151500</v>
       </c>
       <c r="L191" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>606000</v>
       </c>
     </row>
@@ -21186,15 +21618,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500마</v>
       </c>
       <c r="G192" s="17">
+        <f t="shared" si="30"/>
+        <v>5.0000000000000005E+110</v>
+      </c>
+      <c r="H192" s="17">
         <f t="shared" si="28"/>
-        <v>5.0000000000000005E+110</v>
-      </c>
-      <c r="H192" s="17">
-        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I192" s="16" t="str" cm="1">
@@ -21202,15 +21634,15 @@
         <v>마</v>
       </c>
       <c r="J192" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+108</v>
       </c>
       <c r="K192" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>153125</v>
       </c>
       <c r="L192" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>612500</v>
       </c>
     </row>
@@ -21219,15 +21651,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000마</v>
       </c>
       <c r="G193" s="17">
+        <f t="shared" si="30"/>
+        <v>1.0000000000000001E+111</v>
+      </c>
+      <c r="H193" s="17">
         <f t="shared" si="28"/>
-        <v>1.0000000000000001E+111</v>
-      </c>
-      <c r="H193" s="17">
-        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I193" s="16" t="str" cm="1">
@@ -21235,15 +21667,15 @@
         <v>마</v>
       </c>
       <c r="J193" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+108</v>
       </c>
       <c r="K193" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>154750</v>
       </c>
       <c r="L193" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>619000</v>
       </c>
     </row>
@@ -21252,15 +21684,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000마</v>
       </c>
       <c r="G194" s="17">
+        <f t="shared" si="30"/>
+        <v>4.9999999999999997E+111</v>
+      </c>
+      <c r="H194" s="17">
         <f t="shared" si="28"/>
-        <v>4.9999999999999997E+111</v>
-      </c>
-      <c r="H194" s="17">
-        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I194" s="16" t="str" cm="1">
@@ -21268,15 +21700,15 @@
         <v>마</v>
       </c>
       <c r="J194" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+108</v>
       </c>
       <c r="K194" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>156375</v>
       </c>
       <c r="L194" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>625500</v>
       </c>
     </row>
@@ -21285,15 +21717,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1살</v>
       </c>
       <c r="G195" s="17">
+        <f t="shared" si="30"/>
+        <v>9.9999999999999993E+111</v>
+      </c>
+      <c r="H195" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999993E+111</v>
-      </c>
-      <c r="H195" s="17">
-        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I195" s="16" t="str" cm="1">
@@ -21301,15 +21733,15 @@
         <v>살</v>
       </c>
       <c r="J195" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+112</v>
       </c>
       <c r="K195" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>158000</v>
       </c>
       <c r="L195" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>632000</v>
       </c>
     </row>
@@ -21318,15 +21750,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5살</v>
       </c>
       <c r="G196" s="17">
+        <f t="shared" si="30"/>
+        <v>5.0000000000000001E+112</v>
+      </c>
+      <c r="H196" s="17">
         <f t="shared" si="28"/>
-        <v>5.0000000000000001E+112</v>
-      </c>
-      <c r="H196" s="17">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I196" s="16" t="str" cm="1">
@@ -21334,15 +21766,15 @@
         <v>살</v>
       </c>
       <c r="J196" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+112</v>
       </c>
       <c r="K196" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>159625</v>
       </c>
       <c r="L196" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>638500</v>
       </c>
     </row>
@@ -21351,15 +21783,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10살</v>
       </c>
       <c r="G197" s="17">
+        <f t="shared" si="30"/>
+        <v>1E+113</v>
+      </c>
+      <c r="H197" s="17">
         <f t="shared" si="28"/>
-        <v>1E+113</v>
-      </c>
-      <c r="H197" s="17">
-        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I197" s="16" t="str" cm="1">
@@ -21367,15 +21799,15 @@
         <v>살</v>
       </c>
       <c r="J197" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+112</v>
       </c>
       <c r="K197" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>161250</v>
       </c>
       <c r="L197" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>645000</v>
       </c>
     </row>
@@ -21384,15 +21816,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50살</v>
       </c>
       <c r="G198" s="17">
+        <f t="shared" si="30"/>
+        <v>4.9999999999999994E+113</v>
+      </c>
+      <c r="H198" s="17">
         <f t="shared" si="28"/>
-        <v>4.9999999999999994E+113</v>
-      </c>
-      <c r="H198" s="17">
-        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I198" s="16" t="str" cm="1">
@@ -21400,15 +21832,15 @@
         <v>살</v>
       </c>
       <c r="J198" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+112</v>
       </c>
       <c r="K198" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>162875</v>
       </c>
       <c r="L198" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>651500</v>
       </c>
     </row>
@@ -21417,15 +21849,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100살</v>
       </c>
       <c r="G199" s="17">
+        <f t="shared" si="30"/>
+        <v>9.9999999999999988E+113</v>
+      </c>
+      <c r="H199" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999988E+113</v>
-      </c>
-      <c r="H199" s="17">
-        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I199" s="16" t="str" cm="1">
@@ -21433,15 +21865,15 @@
         <v>살</v>
       </c>
       <c r="J199" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+112</v>
       </c>
       <c r="K199" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>164500</v>
       </c>
       <c r="L199" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>658000</v>
       </c>
     </row>
@@ -21450,15 +21882,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500살</v>
       </c>
       <c r="G200" s="17">
+        <f t="shared" si="30"/>
+        <v>5.0000000000000001E+114</v>
+      </c>
+      <c r="H200" s="17">
         <f t="shared" si="28"/>
-        <v>5.0000000000000001E+114</v>
-      </c>
-      <c r="H200" s="17">
-        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I200" s="16" t="str" cm="1">
@@ -21466,15 +21898,15 @@
         <v>살</v>
       </c>
       <c r="J200" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+112</v>
       </c>
       <c r="K200" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>166125</v>
       </c>
       <c r="L200" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>664500</v>
       </c>
     </row>
@@ -21483,15 +21915,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000살</v>
       </c>
       <c r="G201" s="17">
+        <f t="shared" si="30"/>
+        <v>1E+115</v>
+      </c>
+      <c r="H201" s="17">
         <f t="shared" si="28"/>
-        <v>1E+115</v>
-      </c>
-      <c r="H201" s="17">
-        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I201" s="16" t="str" cm="1">
@@ -21499,15 +21931,15 @@
         <v>살</v>
       </c>
       <c r="J201" s="16" t="str">
-        <f t="shared" ref="J201:J234" si="31">VLOOKUP(I201,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J201:J234" si="33">VLOOKUP(I201,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K201" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>167750</v>
       </c>
       <c r="L201" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>671000</v>
       </c>
     </row>
@@ -21516,15 +21948,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000살</v>
       </c>
       <c r="G202" s="17">
+        <f t="shared" si="30"/>
+        <v>5.0000000000000001E+115</v>
+      </c>
+      <c r="H202" s="17">
         <f t="shared" si="28"/>
-        <v>5.0000000000000001E+115</v>
-      </c>
-      <c r="H202" s="17">
-        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I202" s="16" t="str" cm="1">
@@ -21532,15 +21964,15 @@
         <v>살</v>
       </c>
       <c r="J202" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K202" s="22">
         <f t="shared" si="31"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K202" s="22">
-        <f t="shared" si="29"/>
         <v>169375</v>
       </c>
       <c r="L202" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>677500</v>
       </c>
     </row>
@@ -21549,15 +21981,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1섬</v>
       </c>
       <c r="G203" s="17">
+        <f t="shared" si="30"/>
+        <v>1E+116</v>
+      </c>
+      <c r="H203" s="17">
         <f t="shared" si="28"/>
-        <v>1E+116</v>
-      </c>
-      <c r="H203" s="17">
-        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I203" s="16" t="str" cm="1">
@@ -21565,15 +21997,15 @@
         <v>섬</v>
       </c>
       <c r="J203" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K203" s="22">
         <f t="shared" si="31"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K203" s="22">
-        <f t="shared" si="29"/>
         <v>171000</v>
       </c>
       <c r="L203" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>684000</v>
       </c>
     </row>
@@ -21582,15 +22014,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5섬</v>
       </c>
       <c r="G204" s="17">
+        <f t="shared" si="30"/>
+        <v>5.0000000000000003E+116</v>
+      </c>
+      <c r="H204" s="17">
         <f t="shared" si="28"/>
-        <v>5.0000000000000003E+116</v>
-      </c>
-      <c r="H204" s="17">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I204" s="16" t="str" cm="1">
@@ -21598,15 +22030,15 @@
         <v>섬</v>
       </c>
       <c r="J204" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K204" s="22">
         <f t="shared" si="31"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K204" s="22">
-        <f t="shared" si="29"/>
         <v>172750</v>
       </c>
       <c r="L204" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>691000</v>
       </c>
     </row>
@@ -21615,15 +22047,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10섬</v>
       </c>
       <c r="G205" s="17">
+        <f t="shared" si="30"/>
+        <v>1.0000000000000001E+117</v>
+      </c>
+      <c r="H205" s="17">
         <f t="shared" si="28"/>
-        <v>1.0000000000000001E+117</v>
-      </c>
-      <c r="H205" s="17">
-        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I205" s="16" t="str" cm="1">
@@ -21631,15 +22063,15 @@
         <v>섬</v>
       </c>
       <c r="J205" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K205" s="22">
         <f t="shared" si="31"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K205" s="22">
-        <f t="shared" si="29"/>
         <v>174500</v>
       </c>
       <c r="L205" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>698000</v>
       </c>
     </row>
@@ -21648,15 +22080,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50섬</v>
       </c>
       <c r="G206" s="17">
+        <f t="shared" si="30"/>
+        <v>4.9999999999999998E+117</v>
+      </c>
+      <c r="H206" s="17">
         <f t="shared" si="28"/>
-        <v>4.9999999999999998E+117</v>
-      </c>
-      <c r="H206" s="17">
-        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I206" s="16" t="str" cm="1">
@@ -21664,15 +22096,15 @@
         <v>섬</v>
       </c>
       <c r="J206" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K206" s="22">
         <f t="shared" si="31"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K206" s="22">
-        <f t="shared" si="29"/>
         <v>176250</v>
       </c>
       <c r="L206" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>705000</v>
       </c>
     </row>
@@ -21681,15 +22113,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100섬</v>
       </c>
       <c r="G207" s="17">
+        <f t="shared" si="30"/>
+        <v>9.9999999999999997E+117</v>
+      </c>
+      <c r="H207" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999997E+117</v>
-      </c>
-      <c r="H207" s="17">
-        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I207" s="16" t="str" cm="1">
@@ -21697,15 +22129,15 @@
         <v>섬</v>
       </c>
       <c r="J207" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K207" s="22">
         <f t="shared" si="31"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K207" s="22">
-        <f t="shared" si="29"/>
         <v>178000</v>
       </c>
       <c r="L207" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>712000</v>
       </c>
     </row>
@@ -21714,15 +22146,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500섬</v>
       </c>
       <c r="G208" s="17">
+        <f t="shared" si="30"/>
+        <v>4.9999999999999997E+118</v>
+      </c>
+      <c r="H208" s="17">
         <f t="shared" si="28"/>
-        <v>4.9999999999999997E+118</v>
-      </c>
-      <c r="H208" s="17">
-        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I208" s="16" t="str" cm="1">
@@ -21730,15 +22162,15 @@
         <v>섬</v>
       </c>
       <c r="J208" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K208" s="22">
         <f t="shared" si="31"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K208" s="22">
-        <f t="shared" si="29"/>
         <v>179750</v>
       </c>
       <c r="L208" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>719000</v>
       </c>
     </row>
@@ -21747,15 +22179,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000섬</v>
       </c>
       <c r="G209" s="17">
+        <f t="shared" si="30"/>
+        <v>9.9999999999999994E+118</v>
+      </c>
+      <c r="H209" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999994E+118</v>
-      </c>
-      <c r="H209" s="17">
-        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I209" s="16" t="str" cm="1">
@@ -21763,15 +22195,15 @@
         <v>섬</v>
       </c>
       <c r="J209" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K209" s="22">
         <f t="shared" si="31"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K209" s="22">
-        <f t="shared" si="29"/>
         <v>181500</v>
       </c>
       <c r="L209" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>726000</v>
       </c>
     </row>
@@ -21780,15 +22212,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000섬</v>
       </c>
       <c r="G210" s="17">
+        <f t="shared" si="30"/>
+        <v>4.9999999999999999E+119</v>
+      </c>
+      <c r="H210" s="17">
         <f t="shared" si="28"/>
-        <v>4.9999999999999999E+119</v>
-      </c>
-      <c r="H210" s="17">
-        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I210" s="16" t="str" cm="1">
@@ -21796,15 +22228,15 @@
         <v>섬</v>
       </c>
       <c r="J210" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K210" s="22">
         <f t="shared" si="31"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K210" s="22">
-        <f t="shared" si="29"/>
         <v>183250</v>
       </c>
       <c r="L210" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>733000</v>
       </c>
     </row>
@@ -21813,15 +22245,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1찰</v>
       </c>
       <c r="G211" s="17">
+        <f t="shared" si="30"/>
+        <v>9.9999999999999998E+119</v>
+      </c>
+      <c r="H211" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999998E+119</v>
-      </c>
-      <c r="H211" s="17">
-        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I211" s="16" t="str" cm="1">
@@ -21829,15 +22261,15 @@
         <v>찰</v>
       </c>
       <c r="J211" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K211" s="22">
         <f t="shared" si="31"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K211" s="22">
-        <f t="shared" si="29"/>
         <v>185000</v>
       </c>
       <c r="L211" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>740000</v>
       </c>
     </row>
@@ -21846,15 +22278,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5찰</v>
       </c>
       <c r="G212" s="17">
+        <f t="shared" si="30"/>
+        <v>4.9999999999999996E+120</v>
+      </c>
+      <c r="H212" s="17">
         <f t="shared" si="28"/>
-        <v>4.9999999999999996E+120</v>
-      </c>
-      <c r="H212" s="17">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I212" s="16" t="str" cm="1">
@@ -21862,15 +22294,15 @@
         <v>찰</v>
       </c>
       <c r="J212" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K212" s="22">
         <f t="shared" si="31"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K212" s="22">
-        <f t="shared" si="29"/>
         <v>186750</v>
       </c>
       <c r="L212" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>747000</v>
       </c>
     </row>
@@ -21879,15 +22311,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10찰</v>
       </c>
       <c r="G213" s="17">
+        <f t="shared" si="30"/>
+        <v>9.9999999999999992E+120</v>
+      </c>
+      <c r="H213" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999992E+120</v>
-      </c>
-      <c r="H213" s="17">
-        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I213" s="16" t="str" cm="1">
@@ -21895,15 +22327,15 @@
         <v>찰</v>
       </c>
       <c r="J213" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K213" s="22">
         <f t="shared" si="31"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K213" s="22">
-        <f t="shared" si="29"/>
         <v>188500</v>
       </c>
       <c r="L213" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>754000</v>
       </c>
     </row>
@@ -21912,15 +22344,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50찰</v>
       </c>
       <c r="G214" s="17">
+        <f t="shared" si="30"/>
+        <v>5.0000000000000001E+121</v>
+      </c>
+      <c r="H214" s="17">
         <f t="shared" si="28"/>
-        <v>5.0000000000000001E+121</v>
-      </c>
-      <c r="H214" s="17">
-        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I214" s="16" t="str" cm="1">
@@ -21928,15 +22360,15 @@
         <v>찰</v>
       </c>
       <c r="J214" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K214" s="22">
         <f t="shared" si="31"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K214" s="22">
-        <f t="shared" si="29"/>
         <v>190250</v>
       </c>
       <c r="L214" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>761000</v>
       </c>
     </row>
@@ -21945,15 +22377,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100찰</v>
       </c>
       <c r="G215" s="17">
+        <f t="shared" si="30"/>
+        <v>1E+122</v>
+      </c>
+      <c r="H215" s="17">
         <f t="shared" si="28"/>
-        <v>1E+122</v>
-      </c>
-      <c r="H215" s="17">
-        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I215" s="16" t="str" cm="1">
@@ -21961,15 +22393,15 @@
         <v>찰</v>
       </c>
       <c r="J215" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K215" s="22">
         <f t="shared" si="31"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K215" s="22">
-        <f t="shared" si="29"/>
         <v>192000</v>
       </c>
       <c r="L215" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>768000</v>
       </c>
     </row>
@@ -21978,15 +22410,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500찰</v>
       </c>
       <c r="G216" s="17">
+        <f t="shared" si="30"/>
+        <v>4.9999999999999999E+122</v>
+      </c>
+      <c r="H216" s="17">
         <f t="shared" si="28"/>
-        <v>4.9999999999999999E+122</v>
-      </c>
-      <c r="H216" s="17">
-        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I216" s="16" t="str" cm="1">
@@ -21994,15 +22426,15 @@
         <v>찰</v>
       </c>
       <c r="J216" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K216" s="22">
         <f t="shared" si="31"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K216" s="22">
-        <f t="shared" si="29"/>
         <v>193750</v>
       </c>
       <c r="L216" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>775000</v>
       </c>
     </row>
@@ -22011,15 +22443,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000찰</v>
       </c>
       <c r="G217" s="17">
+        <f t="shared" si="30"/>
+        <v>9.9999999999999998E+122</v>
+      </c>
+      <c r="H217" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999998E+122</v>
-      </c>
-      <c r="H217" s="17">
-        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I217" s="16" t="str" cm="1">
@@ -22027,15 +22459,15 @@
         <v>찰</v>
       </c>
       <c r="J217" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K217" s="22">
         <f t="shared" si="31"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K217" s="22">
-        <f t="shared" si="29"/>
         <v>195500</v>
       </c>
       <c r="L217" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>782000</v>
       </c>
     </row>
@@ -22044,15 +22476,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000찰</v>
       </c>
       <c r="G218" s="17">
+        <f t="shared" si="30"/>
+        <v>4.9999999999999997E+123</v>
+      </c>
+      <c r="H218" s="17">
         <f t="shared" si="28"/>
-        <v>4.9999999999999997E+123</v>
-      </c>
-      <c r="H218" s="17">
-        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I218" s="16" t="str" cm="1">
@@ -22060,15 +22492,15 @@
         <v>찰</v>
       </c>
       <c r="J218" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K218" s="22">
         <f t="shared" si="31"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K218" s="22">
-        <f t="shared" si="29"/>
         <v>197250</v>
       </c>
       <c r="L218" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>789000</v>
       </c>
     </row>
@@ -22077,15 +22509,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1교</v>
       </c>
       <c r="G219" s="17">
+        <f t="shared" si="30"/>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="H219" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999995E+123</v>
-      </c>
-      <c r="H219" s="17">
-        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I219" s="16" t="str" cm="1">
@@ -22093,15 +22525,15 @@
         <v>교</v>
       </c>
       <c r="J219" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K219" s="22">
         <f t="shared" si="31"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K219" s="22">
-        <f t="shared" si="29"/>
         <v>199125</v>
       </c>
       <c r="L219" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>796500</v>
       </c>
     </row>
@@ -22110,15 +22542,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5교</v>
       </c>
       <c r="G220" s="17">
+        <f t="shared" si="30"/>
+        <v>4.9999999999999996E+124</v>
+      </c>
+      <c r="H220" s="17">
         <f t="shared" si="28"/>
-        <v>4.9999999999999996E+124</v>
-      </c>
-      <c r="H220" s="17">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I220" s="16" t="str" cm="1">
@@ -22126,15 +22558,15 @@
         <v>교</v>
       </c>
       <c r="J220" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K220" s="22">
         <f t="shared" si="31"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K220" s="22">
-        <f t="shared" si="29"/>
         <v>201000</v>
       </c>
       <c r="L220" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>804000</v>
       </c>
     </row>
@@ -22143,15 +22575,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10교</v>
       </c>
       <c r="G221" s="17">
+        <f t="shared" si="30"/>
+        <v>9.9999999999999992E+124</v>
+      </c>
+      <c r="H221" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999992E+124</v>
-      </c>
-      <c r="H221" s="17">
-        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I221" s="16" t="str" cm="1">
@@ -22159,15 +22591,15 @@
         <v>교</v>
       </c>
       <c r="J221" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K221" s="22">
         <f t="shared" si="31"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K221" s="22">
-        <f t="shared" si="29"/>
         <v>202875</v>
       </c>
       <c r="L221" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>811500</v>
       </c>
     </row>
@@ -22176,15 +22608,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50교</v>
       </c>
       <c r="G222" s="17">
+        <f t="shared" si="30"/>
+        <v>4.9999999999999996E+125</v>
+      </c>
+      <c r="H222" s="17">
         <f t="shared" si="28"/>
-        <v>4.9999999999999996E+125</v>
-      </c>
-      <c r="H222" s="17">
-        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I222" s="16" t="str" cm="1">
@@ -22192,15 +22624,15 @@
         <v>교</v>
       </c>
       <c r="J222" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K222" s="22">
         <f t="shared" si="31"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K222" s="22">
-        <f t="shared" si="29"/>
         <v>204750</v>
       </c>
       <c r="L222" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>819000</v>
       </c>
     </row>
@@ -22209,15 +22641,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100교</v>
       </c>
       <c r="G223" s="17">
+        <f t="shared" si="30"/>
+        <v>9.9999999999999992E+125</v>
+      </c>
+      <c r="H223" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999992E+125</v>
-      </c>
-      <c r="H223" s="17">
-        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I223" s="16" t="str" cm="1">
@@ -22225,15 +22657,15 @@
         <v>교</v>
       </c>
       <c r="J223" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K223" s="22">
         <f t="shared" si="31"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K223" s="22">
-        <f t="shared" si="29"/>
         <v>206625</v>
       </c>
       <c r="L223" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>826500</v>
       </c>
     </row>
@@ -22242,15 +22674,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500교</v>
       </c>
       <c r="G224" s="17">
+        <f t="shared" si="30"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="H224" s="17">
         <f t="shared" si="28"/>
-        <v>4.9999999999999998E+126</v>
-      </c>
-      <c r="H224" s="17">
-        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I224" s="16" t="str" cm="1">
@@ -22258,15 +22690,15 @@
         <v>교</v>
       </c>
       <c r="J224" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K224" s="22">
         <f t="shared" si="31"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K224" s="22">
-        <f t="shared" si="29"/>
         <v>208500</v>
       </c>
       <c r="L224" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>834000</v>
       </c>
     </row>
@@ -22275,15 +22707,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000교</v>
       </c>
       <c r="G225" s="17">
+        <f t="shared" si="30"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="H225" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999995E+126</v>
-      </c>
-      <c r="H225" s="17">
-        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I225" s="16" t="str" cm="1">
@@ -22291,15 +22723,15 @@
         <v>교</v>
       </c>
       <c r="J225" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K225" s="22">
         <f t="shared" si="31"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K225" s="22">
-        <f t="shared" si="29"/>
         <v>210375</v>
       </c>
       <c r="L225" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>841500</v>
       </c>
     </row>
@@ -22308,15 +22740,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000교</v>
       </c>
       <c r="G226" s="17">
+        <f t="shared" si="30"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="H226" s="17">
         <f t="shared" si="28"/>
-        <v>4.9999999999999994E+127</v>
-      </c>
-      <c r="H226" s="17">
-        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I226" s="16" t="str" cm="1">
@@ -22324,15 +22756,15 @@
         <v>교</v>
       </c>
       <c r="J226" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K226" s="22">
         <f t="shared" si="31"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K226" s="22">
-        <f t="shared" si="29"/>
         <v>212250</v>
       </c>
       <c r="L226" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>849000</v>
       </c>
     </row>
@@ -22341,15 +22773,15 @@
         <v>218</v>
       </c>
       <c r="F227" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1위</v>
       </c>
       <c r="G227" s="17">
+        <f t="shared" si="30"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="H227" s="17">
         <f t="shared" si="28"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="H227" s="17">
-        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I227" s="16" t="str" cm="1">
@@ -22357,15 +22789,15 @@
         <v>위</v>
       </c>
       <c r="J227" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K227" s="22">
         <f t="shared" si="31"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K227" s="22">
-        <f t="shared" si="29"/>
         <v>214125</v>
       </c>
       <c r="L227" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>856500</v>
       </c>
     </row>
@@ -22374,15 +22806,15 @@
         <v>219</v>
       </c>
       <c r="F228" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5위</v>
       </c>
       <c r="G228" s="17">
+        <f t="shared" si="30"/>
+        <v>5E+128</v>
+      </c>
+      <c r="H228" s="17">
         <f t="shared" si="28"/>
-        <v>5E+128</v>
-      </c>
-      <c r="H228" s="17">
-        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I228" s="16" t="str" cm="1">
@@ -22390,15 +22822,15 @@
         <v>위</v>
       </c>
       <c r="J228" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K228" s="22">
         <f t="shared" si="31"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K228" s="22">
-        <f t="shared" si="29"/>
         <v>216000</v>
       </c>
       <c r="L228" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>864000</v>
       </c>
     </row>
@@ -22407,15 +22839,15 @@
         <v>220</v>
       </c>
       <c r="F229" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10위</v>
       </c>
       <c r="G229" s="17">
+        <f t="shared" si="30"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H229" s="17">
         <f t="shared" si="28"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H229" s="17">
-        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="I229" s="16" t="str" cm="1">
@@ -22423,15 +22855,15 @@
         <v>위</v>
       </c>
       <c r="J229" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K229" s="22">
         <f t="shared" si="31"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K229" s="22">
-        <f t="shared" si="29"/>
         <v>217875</v>
       </c>
       <c r="L229" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>871500</v>
       </c>
     </row>
@@ -22440,15 +22872,15 @@
         <v>221</v>
       </c>
       <c r="F230" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50위</v>
       </c>
       <c r="G230" s="17">
+        <f t="shared" si="30"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H230" s="17">
         <f t="shared" si="28"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H230" s="17">
-        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="I230" s="16" t="str" cm="1">
@@ -22456,15 +22888,15 @@
         <v>위</v>
       </c>
       <c r="J230" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K230" s="22">
         <f t="shared" si="31"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K230" s="22">
-        <f t="shared" si="29"/>
         <v>219750</v>
       </c>
       <c r="L230" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>879000</v>
       </c>
     </row>
@@ -22473,15 +22905,15 @@
         <v>222</v>
       </c>
       <c r="F231" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100위</v>
       </c>
       <c r="G231" s="17">
+        <f t="shared" si="30"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H231" s="17">
         <f t="shared" si="28"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H231" s="17">
-        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="I231" s="16" t="str" cm="1">
@@ -22489,15 +22921,15 @@
         <v>위</v>
       </c>
       <c r="J231" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K231" s="22">
         <f t="shared" si="31"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K231" s="22">
-        <f t="shared" si="29"/>
         <v>221625</v>
       </c>
       <c r="L231" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>886500</v>
       </c>
     </row>
@@ -22506,15 +22938,15 @@
         <v>223</v>
       </c>
       <c r="F232" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500위</v>
       </c>
       <c r="G232" s="17">
+        <f t="shared" si="30"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H232" s="17">
         <f t="shared" si="28"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H232" s="17">
-        <f t="shared" si="26"/>
         <v>500</v>
       </c>
       <c r="I232" s="16" t="str" cm="1">
@@ -22522,15 +22954,15 @@
         <v>위</v>
       </c>
       <c r="J232" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K232" s="22">
         <f t="shared" si="31"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K232" s="22">
-        <f t="shared" si="29"/>
         <v>223500</v>
       </c>
       <c r="L232" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>894000</v>
       </c>
     </row>
@@ -22539,15 +22971,15 @@
         <v>224</v>
       </c>
       <c r="F233" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000위</v>
       </c>
       <c r="G233" s="17">
+        <f t="shared" si="30"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H233" s="17">
         <f t="shared" si="28"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H233" s="17">
-        <f t="shared" si="26"/>
         <v>1000</v>
       </c>
       <c r="I233" s="16" t="str" cm="1">
@@ -22555,15 +22987,15 @@
         <v>위</v>
       </c>
       <c r="J233" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K233" s="22">
         <f t="shared" si="31"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K233" s="22">
-        <f t="shared" si="29"/>
         <v>225375</v>
       </c>
       <c r="L233" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>901500</v>
       </c>
     </row>
@@ -22572,15 +23004,15 @@
         <v>225</v>
       </c>
       <c r="F234" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000위</v>
       </c>
       <c r="G234" s="17">
+        <f t="shared" si="30"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H234" s="17">
         <f t="shared" si="28"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H234" s="17">
-        <f t="shared" si="26"/>
         <v>5000</v>
       </c>
       <c r="I234" s="16" t="str" cm="1">
@@ -22588,15 +23020,15 @@
         <v>위</v>
       </c>
       <c r="J234" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K234" s="22">
         <f t="shared" si="31"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K234" s="22">
-        <f t="shared" si="29"/>
         <v>227375</v>
       </c>
       <c r="L234" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>909500</v>
       </c>
     </row>
@@ -22605,15 +23037,15 @@
         <v>226</v>
       </c>
       <c r="F235" s="17" t="str">
-        <f t="shared" ref="F235:F247" si="32">H235&amp;I235</f>
+        <f t="shared" ref="F235:F247" si="34">H235&amp;I235</f>
         <v>1설</v>
       </c>
       <c r="G235" s="17">
-        <f t="shared" ref="G235:G247" si="33">H235*J235</f>
+        <f t="shared" ref="G235:G247" si="35">H235*J235</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="H235" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I235" s="16" t="str" cm="1">
@@ -22621,15 +23053,15 @@
         <v>설</v>
       </c>
       <c r="J235" s="16" t="str">
-        <f t="shared" ref="J235:J247" si="34">VLOOKUP(I235,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J235:J247" si="36">VLOOKUP(I235,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K235" s="22">
-        <f t="shared" ref="K235:K247" si="35">L235*0.25</f>
+        <f t="shared" ref="K235:K247" si="37">L235*0.25</f>
         <v>229375</v>
       </c>
       <c r="L235" s="22">
-        <f t="shared" ref="L235:L247" si="36">L234+500+QUOTIENT(E235,15)*500</f>
+        <f t="shared" ref="L235:L247" si="38">L234+500+QUOTIENT(E235,15)*500</f>
         <v>917500</v>
       </c>
     </row>
@@ -22638,15 +23070,15 @@
         <v>227</v>
       </c>
       <c r="F236" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5설</v>
       </c>
       <c r="G236" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H236" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I236" s="16" t="str" cm="1">
@@ -22654,15 +23086,15 @@
         <v>설</v>
       </c>
       <c r="J236" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+132</v>
       </c>
       <c r="K236" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>231375</v>
       </c>
       <c r="L236" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>925500</v>
       </c>
     </row>
@@ -22671,15 +23103,15 @@
         <v>228</v>
       </c>
       <c r="F237" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10설</v>
       </c>
       <c r="G237" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+133</v>
       </c>
       <c r="H237" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I237" s="16" t="str" cm="1">
@@ -22687,15 +23119,15 @@
         <v>설</v>
       </c>
       <c r="J237" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+132</v>
       </c>
       <c r="K237" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>233375</v>
       </c>
       <c r="L237" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>933500</v>
       </c>
     </row>
@@ -22704,15 +23136,15 @@
         <v>229</v>
       </c>
       <c r="F238" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50설</v>
       </c>
       <c r="G238" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H238" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I238" s="16" t="str" cm="1">
@@ -22720,15 +23152,15 @@
         <v>설</v>
       </c>
       <c r="J238" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+132</v>
       </c>
       <c r="K238" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>235375</v>
       </c>
       <c r="L238" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>941500</v>
       </c>
     </row>
@@ -22737,15 +23169,15 @@
         <v>230</v>
       </c>
       <c r="F239" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100설</v>
       </c>
       <c r="G239" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H239" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I239" s="16" t="str" cm="1">
@@ -22753,15 +23185,15 @@
         <v>설</v>
       </c>
       <c r="J239" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+132</v>
       </c>
       <c r="K239" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>237375</v>
       </c>
       <c r="L239" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>949500</v>
       </c>
     </row>
@@ -22770,15 +23202,15 @@
         <v>231</v>
       </c>
       <c r="F240" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500설</v>
       </c>
       <c r="G240" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H240" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I240" s="16" t="str" cm="1">
@@ -22786,15 +23218,15 @@
         <v>설</v>
       </c>
       <c r="J240" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+132</v>
       </c>
       <c r="K240" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>239375</v>
       </c>
       <c r="L240" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>957500</v>
       </c>
     </row>
@@ -22803,15 +23235,15 @@
         <v>232</v>
       </c>
       <c r="F241" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000설</v>
       </c>
       <c r="G241" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H241" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I241" s="16" t="str" cm="1">
@@ -22819,15 +23251,15 @@
         <v>설</v>
       </c>
       <c r="J241" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+132</v>
       </c>
       <c r="K241" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>241375</v>
       </c>
       <c r="L241" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>965500</v>
       </c>
     </row>
@@ -22836,15 +23268,15 @@
         <v>233</v>
       </c>
       <c r="F242" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000설</v>
       </c>
       <c r="G242" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H242" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I242" s="16" t="str" cm="1">
@@ -22852,15 +23284,15 @@
         <v>설</v>
       </c>
       <c r="J242" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+132</v>
       </c>
       <c r="K242" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>243375</v>
       </c>
       <c r="L242" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>973500</v>
       </c>
     </row>
@@ -22869,15 +23301,15 @@
         <v>234</v>
       </c>
       <c r="F243" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1적</v>
       </c>
       <c r="G243" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H243" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I243" s="16" t="str" cm="1">
@@ -22885,15 +23317,15 @@
         <v>적</v>
       </c>
       <c r="J243" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+136</v>
       </c>
       <c r="K243" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>245375</v>
       </c>
       <c r="L243" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>981500</v>
       </c>
     </row>
@@ -22902,15 +23334,15 @@
         <v>235</v>
       </c>
       <c r="F244" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5적</v>
       </c>
       <c r="G244" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H244" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I244" s="16" t="str" cm="1">
@@ -22918,15 +23350,15 @@
         <v>적</v>
       </c>
       <c r="J244" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+136</v>
       </c>
       <c r="K244" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>247375</v>
       </c>
       <c r="L244" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>989500</v>
       </c>
     </row>
@@ -22935,15 +23367,15 @@
         <v>236</v>
       </c>
       <c r="F245" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10적</v>
       </c>
       <c r="G245" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+137</v>
       </c>
       <c r="H245" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I245" s="16" t="str" cm="1">
@@ -22951,15 +23383,15 @@
         <v>적</v>
       </c>
       <c r="J245" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+136</v>
       </c>
       <c r="K245" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>249375</v>
       </c>
       <c r="L245" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>997500</v>
       </c>
     </row>
@@ -22968,15 +23400,15 @@
         <v>237</v>
       </c>
       <c r="F246" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50적</v>
       </c>
       <c r="G246" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H246" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I246" s="16" t="str" cm="1">
@@ -22984,15 +23416,15 @@
         <v>적</v>
       </c>
       <c r="J246" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+136</v>
       </c>
       <c r="K246" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>251375</v>
       </c>
       <c r="L246" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1005500</v>
       </c>
     </row>
@@ -23001,15 +23433,15 @@
         <v>238</v>
       </c>
       <c r="F247" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100적</v>
       </c>
       <c r="G247" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+138</v>
       </c>
       <c r="H247" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I247" s="16" t="str" cm="1">
@@ -23017,15 +23449,15 @@
         <v>적</v>
       </c>
       <c r="J247" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+136</v>
       </c>
       <c r="K247" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>253375</v>
       </c>
       <c r="L247" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1013500</v>
       </c>
     </row>
@@ -23034,15 +23466,15 @@
         <v>239</v>
       </c>
       <c r="F248" s="17" t="str">
-        <f t="shared" ref="F248:F257" si="37">H248&amp;I248</f>
+        <f t="shared" ref="F248:F257" si="39">H248&amp;I248</f>
         <v>500적</v>
       </c>
       <c r="G248" s="17">
-        <f t="shared" ref="G248:G257" si="38">H248*J248</f>
+        <f t="shared" ref="G248:G257" si="40">H248*J248</f>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H248" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I248" s="16" t="str" cm="1">
@@ -23050,15 +23482,15 @@
         <v>적</v>
       </c>
       <c r="J248" s="16" t="str">
-        <f t="shared" ref="J248:J257" si="39">VLOOKUP(I248,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J248:J257" si="41">VLOOKUP(I248,N:Q,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K248" s="22">
-        <f t="shared" ref="K248:K257" si="40">L248*0.25</f>
+        <f t="shared" ref="K248:K257" si="42">L248*0.25</f>
         <v>255375</v>
       </c>
       <c r="L248" s="22">
-        <f t="shared" ref="L248:L257" si="41">L247+500+QUOTIENT(E248,15)*500</f>
+        <f t="shared" ref="L248:L257" si="43">L247+500+QUOTIENT(E248,15)*500</f>
         <v>1021500</v>
       </c>
     </row>
@@ -23067,15 +23499,15 @@
         <v>240</v>
       </c>
       <c r="F249" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000적</v>
       </c>
       <c r="G249" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+139</v>
       </c>
       <c r="H249" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I249" s="16" t="str" cm="1">
@@ -23083,15 +23515,15 @@
         <v>적</v>
       </c>
       <c r="J249" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+136</v>
       </c>
       <c r="K249" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>257500</v>
       </c>
       <c r="L249" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1030000</v>
       </c>
     </row>
@@ -23100,15 +23532,15 @@
         <v>241</v>
       </c>
       <c r="F250" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5000적</v>
       </c>
       <c r="G250" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H250" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I250" s="16" t="str" cm="1">
@@ -23116,15 +23548,15 @@
         <v>적</v>
       </c>
       <c r="J250" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+136</v>
       </c>
       <c r="K250" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>259625</v>
       </c>
       <c r="L250" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1038500</v>
       </c>
     </row>
@@ -23133,15 +23565,15 @@
         <v>242</v>
       </c>
       <c r="F251" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1고</v>
       </c>
       <c r="G251" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H251" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I251" s="16" t="str" cm="1">
@@ -23149,15 +23581,15 @@
         <v>고</v>
       </c>
       <c r="J251" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+140</v>
       </c>
       <c r="K251" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>261750</v>
       </c>
       <c r="L251" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1047000</v>
       </c>
     </row>
@@ -23166,15 +23598,15 @@
         <v>243</v>
       </c>
       <c r="F252" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5고</v>
       </c>
       <c r="G252" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H252" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I252" s="16" t="str" cm="1">
@@ -23182,15 +23614,15 @@
         <v>고</v>
       </c>
       <c r="J252" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+140</v>
       </c>
       <c r="K252" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>263875</v>
       </c>
       <c r="L252" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1055500</v>
       </c>
     </row>
@@ -23199,15 +23631,15 @@
         <v>244</v>
       </c>
       <c r="F253" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10고</v>
       </c>
       <c r="G253" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+141</v>
       </c>
       <c r="H253" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I253" s="16" t="str" cm="1">
@@ -23215,15 +23647,15 @@
         <v>고</v>
       </c>
       <c r="J253" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+140</v>
       </c>
       <c r="K253" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>266000</v>
       </c>
       <c r="L253" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1064000</v>
       </c>
     </row>
@@ -23232,15 +23664,15 @@
         <v>245</v>
       </c>
       <c r="F254" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>50고</v>
       </c>
       <c r="G254" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H254" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I254" s="16" t="str" cm="1">
@@ -23248,15 +23680,15 @@
         <v>고</v>
       </c>
       <c r="J254" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+140</v>
       </c>
       <c r="K254" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>268125</v>
       </c>
       <c r="L254" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1072500</v>
       </c>
     </row>
@@ -23265,15 +23697,15 @@
         <v>246</v>
       </c>
       <c r="F255" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100고</v>
       </c>
       <c r="G255" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H255" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I255" s="16" t="str" cm="1">
@@ -23281,15 +23713,15 @@
         <v>고</v>
       </c>
       <c r="J255" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+140</v>
       </c>
       <c r="K255" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>270250</v>
       </c>
       <c r="L255" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1081000</v>
       </c>
     </row>
@@ -23298,15 +23730,15 @@
         <v>247</v>
       </c>
       <c r="F256" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>500고</v>
       </c>
       <c r="G256" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H256" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I256" s="16" t="str" cm="1">
@@ -23314,15 +23746,15 @@
         <v>고</v>
       </c>
       <c r="J256" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+140</v>
       </c>
       <c r="K256" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>272375</v>
       </c>
       <c r="L256" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1089500</v>
       </c>
     </row>
@@ -23331,15 +23763,15 @@
         <v>248</v>
       </c>
       <c r="F257" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000고</v>
       </c>
       <c r="G257" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+143</v>
       </c>
       <c r="H257" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I257" s="16" t="str" cm="1">
@@ -23347,15 +23779,15 @@
         <v>고</v>
       </c>
       <c r="J257" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+140</v>
       </c>
       <c r="K257" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>274500</v>
       </c>
       <c r="L257" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1098000</v>
       </c>
     </row>
@@ -23364,15 +23796,15 @@
         <v>249</v>
       </c>
       <c r="F258" s="17" t="str">
-        <f t="shared" ref="F258" si="42">H258&amp;I258</f>
+        <f t="shared" ref="F258:F265" si="44">H258&amp;I258</f>
         <v>5000고</v>
       </c>
       <c r="G258" s="17">
-        <f t="shared" ref="G258" si="43">H258*J258</f>
+        <f t="shared" ref="G258:G265" si="45">H258*J258</f>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H258" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I258" s="16" t="str" cm="1">
@@ -23380,16 +23812,280 @@
         <v>고</v>
       </c>
       <c r="J258" s="16" t="str">
-        <f t="shared" ref="J258" si="44">VLOOKUP(I258,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J258:J265" si="46">VLOOKUP(I258,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K258" s="22">
-        <f t="shared" ref="K258" si="45">L258*0.25</f>
+        <f t="shared" ref="K258:K265" si="47">L258*0.25</f>
         <v>276625</v>
       </c>
       <c r="L258" s="22">
-        <f t="shared" ref="L258" si="46">L257+500+QUOTIENT(E258,15)*500</f>
+        <f t="shared" ref="L258:L265" si="48">L257+500+QUOTIENT(E258,15)*500</f>
         <v>1106500</v>
+      </c>
+    </row>
+    <row r="259" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E259" s="16">
+        <v>250</v>
+      </c>
+      <c r="F259" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>1화</v>
+      </c>
+      <c r="G259" s="17">
+        <f t="shared" si="45"/>
+        <v>1E+144</v>
+      </c>
+      <c r="H259" s="17">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="I259" s="16" t="str" cm="1">
+        <f t="array" ref="I259">IF(AND(H258&gt;1000,H259&lt;2),INDEX(N:N,MATCH(I258,N:N,0)+1,0),I258)</f>
+        <v>화</v>
+      </c>
+      <c r="J259" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K259" s="22">
+        <f t="shared" si="47"/>
+        <v>278750</v>
+      </c>
+      <c r="L259" s="22">
+        <f t="shared" si="48"/>
+        <v>1115000</v>
+      </c>
+    </row>
+    <row r="260" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E260" s="16">
+        <v>251</v>
+      </c>
+      <c r="F260" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>5화</v>
+      </c>
+      <c r="G260" s="17">
+        <f t="shared" si="45"/>
+        <v>4.9999999999999999E+144</v>
+      </c>
+      <c r="H260" s="17">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="I260" s="16" t="str" cm="1">
+        <f t="array" ref="I260">IF(AND(H259&gt;1000,H260&lt;2),INDEX(N:N,MATCH(I259,N:N,0)+1,0),I259)</f>
+        <v>화</v>
+      </c>
+      <c r="J260" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K260" s="22">
+        <f t="shared" si="47"/>
+        <v>280875</v>
+      </c>
+      <c r="L260" s="22">
+        <f t="shared" si="48"/>
+        <v>1123500</v>
+      </c>
+    </row>
+    <row r="261" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E261" s="16">
+        <v>252</v>
+      </c>
+      <c r="F261" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>10화</v>
+      </c>
+      <c r="G261" s="17">
+        <f t="shared" si="45"/>
+        <v>9.9999999999999999E+144</v>
+      </c>
+      <c r="H261" s="17">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="I261" s="16" t="str" cm="1">
+        <f t="array" ref="I261">IF(AND(H260&gt;1000,H261&lt;2),INDEX(N:N,MATCH(I260,N:N,0)+1,0),I260)</f>
+        <v>화</v>
+      </c>
+      <c r="J261" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K261" s="22">
+        <f t="shared" si="47"/>
+        <v>283000</v>
+      </c>
+      <c r="L261" s="22">
+        <f t="shared" si="48"/>
+        <v>1132000</v>
+      </c>
+    </row>
+    <row r="262" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E262" s="16">
+        <v>253</v>
+      </c>
+      <c r="F262" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>50화</v>
+      </c>
+      <c r="G262" s="17">
+        <f t="shared" si="45"/>
+        <v>4.9999999999999997E+145</v>
+      </c>
+      <c r="H262" s="17">
+        <f t="shared" si="28"/>
+        <v>50</v>
+      </c>
+      <c r="I262" s="16" t="str" cm="1">
+        <f t="array" ref="I262">IF(AND(H261&gt;1000,H262&lt;2),INDEX(N:N,MATCH(I261,N:N,0)+1,0),I261)</f>
+        <v>화</v>
+      </c>
+      <c r="J262" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K262" s="22">
+        <f t="shared" si="47"/>
+        <v>285125</v>
+      </c>
+      <c r="L262" s="22">
+        <f t="shared" si="48"/>
+        <v>1140500</v>
+      </c>
+    </row>
+    <row r="263" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E263" s="16">
+        <v>254</v>
+      </c>
+      <c r="F263" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>100화</v>
+      </c>
+      <c r="G263" s="17">
+        <f t="shared" si="45"/>
+        <v>9.9999999999999993E+145</v>
+      </c>
+      <c r="H263" s="17">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="I263" s="16" t="str" cm="1">
+        <f t="array" ref="I263">IF(AND(H262&gt;1000,H263&lt;2),INDEX(N:N,MATCH(I262,N:N,0)+1,0),I262)</f>
+        <v>화</v>
+      </c>
+      <c r="J263" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K263" s="22">
+        <f t="shared" si="47"/>
+        <v>287250</v>
+      </c>
+      <c r="L263" s="22">
+        <f t="shared" si="48"/>
+        <v>1149000</v>
+      </c>
+    </row>
+    <row r="264" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E264" s="16">
+        <v>255</v>
+      </c>
+      <c r="F264" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>500화</v>
+      </c>
+      <c r="G264" s="17">
+        <f t="shared" si="45"/>
+        <v>4.9999999999999999E+146</v>
+      </c>
+      <c r="H264" s="17">
+        <f t="shared" si="28"/>
+        <v>500</v>
+      </c>
+      <c r="I264" s="16" t="str" cm="1">
+        <f t="array" ref="I264">IF(AND(H263&gt;1000,H264&lt;2),INDEX(N:N,MATCH(I263,N:N,0)+1,0),I263)</f>
+        <v>화</v>
+      </c>
+      <c r="J264" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K264" s="22">
+        <f t="shared" si="47"/>
+        <v>289500</v>
+      </c>
+      <c r="L264" s="22">
+        <f t="shared" si="48"/>
+        <v>1158000</v>
+      </c>
+    </row>
+    <row r="265" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E265" s="16">
+        <v>256</v>
+      </c>
+      <c r="F265" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>1000화</v>
+      </c>
+      <c r="G265" s="17">
+        <f t="shared" si="45"/>
+        <v>9.9999999999999998E+146</v>
+      </c>
+      <c r="H265" s="17">
+        <f t="shared" si="28"/>
+        <v>1000</v>
+      </c>
+      <c r="I265" s="16" t="str" cm="1">
+        <f t="array" ref="I265">IF(AND(H264&gt;1000,H265&lt;2),INDEX(N:N,MATCH(I264,N:N,0)+1,0),I264)</f>
+        <v>화</v>
+      </c>
+      <c r="J265" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K265" s="22">
+        <f t="shared" si="47"/>
+        <v>291750</v>
+      </c>
+      <c r="L265" s="22">
+        <f t="shared" si="48"/>
+        <v>1167000</v>
+      </c>
+    </row>
+    <row r="266" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E266" s="16">
+        <v>257</v>
+      </c>
+      <c r="F266" s="17" t="str">
+        <f t="shared" ref="F266" si="49">H266&amp;I266</f>
+        <v>5000화</v>
+      </c>
+      <c r="G266" s="17">
+        <f t="shared" ref="G266" si="50">H266*J266</f>
+        <v>5.0000000000000002E+147</v>
+      </c>
+      <c r="H266" s="17">
+        <f t="shared" si="28"/>
+        <v>5000</v>
+      </c>
+      <c r="I266" s="16" t="str" cm="1">
+        <f t="array" ref="I266">IF(AND(H265&gt;1000,H266&lt;2),INDEX(N:N,MATCH(I265,N:N,0)+1,0),I265)</f>
+        <v>화</v>
+      </c>
+      <c r="J266" s="16" t="str">
+        <f t="shared" ref="J266" si="51">VLOOKUP(I266,N:Q,4,FALSE)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="K266" s="22">
+        <f t="shared" ref="K266" si="52">L266*0.25</f>
+        <v>294000</v>
+      </c>
+      <c r="L266" s="22">
+        <f t="shared" ref="L266" si="53">L265+500+QUOTIENT(E266,15)*500</f>
+        <v>1176000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulTower.xlsx
+++ b/Assets/06.Table/DosulTower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09344986-D12B-454C-9DB8-978D5BC68C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725AE5C6-5A9B-495A-BEDB-FF0262FF9E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="69">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,10 @@
   </si>
   <si>
     <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,11 +922,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M259"/>
+  <dimension ref="A1:M267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M259" sqref="M259"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I248" sqref="I248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11077,7 +11081,7 @@
         <v>171000</v>
       </c>
       <c r="E196">
-        <f t="shared" ref="E196:E259" si="171">E195</f>
+        <f t="shared" ref="E196:E260" si="171">E195</f>
         <v>1</v>
       </c>
       <c r="F196" s="2">
@@ -11100,11 +11104,11 @@
         <v>60</v>
       </c>
       <c r="K196">
-        <f t="shared" ref="K196:K259" si="173">K195+200</f>
+        <f t="shared" ref="K196:K260" si="173">K195+200</f>
         <v>40800</v>
       </c>
       <c r="L196">
-        <f t="shared" ref="L196:L259" si="174">L195</f>
+        <f t="shared" ref="L196:L260" si="174">L195</f>
         <v>9031</v>
       </c>
       <c r="M196">
@@ -14388,9 +14392,425 @@
         <v>588000</v>
       </c>
     </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1" t="str">
+        <f t="shared" ref="B260:C260" si="301">B259</f>
+        <v>1-1</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="301"/>
+        <v>9031</v>
+      </c>
+      <c r="D260">
+        <f>VLOOKUP(A260,Balance!E:K,7,FALSE)</f>
+        <v>296250</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+      <c r="F260" s="2">
+        <f>VLOOKUP(A260,Balance!E:K,3,FALSE)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="G260">
+        <f t="shared" ref="G260:I260" si="302">G259</f>
+        <v>1000</v>
+      </c>
+      <c r="H260">
+        <f t="shared" si="302"/>
+        <v>8</v>
+      </c>
+      <c r="I260">
+        <f t="shared" si="302"/>
+        <v>0</v>
+      </c>
+      <c r="J260" t="s">
+        <v>60</v>
+      </c>
+      <c r="K260">
+        <f t="shared" si="173"/>
+        <v>53600</v>
+      </c>
+      <c r="L260">
+        <f t="shared" si="174"/>
+        <v>9031</v>
+      </c>
+      <c r="M260">
+        <f>VLOOKUP(A260,Balance!E:L,8,FALSE)/2</f>
+        <v>592500</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1" t="str">
+        <f t="shared" ref="B261:C261" si="303">B260</f>
+        <v>1-1</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="303"/>
+        <v>9031</v>
+      </c>
+      <c r="D261">
+        <f>VLOOKUP(A261,Balance!E:K,7,FALSE)</f>
+        <v>298500</v>
+      </c>
+      <c r="E261">
+        <f t="shared" ref="E261:E267" si="304">E260</f>
+        <v>1</v>
+      </c>
+      <c r="F261" s="2">
+        <f>VLOOKUP(A261,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+148</v>
+      </c>
+      <c r="G261">
+        <f t="shared" ref="G261:I261" si="305">G260</f>
+        <v>1000</v>
+      </c>
+      <c r="H261">
+        <f t="shared" si="305"/>
+        <v>8</v>
+      </c>
+      <c r="I261">
+        <f t="shared" si="305"/>
+        <v>0</v>
+      </c>
+      <c r="J261" t="s">
+        <v>60</v>
+      </c>
+      <c r="K261">
+        <f t="shared" ref="K261:K267" si="306">K260+200</f>
+        <v>53800</v>
+      </c>
+      <c r="L261">
+        <f t="shared" ref="L261:L267" si="307">L260</f>
+        <v>9031</v>
+      </c>
+      <c r="M261">
+        <f>VLOOKUP(A261,Balance!E:L,8,FALSE)/2</f>
+        <v>597000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262" s="1" t="str">
+        <f t="shared" ref="B262:C262" si="308">B261</f>
+        <v>1-1</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="308"/>
+        <v>9031</v>
+      </c>
+      <c r="D262">
+        <f>VLOOKUP(A262,Balance!E:K,7,FALSE)</f>
+        <v>300750</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F262" s="2">
+        <f>VLOOKUP(A262,Balance!E:K,3,FALSE)</f>
+        <v>1E+149</v>
+      </c>
+      <c r="G262">
+        <f t="shared" ref="G262:I262" si="309">G261</f>
+        <v>1000</v>
+      </c>
+      <c r="H262">
+        <f t="shared" si="309"/>
+        <v>8</v>
+      </c>
+      <c r="I262">
+        <f t="shared" si="309"/>
+        <v>0</v>
+      </c>
+      <c r="J262" t="s">
+        <v>60</v>
+      </c>
+      <c r="K262">
+        <f t="shared" si="306"/>
+        <v>54000</v>
+      </c>
+      <c r="L262">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M262">
+        <f>VLOOKUP(A262,Balance!E:L,8,FALSE)/2</f>
+        <v>601500</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263" s="1" t="str">
+        <f t="shared" ref="B263:C263" si="310">B262</f>
+        <v>1-1</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="310"/>
+        <v>9031</v>
+      </c>
+      <c r="D263">
+        <f>VLOOKUP(A263,Balance!E:K,7,FALSE)</f>
+        <v>303000</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F263" s="2">
+        <f>VLOOKUP(A263,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999999E+149</v>
+      </c>
+      <c r="G263">
+        <f t="shared" ref="G263:I263" si="311">G262</f>
+        <v>1000</v>
+      </c>
+      <c r="H263">
+        <f t="shared" si="311"/>
+        <v>8</v>
+      </c>
+      <c r="I263">
+        <f t="shared" si="311"/>
+        <v>0</v>
+      </c>
+      <c r="J263" t="s">
+        <v>60</v>
+      </c>
+      <c r="K263">
+        <f t="shared" si="306"/>
+        <v>54200</v>
+      </c>
+      <c r="L263">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M263">
+        <f>VLOOKUP(A263,Balance!E:L,8,FALSE)/2</f>
+        <v>606000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264" s="1" t="str">
+        <f t="shared" ref="B264:C264" si="312">B263</f>
+        <v>1-1</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="312"/>
+        <v>9031</v>
+      </c>
+      <c r="D264">
+        <f>VLOOKUP(A264,Balance!E:K,7,FALSE)</f>
+        <v>305250</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F264" s="2">
+        <f>VLOOKUP(A264,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999998E+149</v>
+      </c>
+      <c r="G264">
+        <f t="shared" ref="G264:I264" si="313">G263</f>
+        <v>1000</v>
+      </c>
+      <c r="H264">
+        <f t="shared" si="313"/>
+        <v>8</v>
+      </c>
+      <c r="I264">
+        <f t="shared" si="313"/>
+        <v>0</v>
+      </c>
+      <c r="J264" t="s">
+        <v>60</v>
+      </c>
+      <c r="K264">
+        <f t="shared" si="306"/>
+        <v>54400</v>
+      </c>
+      <c r="L264">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M264">
+        <f>VLOOKUP(A264,Balance!E:L,8,FALSE)/2</f>
+        <v>610500</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265" s="1" t="str">
+        <f t="shared" ref="B265:C265" si="314">B264</f>
+        <v>1-1</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="314"/>
+        <v>9031</v>
+      </c>
+      <c r="D265">
+        <f>VLOOKUP(A265,Balance!E:K,7,FALSE)</f>
+        <v>307500</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F265" s="2">
+        <f>VLOOKUP(A265,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000001E+150</v>
+      </c>
+      <c r="G265">
+        <f t="shared" ref="G265:I265" si="315">G264</f>
+        <v>1000</v>
+      </c>
+      <c r="H265">
+        <f t="shared" si="315"/>
+        <v>8</v>
+      </c>
+      <c r="I265">
+        <f t="shared" si="315"/>
+        <v>0</v>
+      </c>
+      <c r="J265" t="s">
+        <v>60</v>
+      </c>
+      <c r="K265">
+        <f t="shared" si="306"/>
+        <v>54600</v>
+      </c>
+      <c r="L265">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M265">
+        <f>VLOOKUP(A265,Balance!E:L,8,FALSE)/2</f>
+        <v>615000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266" s="1" t="str">
+        <f t="shared" ref="B266:C266" si="316">B265</f>
+        <v>1-1</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="316"/>
+        <v>9031</v>
+      </c>
+      <c r="D266">
+        <f>VLOOKUP(A266,Balance!E:K,7,FALSE)</f>
+        <v>309750</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F266" s="2">
+        <f>VLOOKUP(A266,Balance!E:K,3,FALSE)</f>
+        <v>1E+151</v>
+      </c>
+      <c r="G266">
+        <f t="shared" ref="G266:I266" si="317">G265</f>
+        <v>1000</v>
+      </c>
+      <c r="H266">
+        <f t="shared" si="317"/>
+        <v>8</v>
+      </c>
+      <c r="I266">
+        <f t="shared" si="317"/>
+        <v>0</v>
+      </c>
+      <c r="J266" t="s">
+        <v>60</v>
+      </c>
+      <c r="K266">
+        <f t="shared" si="306"/>
+        <v>54800</v>
+      </c>
+      <c r="L266">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M266">
+        <f>VLOOKUP(A266,Balance!E:L,8,FALSE)/2</f>
+        <v>619500</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267" s="1" t="str">
+        <f t="shared" ref="B267:C267" si="318">B266</f>
+        <v>1-1</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="318"/>
+        <v>9031</v>
+      </c>
+      <c r="D267">
+        <f>VLOOKUP(A267,Balance!E:K,7,FALSE)</f>
+        <v>312000</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F267" s="2">
+        <f>VLOOKUP(A267,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+151</v>
+      </c>
+      <c r="G267">
+        <f t="shared" ref="G267:I267" si="319">G266</f>
+        <v>1000</v>
+      </c>
+      <c r="H267">
+        <f t="shared" si="319"/>
+        <v>8</v>
+      </c>
+      <c r="I267">
+        <f t="shared" si="319"/>
+        <v>0</v>
+      </c>
+      <c r="J267" t="s">
+        <v>60</v>
+      </c>
+      <c r="K267">
+        <f t="shared" si="306"/>
+        <v>55000</v>
+      </c>
+      <c r="L267">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M267">
+        <f>VLOOKUP(A267,Balance!E:L,8,FALSE)/2</f>
+        <v>624000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L259">
+  <conditionalFormatting sqref="A2:L267">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -14402,10 +14822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z266"/>
+  <dimension ref="A1:Z274"/>
   <sheetViews>
-    <sheetView topLeftCell="B236" workbookViewId="0">
-      <selection activeCell="F256" sqref="F256"/>
+    <sheetView topLeftCell="B251" workbookViewId="0">
+      <selection activeCell="K271" sqref="K271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16368,8 +16788,20 @@
         <v>33000</v>
       </c>
       <c r="M44" s="22"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
+      <c r="N44" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O44" s="16">
+        <v>148</v>
+      </c>
+      <c r="P44" s="17">
+        <f t="shared" ref="P44" si="17">POWER(10,O44)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="Q44" s="17" t="str">
+        <f t="shared" ref="Q44" si="18">RIGHT(P44,O44)</f>
+        <v>1E+148</v>
+      </c>
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
@@ -17443,7 +17875,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F132" si="17">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="19">H69&amp;I69</f>
         <v>10극</v>
       </c>
       <c r="G69" s="17">
@@ -17477,7 +17909,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50극</v>
       </c>
       <c r="G70" s="17">
@@ -17511,7 +17943,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100극</v>
       </c>
       <c r="G71" s="17">
@@ -17545,7 +17977,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500극</v>
       </c>
       <c r="G72" s="17">
@@ -17579,7 +18011,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000극</v>
       </c>
       <c r="G73" s="17">
@@ -17595,7 +18027,7 @@
         <v>극</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J136" si="18">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="20">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="K73" s="22">
@@ -17613,11 +18045,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000극</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G137" si="19">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="21">H74*J74</f>
         <v>5E+51</v>
       </c>
       <c r="H74" s="17">
@@ -17629,11 +18061,11 @@
         <v>극</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+48</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" ref="K74:K137" si="20">L74*0.25</f>
+        <f t="shared" ref="K74:K137" si="22">L74*0.25</f>
         <v>22875</v>
       </c>
       <c r="L74" s="22">
@@ -17647,11 +18079,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1항</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="H75" s="17">
@@ -17663,15 +18095,15 @@
         <v>항</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+52</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23500</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" ref="L75:L138" si="21">L74+500+QUOTIENT(E75,15)*500</f>
+        <f t="shared" ref="L75:L138" si="23">L74+500+QUOTIENT(E75,15)*500</f>
         <v>94000</v>
       </c>
       <c r="M75" s="22"/>
@@ -17681,11 +18113,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5항</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5E+52</v>
       </c>
       <c r="H76" s="17">
@@ -17697,15 +18129,15 @@
         <v>항</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+52</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>24125</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>96500</v>
       </c>
       <c r="M76" s="22"/>
@@ -17715,11 +18147,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10항</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999999E+52</v>
       </c>
       <c r="H77" s="17">
@@ -17731,15 +18163,15 @@
         <v>항</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+52</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>24750</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>99000</v>
       </c>
       <c r="M77" s="22"/>
@@ -17749,11 +18181,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50항</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000004E+53</v>
       </c>
       <c r="H78" s="17">
@@ -17765,15 +18197,15 @@
         <v>항</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+52</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25375</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>101500</v>
       </c>
       <c r="M78" s="22"/>
@@ -17783,11 +18215,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100항</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+54</v>
       </c>
       <c r="H79" s="17">
@@ -17799,15 +18231,15 @@
         <v>항</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+52</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>26000</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>104000</v>
       </c>
       <c r="M79" s="22"/>
@@ -17817,11 +18249,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500항</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000001E+54</v>
       </c>
       <c r="H80" s="17">
@@ -17833,15 +18265,15 @@
         <v>항</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+52</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>26625</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>106500</v>
       </c>
       <c r="M80" s="22"/>
@@ -17851,11 +18283,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000항</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+55</v>
       </c>
       <c r="H81" s="17">
@@ -17867,15 +18299,15 @@
         <v>항</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+52</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>27250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>109000</v>
       </c>
       <c r="M81" s="22"/>
@@ -17885,15 +18317,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000항</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000005E+55</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" ref="H82:H145" si="22">H74</f>
+        <f t="shared" ref="H82:H145" si="24">H74</f>
         <v>5000</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -17901,11 +18333,11 @@
         <v>항</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+52</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>27875</v>
       </c>
       <c r="L82" s="22">
@@ -17919,15 +18351,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1아</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -17935,15 +18367,15 @@
         <v>아</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+56</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>28500</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>114000</v>
       </c>
       <c r="M83" s="22"/>
@@ -17953,15 +18385,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5아</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000002E+56</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -17969,15 +18401,15 @@
         <v>아</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+56</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>29250</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>117000</v>
       </c>
       <c r="M84" s="22"/>
@@ -17987,15 +18419,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10아</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+57</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -18003,15 +18435,15 @@
         <v>아</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+56</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>30000</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>120000</v>
       </c>
       <c r="M85" s="22"/>
@@ -18021,15 +18453,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50아</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000004E+57</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -18037,15 +18469,15 @@
         <v>아</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+56</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>30750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>123000</v>
       </c>
       <c r="M86" s="22"/>
@@ -18055,15 +18487,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100아</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+58</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -18071,15 +18503,15 @@
         <v>아</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+56</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>31500</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>126000</v>
       </c>
       <c r="M87" s="22"/>
@@ -18089,15 +18521,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500아</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000004E+58</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -18105,15 +18537,15 @@
         <v>아</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+56</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32250</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>129000</v>
       </c>
       <c r="M88" s="22"/>
@@ -18123,15 +18555,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000아</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+59</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -18139,15 +18571,15 @@
         <v>아</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+56</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>33000</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>132000</v>
       </c>
       <c r="M89" s="22"/>
@@ -18157,15 +18589,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000아</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000006E+59</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -18173,15 +18605,15 @@
         <v>아</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+56</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>33750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>135000</v>
       </c>
       <c r="M90" s="22"/>
@@ -18191,15 +18623,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1나</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -18207,15 +18639,15 @@
         <v>나</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+60</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>34500</v>
       </c>
       <c r="L91" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>138000</v>
       </c>
       <c r="M91" s="22"/>
@@ -18225,15 +18657,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5나</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999997E+60</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -18241,15 +18673,15 @@
         <v>나</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+60</v>
       </c>
       <c r="K92" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>35250</v>
       </c>
       <c r="L92" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>141000</v>
       </c>
       <c r="M92" s="22"/>
@@ -18259,15 +18691,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10나</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999995E+60</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -18275,15 +18707,15 @@
         <v>나</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+60</v>
       </c>
       <c r="K93" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>36000</v>
       </c>
       <c r="L93" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>144000</v>
       </c>
       <c r="M93" s="22"/>
@@ -18293,15 +18725,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50나</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999996E+61</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -18309,15 +18741,15 @@
         <v>나</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+60</v>
       </c>
       <c r="K94" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>36750</v>
       </c>
       <c r="L94" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>147000</v>
       </c>
       <c r="M94" s="22"/>
@@ -18327,15 +18759,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100나</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999992E+61</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -18343,15 +18775,15 @@
         <v>나</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+60</v>
       </c>
       <c r="K95" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>37500</v>
       </c>
       <c r="L95" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>150000</v>
       </c>
       <c r="M95" s="22"/>
@@ -18361,15 +18793,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500나</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999994E+62</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -18377,15 +18809,15 @@
         <v>나</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+60</v>
       </c>
       <c r="K96" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>38250</v>
       </c>
       <c r="L96" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>153000</v>
       </c>
       <c r="M96" s="22"/>
@@ -18395,15 +18827,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000나</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999988E+62</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -18411,15 +18843,15 @@
         <v>나</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+60</v>
       </c>
       <c r="K97" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>39000</v>
       </c>
       <c r="L97" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>156000</v>
       </c>
       <c r="M97" s="22"/>
@@ -18429,15 +18861,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000나</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000001E+63</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -18445,15 +18877,15 @@
         <v>나</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+60</v>
       </c>
       <c r="K98" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>39750</v>
       </c>
       <c r="L98" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>159000</v>
       </c>
       <c r="M98" s="22"/>
@@ -18463,15 +18895,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1불</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+64</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -18479,15 +18911,15 @@
         <v>불</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+64</v>
       </c>
       <c r="K99" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>40625</v>
       </c>
       <c r="L99" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>162500</v>
       </c>
       <c r="M99" s="22"/>
@@ -18497,15 +18929,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5불</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5E+64</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -18513,15 +18945,15 @@
         <v>불</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+64</v>
       </c>
       <c r="K100" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>41500</v>
       </c>
       <c r="L100" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>166000</v>
       </c>
       <c r="M100" s="22"/>
@@ -18531,15 +18963,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10불</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999999E+64</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -18547,15 +18979,15 @@
         <v>불</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+64</v>
       </c>
       <c r="K101" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>42375</v>
       </c>
       <c r="L101" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>169500</v>
       </c>
       <c r="M101" s="22"/>
@@ -18565,15 +18997,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50불</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999997E+65</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -18581,15 +19013,15 @@
         <v>불</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+64</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>43250</v>
       </c>
       <c r="L102" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>173000</v>
       </c>
       <c r="M102" s="22"/>
@@ -18599,15 +19031,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100불</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999995E+65</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -18615,15 +19047,15 @@
         <v>불</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+64</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>44125</v>
       </c>
       <c r="L103" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>176500</v>
       </c>
       <c r="M103" s="22"/>
@@ -18633,15 +19065,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500불</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999999E+66</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -18649,15 +19081,15 @@
         <v>불</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+64</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>45000</v>
       </c>
       <c r="L104" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>180000</v>
       </c>
       <c r="M104" s="22"/>
@@ -18667,15 +19099,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000불</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999998E+66</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -18683,15 +19115,15 @@
         <v>불</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+64</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>45875</v>
       </c>
       <c r="L105" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>183500</v>
       </c>
       <c r="M105" s="22"/>
@@ -18701,15 +19133,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000불</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000004E+67</v>
       </c>
       <c r="H106" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -18717,15 +19149,15 @@
         <v>불</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+64</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>46750</v>
       </c>
       <c r="L106" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>187000</v>
       </c>
       <c r="M106" s="22"/>
@@ -18735,15 +19167,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1무</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="H107" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -18751,15 +19183,15 @@
         <v>무</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+68</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>47625</v>
       </c>
       <c r="L107" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>190500</v>
       </c>
       <c r="M107" s="22"/>
@@ -18769,15 +19201,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5무</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999994E+68</v>
       </c>
       <c r="H108" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -18785,15 +19217,15 @@
         <v>무</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+68</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>48500</v>
       </c>
       <c r="L108" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>194000</v>
       </c>
       <c r="M108" s="22"/>
@@ -18803,15 +19235,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10무</v>
       </c>
       <c r="G109" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999988E+68</v>
       </c>
       <c r="H109" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -18819,15 +19251,15 @@
         <v>무</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+68</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>49375</v>
       </c>
       <c r="L109" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>197500</v>
       </c>
       <c r="M109" s="22"/>
@@ -18837,15 +19269,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50무</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999996E+69</v>
       </c>
       <c r="H110" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -18853,15 +19285,15 @@
         <v>무</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+68</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50250</v>
       </c>
       <c r="L110" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>201000</v>
       </c>
       <c r="M110" s="22"/>
@@ -18871,15 +19303,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100무</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="H111" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -18887,15 +19319,15 @@
         <v>무</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+68</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>51125</v>
       </c>
       <c r="L111" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>204500</v>
       </c>
       <c r="M111" s="22"/>
@@ -18905,15 +19337,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500무</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999996E+70</v>
       </c>
       <c r="H112" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -18921,15 +19353,15 @@
         <v>무</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+68</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>52000</v>
       </c>
       <c r="L112" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>208000</v>
       </c>
       <c r="M112" s="22"/>
@@ -18939,15 +19371,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000무</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -18955,15 +19387,15 @@
         <v>무</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+68</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>52875</v>
       </c>
       <c r="L113" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>211500</v>
       </c>
       <c r="M113" s="22"/>
@@ -18973,15 +19405,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000무</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999997E+71</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -18989,15 +19421,15 @@
         <v>무</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+68</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>53875</v>
       </c>
       <c r="L114" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>215500</v>
       </c>
       <c r="M114" s="22"/>
@@ -19007,15 +19439,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1대</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -19023,15 +19455,15 @@
         <v>대</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+72</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>54875</v>
       </c>
       <c r="L115" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>219500</v>
       </c>
       <c r="M115" s="22"/>
@@ -19041,15 +19473,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5대</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999999E+72</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -19057,15 +19489,15 @@
         <v>대</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+72</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>55875</v>
       </c>
       <c r="L116" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>223500</v>
       </c>
       <c r="M116" s="22"/>
@@ -19075,15 +19507,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10대</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -19091,15 +19523,15 @@
         <v>대</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+72</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>56875</v>
       </c>
       <c r="L117" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>227500</v>
       </c>
       <c r="M117" s="22"/>
@@ -19109,15 +19541,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50대</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999998E+73</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -19125,15 +19557,15 @@
         <v>대</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+72</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>57875</v>
       </c>
       <c r="L118" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>231500</v>
       </c>
       <c r="M118" s="22"/>
@@ -19143,15 +19575,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100대</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -19159,15 +19591,15 @@
         <v>대</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+72</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>58875</v>
       </c>
       <c r="L119" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>235500</v>
       </c>
       <c r="M119" s="22"/>
@@ -19177,15 +19609,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500대</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999996E+74</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -19193,15 +19625,15 @@
         <v>대</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+72</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>59875</v>
       </c>
       <c r="L120" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>239500</v>
       </c>
       <c r="M120" s="22"/>
@@ -19211,15 +19643,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000대</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -19227,15 +19659,15 @@
         <v>대</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+72</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>60875</v>
       </c>
       <c r="L121" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>243500</v>
       </c>
       <c r="M121" s="22"/>
@@ -19245,15 +19677,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000대</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999994E+75</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -19261,15 +19693,15 @@
         <v>대</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+72</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>61875</v>
       </c>
       <c r="L122" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>247500</v>
       </c>
       <c r="M122" s="22"/>
@@ -19279,15 +19711,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1겁</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+76</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -19295,15 +19727,15 @@
         <v>겁</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+76</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>62875</v>
       </c>
       <c r="L123" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>251500</v>
       </c>
       <c r="M123" s="22"/>
@@ -19313,15 +19745,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5겁</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000006E+76</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -19329,15 +19761,15 @@
         <v>겁</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+76</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>63875</v>
       </c>
       <c r="L124" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>255500</v>
       </c>
       <c r="M124" s="22"/>
@@ -19347,15 +19779,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10겁</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -19363,15 +19795,15 @@
         <v>겁</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+76</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>64875</v>
       </c>
       <c r="L125" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>259500</v>
       </c>
       <c r="M125" s="22"/>
@@ -19381,15 +19813,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>50겁</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5E+77</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -19397,15 +19829,15 @@
         <v>겁</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+76</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>65875</v>
       </c>
       <c r="L126" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>263500</v>
       </c>
       <c r="M126" s="22"/>
@@ -19415,15 +19847,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100겁</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+78</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -19431,15 +19863,15 @@
         <v>겁</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+76</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>66875</v>
       </c>
       <c r="L127" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>267500</v>
       </c>
       <c r="M127" s="22"/>
@@ -19449,15 +19881,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500겁</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999998E+78</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -19465,15 +19897,15 @@
         <v>겁</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+76</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>67875</v>
       </c>
       <c r="L128" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>271500</v>
       </c>
       <c r="M128" s="22"/>
@@ -19483,15 +19915,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1000겁</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -19499,15 +19931,15 @@
         <v>겁</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+76</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>69000</v>
       </c>
       <c r="L129" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>276000</v>
       </c>
       <c r="M129" s="22"/>
@@ -19517,15 +19949,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5000겁</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5E+79</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -19533,15 +19965,15 @@
         <v>겁</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+76</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>70125</v>
       </c>
       <c r="L130" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>280500</v>
       </c>
       <c r="M130" s="22"/>
@@ -19551,15 +19983,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1업</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+80</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -19567,15 +19999,15 @@
         <v>업</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+80</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>71250</v>
       </c>
       <c r="L131" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>285000</v>
       </c>
       <c r="M131" s="22"/>
@@ -19585,15 +20017,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5업</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999996E+80</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -19601,15 +20033,15 @@
         <v>업</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+80</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>72375</v>
       </c>
       <c r="L132" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>289500</v>
       </c>
       <c r="M132" s="22"/>
@@ -19619,15 +20051,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" ref="F133:F184" si="23">H133&amp;I133</f>
+        <f t="shared" ref="F133:F184" si="25">H133&amp;I133</f>
         <v>10업</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -19635,15 +20067,15 @@
         <v>업</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+80</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>73500</v>
       </c>
       <c r="L133" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>294000</v>
       </c>
       <c r="M133" s="22"/>
@@ -19653,15 +20085,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50업</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999998E+81</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -19669,15 +20101,15 @@
         <v>업</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+80</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>74625</v>
       </c>
       <c r="L134" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>298500</v>
       </c>
       <c r="M134" s="22"/>
@@ -19687,15 +20119,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100업</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -19703,15 +20135,15 @@
         <v>업</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+80</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>75750</v>
       </c>
       <c r="L135" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>303000</v>
       </c>
       <c r="M135" s="22"/>
@@ -19721,15 +20153,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500업</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000002E+82</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -19737,15 +20169,15 @@
         <v>업</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1E+80</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>76875</v>
       </c>
       <c r="L136" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>307500</v>
       </c>
       <c r="M136" s="22"/>
@@ -19755,15 +20187,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000업</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+83</v>
       </c>
       <c r="H137" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I137" s="16" t="str" cm="1">
@@ -19771,15 +20203,15 @@
         <v>업</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" ref="J137:J200" si="24">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="26">VLOOKUP(I137,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>78000</v>
       </c>
       <c r="L137" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>312000</v>
       </c>
       <c r="M137" s="22"/>
@@ -19789,15 +20221,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000업</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" ref="G138:G184" si="25">H138*J138</f>
+        <f t="shared" ref="G138:G184" si="27">H138*J138</f>
         <v>5.0000000000000003E+83</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="I138" s="16" t="str" cm="1">
@@ -19805,15 +20237,15 @@
         <v>업</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+80</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" ref="K138:K184" si="26">L138*0.25</f>
+        <f t="shared" ref="K138:K184" si="28">L138*0.25</f>
         <v>79125</v>
       </c>
       <c r="L138" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>316500</v>
       </c>
       <c r="M138" s="22"/>
@@ -19823,15 +20255,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1긍</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I139" s="16" t="str" cm="1">
@@ -19839,15 +20271,15 @@
         <v>긍</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+84</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>80250</v>
       </c>
       <c r="L139" s="22">
-        <f t="shared" ref="L139:L184" si="27">L138+500+QUOTIENT(E139,15)*500</f>
+        <f t="shared" ref="L139:L184" si="29">L138+500+QUOTIENT(E139,15)*500</f>
         <v>321000</v>
       </c>
       <c r="M139" s="22"/>
@@ -19857,15 +20289,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5긍</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000001E+84</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="I140" s="16" t="str" cm="1">
@@ -19873,15 +20305,15 @@
         <v>긍</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+84</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>81375</v>
       </c>
       <c r="L140" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>325500</v>
       </c>
       <c r="M140" s="22"/>
@@ -19891,15 +20323,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10긍</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+85</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="I141" s="16" t="str" cm="1">
@@ -19907,15 +20339,15 @@
         <v>긍</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+84</v>
       </c>
       <c r="K141" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>82500</v>
       </c>
       <c r="L141" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>330000</v>
       </c>
       <c r="M141" s="22"/>
@@ -19925,15 +20357,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50긍</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000001E+85</v>
       </c>
       <c r="H142" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="I142" s="16" t="str" cm="1">
@@ -19941,15 +20373,15 @@
         <v>긍</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+84</v>
       </c>
       <c r="K142" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>83625</v>
       </c>
       <c r="L142" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>334500</v>
       </c>
       <c r="M142" s="22"/>
@@ -19959,15 +20391,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100긍</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+86</v>
       </c>
       <c r="H143" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="I143" s="16" t="str" cm="1">
@@ -19975,15 +20407,15 @@
         <v>긍</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+84</v>
       </c>
       <c r="K143" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>84750</v>
       </c>
       <c r="L143" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>339000</v>
       </c>
       <c r="M143" s="22"/>
@@ -19993,15 +20425,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500긍</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999998E+86</v>
       </c>
       <c r="H144" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="I144" s="16" t="str" cm="1">
@@ -20009,15 +20441,15 @@
         <v>긍</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+84</v>
       </c>
       <c r="K144" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>86000</v>
       </c>
       <c r="L144" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>344000</v>
       </c>
       <c r="M144" s="22"/>
@@ -20027,15 +20459,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000긍</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="H145" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="I145" s="16" t="str" cm="1">
@@ -20043,15 +20475,15 @@
         <v>긍</v>
       </c>
       <c r="J145" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+84</v>
       </c>
       <c r="K145" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>87250</v>
       </c>
       <c r="L145" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>349000</v>
       </c>
       <c r="M145" s="22"/>
@@ -20061,15 +20493,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000긍</v>
       </c>
       <c r="G146" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000007E+87</v>
       </c>
       <c r="H146" s="17">
-        <f t="shared" ref="H146:H266" si="28">H138</f>
+        <f t="shared" ref="H146:H275" si="30">H138</f>
         <v>5000</v>
       </c>
       <c r="I146" s="16" t="str" cm="1">
@@ -20077,15 +20509,15 @@
         <v>긍</v>
       </c>
       <c r="J146" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+84</v>
       </c>
       <c r="K146" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>88500</v>
       </c>
       <c r="L146" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>354000</v>
       </c>
       <c r="M146" s="22"/>
@@ -20095,15 +20527,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1갈</v>
       </c>
       <c r="G147" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="H147" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I147" s="16" t="str" cm="1">
@@ -20111,15 +20543,15 @@
         <v>갈</v>
       </c>
       <c r="J147" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+88</v>
       </c>
       <c r="K147" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>89750</v>
       </c>
       <c r="L147" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>359000</v>
       </c>
       <c r="M147" s="22"/>
@@ -20129,15 +20561,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5갈</v>
       </c>
       <c r="G148" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5E+88</v>
       </c>
       <c r="H148" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I148" s="16" t="str" cm="1">
@@ -20145,15 +20577,15 @@
         <v>갈</v>
       </c>
       <c r="J148" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+88</v>
       </c>
       <c r="K148" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>91000</v>
       </c>
       <c r="L148" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>364000</v>
       </c>
       <c r="M148" s="22"/>
@@ -20163,15 +20595,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10갈</v>
       </c>
       <c r="G149" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="H149" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I149" s="16" t="str" cm="1">
@@ -20179,15 +20611,15 @@
         <v>갈</v>
       </c>
       <c r="J149" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+88</v>
       </c>
       <c r="K149" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>92250</v>
       </c>
       <c r="L149" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>369000</v>
       </c>
       <c r="M149" s="22"/>
@@ -20197,15 +20629,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50갈</v>
       </c>
       <c r="G150" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999998E+89</v>
       </c>
       <c r="H150" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I150" s="16" t="str" cm="1">
@@ -20213,15 +20645,15 @@
         <v>갈</v>
       </c>
       <c r="J150" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+88</v>
       </c>
       <c r="K150" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>93500</v>
       </c>
       <c r="L150" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>374000</v>
       </c>
       <c r="M150" s="22"/>
@@ -20231,15 +20663,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100갈</v>
       </c>
       <c r="G151" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="H151" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I151" s="16" t="str" cm="1">
@@ -20247,15 +20679,15 @@
         <v>갈</v>
       </c>
       <c r="J151" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+88</v>
       </c>
       <c r="K151" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>94750</v>
       </c>
       <c r="L151" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>379000</v>
       </c>
       <c r="M151" s="22"/>
@@ -20265,15 +20697,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500갈</v>
       </c>
       <c r="G152" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999995E+90</v>
       </c>
       <c r="H152" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I152" s="16" t="str" cm="1">
@@ -20281,15 +20713,15 @@
         <v>갈</v>
       </c>
       <c r="J152" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+88</v>
       </c>
       <c r="K152" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>96000</v>
       </c>
       <c r="L152" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>384000</v>
       </c>
       <c r="M152" s="22"/>
@@ -20299,15 +20731,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000갈</v>
       </c>
       <c r="G153" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="H153" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I153" s="16" t="str" cm="1">
@@ -20315,15 +20747,15 @@
         <v>갈</v>
       </c>
       <c r="J153" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+88</v>
       </c>
       <c r="K153" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>97250</v>
       </c>
       <c r="L153" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>389000</v>
       </c>
       <c r="M153" s="22"/>
@@ -20333,15 +20765,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000갈</v>
       </c>
       <c r="G154" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999995E+91</v>
       </c>
       <c r="H154" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I154" s="16" t="str" cm="1">
@@ -20349,15 +20781,15 @@
         <v>갈</v>
       </c>
       <c r="J154" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+88</v>
       </c>
       <c r="K154" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>98500</v>
       </c>
       <c r="L154" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>394000</v>
       </c>
       <c r="M154" s="22"/>
@@ -20367,15 +20799,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1라</v>
       </c>
       <c r="G155" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+92</v>
       </c>
       <c r="H155" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I155" s="16" t="str" cm="1">
@@ -20383,15 +20815,15 @@
         <v>라</v>
       </c>
       <c r="J155" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+92</v>
       </c>
       <c r="K155" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>99750</v>
       </c>
       <c r="L155" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>399000</v>
       </c>
       <c r="M155" s="22"/>
@@ -20401,15 +20833,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5라</v>
       </c>
       <c r="G156" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000002E+92</v>
       </c>
       <c r="H156" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I156" s="16" t="str" cm="1">
@@ -20417,15 +20849,15 @@
         <v>라</v>
       </c>
       <c r="J156" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+92</v>
       </c>
       <c r="K156" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>101000</v>
       </c>
       <c r="L156" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>404000</v>
       </c>
       <c r="M156" s="22"/>
@@ -20435,15 +20867,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10라</v>
       </c>
       <c r="G157" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+93</v>
       </c>
       <c r="H157" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I157" s="16" t="str" cm="1">
@@ -20451,15 +20883,15 @@
         <v>라</v>
       </c>
       <c r="J157" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+92</v>
       </c>
       <c r="K157" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>102250</v>
       </c>
       <c r="L157" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>409000</v>
       </c>
       <c r="M157" s="22"/>
@@ -20469,15 +20901,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50라</v>
       </c>
       <c r="G158" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000001E+93</v>
       </c>
       <c r="H158" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I158" s="16" t="str" cm="1">
@@ -20485,15 +20917,15 @@
         <v>라</v>
       </c>
       <c r="J158" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+92</v>
       </c>
       <c r="K158" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>103500</v>
       </c>
       <c r="L158" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>414000</v>
       </c>
       <c r="M158" s="22"/>
@@ -20503,15 +20935,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100라</v>
       </c>
       <c r="G159" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+94</v>
       </c>
       <c r="H159" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I159" s="16" t="str" cm="1">
@@ -20519,15 +20951,15 @@
         <v>라</v>
       </c>
       <c r="J159" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+92</v>
       </c>
       <c r="K159" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>104875</v>
       </c>
       <c r="L159" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>419500</v>
       </c>
       <c r="M159" s="22"/>
@@ -20537,15 +20969,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500라</v>
       </c>
       <c r="G160" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000001E+94</v>
       </c>
       <c r="H160" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I160" s="16" t="str" cm="1">
@@ -20553,15 +20985,15 @@
         <v>라</v>
       </c>
       <c r="J160" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+92</v>
       </c>
       <c r="K160" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>106250</v>
       </c>
       <c r="L160" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>425000</v>
       </c>
       <c r="M160" s="22"/>
@@ -20571,15 +21003,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000라</v>
       </c>
       <c r="G161" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+95</v>
       </c>
       <c r="H161" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I161" s="16" t="str" cm="1">
@@ -20587,15 +21019,15 @@
         <v>라</v>
       </c>
       <c r="J161" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+92</v>
       </c>
       <c r="K161" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>107625</v>
       </c>
       <c r="L161" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>430500</v>
       </c>
       <c r="M161" s="22"/>
@@ -20605,15 +21037,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000라</v>
       </c>
       <c r="G162" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000002E+95</v>
       </c>
       <c r="H162" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I162" s="16" t="str" cm="1">
@@ -20621,15 +21053,15 @@
         <v>라</v>
       </c>
       <c r="J162" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+92</v>
       </c>
       <c r="K162" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>109000</v>
       </c>
       <c r="L162" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>436000</v>
       </c>
       <c r="M162" s="22"/>
@@ -20639,15 +21071,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1가</v>
       </c>
       <c r="G163" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+96</v>
       </c>
       <c r="H163" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I163" s="16" t="str" cm="1">
@@ -20655,15 +21087,15 @@
         <v>가</v>
       </c>
       <c r="J163" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="K163" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>110375</v>
       </c>
       <c r="L163" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>441500</v>
       </c>
       <c r="M163" s="22"/>
@@ -20673,15 +21105,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5가</v>
       </c>
       <c r="G164" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H164" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I164" s="16" t="str" cm="1">
@@ -20689,15 +21121,15 @@
         <v>가</v>
       </c>
       <c r="J164" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="K164" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>111750</v>
       </c>
       <c r="L164" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>447000</v>
       </c>
       <c r="M164" s="22"/>
@@ -20707,15 +21139,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10가</v>
       </c>
       <c r="G165" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H165" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I165" s="16" t="str" cm="1">
@@ -20723,15 +21155,15 @@
         <v>가</v>
       </c>
       <c r="J165" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="K165" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>113125</v>
       </c>
       <c r="L165" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>452500</v>
       </c>
       <c r="M165" s="22"/>
@@ -20741,15 +21173,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50가</v>
       </c>
       <c r="G166" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5E+97</v>
       </c>
       <c r="H166" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I166" s="16" t="str" cm="1">
@@ -20757,15 +21189,15 @@
         <v>가</v>
       </c>
       <c r="J166" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="K166" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>114500</v>
       </c>
       <c r="L166" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>458000</v>
       </c>
       <c r="M166" s="22"/>
@@ -20775,15 +21207,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100가</v>
       </c>
       <c r="G167" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+98</v>
       </c>
       <c r="H167" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I167" s="16" t="str" cm="1">
@@ -20791,15 +21223,15 @@
         <v>가</v>
       </c>
       <c r="J167" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="K167" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>115875</v>
       </c>
       <c r="L167" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>463500</v>
       </c>
       <c r="M167" s="22"/>
@@ -20809,15 +21241,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500가</v>
       </c>
       <c r="G168" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H168" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I168" s="16" t="str" cm="1">
@@ -20825,15 +21257,15 @@
         <v>가</v>
       </c>
       <c r="J168" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="K168" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>117250</v>
       </c>
       <c r="L168" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>469000</v>
       </c>
       <c r="M168" s="22"/>
@@ -20843,15 +21275,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000가</v>
       </c>
       <c r="G169" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H169" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I169" s="16" t="str" cm="1">
@@ -20859,15 +21291,15 @@
         <v>가</v>
       </c>
       <c r="J169" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="K169" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>118625</v>
       </c>
       <c r="L169" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>474500</v>
       </c>
       <c r="M169" s="22"/>
@@ -20877,15 +21309,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000가</v>
       </c>
       <c r="G170" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H170" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I170" s="16" t="str" cm="1">
@@ -20893,15 +21325,15 @@
         <v>가</v>
       </c>
       <c r="J170" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+96</v>
       </c>
       <c r="K170" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>120000</v>
       </c>
       <c r="L170" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>480000</v>
       </c>
       <c r="M170" s="22"/>
@@ -20911,15 +21343,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1언</v>
       </c>
       <c r="G171" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+100</v>
       </c>
       <c r="H171" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I171" s="16" t="str" cm="1">
@@ -20927,15 +21359,15 @@
         <v>언</v>
       </c>
       <c r="J171" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K171" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>121375</v>
       </c>
       <c r="L171" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>485500</v>
       </c>
       <c r="M171" s="22"/>
@@ -20945,15 +21377,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5언</v>
       </c>
       <c r="G172" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H172" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I172" s="16" t="str" cm="1">
@@ -20961,15 +21393,15 @@
         <v>언</v>
       </c>
       <c r="J172" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K172" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>122750</v>
       </c>
       <c r="L172" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>491000</v>
       </c>
       <c r="M172" s="22"/>
@@ -20979,15 +21411,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10언</v>
       </c>
       <c r="G173" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H173" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I173" s="16" t="str" cm="1">
@@ -20995,15 +21427,15 @@
         <v>언</v>
       </c>
       <c r="J173" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K173" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>124125</v>
       </c>
       <c r="L173" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>496500</v>
       </c>
       <c r="M173" s="22"/>
@@ -21013,15 +21445,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50언</v>
       </c>
       <c r="G174" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H174" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I174" s="16" t="str" cm="1">
@@ -21029,15 +21461,15 @@
         <v>언</v>
       </c>
       <c r="J174" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K174" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>125625</v>
       </c>
       <c r="L174" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>502500</v>
       </c>
       <c r="M174" s="22"/>
@@ -21047,15 +21479,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100언</v>
       </c>
       <c r="G175" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H175" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I175" s="16" t="str" cm="1">
@@ -21063,15 +21495,15 @@
         <v>언</v>
       </c>
       <c r="J175" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K175" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>127125</v>
       </c>
       <c r="L175" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>508500</v>
       </c>
       <c r="M175" s="22"/>
@@ -21081,15 +21513,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500언</v>
       </c>
       <c r="G176" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5E+102</v>
       </c>
       <c r="H176" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I176" s="16" t="str" cm="1">
@@ -21097,15 +21529,15 @@
         <v>언</v>
       </c>
       <c r="J176" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K176" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>128625</v>
       </c>
       <c r="L176" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>514500</v>
       </c>
       <c r="M176" s="22"/>
@@ -21115,15 +21547,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000언</v>
       </c>
       <c r="G177" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+103</v>
       </c>
       <c r="H177" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I177" s="16" t="str" cm="1">
@@ -21131,15 +21563,15 @@
         <v>언</v>
       </c>
       <c r="J177" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K177" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>130125</v>
       </c>
       <c r="L177" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>520500</v>
       </c>
       <c r="M177" s="22"/>
@@ -21149,15 +21581,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5000언</v>
       </c>
       <c r="G178" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5E+103</v>
       </c>
       <c r="H178" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I178" s="16" t="str" cm="1">
@@ -21165,15 +21597,15 @@
         <v>언</v>
       </c>
       <c r="J178" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+100</v>
       </c>
       <c r="K178" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>131625</v>
       </c>
       <c r="L178" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>526500</v>
       </c>
       <c r="M178" s="22"/>
@@ -21183,15 +21615,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1승</v>
       </c>
       <c r="G179" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+104</v>
       </c>
       <c r="H179" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I179" s="16" t="str" cm="1">
@@ -21199,15 +21631,15 @@
         <v>승</v>
       </c>
       <c r="J179" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K179" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>133125</v>
       </c>
       <c r="L179" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>532500</v>
       </c>
       <c r="M179" s="22"/>
@@ -21217,15 +21649,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5승</v>
       </c>
       <c r="G180" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H180" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I180" s="16" t="str" cm="1">
@@ -21233,15 +21665,15 @@
         <v>승</v>
       </c>
       <c r="J180" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K180" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>134625</v>
       </c>
       <c r="L180" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>538500</v>
       </c>
       <c r="M180" s="22"/>
@@ -21251,15 +21683,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>10승</v>
       </c>
       <c r="G181" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H181" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I181" s="16" t="str" cm="1">
@@ -21267,15 +21699,15 @@
         <v>승</v>
       </c>
       <c r="J181" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K181" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>136125</v>
       </c>
       <c r="L181" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>544500</v>
       </c>
       <c r="M181" s="22"/>
@@ -21285,15 +21717,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>50승</v>
       </c>
       <c r="G182" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H182" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I182" s="16" t="str" cm="1">
@@ -21301,15 +21733,15 @@
         <v>승</v>
       </c>
       <c r="J182" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K182" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>137625</v>
       </c>
       <c r="L182" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>550500</v>
       </c>
       <c r="M182" s="22"/>
@@ -21319,15 +21751,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100승</v>
       </c>
       <c r="G183" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H183" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I183" s="16" t="str" cm="1">
@@ -21335,15 +21767,15 @@
         <v>승</v>
       </c>
       <c r="J183" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K183" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>139125</v>
       </c>
       <c r="L183" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>556500</v>
       </c>
       <c r="M183" s="22"/>
@@ -21353,15 +21785,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500승</v>
       </c>
       <c r="G184" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H184" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I184" s="16" t="str" cm="1">
@@ -21369,15 +21801,15 @@
         <v>승</v>
       </c>
       <c r="J184" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K184" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>140625</v>
       </c>
       <c r="L184" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>562500</v>
       </c>
       <c r="M184" s="22"/>
@@ -21387,15 +21819,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="17" t="str">
-        <f t="shared" ref="F185:F234" si="29">H185&amp;I185</f>
+        <f t="shared" ref="F185:F234" si="31">H185&amp;I185</f>
         <v>1000승</v>
       </c>
       <c r="G185" s="17">
-        <f t="shared" ref="G185:G234" si="30">H185*J185</f>
+        <f t="shared" ref="G185:G234" si="32">H185*J185</f>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H185" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I185" s="16" t="str" cm="1">
@@ -21403,15 +21835,15 @@
         <v>승</v>
       </c>
       <c r="J185" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K185" s="22">
-        <f t="shared" ref="K185:K234" si="31">L185*0.25</f>
+        <f t="shared" ref="K185:K234" si="33">L185*0.25</f>
         <v>142125</v>
       </c>
       <c r="L185" s="22">
-        <f t="shared" ref="L185:L234" si="32">L184+500+QUOTIENT(E185,15)*500</f>
+        <f t="shared" ref="L185:L234" si="34">L184+500+QUOTIENT(E185,15)*500</f>
         <v>568500</v>
       </c>
     </row>
@@ -21420,15 +21852,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5000승</v>
       </c>
       <c r="G186" s="17">
+        <f t="shared" si="32"/>
+        <v>5.0000000000000002E+107</v>
+      </c>
+      <c r="H186" s="17">
         <f t="shared" si="30"/>
-        <v>5.0000000000000002E+107</v>
-      </c>
-      <c r="H186" s="17">
-        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I186" s="16" t="str" cm="1">
@@ -21436,15 +21868,15 @@
         <v>승</v>
       </c>
       <c r="J186" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+104</v>
       </c>
       <c r="K186" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>143625</v>
       </c>
       <c r="L186" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>574500</v>
       </c>
     </row>
@@ -21453,15 +21885,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1마</v>
       </c>
       <c r="G187" s="17">
+        <f t="shared" si="32"/>
+        <v>1E+108</v>
+      </c>
+      <c r="H187" s="17">
         <f t="shared" si="30"/>
-        <v>1E+108</v>
-      </c>
-      <c r="H187" s="17">
-        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I187" s="16" t="str" cm="1">
@@ -21469,15 +21901,15 @@
         <v>마</v>
       </c>
       <c r="J187" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K187" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>145125</v>
       </c>
       <c r="L187" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>580500</v>
       </c>
     </row>
@@ -21486,15 +21918,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5마</v>
       </c>
       <c r="G188" s="17">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999999E+108</v>
+      </c>
+      <c r="H188" s="17">
         <f t="shared" si="30"/>
-        <v>4.9999999999999999E+108</v>
-      </c>
-      <c r="H188" s="17">
-        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I188" s="16" t="str" cm="1">
@@ -21502,15 +21934,15 @@
         <v>마</v>
       </c>
       <c r="J188" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K188" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>146625</v>
       </c>
       <c r="L188" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>586500</v>
       </c>
     </row>
@@ -21519,15 +21951,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10마</v>
       </c>
       <c r="G189" s="17">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999998E+108</v>
+      </c>
+      <c r="H189" s="17">
         <f t="shared" si="30"/>
-        <v>9.9999999999999998E+108</v>
-      </c>
-      <c r="H189" s="17">
-        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I189" s="16" t="str" cm="1">
@@ -21535,15 +21967,15 @@
         <v>마</v>
       </c>
       <c r="J189" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K189" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>148250</v>
       </c>
       <c r="L189" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>593000</v>
       </c>
     </row>
@@ -21552,15 +21984,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>50마</v>
       </c>
       <c r="G190" s="17">
+        <f t="shared" si="32"/>
+        <v>5.0000000000000001E+109</v>
+      </c>
+      <c r="H190" s="17">
         <f t="shared" si="30"/>
-        <v>5.0000000000000001E+109</v>
-      </c>
-      <c r="H190" s="17">
-        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I190" s="16" t="str" cm="1">
@@ -21568,15 +22000,15 @@
         <v>마</v>
       </c>
       <c r="J190" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K190" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>149875</v>
       </c>
       <c r="L190" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>599500</v>
       </c>
     </row>
@@ -21585,15 +22017,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100마</v>
       </c>
       <c r="G191" s="17">
+        <f t="shared" si="32"/>
+        <v>1E+110</v>
+      </c>
+      <c r="H191" s="17">
         <f t="shared" si="30"/>
-        <v>1E+110</v>
-      </c>
-      <c r="H191" s="17">
-        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I191" s="16" t="str" cm="1">
@@ -21601,15 +22033,15 @@
         <v>마</v>
       </c>
       <c r="J191" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K191" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>151500</v>
       </c>
       <c r="L191" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>606000</v>
       </c>
     </row>
@@ -21618,15 +22050,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>500마</v>
       </c>
       <c r="G192" s="17">
+        <f t="shared" si="32"/>
+        <v>5.0000000000000005E+110</v>
+      </c>
+      <c r="H192" s="17">
         <f t="shared" si="30"/>
-        <v>5.0000000000000005E+110</v>
-      </c>
-      <c r="H192" s="17">
-        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I192" s="16" t="str" cm="1">
@@ -21634,15 +22066,15 @@
         <v>마</v>
       </c>
       <c r="J192" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K192" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>153125</v>
       </c>
       <c r="L192" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>612500</v>
       </c>
     </row>
@@ -21651,15 +22083,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000마</v>
       </c>
       <c r="G193" s="17">
+        <f t="shared" si="32"/>
+        <v>1.0000000000000001E+111</v>
+      </c>
+      <c r="H193" s="17">
         <f t="shared" si="30"/>
-        <v>1.0000000000000001E+111</v>
-      </c>
-      <c r="H193" s="17">
-        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I193" s="16" t="str" cm="1">
@@ -21667,15 +22099,15 @@
         <v>마</v>
       </c>
       <c r="J193" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K193" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>154750</v>
       </c>
       <c r="L193" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>619000</v>
       </c>
     </row>
@@ -21684,15 +22116,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5000마</v>
       </c>
       <c r="G194" s="17">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999997E+111</v>
+      </c>
+      <c r="H194" s="17">
         <f t="shared" si="30"/>
-        <v>4.9999999999999997E+111</v>
-      </c>
-      <c r="H194" s="17">
-        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I194" s="16" t="str" cm="1">
@@ -21700,15 +22132,15 @@
         <v>마</v>
       </c>
       <c r="J194" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+108</v>
       </c>
       <c r="K194" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>156375</v>
       </c>
       <c r="L194" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>625500</v>
       </c>
     </row>
@@ -21717,15 +22149,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1살</v>
       </c>
       <c r="G195" s="17">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999993E+111</v>
+      </c>
+      <c r="H195" s="17">
         <f t="shared" si="30"/>
-        <v>9.9999999999999993E+111</v>
-      </c>
-      <c r="H195" s="17">
-        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I195" s="16" t="str" cm="1">
@@ -21733,15 +22165,15 @@
         <v>살</v>
       </c>
       <c r="J195" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+112</v>
       </c>
       <c r="K195" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>158000</v>
       </c>
       <c r="L195" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>632000</v>
       </c>
     </row>
@@ -21750,15 +22182,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5살</v>
       </c>
       <c r="G196" s="17">
+        <f t="shared" si="32"/>
+        <v>5.0000000000000001E+112</v>
+      </c>
+      <c r="H196" s="17">
         <f t="shared" si="30"/>
-        <v>5.0000000000000001E+112</v>
-      </c>
-      <c r="H196" s="17">
-        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I196" s="16" t="str" cm="1">
@@ -21766,15 +22198,15 @@
         <v>살</v>
       </c>
       <c r="J196" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+112</v>
       </c>
       <c r="K196" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>159625</v>
       </c>
       <c r="L196" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>638500</v>
       </c>
     </row>
@@ -21783,15 +22215,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10살</v>
       </c>
       <c r="G197" s="17">
+        <f t="shared" si="32"/>
+        <v>1E+113</v>
+      </c>
+      <c r="H197" s="17">
         <f t="shared" si="30"/>
-        <v>1E+113</v>
-      </c>
-      <c r="H197" s="17">
-        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I197" s="16" t="str" cm="1">
@@ -21799,15 +22231,15 @@
         <v>살</v>
       </c>
       <c r="J197" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+112</v>
       </c>
       <c r="K197" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>161250</v>
       </c>
       <c r="L197" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>645000</v>
       </c>
     </row>
@@ -21816,15 +22248,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>50살</v>
       </c>
       <c r="G198" s="17">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999994E+113</v>
+      </c>
+      <c r="H198" s="17">
         <f t="shared" si="30"/>
-        <v>4.9999999999999994E+113</v>
-      </c>
-      <c r="H198" s="17">
-        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I198" s="16" t="str" cm="1">
@@ -21832,15 +22264,15 @@
         <v>살</v>
       </c>
       <c r="J198" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+112</v>
       </c>
       <c r="K198" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>162875</v>
       </c>
       <c r="L198" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>651500</v>
       </c>
     </row>
@@ -21849,15 +22281,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100살</v>
       </c>
       <c r="G199" s="17">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999988E+113</v>
+      </c>
+      <c r="H199" s="17">
         <f t="shared" si="30"/>
-        <v>9.9999999999999988E+113</v>
-      </c>
-      <c r="H199" s="17">
-        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I199" s="16" t="str" cm="1">
@@ -21865,15 +22297,15 @@
         <v>살</v>
       </c>
       <c r="J199" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+112</v>
       </c>
       <c r="K199" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>164500</v>
       </c>
       <c r="L199" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>658000</v>
       </c>
     </row>
@@ -21882,15 +22314,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>500살</v>
       </c>
       <c r="G200" s="17">
+        <f t="shared" si="32"/>
+        <v>5.0000000000000001E+114</v>
+      </c>
+      <c r="H200" s="17">
         <f t="shared" si="30"/>
-        <v>5.0000000000000001E+114</v>
-      </c>
-      <c r="H200" s="17">
-        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I200" s="16" t="str" cm="1">
@@ -21898,15 +22330,15 @@
         <v>살</v>
       </c>
       <c r="J200" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+112</v>
       </c>
       <c r="K200" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>166125</v>
       </c>
       <c r="L200" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>664500</v>
       </c>
     </row>
@@ -21915,15 +22347,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000살</v>
       </c>
       <c r="G201" s="17">
+        <f t="shared" si="32"/>
+        <v>1E+115</v>
+      </c>
+      <c r="H201" s="17">
         <f t="shared" si="30"/>
-        <v>1E+115</v>
-      </c>
-      <c r="H201" s="17">
-        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I201" s="16" t="str" cm="1">
@@ -21931,15 +22363,15 @@
         <v>살</v>
       </c>
       <c r="J201" s="16" t="str">
-        <f t="shared" ref="J201:J234" si="33">VLOOKUP(I201,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J201:J234" si="35">VLOOKUP(I201,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K201" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>167750</v>
       </c>
       <c r="L201" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>671000</v>
       </c>
     </row>
@@ -21948,15 +22380,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5000살</v>
       </c>
       <c r="G202" s="17">
+        <f t="shared" si="32"/>
+        <v>5.0000000000000001E+115</v>
+      </c>
+      <c r="H202" s="17">
         <f t="shared" si="30"/>
-        <v>5.0000000000000001E+115</v>
-      </c>
-      <c r="H202" s="17">
-        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I202" s="16" t="str" cm="1">
@@ -21964,15 +22396,15 @@
         <v>살</v>
       </c>
       <c r="J202" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K202" s="22">
         <f t="shared" si="33"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K202" s="22">
-        <f t="shared" si="31"/>
         <v>169375</v>
       </c>
       <c r="L202" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>677500</v>
       </c>
     </row>
@@ -21981,15 +22413,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1섬</v>
       </c>
       <c r="G203" s="17">
+        <f t="shared" si="32"/>
+        <v>1E+116</v>
+      </c>
+      <c r="H203" s="17">
         <f t="shared" si="30"/>
-        <v>1E+116</v>
-      </c>
-      <c r="H203" s="17">
-        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I203" s="16" t="str" cm="1">
@@ -21997,15 +22429,15 @@
         <v>섬</v>
       </c>
       <c r="J203" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K203" s="22">
         <f t="shared" si="33"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K203" s="22">
-        <f t="shared" si="31"/>
         <v>171000</v>
       </c>
       <c r="L203" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>684000</v>
       </c>
     </row>
@@ -22014,15 +22446,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5섬</v>
       </c>
       <c r="G204" s="17">
+        <f t="shared" si="32"/>
+        <v>5.0000000000000003E+116</v>
+      </c>
+      <c r="H204" s="17">
         <f t="shared" si="30"/>
-        <v>5.0000000000000003E+116</v>
-      </c>
-      <c r="H204" s="17">
-        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I204" s="16" t="str" cm="1">
@@ -22030,15 +22462,15 @@
         <v>섬</v>
       </c>
       <c r="J204" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K204" s="22">
         <f t="shared" si="33"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K204" s="22">
-        <f t="shared" si="31"/>
         <v>172750</v>
       </c>
       <c r="L204" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>691000</v>
       </c>
     </row>
@@ -22047,15 +22479,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10섬</v>
       </c>
       <c r="G205" s="17">
+        <f t="shared" si="32"/>
+        <v>1.0000000000000001E+117</v>
+      </c>
+      <c r="H205" s="17">
         <f t="shared" si="30"/>
-        <v>1.0000000000000001E+117</v>
-      </c>
-      <c r="H205" s="17">
-        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I205" s="16" t="str" cm="1">
@@ -22063,15 +22495,15 @@
         <v>섬</v>
       </c>
       <c r="J205" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K205" s="22">
         <f t="shared" si="33"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K205" s="22">
-        <f t="shared" si="31"/>
         <v>174500</v>
       </c>
       <c r="L205" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>698000</v>
       </c>
     </row>
@@ -22080,15 +22512,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>50섬</v>
       </c>
       <c r="G206" s="17">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999998E+117</v>
+      </c>
+      <c r="H206" s="17">
         <f t="shared" si="30"/>
-        <v>4.9999999999999998E+117</v>
-      </c>
-      <c r="H206" s="17">
-        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I206" s="16" t="str" cm="1">
@@ -22096,15 +22528,15 @@
         <v>섬</v>
       </c>
       <c r="J206" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K206" s="22">
         <f t="shared" si="33"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K206" s="22">
-        <f t="shared" si="31"/>
         <v>176250</v>
       </c>
       <c r="L206" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>705000</v>
       </c>
     </row>
@@ -22113,15 +22545,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100섬</v>
       </c>
       <c r="G207" s="17">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999997E+117</v>
+      </c>
+      <c r="H207" s="17">
         <f t="shared" si="30"/>
-        <v>9.9999999999999997E+117</v>
-      </c>
-      <c r="H207" s="17">
-        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I207" s="16" t="str" cm="1">
@@ -22129,15 +22561,15 @@
         <v>섬</v>
       </c>
       <c r="J207" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K207" s="22">
         <f t="shared" si="33"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K207" s="22">
-        <f t="shared" si="31"/>
         <v>178000</v>
       </c>
       <c r="L207" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>712000</v>
       </c>
     </row>
@@ -22146,15 +22578,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>500섬</v>
       </c>
       <c r="G208" s="17">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999997E+118</v>
+      </c>
+      <c r="H208" s="17">
         <f t="shared" si="30"/>
-        <v>4.9999999999999997E+118</v>
-      </c>
-      <c r="H208" s="17">
-        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I208" s="16" t="str" cm="1">
@@ -22162,15 +22594,15 @@
         <v>섬</v>
       </c>
       <c r="J208" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K208" s="22">
         <f t="shared" si="33"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K208" s="22">
-        <f t="shared" si="31"/>
         <v>179750</v>
       </c>
       <c r="L208" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>719000</v>
       </c>
     </row>
@@ -22179,15 +22611,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000섬</v>
       </c>
       <c r="G209" s="17">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999994E+118</v>
+      </c>
+      <c r="H209" s="17">
         <f t="shared" si="30"/>
-        <v>9.9999999999999994E+118</v>
-      </c>
-      <c r="H209" s="17">
-        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I209" s="16" t="str" cm="1">
@@ -22195,15 +22627,15 @@
         <v>섬</v>
       </c>
       <c r="J209" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K209" s="22">
         <f t="shared" si="33"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K209" s="22">
-        <f t="shared" si="31"/>
         <v>181500</v>
       </c>
       <c r="L209" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>726000</v>
       </c>
     </row>
@@ -22212,15 +22644,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5000섬</v>
       </c>
       <c r="G210" s="17">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999999E+119</v>
+      </c>
+      <c r="H210" s="17">
         <f t="shared" si="30"/>
-        <v>4.9999999999999999E+119</v>
-      </c>
-      <c r="H210" s="17">
-        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I210" s="16" t="str" cm="1">
@@ -22228,15 +22660,15 @@
         <v>섬</v>
       </c>
       <c r="J210" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K210" s="22">
         <f t="shared" si="33"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K210" s="22">
-        <f t="shared" si="31"/>
         <v>183250</v>
       </c>
       <c r="L210" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>733000</v>
       </c>
     </row>
@@ -22245,15 +22677,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1찰</v>
       </c>
       <c r="G211" s="17">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999998E+119</v>
+      </c>
+      <c r="H211" s="17">
         <f t="shared" si="30"/>
-        <v>9.9999999999999998E+119</v>
-      </c>
-      <c r="H211" s="17">
-        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I211" s="16" t="str" cm="1">
@@ -22261,15 +22693,15 @@
         <v>찰</v>
       </c>
       <c r="J211" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K211" s="22">
         <f t="shared" si="33"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K211" s="22">
-        <f t="shared" si="31"/>
         <v>185000</v>
       </c>
       <c r="L211" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>740000</v>
       </c>
     </row>
@@ -22278,15 +22710,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5찰</v>
       </c>
       <c r="G212" s="17">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999996E+120</v>
+      </c>
+      <c r="H212" s="17">
         <f t="shared" si="30"/>
-        <v>4.9999999999999996E+120</v>
-      </c>
-      <c r="H212" s="17">
-        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I212" s="16" t="str" cm="1">
@@ -22294,15 +22726,15 @@
         <v>찰</v>
       </c>
       <c r="J212" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K212" s="22">
         <f t="shared" si="33"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K212" s="22">
-        <f t="shared" si="31"/>
         <v>186750</v>
       </c>
       <c r="L212" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>747000</v>
       </c>
     </row>
@@ -22311,15 +22743,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10찰</v>
       </c>
       <c r="G213" s="17">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999992E+120</v>
+      </c>
+      <c r="H213" s="17">
         <f t="shared" si="30"/>
-        <v>9.9999999999999992E+120</v>
-      </c>
-      <c r="H213" s="17">
-        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I213" s="16" t="str" cm="1">
@@ -22327,15 +22759,15 @@
         <v>찰</v>
       </c>
       <c r="J213" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K213" s="22">
         <f t="shared" si="33"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K213" s="22">
-        <f t="shared" si="31"/>
         <v>188500</v>
       </c>
       <c r="L213" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>754000</v>
       </c>
     </row>
@@ -22344,15 +22776,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>50찰</v>
       </c>
       <c r="G214" s="17">
+        <f t="shared" si="32"/>
+        <v>5.0000000000000001E+121</v>
+      </c>
+      <c r="H214" s="17">
         <f t="shared" si="30"/>
-        <v>5.0000000000000001E+121</v>
-      </c>
-      <c r="H214" s="17">
-        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I214" s="16" t="str" cm="1">
@@ -22360,15 +22792,15 @@
         <v>찰</v>
       </c>
       <c r="J214" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K214" s="22">
         <f t="shared" si="33"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K214" s="22">
-        <f t="shared" si="31"/>
         <v>190250</v>
       </c>
       <c r="L214" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>761000</v>
       </c>
     </row>
@@ -22377,15 +22809,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100찰</v>
       </c>
       <c r="G215" s="17">
+        <f t="shared" si="32"/>
+        <v>1E+122</v>
+      </c>
+      <c r="H215" s="17">
         <f t="shared" si="30"/>
-        <v>1E+122</v>
-      </c>
-      <c r="H215" s="17">
-        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I215" s="16" t="str" cm="1">
@@ -22393,15 +22825,15 @@
         <v>찰</v>
       </c>
       <c r="J215" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K215" s="22">
         <f t="shared" si="33"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K215" s="22">
-        <f t="shared" si="31"/>
         <v>192000</v>
       </c>
       <c r="L215" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>768000</v>
       </c>
     </row>
@@ -22410,15 +22842,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>500찰</v>
       </c>
       <c r="G216" s="17">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999999E+122</v>
+      </c>
+      <c r="H216" s="17">
         <f t="shared" si="30"/>
-        <v>4.9999999999999999E+122</v>
-      </c>
-      <c r="H216" s="17">
-        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I216" s="16" t="str" cm="1">
@@ -22426,15 +22858,15 @@
         <v>찰</v>
       </c>
       <c r="J216" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K216" s="22">
         <f t="shared" si="33"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K216" s="22">
-        <f t="shared" si="31"/>
         <v>193750</v>
       </c>
       <c r="L216" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>775000</v>
       </c>
     </row>
@@ -22443,15 +22875,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000찰</v>
       </c>
       <c r="G217" s="17">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999998E+122</v>
+      </c>
+      <c r="H217" s="17">
         <f t="shared" si="30"/>
-        <v>9.9999999999999998E+122</v>
-      </c>
-      <c r="H217" s="17">
-        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I217" s="16" t="str" cm="1">
@@ -22459,15 +22891,15 @@
         <v>찰</v>
       </c>
       <c r="J217" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K217" s="22">
         <f t="shared" si="33"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K217" s="22">
-        <f t="shared" si="31"/>
         <v>195500</v>
       </c>
       <c r="L217" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>782000</v>
       </c>
     </row>
@@ -22476,15 +22908,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5000찰</v>
       </c>
       <c r="G218" s="17">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999997E+123</v>
+      </c>
+      <c r="H218" s="17">
         <f t="shared" si="30"/>
-        <v>4.9999999999999997E+123</v>
-      </c>
-      <c r="H218" s="17">
-        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I218" s="16" t="str" cm="1">
@@ -22492,15 +22924,15 @@
         <v>찰</v>
       </c>
       <c r="J218" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K218" s="22">
         <f t="shared" si="33"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K218" s="22">
-        <f t="shared" si="31"/>
         <v>197250</v>
       </c>
       <c r="L218" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>789000</v>
       </c>
     </row>
@@ -22509,15 +22941,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1교</v>
       </c>
       <c r="G219" s="17">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="H219" s="17">
         <f t="shared" si="30"/>
-        <v>9.9999999999999995E+123</v>
-      </c>
-      <c r="H219" s="17">
-        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I219" s="16" t="str" cm="1">
@@ -22525,15 +22957,15 @@
         <v>교</v>
       </c>
       <c r="J219" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K219" s="22">
         <f t="shared" si="33"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K219" s="22">
-        <f t="shared" si="31"/>
         <v>199125</v>
       </c>
       <c r="L219" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>796500</v>
       </c>
     </row>
@@ -22542,15 +22974,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5교</v>
       </c>
       <c r="G220" s="17">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999996E+124</v>
+      </c>
+      <c r="H220" s="17">
         <f t="shared" si="30"/>
-        <v>4.9999999999999996E+124</v>
-      </c>
-      <c r="H220" s="17">
-        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I220" s="16" t="str" cm="1">
@@ -22558,15 +22990,15 @@
         <v>교</v>
       </c>
       <c r="J220" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K220" s="22">
         <f t="shared" si="33"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K220" s="22">
-        <f t="shared" si="31"/>
         <v>201000</v>
       </c>
       <c r="L220" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>804000</v>
       </c>
     </row>
@@ -22575,15 +23007,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10교</v>
       </c>
       <c r="G221" s="17">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999992E+124</v>
+      </c>
+      <c r="H221" s="17">
         <f t="shared" si="30"/>
-        <v>9.9999999999999992E+124</v>
-      </c>
-      <c r="H221" s="17">
-        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I221" s="16" t="str" cm="1">
@@ -22591,15 +23023,15 @@
         <v>교</v>
       </c>
       <c r="J221" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K221" s="22">
         <f t="shared" si="33"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K221" s="22">
-        <f t="shared" si="31"/>
         <v>202875</v>
       </c>
       <c r="L221" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>811500</v>
       </c>
     </row>
@@ -22608,15 +23040,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>50교</v>
       </c>
       <c r="G222" s="17">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999996E+125</v>
+      </c>
+      <c r="H222" s="17">
         <f t="shared" si="30"/>
-        <v>4.9999999999999996E+125</v>
-      </c>
-      <c r="H222" s="17">
-        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I222" s="16" t="str" cm="1">
@@ -22624,15 +23056,15 @@
         <v>교</v>
       </c>
       <c r="J222" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K222" s="22">
         <f t="shared" si="33"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K222" s="22">
-        <f t="shared" si="31"/>
         <v>204750</v>
       </c>
       <c r="L222" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>819000</v>
       </c>
     </row>
@@ -22641,15 +23073,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100교</v>
       </c>
       <c r="G223" s="17">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999992E+125</v>
+      </c>
+      <c r="H223" s="17">
         <f t="shared" si="30"/>
-        <v>9.9999999999999992E+125</v>
-      </c>
-      <c r="H223" s="17">
-        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I223" s="16" t="str" cm="1">
@@ -22657,15 +23089,15 @@
         <v>교</v>
       </c>
       <c r="J223" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K223" s="22">
         <f t="shared" si="33"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K223" s="22">
-        <f t="shared" si="31"/>
         <v>206625</v>
       </c>
       <c r="L223" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>826500</v>
       </c>
     </row>
@@ -22674,15 +23106,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>500교</v>
       </c>
       <c r="G224" s="17">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="H224" s="17">
         <f t="shared" si="30"/>
-        <v>4.9999999999999998E+126</v>
-      </c>
-      <c r="H224" s="17">
-        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I224" s="16" t="str" cm="1">
@@ -22690,15 +23122,15 @@
         <v>교</v>
       </c>
       <c r="J224" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K224" s="22">
         <f t="shared" si="33"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K224" s="22">
-        <f t="shared" si="31"/>
         <v>208500</v>
       </c>
       <c r="L224" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>834000</v>
       </c>
     </row>
@@ -22707,15 +23139,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000교</v>
       </c>
       <c r="G225" s="17">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="H225" s="17">
         <f t="shared" si="30"/>
-        <v>9.9999999999999995E+126</v>
-      </c>
-      <c r="H225" s="17">
-        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I225" s="16" t="str" cm="1">
@@ -22723,15 +23155,15 @@
         <v>교</v>
       </c>
       <c r="J225" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K225" s="22">
         <f t="shared" si="33"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K225" s="22">
-        <f t="shared" si="31"/>
         <v>210375</v>
       </c>
       <c r="L225" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>841500</v>
       </c>
     </row>
@@ -22740,15 +23172,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5000교</v>
       </c>
       <c r="G226" s="17">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="H226" s="17">
         <f t="shared" si="30"/>
-        <v>4.9999999999999994E+127</v>
-      </c>
-      <c r="H226" s="17">
-        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I226" s="16" t="str" cm="1">
@@ -22756,15 +23188,15 @@
         <v>교</v>
       </c>
       <c r="J226" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K226" s="22">
         <f t="shared" si="33"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K226" s="22">
-        <f t="shared" si="31"/>
         <v>212250</v>
       </c>
       <c r="L226" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>849000</v>
       </c>
     </row>
@@ -22773,15 +23205,15 @@
         <v>218</v>
       </c>
       <c r="F227" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1위</v>
       </c>
       <c r="G227" s="17">
+        <f t="shared" si="32"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="H227" s="17">
         <f t="shared" si="30"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="H227" s="17">
-        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I227" s="16" t="str" cm="1">
@@ -22789,15 +23221,15 @@
         <v>위</v>
       </c>
       <c r="J227" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K227" s="22">
         <f t="shared" si="33"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K227" s="22">
-        <f t="shared" si="31"/>
         <v>214125</v>
       </c>
       <c r="L227" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>856500</v>
       </c>
     </row>
@@ -22806,15 +23238,15 @@
         <v>219</v>
       </c>
       <c r="F228" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5위</v>
       </c>
       <c r="G228" s="17">
+        <f t="shared" si="32"/>
+        <v>5E+128</v>
+      </c>
+      <c r="H228" s="17">
         <f t="shared" si="30"/>
-        <v>5E+128</v>
-      </c>
-      <c r="H228" s="17">
-        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I228" s="16" t="str" cm="1">
@@ -22822,15 +23254,15 @@
         <v>위</v>
       </c>
       <c r="J228" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K228" s="22">
         <f t="shared" si="33"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K228" s="22">
-        <f t="shared" si="31"/>
         <v>216000</v>
       </c>
       <c r="L228" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>864000</v>
       </c>
     </row>
@@ -22839,15 +23271,15 @@
         <v>220</v>
       </c>
       <c r="F229" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10위</v>
       </c>
       <c r="G229" s="17">
+        <f t="shared" si="32"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H229" s="17">
         <f t="shared" si="30"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H229" s="17">
-        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I229" s="16" t="str" cm="1">
@@ -22855,15 +23287,15 @@
         <v>위</v>
       </c>
       <c r="J229" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K229" s="22">
         <f t="shared" si="33"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K229" s="22">
-        <f t="shared" si="31"/>
         <v>217875</v>
       </c>
       <c r="L229" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>871500</v>
       </c>
     </row>
@@ -22872,15 +23304,15 @@
         <v>221</v>
       </c>
       <c r="F230" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>50위</v>
       </c>
       <c r="G230" s="17">
+        <f t="shared" si="32"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H230" s="17">
         <f t="shared" si="30"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H230" s="17">
-        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I230" s="16" t="str" cm="1">
@@ -22888,15 +23320,15 @@
         <v>위</v>
       </c>
       <c r="J230" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K230" s="22">
         <f t="shared" si="33"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K230" s="22">
-        <f t="shared" si="31"/>
         <v>219750</v>
       </c>
       <c r="L230" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>879000</v>
       </c>
     </row>
@@ -22905,15 +23337,15 @@
         <v>222</v>
       </c>
       <c r="F231" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100위</v>
       </c>
       <c r="G231" s="17">
+        <f t="shared" si="32"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H231" s="17">
         <f t="shared" si="30"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H231" s="17">
-        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I231" s="16" t="str" cm="1">
@@ -22921,15 +23353,15 @@
         <v>위</v>
       </c>
       <c r="J231" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K231" s="22">
         <f t="shared" si="33"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K231" s="22">
-        <f t="shared" si="31"/>
         <v>221625</v>
       </c>
       <c r="L231" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>886500</v>
       </c>
     </row>
@@ -22938,15 +23370,15 @@
         <v>223</v>
       </c>
       <c r="F232" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>500위</v>
       </c>
       <c r="G232" s="17">
+        <f t="shared" si="32"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H232" s="17">
         <f t="shared" si="30"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H232" s="17">
-        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I232" s="16" t="str" cm="1">
@@ -22954,15 +23386,15 @@
         <v>위</v>
       </c>
       <c r="J232" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K232" s="22">
         <f t="shared" si="33"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K232" s="22">
-        <f t="shared" si="31"/>
         <v>223500</v>
       </c>
       <c r="L232" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>894000</v>
       </c>
     </row>
@@ -22971,15 +23403,15 @@
         <v>224</v>
       </c>
       <c r="F233" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1000위</v>
       </c>
       <c r="G233" s="17">
+        <f t="shared" si="32"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H233" s="17">
         <f t="shared" si="30"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H233" s="17">
-        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I233" s="16" t="str" cm="1">
@@ -22987,15 +23419,15 @@
         <v>위</v>
       </c>
       <c r="J233" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K233" s="22">
         <f t="shared" si="33"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K233" s="22">
-        <f t="shared" si="31"/>
         <v>225375</v>
       </c>
       <c r="L233" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>901500</v>
       </c>
     </row>
@@ -23004,15 +23436,15 @@
         <v>225</v>
       </c>
       <c r="F234" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5000위</v>
       </c>
       <c r="G234" s="17">
+        <f t="shared" si="32"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H234" s="17">
         <f t="shared" si="30"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H234" s="17">
-        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I234" s="16" t="str" cm="1">
@@ -23020,15 +23452,15 @@
         <v>위</v>
       </c>
       <c r="J234" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K234" s="22">
         <f t="shared" si="33"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K234" s="22">
-        <f t="shared" si="31"/>
         <v>227375</v>
       </c>
       <c r="L234" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>909500</v>
       </c>
     </row>
@@ -23037,15 +23469,15 @@
         <v>226</v>
       </c>
       <c r="F235" s="17" t="str">
-        <f t="shared" ref="F235:F247" si="34">H235&amp;I235</f>
+        <f t="shared" ref="F235:F247" si="36">H235&amp;I235</f>
         <v>1설</v>
       </c>
       <c r="G235" s="17">
-        <f t="shared" ref="G235:G247" si="35">H235*J235</f>
+        <f t="shared" ref="G235:G247" si="37">H235*J235</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="H235" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I235" s="16" t="str" cm="1">
@@ -23053,15 +23485,15 @@
         <v>설</v>
       </c>
       <c r="J235" s="16" t="str">
-        <f t="shared" ref="J235:J247" si="36">VLOOKUP(I235,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J235:J247" si="38">VLOOKUP(I235,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K235" s="22">
-        <f t="shared" ref="K235:K247" si="37">L235*0.25</f>
+        <f t="shared" ref="K235:K247" si="39">L235*0.25</f>
         <v>229375</v>
       </c>
       <c r="L235" s="22">
-        <f t="shared" ref="L235:L247" si="38">L234+500+QUOTIENT(E235,15)*500</f>
+        <f t="shared" ref="L235:L247" si="40">L234+500+QUOTIENT(E235,15)*500</f>
         <v>917500</v>
       </c>
     </row>
@@ -23070,15 +23502,15 @@
         <v>227</v>
       </c>
       <c r="F236" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5설</v>
       </c>
       <c r="G236" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H236" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I236" s="16" t="str" cm="1">
@@ -23086,15 +23518,15 @@
         <v>설</v>
       </c>
       <c r="J236" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+132</v>
       </c>
       <c r="K236" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>231375</v>
       </c>
       <c r="L236" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>925500</v>
       </c>
     </row>
@@ -23103,15 +23535,15 @@
         <v>228</v>
       </c>
       <c r="F237" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10설</v>
       </c>
       <c r="G237" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+133</v>
       </c>
       <c r="H237" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I237" s="16" t="str" cm="1">
@@ -23119,15 +23551,15 @@
         <v>설</v>
       </c>
       <c r="J237" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+132</v>
       </c>
       <c r="K237" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>233375</v>
       </c>
       <c r="L237" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>933500</v>
       </c>
     </row>
@@ -23136,15 +23568,15 @@
         <v>229</v>
       </c>
       <c r="F238" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50설</v>
       </c>
       <c r="G238" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H238" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I238" s="16" t="str" cm="1">
@@ -23152,15 +23584,15 @@
         <v>설</v>
       </c>
       <c r="J238" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+132</v>
       </c>
       <c r="K238" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>235375</v>
       </c>
       <c r="L238" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>941500</v>
       </c>
     </row>
@@ -23169,15 +23601,15 @@
         <v>230</v>
       </c>
       <c r="F239" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100설</v>
       </c>
       <c r="G239" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H239" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I239" s="16" t="str" cm="1">
@@ -23185,15 +23617,15 @@
         <v>설</v>
       </c>
       <c r="J239" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+132</v>
       </c>
       <c r="K239" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>237375</v>
       </c>
       <c r="L239" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>949500</v>
       </c>
     </row>
@@ -23202,15 +23634,15 @@
         <v>231</v>
       </c>
       <c r="F240" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>500설</v>
       </c>
       <c r="G240" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H240" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I240" s="16" t="str" cm="1">
@@ -23218,15 +23650,15 @@
         <v>설</v>
       </c>
       <c r="J240" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+132</v>
       </c>
       <c r="K240" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>239375</v>
       </c>
       <c r="L240" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>957500</v>
       </c>
     </row>
@@ -23235,15 +23667,15 @@
         <v>232</v>
       </c>
       <c r="F241" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000설</v>
       </c>
       <c r="G241" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H241" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I241" s="16" t="str" cm="1">
@@ -23251,15 +23683,15 @@
         <v>설</v>
       </c>
       <c r="J241" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+132</v>
       </c>
       <c r="K241" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>241375</v>
       </c>
       <c r="L241" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>965500</v>
       </c>
     </row>
@@ -23268,15 +23700,15 @@
         <v>233</v>
       </c>
       <c r="F242" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5000설</v>
       </c>
       <c r="G242" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H242" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I242" s="16" t="str" cm="1">
@@ -23284,15 +23716,15 @@
         <v>설</v>
       </c>
       <c r="J242" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+132</v>
       </c>
       <c r="K242" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>243375</v>
       </c>
       <c r="L242" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>973500</v>
       </c>
     </row>
@@ -23301,15 +23733,15 @@
         <v>234</v>
       </c>
       <c r="F243" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1적</v>
       </c>
       <c r="G243" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H243" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I243" s="16" t="str" cm="1">
@@ -23317,15 +23749,15 @@
         <v>적</v>
       </c>
       <c r="J243" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+136</v>
       </c>
       <c r="K243" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>245375</v>
       </c>
       <c r="L243" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>981500</v>
       </c>
     </row>
@@ -23334,15 +23766,15 @@
         <v>235</v>
       </c>
       <c r="F244" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5적</v>
       </c>
       <c r="G244" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H244" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I244" s="16" t="str" cm="1">
@@ -23350,15 +23782,15 @@
         <v>적</v>
       </c>
       <c r="J244" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+136</v>
       </c>
       <c r="K244" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>247375</v>
       </c>
       <c r="L244" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>989500</v>
       </c>
     </row>
@@ -23367,15 +23799,15 @@
         <v>236</v>
       </c>
       <c r="F245" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10적</v>
       </c>
       <c r="G245" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+137</v>
       </c>
       <c r="H245" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I245" s="16" t="str" cm="1">
@@ -23383,15 +23815,15 @@
         <v>적</v>
       </c>
       <c r="J245" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+136</v>
       </c>
       <c r="K245" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>249375</v>
       </c>
       <c r="L245" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>997500</v>
       </c>
     </row>
@@ -23400,15 +23832,15 @@
         <v>237</v>
       </c>
       <c r="F246" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50적</v>
       </c>
       <c r="G246" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H246" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I246" s="16" t="str" cm="1">
@@ -23416,15 +23848,15 @@
         <v>적</v>
       </c>
       <c r="J246" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+136</v>
       </c>
       <c r="K246" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>251375</v>
       </c>
       <c r="L246" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1005500</v>
       </c>
     </row>
@@ -23433,15 +23865,15 @@
         <v>238</v>
       </c>
       <c r="F247" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100적</v>
       </c>
       <c r="G247" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+138</v>
       </c>
       <c r="H247" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I247" s="16" t="str" cm="1">
@@ -23449,15 +23881,15 @@
         <v>적</v>
       </c>
       <c r="J247" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+136</v>
       </c>
       <c r="K247" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>253375</v>
       </c>
       <c r="L247" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1013500</v>
       </c>
     </row>
@@ -23466,15 +23898,15 @@
         <v>239</v>
       </c>
       <c r="F248" s="17" t="str">
-        <f t="shared" ref="F248:F257" si="39">H248&amp;I248</f>
+        <f t="shared" ref="F248:F257" si="41">H248&amp;I248</f>
         <v>500적</v>
       </c>
       <c r="G248" s="17">
-        <f t="shared" ref="G248:G257" si="40">H248*J248</f>
+        <f t="shared" ref="G248:G257" si="42">H248*J248</f>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H248" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I248" s="16" t="str" cm="1">
@@ -23482,15 +23914,15 @@
         <v>적</v>
       </c>
       <c r="J248" s="16" t="str">
-        <f t="shared" ref="J248:J257" si="41">VLOOKUP(I248,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J248:J257" si="43">VLOOKUP(I248,N:Q,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K248" s="22">
-        <f t="shared" ref="K248:K257" si="42">L248*0.25</f>
+        <f t="shared" ref="K248:K257" si="44">L248*0.25</f>
         <v>255375</v>
       </c>
       <c r="L248" s="22">
-        <f t="shared" ref="L248:L257" si="43">L247+500+QUOTIENT(E248,15)*500</f>
+        <f t="shared" ref="L248:L257" si="45">L247+500+QUOTIENT(E248,15)*500</f>
         <v>1021500</v>
       </c>
     </row>
@@ -23499,15 +23931,15 @@
         <v>240</v>
       </c>
       <c r="F249" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000적</v>
       </c>
       <c r="G249" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+139</v>
       </c>
       <c r="H249" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I249" s="16" t="str" cm="1">
@@ -23515,15 +23947,15 @@
         <v>적</v>
       </c>
       <c r="J249" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+136</v>
       </c>
       <c r="K249" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>257500</v>
       </c>
       <c r="L249" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1030000</v>
       </c>
     </row>
@@ -23532,15 +23964,15 @@
         <v>241</v>
       </c>
       <c r="F250" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000적</v>
       </c>
       <c r="G250" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H250" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I250" s="16" t="str" cm="1">
@@ -23548,15 +23980,15 @@
         <v>적</v>
       </c>
       <c r="J250" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+136</v>
       </c>
       <c r="K250" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>259625</v>
       </c>
       <c r="L250" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1038500</v>
       </c>
     </row>
@@ -23565,15 +23997,15 @@
         <v>242</v>
       </c>
       <c r="F251" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1고</v>
       </c>
       <c r="G251" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H251" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I251" s="16" t="str" cm="1">
@@ -23581,15 +24013,15 @@
         <v>고</v>
       </c>
       <c r="J251" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+140</v>
       </c>
       <c r="K251" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>261750</v>
       </c>
       <c r="L251" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1047000</v>
       </c>
     </row>
@@ -23598,15 +24030,15 @@
         <v>243</v>
       </c>
       <c r="F252" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5고</v>
       </c>
       <c r="G252" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H252" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I252" s="16" t="str" cm="1">
@@ -23614,15 +24046,15 @@
         <v>고</v>
       </c>
       <c r="J252" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+140</v>
       </c>
       <c r="K252" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>263875</v>
       </c>
       <c r="L252" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1055500</v>
       </c>
     </row>
@@ -23631,15 +24063,15 @@
         <v>244</v>
       </c>
       <c r="F253" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10고</v>
       </c>
       <c r="G253" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+141</v>
       </c>
       <c r="H253" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I253" s="16" t="str" cm="1">
@@ -23647,15 +24079,15 @@
         <v>고</v>
       </c>
       <c r="J253" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+140</v>
       </c>
       <c r="K253" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>266000</v>
       </c>
       <c r="L253" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1064000</v>
       </c>
     </row>
@@ -23664,15 +24096,15 @@
         <v>245</v>
       </c>
       <c r="F254" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50고</v>
       </c>
       <c r="G254" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H254" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I254" s="16" t="str" cm="1">
@@ -23680,15 +24112,15 @@
         <v>고</v>
       </c>
       <c r="J254" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+140</v>
       </c>
       <c r="K254" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>268125</v>
       </c>
       <c r="L254" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1072500</v>
       </c>
     </row>
@@ -23697,15 +24129,15 @@
         <v>246</v>
       </c>
       <c r="F255" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100고</v>
       </c>
       <c r="G255" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H255" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I255" s="16" t="str" cm="1">
@@ -23713,15 +24145,15 @@
         <v>고</v>
       </c>
       <c r="J255" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+140</v>
       </c>
       <c r="K255" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>270250</v>
       </c>
       <c r="L255" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1081000</v>
       </c>
     </row>
@@ -23730,15 +24162,15 @@
         <v>247</v>
       </c>
       <c r="F256" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500고</v>
       </c>
       <c r="G256" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H256" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I256" s="16" t="str" cm="1">
@@ -23746,15 +24178,15 @@
         <v>고</v>
       </c>
       <c r="J256" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+140</v>
       </c>
       <c r="K256" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>272375</v>
       </c>
       <c r="L256" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1089500</v>
       </c>
     </row>
@@ -23763,15 +24195,15 @@
         <v>248</v>
       </c>
       <c r="F257" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000고</v>
       </c>
       <c r="G257" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+143</v>
       </c>
       <c r="H257" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I257" s="16" t="str" cm="1">
@@ -23779,15 +24211,15 @@
         <v>고</v>
       </c>
       <c r="J257" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+140</v>
       </c>
       <c r="K257" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>274500</v>
       </c>
       <c r="L257" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1098000</v>
       </c>
     </row>
@@ -23796,15 +24228,15 @@
         <v>249</v>
       </c>
       <c r="F258" s="17" t="str">
-        <f t="shared" ref="F258:F265" si="44">H258&amp;I258</f>
+        <f t="shared" ref="F258:F265" si="46">H258&amp;I258</f>
         <v>5000고</v>
       </c>
       <c r="G258" s="17">
-        <f t="shared" ref="G258:G265" si="45">H258*J258</f>
+        <f t="shared" ref="G258:G265" si="47">H258*J258</f>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H258" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I258" s="16" t="str" cm="1">
@@ -23812,15 +24244,15 @@
         <v>고</v>
       </c>
       <c r="J258" s="16" t="str">
-        <f t="shared" ref="J258:J265" si="46">VLOOKUP(I258,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J258:J265" si="48">VLOOKUP(I258,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K258" s="22">
-        <f t="shared" ref="K258:K265" si="47">L258*0.25</f>
+        <f t="shared" ref="K258:K265" si="49">L258*0.25</f>
         <v>276625</v>
       </c>
       <c r="L258" s="22">
-        <f t="shared" ref="L258:L265" si="48">L257+500+QUOTIENT(E258,15)*500</f>
+        <f t="shared" ref="L258:L265" si="50">L257+500+QUOTIENT(E258,15)*500</f>
         <v>1106500</v>
       </c>
     </row>
@@ -23829,15 +24261,15 @@
         <v>250</v>
       </c>
       <c r="F259" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1화</v>
       </c>
       <c r="G259" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+144</v>
       </c>
       <c r="H259" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I259" s="16" t="str" cm="1">
@@ -23845,15 +24277,15 @@
         <v>화</v>
       </c>
       <c r="J259" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="K259" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>278750</v>
       </c>
       <c r="L259" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1115000</v>
       </c>
     </row>
@@ -23862,15 +24294,15 @@
         <v>251</v>
       </c>
       <c r="F260" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5화</v>
       </c>
       <c r="G260" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H260" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="I260" s="16" t="str" cm="1">
@@ -23878,15 +24310,15 @@
         <v>화</v>
       </c>
       <c r="J260" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="K260" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>280875</v>
       </c>
       <c r="L260" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1123500</v>
       </c>
     </row>
@@ -23895,15 +24327,15 @@
         <v>252</v>
       </c>
       <c r="F261" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10화</v>
       </c>
       <c r="G261" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H261" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I261" s="16" t="str" cm="1">
@@ -23911,15 +24343,15 @@
         <v>화</v>
       </c>
       <c r="J261" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="K261" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>283000</v>
       </c>
       <c r="L261" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1132000</v>
       </c>
     </row>
@@ -23928,15 +24360,15 @@
         <v>253</v>
       </c>
       <c r="F262" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>50화</v>
       </c>
       <c r="G262" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H262" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I262" s="16" t="str" cm="1">
@@ -23944,15 +24376,15 @@
         <v>화</v>
       </c>
       <c r="J262" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="K262" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>285125</v>
       </c>
       <c r="L262" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1140500</v>
       </c>
     </row>
@@ -23961,15 +24393,15 @@
         <v>254</v>
       </c>
       <c r="F263" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100화</v>
       </c>
       <c r="G263" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H263" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I263" s="16" t="str" cm="1">
@@ -23977,15 +24409,15 @@
         <v>화</v>
       </c>
       <c r="J263" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="K263" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>287250</v>
       </c>
       <c r="L263" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1149000</v>
       </c>
     </row>
@@ -23994,15 +24426,15 @@
         <v>255</v>
       </c>
       <c r="F264" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>500화</v>
       </c>
       <c r="G264" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H264" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="I264" s="16" t="str" cm="1">
@@ -24010,15 +24442,15 @@
         <v>화</v>
       </c>
       <c r="J264" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="K264" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>289500</v>
       </c>
       <c r="L264" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1158000</v>
       </c>
     </row>
@@ -24027,15 +24459,15 @@
         <v>256</v>
       </c>
       <c r="F265" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000화</v>
       </c>
       <c r="G265" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H265" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="I265" s="16" t="str" cm="1">
@@ -24043,15 +24475,15 @@
         <v>화</v>
       </c>
       <c r="J265" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="K265" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>291750</v>
       </c>
       <c r="L265" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1167000</v>
       </c>
     </row>
@@ -24060,15 +24492,15 @@
         <v>257</v>
       </c>
       <c r="F266" s="17" t="str">
-        <f t="shared" ref="F266" si="49">H266&amp;I266</f>
+        <f t="shared" ref="F266:F275" si="51">H266&amp;I266</f>
         <v>5000화</v>
       </c>
       <c r="G266" s="17">
-        <f t="shared" ref="G266" si="50">H266*J266</f>
+        <f t="shared" ref="G266:G275" si="52">H266*J266</f>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H266" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000</v>
       </c>
       <c r="I266" s="16" t="str" cm="1">
@@ -24076,16 +24508,280 @@
         <v>화</v>
       </c>
       <c r="J266" s="16" t="str">
-        <f t="shared" ref="J266" si="51">VLOOKUP(I266,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J266:J275" si="53">VLOOKUP(I266,N:Q,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K266" s="22">
-        <f t="shared" ref="K266" si="52">L266*0.25</f>
+        <f t="shared" ref="K266:K275" si="54">L266*0.25</f>
         <v>294000</v>
       </c>
       <c r="L266" s="22">
-        <f t="shared" ref="L266" si="53">L265+500+QUOTIENT(E266,15)*500</f>
+        <f t="shared" ref="L266:L275" si="55">L265+500+QUOTIENT(E266,15)*500</f>
         <v>1176000</v>
+      </c>
+    </row>
+    <row r="267" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E267" s="16">
+        <v>258</v>
+      </c>
+      <c r="F267" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v>1명</v>
+      </c>
+      <c r="G267" s="17">
+        <f t="shared" si="52"/>
+        <v>1E+148</v>
+      </c>
+      <c r="H267" s="17">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="I267" s="16" t="str" cm="1">
+        <f t="array" ref="I267">IF(AND(H266&gt;1000,H267&lt;2),INDEX(N:N,MATCH(I266,N:N,0)+1,0),I266)</f>
+        <v>명</v>
+      </c>
+      <c r="J267" s="16" t="str">
+        <f t="shared" si="53"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K267" s="22">
+        <f t="shared" si="54"/>
+        <v>296250</v>
+      </c>
+      <c r="L267" s="22">
+        <f t="shared" si="55"/>
+        <v>1185000</v>
+      </c>
+    </row>
+    <row r="268" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E268" s="16">
+        <v>259</v>
+      </c>
+      <c r="F268" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v>5명</v>
+      </c>
+      <c r="G268" s="17">
+        <f t="shared" si="52"/>
+        <v>5.0000000000000002E+148</v>
+      </c>
+      <c r="H268" s="17">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="I268" s="16" t="str" cm="1">
+        <f t="array" ref="I268">IF(AND(H267&gt;1000,H268&lt;2),INDEX(N:N,MATCH(I267,N:N,0)+1,0),I267)</f>
+        <v>명</v>
+      </c>
+      <c r="J268" s="16" t="str">
+        <f t="shared" si="53"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K268" s="22">
+        <f t="shared" si="54"/>
+        <v>298500</v>
+      </c>
+      <c r="L268" s="22">
+        <f t="shared" si="55"/>
+        <v>1194000</v>
+      </c>
+    </row>
+    <row r="269" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E269" s="16">
+        <v>260</v>
+      </c>
+      <c r="F269" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v>10명</v>
+      </c>
+      <c r="G269" s="17">
+        <f t="shared" si="52"/>
+        <v>1E+149</v>
+      </c>
+      <c r="H269" s="17">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="I269" s="16" t="str" cm="1">
+        <f t="array" ref="I269">IF(AND(H268&gt;1000,H269&lt;2),INDEX(N:N,MATCH(I268,N:N,0)+1,0),I268)</f>
+        <v>명</v>
+      </c>
+      <c r="J269" s="16" t="str">
+        <f t="shared" si="53"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K269" s="22">
+        <f t="shared" si="54"/>
+        <v>300750</v>
+      </c>
+      <c r="L269" s="22">
+        <f t="shared" si="55"/>
+        <v>1203000</v>
+      </c>
+    </row>
+    <row r="270" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E270" s="16">
+        <v>261</v>
+      </c>
+      <c r="F270" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v>50명</v>
+      </c>
+      <c r="G270" s="17">
+        <f t="shared" si="52"/>
+        <v>4.9999999999999999E+149</v>
+      </c>
+      <c r="H270" s="17">
+        <f t="shared" si="30"/>
+        <v>50</v>
+      </c>
+      <c r="I270" s="16" t="str" cm="1">
+        <f t="array" ref="I270">IF(AND(H269&gt;1000,H270&lt;2),INDEX(N:N,MATCH(I269,N:N,0)+1,0),I269)</f>
+        <v>명</v>
+      </c>
+      <c r="J270" s="16" t="str">
+        <f t="shared" si="53"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K270" s="22">
+        <f t="shared" si="54"/>
+        <v>303000</v>
+      </c>
+      <c r="L270" s="22">
+        <f t="shared" si="55"/>
+        <v>1212000</v>
+      </c>
+    </row>
+    <row r="271" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E271" s="16">
+        <v>262</v>
+      </c>
+      <c r="F271" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v>100명</v>
+      </c>
+      <c r="G271" s="17">
+        <f t="shared" si="52"/>
+        <v>9.9999999999999998E+149</v>
+      </c>
+      <c r="H271" s="17">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="I271" s="16" t="str" cm="1">
+        <f t="array" ref="I271">IF(AND(H270&gt;1000,H271&lt;2),INDEX(N:N,MATCH(I270,N:N,0)+1,0),I270)</f>
+        <v>명</v>
+      </c>
+      <c r="J271" s="16" t="str">
+        <f t="shared" si="53"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K271" s="22">
+        <f t="shared" si="54"/>
+        <v>305250</v>
+      </c>
+      <c r="L271" s="22">
+        <f t="shared" si="55"/>
+        <v>1221000</v>
+      </c>
+    </row>
+    <row r="272" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E272" s="16">
+        <v>263</v>
+      </c>
+      <c r="F272" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v>500명</v>
+      </c>
+      <c r="G272" s="17">
+        <f t="shared" si="52"/>
+        <v>5.0000000000000001E+150</v>
+      </c>
+      <c r="H272" s="17">
+        <f t="shared" si="30"/>
+        <v>500</v>
+      </c>
+      <c r="I272" s="16" t="str" cm="1">
+        <f t="array" ref="I272">IF(AND(H271&gt;1000,H272&lt;2),INDEX(N:N,MATCH(I271,N:N,0)+1,0),I271)</f>
+        <v>명</v>
+      </c>
+      <c r="J272" s="16" t="str">
+        <f t="shared" si="53"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K272" s="22">
+        <f t="shared" si="54"/>
+        <v>307500</v>
+      </c>
+      <c r="L272" s="22">
+        <f t="shared" si="55"/>
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="273" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E273" s="16">
+        <v>264</v>
+      </c>
+      <c r="F273" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v>1000명</v>
+      </c>
+      <c r="G273" s="17">
+        <f t="shared" si="52"/>
+        <v>1E+151</v>
+      </c>
+      <c r="H273" s="17">
+        <f t="shared" si="30"/>
+        <v>1000</v>
+      </c>
+      <c r="I273" s="16" t="str" cm="1">
+        <f t="array" ref="I273">IF(AND(H272&gt;1000,H273&lt;2),INDEX(N:N,MATCH(I272,N:N,0)+1,0),I272)</f>
+        <v>명</v>
+      </c>
+      <c r="J273" s="16" t="str">
+        <f t="shared" si="53"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K273" s="22">
+        <f t="shared" si="54"/>
+        <v>309750</v>
+      </c>
+      <c r="L273" s="22">
+        <f t="shared" si="55"/>
+        <v>1239000</v>
+      </c>
+    </row>
+    <row r="274" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E274" s="16">
+        <v>265</v>
+      </c>
+      <c r="F274" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v>5000명</v>
+      </c>
+      <c r="G274" s="17">
+        <f t="shared" si="52"/>
+        <v>5.0000000000000002E+151</v>
+      </c>
+      <c r="H274" s="17">
+        <f t="shared" si="30"/>
+        <v>5000</v>
+      </c>
+      <c r="I274" s="16" t="str" cm="1">
+        <f t="array" ref="I274">IF(AND(H273&gt;1000,H274&lt;2),INDEX(N:N,MATCH(I273,N:N,0)+1,0),I273)</f>
+        <v>명</v>
+      </c>
+      <c r="J274" s="16" t="str">
+        <f t="shared" si="53"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K274" s="22">
+        <f t="shared" si="54"/>
+        <v>312000</v>
+      </c>
+      <c r="L274" s="22">
+        <f t="shared" si="55"/>
+        <v>1248000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulTower.xlsx
+++ b/Assets/06.Table/DosulTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725AE5C6-5A9B-495A-BEDB-FF0262FF9E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61141E1-96B0-4D0A-895F-AAF8AA2E6EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="71">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +332,14 @@
     <t>명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -589,7 +597,29 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -922,11 +952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M267"/>
+  <dimension ref="A1:M275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I248" sqref="I248"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I268" sqref="I268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14461,7 +14491,7 @@
         <v>298500</v>
       </c>
       <c r="E261">
-        <f t="shared" ref="E261:E267" si="304">E260</f>
+        <f t="shared" ref="E261:E276" si="304">E260</f>
         <v>1</v>
       </c>
       <c r="F261" s="2">
@@ -14484,11 +14514,11 @@
         <v>60</v>
       </c>
       <c r="K261">
-        <f t="shared" ref="K261:K267" si="306">K260+200</f>
+        <f t="shared" ref="K261:K276" si="306">K260+200</f>
         <v>53800</v>
       </c>
       <c r="L261">
-        <f t="shared" ref="L261:L267" si="307">L260</f>
+        <f t="shared" ref="L261:L276" si="307">L260</f>
         <v>9031</v>
       </c>
       <c r="M261">
@@ -14808,9 +14838,425 @@
         <v>624000</v>
       </c>
     </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268" s="1" t="str">
+        <f t="shared" ref="B268:C268" si="320">B267</f>
+        <v>1-1</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="320"/>
+        <v>9031</v>
+      </c>
+      <c r="D268">
+        <f>VLOOKUP(A268,Balance!E:K,7,FALSE)</f>
+        <v>314250</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F268" s="2">
+        <f>VLOOKUP(A268,Balance!E:K,3,FALSE)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="G268">
+        <f t="shared" ref="G268:I268" si="321">G267</f>
+        <v>1000</v>
+      </c>
+      <c r="H268">
+        <f t="shared" si="321"/>
+        <v>8</v>
+      </c>
+      <c r="I268">
+        <f t="shared" si="321"/>
+        <v>0</v>
+      </c>
+      <c r="J268" t="s">
+        <v>60</v>
+      </c>
+      <c r="K268">
+        <f t="shared" si="306"/>
+        <v>55200</v>
+      </c>
+      <c r="L268">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M268">
+        <f>VLOOKUP(A268,Balance!E:L,8,FALSE)/2</f>
+        <v>628500</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269" s="1" t="str">
+        <f t="shared" ref="B269:C269" si="322">B268</f>
+        <v>1-1</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="322"/>
+        <v>9031</v>
+      </c>
+      <c r="D269">
+        <f>VLOOKUP(A269,Balance!E:K,7,FALSE)</f>
+        <v>316500</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F269" s="2">
+        <f>VLOOKUP(A269,Balance!E:K,3,FALSE)</f>
+        <v>5E+152</v>
+      </c>
+      <c r="G269">
+        <f t="shared" ref="G269:I269" si="323">G268</f>
+        <v>1000</v>
+      </c>
+      <c r="H269">
+        <f t="shared" si="323"/>
+        <v>8</v>
+      </c>
+      <c r="I269">
+        <f t="shared" si="323"/>
+        <v>0</v>
+      </c>
+      <c r="J269" t="s">
+        <v>60</v>
+      </c>
+      <c r="K269">
+        <f t="shared" si="306"/>
+        <v>55400</v>
+      </c>
+      <c r="L269">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M269">
+        <f>VLOOKUP(A269,Balance!E:L,8,FALSE)/2</f>
+        <v>633000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270" s="1" t="str">
+        <f t="shared" ref="B270:C270" si="324">B269</f>
+        <v>1-1</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="324"/>
+        <v>9031</v>
+      </c>
+      <c r="D270">
+        <f>VLOOKUP(A270,Balance!E:K,7,FALSE)</f>
+        <v>318750</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F270" s="2">
+        <f>VLOOKUP(A270,Balance!E:K,3,FALSE)</f>
+        <v>1E+153</v>
+      </c>
+      <c r="G270">
+        <f t="shared" ref="G270:I270" si="325">G269</f>
+        <v>1000</v>
+      </c>
+      <c r="H270">
+        <f t="shared" si="325"/>
+        <v>8</v>
+      </c>
+      <c r="I270">
+        <f t="shared" si="325"/>
+        <v>0</v>
+      </c>
+      <c r="J270" t="s">
+        <v>60</v>
+      </c>
+      <c r="K270">
+        <f t="shared" si="306"/>
+        <v>55600</v>
+      </c>
+      <c r="L270">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M270">
+        <f>VLOOKUP(A270,Balance!E:L,8,FALSE)/2</f>
+        <v>637500</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271" s="1" t="str">
+        <f t="shared" ref="B271:C271" si="326">B270</f>
+        <v>1-1</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="326"/>
+        <v>9031</v>
+      </c>
+      <c r="D271">
+        <f>VLOOKUP(A271,Balance!E:K,7,FALSE)</f>
+        <v>321000</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F271" s="2">
+        <f>VLOOKUP(A271,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+153</v>
+      </c>
+      <c r="G271">
+        <f t="shared" ref="G271:I271" si="327">G270</f>
+        <v>1000</v>
+      </c>
+      <c r="H271">
+        <f t="shared" si="327"/>
+        <v>8</v>
+      </c>
+      <c r="I271">
+        <f t="shared" si="327"/>
+        <v>0</v>
+      </c>
+      <c r="J271" t="s">
+        <v>60</v>
+      </c>
+      <c r="K271">
+        <f t="shared" si="306"/>
+        <v>55800</v>
+      </c>
+      <c r="L271">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M271">
+        <f>VLOOKUP(A271,Balance!E:L,8,FALSE)/2</f>
+        <v>642000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1" t="str">
+        <f t="shared" ref="B272:C272" si="328">B271</f>
+        <v>1-1</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="328"/>
+        <v>9031</v>
+      </c>
+      <c r="D272">
+        <f>VLOOKUP(A272,Balance!E:K,7,FALSE)</f>
+        <v>323375</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F272" s="2">
+        <f>VLOOKUP(A272,Balance!E:K,3,FALSE)</f>
+        <v>1E+154</v>
+      </c>
+      <c r="G272">
+        <f t="shared" ref="G272:I272" si="329">G271</f>
+        <v>1000</v>
+      </c>
+      <c r="H272">
+        <f t="shared" si="329"/>
+        <v>8</v>
+      </c>
+      <c r="I272">
+        <f t="shared" si="329"/>
+        <v>0</v>
+      </c>
+      <c r="J272" t="s">
+        <v>60</v>
+      </c>
+      <c r="K272">
+        <f t="shared" si="306"/>
+        <v>56000</v>
+      </c>
+      <c r="L272">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M272">
+        <f>VLOOKUP(A272,Balance!E:L,8,FALSE)/2</f>
+        <v>646750</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273" s="1" t="str">
+        <f t="shared" ref="B273:C273" si="330">B272</f>
+        <v>1-1</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="330"/>
+        <v>9031</v>
+      </c>
+      <c r="D273">
+        <f>VLOOKUP(A273,Balance!E:K,7,FALSE)</f>
+        <v>325750</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F273" s="2">
+        <f>VLOOKUP(A273,Balance!E:K,3,FALSE)</f>
+        <v>5E+154</v>
+      </c>
+      <c r="G273">
+        <f t="shared" ref="G273:I273" si="331">G272</f>
+        <v>1000</v>
+      </c>
+      <c r="H273">
+        <f t="shared" si="331"/>
+        <v>8</v>
+      </c>
+      <c r="I273">
+        <f t="shared" si="331"/>
+        <v>0</v>
+      </c>
+      <c r="J273" t="s">
+        <v>60</v>
+      </c>
+      <c r="K273">
+        <f t="shared" si="306"/>
+        <v>56200</v>
+      </c>
+      <c r="L273">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M273">
+        <f>VLOOKUP(A273,Balance!E:L,8,FALSE)/2</f>
+        <v>651500</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274" s="1" t="str">
+        <f t="shared" ref="B274:C274" si="332">B273</f>
+        <v>1-1</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="332"/>
+        <v>9031</v>
+      </c>
+      <c r="D274">
+        <f>VLOOKUP(A274,Balance!E:K,7,FALSE)</f>
+        <v>328125</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F274" s="2">
+        <f>VLOOKUP(A274,Balance!E:K,3,FALSE)</f>
+        <v>1E+155</v>
+      </c>
+      <c r="G274">
+        <f t="shared" ref="G274:I274" si="333">G273</f>
+        <v>1000</v>
+      </c>
+      <c r="H274">
+        <f t="shared" si="333"/>
+        <v>8</v>
+      </c>
+      <c r="I274">
+        <f t="shared" si="333"/>
+        <v>0</v>
+      </c>
+      <c r="J274" t="s">
+        <v>60</v>
+      </c>
+      <c r="K274">
+        <f t="shared" si="306"/>
+        <v>56400</v>
+      </c>
+      <c r="L274">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M274">
+        <f>VLOOKUP(A274,Balance!E:L,8,FALSE)/2</f>
+        <v>656250</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275" s="1" t="str">
+        <f t="shared" ref="B275:C276" si="334">B274</f>
+        <v>1-1</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="334"/>
+        <v>9031</v>
+      </c>
+      <c r="D275">
+        <f>VLOOKUP(A275,Balance!E:K,7,FALSE)</f>
+        <v>330500</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F275" s="2">
+        <f>VLOOKUP(A275,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999999E+155</v>
+      </c>
+      <c r="G275">
+        <f t="shared" ref="G275:I276" si="335">G274</f>
+        <v>1000</v>
+      </c>
+      <c r="H275">
+        <f t="shared" si="335"/>
+        <v>8</v>
+      </c>
+      <c r="I275">
+        <f t="shared" si="335"/>
+        <v>0</v>
+      </c>
+      <c r="J275" t="s">
+        <v>60</v>
+      </c>
+      <c r="K275">
+        <f t="shared" si="306"/>
+        <v>56600</v>
+      </c>
+      <c r="L275">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M275">
+        <f>VLOOKUP(A275,Balance!E:L,8,FALSE)/2</f>
+        <v>661000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L267">
+  <conditionalFormatting sqref="A2:L275">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -14822,10 +15268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z274"/>
+  <dimension ref="A1:Z282"/>
   <sheetViews>
-    <sheetView topLeftCell="B251" workbookViewId="0">
-      <selection activeCell="K271" sqref="K271"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="I282" sqref="I282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16845,8 +17291,20 @@
         <v>34500</v>
       </c>
       <c r="M45" s="22"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
+      <c r="N45" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="O45" s="16">
+        <v>152</v>
+      </c>
+      <c r="P45" s="17">
+        <f t="shared" ref="P45" si="19">POWER(10,O45)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="Q45" s="17" t="str">
+        <f t="shared" ref="Q45" si="20">RIGHT(P45,O45)</f>
+        <v>1E+152</v>
+      </c>
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
@@ -16890,8 +17348,20 @@
         <v>36000</v>
       </c>
       <c r="M46" s="22"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
+      <c r="N46" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O46" s="16">
+        <v>156</v>
+      </c>
+      <c r="P46" s="17">
+        <f t="shared" ref="P46" si="21">POWER(10,O46)</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="Q46" s="17" t="str">
+        <f t="shared" ref="Q46" si="22">RIGHT(P46,O46)</f>
+        <v>1E+156</v>
+      </c>
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
@@ -17875,7 +18345,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F132" si="19">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="23">H69&amp;I69</f>
         <v>10극</v>
       </c>
       <c r="G69" s="17">
@@ -17909,7 +18379,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>50극</v>
       </c>
       <c r="G70" s="17">
@@ -17943,7 +18413,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100극</v>
       </c>
       <c r="G71" s="17">
@@ -17977,7 +18447,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>500극</v>
       </c>
       <c r="G72" s="17">
@@ -18011,7 +18481,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1000극</v>
       </c>
       <c r="G73" s="17">
@@ -18027,7 +18497,7 @@
         <v>극</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J136" si="20">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="24">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="K73" s="22">
@@ -18045,11 +18515,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5000극</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G137" si="21">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="25">H74*J74</f>
         <v>5E+51</v>
       </c>
       <c r="H74" s="17">
@@ -18061,11 +18531,11 @@
         <v>극</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+48</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" ref="K74:K137" si="22">L74*0.25</f>
+        <f t="shared" ref="K74:K137" si="26">L74*0.25</f>
         <v>22875</v>
       </c>
       <c r="L74" s="22">
@@ -18079,11 +18549,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1항</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="H75" s="17">
@@ -18095,15 +18565,15 @@
         <v>항</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+52</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>23500</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" ref="L75:L138" si="23">L74+500+QUOTIENT(E75,15)*500</f>
+        <f t="shared" ref="L75:L138" si="27">L74+500+QUOTIENT(E75,15)*500</f>
         <v>94000</v>
       </c>
       <c r="M75" s="22"/>
@@ -18113,11 +18583,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5항</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5E+52</v>
       </c>
       <c r="H76" s="17">
@@ -18129,15 +18599,15 @@
         <v>항</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+52</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>24125</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>96500</v>
       </c>
       <c r="M76" s="22"/>
@@ -18147,11 +18617,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>10항</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999999E+52</v>
       </c>
       <c r="H77" s="17">
@@ -18163,15 +18633,15 @@
         <v>항</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+52</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>24750</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>99000</v>
       </c>
       <c r="M77" s="22"/>
@@ -18181,11 +18651,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>50항</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000004E+53</v>
       </c>
       <c r="H78" s="17">
@@ -18197,15 +18667,15 @@
         <v>항</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+52</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>25375</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>101500</v>
       </c>
       <c r="M78" s="22"/>
@@ -18215,11 +18685,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100항</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+54</v>
       </c>
       <c r="H79" s="17">
@@ -18231,15 +18701,15 @@
         <v>항</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+52</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>26000</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>104000</v>
       </c>
       <c r="M79" s="22"/>
@@ -18249,11 +18719,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>500항</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000001E+54</v>
       </c>
       <c r="H80" s="17">
@@ -18265,15 +18735,15 @@
         <v>항</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+52</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>26625</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>106500</v>
       </c>
       <c r="M80" s="22"/>
@@ -18283,11 +18753,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1000항</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+55</v>
       </c>
       <c r="H81" s="17">
@@ -18299,15 +18769,15 @@
         <v>항</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+52</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>27250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>109000</v>
       </c>
       <c r="M81" s="22"/>
@@ -18317,15 +18787,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5000항</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000005E+55</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" ref="H82:H145" si="24">H74</f>
+        <f t="shared" ref="H82:H145" si="28">H74</f>
         <v>5000</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -18333,11 +18803,11 @@
         <v>항</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+52</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>27875</v>
       </c>
       <c r="L82" s="22">
@@ -18351,15 +18821,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1아</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -18367,15 +18837,15 @@
         <v>아</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+56</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>28500</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>114000</v>
       </c>
       <c r="M83" s="22"/>
@@ -18385,15 +18855,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5아</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000002E+56</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -18401,15 +18871,15 @@
         <v>아</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+56</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>29250</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>117000</v>
       </c>
       <c r="M84" s="22"/>
@@ -18419,15 +18889,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>10아</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+57</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -18435,15 +18905,15 @@
         <v>아</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+56</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>30000</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>120000</v>
       </c>
       <c r="M85" s="22"/>
@@ -18453,15 +18923,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>50아</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000004E+57</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -18469,15 +18939,15 @@
         <v>아</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+56</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>30750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>123000</v>
       </c>
       <c r="M86" s="22"/>
@@ -18487,15 +18957,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100아</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+58</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -18503,15 +18973,15 @@
         <v>아</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+56</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>31500</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>126000</v>
       </c>
       <c r="M87" s="22"/>
@@ -18521,15 +18991,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>500아</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000004E+58</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -18537,15 +19007,15 @@
         <v>아</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+56</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>32250</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>129000</v>
       </c>
       <c r="M88" s="22"/>
@@ -18555,15 +19025,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1000아</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+59</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -18571,15 +19041,15 @@
         <v>아</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+56</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>33000</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>132000</v>
       </c>
       <c r="M89" s="22"/>
@@ -18589,15 +19059,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5000아</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000006E+59</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -18605,15 +19075,15 @@
         <v>아</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+56</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>33750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>135000</v>
       </c>
       <c r="M90" s="22"/>
@@ -18623,15 +19093,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1나</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -18639,15 +19109,15 @@
         <v>나</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+60</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>34500</v>
       </c>
       <c r="L91" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>138000</v>
       </c>
       <c r="M91" s="22"/>
@@ -18657,15 +19127,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5나</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999997E+60</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -18673,15 +19143,15 @@
         <v>나</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+60</v>
       </c>
       <c r="K92" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>35250</v>
       </c>
       <c r="L92" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>141000</v>
       </c>
       <c r="M92" s="22"/>
@@ -18691,15 +19161,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>10나</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999995E+60</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -18707,15 +19177,15 @@
         <v>나</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+60</v>
       </c>
       <c r="K93" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>36000</v>
       </c>
       <c r="L93" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>144000</v>
       </c>
       <c r="M93" s="22"/>
@@ -18725,15 +19195,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>50나</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999996E+61</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -18741,15 +19211,15 @@
         <v>나</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+60</v>
       </c>
       <c r="K94" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>36750</v>
       </c>
       <c r="L94" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>147000</v>
       </c>
       <c r="M94" s="22"/>
@@ -18759,15 +19229,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100나</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999992E+61</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -18775,15 +19245,15 @@
         <v>나</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+60</v>
       </c>
       <c r="K95" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>37500</v>
       </c>
       <c r="L95" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>150000</v>
       </c>
       <c r="M95" s="22"/>
@@ -18793,15 +19263,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>500나</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999994E+62</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -18809,15 +19279,15 @@
         <v>나</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+60</v>
       </c>
       <c r="K96" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>38250</v>
       </c>
       <c r="L96" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>153000</v>
       </c>
       <c r="M96" s="22"/>
@@ -18827,15 +19297,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1000나</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999988E+62</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -18843,15 +19313,15 @@
         <v>나</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+60</v>
       </c>
       <c r="K97" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>39000</v>
       </c>
       <c r="L97" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>156000</v>
       </c>
       <c r="M97" s="22"/>
@@ -18861,15 +19331,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5000나</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000001E+63</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -18877,15 +19347,15 @@
         <v>나</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+60</v>
       </c>
       <c r="K98" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>39750</v>
       </c>
       <c r="L98" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>159000</v>
       </c>
       <c r="M98" s="22"/>
@@ -18895,15 +19365,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1불</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+64</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -18911,15 +19381,15 @@
         <v>불</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+64</v>
       </c>
       <c r="K99" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>40625</v>
       </c>
       <c r="L99" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>162500</v>
       </c>
       <c r="M99" s="22"/>
@@ -18929,15 +19399,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5불</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5E+64</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -18945,15 +19415,15 @@
         <v>불</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+64</v>
       </c>
       <c r="K100" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>41500</v>
       </c>
       <c r="L100" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>166000</v>
       </c>
       <c r="M100" s="22"/>
@@ -18963,15 +19433,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>10불</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999999E+64</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -18979,15 +19449,15 @@
         <v>불</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+64</v>
       </c>
       <c r="K101" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>42375</v>
       </c>
       <c r="L101" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>169500</v>
       </c>
       <c r="M101" s="22"/>
@@ -18997,15 +19467,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>50불</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999997E+65</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -19013,15 +19483,15 @@
         <v>불</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+64</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>43250</v>
       </c>
       <c r="L102" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>173000</v>
       </c>
       <c r="M102" s="22"/>
@@ -19031,15 +19501,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100불</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999995E+65</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -19047,15 +19517,15 @@
         <v>불</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+64</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>44125</v>
       </c>
       <c r="L103" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>176500</v>
       </c>
       <c r="M103" s="22"/>
@@ -19065,15 +19535,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>500불</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999999E+66</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -19081,15 +19551,15 @@
         <v>불</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+64</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>45000</v>
       </c>
       <c r="L104" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>180000</v>
       </c>
       <c r="M104" s="22"/>
@@ -19099,15 +19569,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1000불</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999998E+66</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -19115,15 +19585,15 @@
         <v>불</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+64</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>45875</v>
       </c>
       <c r="L105" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>183500</v>
       </c>
       <c r="M105" s="22"/>
@@ -19133,15 +19603,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5000불</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000004E+67</v>
       </c>
       <c r="H106" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -19149,15 +19619,15 @@
         <v>불</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+64</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>46750</v>
       </c>
       <c r="L106" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>187000</v>
       </c>
       <c r="M106" s="22"/>
@@ -19167,15 +19637,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1무</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="H107" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -19183,15 +19653,15 @@
         <v>무</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+68</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>47625</v>
       </c>
       <c r="L107" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>190500</v>
       </c>
       <c r="M107" s="22"/>
@@ -19201,15 +19671,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5무</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999994E+68</v>
       </c>
       <c r="H108" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -19217,15 +19687,15 @@
         <v>무</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+68</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>48500</v>
       </c>
       <c r="L108" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>194000</v>
       </c>
       <c r="M108" s="22"/>
@@ -19235,15 +19705,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>10무</v>
       </c>
       <c r="G109" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999988E+68</v>
       </c>
       <c r="H109" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -19251,15 +19721,15 @@
         <v>무</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+68</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>49375</v>
       </c>
       <c r="L109" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>197500</v>
       </c>
       <c r="M109" s="22"/>
@@ -19269,15 +19739,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>50무</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999996E+69</v>
       </c>
       <c r="H110" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -19285,15 +19755,15 @@
         <v>무</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+68</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>50250</v>
       </c>
       <c r="L110" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>201000</v>
       </c>
       <c r="M110" s="22"/>
@@ -19303,15 +19773,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100무</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="H111" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -19319,15 +19789,15 @@
         <v>무</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+68</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>51125</v>
       </c>
       <c r="L111" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>204500</v>
       </c>
       <c r="M111" s="22"/>
@@ -19337,15 +19807,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>500무</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999996E+70</v>
       </c>
       <c r="H112" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -19353,15 +19823,15 @@
         <v>무</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+68</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>52000</v>
       </c>
       <c r="L112" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>208000</v>
       </c>
       <c r="M112" s="22"/>
@@ -19371,15 +19841,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1000무</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -19387,15 +19857,15 @@
         <v>무</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+68</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>52875</v>
       </c>
       <c r="L113" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>211500</v>
       </c>
       <c r="M113" s="22"/>
@@ -19405,15 +19875,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5000무</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999997E+71</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -19421,15 +19891,15 @@
         <v>무</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+68</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>53875</v>
       </c>
       <c r="L114" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>215500</v>
       </c>
       <c r="M114" s="22"/>
@@ -19439,15 +19909,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1대</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -19455,15 +19925,15 @@
         <v>대</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+72</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>54875</v>
       </c>
       <c r="L115" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>219500</v>
       </c>
       <c r="M115" s="22"/>
@@ -19473,15 +19943,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5대</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999999E+72</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -19489,15 +19959,15 @@
         <v>대</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+72</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>55875</v>
       </c>
       <c r="L116" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>223500</v>
       </c>
       <c r="M116" s="22"/>
@@ -19507,15 +19977,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>10대</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -19523,15 +19993,15 @@
         <v>대</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+72</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>56875</v>
       </c>
       <c r="L117" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>227500</v>
       </c>
       <c r="M117" s="22"/>
@@ -19541,15 +20011,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>50대</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999998E+73</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -19557,15 +20027,15 @@
         <v>대</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+72</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>57875</v>
       </c>
       <c r="L118" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>231500</v>
       </c>
       <c r="M118" s="22"/>
@@ -19575,15 +20045,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100대</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -19591,15 +20061,15 @@
         <v>대</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+72</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>58875</v>
       </c>
       <c r="L119" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>235500</v>
       </c>
       <c r="M119" s="22"/>
@@ -19609,15 +20079,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>500대</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999996E+74</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -19625,15 +20095,15 @@
         <v>대</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+72</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>59875</v>
       </c>
       <c r="L120" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>239500</v>
       </c>
       <c r="M120" s="22"/>
@@ -19643,15 +20113,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1000대</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -19659,15 +20129,15 @@
         <v>대</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+72</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>60875</v>
       </c>
       <c r="L121" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>243500</v>
       </c>
       <c r="M121" s="22"/>
@@ -19677,15 +20147,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5000대</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999994E+75</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -19693,15 +20163,15 @@
         <v>대</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+72</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>61875</v>
       </c>
       <c r="L122" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>247500</v>
       </c>
       <c r="M122" s="22"/>
@@ -19711,15 +20181,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1겁</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+76</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -19727,15 +20197,15 @@
         <v>겁</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+76</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>62875</v>
       </c>
       <c r="L123" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>251500</v>
       </c>
       <c r="M123" s="22"/>
@@ -19745,15 +20215,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5겁</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000006E+76</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -19761,15 +20231,15 @@
         <v>겁</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+76</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>63875</v>
       </c>
       <c r="L124" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>255500</v>
       </c>
       <c r="M124" s="22"/>
@@ -19779,15 +20249,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>10겁</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -19795,15 +20265,15 @@
         <v>겁</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+76</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>64875</v>
       </c>
       <c r="L125" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>259500</v>
       </c>
       <c r="M125" s="22"/>
@@ -19813,15 +20283,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>50겁</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5E+77</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -19829,15 +20299,15 @@
         <v>겁</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+76</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>65875</v>
       </c>
       <c r="L126" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>263500</v>
       </c>
       <c r="M126" s="22"/>
@@ -19847,15 +20317,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100겁</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+78</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -19863,15 +20333,15 @@
         <v>겁</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+76</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>66875</v>
       </c>
       <c r="L127" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>267500</v>
       </c>
       <c r="M127" s="22"/>
@@ -19881,15 +20351,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>500겁</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999998E+78</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -19897,15 +20367,15 @@
         <v>겁</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+76</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>67875</v>
       </c>
       <c r="L128" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>271500</v>
       </c>
       <c r="M128" s="22"/>
@@ -19915,15 +20385,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1000겁</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -19931,15 +20401,15 @@
         <v>겁</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+76</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>69000</v>
       </c>
       <c r="L129" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>276000</v>
       </c>
       <c r="M129" s="22"/>
@@ -19949,15 +20419,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5000겁</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5E+79</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -19965,15 +20435,15 @@
         <v>겁</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+76</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>70125</v>
       </c>
       <c r="L130" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>280500</v>
       </c>
       <c r="M130" s="22"/>
@@ -19983,15 +20453,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1업</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1E+80</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -19999,15 +20469,15 @@
         <v>업</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+80</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>71250</v>
       </c>
       <c r="L131" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>285000</v>
       </c>
       <c r="M131" s="22"/>
@@ -20017,15 +20487,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5업</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999996E+80</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -20033,15 +20503,15 @@
         <v>업</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+80</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>72375</v>
       </c>
       <c r="L132" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>289500</v>
       </c>
       <c r="M132" s="22"/>
@@ -20051,15 +20521,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" ref="F133:F184" si="25">H133&amp;I133</f>
+        <f t="shared" ref="F133:F184" si="29">H133&amp;I133</f>
         <v>10업</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -20067,15 +20537,15 @@
         <v>업</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+80</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>73500</v>
       </c>
       <c r="L133" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>294000</v>
       </c>
       <c r="M133" s="22"/>
@@ -20085,15 +20555,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
+        <f t="shared" si="29"/>
+        <v>50업</v>
+      </c>
+      <c r="G134" s="17">
         <f t="shared" si="25"/>
-        <v>50업</v>
-      </c>
-      <c r="G134" s="17">
-        <f t="shared" si="21"/>
         <v>4.9999999999999998E+81</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -20101,15 +20571,15 @@
         <v>업</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+80</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>74625</v>
       </c>
       <c r="L134" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>298500</v>
       </c>
       <c r="M134" s="22"/>
@@ -20119,15 +20589,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
+        <f t="shared" si="29"/>
+        <v>100업</v>
+      </c>
+      <c r="G135" s="17">
         <f t="shared" si="25"/>
-        <v>100업</v>
-      </c>
-      <c r="G135" s="17">
-        <f t="shared" si="21"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -20135,15 +20605,15 @@
         <v>업</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+80</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>75750</v>
       </c>
       <c r="L135" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>303000</v>
       </c>
       <c r="M135" s="22"/>
@@ -20153,15 +20623,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
+        <f t="shared" si="29"/>
+        <v>500업</v>
+      </c>
+      <c r="G136" s="17">
         <f t="shared" si="25"/>
-        <v>500업</v>
-      </c>
-      <c r="G136" s="17">
-        <f t="shared" si="21"/>
         <v>5.0000000000000002E+82</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -20169,15 +20639,15 @@
         <v>업</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1E+80</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>76875</v>
       </c>
       <c r="L136" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>307500</v>
       </c>
       <c r="M136" s="22"/>
@@ -20187,15 +20657,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="17" t="str">
+        <f t="shared" si="29"/>
+        <v>1000업</v>
+      </c>
+      <c r="G137" s="17">
         <f t="shared" si="25"/>
-        <v>1000업</v>
-      </c>
-      <c r="G137" s="17">
-        <f t="shared" si="21"/>
         <v>1E+83</v>
       </c>
       <c r="H137" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I137" s="16" t="str" cm="1">
@@ -20203,15 +20673,15 @@
         <v>업</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" ref="J137:J200" si="26">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="30">VLOOKUP(I137,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>78000</v>
       </c>
       <c r="L137" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>312000</v>
       </c>
       <c r="M137" s="22"/>
@@ -20221,15 +20691,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5000업</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" ref="G138:G184" si="27">H138*J138</f>
+        <f t="shared" ref="G138:G184" si="31">H138*J138</f>
         <v>5.0000000000000003E+83</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5000</v>
       </c>
       <c r="I138" s="16" t="str" cm="1">
@@ -20237,15 +20707,15 @@
         <v>업</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+80</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" ref="K138:K184" si="28">L138*0.25</f>
+        <f t="shared" ref="K138:K184" si="32">L138*0.25</f>
         <v>79125</v>
       </c>
       <c r="L138" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>316500</v>
       </c>
       <c r="M138" s="22"/>
@@ -20255,15 +20725,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1긍</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I139" s="16" t="str" cm="1">
@@ -20271,15 +20741,15 @@
         <v>긍</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+84</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>80250</v>
       </c>
       <c r="L139" s="22">
-        <f t="shared" ref="L139:L184" si="29">L138+500+QUOTIENT(E139,15)*500</f>
+        <f t="shared" ref="L139:L184" si="33">L138+500+QUOTIENT(E139,15)*500</f>
         <v>321000</v>
       </c>
       <c r="M139" s="22"/>
@@ -20289,15 +20759,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5긍</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000001E+84</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I140" s="16" t="str" cm="1">
@@ -20305,15 +20775,15 @@
         <v>긍</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+84</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>81375</v>
       </c>
       <c r="L140" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>325500</v>
       </c>
       <c r="M140" s="22"/>
@@ -20323,15 +20793,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10긍</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+85</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I141" s="16" t="str" cm="1">
@@ -20339,15 +20809,15 @@
         <v>긍</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+84</v>
       </c>
       <c r="K141" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>82500</v>
       </c>
       <c r="L141" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>330000</v>
       </c>
       <c r="M141" s="22"/>
@@ -20357,15 +20827,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>50긍</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000001E+85</v>
       </c>
       <c r="H142" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>50</v>
       </c>
       <c r="I142" s="16" t="str" cm="1">
@@ -20373,15 +20843,15 @@
         <v>긍</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+84</v>
       </c>
       <c r="K142" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>83625</v>
       </c>
       <c r="L142" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>334500</v>
       </c>
       <c r="M142" s="22"/>
@@ -20391,15 +20861,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100긍</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+86</v>
       </c>
       <c r="H143" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="I143" s="16" t="str" cm="1">
@@ -20407,15 +20877,15 @@
         <v>긍</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+84</v>
       </c>
       <c r="K143" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>84750</v>
       </c>
       <c r="L143" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>339000</v>
       </c>
       <c r="M143" s="22"/>
@@ -20425,15 +20895,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>500긍</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999998E+86</v>
       </c>
       <c r="H144" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="I144" s="16" t="str" cm="1">
@@ -20441,15 +20911,15 @@
         <v>긍</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+84</v>
       </c>
       <c r="K144" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>86000</v>
       </c>
       <c r="L144" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>344000</v>
       </c>
       <c r="M144" s="22"/>
@@ -20459,15 +20929,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1000긍</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="H145" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
       <c r="I145" s="16" t="str" cm="1">
@@ -20475,15 +20945,15 @@
         <v>긍</v>
       </c>
       <c r="J145" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+84</v>
       </c>
       <c r="K145" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>87250</v>
       </c>
       <c r="L145" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>349000</v>
       </c>
       <c r="M145" s="22"/>
@@ -20493,15 +20963,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5000긍</v>
       </c>
       <c r="G146" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000007E+87</v>
       </c>
       <c r="H146" s="17">
-        <f t="shared" ref="H146:H275" si="30">H138</f>
+        <f t="shared" ref="H146:H282" si="34">H138</f>
         <v>5000</v>
       </c>
       <c r="I146" s="16" t="str" cm="1">
@@ -20509,15 +20979,15 @@
         <v>긍</v>
       </c>
       <c r="J146" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+84</v>
       </c>
       <c r="K146" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>88500</v>
       </c>
       <c r="L146" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>354000</v>
       </c>
       <c r="M146" s="22"/>
@@ -20527,15 +20997,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1갈</v>
       </c>
       <c r="G147" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="H147" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I147" s="16" t="str" cm="1">
@@ -20543,15 +21013,15 @@
         <v>갈</v>
       </c>
       <c r="J147" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+88</v>
       </c>
       <c r="K147" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>89750</v>
       </c>
       <c r="L147" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>359000</v>
       </c>
       <c r="M147" s="22"/>
@@ -20561,15 +21031,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5갈</v>
       </c>
       <c r="G148" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5E+88</v>
       </c>
       <c r="H148" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I148" s="16" t="str" cm="1">
@@ -20577,15 +21047,15 @@
         <v>갈</v>
       </c>
       <c r="J148" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+88</v>
       </c>
       <c r="K148" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>91000</v>
       </c>
       <c r="L148" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>364000</v>
       </c>
       <c r="M148" s="22"/>
@@ -20595,15 +21065,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10갈</v>
       </c>
       <c r="G149" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="H149" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I149" s="16" t="str" cm="1">
@@ -20611,15 +21081,15 @@
         <v>갈</v>
       </c>
       <c r="J149" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+88</v>
       </c>
       <c r="K149" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>92250</v>
       </c>
       <c r="L149" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>369000</v>
       </c>
       <c r="M149" s="22"/>
@@ -20629,15 +21099,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>50갈</v>
       </c>
       <c r="G150" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999998E+89</v>
       </c>
       <c r="H150" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I150" s="16" t="str" cm="1">
@@ -20645,15 +21115,15 @@
         <v>갈</v>
       </c>
       <c r="J150" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+88</v>
       </c>
       <c r="K150" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>93500</v>
       </c>
       <c r="L150" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>374000</v>
       </c>
       <c r="M150" s="22"/>
@@ -20663,15 +21133,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100갈</v>
       </c>
       <c r="G151" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="H151" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I151" s="16" t="str" cm="1">
@@ -20679,15 +21149,15 @@
         <v>갈</v>
       </c>
       <c r="J151" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+88</v>
       </c>
       <c r="K151" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>94750</v>
       </c>
       <c r="L151" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>379000</v>
       </c>
       <c r="M151" s="22"/>
@@ -20697,15 +21167,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>500갈</v>
       </c>
       <c r="G152" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999995E+90</v>
       </c>
       <c r="H152" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I152" s="16" t="str" cm="1">
@@ -20713,15 +21183,15 @@
         <v>갈</v>
       </c>
       <c r="J152" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+88</v>
       </c>
       <c r="K152" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>96000</v>
       </c>
       <c r="L152" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>384000</v>
       </c>
       <c r="M152" s="22"/>
@@ -20731,15 +21201,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1000갈</v>
       </c>
       <c r="G153" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="H153" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I153" s="16" t="str" cm="1">
@@ -20747,15 +21217,15 @@
         <v>갈</v>
       </c>
       <c r="J153" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+88</v>
       </c>
       <c r="K153" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>97250</v>
       </c>
       <c r="L153" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>389000</v>
       </c>
       <c r="M153" s="22"/>
@@ -20765,15 +21235,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5000갈</v>
       </c>
       <c r="G154" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999995E+91</v>
       </c>
       <c r="H154" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I154" s="16" t="str" cm="1">
@@ -20781,15 +21251,15 @@
         <v>갈</v>
       </c>
       <c r="J154" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+88</v>
       </c>
       <c r="K154" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>98500</v>
       </c>
       <c r="L154" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>394000</v>
       </c>
       <c r="M154" s="22"/>
@@ -20799,15 +21269,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1라</v>
       </c>
       <c r="G155" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+92</v>
       </c>
       <c r="H155" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I155" s="16" t="str" cm="1">
@@ -20815,15 +21285,15 @@
         <v>라</v>
       </c>
       <c r="J155" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+92</v>
       </c>
       <c r="K155" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>99750</v>
       </c>
       <c r="L155" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>399000</v>
       </c>
       <c r="M155" s="22"/>
@@ -20833,15 +21303,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5라</v>
       </c>
       <c r="G156" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000002E+92</v>
       </c>
       <c r="H156" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I156" s="16" t="str" cm="1">
@@ -20849,15 +21319,15 @@
         <v>라</v>
       </c>
       <c r="J156" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+92</v>
       </c>
       <c r="K156" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>101000</v>
       </c>
       <c r="L156" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>404000</v>
       </c>
       <c r="M156" s="22"/>
@@ -20867,15 +21337,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10라</v>
       </c>
       <c r="G157" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+93</v>
       </c>
       <c r="H157" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I157" s="16" t="str" cm="1">
@@ -20883,15 +21353,15 @@
         <v>라</v>
       </c>
       <c r="J157" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+92</v>
       </c>
       <c r="K157" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>102250</v>
       </c>
       <c r="L157" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>409000</v>
       </c>
       <c r="M157" s="22"/>
@@ -20901,15 +21371,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>50라</v>
       </c>
       <c r="G158" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000001E+93</v>
       </c>
       <c r="H158" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I158" s="16" t="str" cm="1">
@@ -20917,15 +21387,15 @@
         <v>라</v>
       </c>
       <c r="J158" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+92</v>
       </c>
       <c r="K158" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>103500</v>
       </c>
       <c r="L158" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>414000</v>
       </c>
       <c r="M158" s="22"/>
@@ -20935,15 +21405,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100라</v>
       </c>
       <c r="G159" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+94</v>
       </c>
       <c r="H159" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I159" s="16" t="str" cm="1">
@@ -20951,15 +21421,15 @@
         <v>라</v>
       </c>
       <c r="J159" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+92</v>
       </c>
       <c r="K159" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>104875</v>
       </c>
       <c r="L159" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>419500</v>
       </c>
       <c r="M159" s="22"/>
@@ -20969,15 +21439,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>500라</v>
       </c>
       <c r="G160" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000001E+94</v>
       </c>
       <c r="H160" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I160" s="16" t="str" cm="1">
@@ -20985,15 +21455,15 @@
         <v>라</v>
       </c>
       <c r="J160" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+92</v>
       </c>
       <c r="K160" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>106250</v>
       </c>
       <c r="L160" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>425000</v>
       </c>
       <c r="M160" s="22"/>
@@ -21003,15 +21473,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1000라</v>
       </c>
       <c r="G161" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+95</v>
       </c>
       <c r="H161" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I161" s="16" t="str" cm="1">
@@ -21019,15 +21489,15 @@
         <v>라</v>
       </c>
       <c r="J161" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+92</v>
       </c>
       <c r="K161" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>107625</v>
       </c>
       <c r="L161" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>430500</v>
       </c>
       <c r="M161" s="22"/>
@@ -21037,15 +21507,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5000라</v>
       </c>
       <c r="G162" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000002E+95</v>
       </c>
       <c r="H162" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I162" s="16" t="str" cm="1">
@@ -21053,15 +21523,15 @@
         <v>라</v>
       </c>
       <c r="J162" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+92</v>
       </c>
       <c r="K162" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>109000</v>
       </c>
       <c r="L162" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>436000</v>
       </c>
       <c r="M162" s="22"/>
@@ -21071,15 +21541,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1가</v>
       </c>
       <c r="G163" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+96</v>
       </c>
       <c r="H163" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I163" s="16" t="str" cm="1">
@@ -21087,15 +21557,15 @@
         <v>가</v>
       </c>
       <c r="J163" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+96</v>
       </c>
       <c r="K163" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>110375</v>
       </c>
       <c r="L163" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>441500</v>
       </c>
       <c r="M163" s="22"/>
@@ -21105,15 +21575,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5가</v>
       </c>
       <c r="G164" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H164" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I164" s="16" t="str" cm="1">
@@ -21121,15 +21591,15 @@
         <v>가</v>
       </c>
       <c r="J164" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+96</v>
       </c>
       <c r="K164" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>111750</v>
       </c>
       <c r="L164" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>447000</v>
       </c>
       <c r="M164" s="22"/>
@@ -21139,15 +21609,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10가</v>
       </c>
       <c r="G165" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H165" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I165" s="16" t="str" cm="1">
@@ -21155,15 +21625,15 @@
         <v>가</v>
       </c>
       <c r="J165" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+96</v>
       </c>
       <c r="K165" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>113125</v>
       </c>
       <c r="L165" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>452500</v>
       </c>
       <c r="M165" s="22"/>
@@ -21173,15 +21643,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>50가</v>
       </c>
       <c r="G166" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5E+97</v>
       </c>
       <c r="H166" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I166" s="16" t="str" cm="1">
@@ -21189,15 +21659,15 @@
         <v>가</v>
       </c>
       <c r="J166" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+96</v>
       </c>
       <c r="K166" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>114500</v>
       </c>
       <c r="L166" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>458000</v>
       </c>
       <c r="M166" s="22"/>
@@ -21207,15 +21677,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100가</v>
       </c>
       <c r="G167" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+98</v>
       </c>
       <c r="H167" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I167" s="16" t="str" cm="1">
@@ -21223,15 +21693,15 @@
         <v>가</v>
       </c>
       <c r="J167" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+96</v>
       </c>
       <c r="K167" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>115875</v>
       </c>
       <c r="L167" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>463500</v>
       </c>
       <c r="M167" s="22"/>
@@ -21241,15 +21711,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>500가</v>
       </c>
       <c r="G168" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H168" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I168" s="16" t="str" cm="1">
@@ -21257,15 +21727,15 @@
         <v>가</v>
       </c>
       <c r="J168" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+96</v>
       </c>
       <c r="K168" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>117250</v>
       </c>
       <c r="L168" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>469000</v>
       </c>
       <c r="M168" s="22"/>
@@ -21275,15 +21745,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1000가</v>
       </c>
       <c r="G169" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H169" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I169" s="16" t="str" cm="1">
@@ -21291,15 +21761,15 @@
         <v>가</v>
       </c>
       <c r="J169" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+96</v>
       </c>
       <c r="K169" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>118625</v>
       </c>
       <c r="L169" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>474500</v>
       </c>
       <c r="M169" s="22"/>
@@ -21309,15 +21779,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5000가</v>
       </c>
       <c r="G170" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H170" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I170" s="16" t="str" cm="1">
@@ -21325,15 +21795,15 @@
         <v>가</v>
       </c>
       <c r="J170" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+96</v>
       </c>
       <c r="K170" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>120000</v>
       </c>
       <c r="L170" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>480000</v>
       </c>
       <c r="M170" s="22"/>
@@ -21343,15 +21813,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1언</v>
       </c>
       <c r="G171" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+100</v>
       </c>
       <c r="H171" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I171" s="16" t="str" cm="1">
@@ -21359,15 +21829,15 @@
         <v>언</v>
       </c>
       <c r="J171" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+100</v>
       </c>
       <c r="K171" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>121375</v>
       </c>
       <c r="L171" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>485500</v>
       </c>
       <c r="M171" s="22"/>
@@ -21377,15 +21847,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5언</v>
       </c>
       <c r="G172" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H172" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I172" s="16" t="str" cm="1">
@@ -21393,15 +21863,15 @@
         <v>언</v>
       </c>
       <c r="J172" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+100</v>
       </c>
       <c r="K172" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>122750</v>
       </c>
       <c r="L172" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>491000</v>
       </c>
       <c r="M172" s="22"/>
@@ -21411,15 +21881,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10언</v>
       </c>
       <c r="G173" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H173" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I173" s="16" t="str" cm="1">
@@ -21427,15 +21897,15 @@
         <v>언</v>
       </c>
       <c r="J173" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+100</v>
       </c>
       <c r="K173" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>124125</v>
       </c>
       <c r="L173" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>496500</v>
       </c>
       <c r="M173" s="22"/>
@@ -21445,15 +21915,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>50언</v>
       </c>
       <c r="G174" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H174" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I174" s="16" t="str" cm="1">
@@ -21461,15 +21931,15 @@
         <v>언</v>
       </c>
       <c r="J174" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+100</v>
       </c>
       <c r="K174" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>125625</v>
       </c>
       <c r="L174" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>502500</v>
       </c>
       <c r="M174" s="22"/>
@@ -21479,15 +21949,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100언</v>
       </c>
       <c r="G175" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H175" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I175" s="16" t="str" cm="1">
@@ -21495,15 +21965,15 @@
         <v>언</v>
       </c>
       <c r="J175" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+100</v>
       </c>
       <c r="K175" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>127125</v>
       </c>
       <c r="L175" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>508500</v>
       </c>
       <c r="M175" s="22"/>
@@ -21513,15 +21983,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>500언</v>
       </c>
       <c r="G176" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5E+102</v>
       </c>
       <c r="H176" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I176" s="16" t="str" cm="1">
@@ -21529,15 +21999,15 @@
         <v>언</v>
       </c>
       <c r="J176" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+100</v>
       </c>
       <c r="K176" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>128625</v>
       </c>
       <c r="L176" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>514500</v>
       </c>
       <c r="M176" s="22"/>
@@ -21547,15 +22017,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1000언</v>
       </c>
       <c r="G177" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+103</v>
       </c>
       <c r="H177" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I177" s="16" t="str" cm="1">
@@ -21563,15 +22033,15 @@
         <v>언</v>
       </c>
       <c r="J177" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+100</v>
       </c>
       <c r="K177" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>130125</v>
       </c>
       <c r="L177" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>520500</v>
       </c>
       <c r="M177" s="22"/>
@@ -21581,15 +22051,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5000언</v>
       </c>
       <c r="G178" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5E+103</v>
       </c>
       <c r="H178" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I178" s="16" t="str" cm="1">
@@ -21597,15 +22067,15 @@
         <v>언</v>
       </c>
       <c r="J178" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+100</v>
       </c>
       <c r="K178" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>131625</v>
       </c>
       <c r="L178" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>526500</v>
       </c>
       <c r="M178" s="22"/>
@@ -21615,15 +22085,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1승</v>
       </c>
       <c r="G179" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1E+104</v>
       </c>
       <c r="H179" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I179" s="16" t="str" cm="1">
@@ -21631,15 +22101,15 @@
         <v>승</v>
       </c>
       <c r="J179" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+104</v>
       </c>
       <c r="K179" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>133125</v>
       </c>
       <c r="L179" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>532500</v>
       </c>
       <c r="M179" s="22"/>
@@ -21649,15 +22119,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5승</v>
       </c>
       <c r="G180" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H180" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I180" s="16" t="str" cm="1">
@@ -21665,15 +22135,15 @@
         <v>승</v>
       </c>
       <c r="J180" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+104</v>
       </c>
       <c r="K180" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>134625</v>
       </c>
       <c r="L180" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>538500</v>
       </c>
       <c r="M180" s="22"/>
@@ -21683,15 +22153,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10승</v>
       </c>
       <c r="G181" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H181" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I181" s="16" t="str" cm="1">
@@ -21699,15 +22169,15 @@
         <v>승</v>
       </c>
       <c r="J181" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+104</v>
       </c>
       <c r="K181" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>136125</v>
       </c>
       <c r="L181" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>544500</v>
       </c>
       <c r="M181" s="22"/>
@@ -21717,15 +22187,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>50승</v>
       </c>
       <c r="G182" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H182" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I182" s="16" t="str" cm="1">
@@ -21733,15 +22203,15 @@
         <v>승</v>
       </c>
       <c r="J182" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+104</v>
       </c>
       <c r="K182" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>137625</v>
       </c>
       <c r="L182" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>550500</v>
       </c>
       <c r="M182" s="22"/>
@@ -21751,15 +22221,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100승</v>
       </c>
       <c r="G183" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H183" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I183" s="16" t="str" cm="1">
@@ -21767,15 +22237,15 @@
         <v>승</v>
       </c>
       <c r="J183" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+104</v>
       </c>
       <c r="K183" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>139125</v>
       </c>
       <c r="L183" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>556500</v>
       </c>
       <c r="M183" s="22"/>
@@ -21785,15 +22255,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>500승</v>
       </c>
       <c r="G184" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H184" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I184" s="16" t="str" cm="1">
@@ -21801,15 +22271,15 @@
         <v>승</v>
       </c>
       <c r="J184" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+104</v>
       </c>
       <c r="K184" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>140625</v>
       </c>
       <c r="L184" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>562500</v>
       </c>
       <c r="M184" s="22"/>
@@ -21819,15 +22289,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="17" t="str">
-        <f t="shared" ref="F185:F234" si="31">H185&amp;I185</f>
+        <f t="shared" ref="F185:F234" si="35">H185&amp;I185</f>
         <v>1000승</v>
       </c>
       <c r="G185" s="17">
-        <f t="shared" ref="G185:G234" si="32">H185*J185</f>
+        <f t="shared" ref="G185:G234" si="36">H185*J185</f>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H185" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I185" s="16" t="str" cm="1">
@@ -21835,15 +22305,15 @@
         <v>승</v>
       </c>
       <c r="J185" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+104</v>
       </c>
       <c r="K185" s="22">
-        <f t="shared" ref="K185:K234" si="33">L185*0.25</f>
+        <f t="shared" ref="K185:K234" si="37">L185*0.25</f>
         <v>142125</v>
       </c>
       <c r="L185" s="22">
-        <f t="shared" ref="L185:L234" si="34">L184+500+QUOTIENT(E185,15)*500</f>
+        <f t="shared" ref="L185:L234" si="38">L184+500+QUOTIENT(E185,15)*500</f>
         <v>568500</v>
       </c>
     </row>
@@ -21852,15 +22322,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5000승</v>
       </c>
       <c r="G186" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000002E+107</v>
       </c>
       <c r="H186" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I186" s="16" t="str" cm="1">
@@ -21868,15 +22338,15 @@
         <v>승</v>
       </c>
       <c r="J186" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+104</v>
       </c>
       <c r="K186" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>143625</v>
       </c>
       <c r="L186" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>574500</v>
       </c>
     </row>
@@ -21885,15 +22355,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1마</v>
       </c>
       <c r="G187" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1E+108</v>
       </c>
       <c r="H187" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I187" s="16" t="str" cm="1">
@@ -21901,15 +22371,15 @@
         <v>마</v>
       </c>
       <c r="J187" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+108</v>
       </c>
       <c r="K187" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>145125</v>
       </c>
       <c r="L187" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>580500</v>
       </c>
     </row>
@@ -21918,15 +22388,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5마</v>
       </c>
       <c r="G188" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999999E+108</v>
       </c>
       <c r="H188" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I188" s="16" t="str" cm="1">
@@ -21934,15 +22404,15 @@
         <v>마</v>
       </c>
       <c r="J188" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+108</v>
       </c>
       <c r="K188" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>146625</v>
       </c>
       <c r="L188" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>586500</v>
       </c>
     </row>
@@ -21951,15 +22421,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>10마</v>
       </c>
       <c r="G189" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H189" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I189" s="16" t="str" cm="1">
@@ -21967,15 +22437,15 @@
         <v>마</v>
       </c>
       <c r="J189" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+108</v>
       </c>
       <c r="K189" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>148250</v>
       </c>
       <c r="L189" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>593000</v>
       </c>
     </row>
@@ -21984,15 +22454,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>50마</v>
       </c>
       <c r="G190" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="H190" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I190" s="16" t="str" cm="1">
@@ -22000,15 +22470,15 @@
         <v>마</v>
       </c>
       <c r="J190" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+108</v>
       </c>
       <c r="K190" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>149875</v>
       </c>
       <c r="L190" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>599500</v>
       </c>
     </row>
@@ -22017,15 +22487,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>100마</v>
       </c>
       <c r="G191" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1E+110</v>
       </c>
       <c r="H191" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I191" s="16" t="str" cm="1">
@@ -22033,15 +22503,15 @@
         <v>마</v>
       </c>
       <c r="J191" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+108</v>
       </c>
       <c r="K191" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>151500</v>
       </c>
       <c r="L191" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>606000</v>
       </c>
     </row>
@@ -22050,15 +22520,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>500마</v>
       </c>
       <c r="G192" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="H192" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I192" s="16" t="str" cm="1">
@@ -22066,15 +22536,15 @@
         <v>마</v>
       </c>
       <c r="J192" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+108</v>
       </c>
       <c r="K192" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>153125</v>
       </c>
       <c r="L192" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>612500</v>
       </c>
     </row>
@@ -22083,15 +22553,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1000마</v>
       </c>
       <c r="G193" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H193" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I193" s="16" t="str" cm="1">
@@ -22099,15 +22569,15 @@
         <v>마</v>
       </c>
       <c r="J193" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+108</v>
       </c>
       <c r="K193" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>154750</v>
       </c>
       <c r="L193" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>619000</v>
       </c>
     </row>
@@ -22116,15 +22586,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5000마</v>
       </c>
       <c r="G194" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="H194" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I194" s="16" t="str" cm="1">
@@ -22132,15 +22602,15 @@
         <v>마</v>
       </c>
       <c r="J194" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+108</v>
       </c>
       <c r="K194" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>156375</v>
       </c>
       <c r="L194" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>625500</v>
       </c>
     </row>
@@ -22149,15 +22619,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1살</v>
       </c>
       <c r="G195" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H195" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I195" s="16" t="str" cm="1">
@@ -22165,15 +22635,15 @@
         <v>살</v>
       </c>
       <c r="J195" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+112</v>
       </c>
       <c r="K195" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>158000</v>
       </c>
       <c r="L195" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>632000</v>
       </c>
     </row>
@@ -22182,15 +22652,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5살</v>
       </c>
       <c r="G196" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="H196" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I196" s="16" t="str" cm="1">
@@ -22198,15 +22668,15 @@
         <v>살</v>
       </c>
       <c r="J196" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+112</v>
       </c>
       <c r="K196" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>159625</v>
       </c>
       <c r="L196" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>638500</v>
       </c>
     </row>
@@ -22215,15 +22685,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>10살</v>
       </c>
       <c r="G197" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1E+113</v>
       </c>
       <c r="H197" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I197" s="16" t="str" cm="1">
@@ -22231,15 +22701,15 @@
         <v>살</v>
       </c>
       <c r="J197" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+112</v>
       </c>
       <c r="K197" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>161250</v>
       </c>
       <c r="L197" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>645000</v>
       </c>
     </row>
@@ -22248,15 +22718,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>50살</v>
       </c>
       <c r="G198" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="H198" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I198" s="16" t="str" cm="1">
@@ -22264,15 +22734,15 @@
         <v>살</v>
       </c>
       <c r="J198" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+112</v>
       </c>
       <c r="K198" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>162875</v>
       </c>
       <c r="L198" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>651500</v>
       </c>
     </row>
@@ -22281,15 +22751,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>100살</v>
       </c>
       <c r="G199" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H199" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I199" s="16" t="str" cm="1">
@@ -22297,15 +22767,15 @@
         <v>살</v>
       </c>
       <c r="J199" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+112</v>
       </c>
       <c r="K199" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>164500</v>
       </c>
       <c r="L199" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>658000</v>
       </c>
     </row>
@@ -22314,15 +22784,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>500살</v>
       </c>
       <c r="G200" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="H200" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I200" s="16" t="str" cm="1">
@@ -22330,15 +22800,15 @@
         <v>살</v>
       </c>
       <c r="J200" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+112</v>
       </c>
       <c r="K200" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>166125</v>
       </c>
       <c r="L200" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>664500</v>
       </c>
     </row>
@@ -22347,15 +22817,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1000살</v>
       </c>
       <c r="G201" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1E+115</v>
       </c>
       <c r="H201" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I201" s="16" t="str" cm="1">
@@ -22363,15 +22833,15 @@
         <v>살</v>
       </c>
       <c r="J201" s="16" t="str">
-        <f t="shared" ref="J201:J234" si="35">VLOOKUP(I201,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J201:J234" si="39">VLOOKUP(I201,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K201" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>167750</v>
       </c>
       <c r="L201" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>671000</v>
       </c>
     </row>
@@ -22380,15 +22850,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5000살</v>
       </c>
       <c r="G202" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="H202" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I202" s="16" t="str" cm="1">
@@ -22396,15 +22866,15 @@
         <v>살</v>
       </c>
       <c r="J202" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+112</v>
       </c>
       <c r="K202" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>169375</v>
       </c>
       <c r="L202" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>677500</v>
       </c>
     </row>
@@ -22413,15 +22883,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1섬</v>
       </c>
       <c r="G203" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1E+116</v>
       </c>
       <c r="H203" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I203" s="16" t="str" cm="1">
@@ -22429,15 +22899,15 @@
         <v>섬</v>
       </c>
       <c r="J203" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+116</v>
       </c>
       <c r="K203" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>171000</v>
       </c>
       <c r="L203" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>684000</v>
       </c>
     </row>
@@ -22446,15 +22916,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5섬</v>
       </c>
       <c r="G204" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="H204" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I204" s="16" t="str" cm="1">
@@ -22462,15 +22932,15 @@
         <v>섬</v>
       </c>
       <c r="J204" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+116</v>
       </c>
       <c r="K204" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>172750</v>
       </c>
       <c r="L204" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>691000</v>
       </c>
     </row>
@@ -22479,15 +22949,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>10섬</v>
       </c>
       <c r="G205" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H205" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I205" s="16" t="str" cm="1">
@@ -22495,15 +22965,15 @@
         <v>섬</v>
       </c>
       <c r="J205" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+116</v>
       </c>
       <c r="K205" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>174500</v>
       </c>
       <c r="L205" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>698000</v>
       </c>
     </row>
@@ -22512,15 +22982,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>50섬</v>
       </c>
       <c r="G206" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="H206" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I206" s="16" t="str" cm="1">
@@ -22528,15 +22998,15 @@
         <v>섬</v>
       </c>
       <c r="J206" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+116</v>
       </c>
       <c r="K206" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>176250</v>
       </c>
       <c r="L206" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>705000</v>
       </c>
     </row>
@@ -22545,15 +23015,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>100섬</v>
       </c>
       <c r="G207" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H207" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I207" s="16" t="str" cm="1">
@@ -22561,15 +23031,15 @@
         <v>섬</v>
       </c>
       <c r="J207" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+116</v>
       </c>
       <c r="K207" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>178000</v>
       </c>
       <c r="L207" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>712000</v>
       </c>
     </row>
@@ -22578,15 +23048,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>500섬</v>
       </c>
       <c r="G208" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="H208" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I208" s="16" t="str" cm="1">
@@ -22594,15 +23064,15 @@
         <v>섬</v>
       </c>
       <c r="J208" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+116</v>
       </c>
       <c r="K208" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>179750</v>
       </c>
       <c r="L208" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>719000</v>
       </c>
     </row>
@@ -22611,15 +23081,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1000섬</v>
       </c>
       <c r="G209" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H209" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I209" s="16" t="str" cm="1">
@@ -22627,15 +23097,15 @@
         <v>섬</v>
       </c>
       <c r="J209" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+116</v>
       </c>
       <c r="K209" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>181500</v>
       </c>
       <c r="L209" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>726000</v>
       </c>
     </row>
@@ -22644,15 +23114,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5000섬</v>
       </c>
       <c r="G210" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="H210" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I210" s="16" t="str" cm="1">
@@ -22660,15 +23130,15 @@
         <v>섬</v>
       </c>
       <c r="J210" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+116</v>
       </c>
       <c r="K210" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>183250</v>
       </c>
       <c r="L210" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>733000</v>
       </c>
     </row>
@@ -22677,15 +23147,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1찰</v>
       </c>
       <c r="G211" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H211" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I211" s="16" t="str" cm="1">
@@ -22693,15 +23163,15 @@
         <v>찰</v>
       </c>
       <c r="J211" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+120</v>
       </c>
       <c r="K211" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>185000</v>
       </c>
       <c r="L211" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>740000</v>
       </c>
     </row>
@@ -22710,15 +23180,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5찰</v>
       </c>
       <c r="G212" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999996E+120</v>
       </c>
       <c r="H212" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I212" s="16" t="str" cm="1">
@@ -22726,15 +23196,15 @@
         <v>찰</v>
       </c>
       <c r="J212" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+120</v>
       </c>
       <c r="K212" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>186750</v>
       </c>
       <c r="L212" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>747000</v>
       </c>
     </row>
@@ -22743,15 +23213,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>10찰</v>
       </c>
       <c r="G213" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H213" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I213" s="16" t="str" cm="1">
@@ -22759,15 +23229,15 @@
         <v>찰</v>
       </c>
       <c r="J213" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+120</v>
       </c>
       <c r="K213" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>188500</v>
       </c>
       <c r="L213" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>754000</v>
       </c>
     </row>
@@ -22776,15 +23246,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>50찰</v>
       </c>
       <c r="G214" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="H214" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I214" s="16" t="str" cm="1">
@@ -22792,15 +23262,15 @@
         <v>찰</v>
       </c>
       <c r="J214" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+120</v>
       </c>
       <c r="K214" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>190250</v>
       </c>
       <c r="L214" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>761000</v>
       </c>
     </row>
@@ -22809,15 +23279,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>100찰</v>
       </c>
       <c r="G215" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1E+122</v>
       </c>
       <c r="H215" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I215" s="16" t="str" cm="1">
@@ -22825,15 +23295,15 @@
         <v>찰</v>
       </c>
       <c r="J215" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+120</v>
       </c>
       <c r="K215" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>192000</v>
       </c>
       <c r="L215" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>768000</v>
       </c>
     </row>
@@ -22842,15 +23312,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>500찰</v>
       </c>
       <c r="G216" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999999E+122</v>
       </c>
       <c r="H216" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I216" s="16" t="str" cm="1">
@@ -22858,15 +23328,15 @@
         <v>찰</v>
       </c>
       <c r="J216" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+120</v>
       </c>
       <c r="K216" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>193750</v>
       </c>
       <c r="L216" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>775000</v>
       </c>
     </row>
@@ -22875,15 +23345,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1000찰</v>
       </c>
       <c r="G217" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H217" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I217" s="16" t="str" cm="1">
@@ -22891,15 +23361,15 @@
         <v>찰</v>
       </c>
       <c r="J217" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+120</v>
       </c>
       <c r="K217" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>195500</v>
       </c>
       <c r="L217" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>782000</v>
       </c>
     </row>
@@ -22908,15 +23378,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5000찰</v>
       </c>
       <c r="G218" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999997E+123</v>
       </c>
       <c r="H218" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I218" s="16" t="str" cm="1">
@@ -22924,15 +23394,15 @@
         <v>찰</v>
       </c>
       <c r="J218" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+120</v>
       </c>
       <c r="K218" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>197250</v>
       </c>
       <c r="L218" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>789000</v>
       </c>
     </row>
@@ -22941,15 +23411,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1교</v>
       </c>
       <c r="G219" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H219" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I219" s="16" t="str" cm="1">
@@ -22957,15 +23427,15 @@
         <v>교</v>
       </c>
       <c r="J219" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+124</v>
       </c>
       <c r="K219" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>199125</v>
       </c>
       <c r="L219" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>796500</v>
       </c>
     </row>
@@ -22974,15 +23444,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5교</v>
       </c>
       <c r="G220" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999996E+124</v>
       </c>
       <c r="H220" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I220" s="16" t="str" cm="1">
@@ -22990,15 +23460,15 @@
         <v>교</v>
       </c>
       <c r="J220" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+124</v>
       </c>
       <c r="K220" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>201000</v>
       </c>
       <c r="L220" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>804000</v>
       </c>
     </row>
@@ -23007,15 +23477,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>10교</v>
       </c>
       <c r="G221" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H221" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I221" s="16" t="str" cm="1">
@@ -23023,15 +23493,15 @@
         <v>교</v>
       </c>
       <c r="J221" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+124</v>
       </c>
       <c r="K221" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>202875</v>
       </c>
       <c r="L221" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>811500</v>
       </c>
     </row>
@@ -23040,15 +23510,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>50교</v>
       </c>
       <c r="G222" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="H222" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I222" s="16" t="str" cm="1">
@@ -23056,15 +23526,15 @@
         <v>교</v>
       </c>
       <c r="J222" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+124</v>
       </c>
       <c r="K222" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>204750</v>
       </c>
       <c r="L222" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>819000</v>
       </c>
     </row>
@@ -23073,15 +23543,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>100교</v>
       </c>
       <c r="G223" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H223" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I223" s="16" t="str" cm="1">
@@ -23089,15 +23559,15 @@
         <v>교</v>
       </c>
       <c r="J223" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+124</v>
       </c>
       <c r="K223" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>206625</v>
       </c>
       <c r="L223" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>826500</v>
       </c>
     </row>
@@ -23106,15 +23576,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>500교</v>
       </c>
       <c r="G224" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999998E+126</v>
       </c>
       <c r="H224" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I224" s="16" t="str" cm="1">
@@ -23122,15 +23592,15 @@
         <v>교</v>
       </c>
       <c r="J224" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+124</v>
       </c>
       <c r="K224" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>208500</v>
       </c>
       <c r="L224" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>834000</v>
       </c>
     </row>
@@ -23139,15 +23609,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1000교</v>
       </c>
       <c r="G225" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="H225" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I225" s="16" t="str" cm="1">
@@ -23155,15 +23625,15 @@
         <v>교</v>
       </c>
       <c r="J225" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+124</v>
       </c>
       <c r="K225" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>210375</v>
       </c>
       <c r="L225" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>841500</v>
       </c>
     </row>
@@ -23172,15 +23642,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5000교</v>
       </c>
       <c r="G226" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.9999999999999994E+127</v>
       </c>
       <c r="H226" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I226" s="16" t="str" cm="1">
@@ -23188,15 +23658,15 @@
         <v>교</v>
       </c>
       <c r="J226" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+124</v>
       </c>
       <c r="K226" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>212250</v>
       </c>
       <c r="L226" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>849000</v>
       </c>
     </row>
@@ -23205,15 +23675,15 @@
         <v>218</v>
       </c>
       <c r="F227" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1위</v>
       </c>
       <c r="G227" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="H227" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I227" s="16" t="str" cm="1">
@@ -23221,15 +23691,15 @@
         <v>위</v>
       </c>
       <c r="J227" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
       <c r="K227" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>214125</v>
       </c>
       <c r="L227" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>856500</v>
       </c>
     </row>
@@ -23238,15 +23708,15 @@
         <v>219</v>
       </c>
       <c r="F228" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5위</v>
       </c>
       <c r="G228" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5E+128</v>
       </c>
       <c r="H228" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I228" s="16" t="str" cm="1">
@@ -23254,15 +23724,15 @@
         <v>위</v>
       </c>
       <c r="J228" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
       <c r="K228" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>216000</v>
       </c>
       <c r="L228" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>864000</v>
       </c>
     </row>
@@ -23271,15 +23741,15 @@
         <v>220</v>
       </c>
       <c r="F229" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>10위</v>
       </c>
       <c r="G229" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1E+129</v>
       </c>
       <c r="H229" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I229" s="16" t="str" cm="1">
@@ -23287,15 +23757,15 @@
         <v>위</v>
       </c>
       <c r="J229" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
       <c r="K229" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>217875</v>
       </c>
       <c r="L229" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>871500</v>
       </c>
     </row>
@@ -23304,15 +23774,15 @@
         <v>221</v>
       </c>
       <c r="F230" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>50위</v>
       </c>
       <c r="G230" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000003E+129</v>
       </c>
       <c r="H230" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I230" s="16" t="str" cm="1">
@@ -23320,15 +23790,15 @@
         <v>위</v>
       </c>
       <c r="J230" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
       <c r="K230" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>219750</v>
       </c>
       <c r="L230" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>879000</v>
       </c>
     </row>
@@ -23337,15 +23807,15 @@
         <v>222</v>
       </c>
       <c r="F231" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>100위</v>
       </c>
       <c r="G231" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="H231" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I231" s="16" t="str" cm="1">
@@ -23353,15 +23823,15 @@
         <v>위</v>
       </c>
       <c r="J231" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
       <c r="K231" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>221625</v>
       </c>
       <c r="L231" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>886500</v>
       </c>
     </row>
@@ -23370,15 +23840,15 @@
         <v>223</v>
       </c>
       <c r="F232" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>500위</v>
       </c>
       <c r="G232" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000005E+130</v>
       </c>
       <c r="H232" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I232" s="16" t="str" cm="1">
@@ -23386,15 +23856,15 @@
         <v>위</v>
       </c>
       <c r="J232" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
       <c r="K232" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>223500</v>
       </c>
       <c r="L232" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>894000</v>
       </c>
     </row>
@@ -23403,15 +23873,15 @@
         <v>224</v>
       </c>
       <c r="F233" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1000위</v>
       </c>
       <c r="G233" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="H233" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I233" s="16" t="str" cm="1">
@@ -23419,15 +23889,15 @@
         <v>위</v>
       </c>
       <c r="J233" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
       <c r="K233" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>225375</v>
       </c>
       <c r="L233" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>901500</v>
       </c>
     </row>
@@ -23436,15 +23906,15 @@
         <v>225</v>
       </c>
       <c r="F234" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5000위</v>
       </c>
       <c r="G234" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.0000000000000007E+131</v>
       </c>
       <c r="H234" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I234" s="16" t="str" cm="1">
@@ -23452,15 +23922,15 @@
         <v>위</v>
       </c>
       <c r="J234" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
       <c r="K234" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>227375</v>
       </c>
       <c r="L234" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>909500</v>
       </c>
     </row>
@@ -23469,15 +23939,15 @@
         <v>226</v>
       </c>
       <c r="F235" s="17" t="str">
-        <f t="shared" ref="F235:F247" si="36">H235&amp;I235</f>
+        <f t="shared" ref="F235:F247" si="40">H235&amp;I235</f>
         <v>1설</v>
       </c>
       <c r="G235" s="17">
-        <f t="shared" ref="G235:G247" si="37">H235*J235</f>
+        <f t="shared" ref="G235:G247" si="41">H235*J235</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="H235" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I235" s="16" t="str" cm="1">
@@ -23485,15 +23955,15 @@
         <v>설</v>
       </c>
       <c r="J235" s="16" t="str">
-        <f t="shared" ref="J235:J247" si="38">VLOOKUP(I235,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J235:J247" si="42">VLOOKUP(I235,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K235" s="22">
-        <f t="shared" ref="K235:K247" si="39">L235*0.25</f>
+        <f t="shared" ref="K235:K247" si="43">L235*0.25</f>
         <v>229375</v>
       </c>
       <c r="L235" s="22">
-        <f t="shared" ref="L235:L247" si="40">L234+500+QUOTIENT(E235,15)*500</f>
+        <f t="shared" ref="L235:L247" si="44">L234+500+QUOTIENT(E235,15)*500</f>
         <v>917500</v>
       </c>
     </row>
@@ -23502,15 +23972,15 @@
         <v>227</v>
       </c>
       <c r="F236" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5설</v>
       </c>
       <c r="G236" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H236" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I236" s="16" t="str" cm="1">
@@ -23518,15 +23988,15 @@
         <v>설</v>
       </c>
       <c r="J236" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1E+132</v>
       </c>
       <c r="K236" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>231375</v>
       </c>
       <c r="L236" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>925500</v>
       </c>
     </row>
@@ -23535,15 +24005,15 @@
         <v>228</v>
       </c>
       <c r="F237" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>10설</v>
       </c>
       <c r="G237" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1E+133</v>
       </c>
       <c r="H237" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I237" s="16" t="str" cm="1">
@@ -23551,15 +24021,15 @@
         <v>설</v>
       </c>
       <c r="J237" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1E+132</v>
       </c>
       <c r="K237" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>233375</v>
       </c>
       <c r="L237" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>933500</v>
       </c>
     </row>
@@ -23568,15 +24038,15 @@
         <v>229</v>
       </c>
       <c r="F238" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>50설</v>
       </c>
       <c r="G238" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H238" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I238" s="16" t="str" cm="1">
@@ -23584,15 +24054,15 @@
         <v>설</v>
       </c>
       <c r="J238" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1E+132</v>
       </c>
       <c r="K238" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>235375</v>
       </c>
       <c r="L238" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>941500</v>
       </c>
     </row>
@@ -23601,15 +24071,15 @@
         <v>230</v>
       </c>
       <c r="F239" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>100설</v>
       </c>
       <c r="G239" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H239" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I239" s="16" t="str" cm="1">
@@ -23617,15 +24087,15 @@
         <v>설</v>
       </c>
       <c r="J239" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1E+132</v>
       </c>
       <c r="K239" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>237375</v>
       </c>
       <c r="L239" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>949500</v>
       </c>
     </row>
@@ -23634,15 +24104,15 @@
         <v>231</v>
       </c>
       <c r="F240" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>500설</v>
       </c>
       <c r="G240" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H240" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I240" s="16" t="str" cm="1">
@@ -23650,15 +24120,15 @@
         <v>설</v>
       </c>
       <c r="J240" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1E+132</v>
       </c>
       <c r="K240" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>239375</v>
       </c>
       <c r="L240" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>957500</v>
       </c>
     </row>
@@ -23667,15 +24137,15 @@
         <v>232</v>
       </c>
       <c r="F241" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1000설</v>
       </c>
       <c r="G241" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H241" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I241" s="16" t="str" cm="1">
@@ -23683,15 +24153,15 @@
         <v>설</v>
       </c>
       <c r="J241" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1E+132</v>
       </c>
       <c r="K241" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>241375</v>
       </c>
       <c r="L241" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>965500</v>
       </c>
     </row>
@@ -23700,15 +24170,15 @@
         <v>233</v>
       </c>
       <c r="F242" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5000설</v>
       </c>
       <c r="G242" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H242" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I242" s="16" t="str" cm="1">
@@ -23716,15 +24186,15 @@
         <v>설</v>
       </c>
       <c r="J242" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1E+132</v>
       </c>
       <c r="K242" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>243375</v>
       </c>
       <c r="L242" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>973500</v>
       </c>
     </row>
@@ -23733,15 +24203,15 @@
         <v>234</v>
       </c>
       <c r="F243" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1적</v>
       </c>
       <c r="G243" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H243" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I243" s="16" t="str" cm="1">
@@ -23749,15 +24219,15 @@
         <v>적</v>
       </c>
       <c r="J243" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1E+136</v>
       </c>
       <c r="K243" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>245375</v>
       </c>
       <c r="L243" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>981500</v>
       </c>
     </row>
@@ -23766,15 +24236,15 @@
         <v>235</v>
       </c>
       <c r="F244" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5적</v>
       </c>
       <c r="G244" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H244" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I244" s="16" t="str" cm="1">
@@ -23782,15 +24252,15 @@
         <v>적</v>
       </c>
       <c r="J244" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1E+136</v>
       </c>
       <c r="K244" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>247375</v>
       </c>
       <c r="L244" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>989500</v>
       </c>
     </row>
@@ -23799,15 +24269,15 @@
         <v>236</v>
       </c>
       <c r="F245" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>10적</v>
       </c>
       <c r="G245" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1E+137</v>
       </c>
       <c r="H245" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I245" s="16" t="str" cm="1">
@@ -23815,15 +24285,15 @@
         <v>적</v>
       </c>
       <c r="J245" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1E+136</v>
       </c>
       <c r="K245" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>249375</v>
       </c>
       <c r="L245" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>997500</v>
       </c>
     </row>
@@ -23832,15 +24302,15 @@
         <v>237</v>
       </c>
       <c r="F246" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>50적</v>
       </c>
       <c r="G246" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H246" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I246" s="16" t="str" cm="1">
@@ -23848,15 +24318,15 @@
         <v>적</v>
       </c>
       <c r="J246" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1E+136</v>
       </c>
       <c r="K246" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>251375</v>
       </c>
       <c r="L246" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1005500</v>
       </c>
     </row>
@@ -23865,15 +24335,15 @@
         <v>238</v>
       </c>
       <c r="F247" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>100적</v>
       </c>
       <c r="G247" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1E+138</v>
       </c>
       <c r="H247" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I247" s="16" t="str" cm="1">
@@ -23881,15 +24351,15 @@
         <v>적</v>
       </c>
       <c r="J247" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1E+136</v>
       </c>
       <c r="K247" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>253375</v>
       </c>
       <c r="L247" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1013500</v>
       </c>
     </row>
@@ -23898,15 +24368,15 @@
         <v>239</v>
       </c>
       <c r="F248" s="17" t="str">
-        <f t="shared" ref="F248:F257" si="41">H248&amp;I248</f>
+        <f t="shared" ref="F248:F257" si="45">H248&amp;I248</f>
         <v>500적</v>
       </c>
       <c r="G248" s="17">
-        <f t="shared" ref="G248:G257" si="42">H248*J248</f>
+        <f t="shared" ref="G248:G257" si="46">H248*J248</f>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H248" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I248" s="16" t="str" cm="1">
@@ -23914,15 +24384,15 @@
         <v>적</v>
       </c>
       <c r="J248" s="16" t="str">
-        <f t="shared" ref="J248:J257" si="43">VLOOKUP(I248,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J248:J257" si="47">VLOOKUP(I248,N:Q,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K248" s="22">
-        <f t="shared" ref="K248:K257" si="44">L248*0.25</f>
+        <f t="shared" ref="K248:K257" si="48">L248*0.25</f>
         <v>255375</v>
       </c>
       <c r="L248" s="22">
-        <f t="shared" ref="L248:L257" si="45">L247+500+QUOTIENT(E248,15)*500</f>
+        <f t="shared" ref="L248:L257" si="49">L247+500+QUOTIENT(E248,15)*500</f>
         <v>1021500</v>
       </c>
     </row>
@@ -23931,15 +24401,15 @@
         <v>240</v>
       </c>
       <c r="F249" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1000적</v>
       </c>
       <c r="G249" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1E+139</v>
       </c>
       <c r="H249" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I249" s="16" t="str" cm="1">
@@ -23947,15 +24417,15 @@
         <v>적</v>
       </c>
       <c r="J249" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1E+136</v>
       </c>
       <c r="K249" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>257500</v>
       </c>
       <c r="L249" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1030000</v>
       </c>
     </row>
@@ -23964,15 +24434,15 @@
         <v>241</v>
       </c>
       <c r="F250" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>5000적</v>
       </c>
       <c r="G250" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H250" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I250" s="16" t="str" cm="1">
@@ -23980,15 +24450,15 @@
         <v>적</v>
       </c>
       <c r="J250" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1E+136</v>
       </c>
       <c r="K250" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>259625</v>
       </c>
       <c r="L250" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1038500</v>
       </c>
     </row>
@@ -23997,15 +24467,15 @@
         <v>242</v>
       </c>
       <c r="F251" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1고</v>
       </c>
       <c r="G251" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H251" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I251" s="16" t="str" cm="1">
@@ -24013,15 +24483,15 @@
         <v>고</v>
       </c>
       <c r="J251" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1E+140</v>
       </c>
       <c r="K251" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>261750</v>
       </c>
       <c r="L251" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1047000</v>
       </c>
     </row>
@@ -24030,15 +24500,15 @@
         <v>243</v>
       </c>
       <c r="F252" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>5고</v>
       </c>
       <c r="G252" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H252" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I252" s="16" t="str" cm="1">
@@ -24046,15 +24516,15 @@
         <v>고</v>
       </c>
       <c r="J252" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1E+140</v>
       </c>
       <c r="K252" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>263875</v>
       </c>
       <c r="L252" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1055500</v>
       </c>
     </row>
@@ -24063,15 +24533,15 @@
         <v>244</v>
       </c>
       <c r="F253" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>10고</v>
       </c>
       <c r="G253" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1E+141</v>
       </c>
       <c r="H253" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I253" s="16" t="str" cm="1">
@@ -24079,15 +24549,15 @@
         <v>고</v>
       </c>
       <c r="J253" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1E+140</v>
       </c>
       <c r="K253" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>266000</v>
       </c>
       <c r="L253" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1064000</v>
       </c>
     </row>
@@ -24096,15 +24566,15 @@
         <v>245</v>
       </c>
       <c r="F254" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>50고</v>
       </c>
       <c r="G254" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H254" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I254" s="16" t="str" cm="1">
@@ -24112,15 +24582,15 @@
         <v>고</v>
       </c>
       <c r="J254" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1E+140</v>
       </c>
       <c r="K254" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>268125</v>
       </c>
       <c r="L254" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1072500</v>
       </c>
     </row>
@@ -24129,15 +24599,15 @@
         <v>246</v>
       </c>
       <c r="F255" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>100고</v>
       </c>
       <c r="G255" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H255" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I255" s="16" t="str" cm="1">
@@ -24145,15 +24615,15 @@
         <v>고</v>
       </c>
       <c r="J255" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1E+140</v>
       </c>
       <c r="K255" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>270250</v>
       </c>
       <c r="L255" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1081000</v>
       </c>
     </row>
@@ -24162,15 +24632,15 @@
         <v>247</v>
       </c>
       <c r="F256" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>500고</v>
       </c>
       <c r="G256" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H256" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I256" s="16" t="str" cm="1">
@@ -24178,15 +24648,15 @@
         <v>고</v>
       </c>
       <c r="J256" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1E+140</v>
       </c>
       <c r="K256" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>272375</v>
       </c>
       <c r="L256" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1089500</v>
       </c>
     </row>
@@ -24195,15 +24665,15 @@
         <v>248</v>
       </c>
       <c r="F257" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1000고</v>
       </c>
       <c r="G257" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1E+143</v>
       </c>
       <c r="H257" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I257" s="16" t="str" cm="1">
@@ -24211,15 +24681,15 @@
         <v>고</v>
       </c>
       <c r="J257" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1E+140</v>
       </c>
       <c r="K257" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>274500</v>
       </c>
       <c r="L257" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1098000</v>
       </c>
     </row>
@@ -24228,15 +24698,15 @@
         <v>249</v>
       </c>
       <c r="F258" s="17" t="str">
-        <f t="shared" ref="F258:F265" si="46">H258&amp;I258</f>
+        <f t="shared" ref="F258:F265" si="50">H258&amp;I258</f>
         <v>5000고</v>
       </c>
       <c r="G258" s="17">
-        <f t="shared" ref="G258:G265" si="47">H258*J258</f>
+        <f t="shared" ref="G258:G265" si="51">H258*J258</f>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H258" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I258" s="16" t="str" cm="1">
@@ -24244,15 +24714,15 @@
         <v>고</v>
       </c>
       <c r="J258" s="16" t="str">
-        <f t="shared" ref="J258:J265" si="48">VLOOKUP(I258,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J258:J265" si="52">VLOOKUP(I258,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K258" s="22">
-        <f t="shared" ref="K258:K265" si="49">L258*0.25</f>
+        <f t="shared" ref="K258:K265" si="53">L258*0.25</f>
         <v>276625</v>
       </c>
       <c r="L258" s="22">
-        <f t="shared" ref="L258:L265" si="50">L257+500+QUOTIENT(E258,15)*500</f>
+        <f t="shared" ref="L258:L265" si="54">L257+500+QUOTIENT(E258,15)*500</f>
         <v>1106500</v>
       </c>
     </row>
@@ -24261,15 +24731,15 @@
         <v>250</v>
       </c>
       <c r="F259" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1화</v>
       </c>
       <c r="G259" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1E+144</v>
       </c>
       <c r="H259" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I259" s="16" t="str" cm="1">
@@ -24277,15 +24747,15 @@
         <v>화</v>
       </c>
       <c r="J259" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1E+144</v>
       </c>
       <c r="K259" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>278750</v>
       </c>
       <c r="L259" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1115000</v>
       </c>
     </row>
@@ -24294,15 +24764,15 @@
         <v>251</v>
       </c>
       <c r="F260" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>5화</v>
       </c>
       <c r="G260" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H260" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I260" s="16" t="str" cm="1">
@@ -24310,15 +24780,15 @@
         <v>화</v>
       </c>
       <c r="J260" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1E+144</v>
       </c>
       <c r="K260" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>280875</v>
       </c>
       <c r="L260" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1123500</v>
       </c>
     </row>
@@ -24327,15 +24797,15 @@
         <v>252</v>
       </c>
       <c r="F261" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>10화</v>
       </c>
       <c r="G261" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H261" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I261" s="16" t="str" cm="1">
@@ -24343,15 +24813,15 @@
         <v>화</v>
       </c>
       <c r="J261" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1E+144</v>
       </c>
       <c r="K261" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>283000</v>
       </c>
       <c r="L261" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1132000</v>
       </c>
     </row>
@@ -24360,15 +24830,15 @@
         <v>253</v>
       </c>
       <c r="F262" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>50화</v>
       </c>
       <c r="G262" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H262" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I262" s="16" t="str" cm="1">
@@ -24376,15 +24846,15 @@
         <v>화</v>
       </c>
       <c r="J262" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1E+144</v>
       </c>
       <c r="K262" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>285125</v>
       </c>
       <c r="L262" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1140500</v>
       </c>
     </row>
@@ -24393,15 +24863,15 @@
         <v>254</v>
       </c>
       <c r="F263" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>100화</v>
       </c>
       <c r="G263" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H263" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I263" s="16" t="str" cm="1">
@@ -24409,15 +24879,15 @@
         <v>화</v>
       </c>
       <c r="J263" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1E+144</v>
       </c>
       <c r="K263" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>287250</v>
       </c>
       <c r="L263" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1149000</v>
       </c>
     </row>
@@ -24426,15 +24896,15 @@
         <v>255</v>
       </c>
       <c r="F264" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>500화</v>
       </c>
       <c r="G264" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H264" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I264" s="16" t="str" cm="1">
@@ -24442,15 +24912,15 @@
         <v>화</v>
       </c>
       <c r="J264" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1E+144</v>
       </c>
       <c r="K264" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>289500</v>
       </c>
       <c r="L264" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1158000</v>
       </c>
     </row>
@@ -24459,15 +24929,15 @@
         <v>256</v>
       </c>
       <c r="F265" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1000화</v>
       </c>
       <c r="G265" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H265" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I265" s="16" t="str" cm="1">
@@ -24475,15 +24945,15 @@
         <v>화</v>
       </c>
       <c r="J265" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1E+144</v>
       </c>
       <c r="K265" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>291750</v>
       </c>
       <c r="L265" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1167000</v>
       </c>
     </row>
@@ -24492,15 +24962,15 @@
         <v>257</v>
       </c>
       <c r="F266" s="17" t="str">
-        <f t="shared" ref="F266:F275" si="51">H266&amp;I266</f>
+        <f t="shared" ref="F266:F274" si="55">H266&amp;I266</f>
         <v>5000화</v>
       </c>
       <c r="G266" s="17">
-        <f t="shared" ref="G266:G275" si="52">H266*J266</f>
+        <f t="shared" ref="G266:G274" si="56">H266*J266</f>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H266" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I266" s="16" t="str" cm="1">
@@ -24508,15 +24978,15 @@
         <v>화</v>
       </c>
       <c r="J266" s="16" t="str">
-        <f t="shared" ref="J266:J275" si="53">VLOOKUP(I266,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J266:J274" si="57">VLOOKUP(I266,N:Q,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K266" s="22">
-        <f t="shared" ref="K266:K275" si="54">L266*0.25</f>
+        <f t="shared" ref="K266:K274" si="58">L266*0.25</f>
         <v>294000</v>
       </c>
       <c r="L266" s="22">
-        <f t="shared" ref="L266:L275" si="55">L265+500+QUOTIENT(E266,15)*500</f>
+        <f t="shared" ref="L266:L274" si="59">L265+500+QUOTIENT(E266,15)*500</f>
         <v>1176000</v>
       </c>
     </row>
@@ -24525,15 +24995,15 @@
         <v>258</v>
       </c>
       <c r="F267" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>1명</v>
       </c>
       <c r="G267" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1E+148</v>
       </c>
       <c r="H267" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I267" s="16" t="str" cm="1">
@@ -24541,15 +25011,15 @@
         <v>명</v>
       </c>
       <c r="J267" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>1E+148</v>
       </c>
       <c r="K267" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>296250</v>
       </c>
       <c r="L267" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1185000</v>
       </c>
     </row>
@@ -24558,15 +25028,15 @@
         <v>259</v>
       </c>
       <c r="F268" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>5명</v>
       </c>
       <c r="G268" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>5.0000000000000002E+148</v>
       </c>
       <c r="H268" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I268" s="16" t="str" cm="1">
@@ -24574,15 +25044,15 @@
         <v>명</v>
       </c>
       <c r="J268" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>1E+148</v>
       </c>
       <c r="K268" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>298500</v>
       </c>
       <c r="L268" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1194000</v>
       </c>
     </row>
@@ -24591,15 +25061,15 @@
         <v>260</v>
       </c>
       <c r="F269" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>10명</v>
       </c>
       <c r="G269" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1E+149</v>
       </c>
       <c r="H269" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I269" s="16" t="str" cm="1">
@@ -24607,15 +25077,15 @@
         <v>명</v>
       </c>
       <c r="J269" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>1E+148</v>
       </c>
       <c r="K269" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>300750</v>
       </c>
       <c r="L269" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1203000</v>
       </c>
     </row>
@@ -24624,15 +25094,15 @@
         <v>261</v>
       </c>
       <c r="F270" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>50명</v>
       </c>
       <c r="G270" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>4.9999999999999999E+149</v>
       </c>
       <c r="H270" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I270" s="16" t="str" cm="1">
@@ -24640,15 +25110,15 @@
         <v>명</v>
       </c>
       <c r="J270" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>1E+148</v>
       </c>
       <c r="K270" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>303000</v>
       </c>
       <c r="L270" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1212000</v>
       </c>
     </row>
@@ -24657,15 +25127,15 @@
         <v>262</v>
       </c>
       <c r="F271" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>100명</v>
       </c>
       <c r="G271" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H271" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I271" s="16" t="str" cm="1">
@@ -24673,15 +25143,15 @@
         <v>명</v>
       </c>
       <c r="J271" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>1E+148</v>
       </c>
       <c r="K271" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>305250</v>
       </c>
       <c r="L271" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1221000</v>
       </c>
     </row>
@@ -24690,15 +25160,15 @@
         <v>263</v>
       </c>
       <c r="F272" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>500명</v>
       </c>
       <c r="G272" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>5.0000000000000001E+150</v>
       </c>
       <c r="H272" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I272" s="16" t="str" cm="1">
@@ -24706,15 +25176,15 @@
         <v>명</v>
       </c>
       <c r="J272" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>1E+148</v>
       </c>
       <c r="K272" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>307500</v>
       </c>
       <c r="L272" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1230000</v>
       </c>
     </row>
@@ -24723,15 +25193,15 @@
         <v>264</v>
       </c>
       <c r="F273" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>1000명</v>
       </c>
       <c r="G273" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1E+151</v>
       </c>
       <c r="H273" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I273" s="16" t="str" cm="1">
@@ -24739,15 +25209,15 @@
         <v>명</v>
       </c>
       <c r="J273" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>1E+148</v>
       </c>
       <c r="K273" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>309750</v>
       </c>
       <c r="L273" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1239000</v>
       </c>
     </row>
@@ -24756,15 +25226,15 @@
         <v>265</v>
       </c>
       <c r="F274" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>5000명</v>
       </c>
       <c r="G274" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>5.0000000000000002E+151</v>
       </c>
       <c r="H274" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I274" s="16" t="str" cm="1">
@@ -24772,16 +25242,280 @@
         <v>명</v>
       </c>
       <c r="J274" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>1E+148</v>
       </c>
       <c r="K274" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>312000</v>
       </c>
       <c r="L274" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1248000</v>
+      </c>
+    </row>
+    <row r="275" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E275" s="16">
+        <v>266</v>
+      </c>
+      <c r="F275" s="17" t="str">
+        <f t="shared" ref="F275:F282" si="60">H275&amp;I275</f>
+        <v>1월</v>
+      </c>
+      <c r="G275" s="17">
+        <f t="shared" ref="G275:G282" si="61">H275*J275</f>
+        <v>1E+152</v>
+      </c>
+      <c r="H275" s="17">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="I275" s="16" t="str" cm="1">
+        <f t="array" ref="I275">IF(AND(H274&gt;1000,H275&lt;2),INDEX(N:N,MATCH(I274,N:N,0)+1,0),I274)</f>
+        <v>월</v>
+      </c>
+      <c r="J275" s="16" t="str">
+        <f t="shared" ref="J275:J282" si="62">VLOOKUP(I275,N:Q,4,FALSE)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="K275" s="22">
+        <f t="shared" ref="K275:K282" si="63">L275*0.25</f>
+        <v>314250</v>
+      </c>
+      <c r="L275" s="22">
+        <f t="shared" ref="L275:L282" si="64">L274+500+QUOTIENT(E275,15)*500</f>
+        <v>1257000</v>
+      </c>
+    </row>
+    <row r="276" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E276" s="16">
+        <v>267</v>
+      </c>
+      <c r="F276" s="17" t="str">
+        <f t="shared" si="60"/>
+        <v>5월</v>
+      </c>
+      <c r="G276" s="17">
+        <f t="shared" si="61"/>
+        <v>5E+152</v>
+      </c>
+      <c r="H276" s="17">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="I276" s="16" t="str" cm="1">
+        <f t="array" ref="I276">IF(AND(H275&gt;1000,H276&lt;2),INDEX(N:N,MATCH(I275,N:N,0)+1,0),I275)</f>
+        <v>월</v>
+      </c>
+      <c r="J276" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K276" s="22">
+        <f t="shared" si="63"/>
+        <v>316500</v>
+      </c>
+      <c r="L276" s="22">
+        <f t="shared" si="64"/>
+        <v>1266000</v>
+      </c>
+    </row>
+    <row r="277" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E277" s="16">
+        <v>268</v>
+      </c>
+      <c r="F277" s="17" t="str">
+        <f t="shared" si="60"/>
+        <v>10월</v>
+      </c>
+      <c r="G277" s="17">
+        <f t="shared" si="61"/>
+        <v>1E+153</v>
+      </c>
+      <c r="H277" s="17">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="I277" s="16" t="str" cm="1">
+        <f t="array" ref="I277">IF(AND(H276&gt;1000,H277&lt;2),INDEX(N:N,MATCH(I276,N:N,0)+1,0),I276)</f>
+        <v>월</v>
+      </c>
+      <c r="J277" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K277" s="22">
+        <f t="shared" si="63"/>
+        <v>318750</v>
+      </c>
+      <c r="L277" s="22">
+        <f t="shared" si="64"/>
+        <v>1275000</v>
+      </c>
+    </row>
+    <row r="278" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E278" s="16">
+        <v>269</v>
+      </c>
+      <c r="F278" s="17" t="str">
+        <f t="shared" si="60"/>
+        <v>50월</v>
+      </c>
+      <c r="G278" s="17">
+        <f t="shared" si="61"/>
+        <v>5.0000000000000002E+153</v>
+      </c>
+      <c r="H278" s="17">
+        <f t="shared" si="34"/>
+        <v>50</v>
+      </c>
+      <c r="I278" s="16" t="str" cm="1">
+        <f t="array" ref="I278">IF(AND(H277&gt;1000,H278&lt;2),INDEX(N:N,MATCH(I277,N:N,0)+1,0),I277)</f>
+        <v>월</v>
+      </c>
+      <c r="J278" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K278" s="22">
+        <f t="shared" si="63"/>
+        <v>321000</v>
+      </c>
+      <c r="L278" s="22">
+        <f t="shared" si="64"/>
+        <v>1284000</v>
+      </c>
+    </row>
+    <row r="279" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E279" s="16">
+        <v>270</v>
+      </c>
+      <c r="F279" s="17" t="str">
+        <f t="shared" si="60"/>
+        <v>100월</v>
+      </c>
+      <c r="G279" s="17">
+        <f t="shared" si="61"/>
+        <v>1E+154</v>
+      </c>
+      <c r="H279" s="17">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+      <c r="I279" s="16" t="str" cm="1">
+        <f t="array" ref="I279">IF(AND(H278&gt;1000,H279&lt;2),INDEX(N:N,MATCH(I278,N:N,0)+1,0),I278)</f>
+        <v>월</v>
+      </c>
+      <c r="J279" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K279" s="22">
+        <f t="shared" si="63"/>
+        <v>323375</v>
+      </c>
+      <c r="L279" s="22">
+        <f t="shared" si="64"/>
+        <v>1293500</v>
+      </c>
+    </row>
+    <row r="280" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E280" s="16">
+        <v>271</v>
+      </c>
+      <c r="F280" s="17" t="str">
+        <f t="shared" si="60"/>
+        <v>500월</v>
+      </c>
+      <c r="G280" s="17">
+        <f t="shared" si="61"/>
+        <v>5E+154</v>
+      </c>
+      <c r="H280" s="17">
+        <f t="shared" si="34"/>
+        <v>500</v>
+      </c>
+      <c r="I280" s="16" t="str" cm="1">
+        <f t="array" ref="I280">IF(AND(H279&gt;1000,H280&lt;2),INDEX(N:N,MATCH(I279,N:N,0)+1,0),I279)</f>
+        <v>월</v>
+      </c>
+      <c r="J280" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K280" s="22">
+        <f t="shared" si="63"/>
+        <v>325750</v>
+      </c>
+      <c r="L280" s="22">
+        <f t="shared" si="64"/>
+        <v>1303000</v>
+      </c>
+    </row>
+    <row r="281" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E281" s="16">
+        <v>272</v>
+      </c>
+      <c r="F281" s="17" t="str">
+        <f t="shared" si="60"/>
+        <v>1000월</v>
+      </c>
+      <c r="G281" s="17">
+        <f t="shared" si="61"/>
+        <v>1E+155</v>
+      </c>
+      <c r="H281" s="17">
+        <f t="shared" si="34"/>
+        <v>1000</v>
+      </c>
+      <c r="I281" s="16" t="str" cm="1">
+        <f t="array" ref="I281">IF(AND(H280&gt;1000,H281&lt;2),INDEX(N:N,MATCH(I280,N:N,0)+1,0),I280)</f>
+        <v>월</v>
+      </c>
+      <c r="J281" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K281" s="22">
+        <f t="shared" si="63"/>
+        <v>328125</v>
+      </c>
+      <c r="L281" s="22">
+        <f t="shared" si="64"/>
+        <v>1312500</v>
+      </c>
+    </row>
+    <row r="282" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E282" s="16">
+        <v>273</v>
+      </c>
+      <c r="F282" s="17" t="str">
+        <f t="shared" si="60"/>
+        <v>5000월</v>
+      </c>
+      <c r="G282" s="17">
+        <f t="shared" si="61"/>
+        <v>4.9999999999999999E+155</v>
+      </c>
+      <c r="H282" s="17">
+        <f t="shared" si="34"/>
+        <v>5000</v>
+      </c>
+      <c r="I282" s="16" t="str" cm="1">
+        <f t="array" ref="I282">IF(AND(H281&gt;1000,H282&lt;2),INDEX(N:N,MATCH(I281,N:N,0)+1,0),I281)</f>
+        <v>월</v>
+      </c>
+      <c r="J282" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K282" s="22">
+        <f t="shared" si="63"/>
+        <v>330500</v>
+      </c>
+      <c r="L282" s="22">
+        <f t="shared" si="64"/>
+        <v>1322000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulTower.xlsx
+++ b/Assets/06.Table/DosulTower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61141E1-96B0-4D0A-895F-AAF8AA2E6EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EFB6B5-C7A4-41B8-B640-8ED4B4C4CFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="71">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,7 +337,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,11 +952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M275"/>
+  <dimension ref="A1:M283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I268" sqref="I268"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G275" sqref="G275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14491,7 +14491,7 @@
         <v>298500</v>
       </c>
       <c r="E261">
-        <f t="shared" ref="E261:E276" si="304">E260</f>
+        <f t="shared" ref="E261:E284" si="304">E260</f>
         <v>1</v>
       </c>
       <c r="F261" s="2">
@@ -14514,11 +14514,11 @@
         <v>60</v>
       </c>
       <c r="K261">
-        <f t="shared" ref="K261:K276" si="306">K260+200</f>
+        <f t="shared" ref="K261:K284" si="306">K260+200</f>
         <v>53800</v>
       </c>
       <c r="L261">
-        <f t="shared" ref="L261:L276" si="307">L260</f>
+        <f t="shared" ref="L261:L284" si="307">L260</f>
         <v>9031</v>
       </c>
       <c r="M261">
@@ -15207,7 +15207,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="1" t="str">
-        <f t="shared" ref="B275:C276" si="334">B274</f>
+        <f t="shared" ref="B275:C275" si="334">B274</f>
         <v>1-1</v>
       </c>
       <c r="C275">
@@ -15227,7 +15227,7 @@
         <v>4.9999999999999999E+155</v>
       </c>
       <c r="G275">
-        <f t="shared" ref="G275:I276" si="335">G274</f>
+        <f t="shared" ref="G275:I275" si="335">G274</f>
         <v>1000</v>
       </c>
       <c r="H275">
@@ -15254,9 +15254,425 @@
         <v>661000</v>
       </c>
     </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276" s="1" t="str">
+        <f t="shared" ref="B276:C276" si="336">B275</f>
+        <v>1-1</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="336"/>
+        <v>9031</v>
+      </c>
+      <c r="D276">
+        <f>VLOOKUP(A276,Balance!E:K,7,FALSE)</f>
+        <v>332875</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F276" s="2">
+        <f>VLOOKUP(A276,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="G276">
+        <f t="shared" ref="G276:I276" si="337">G275</f>
+        <v>1000</v>
+      </c>
+      <c r="H276">
+        <f t="shared" si="337"/>
+        <v>8</v>
+      </c>
+      <c r="I276">
+        <f t="shared" si="337"/>
+        <v>0</v>
+      </c>
+      <c r="J276" t="s">
+        <v>60</v>
+      </c>
+      <c r="K276">
+        <f t="shared" si="306"/>
+        <v>56800</v>
+      </c>
+      <c r="L276">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M276">
+        <f>VLOOKUP(A276,Balance!E:L,8,FALSE)/2</f>
+        <v>665750</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277" s="1" t="str">
+        <f t="shared" ref="B277:C277" si="338">B276</f>
+        <v>1-1</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="338"/>
+        <v>9031</v>
+      </c>
+      <c r="D277">
+        <f>VLOOKUP(A277,Balance!E:K,7,FALSE)</f>
+        <v>335250</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F277" s="2">
+        <f>VLOOKUP(A277,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999999E+156</v>
+      </c>
+      <c r="G277">
+        <f t="shared" ref="G277:I277" si="339">G276</f>
+        <v>1000</v>
+      </c>
+      <c r="H277">
+        <f t="shared" si="339"/>
+        <v>8</v>
+      </c>
+      <c r="I277">
+        <f t="shared" si="339"/>
+        <v>0</v>
+      </c>
+      <c r="J277" t="s">
+        <v>60</v>
+      </c>
+      <c r="K277">
+        <f t="shared" si="306"/>
+        <v>57000</v>
+      </c>
+      <c r="L277">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M277">
+        <f>VLOOKUP(A277,Balance!E:L,8,FALSE)/2</f>
+        <v>670500</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1" t="str">
+        <f t="shared" ref="B278:C278" si="340">B277</f>
+        <v>1-1</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="340"/>
+        <v>9031</v>
+      </c>
+      <c r="D278">
+        <f>VLOOKUP(A278,Balance!E:K,7,FALSE)</f>
+        <v>337625</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F278" s="2">
+        <f>VLOOKUP(A278,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999998E+156</v>
+      </c>
+      <c r="G278">
+        <f t="shared" ref="G278:I278" si="341">G277</f>
+        <v>1000</v>
+      </c>
+      <c r="H278">
+        <f t="shared" si="341"/>
+        <v>8</v>
+      </c>
+      <c r="I278">
+        <f t="shared" si="341"/>
+        <v>0</v>
+      </c>
+      <c r="J278" t="s">
+        <v>60</v>
+      </c>
+      <c r="K278">
+        <f t="shared" si="306"/>
+        <v>57200</v>
+      </c>
+      <c r="L278">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M278">
+        <f>VLOOKUP(A278,Balance!E:L,8,FALSE)/2</f>
+        <v>675250</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279" s="1" t="str">
+        <f t="shared" ref="B279:C279" si="342">B278</f>
+        <v>1-1</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="342"/>
+        <v>9031</v>
+      </c>
+      <c r="D279">
+        <f>VLOOKUP(A279,Balance!E:K,7,FALSE)</f>
+        <v>340000</v>
+      </c>
+      <c r="E279">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F279" s="2">
+        <f>VLOOKUP(A279,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999998E+157</v>
+      </c>
+      <c r="G279">
+        <f t="shared" ref="G279:I279" si="343">G278</f>
+        <v>1000</v>
+      </c>
+      <c r="H279">
+        <f t="shared" si="343"/>
+        <v>8</v>
+      </c>
+      <c r="I279">
+        <f t="shared" si="343"/>
+        <v>0</v>
+      </c>
+      <c r="J279" t="s">
+        <v>60</v>
+      </c>
+      <c r="K279">
+        <f t="shared" si="306"/>
+        <v>57400</v>
+      </c>
+      <c r="L279">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M279">
+        <f>VLOOKUP(A279,Balance!E:L,8,FALSE)/2</f>
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280" s="1" t="str">
+        <f t="shared" ref="B280:C280" si="344">B279</f>
+        <v>1-1</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="344"/>
+        <v>9031</v>
+      </c>
+      <c r="D280">
+        <f>VLOOKUP(A280,Balance!E:K,7,FALSE)</f>
+        <v>342375</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F280" s="2">
+        <f>VLOOKUP(A280,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999995E+157</v>
+      </c>
+      <c r="G280">
+        <f t="shared" ref="G280:I280" si="345">G279</f>
+        <v>1000</v>
+      </c>
+      <c r="H280">
+        <f t="shared" si="345"/>
+        <v>8</v>
+      </c>
+      <c r="I280">
+        <f t="shared" si="345"/>
+        <v>0</v>
+      </c>
+      <c r="J280" t="s">
+        <v>60</v>
+      </c>
+      <c r="K280">
+        <f t="shared" si="306"/>
+        <v>57600</v>
+      </c>
+      <c r="L280">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M280">
+        <f>VLOOKUP(A280,Balance!E:L,8,FALSE)/2</f>
+        <v>684750</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281" s="1" t="str">
+        <f t="shared" ref="B281:C281" si="346">B280</f>
+        <v>1-1</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="346"/>
+        <v>9031</v>
+      </c>
+      <c r="D281">
+        <f>VLOOKUP(A281,Balance!E:K,7,FALSE)</f>
+        <v>344750</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F281" s="2">
+        <f>VLOOKUP(A281,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999996E+158</v>
+      </c>
+      <c r="G281">
+        <f t="shared" ref="G281:I281" si="347">G280</f>
+        <v>1000</v>
+      </c>
+      <c r="H281">
+        <f t="shared" si="347"/>
+        <v>8</v>
+      </c>
+      <c r="I281">
+        <f t="shared" si="347"/>
+        <v>0</v>
+      </c>
+      <c r="J281" t="s">
+        <v>60</v>
+      </c>
+      <c r="K281">
+        <f t="shared" si="306"/>
+        <v>57800</v>
+      </c>
+      <c r="L281">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M281">
+        <f>VLOOKUP(A281,Balance!E:L,8,FALSE)/2</f>
+        <v>689500</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282" s="1" t="str">
+        <f t="shared" ref="B282:C282" si="348">B281</f>
+        <v>1-1</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="348"/>
+        <v>9031</v>
+      </c>
+      <c r="D282">
+        <f>VLOOKUP(A282,Balance!E:K,7,FALSE)</f>
+        <v>347125</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F282" s="2">
+        <f>VLOOKUP(A282,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999993E+158</v>
+      </c>
+      <c r="G282">
+        <f t="shared" ref="G282:I282" si="349">G281</f>
+        <v>1000</v>
+      </c>
+      <c r="H282">
+        <f t="shared" si="349"/>
+        <v>8</v>
+      </c>
+      <c r="I282">
+        <f t="shared" si="349"/>
+        <v>0</v>
+      </c>
+      <c r="J282" t="s">
+        <v>60</v>
+      </c>
+      <c r="K282">
+        <f t="shared" si="306"/>
+        <v>58000</v>
+      </c>
+      <c r="L282">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M282">
+        <f>VLOOKUP(A282,Balance!E:L,8,FALSE)/2</f>
+        <v>694250</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283" s="1" t="str">
+        <f t="shared" ref="B283:C284" si="350">B282</f>
+        <v>1-1</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="350"/>
+        <v>9031</v>
+      </c>
+      <c r="D283">
+        <f>VLOOKUP(A283,Balance!E:K,7,FALSE)</f>
+        <v>349500</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F283" s="2">
+        <f>VLOOKUP(A283,Balance!E:K,3,FALSE)</f>
+        <v>5E+159</v>
+      </c>
+      <c r="G283">
+        <f t="shared" ref="G283:I284" si="351">G282</f>
+        <v>1000</v>
+      </c>
+      <c r="H283">
+        <f t="shared" si="351"/>
+        <v>8</v>
+      </c>
+      <c r="I283">
+        <f t="shared" si="351"/>
+        <v>0</v>
+      </c>
+      <c r="J283" t="s">
+        <v>60</v>
+      </c>
+      <c r="K283">
+        <f t="shared" si="306"/>
+        <v>58200</v>
+      </c>
+      <c r="L283">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M283">
+        <f>VLOOKUP(A283,Balance!E:L,8,FALSE)/2</f>
+        <v>699000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L275">
+  <conditionalFormatting sqref="A2:L283">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -15268,10 +15684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z282"/>
+  <dimension ref="A1:Z290"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="I282" sqref="I282"/>
+    <sheetView topLeftCell="B266" workbookViewId="0">
+      <selection activeCell="I286" sqref="I286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20971,7 +21387,7 @@
         <v>5.0000000000000007E+87</v>
       </c>
       <c r="H146" s="17">
-        <f t="shared" ref="H146:H282" si="34">H138</f>
+        <f t="shared" ref="H146:H290" si="34">H138</f>
         <v>5000</v>
       </c>
       <c r="I146" s="16" t="str" cm="1">
@@ -25516,6 +25932,270 @@
       <c r="L282" s="22">
         <f t="shared" si="64"/>
         <v>1322000</v>
+      </c>
+    </row>
+    <row r="283" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E283" s="16">
+        <v>274</v>
+      </c>
+      <c r="F283" s="17" t="str">
+        <f t="shared" ref="F283:F290" si="65">H283&amp;I283</f>
+        <v>1후</v>
+      </c>
+      <c r="G283" s="17">
+        <f t="shared" ref="G283:G290" si="66">H283*J283</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="H283" s="17">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="I283" s="16" t="str" cm="1">
+        <f t="array" ref="I283">IF(AND(H282&gt;1000,H283&lt;2),INDEX(N:N,MATCH(I282,N:N,0)+1,0),I282)</f>
+        <v>후</v>
+      </c>
+      <c r="J283" s="16" t="str">
+        <f t="shared" ref="J283:J290" si="67">VLOOKUP(I283,N:Q,4,FALSE)</f>
+        <v>1E+156</v>
+      </c>
+      <c r="K283" s="22">
+        <f t="shared" ref="K283:K290" si="68">L283*0.25</f>
+        <v>332875</v>
+      </c>
+      <c r="L283" s="22">
+        <f t="shared" ref="L283:L290" si="69">L282+500+QUOTIENT(E283,15)*500</f>
+        <v>1331500</v>
+      </c>
+    </row>
+    <row r="284" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E284" s="16">
+        <v>275</v>
+      </c>
+      <c r="F284" s="17" t="str">
+        <f t="shared" si="65"/>
+        <v>5후</v>
+      </c>
+      <c r="G284" s="17">
+        <f t="shared" si="66"/>
+        <v>4.9999999999999999E+156</v>
+      </c>
+      <c r="H284" s="17">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="I284" s="16" t="str" cm="1">
+        <f t="array" ref="I284">IF(AND(H283&gt;1000,H284&lt;2),INDEX(N:N,MATCH(I283,N:N,0)+1,0),I283)</f>
+        <v>후</v>
+      </c>
+      <c r="J284" s="16" t="str">
+        <f t="shared" si="67"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K284" s="22">
+        <f t="shared" si="68"/>
+        <v>335250</v>
+      </c>
+      <c r="L284" s="22">
+        <f t="shared" si="69"/>
+        <v>1341000</v>
+      </c>
+    </row>
+    <row r="285" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E285" s="16">
+        <v>276</v>
+      </c>
+      <c r="F285" s="17" t="str">
+        <f t="shared" si="65"/>
+        <v>10후</v>
+      </c>
+      <c r="G285" s="17">
+        <f t="shared" si="66"/>
+        <v>9.9999999999999998E+156</v>
+      </c>
+      <c r="H285" s="17">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="I285" s="16" t="str" cm="1">
+        <f t="array" ref="I285">IF(AND(H284&gt;1000,H285&lt;2),INDEX(N:N,MATCH(I284,N:N,0)+1,0),I284)</f>
+        <v>후</v>
+      </c>
+      <c r="J285" s="16" t="str">
+        <f t="shared" si="67"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K285" s="22">
+        <f t="shared" si="68"/>
+        <v>337625</v>
+      </c>
+      <c r="L285" s="22">
+        <f t="shared" si="69"/>
+        <v>1350500</v>
+      </c>
+    </row>
+    <row r="286" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E286" s="16">
+        <v>277</v>
+      </c>
+      <c r="F286" s="17" t="str">
+        <f t="shared" si="65"/>
+        <v>50후</v>
+      </c>
+      <c r="G286" s="17">
+        <f t="shared" si="66"/>
+        <v>4.9999999999999998E+157</v>
+      </c>
+      <c r="H286" s="17">
+        <f t="shared" si="34"/>
+        <v>50</v>
+      </c>
+      <c r="I286" s="16" t="str" cm="1">
+        <f t="array" ref="I286">IF(AND(H285&gt;1000,H286&lt;2),INDEX(N:N,MATCH(I285,N:N,0)+1,0),I285)</f>
+        <v>후</v>
+      </c>
+      <c r="J286" s="16" t="str">
+        <f t="shared" si="67"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K286" s="22">
+        <f t="shared" si="68"/>
+        <v>340000</v>
+      </c>
+      <c r="L286" s="22">
+        <f t="shared" si="69"/>
+        <v>1360000</v>
+      </c>
+    </row>
+    <row r="287" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E287" s="16">
+        <v>278</v>
+      </c>
+      <c r="F287" s="17" t="str">
+        <f t="shared" si="65"/>
+        <v>100후</v>
+      </c>
+      <c r="G287" s="17">
+        <f t="shared" si="66"/>
+        <v>9.9999999999999995E+157</v>
+      </c>
+      <c r="H287" s="17">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+      <c r="I287" s="16" t="str" cm="1">
+        <f t="array" ref="I287">IF(AND(H286&gt;1000,H287&lt;2),INDEX(N:N,MATCH(I286,N:N,0)+1,0),I286)</f>
+        <v>후</v>
+      </c>
+      <c r="J287" s="16" t="str">
+        <f t="shared" si="67"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K287" s="22">
+        <f t="shared" si="68"/>
+        <v>342375</v>
+      </c>
+      <c r="L287" s="22">
+        <f t="shared" si="69"/>
+        <v>1369500</v>
+      </c>
+    </row>
+    <row r="288" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E288" s="16">
+        <v>279</v>
+      </c>
+      <c r="F288" s="17" t="str">
+        <f t="shared" si="65"/>
+        <v>500후</v>
+      </c>
+      <c r="G288" s="17">
+        <f t="shared" si="66"/>
+        <v>4.9999999999999996E+158</v>
+      </c>
+      <c r="H288" s="17">
+        <f t="shared" si="34"/>
+        <v>500</v>
+      </c>
+      <c r="I288" s="16" t="str" cm="1">
+        <f t="array" ref="I288">IF(AND(H287&gt;1000,H288&lt;2),INDEX(N:N,MATCH(I287,N:N,0)+1,0),I287)</f>
+        <v>후</v>
+      </c>
+      <c r="J288" s="16" t="str">
+        <f t="shared" si="67"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K288" s="22">
+        <f t="shared" si="68"/>
+        <v>344750</v>
+      </c>
+      <c r="L288" s="22">
+        <f t="shared" si="69"/>
+        <v>1379000</v>
+      </c>
+    </row>
+    <row r="289" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E289" s="16">
+        <v>280</v>
+      </c>
+      <c r="F289" s="17" t="str">
+        <f t="shared" si="65"/>
+        <v>1000후</v>
+      </c>
+      <c r="G289" s="17">
+        <f t="shared" si="66"/>
+        <v>9.9999999999999993E+158</v>
+      </c>
+      <c r="H289" s="17">
+        <f t="shared" si="34"/>
+        <v>1000</v>
+      </c>
+      <c r="I289" s="16" t="str" cm="1">
+        <f t="array" ref="I289">IF(AND(H288&gt;1000,H289&lt;2),INDEX(N:N,MATCH(I288,N:N,0)+1,0),I288)</f>
+        <v>후</v>
+      </c>
+      <c r="J289" s="16" t="str">
+        <f t="shared" si="67"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K289" s="22">
+        <f t="shared" si="68"/>
+        <v>347125</v>
+      </c>
+      <c r="L289" s="22">
+        <f t="shared" si="69"/>
+        <v>1388500</v>
+      </c>
+    </row>
+    <row r="290" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E290" s="16">
+        <v>281</v>
+      </c>
+      <c r="F290" s="17" t="str">
+        <f t="shared" si="65"/>
+        <v>5000후</v>
+      </c>
+      <c r="G290" s="17">
+        <f t="shared" si="66"/>
+        <v>5E+159</v>
+      </c>
+      <c r="H290" s="17">
+        <f t="shared" si="34"/>
+        <v>5000</v>
+      </c>
+      <c r="I290" s="16" t="str" cm="1">
+        <f t="array" ref="I290">IF(AND(H289&gt;1000,H290&lt;2),INDEX(N:N,MATCH(I289,N:N,0)+1,0),I289)</f>
+        <v>후</v>
+      </c>
+      <c r="J290" s="16" t="str">
+        <f t="shared" si="67"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K290" s="22">
+        <f t="shared" si="68"/>
+        <v>349500</v>
+      </c>
+      <c r="L290" s="22">
+        <f t="shared" si="69"/>
+        <v>1398000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulTower.xlsx
+++ b/Assets/06.Table/DosulTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EFB6B5-C7A4-41B8-B640-8ED4B4C4CFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAA05CA-91FE-4B61-BB02-73AB5E1369B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="74">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,18 @@
     <t>후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -597,29 +609,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -952,11 +942,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M283"/>
+  <dimension ref="A1:M291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G275" sqref="G275"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14491,7 +14481,7 @@
         <v>298500</v>
       </c>
       <c r="E261">
-        <f t="shared" ref="E261:E284" si="304">E260</f>
+        <f t="shared" ref="E261:E291" si="304">E260</f>
         <v>1</v>
       </c>
       <c r="F261" s="2">
@@ -14514,11 +14504,11 @@
         <v>60</v>
       </c>
       <c r="K261">
-        <f t="shared" ref="K261:K284" si="306">K260+200</f>
+        <f t="shared" ref="K261:K291" si="306">K260+200</f>
         <v>53800</v>
       </c>
       <c r="L261">
-        <f t="shared" ref="L261:L284" si="307">L260</f>
+        <f t="shared" ref="L261:L291" si="307">L260</f>
         <v>9031</v>
       </c>
       <c r="M261">
@@ -15623,7 +15613,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="1" t="str">
-        <f t="shared" ref="B283:C284" si="350">B282</f>
+        <f t="shared" ref="B283:C283" si="350">B282</f>
         <v>1-1</v>
       </c>
       <c r="C283">
@@ -15643,7 +15633,7 @@
         <v>5E+159</v>
       </c>
       <c r="G283">
-        <f t="shared" ref="G283:I284" si="351">G282</f>
+        <f t="shared" ref="G283:I283" si="351">G282</f>
         <v>1000</v>
       </c>
       <c r="H283">
@@ -15670,9 +15660,425 @@
         <v>699000</v>
       </c>
     </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284" s="1" t="str">
+        <f t="shared" ref="B284:C284" si="352">B283</f>
+        <v>1-1</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="352"/>
+        <v>9031</v>
+      </c>
+      <c r="D284">
+        <f>VLOOKUP(A284,Balance!E:K,7,FALSE)</f>
+        <v>351875</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F284" s="2">
+        <f>VLOOKUP(A284,Balance!E:K,3,FALSE)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="G284">
+        <f t="shared" ref="G284:I284" si="353">G283</f>
+        <v>1000</v>
+      </c>
+      <c r="H284">
+        <f t="shared" si="353"/>
+        <v>8</v>
+      </c>
+      <c r="I284">
+        <f t="shared" si="353"/>
+        <v>0</v>
+      </c>
+      <c r="J284" t="s">
+        <v>60</v>
+      </c>
+      <c r="K284">
+        <f t="shared" si="306"/>
+        <v>58400</v>
+      </c>
+      <c r="L284">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M284">
+        <f>VLOOKUP(A284,Balance!E:L,8,FALSE)/2</f>
+        <v>703750</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285" s="1" t="str">
+        <f t="shared" ref="B285:C285" si="354">B284</f>
+        <v>1-1</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="354"/>
+        <v>9031</v>
+      </c>
+      <c r="D285">
+        <f>VLOOKUP(A285,Balance!E:K,7,FALSE)</f>
+        <v>354250</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F285" s="2">
+        <f>VLOOKUP(A285,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+160</v>
+      </c>
+      <c r="G285">
+        <f t="shared" ref="G285:I285" si="355">G284</f>
+        <v>1000</v>
+      </c>
+      <c r="H285">
+        <f t="shared" si="355"/>
+        <v>8</v>
+      </c>
+      <c r="I285">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="J285" t="s">
+        <v>60</v>
+      </c>
+      <c r="K285">
+        <f t="shared" si="306"/>
+        <v>58600</v>
+      </c>
+      <c r="L285">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M285">
+        <f>VLOOKUP(A285,Balance!E:L,8,FALSE)/2</f>
+        <v>708500</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286" s="1" t="str">
+        <f t="shared" ref="B286:C286" si="356">B285</f>
+        <v>1-1</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="356"/>
+        <v>9031</v>
+      </c>
+      <c r="D286">
+        <f>VLOOKUP(A286,Balance!E:K,7,FALSE)</f>
+        <v>356625</v>
+      </c>
+      <c r="E286">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F286" s="2">
+        <f>VLOOKUP(A286,Balance!E:K,3,FALSE)</f>
+        <v>1E+161</v>
+      </c>
+      <c r="G286">
+        <f t="shared" ref="G286:I286" si="357">G285</f>
+        <v>1000</v>
+      </c>
+      <c r="H286">
+        <f t="shared" si="357"/>
+        <v>8</v>
+      </c>
+      <c r="I286">
+        <f t="shared" si="357"/>
+        <v>0</v>
+      </c>
+      <c r="J286" t="s">
+        <v>60</v>
+      </c>
+      <c r="K286">
+        <f t="shared" si="306"/>
+        <v>58800</v>
+      </c>
+      <c r="L286">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M286">
+        <f>VLOOKUP(A286,Balance!E:L,8,FALSE)/2</f>
+        <v>713250</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287" s="1" t="str">
+        <f t="shared" ref="B287:C287" si="358">B286</f>
+        <v>1-1</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="358"/>
+        <v>9031</v>
+      </c>
+      <c r="D287">
+        <f>VLOOKUP(A287,Balance!E:K,7,FALSE)</f>
+        <v>359125</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F287" s="2">
+        <f>VLOOKUP(A287,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999997E+161</v>
+      </c>
+      <c r="G287">
+        <f t="shared" ref="G287:I287" si="359">G286</f>
+        <v>1000</v>
+      </c>
+      <c r="H287">
+        <f t="shared" si="359"/>
+        <v>8</v>
+      </c>
+      <c r="I287">
+        <f t="shared" si="359"/>
+        <v>0</v>
+      </c>
+      <c r="J287" t="s">
+        <v>60</v>
+      </c>
+      <c r="K287">
+        <f t="shared" si="306"/>
+        <v>59000</v>
+      </c>
+      <c r="L287">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M287">
+        <f>VLOOKUP(A287,Balance!E:L,8,FALSE)/2</f>
+        <v>718250</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288" s="1" t="str">
+        <f t="shared" ref="B288:C288" si="360">B287</f>
+        <v>1-1</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="360"/>
+        <v>9031</v>
+      </c>
+      <c r="D288">
+        <f>VLOOKUP(A288,Balance!E:K,7,FALSE)</f>
+        <v>361625</v>
+      </c>
+      <c r="E288">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F288" s="2">
+        <f>VLOOKUP(A288,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="G288">
+        <f t="shared" ref="G288:I288" si="361">G287</f>
+        <v>1000</v>
+      </c>
+      <c r="H288">
+        <f t="shared" si="361"/>
+        <v>8</v>
+      </c>
+      <c r="I288">
+        <f t="shared" si="361"/>
+        <v>0</v>
+      </c>
+      <c r="J288" t="s">
+        <v>60</v>
+      </c>
+      <c r="K288">
+        <f t="shared" si="306"/>
+        <v>59200</v>
+      </c>
+      <c r="L288">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M288">
+        <f>VLOOKUP(A288,Balance!E:L,8,FALSE)/2</f>
+        <v>723250</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289" s="1" t="str">
+        <f t="shared" ref="B289:C289" si="362">B288</f>
+        <v>1-1</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="362"/>
+        <v>9031</v>
+      </c>
+      <c r="D289">
+        <f>VLOOKUP(A289,Balance!E:K,7,FALSE)</f>
+        <v>364125</v>
+      </c>
+      <c r="E289">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F289" s="2">
+        <f>VLOOKUP(A289,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999997E+162</v>
+      </c>
+      <c r="G289">
+        <f t="shared" ref="G289:I289" si="363">G288</f>
+        <v>1000</v>
+      </c>
+      <c r="H289">
+        <f t="shared" si="363"/>
+        <v>8</v>
+      </c>
+      <c r="I289">
+        <f t="shared" si="363"/>
+        <v>0</v>
+      </c>
+      <c r="J289" t="s">
+        <v>60</v>
+      </c>
+      <c r="K289">
+        <f t="shared" si="306"/>
+        <v>59400</v>
+      </c>
+      <c r="L289">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M289">
+        <f>VLOOKUP(A289,Balance!E:L,8,FALSE)/2</f>
+        <v>728250</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290" s="1" t="str">
+        <f t="shared" ref="B290:C290" si="364">B289</f>
+        <v>1-1</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="364"/>
+        <v>9031</v>
+      </c>
+      <c r="D290">
+        <f>VLOOKUP(A290,Balance!E:K,7,FALSE)</f>
+        <v>366625</v>
+      </c>
+      <c r="E290">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F290" s="2">
+        <f>VLOOKUP(A290,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999994E+162</v>
+      </c>
+      <c r="G290">
+        <f t="shared" ref="G290:I290" si="365">G289</f>
+        <v>1000</v>
+      </c>
+      <c r="H290">
+        <f t="shared" si="365"/>
+        <v>8</v>
+      </c>
+      <c r="I290">
+        <f t="shared" si="365"/>
+        <v>0</v>
+      </c>
+      <c r="J290" t="s">
+        <v>60</v>
+      </c>
+      <c r="K290">
+        <f t="shared" si="306"/>
+        <v>59600</v>
+      </c>
+      <c r="L290">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M290">
+        <f>VLOOKUP(A290,Balance!E:L,8,FALSE)/2</f>
+        <v>733250</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291" s="1" t="str">
+        <f t="shared" ref="B291:C291" si="366">B290</f>
+        <v>1-1</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="366"/>
+        <v>9031</v>
+      </c>
+      <c r="D291">
+        <f>VLOOKUP(A291,Balance!E:K,7,FALSE)</f>
+        <v>369125</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F291" s="2">
+        <f>VLOOKUP(A291,Balance!E:K,3,FALSE)</f>
+        <v>5E+163</v>
+      </c>
+      <c r="G291">
+        <f t="shared" ref="G291:I291" si="367">G290</f>
+        <v>1000</v>
+      </c>
+      <c r="H291">
+        <f t="shared" si="367"/>
+        <v>8</v>
+      </c>
+      <c r="I291">
+        <f t="shared" si="367"/>
+        <v>0</v>
+      </c>
+      <c r="J291" t="s">
+        <v>60</v>
+      </c>
+      <c r="K291">
+        <f t="shared" si="306"/>
+        <v>59800</v>
+      </c>
+      <c r="L291">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M291">
+        <f>VLOOKUP(A291,Balance!E:L,8,FALSE)/2</f>
+        <v>738250</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L283">
+  <conditionalFormatting sqref="A2:L291">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -15684,10 +16090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z290"/>
+  <dimension ref="A1:Z300"/>
   <sheetViews>
     <sheetView topLeftCell="B266" workbookViewId="0">
-      <selection activeCell="I286" sqref="I286"/>
+      <selection activeCell="G295" sqref="G295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17821,8 +18227,20 @@
         <v>37500</v>
       </c>
       <c r="M47" s="22"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
+      <c r="N47" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O47" s="16">
+        <v>160</v>
+      </c>
+      <c r="P47" s="17">
+        <f t="shared" ref="P47:P48" si="23">POWER(10,O47)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="Q47" s="17" t="str">
+        <f t="shared" ref="Q47:Q48" si="24">RIGHT(P47,O47)</f>
+        <v>1E+160</v>
+      </c>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
@@ -17866,8 +18284,20 @@
         <v>39000</v>
       </c>
       <c r="M48" s="22"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
+      <c r="N48" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O48" s="16">
+        <v>164</v>
+      </c>
+      <c r="P48" s="17">
+        <f t="shared" si="23"/>
+        <v>1E+164</v>
+      </c>
+      <c r="Q48" s="17" t="str">
+        <f t="shared" si="24"/>
+        <v>1E+164</v>
+      </c>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
@@ -17911,8 +18341,20 @@
         <v>40500</v>
       </c>
       <c r="M49" s="22"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
+      <c r="N49" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O49" s="16">
+        <v>168</v>
+      </c>
+      <c r="P49" s="17">
+        <f t="shared" ref="P49" si="25">POWER(10,O49)</f>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="Q49" s="17" t="str">
+        <f t="shared" ref="Q49" si="26">RIGHT(P49,O49)</f>
+        <v>1E+168</v>
+      </c>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
@@ -18761,7 +19203,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F132" si="23">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="27">H69&amp;I69</f>
         <v>10극</v>
       </c>
       <c r="G69" s="17">
@@ -18795,7 +19237,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>50극</v>
       </c>
       <c r="G70" s="17">
@@ -18829,7 +19271,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100극</v>
       </c>
       <c r="G71" s="17">
@@ -18863,7 +19305,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>500극</v>
       </c>
       <c r="G72" s="17">
@@ -18897,7 +19339,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000극</v>
       </c>
       <c r="G73" s="17">
@@ -18913,7 +19355,7 @@
         <v>극</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J136" si="24">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="28">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="K73" s="22">
@@ -18931,11 +19373,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5000극</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G137" si="25">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="29">H74*J74</f>
         <v>5E+51</v>
       </c>
       <c r="H74" s="17">
@@ -18947,11 +19389,11 @@
         <v>극</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+48</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" ref="K74:K137" si="26">L74*0.25</f>
+        <f t="shared" ref="K74:K137" si="30">L74*0.25</f>
         <v>22875</v>
       </c>
       <c r="L74" s="22">
@@ -18965,11 +19407,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1항</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="H75" s="17">
@@ -18981,15 +19423,15 @@
         <v>항</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+52</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>23500</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" ref="L75:L138" si="27">L74+500+QUOTIENT(E75,15)*500</f>
+        <f t="shared" ref="L75:L138" si="31">L74+500+QUOTIENT(E75,15)*500</f>
         <v>94000</v>
       </c>
       <c r="M75" s="22"/>
@@ -18999,11 +19441,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5항</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5E+52</v>
       </c>
       <c r="H76" s="17">
@@ -19015,15 +19457,15 @@
         <v>항</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+52</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>24125</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>96500</v>
       </c>
       <c r="M76" s="22"/>
@@ -19033,11 +19475,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10항</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999999E+52</v>
       </c>
       <c r="H77" s="17">
@@ -19049,15 +19491,15 @@
         <v>항</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+52</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>24750</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>99000</v>
       </c>
       <c r="M77" s="22"/>
@@ -19067,11 +19509,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>50항</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000004E+53</v>
       </c>
       <c r="H78" s="17">
@@ -19083,15 +19525,15 @@
         <v>항</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+52</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>25375</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>101500</v>
       </c>
       <c r="M78" s="22"/>
@@ -19101,11 +19543,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100항</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+54</v>
       </c>
       <c r="H79" s="17">
@@ -19117,15 +19559,15 @@
         <v>항</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+52</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>26000</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>104000</v>
       </c>
       <c r="M79" s="22"/>
@@ -19135,11 +19577,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>500항</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000001E+54</v>
       </c>
       <c r="H80" s="17">
@@ -19151,15 +19593,15 @@
         <v>항</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+52</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>26625</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>106500</v>
       </c>
       <c r="M80" s="22"/>
@@ -19169,11 +19611,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000항</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1E+55</v>
       </c>
       <c r="H81" s="17">
@@ -19185,15 +19627,15 @@
         <v>항</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+52</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>27250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>109000</v>
       </c>
       <c r="M81" s="22"/>
@@ -19203,15 +19645,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5000항</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000005E+55</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" ref="H82:H145" si="28">H74</f>
+        <f t="shared" ref="H82:H145" si="32">H74</f>
         <v>5000</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -19219,11 +19661,11 @@
         <v>항</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+52</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>27875</v>
       </c>
       <c r="L82" s="22">
@@ -19237,15 +19679,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1아</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -19253,15 +19695,15 @@
         <v>아</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+56</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>28500</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>114000</v>
       </c>
       <c r="M83" s="22"/>
@@ -19271,15 +19713,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5아</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000002E+56</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -19287,15 +19729,15 @@
         <v>아</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+56</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>29250</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>117000</v>
       </c>
       <c r="M84" s="22"/>
@@ -19305,15 +19747,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10아</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1E+57</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -19321,15 +19763,15 @@
         <v>아</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+56</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>30000</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>120000</v>
       </c>
       <c r="M85" s="22"/>
@@ -19339,15 +19781,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>50아</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000004E+57</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -19355,15 +19797,15 @@
         <v>아</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+56</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>30750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>123000</v>
       </c>
       <c r="M86" s="22"/>
@@ -19373,15 +19815,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100아</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+58</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -19389,15 +19831,15 @@
         <v>아</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+56</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>31500</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>126000</v>
       </c>
       <c r="M87" s="22"/>
@@ -19407,15 +19849,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>500아</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000004E+58</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -19423,15 +19865,15 @@
         <v>아</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+56</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>32250</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>129000</v>
       </c>
       <c r="M88" s="22"/>
@@ -19441,15 +19883,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000아</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+59</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -19457,15 +19899,15 @@
         <v>아</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+56</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>33000</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>132000</v>
       </c>
       <c r="M89" s="22"/>
@@ -19475,15 +19917,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5000아</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000006E+59</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5000</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -19491,15 +19933,15 @@
         <v>아</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+56</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>33750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>135000</v>
       </c>
       <c r="M90" s="22"/>
@@ -19509,15 +19951,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1나</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -19525,15 +19967,15 @@
         <v>나</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+60</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>34500</v>
       </c>
       <c r="L91" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>138000</v>
       </c>
       <c r="M91" s="22"/>
@@ -19543,15 +19985,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5나</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999997E+60</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -19559,15 +20001,15 @@
         <v>나</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+60</v>
       </c>
       <c r="K92" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>35250</v>
       </c>
       <c r="L92" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>141000</v>
       </c>
       <c r="M92" s="22"/>
@@ -19577,15 +20019,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10나</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999995E+60</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -19593,15 +20035,15 @@
         <v>나</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+60</v>
       </c>
       <c r="K93" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>36000</v>
       </c>
       <c r="L93" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>144000</v>
       </c>
       <c r="M93" s="22"/>
@@ -19611,15 +20053,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>50나</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999996E+61</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -19627,15 +20069,15 @@
         <v>나</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+60</v>
       </c>
       <c r="K94" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>36750</v>
       </c>
       <c r="L94" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>147000</v>
       </c>
       <c r="M94" s="22"/>
@@ -19645,15 +20087,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100나</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999992E+61</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -19661,15 +20103,15 @@
         <v>나</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+60</v>
       </c>
       <c r="K95" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>37500</v>
       </c>
       <c r="L95" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>150000</v>
       </c>
       <c r="M95" s="22"/>
@@ -19679,15 +20121,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>500나</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999994E+62</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -19695,15 +20137,15 @@
         <v>나</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+60</v>
       </c>
       <c r="K96" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>38250</v>
       </c>
       <c r="L96" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>153000</v>
       </c>
       <c r="M96" s="22"/>
@@ -19713,15 +20155,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000나</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999988E+62</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -19729,15 +20171,15 @@
         <v>나</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+60</v>
       </c>
       <c r="K97" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>39000</v>
       </c>
       <c r="L97" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>156000</v>
       </c>
       <c r="M97" s="22"/>
@@ -19747,15 +20189,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5000나</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000001E+63</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5000</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -19763,15 +20205,15 @@
         <v>나</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+60</v>
       </c>
       <c r="K98" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>39750</v>
       </c>
       <c r="L98" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>159000</v>
       </c>
       <c r="M98" s="22"/>
@@ -19781,15 +20223,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1불</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1E+64</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -19797,15 +20239,15 @@
         <v>불</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+64</v>
       </c>
       <c r="K99" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>40625</v>
       </c>
       <c r="L99" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>162500</v>
       </c>
       <c r="M99" s="22"/>
@@ -19815,15 +20257,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5불</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5E+64</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -19831,15 +20273,15 @@
         <v>불</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+64</v>
       </c>
       <c r="K100" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>41500</v>
       </c>
       <c r="L100" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>166000</v>
       </c>
       <c r="M100" s="22"/>
@@ -19849,15 +20291,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10불</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999999E+64</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -19865,15 +20307,15 @@
         <v>불</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+64</v>
       </c>
       <c r="K101" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>42375</v>
       </c>
       <c r="L101" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>169500</v>
       </c>
       <c r="M101" s="22"/>
@@ -19883,15 +20325,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>50불</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999997E+65</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -19899,15 +20341,15 @@
         <v>불</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+64</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>43250</v>
       </c>
       <c r="L102" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>173000</v>
       </c>
       <c r="M102" s="22"/>
@@ -19917,15 +20359,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100불</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999995E+65</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -19933,15 +20375,15 @@
         <v>불</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+64</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>44125</v>
       </c>
       <c r="L103" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>176500</v>
       </c>
       <c r="M103" s="22"/>
@@ -19951,15 +20393,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>500불</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999999E+66</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -19967,15 +20409,15 @@
         <v>불</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+64</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>45000</v>
       </c>
       <c r="L104" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>180000</v>
       </c>
       <c r="M104" s="22"/>
@@ -19985,15 +20427,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000불</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999998E+66</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -20001,15 +20443,15 @@
         <v>불</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+64</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>45875</v>
       </c>
       <c r="L105" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>183500</v>
       </c>
       <c r="M105" s="22"/>
@@ -20019,15 +20461,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5000불</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000004E+67</v>
       </c>
       <c r="H106" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5000</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -20035,15 +20477,15 @@
         <v>불</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+64</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>46750</v>
       </c>
       <c r="L106" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>187000</v>
       </c>
       <c r="M106" s="22"/>
@@ -20053,15 +20495,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1무</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="H107" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -20069,15 +20511,15 @@
         <v>무</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+68</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>47625</v>
       </c>
       <c r="L107" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>190500</v>
       </c>
       <c r="M107" s="22"/>
@@ -20087,15 +20529,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5무</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999994E+68</v>
       </c>
       <c r="H108" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -20103,15 +20545,15 @@
         <v>무</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+68</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>48500</v>
       </c>
       <c r="L108" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>194000</v>
       </c>
       <c r="M108" s="22"/>
@@ -20121,15 +20563,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10무</v>
       </c>
       <c r="G109" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999988E+68</v>
       </c>
       <c r="H109" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -20137,15 +20579,15 @@
         <v>무</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+68</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>49375</v>
       </c>
       <c r="L109" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>197500</v>
       </c>
       <c r="M109" s="22"/>
@@ -20155,15 +20597,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>50무</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999996E+69</v>
       </c>
       <c r="H110" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -20171,15 +20613,15 @@
         <v>무</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+68</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>50250</v>
       </c>
       <c r="L110" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>201000</v>
       </c>
       <c r="M110" s="22"/>
@@ -20189,15 +20631,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100무</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="H111" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -20205,15 +20647,15 @@
         <v>무</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+68</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>51125</v>
       </c>
       <c r="L111" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>204500</v>
       </c>
       <c r="M111" s="22"/>
@@ -20223,15 +20665,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>500무</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999996E+70</v>
       </c>
       <c r="H112" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -20239,15 +20681,15 @@
         <v>무</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+68</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>52000</v>
       </c>
       <c r="L112" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>208000</v>
       </c>
       <c r="M112" s="22"/>
@@ -20257,15 +20699,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000무</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -20273,15 +20715,15 @@
         <v>무</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+68</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>52875</v>
       </c>
       <c r="L113" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>211500</v>
       </c>
       <c r="M113" s="22"/>
@@ -20291,15 +20733,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5000무</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999997E+71</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5000</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -20307,15 +20749,15 @@
         <v>무</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+68</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>53875</v>
       </c>
       <c r="L114" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>215500</v>
       </c>
       <c r="M114" s="22"/>
@@ -20325,15 +20767,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1대</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -20341,15 +20783,15 @@
         <v>대</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+72</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>54875</v>
       </c>
       <c r="L115" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>219500</v>
       </c>
       <c r="M115" s="22"/>
@@ -20359,15 +20801,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5대</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999999E+72</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -20375,15 +20817,15 @@
         <v>대</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+72</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>55875</v>
       </c>
       <c r="L116" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>223500</v>
       </c>
       <c r="M116" s="22"/>
@@ -20393,15 +20835,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10대</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -20409,15 +20851,15 @@
         <v>대</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+72</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>56875</v>
       </c>
       <c r="L117" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>227500</v>
       </c>
       <c r="M117" s="22"/>
@@ -20427,15 +20869,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>50대</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999998E+73</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -20443,15 +20885,15 @@
         <v>대</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+72</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>57875</v>
       </c>
       <c r="L118" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>231500</v>
       </c>
       <c r="M118" s="22"/>
@@ -20461,15 +20903,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100대</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -20477,15 +20919,15 @@
         <v>대</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+72</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>58875</v>
       </c>
       <c r="L119" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>235500</v>
       </c>
       <c r="M119" s="22"/>
@@ -20495,15 +20937,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>500대</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999996E+74</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -20511,15 +20953,15 @@
         <v>대</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+72</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>59875</v>
       </c>
       <c r="L120" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>239500</v>
       </c>
       <c r="M120" s="22"/>
@@ -20529,15 +20971,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000대</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -20545,15 +20987,15 @@
         <v>대</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+72</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>60875</v>
       </c>
       <c r="L121" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>243500</v>
       </c>
       <c r="M121" s="22"/>
@@ -20563,15 +21005,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5000대</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999994E+75</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5000</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -20579,15 +21021,15 @@
         <v>대</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+72</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>61875</v>
       </c>
       <c r="L122" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>247500</v>
       </c>
       <c r="M122" s="22"/>
@@ -20597,15 +21039,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1겁</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1E+76</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -20613,15 +21055,15 @@
         <v>겁</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+76</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>62875</v>
       </c>
       <c r="L123" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>251500</v>
       </c>
       <c r="M123" s="22"/>
@@ -20631,15 +21073,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5겁</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000006E+76</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -20647,15 +21089,15 @@
         <v>겁</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+76</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>63875</v>
       </c>
       <c r="L124" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>255500</v>
       </c>
       <c r="M124" s="22"/>
@@ -20665,15 +21107,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10겁</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -20681,15 +21123,15 @@
         <v>겁</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+76</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>64875</v>
       </c>
       <c r="L125" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>259500</v>
       </c>
       <c r="M125" s="22"/>
@@ -20699,15 +21141,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>50겁</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5E+77</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -20715,15 +21157,15 @@
         <v>겁</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+76</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>65875</v>
       </c>
       <c r="L126" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>263500</v>
       </c>
       <c r="M126" s="22"/>
@@ -20733,15 +21175,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100겁</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1E+78</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -20749,15 +21191,15 @@
         <v>겁</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+76</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>66875</v>
       </c>
       <c r="L127" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>267500</v>
       </c>
       <c r="M127" s="22"/>
@@ -20767,15 +21209,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>500겁</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999998E+78</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -20783,15 +21225,15 @@
         <v>겁</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+76</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>67875</v>
       </c>
       <c r="L128" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>271500</v>
       </c>
       <c r="M128" s="22"/>
@@ -20801,15 +21243,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1000겁</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -20817,15 +21259,15 @@
         <v>겁</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+76</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>69000</v>
       </c>
       <c r="L129" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>276000</v>
       </c>
       <c r="M129" s="22"/>
@@ -20835,15 +21277,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5000겁</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5E+79</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5000</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -20851,15 +21293,15 @@
         <v>겁</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+76</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>70125</v>
       </c>
       <c r="L130" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>280500</v>
       </c>
       <c r="M130" s="22"/>
@@ -20869,15 +21311,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1업</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1E+80</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -20885,15 +21327,15 @@
         <v>업</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+80</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>71250</v>
       </c>
       <c r="L131" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>285000</v>
       </c>
       <c r="M131" s="22"/>
@@ -20903,15 +21345,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5업</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999996E+80</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -20919,15 +21361,15 @@
         <v>업</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+80</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>72375</v>
       </c>
       <c r="L132" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>289500</v>
       </c>
       <c r="M132" s="22"/>
@@ -20937,15 +21379,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" ref="F133:F184" si="29">H133&amp;I133</f>
+        <f t="shared" ref="F133:F184" si="33">H133&amp;I133</f>
         <v>10업</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -20953,15 +21395,15 @@
         <v>업</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+80</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>73500</v>
       </c>
       <c r="L133" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>294000</v>
       </c>
       <c r="M133" s="22"/>
@@ -20971,15 +21413,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
+        <f t="shared" si="33"/>
+        <v>50업</v>
+      </c>
+      <c r="G134" s="17">
         <f t="shared" si="29"/>
-        <v>50업</v>
-      </c>
-      <c r="G134" s="17">
-        <f t="shared" si="25"/>
         <v>4.9999999999999998E+81</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -20987,15 +21429,15 @@
         <v>업</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+80</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>74625</v>
       </c>
       <c r="L134" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>298500</v>
       </c>
       <c r="M134" s="22"/>
@@ -21005,15 +21447,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
+        <f t="shared" si="33"/>
+        <v>100업</v>
+      </c>
+      <c r="G135" s="17">
         <f t="shared" si="29"/>
-        <v>100업</v>
-      </c>
-      <c r="G135" s="17">
-        <f t="shared" si="25"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -21021,15 +21463,15 @@
         <v>업</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+80</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>75750</v>
       </c>
       <c r="L135" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>303000</v>
       </c>
       <c r="M135" s="22"/>
@@ -21039,15 +21481,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
+        <f t="shared" si="33"/>
+        <v>500업</v>
+      </c>
+      <c r="G136" s="17">
         <f t="shared" si="29"/>
-        <v>500업</v>
-      </c>
-      <c r="G136" s="17">
-        <f t="shared" si="25"/>
         <v>5.0000000000000002E+82</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -21055,15 +21497,15 @@
         <v>업</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1E+80</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>76875</v>
       </c>
       <c r="L136" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>307500</v>
       </c>
       <c r="M136" s="22"/>
@@ -21073,15 +21515,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="17" t="str">
+        <f t="shared" si="33"/>
+        <v>1000업</v>
+      </c>
+      <c r="G137" s="17">
         <f t="shared" si="29"/>
-        <v>1000업</v>
-      </c>
-      <c r="G137" s="17">
-        <f t="shared" si="25"/>
         <v>1E+83</v>
       </c>
       <c r="H137" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I137" s="16" t="str" cm="1">
@@ -21089,15 +21531,15 @@
         <v>업</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" ref="J137:J200" si="30">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="34">VLOOKUP(I137,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>78000</v>
       </c>
       <c r="L137" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>312000</v>
       </c>
       <c r="M137" s="22"/>
@@ -21107,15 +21549,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5000업</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" ref="G138:G184" si="31">H138*J138</f>
+        <f t="shared" ref="G138:G184" si="35">H138*J138</f>
         <v>5.0000000000000003E+83</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5000</v>
       </c>
       <c r="I138" s="16" t="str" cm="1">
@@ -21123,15 +21565,15 @@
         <v>업</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+80</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" ref="K138:K184" si="32">L138*0.25</f>
+        <f t="shared" ref="K138:K184" si="36">L138*0.25</f>
         <v>79125</v>
       </c>
       <c r="L138" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>316500</v>
       </c>
       <c r="M138" s="22"/>
@@ -21141,15 +21583,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1긍</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I139" s="16" t="str" cm="1">
@@ -21157,15 +21599,15 @@
         <v>긍</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+84</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>80250</v>
       </c>
       <c r="L139" s="22">
-        <f t="shared" ref="L139:L184" si="33">L138+500+QUOTIENT(E139,15)*500</f>
+        <f t="shared" ref="L139:L184" si="37">L138+500+QUOTIENT(E139,15)*500</f>
         <v>321000</v>
       </c>
       <c r="M139" s="22"/>
@@ -21175,15 +21617,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5긍</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000001E+84</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I140" s="16" t="str" cm="1">
@@ -21191,15 +21633,15 @@
         <v>긍</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+84</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>81375</v>
       </c>
       <c r="L140" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>325500</v>
       </c>
       <c r="M140" s="22"/>
@@ -21209,15 +21651,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>10긍</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1E+85</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="I141" s="16" t="str" cm="1">
@@ -21225,15 +21667,15 @@
         <v>긍</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+84</v>
       </c>
       <c r="K141" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>82500</v>
       </c>
       <c r="L141" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>330000</v>
       </c>
       <c r="M141" s="22"/>
@@ -21243,15 +21685,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>50긍</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000001E+85</v>
       </c>
       <c r="H142" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="I142" s="16" t="str" cm="1">
@@ -21259,15 +21701,15 @@
         <v>긍</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+84</v>
       </c>
       <c r="K142" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>83625</v>
       </c>
       <c r="L142" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>334500</v>
       </c>
       <c r="M142" s="22"/>
@@ -21277,15 +21719,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100긍</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1E+86</v>
       </c>
       <c r="H143" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="I143" s="16" t="str" cm="1">
@@ -21293,15 +21735,15 @@
         <v>긍</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+84</v>
       </c>
       <c r="K143" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>84750</v>
       </c>
       <c r="L143" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>339000</v>
       </c>
       <c r="M143" s="22"/>
@@ -21311,15 +21753,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>500긍</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999998E+86</v>
       </c>
       <c r="H144" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>500</v>
       </c>
       <c r="I144" s="16" t="str" cm="1">
@@ -21327,15 +21769,15 @@
         <v>긍</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+84</v>
       </c>
       <c r="K144" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>86000</v>
       </c>
       <c r="L144" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>344000</v>
       </c>
       <c r="M144" s="22"/>
@@ -21345,15 +21787,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1000긍</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="H145" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1000</v>
       </c>
       <c r="I145" s="16" t="str" cm="1">
@@ -21361,15 +21803,15 @@
         <v>긍</v>
       </c>
       <c r="J145" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+84</v>
       </c>
       <c r="K145" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>87250</v>
       </c>
       <c r="L145" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>349000</v>
       </c>
       <c r="M145" s="22"/>
@@ -21379,15 +21821,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5000긍</v>
       </c>
       <c r="G146" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000007E+87</v>
       </c>
       <c r="H146" s="17">
-        <f t="shared" ref="H146:H290" si="34">H138</f>
+        <f t="shared" ref="H146:H300" si="38">H138</f>
         <v>5000</v>
       </c>
       <c r="I146" s="16" t="str" cm="1">
@@ -21395,15 +21837,15 @@
         <v>긍</v>
       </c>
       <c r="J146" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+84</v>
       </c>
       <c r="K146" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>88500</v>
       </c>
       <c r="L146" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>354000</v>
       </c>
       <c r="M146" s="22"/>
@@ -21413,15 +21855,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1갈</v>
       </c>
       <c r="G147" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="H147" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I147" s="16" t="str" cm="1">
@@ -21429,15 +21871,15 @@
         <v>갈</v>
       </c>
       <c r="J147" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+88</v>
       </c>
       <c r="K147" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>89750</v>
       </c>
       <c r="L147" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>359000</v>
       </c>
       <c r="M147" s="22"/>
@@ -21447,15 +21889,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5갈</v>
       </c>
       <c r="G148" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5E+88</v>
       </c>
       <c r="H148" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I148" s="16" t="str" cm="1">
@@ -21463,15 +21905,15 @@
         <v>갈</v>
       </c>
       <c r="J148" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+88</v>
       </c>
       <c r="K148" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>91000</v>
       </c>
       <c r="L148" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>364000</v>
       </c>
       <c r="M148" s="22"/>
@@ -21481,15 +21923,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>10갈</v>
       </c>
       <c r="G149" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="H149" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I149" s="16" t="str" cm="1">
@@ -21497,15 +21939,15 @@
         <v>갈</v>
       </c>
       <c r="J149" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+88</v>
       </c>
       <c r="K149" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>92250</v>
       </c>
       <c r="L149" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>369000</v>
       </c>
       <c r="M149" s="22"/>
@@ -21515,15 +21957,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>50갈</v>
       </c>
       <c r="G150" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999998E+89</v>
       </c>
       <c r="H150" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I150" s="16" t="str" cm="1">
@@ -21531,15 +21973,15 @@
         <v>갈</v>
       </c>
       <c r="J150" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+88</v>
       </c>
       <c r="K150" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>93500</v>
       </c>
       <c r="L150" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>374000</v>
       </c>
       <c r="M150" s="22"/>
@@ -21549,15 +21991,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100갈</v>
       </c>
       <c r="G151" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="H151" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I151" s="16" t="str" cm="1">
@@ -21565,15 +22007,15 @@
         <v>갈</v>
       </c>
       <c r="J151" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+88</v>
       </c>
       <c r="K151" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>94750</v>
       </c>
       <c r="L151" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>379000</v>
       </c>
       <c r="M151" s="22"/>
@@ -21583,15 +22025,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>500갈</v>
       </c>
       <c r="G152" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999995E+90</v>
       </c>
       <c r="H152" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I152" s="16" t="str" cm="1">
@@ -21599,15 +22041,15 @@
         <v>갈</v>
       </c>
       <c r="J152" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+88</v>
       </c>
       <c r="K152" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>96000</v>
       </c>
       <c r="L152" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>384000</v>
       </c>
       <c r="M152" s="22"/>
@@ -21617,15 +22059,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1000갈</v>
       </c>
       <c r="G153" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="H153" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I153" s="16" t="str" cm="1">
@@ -21633,15 +22075,15 @@
         <v>갈</v>
       </c>
       <c r="J153" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+88</v>
       </c>
       <c r="K153" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>97250</v>
       </c>
       <c r="L153" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>389000</v>
       </c>
       <c r="M153" s="22"/>
@@ -21651,15 +22093,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5000갈</v>
       </c>
       <c r="G154" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999995E+91</v>
       </c>
       <c r="H154" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I154" s="16" t="str" cm="1">
@@ -21667,15 +22109,15 @@
         <v>갈</v>
       </c>
       <c r="J154" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+88</v>
       </c>
       <c r="K154" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>98500</v>
       </c>
       <c r="L154" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>394000</v>
       </c>
       <c r="M154" s="22"/>
@@ -21685,15 +22127,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1라</v>
       </c>
       <c r="G155" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1E+92</v>
       </c>
       <c r="H155" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I155" s="16" t="str" cm="1">
@@ -21701,15 +22143,15 @@
         <v>라</v>
       </c>
       <c r="J155" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+92</v>
       </c>
       <c r="K155" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>99750</v>
       </c>
       <c r="L155" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>399000</v>
       </c>
       <c r="M155" s="22"/>
@@ -21719,15 +22161,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5라</v>
       </c>
       <c r="G156" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000002E+92</v>
       </c>
       <c r="H156" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I156" s="16" t="str" cm="1">
@@ -21735,15 +22177,15 @@
         <v>라</v>
       </c>
       <c r="J156" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+92</v>
       </c>
       <c r="K156" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>101000</v>
       </c>
       <c r="L156" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>404000</v>
       </c>
       <c r="M156" s="22"/>
@@ -21753,15 +22195,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>10라</v>
       </c>
       <c r="G157" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1E+93</v>
       </c>
       <c r="H157" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I157" s="16" t="str" cm="1">
@@ -21769,15 +22211,15 @@
         <v>라</v>
       </c>
       <c r="J157" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+92</v>
       </c>
       <c r="K157" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>102250</v>
       </c>
       <c r="L157" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>409000</v>
       </c>
       <c r="M157" s="22"/>
@@ -21787,15 +22229,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>50라</v>
       </c>
       <c r="G158" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000001E+93</v>
       </c>
       <c r="H158" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I158" s="16" t="str" cm="1">
@@ -21803,15 +22245,15 @@
         <v>라</v>
       </c>
       <c r="J158" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+92</v>
       </c>
       <c r="K158" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>103500</v>
       </c>
       <c r="L158" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>414000</v>
       </c>
       <c r="M158" s="22"/>
@@ -21821,15 +22263,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100라</v>
       </c>
       <c r="G159" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1E+94</v>
       </c>
       <c r="H159" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I159" s="16" t="str" cm="1">
@@ -21837,15 +22279,15 @@
         <v>라</v>
       </c>
       <c r="J159" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+92</v>
       </c>
       <c r="K159" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>104875</v>
       </c>
       <c r="L159" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>419500</v>
       </c>
       <c r="M159" s="22"/>
@@ -21855,15 +22297,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>500라</v>
       </c>
       <c r="G160" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000001E+94</v>
       </c>
       <c r="H160" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I160" s="16" t="str" cm="1">
@@ -21871,15 +22313,15 @@
         <v>라</v>
       </c>
       <c r="J160" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+92</v>
       </c>
       <c r="K160" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>106250</v>
       </c>
       <c r="L160" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>425000</v>
       </c>
       <c r="M160" s="22"/>
@@ -21889,15 +22331,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1000라</v>
       </c>
       <c r="G161" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1E+95</v>
       </c>
       <c r="H161" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I161" s="16" t="str" cm="1">
@@ -21905,15 +22347,15 @@
         <v>라</v>
       </c>
       <c r="J161" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+92</v>
       </c>
       <c r="K161" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>107625</v>
       </c>
       <c r="L161" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>430500</v>
       </c>
       <c r="M161" s="22"/>
@@ -21923,15 +22365,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5000라</v>
       </c>
       <c r="G162" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000002E+95</v>
       </c>
       <c r="H162" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I162" s="16" t="str" cm="1">
@@ -21939,15 +22381,15 @@
         <v>라</v>
       </c>
       <c r="J162" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+92</v>
       </c>
       <c r="K162" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>109000</v>
       </c>
       <c r="L162" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>436000</v>
       </c>
       <c r="M162" s="22"/>
@@ -21957,15 +22399,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1가</v>
       </c>
       <c r="G163" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1E+96</v>
       </c>
       <c r="H163" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I163" s="16" t="str" cm="1">
@@ -21973,15 +22415,15 @@
         <v>가</v>
       </c>
       <c r="J163" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+96</v>
       </c>
       <c r="K163" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>110375</v>
       </c>
       <c r="L163" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>441500</v>
       </c>
       <c r="M163" s="22"/>
@@ -21991,15 +22433,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5가</v>
       </c>
       <c r="G164" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H164" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I164" s="16" t="str" cm="1">
@@ -22007,15 +22449,15 @@
         <v>가</v>
       </c>
       <c r="J164" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+96</v>
       </c>
       <c r="K164" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>111750</v>
       </c>
       <c r="L164" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>447000</v>
       </c>
       <c r="M164" s="22"/>
@@ -22025,15 +22467,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>10가</v>
       </c>
       <c r="G165" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H165" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I165" s="16" t="str" cm="1">
@@ -22041,15 +22483,15 @@
         <v>가</v>
       </c>
       <c r="J165" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+96</v>
       </c>
       <c r="K165" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>113125</v>
       </c>
       <c r="L165" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>452500</v>
       </c>
       <c r="M165" s="22"/>
@@ -22059,15 +22501,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>50가</v>
       </c>
       <c r="G166" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5E+97</v>
       </c>
       <c r="H166" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I166" s="16" t="str" cm="1">
@@ -22075,15 +22517,15 @@
         <v>가</v>
       </c>
       <c r="J166" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+96</v>
       </c>
       <c r="K166" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>114500</v>
       </c>
       <c r="L166" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>458000</v>
       </c>
       <c r="M166" s="22"/>
@@ -22093,15 +22535,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100가</v>
       </c>
       <c r="G167" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1E+98</v>
       </c>
       <c r="H167" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I167" s="16" t="str" cm="1">
@@ -22109,15 +22551,15 @@
         <v>가</v>
       </c>
       <c r="J167" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+96</v>
       </c>
       <c r="K167" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>115875</v>
       </c>
       <c r="L167" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>463500</v>
       </c>
       <c r="M167" s="22"/>
@@ -22127,15 +22569,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>500가</v>
       </c>
       <c r="G168" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H168" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I168" s="16" t="str" cm="1">
@@ -22143,15 +22585,15 @@
         <v>가</v>
       </c>
       <c r="J168" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+96</v>
       </c>
       <c r="K168" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>117250</v>
       </c>
       <c r="L168" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>469000</v>
       </c>
       <c r="M168" s="22"/>
@@ -22161,15 +22603,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1000가</v>
       </c>
       <c r="G169" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H169" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I169" s="16" t="str" cm="1">
@@ -22177,15 +22619,15 @@
         <v>가</v>
       </c>
       <c r="J169" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+96</v>
       </c>
       <c r="K169" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>118625</v>
       </c>
       <c r="L169" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>474500</v>
       </c>
       <c r="M169" s="22"/>
@@ -22195,15 +22637,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5000가</v>
       </c>
       <c r="G170" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H170" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I170" s="16" t="str" cm="1">
@@ -22211,15 +22653,15 @@
         <v>가</v>
       </c>
       <c r="J170" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+96</v>
       </c>
       <c r="K170" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>120000</v>
       </c>
       <c r="L170" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>480000</v>
       </c>
       <c r="M170" s="22"/>
@@ -22229,15 +22671,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1언</v>
       </c>
       <c r="G171" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1E+100</v>
       </c>
       <c r="H171" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I171" s="16" t="str" cm="1">
@@ -22245,15 +22687,15 @@
         <v>언</v>
       </c>
       <c r="J171" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+100</v>
       </c>
       <c r="K171" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>121375</v>
       </c>
       <c r="L171" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>485500</v>
       </c>
       <c r="M171" s="22"/>
@@ -22263,15 +22705,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5언</v>
       </c>
       <c r="G172" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H172" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I172" s="16" t="str" cm="1">
@@ -22279,15 +22721,15 @@
         <v>언</v>
       </c>
       <c r="J172" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+100</v>
       </c>
       <c r="K172" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>122750</v>
       </c>
       <c r="L172" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>491000</v>
       </c>
       <c r="M172" s="22"/>
@@ -22297,15 +22739,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>10언</v>
       </c>
       <c r="G173" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H173" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I173" s="16" t="str" cm="1">
@@ -22313,15 +22755,15 @@
         <v>언</v>
       </c>
       <c r="J173" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+100</v>
       </c>
       <c r="K173" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>124125</v>
       </c>
       <c r="L173" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>496500</v>
       </c>
       <c r="M173" s="22"/>
@@ -22331,15 +22773,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>50언</v>
       </c>
       <c r="G174" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H174" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I174" s="16" t="str" cm="1">
@@ -22347,15 +22789,15 @@
         <v>언</v>
       </c>
       <c r="J174" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+100</v>
       </c>
       <c r="K174" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>125625</v>
       </c>
       <c r="L174" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>502500</v>
       </c>
       <c r="M174" s="22"/>
@@ -22365,15 +22807,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100언</v>
       </c>
       <c r="G175" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H175" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I175" s="16" t="str" cm="1">
@@ -22381,15 +22823,15 @@
         <v>언</v>
       </c>
       <c r="J175" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+100</v>
       </c>
       <c r="K175" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>127125</v>
       </c>
       <c r="L175" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>508500</v>
       </c>
       <c r="M175" s="22"/>
@@ -22399,15 +22841,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>500언</v>
       </c>
       <c r="G176" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5E+102</v>
       </c>
       <c r="H176" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I176" s="16" t="str" cm="1">
@@ -22415,15 +22857,15 @@
         <v>언</v>
       </c>
       <c r="J176" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+100</v>
       </c>
       <c r="K176" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>128625</v>
       </c>
       <c r="L176" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>514500</v>
       </c>
       <c r="M176" s="22"/>
@@ -22433,15 +22875,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1000언</v>
       </c>
       <c r="G177" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1E+103</v>
       </c>
       <c r="H177" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I177" s="16" t="str" cm="1">
@@ -22449,15 +22891,15 @@
         <v>언</v>
       </c>
       <c r="J177" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+100</v>
       </c>
       <c r="K177" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>130125</v>
       </c>
       <c r="L177" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>520500</v>
       </c>
       <c r="M177" s="22"/>
@@ -22467,15 +22909,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5000언</v>
       </c>
       <c r="G178" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5E+103</v>
       </c>
       <c r="H178" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I178" s="16" t="str" cm="1">
@@ -22483,15 +22925,15 @@
         <v>언</v>
       </c>
       <c r="J178" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+100</v>
       </c>
       <c r="K178" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>131625</v>
       </c>
       <c r="L178" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>526500</v>
       </c>
       <c r="M178" s="22"/>
@@ -22501,15 +22943,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1승</v>
       </c>
       <c r="G179" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1E+104</v>
       </c>
       <c r="H179" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I179" s="16" t="str" cm="1">
@@ -22517,15 +22959,15 @@
         <v>승</v>
       </c>
       <c r="J179" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+104</v>
       </c>
       <c r="K179" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>133125</v>
       </c>
       <c r="L179" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>532500</v>
       </c>
       <c r="M179" s="22"/>
@@ -22535,15 +22977,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5승</v>
       </c>
       <c r="G180" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H180" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I180" s="16" t="str" cm="1">
@@ -22551,15 +22993,15 @@
         <v>승</v>
       </c>
       <c r="J180" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+104</v>
       </c>
       <c r="K180" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>134625</v>
       </c>
       <c r="L180" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>538500</v>
       </c>
       <c r="M180" s="22"/>
@@ -22569,15 +23011,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>10승</v>
       </c>
       <c r="G181" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H181" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I181" s="16" t="str" cm="1">
@@ -22585,15 +23027,15 @@
         <v>승</v>
       </c>
       <c r="J181" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+104</v>
       </c>
       <c r="K181" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>136125</v>
       </c>
       <c r="L181" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>544500</v>
       </c>
       <c r="M181" s="22"/>
@@ -22603,15 +23045,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>50승</v>
       </c>
       <c r="G182" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H182" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I182" s="16" t="str" cm="1">
@@ -22619,15 +23061,15 @@
         <v>승</v>
       </c>
       <c r="J182" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+104</v>
       </c>
       <c r="K182" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>137625</v>
       </c>
       <c r="L182" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>550500</v>
       </c>
       <c r="M182" s="22"/>
@@ -22637,15 +23079,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100승</v>
       </c>
       <c r="G183" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H183" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I183" s="16" t="str" cm="1">
@@ -22653,15 +23095,15 @@
         <v>승</v>
       </c>
       <c r="J183" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+104</v>
       </c>
       <c r="K183" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>139125</v>
       </c>
       <c r="L183" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>556500</v>
       </c>
       <c r="M183" s="22"/>
@@ -22671,15 +23113,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>500승</v>
       </c>
       <c r="G184" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H184" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I184" s="16" t="str" cm="1">
@@ -22687,15 +23129,15 @@
         <v>승</v>
       </c>
       <c r="J184" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+104</v>
       </c>
       <c r="K184" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>140625</v>
       </c>
       <c r="L184" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>562500</v>
       </c>
       <c r="M184" s="22"/>
@@ -22705,15 +23147,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="17" t="str">
-        <f t="shared" ref="F185:F234" si="35">H185&amp;I185</f>
+        <f t="shared" ref="F185:F234" si="39">H185&amp;I185</f>
         <v>1000승</v>
       </c>
       <c r="G185" s="17">
-        <f t="shared" ref="G185:G234" si="36">H185*J185</f>
+        <f t="shared" ref="G185:G234" si="40">H185*J185</f>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H185" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I185" s="16" t="str" cm="1">
@@ -22721,15 +23163,15 @@
         <v>승</v>
       </c>
       <c r="J185" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+104</v>
       </c>
       <c r="K185" s="22">
-        <f t="shared" ref="K185:K234" si="37">L185*0.25</f>
+        <f t="shared" ref="K185:K234" si="41">L185*0.25</f>
         <v>142125</v>
       </c>
       <c r="L185" s="22">
-        <f t="shared" ref="L185:L234" si="38">L184+500+QUOTIENT(E185,15)*500</f>
+        <f t="shared" ref="L185:L234" si="42">L184+500+QUOTIENT(E185,15)*500</f>
         <v>568500</v>
       </c>
     </row>
@@ -22738,15 +23180,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5000승</v>
       </c>
       <c r="G186" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000002E+107</v>
       </c>
       <c r="H186" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I186" s="16" t="str" cm="1">
@@ -22754,15 +23196,15 @@
         <v>승</v>
       </c>
       <c r="J186" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+104</v>
       </c>
       <c r="K186" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>143625</v>
       </c>
       <c r="L186" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>574500</v>
       </c>
     </row>
@@ -22771,15 +23213,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1마</v>
       </c>
       <c r="G187" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1E+108</v>
       </c>
       <c r="H187" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I187" s="16" t="str" cm="1">
@@ -22787,15 +23229,15 @@
         <v>마</v>
       </c>
       <c r="J187" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+108</v>
       </c>
       <c r="K187" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>145125</v>
       </c>
       <c r="L187" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>580500</v>
       </c>
     </row>
@@ -22804,15 +23246,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5마</v>
       </c>
       <c r="G188" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999999E+108</v>
       </c>
       <c r="H188" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I188" s="16" t="str" cm="1">
@@ -22820,15 +23262,15 @@
         <v>마</v>
       </c>
       <c r="J188" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+108</v>
       </c>
       <c r="K188" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>146625</v>
       </c>
       <c r="L188" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>586500</v>
       </c>
     </row>
@@ -22837,15 +23279,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>10마</v>
       </c>
       <c r="G189" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H189" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I189" s="16" t="str" cm="1">
@@ -22853,15 +23295,15 @@
         <v>마</v>
       </c>
       <c r="J189" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+108</v>
       </c>
       <c r="K189" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>148250</v>
       </c>
       <c r="L189" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>593000</v>
       </c>
     </row>
@@ -22870,15 +23312,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>50마</v>
       </c>
       <c r="G190" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="H190" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I190" s="16" t="str" cm="1">
@@ -22886,15 +23328,15 @@
         <v>마</v>
       </c>
       <c r="J190" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+108</v>
       </c>
       <c r="K190" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>149875</v>
       </c>
       <c r="L190" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>599500</v>
       </c>
     </row>
@@ -22903,15 +23345,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>100마</v>
       </c>
       <c r="G191" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1E+110</v>
       </c>
       <c r="H191" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I191" s="16" t="str" cm="1">
@@ -22919,15 +23361,15 @@
         <v>마</v>
       </c>
       <c r="J191" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+108</v>
       </c>
       <c r="K191" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>151500</v>
       </c>
       <c r="L191" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>606000</v>
       </c>
     </row>
@@ -22936,15 +23378,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>500마</v>
       </c>
       <c r="G192" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="H192" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I192" s="16" t="str" cm="1">
@@ -22952,15 +23394,15 @@
         <v>마</v>
       </c>
       <c r="J192" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+108</v>
       </c>
       <c r="K192" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>153125</v>
       </c>
       <c r="L192" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>612500</v>
       </c>
     </row>
@@ -22969,15 +23411,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1000마</v>
       </c>
       <c r="G193" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H193" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I193" s="16" t="str" cm="1">
@@ -22985,15 +23427,15 @@
         <v>마</v>
       </c>
       <c r="J193" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+108</v>
       </c>
       <c r="K193" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>154750</v>
       </c>
       <c r="L193" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>619000</v>
       </c>
     </row>
@@ -23002,15 +23444,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5000마</v>
       </c>
       <c r="G194" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="H194" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I194" s="16" t="str" cm="1">
@@ -23018,15 +23460,15 @@
         <v>마</v>
       </c>
       <c r="J194" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+108</v>
       </c>
       <c r="K194" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>156375</v>
       </c>
       <c r="L194" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>625500</v>
       </c>
     </row>
@@ -23035,15 +23477,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1살</v>
       </c>
       <c r="G195" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H195" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I195" s="16" t="str" cm="1">
@@ -23051,15 +23493,15 @@
         <v>살</v>
       </c>
       <c r="J195" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+112</v>
       </c>
       <c r="K195" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>158000</v>
       </c>
       <c r="L195" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>632000</v>
       </c>
     </row>
@@ -23068,15 +23510,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5살</v>
       </c>
       <c r="G196" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="H196" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I196" s="16" t="str" cm="1">
@@ -23084,15 +23526,15 @@
         <v>살</v>
       </c>
       <c r="J196" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+112</v>
       </c>
       <c r="K196" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>159625</v>
       </c>
       <c r="L196" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>638500</v>
       </c>
     </row>
@@ -23101,15 +23543,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>10살</v>
       </c>
       <c r="G197" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1E+113</v>
       </c>
       <c r="H197" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I197" s="16" t="str" cm="1">
@@ -23117,15 +23559,15 @@
         <v>살</v>
       </c>
       <c r="J197" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+112</v>
       </c>
       <c r="K197" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>161250</v>
       </c>
       <c r="L197" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>645000</v>
       </c>
     </row>
@@ -23134,15 +23576,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>50살</v>
       </c>
       <c r="G198" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="H198" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I198" s="16" t="str" cm="1">
@@ -23150,15 +23592,15 @@
         <v>살</v>
       </c>
       <c r="J198" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+112</v>
       </c>
       <c r="K198" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>162875</v>
       </c>
       <c r="L198" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>651500</v>
       </c>
     </row>
@@ -23167,15 +23609,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>100살</v>
       </c>
       <c r="G199" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H199" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I199" s="16" t="str" cm="1">
@@ -23183,15 +23625,15 @@
         <v>살</v>
       </c>
       <c r="J199" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+112</v>
       </c>
       <c r="K199" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>164500</v>
       </c>
       <c r="L199" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>658000</v>
       </c>
     </row>
@@ -23200,15 +23642,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>500살</v>
       </c>
       <c r="G200" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="H200" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I200" s="16" t="str" cm="1">
@@ -23216,15 +23658,15 @@
         <v>살</v>
       </c>
       <c r="J200" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1E+112</v>
       </c>
       <c r="K200" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>166125</v>
       </c>
       <c r="L200" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>664500</v>
       </c>
     </row>
@@ -23233,15 +23675,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1000살</v>
       </c>
       <c r="G201" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1E+115</v>
       </c>
       <c r="H201" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I201" s="16" t="str" cm="1">
@@ -23249,15 +23691,15 @@
         <v>살</v>
       </c>
       <c r="J201" s="16" t="str">
-        <f t="shared" ref="J201:J234" si="39">VLOOKUP(I201,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J201:J234" si="43">VLOOKUP(I201,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K201" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>167750</v>
       </c>
       <c r="L201" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>671000</v>
       </c>
     </row>
@@ -23266,15 +23708,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5000살</v>
       </c>
       <c r="G202" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="H202" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I202" s="16" t="str" cm="1">
@@ -23282,15 +23724,15 @@
         <v>살</v>
       </c>
       <c r="J202" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+112</v>
       </c>
       <c r="K202" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>169375</v>
       </c>
       <c r="L202" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>677500</v>
       </c>
     </row>
@@ -23299,15 +23741,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1섬</v>
       </c>
       <c r="G203" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1E+116</v>
       </c>
       <c r="H203" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I203" s="16" t="str" cm="1">
@@ -23315,15 +23757,15 @@
         <v>섬</v>
       </c>
       <c r="J203" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+116</v>
       </c>
       <c r="K203" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>171000</v>
       </c>
       <c r="L203" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>684000</v>
       </c>
     </row>
@@ -23332,15 +23774,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5섬</v>
       </c>
       <c r="G204" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="H204" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I204" s="16" t="str" cm="1">
@@ -23348,15 +23790,15 @@
         <v>섬</v>
       </c>
       <c r="J204" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+116</v>
       </c>
       <c r="K204" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>172750</v>
       </c>
       <c r="L204" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>691000</v>
       </c>
     </row>
@@ -23365,15 +23807,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>10섬</v>
       </c>
       <c r="G205" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H205" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I205" s="16" t="str" cm="1">
@@ -23381,15 +23823,15 @@
         <v>섬</v>
       </c>
       <c r="J205" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+116</v>
       </c>
       <c r="K205" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>174500</v>
       </c>
       <c r="L205" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>698000</v>
       </c>
     </row>
@@ -23398,15 +23840,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>50섬</v>
       </c>
       <c r="G206" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="H206" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I206" s="16" t="str" cm="1">
@@ -23414,15 +23856,15 @@
         <v>섬</v>
       </c>
       <c r="J206" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+116</v>
       </c>
       <c r="K206" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>176250</v>
       </c>
       <c r="L206" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>705000</v>
       </c>
     </row>
@@ -23431,15 +23873,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>100섬</v>
       </c>
       <c r="G207" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H207" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I207" s="16" t="str" cm="1">
@@ -23447,15 +23889,15 @@
         <v>섬</v>
       </c>
       <c r="J207" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+116</v>
       </c>
       <c r="K207" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>178000</v>
       </c>
       <c r="L207" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>712000</v>
       </c>
     </row>
@@ -23464,15 +23906,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>500섬</v>
       </c>
       <c r="G208" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="H208" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I208" s="16" t="str" cm="1">
@@ -23480,15 +23922,15 @@
         <v>섬</v>
       </c>
       <c r="J208" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+116</v>
       </c>
       <c r="K208" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>179750</v>
       </c>
       <c r="L208" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>719000</v>
       </c>
     </row>
@@ -23497,15 +23939,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1000섬</v>
       </c>
       <c r="G209" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H209" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I209" s="16" t="str" cm="1">
@@ -23513,15 +23955,15 @@
         <v>섬</v>
       </c>
       <c r="J209" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+116</v>
       </c>
       <c r="K209" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>181500</v>
       </c>
       <c r="L209" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>726000</v>
       </c>
     </row>
@@ -23530,15 +23972,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5000섬</v>
       </c>
       <c r="G210" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="H210" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I210" s="16" t="str" cm="1">
@@ -23546,15 +23988,15 @@
         <v>섬</v>
       </c>
       <c r="J210" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+116</v>
       </c>
       <c r="K210" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>183250</v>
       </c>
       <c r="L210" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>733000</v>
       </c>
     </row>
@@ -23563,15 +24005,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1찰</v>
       </c>
       <c r="G211" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H211" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I211" s="16" t="str" cm="1">
@@ -23579,15 +24021,15 @@
         <v>찰</v>
       </c>
       <c r="J211" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+120</v>
       </c>
       <c r="K211" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>185000</v>
       </c>
       <c r="L211" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>740000</v>
       </c>
     </row>
@@ -23596,15 +24038,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5찰</v>
       </c>
       <c r="G212" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999996E+120</v>
       </c>
       <c r="H212" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I212" s="16" t="str" cm="1">
@@ -23612,15 +24054,15 @@
         <v>찰</v>
       </c>
       <c r="J212" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+120</v>
       </c>
       <c r="K212" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>186750</v>
       </c>
       <c r="L212" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>747000</v>
       </c>
     </row>
@@ -23629,15 +24071,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>10찰</v>
       </c>
       <c r="G213" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H213" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I213" s="16" t="str" cm="1">
@@ -23645,15 +24087,15 @@
         <v>찰</v>
       </c>
       <c r="J213" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+120</v>
       </c>
       <c r="K213" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>188500</v>
       </c>
       <c r="L213" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>754000</v>
       </c>
     </row>
@@ -23662,15 +24104,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>50찰</v>
       </c>
       <c r="G214" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="H214" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I214" s="16" t="str" cm="1">
@@ -23678,15 +24120,15 @@
         <v>찰</v>
       </c>
       <c r="J214" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+120</v>
       </c>
       <c r="K214" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>190250</v>
       </c>
       <c r="L214" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>761000</v>
       </c>
     </row>
@@ -23695,15 +24137,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>100찰</v>
       </c>
       <c r="G215" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1E+122</v>
       </c>
       <c r="H215" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I215" s="16" t="str" cm="1">
@@ -23711,15 +24153,15 @@
         <v>찰</v>
       </c>
       <c r="J215" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+120</v>
       </c>
       <c r="K215" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>192000</v>
       </c>
       <c r="L215" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>768000</v>
       </c>
     </row>
@@ -23728,15 +24170,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>500찰</v>
       </c>
       <c r="G216" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999999E+122</v>
       </c>
       <c r="H216" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I216" s="16" t="str" cm="1">
@@ -23744,15 +24186,15 @@
         <v>찰</v>
       </c>
       <c r="J216" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+120</v>
       </c>
       <c r="K216" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>193750</v>
       </c>
       <c r="L216" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>775000</v>
       </c>
     </row>
@@ -23761,15 +24203,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1000찰</v>
       </c>
       <c r="G217" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H217" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I217" s="16" t="str" cm="1">
@@ -23777,15 +24219,15 @@
         <v>찰</v>
       </c>
       <c r="J217" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+120</v>
       </c>
       <c r="K217" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>195500</v>
       </c>
       <c r="L217" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>782000</v>
       </c>
     </row>
@@ -23794,15 +24236,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5000찰</v>
       </c>
       <c r="G218" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999997E+123</v>
       </c>
       <c r="H218" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I218" s="16" t="str" cm="1">
@@ -23810,15 +24252,15 @@
         <v>찰</v>
       </c>
       <c r="J218" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+120</v>
       </c>
       <c r="K218" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>197250</v>
       </c>
       <c r="L218" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>789000</v>
       </c>
     </row>
@@ -23827,15 +24269,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1교</v>
       </c>
       <c r="G219" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H219" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I219" s="16" t="str" cm="1">
@@ -23843,15 +24285,15 @@
         <v>교</v>
       </c>
       <c r="J219" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+124</v>
       </c>
       <c r="K219" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>199125</v>
       </c>
       <c r="L219" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>796500</v>
       </c>
     </row>
@@ -23860,15 +24302,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5교</v>
       </c>
       <c r="G220" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999996E+124</v>
       </c>
       <c r="H220" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I220" s="16" t="str" cm="1">
@@ -23876,15 +24318,15 @@
         <v>교</v>
       </c>
       <c r="J220" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+124</v>
       </c>
       <c r="K220" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>201000</v>
       </c>
       <c r="L220" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>804000</v>
       </c>
     </row>
@@ -23893,15 +24335,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>10교</v>
       </c>
       <c r="G221" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H221" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I221" s="16" t="str" cm="1">
@@ -23909,15 +24351,15 @@
         <v>교</v>
       </c>
       <c r="J221" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+124</v>
       </c>
       <c r="K221" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>202875</v>
       </c>
       <c r="L221" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>811500</v>
       </c>
     </row>
@@ -23926,15 +24368,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>50교</v>
       </c>
       <c r="G222" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="H222" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I222" s="16" t="str" cm="1">
@@ -23942,15 +24384,15 @@
         <v>교</v>
       </c>
       <c r="J222" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+124</v>
       </c>
       <c r="K222" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>204750</v>
       </c>
       <c r="L222" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>819000</v>
       </c>
     </row>
@@ -23959,15 +24401,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>100교</v>
       </c>
       <c r="G223" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H223" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I223" s="16" t="str" cm="1">
@@ -23975,15 +24417,15 @@
         <v>교</v>
       </c>
       <c r="J223" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+124</v>
       </c>
       <c r="K223" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>206625</v>
       </c>
       <c r="L223" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>826500</v>
       </c>
     </row>
@@ -23992,15 +24434,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>500교</v>
       </c>
       <c r="G224" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999998E+126</v>
       </c>
       <c r="H224" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I224" s="16" t="str" cm="1">
@@ -24008,15 +24450,15 @@
         <v>교</v>
       </c>
       <c r="J224" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+124</v>
       </c>
       <c r="K224" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>208500</v>
       </c>
       <c r="L224" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>834000</v>
       </c>
     </row>
@@ -24025,15 +24467,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1000교</v>
       </c>
       <c r="G225" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="H225" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I225" s="16" t="str" cm="1">
@@ -24041,15 +24483,15 @@
         <v>교</v>
       </c>
       <c r="J225" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+124</v>
       </c>
       <c r="K225" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>210375</v>
       </c>
       <c r="L225" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>841500</v>
       </c>
     </row>
@@ -24058,15 +24500,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5000교</v>
       </c>
       <c r="G226" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.9999999999999994E+127</v>
       </c>
       <c r="H226" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I226" s="16" t="str" cm="1">
@@ -24074,15 +24516,15 @@
         <v>교</v>
       </c>
       <c r="J226" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+124</v>
       </c>
       <c r="K226" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>212250</v>
       </c>
       <c r="L226" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>849000</v>
       </c>
     </row>
@@ -24091,15 +24533,15 @@
         <v>218</v>
       </c>
       <c r="F227" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1위</v>
       </c>
       <c r="G227" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="H227" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I227" s="16" t="str" cm="1">
@@ -24107,15 +24549,15 @@
         <v>위</v>
       </c>
       <c r="J227" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+128</v>
       </c>
       <c r="K227" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>214125</v>
       </c>
       <c r="L227" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>856500</v>
       </c>
     </row>
@@ -24124,15 +24566,15 @@
         <v>219</v>
       </c>
       <c r="F228" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5위</v>
       </c>
       <c r="G228" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5E+128</v>
       </c>
       <c r="H228" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I228" s="16" t="str" cm="1">
@@ -24140,15 +24582,15 @@
         <v>위</v>
       </c>
       <c r="J228" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+128</v>
       </c>
       <c r="K228" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>216000</v>
       </c>
       <c r="L228" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>864000</v>
       </c>
     </row>
@@ -24157,15 +24599,15 @@
         <v>220</v>
       </c>
       <c r="F229" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>10위</v>
       </c>
       <c r="G229" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1E+129</v>
       </c>
       <c r="H229" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I229" s="16" t="str" cm="1">
@@ -24173,15 +24615,15 @@
         <v>위</v>
       </c>
       <c r="J229" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+128</v>
       </c>
       <c r="K229" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>217875</v>
       </c>
       <c r="L229" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>871500</v>
       </c>
     </row>
@@ -24190,15 +24632,15 @@
         <v>221</v>
       </c>
       <c r="F230" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>50위</v>
       </c>
       <c r="G230" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000003E+129</v>
       </c>
       <c r="H230" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I230" s="16" t="str" cm="1">
@@ -24206,15 +24648,15 @@
         <v>위</v>
       </c>
       <c r="J230" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+128</v>
       </c>
       <c r="K230" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>219750</v>
       </c>
       <c r="L230" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>879000</v>
       </c>
     </row>
@@ -24223,15 +24665,15 @@
         <v>222</v>
       </c>
       <c r="F231" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>100위</v>
       </c>
       <c r="G231" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="H231" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I231" s="16" t="str" cm="1">
@@ -24239,15 +24681,15 @@
         <v>위</v>
       </c>
       <c r="J231" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+128</v>
       </c>
       <c r="K231" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>221625</v>
       </c>
       <c r="L231" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>886500</v>
       </c>
     </row>
@@ -24256,15 +24698,15 @@
         <v>223</v>
       </c>
       <c r="F232" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>500위</v>
       </c>
       <c r="G232" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000005E+130</v>
       </c>
       <c r="H232" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I232" s="16" t="str" cm="1">
@@ -24272,15 +24714,15 @@
         <v>위</v>
       </c>
       <c r="J232" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+128</v>
       </c>
       <c r="K232" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>223500</v>
       </c>
       <c r="L232" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>894000</v>
       </c>
     </row>
@@ -24289,15 +24731,15 @@
         <v>224</v>
       </c>
       <c r="F233" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1000위</v>
       </c>
       <c r="G233" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="H233" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I233" s="16" t="str" cm="1">
@@ -24305,15 +24747,15 @@
         <v>위</v>
       </c>
       <c r="J233" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+128</v>
       </c>
       <c r="K233" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>225375</v>
       </c>
       <c r="L233" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>901500</v>
       </c>
     </row>
@@ -24322,15 +24764,15 @@
         <v>225</v>
       </c>
       <c r="F234" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5000위</v>
       </c>
       <c r="G234" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000007E+131</v>
       </c>
       <c r="H234" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I234" s="16" t="str" cm="1">
@@ -24338,15 +24780,15 @@
         <v>위</v>
       </c>
       <c r="J234" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1E+128</v>
       </c>
       <c r="K234" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>227375</v>
       </c>
       <c r="L234" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>909500</v>
       </c>
     </row>
@@ -24355,15 +24797,15 @@
         <v>226</v>
       </c>
       <c r="F235" s="17" t="str">
-        <f t="shared" ref="F235:F247" si="40">H235&amp;I235</f>
+        <f t="shared" ref="F235:F247" si="44">H235&amp;I235</f>
         <v>1설</v>
       </c>
       <c r="G235" s="17">
-        <f t="shared" ref="G235:G247" si="41">H235*J235</f>
+        <f t="shared" ref="G235:G247" si="45">H235*J235</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="H235" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I235" s="16" t="str" cm="1">
@@ -24371,15 +24813,15 @@
         <v>설</v>
       </c>
       <c r="J235" s="16" t="str">
-        <f t="shared" ref="J235:J247" si="42">VLOOKUP(I235,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J235:J247" si="46">VLOOKUP(I235,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K235" s="22">
-        <f t="shared" ref="K235:K247" si="43">L235*0.25</f>
+        <f t="shared" ref="K235:K247" si="47">L235*0.25</f>
         <v>229375</v>
       </c>
       <c r="L235" s="22">
-        <f t="shared" ref="L235:L247" si="44">L234+500+QUOTIENT(E235,15)*500</f>
+        <f t="shared" ref="L235:L247" si="48">L234+500+QUOTIENT(E235,15)*500</f>
         <v>917500</v>
       </c>
     </row>
@@ -24388,15 +24830,15 @@
         <v>227</v>
       </c>
       <c r="F236" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>5설</v>
       </c>
       <c r="G236" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H236" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I236" s="16" t="str" cm="1">
@@ -24404,15 +24846,15 @@
         <v>설</v>
       </c>
       <c r="J236" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1E+132</v>
       </c>
       <c r="K236" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>231375</v>
       </c>
       <c r="L236" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>925500</v>
       </c>
     </row>
@@ -24421,15 +24863,15 @@
         <v>228</v>
       </c>
       <c r="F237" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>10설</v>
       </c>
       <c r="G237" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1E+133</v>
       </c>
       <c r="H237" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I237" s="16" t="str" cm="1">
@@ -24437,15 +24879,15 @@
         <v>설</v>
       </c>
       <c r="J237" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1E+132</v>
       </c>
       <c r="K237" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>233375</v>
       </c>
       <c r="L237" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>933500</v>
       </c>
     </row>
@@ -24454,15 +24896,15 @@
         <v>229</v>
       </c>
       <c r="F238" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>50설</v>
       </c>
       <c r="G238" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H238" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I238" s="16" t="str" cm="1">
@@ -24470,15 +24912,15 @@
         <v>설</v>
       </c>
       <c r="J238" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1E+132</v>
       </c>
       <c r="K238" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>235375</v>
       </c>
       <c r="L238" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>941500</v>
       </c>
     </row>
@@ -24487,15 +24929,15 @@
         <v>230</v>
       </c>
       <c r="F239" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>100설</v>
       </c>
       <c r="G239" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H239" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I239" s="16" t="str" cm="1">
@@ -24503,15 +24945,15 @@
         <v>설</v>
       </c>
       <c r="J239" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1E+132</v>
       </c>
       <c r="K239" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>237375</v>
       </c>
       <c r="L239" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>949500</v>
       </c>
     </row>
@@ -24520,15 +24962,15 @@
         <v>231</v>
       </c>
       <c r="F240" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>500설</v>
       </c>
       <c r="G240" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H240" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I240" s="16" t="str" cm="1">
@@ -24536,15 +24978,15 @@
         <v>설</v>
       </c>
       <c r="J240" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1E+132</v>
       </c>
       <c r="K240" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>239375</v>
       </c>
       <c r="L240" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>957500</v>
       </c>
     </row>
@@ -24553,15 +24995,15 @@
         <v>232</v>
       </c>
       <c r="F241" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1000설</v>
       </c>
       <c r="G241" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H241" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I241" s="16" t="str" cm="1">
@@ -24569,15 +25011,15 @@
         <v>설</v>
       </c>
       <c r="J241" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1E+132</v>
       </c>
       <c r="K241" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>241375</v>
       </c>
       <c r="L241" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>965500</v>
       </c>
     </row>
@@ -24586,15 +25028,15 @@
         <v>233</v>
       </c>
       <c r="F242" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>5000설</v>
       </c>
       <c r="G242" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H242" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I242" s="16" t="str" cm="1">
@@ -24602,15 +25044,15 @@
         <v>설</v>
       </c>
       <c r="J242" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1E+132</v>
       </c>
       <c r="K242" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>243375</v>
       </c>
       <c r="L242" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>973500</v>
       </c>
     </row>
@@ -24619,15 +25061,15 @@
         <v>234</v>
       </c>
       <c r="F243" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1적</v>
       </c>
       <c r="G243" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H243" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I243" s="16" t="str" cm="1">
@@ -24635,15 +25077,15 @@
         <v>적</v>
       </c>
       <c r="J243" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1E+136</v>
       </c>
       <c r="K243" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>245375</v>
       </c>
       <c r="L243" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>981500</v>
       </c>
     </row>
@@ -24652,15 +25094,15 @@
         <v>235</v>
       </c>
       <c r="F244" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>5적</v>
       </c>
       <c r="G244" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H244" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I244" s="16" t="str" cm="1">
@@ -24668,15 +25110,15 @@
         <v>적</v>
       </c>
       <c r="J244" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1E+136</v>
       </c>
       <c r="K244" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>247375</v>
       </c>
       <c r="L244" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>989500</v>
       </c>
     </row>
@@ -24685,15 +25127,15 @@
         <v>236</v>
       </c>
       <c r="F245" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>10적</v>
       </c>
       <c r="G245" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1E+137</v>
       </c>
       <c r="H245" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I245" s="16" t="str" cm="1">
@@ -24701,15 +25143,15 @@
         <v>적</v>
       </c>
       <c r="J245" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1E+136</v>
       </c>
       <c r="K245" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>249375</v>
       </c>
       <c r="L245" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>997500</v>
       </c>
     </row>
@@ -24718,15 +25160,15 @@
         <v>237</v>
       </c>
       <c r="F246" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>50적</v>
       </c>
       <c r="G246" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H246" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I246" s="16" t="str" cm="1">
@@ -24734,15 +25176,15 @@
         <v>적</v>
       </c>
       <c r="J246" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1E+136</v>
       </c>
       <c r="K246" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>251375</v>
       </c>
       <c r="L246" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1005500</v>
       </c>
     </row>
@@ -24751,15 +25193,15 @@
         <v>238</v>
       </c>
       <c r="F247" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>100적</v>
       </c>
       <c r="G247" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1E+138</v>
       </c>
       <c r="H247" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I247" s="16" t="str" cm="1">
@@ -24767,15 +25209,15 @@
         <v>적</v>
       </c>
       <c r="J247" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1E+136</v>
       </c>
       <c r="K247" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>253375</v>
       </c>
       <c r="L247" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1013500</v>
       </c>
     </row>
@@ -24784,15 +25226,15 @@
         <v>239</v>
       </c>
       <c r="F248" s="17" t="str">
-        <f t="shared" ref="F248:F257" si="45">H248&amp;I248</f>
+        <f t="shared" ref="F248:F257" si="49">H248&amp;I248</f>
         <v>500적</v>
       </c>
       <c r="G248" s="17">
-        <f t="shared" ref="G248:G257" si="46">H248*J248</f>
+        <f t="shared" ref="G248:G257" si="50">H248*J248</f>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H248" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I248" s="16" t="str" cm="1">
@@ -24800,15 +25242,15 @@
         <v>적</v>
       </c>
       <c r="J248" s="16" t="str">
-        <f t="shared" ref="J248:J257" si="47">VLOOKUP(I248,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J248:J257" si="51">VLOOKUP(I248,N:Q,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K248" s="22">
-        <f t="shared" ref="K248:K257" si="48">L248*0.25</f>
+        <f t="shared" ref="K248:K257" si="52">L248*0.25</f>
         <v>255375</v>
       </c>
       <c r="L248" s="22">
-        <f t="shared" ref="L248:L257" si="49">L247+500+QUOTIENT(E248,15)*500</f>
+        <f t="shared" ref="L248:L257" si="53">L247+500+QUOTIENT(E248,15)*500</f>
         <v>1021500</v>
       </c>
     </row>
@@ -24817,15 +25259,15 @@
         <v>240</v>
       </c>
       <c r="F249" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1000적</v>
       </c>
       <c r="G249" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1E+139</v>
       </c>
       <c r="H249" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I249" s="16" t="str" cm="1">
@@ -24833,15 +25275,15 @@
         <v>적</v>
       </c>
       <c r="J249" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1E+136</v>
       </c>
       <c r="K249" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>257500</v>
       </c>
       <c r="L249" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1030000</v>
       </c>
     </row>
@@ -24850,15 +25292,15 @@
         <v>241</v>
       </c>
       <c r="F250" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>5000적</v>
       </c>
       <c r="G250" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H250" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I250" s="16" t="str" cm="1">
@@ -24866,15 +25308,15 @@
         <v>적</v>
       </c>
       <c r="J250" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1E+136</v>
       </c>
       <c r="K250" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>259625</v>
       </c>
       <c r="L250" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1038500</v>
       </c>
     </row>
@@ -24883,15 +25325,15 @@
         <v>242</v>
       </c>
       <c r="F251" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1고</v>
       </c>
       <c r="G251" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H251" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I251" s="16" t="str" cm="1">
@@ -24899,15 +25341,15 @@
         <v>고</v>
       </c>
       <c r="J251" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1E+140</v>
       </c>
       <c r="K251" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>261750</v>
       </c>
       <c r="L251" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1047000</v>
       </c>
     </row>
@@ -24916,15 +25358,15 @@
         <v>243</v>
       </c>
       <c r="F252" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>5고</v>
       </c>
       <c r="G252" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H252" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I252" s="16" t="str" cm="1">
@@ -24932,15 +25374,15 @@
         <v>고</v>
       </c>
       <c r="J252" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1E+140</v>
       </c>
       <c r="K252" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>263875</v>
       </c>
       <c r="L252" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1055500</v>
       </c>
     </row>
@@ -24949,15 +25391,15 @@
         <v>244</v>
       </c>
       <c r="F253" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>10고</v>
       </c>
       <c r="G253" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1E+141</v>
       </c>
       <c r="H253" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I253" s="16" t="str" cm="1">
@@ -24965,15 +25407,15 @@
         <v>고</v>
       </c>
       <c r="J253" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1E+140</v>
       </c>
       <c r="K253" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>266000</v>
       </c>
       <c r="L253" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1064000</v>
       </c>
     </row>
@@ -24982,15 +25424,15 @@
         <v>245</v>
       </c>
       <c r="F254" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>50고</v>
       </c>
       <c r="G254" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H254" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I254" s="16" t="str" cm="1">
@@ -24998,15 +25440,15 @@
         <v>고</v>
       </c>
       <c r="J254" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1E+140</v>
       </c>
       <c r="K254" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>268125</v>
       </c>
       <c r="L254" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1072500</v>
       </c>
     </row>
@@ -25015,15 +25457,15 @@
         <v>246</v>
       </c>
       <c r="F255" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>100고</v>
       </c>
       <c r="G255" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H255" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I255" s="16" t="str" cm="1">
@@ -25031,15 +25473,15 @@
         <v>고</v>
       </c>
       <c r="J255" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1E+140</v>
       </c>
       <c r="K255" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>270250</v>
       </c>
       <c r="L255" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1081000</v>
       </c>
     </row>
@@ -25048,15 +25490,15 @@
         <v>247</v>
       </c>
       <c r="F256" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>500고</v>
       </c>
       <c r="G256" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H256" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I256" s="16" t="str" cm="1">
@@ -25064,15 +25506,15 @@
         <v>고</v>
       </c>
       <c r="J256" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1E+140</v>
       </c>
       <c r="K256" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>272375</v>
       </c>
       <c r="L256" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1089500</v>
       </c>
     </row>
@@ -25081,15 +25523,15 @@
         <v>248</v>
       </c>
       <c r="F257" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1000고</v>
       </c>
       <c r="G257" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1E+143</v>
       </c>
       <c r="H257" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I257" s="16" t="str" cm="1">
@@ -25097,15 +25539,15 @@
         <v>고</v>
       </c>
       <c r="J257" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1E+140</v>
       </c>
       <c r="K257" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>274500</v>
       </c>
       <c r="L257" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1098000</v>
       </c>
     </row>
@@ -25114,15 +25556,15 @@
         <v>249</v>
       </c>
       <c r="F258" s="17" t="str">
-        <f t="shared" ref="F258:F265" si="50">H258&amp;I258</f>
+        <f t="shared" ref="F258:F265" si="54">H258&amp;I258</f>
         <v>5000고</v>
       </c>
       <c r="G258" s="17">
-        <f t="shared" ref="G258:G265" si="51">H258*J258</f>
+        <f t="shared" ref="G258:G265" si="55">H258*J258</f>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H258" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I258" s="16" t="str" cm="1">
@@ -25130,15 +25572,15 @@
         <v>고</v>
       </c>
       <c r="J258" s="16" t="str">
-        <f t="shared" ref="J258:J265" si="52">VLOOKUP(I258,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J258:J265" si="56">VLOOKUP(I258,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K258" s="22">
-        <f t="shared" ref="K258:K265" si="53">L258*0.25</f>
+        <f t="shared" ref="K258:K265" si="57">L258*0.25</f>
         <v>276625</v>
       </c>
       <c r="L258" s="22">
-        <f t="shared" ref="L258:L265" si="54">L257+500+QUOTIENT(E258,15)*500</f>
+        <f t="shared" ref="L258:L265" si="58">L257+500+QUOTIENT(E258,15)*500</f>
         <v>1106500</v>
       </c>
     </row>
@@ -25147,15 +25589,15 @@
         <v>250</v>
       </c>
       <c r="F259" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1화</v>
       </c>
       <c r="G259" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>1E+144</v>
       </c>
       <c r="H259" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I259" s="16" t="str" cm="1">
@@ -25163,15 +25605,15 @@
         <v>화</v>
       </c>
       <c r="J259" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
       <c r="K259" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>278750</v>
       </c>
       <c r="L259" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1115000</v>
       </c>
     </row>
@@ -25180,15 +25622,15 @@
         <v>251</v>
       </c>
       <c r="F260" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>5화</v>
       </c>
       <c r="G260" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H260" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I260" s="16" t="str" cm="1">
@@ -25196,15 +25638,15 @@
         <v>화</v>
       </c>
       <c r="J260" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
       <c r="K260" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>280875</v>
       </c>
       <c r="L260" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1123500</v>
       </c>
     </row>
@@ -25213,15 +25655,15 @@
         <v>252</v>
       </c>
       <c r="F261" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>10화</v>
       </c>
       <c r="G261" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H261" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I261" s="16" t="str" cm="1">
@@ -25229,15 +25671,15 @@
         <v>화</v>
       </c>
       <c r="J261" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
       <c r="K261" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>283000</v>
       </c>
       <c r="L261" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1132000</v>
       </c>
     </row>
@@ -25246,15 +25688,15 @@
         <v>253</v>
       </c>
       <c r="F262" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>50화</v>
       </c>
       <c r="G262" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H262" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I262" s="16" t="str" cm="1">
@@ -25262,15 +25704,15 @@
         <v>화</v>
       </c>
       <c r="J262" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
       <c r="K262" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>285125</v>
       </c>
       <c r="L262" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1140500</v>
       </c>
     </row>
@@ -25279,15 +25721,15 @@
         <v>254</v>
       </c>
       <c r="F263" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>100화</v>
       </c>
       <c r="G263" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H263" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I263" s="16" t="str" cm="1">
@@ -25295,15 +25737,15 @@
         <v>화</v>
       </c>
       <c r="J263" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
       <c r="K263" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>287250</v>
       </c>
       <c r="L263" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1149000</v>
       </c>
     </row>
@@ -25312,15 +25754,15 @@
         <v>255</v>
       </c>
       <c r="F264" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>500화</v>
       </c>
       <c r="G264" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H264" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I264" s="16" t="str" cm="1">
@@ -25328,15 +25770,15 @@
         <v>화</v>
       </c>
       <c r="J264" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
       <c r="K264" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>289500</v>
       </c>
       <c r="L264" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1158000</v>
       </c>
     </row>
@@ -25345,15 +25787,15 @@
         <v>256</v>
       </c>
       <c r="F265" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1000화</v>
       </c>
       <c r="G265" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H265" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I265" s="16" t="str" cm="1">
@@ -25361,15 +25803,15 @@
         <v>화</v>
       </c>
       <c r="J265" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
       <c r="K265" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>291750</v>
       </c>
       <c r="L265" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1167000</v>
       </c>
     </row>
@@ -25378,15 +25820,15 @@
         <v>257</v>
       </c>
       <c r="F266" s="17" t="str">
-        <f t="shared" ref="F266:F274" si="55">H266&amp;I266</f>
+        <f t="shared" ref="F266:F274" si="59">H266&amp;I266</f>
         <v>5000화</v>
       </c>
       <c r="G266" s="17">
-        <f t="shared" ref="G266:G274" si="56">H266*J266</f>
+        <f t="shared" ref="G266:G274" si="60">H266*J266</f>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H266" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I266" s="16" t="str" cm="1">
@@ -25394,15 +25836,15 @@
         <v>화</v>
       </c>
       <c r="J266" s="16" t="str">
-        <f t="shared" ref="J266:J274" si="57">VLOOKUP(I266,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J266:J274" si="61">VLOOKUP(I266,N:Q,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K266" s="22">
-        <f t="shared" ref="K266:K274" si="58">L266*0.25</f>
+        <f t="shared" ref="K266:K274" si="62">L266*0.25</f>
         <v>294000</v>
       </c>
       <c r="L266" s="22">
-        <f t="shared" ref="L266:L274" si="59">L265+500+QUOTIENT(E266,15)*500</f>
+        <f t="shared" ref="L266:L274" si="63">L265+500+QUOTIENT(E266,15)*500</f>
         <v>1176000</v>
       </c>
     </row>
@@ -25411,15 +25853,15 @@
         <v>258</v>
       </c>
       <c r="F267" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1명</v>
       </c>
       <c r="G267" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>1E+148</v>
       </c>
       <c r="H267" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I267" s="16" t="str" cm="1">
@@ -25427,15 +25869,15 @@
         <v>명</v>
       </c>
       <c r="J267" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>1E+148</v>
       </c>
       <c r="K267" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>296250</v>
       </c>
       <c r="L267" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>1185000</v>
       </c>
     </row>
@@ -25444,15 +25886,15 @@
         <v>259</v>
       </c>
       <c r="F268" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>5명</v>
       </c>
       <c r="G268" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>5.0000000000000002E+148</v>
       </c>
       <c r="H268" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I268" s="16" t="str" cm="1">
@@ -25460,15 +25902,15 @@
         <v>명</v>
       </c>
       <c r="J268" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>1E+148</v>
       </c>
       <c r="K268" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>298500</v>
       </c>
       <c r="L268" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>1194000</v>
       </c>
     </row>
@@ -25477,15 +25919,15 @@
         <v>260</v>
       </c>
       <c r="F269" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>10명</v>
       </c>
       <c r="G269" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>1E+149</v>
       </c>
       <c r="H269" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I269" s="16" t="str" cm="1">
@@ -25493,15 +25935,15 @@
         <v>명</v>
       </c>
       <c r="J269" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>1E+148</v>
       </c>
       <c r="K269" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>300750</v>
       </c>
       <c r="L269" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>1203000</v>
       </c>
     </row>
@@ -25510,15 +25952,15 @@
         <v>261</v>
       </c>
       <c r="F270" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>50명</v>
       </c>
       <c r="G270" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>4.9999999999999999E+149</v>
       </c>
       <c r="H270" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I270" s="16" t="str" cm="1">
@@ -25526,15 +25968,15 @@
         <v>명</v>
       </c>
       <c r="J270" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>1E+148</v>
       </c>
       <c r="K270" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>303000</v>
       </c>
       <c r="L270" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>1212000</v>
       </c>
     </row>
@@ -25543,15 +25985,15 @@
         <v>262</v>
       </c>
       <c r="F271" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>100명</v>
       </c>
       <c r="G271" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H271" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I271" s="16" t="str" cm="1">
@@ -25559,15 +26001,15 @@
         <v>명</v>
       </c>
       <c r="J271" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>1E+148</v>
       </c>
       <c r="K271" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>305250</v>
       </c>
       <c r="L271" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>1221000</v>
       </c>
     </row>
@@ -25576,15 +26018,15 @@
         <v>263</v>
       </c>
       <c r="F272" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>500명</v>
       </c>
       <c r="G272" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>5.0000000000000001E+150</v>
       </c>
       <c r="H272" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I272" s="16" t="str" cm="1">
@@ -25592,15 +26034,15 @@
         <v>명</v>
       </c>
       <c r="J272" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>1E+148</v>
       </c>
       <c r="K272" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>307500</v>
       </c>
       <c r="L272" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>1230000</v>
       </c>
     </row>
@@ -25609,15 +26051,15 @@
         <v>264</v>
       </c>
       <c r="F273" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1000명</v>
       </c>
       <c r="G273" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>1E+151</v>
       </c>
       <c r="H273" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I273" s="16" t="str" cm="1">
@@ -25625,15 +26067,15 @@
         <v>명</v>
       </c>
       <c r="J273" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>1E+148</v>
       </c>
       <c r="K273" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>309750</v>
       </c>
       <c r="L273" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>1239000</v>
       </c>
     </row>
@@ -25642,15 +26084,15 @@
         <v>265</v>
       </c>
       <c r="F274" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>5000명</v>
       </c>
       <c r="G274" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>5.0000000000000002E+151</v>
       </c>
       <c r="H274" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I274" s="16" t="str" cm="1">
@@ -25658,15 +26100,15 @@
         <v>명</v>
       </c>
       <c r="J274" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>1E+148</v>
       </c>
       <c r="K274" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>312000</v>
       </c>
       <c r="L274" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>1248000</v>
       </c>
     </row>
@@ -25675,15 +26117,15 @@
         <v>266</v>
       </c>
       <c r="F275" s="17" t="str">
-        <f t="shared" ref="F275:F282" si="60">H275&amp;I275</f>
+        <f t="shared" ref="F275:F282" si="64">H275&amp;I275</f>
         <v>1월</v>
       </c>
       <c r="G275" s="17">
-        <f t="shared" ref="G275:G282" si="61">H275*J275</f>
+        <f t="shared" ref="G275:G282" si="65">H275*J275</f>
         <v>1E+152</v>
       </c>
       <c r="H275" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I275" s="16" t="str" cm="1">
@@ -25691,15 +26133,15 @@
         <v>월</v>
       </c>
       <c r="J275" s="16" t="str">
-        <f t="shared" ref="J275:J282" si="62">VLOOKUP(I275,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J275:J282" si="66">VLOOKUP(I275,N:Q,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K275" s="22">
-        <f t="shared" ref="K275:K282" si="63">L275*0.25</f>
+        <f t="shared" ref="K275:K282" si="67">L275*0.25</f>
         <v>314250</v>
       </c>
       <c r="L275" s="22">
-        <f t="shared" ref="L275:L282" si="64">L274+500+QUOTIENT(E275,15)*500</f>
+        <f t="shared" ref="L275:L282" si="68">L274+500+QUOTIENT(E275,15)*500</f>
         <v>1257000</v>
       </c>
     </row>
@@ -25708,15 +26150,15 @@
         <v>267</v>
       </c>
       <c r="F276" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>5월</v>
       </c>
       <c r="G276" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>5E+152</v>
       </c>
       <c r="H276" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I276" s="16" t="str" cm="1">
@@ -25724,15 +26166,15 @@
         <v>월</v>
       </c>
       <c r="J276" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1E+152</v>
       </c>
       <c r="K276" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>316500</v>
       </c>
       <c r="L276" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>1266000</v>
       </c>
     </row>
@@ -25741,15 +26183,15 @@
         <v>268</v>
       </c>
       <c r="F277" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>10월</v>
       </c>
       <c r="G277" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1E+153</v>
       </c>
       <c r="H277" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I277" s="16" t="str" cm="1">
@@ -25757,15 +26199,15 @@
         <v>월</v>
       </c>
       <c r="J277" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1E+152</v>
       </c>
       <c r="K277" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>318750</v>
       </c>
       <c r="L277" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>1275000</v>
       </c>
     </row>
@@ -25774,15 +26216,15 @@
         <v>269</v>
       </c>
       <c r="F278" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>50월</v>
       </c>
       <c r="G278" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>5.0000000000000002E+153</v>
       </c>
       <c r="H278" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I278" s="16" t="str" cm="1">
@@ -25790,15 +26232,15 @@
         <v>월</v>
       </c>
       <c r="J278" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1E+152</v>
       </c>
       <c r="K278" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>321000</v>
       </c>
       <c r="L278" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>1284000</v>
       </c>
     </row>
@@ -25807,15 +26249,15 @@
         <v>270</v>
       </c>
       <c r="F279" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>100월</v>
       </c>
       <c r="G279" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1E+154</v>
       </c>
       <c r="H279" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I279" s="16" t="str" cm="1">
@@ -25823,15 +26265,15 @@
         <v>월</v>
       </c>
       <c r="J279" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1E+152</v>
       </c>
       <c r="K279" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>323375</v>
       </c>
       <c r="L279" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>1293500</v>
       </c>
     </row>
@@ -25840,15 +26282,15 @@
         <v>271</v>
       </c>
       <c r="F280" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>500월</v>
       </c>
       <c r="G280" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>5E+154</v>
       </c>
       <c r="H280" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I280" s="16" t="str" cm="1">
@@ -25856,15 +26298,15 @@
         <v>월</v>
       </c>
       <c r="J280" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1E+152</v>
       </c>
       <c r="K280" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>325750</v>
       </c>
       <c r="L280" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>1303000</v>
       </c>
     </row>
@@ -25873,15 +26315,15 @@
         <v>272</v>
       </c>
       <c r="F281" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>1000월</v>
       </c>
       <c r="G281" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1E+155</v>
       </c>
       <c r="H281" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I281" s="16" t="str" cm="1">
@@ -25889,15 +26331,15 @@
         <v>월</v>
       </c>
       <c r="J281" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1E+152</v>
       </c>
       <c r="K281" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>328125</v>
       </c>
       <c r="L281" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>1312500</v>
       </c>
     </row>
@@ -25906,15 +26348,15 @@
         <v>273</v>
       </c>
       <c r="F282" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>5000월</v>
       </c>
       <c r="G282" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>4.9999999999999999E+155</v>
       </c>
       <c r="H282" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I282" s="16" t="str" cm="1">
@@ -25922,15 +26364,15 @@
         <v>월</v>
       </c>
       <c r="J282" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1E+152</v>
       </c>
       <c r="K282" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>330500</v>
       </c>
       <c r="L282" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>1322000</v>
       </c>
     </row>
@@ -25939,15 +26381,15 @@
         <v>274</v>
       </c>
       <c r="F283" s="17" t="str">
-        <f t="shared" ref="F283:F290" si="65">H283&amp;I283</f>
+        <f t="shared" ref="F283:F290" si="69">H283&amp;I283</f>
         <v>1후</v>
       </c>
       <c r="G283" s="17">
-        <f t="shared" ref="G283:G290" si="66">H283*J283</f>
+        <f t="shared" ref="G283:G290" si="70">H283*J283</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H283" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I283" s="16" t="str" cm="1">
@@ -25955,15 +26397,15 @@
         <v>후</v>
       </c>
       <c r="J283" s="16" t="str">
-        <f t="shared" ref="J283:J290" si="67">VLOOKUP(I283,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J283:J290" si="71">VLOOKUP(I283,N:Q,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K283" s="22">
-        <f t="shared" ref="K283:K290" si="68">L283*0.25</f>
+        <f t="shared" ref="K283:K290" si="72">L283*0.25</f>
         <v>332875</v>
       </c>
       <c r="L283" s="22">
-        <f t="shared" ref="L283:L290" si="69">L282+500+QUOTIENT(E283,15)*500</f>
+        <f t="shared" ref="L283:L290" si="73">L282+500+QUOTIENT(E283,15)*500</f>
         <v>1331500</v>
       </c>
     </row>
@@ -25972,15 +26414,15 @@
         <v>275</v>
       </c>
       <c r="F284" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>5후</v>
       </c>
       <c r="G284" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>4.9999999999999999E+156</v>
       </c>
       <c r="H284" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I284" s="16" t="str" cm="1">
@@ -25988,15 +26430,15 @@
         <v>후</v>
       </c>
       <c r="J284" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1E+156</v>
       </c>
       <c r="K284" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>335250</v>
       </c>
       <c r="L284" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1341000</v>
       </c>
     </row>
@@ -26005,15 +26447,15 @@
         <v>276</v>
       </c>
       <c r="F285" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>10후</v>
       </c>
       <c r="G285" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H285" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I285" s="16" t="str" cm="1">
@@ -26021,15 +26463,15 @@
         <v>후</v>
       </c>
       <c r="J285" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1E+156</v>
       </c>
       <c r="K285" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>337625</v>
       </c>
       <c r="L285" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1350500</v>
       </c>
     </row>
@@ -26038,15 +26480,15 @@
         <v>277</v>
       </c>
       <c r="F286" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>50후</v>
       </c>
       <c r="G286" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>4.9999999999999998E+157</v>
       </c>
       <c r="H286" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I286" s="16" t="str" cm="1">
@@ -26054,15 +26496,15 @@
         <v>후</v>
       </c>
       <c r="J286" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1E+156</v>
       </c>
       <c r="K286" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>340000</v>
       </c>
       <c r="L286" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1360000</v>
       </c>
     </row>
@@ -26071,15 +26513,15 @@
         <v>278</v>
       </c>
       <c r="F287" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>100후</v>
       </c>
       <c r="G287" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H287" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I287" s="16" t="str" cm="1">
@@ -26087,15 +26529,15 @@
         <v>후</v>
       </c>
       <c r="J287" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1E+156</v>
       </c>
       <c r="K287" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>342375</v>
       </c>
       <c r="L287" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1369500</v>
       </c>
     </row>
@@ -26104,15 +26546,15 @@
         <v>279</v>
       </c>
       <c r="F288" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>500후</v>
       </c>
       <c r="G288" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>4.9999999999999996E+158</v>
       </c>
       <c r="H288" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I288" s="16" t="str" cm="1">
@@ -26120,15 +26562,15 @@
         <v>후</v>
       </c>
       <c r="J288" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1E+156</v>
       </c>
       <c r="K288" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>344750</v>
       </c>
       <c r="L288" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1379000</v>
       </c>
     </row>
@@ -26137,15 +26579,15 @@
         <v>280</v>
       </c>
       <c r="F289" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>1000후</v>
       </c>
       <c r="G289" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H289" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I289" s="16" t="str" cm="1">
@@ -26153,15 +26595,15 @@
         <v>후</v>
       </c>
       <c r="J289" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1E+156</v>
       </c>
       <c r="K289" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>347125</v>
       </c>
       <c r="L289" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1388500</v>
       </c>
     </row>
@@ -26170,15 +26612,15 @@
         <v>281</v>
       </c>
       <c r="F290" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>5000후</v>
       </c>
       <c r="G290" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>5E+159</v>
       </c>
       <c r="H290" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I290" s="16" t="str" cm="1">
@@ -26186,17 +26628,301 @@
         <v>후</v>
       </c>
       <c r="J290" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1E+156</v>
       </c>
       <c r="K290" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>349500</v>
       </c>
       <c r="L290" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1398000</v>
       </c>
+    </row>
+    <row r="291" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E291" s="16">
+        <v>282</v>
+      </c>
+      <c r="F291" s="17" t="str">
+        <f t="shared" ref="F291:F300" si="74">H291&amp;I291</f>
+        <v>1단</v>
+      </c>
+      <c r="G291" s="17">
+        <f t="shared" ref="G291:G300" si="75">H291*J291</f>
+        <v>1E+160</v>
+      </c>
+      <c r="H291" s="17">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="I291" s="16" t="str" cm="1">
+        <f t="array" ref="I291">IF(AND(H290&gt;1000,H291&lt;2),INDEX(N:N,MATCH(I290,N:N,0)+1,0),I290)</f>
+        <v>단</v>
+      </c>
+      <c r="J291" s="16" t="str">
+        <f t="shared" ref="J291:J300" si="76">VLOOKUP(I291,N:Q,4,FALSE)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="K291" s="22">
+        <f t="shared" ref="K291:K300" si="77">L291*0.25</f>
+        <v>351875</v>
+      </c>
+      <c r="L291" s="22">
+        <f t="shared" ref="L291:L300" si="78">L290+500+QUOTIENT(E291,15)*500</f>
+        <v>1407500</v>
+      </c>
+    </row>
+    <row r="292" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E292" s="16">
+        <v>283</v>
+      </c>
+      <c r="F292" s="17" t="str">
+        <f t="shared" si="74"/>
+        <v>5단</v>
+      </c>
+      <c r="G292" s="17">
+        <f t="shared" si="75"/>
+        <v>5.0000000000000002E+160</v>
+      </c>
+      <c r="H292" s="17">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="I292" s="16" t="str" cm="1">
+        <f t="array" ref="I292">IF(AND(H291&gt;1000,H292&lt;2),INDEX(N:N,MATCH(I291,N:N,0)+1,0),I291)</f>
+        <v>단</v>
+      </c>
+      <c r="J292" s="16" t="str">
+        <f t="shared" si="76"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K292" s="22">
+        <f t="shared" si="77"/>
+        <v>354250</v>
+      </c>
+      <c r="L292" s="22">
+        <f t="shared" si="78"/>
+        <v>1417000</v>
+      </c>
+    </row>
+    <row r="293" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E293" s="16">
+        <v>284</v>
+      </c>
+      <c r="F293" s="17" t="str">
+        <f t="shared" si="74"/>
+        <v>10단</v>
+      </c>
+      <c r="G293" s="17">
+        <f t="shared" si="75"/>
+        <v>1E+161</v>
+      </c>
+      <c r="H293" s="17">
+        <f t="shared" si="38"/>
+        <v>10</v>
+      </c>
+      <c r="I293" s="16" t="str" cm="1">
+        <f t="array" ref="I293">IF(AND(H292&gt;1000,H293&lt;2),INDEX(N:N,MATCH(I292,N:N,0)+1,0),I292)</f>
+        <v>단</v>
+      </c>
+      <c r="J293" s="16" t="str">
+        <f t="shared" si="76"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K293" s="22">
+        <f t="shared" si="77"/>
+        <v>356625</v>
+      </c>
+      <c r="L293" s="22">
+        <f t="shared" si="78"/>
+        <v>1426500</v>
+      </c>
+    </row>
+    <row r="294" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E294" s="16">
+        <v>285</v>
+      </c>
+      <c r="F294" s="17" t="str">
+        <f t="shared" si="74"/>
+        <v>50단</v>
+      </c>
+      <c r="G294" s="17">
+        <f t="shared" si="75"/>
+        <v>4.9999999999999997E+161</v>
+      </c>
+      <c r="H294" s="17">
+        <f t="shared" si="38"/>
+        <v>50</v>
+      </c>
+      <c r="I294" s="16" t="str" cm="1">
+        <f t="array" ref="I294">IF(AND(H293&gt;1000,H294&lt;2),INDEX(N:N,MATCH(I293,N:N,0)+1,0),I293)</f>
+        <v>단</v>
+      </c>
+      <c r="J294" s="16" t="str">
+        <f t="shared" si="76"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K294" s="22">
+        <f t="shared" si="77"/>
+        <v>359125</v>
+      </c>
+      <c r="L294" s="22">
+        <f t="shared" si="78"/>
+        <v>1436500</v>
+      </c>
+    </row>
+    <row r="295" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E295" s="16">
+        <v>286</v>
+      </c>
+      <c r="F295" s="17" t="str">
+        <f t="shared" si="74"/>
+        <v>100단</v>
+      </c>
+      <c r="G295" s="17">
+        <f t="shared" si="75"/>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="H295" s="17">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="I295" s="16" t="str" cm="1">
+        <f t="array" ref="I295">IF(AND(H294&gt;1000,H295&lt;2),INDEX(N:N,MATCH(I294,N:N,0)+1,0),I294)</f>
+        <v>단</v>
+      </c>
+      <c r="J295" s="16" t="str">
+        <f t="shared" si="76"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K295" s="22">
+        <f t="shared" si="77"/>
+        <v>361625</v>
+      </c>
+      <c r="L295" s="22">
+        <f t="shared" si="78"/>
+        <v>1446500</v>
+      </c>
+    </row>
+    <row r="296" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E296" s="16">
+        <v>287</v>
+      </c>
+      <c r="F296" s="17" t="str">
+        <f t="shared" si="74"/>
+        <v>500단</v>
+      </c>
+      <c r="G296" s="17">
+        <f t="shared" si="75"/>
+        <v>4.9999999999999997E+162</v>
+      </c>
+      <c r="H296" s="17">
+        <f t="shared" si="38"/>
+        <v>500</v>
+      </c>
+      <c r="I296" s="16" t="str" cm="1">
+        <f t="array" ref="I296">IF(AND(H295&gt;1000,H296&lt;2),INDEX(N:N,MATCH(I295,N:N,0)+1,0),I295)</f>
+        <v>단</v>
+      </c>
+      <c r="J296" s="16" t="str">
+        <f t="shared" si="76"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K296" s="22">
+        <f t="shared" si="77"/>
+        <v>364125</v>
+      </c>
+      <c r="L296" s="22">
+        <f t="shared" si="78"/>
+        <v>1456500</v>
+      </c>
+    </row>
+    <row r="297" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E297" s="16">
+        <v>288</v>
+      </c>
+      <c r="F297" s="17" t="str">
+        <f t="shared" si="74"/>
+        <v>1000단</v>
+      </c>
+      <c r="G297" s="17">
+        <f t="shared" si="75"/>
+        <v>9.9999999999999994E+162</v>
+      </c>
+      <c r="H297" s="17">
+        <f t="shared" si="38"/>
+        <v>1000</v>
+      </c>
+      <c r="I297" s="16" t="str" cm="1">
+        <f t="array" ref="I297">IF(AND(H296&gt;1000,H297&lt;2),INDEX(N:N,MATCH(I296,N:N,0)+1,0),I296)</f>
+        <v>단</v>
+      </c>
+      <c r="J297" s="16" t="str">
+        <f t="shared" si="76"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K297" s="22">
+        <f t="shared" si="77"/>
+        <v>366625</v>
+      </c>
+      <c r="L297" s="22">
+        <f t="shared" si="78"/>
+        <v>1466500</v>
+      </c>
+    </row>
+    <row r="298" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E298" s="16">
+        <v>289</v>
+      </c>
+      <c r="F298" s="17" t="str">
+        <f t="shared" si="74"/>
+        <v>5000단</v>
+      </c>
+      <c r="G298" s="17">
+        <f t="shared" si="75"/>
+        <v>5E+163</v>
+      </c>
+      <c r="H298" s="17">
+        <f t="shared" si="38"/>
+        <v>5000</v>
+      </c>
+      <c r="I298" s="16" t="str" cm="1">
+        <f t="array" ref="I298">IF(AND(H297&gt;1000,H298&lt;2),INDEX(N:N,MATCH(I297,N:N,0)+1,0),I297)</f>
+        <v>단</v>
+      </c>
+      <c r="J298" s="16" t="str">
+        <f t="shared" si="76"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K298" s="22">
+        <f t="shared" si="77"/>
+        <v>369125</v>
+      </c>
+      <c r="L298" s="22">
+        <f t="shared" si="78"/>
+        <v>1476500</v>
+      </c>
+    </row>
+    <row r="299" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E299" s="16"/>
+      <c r="F299" s="17"/>
+      <c r="G299" s="17"/>
+      <c r="H299" s="17"/>
+      <c r="I299" s="16"/>
+      <c r="J299" s="16"/>
+      <c r="K299" s="22"/>
+      <c r="L299" s="22"/>
+    </row>
+    <row r="300" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E300" s="16"/>
+      <c r="F300" s="17"/>
+      <c r="G300" s="17"/>
+      <c r="H300" s="17"/>
+      <c r="I300" s="16"/>
+      <c r="J300" s="16"/>
+      <c r="K300" s="22"/>
+      <c r="L300" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/DosulTower.xlsx
+++ b/Assets/06.Table/DosulTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAA05CA-91FE-4B61-BB02-73AB5E1369B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B1D64C-1E52-4A73-A67A-70C0D9B3044C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="75">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,10 @@
   </si>
   <si>
     <t>절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,11 +946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M291"/>
+  <dimension ref="A1:M299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C289" sqref="C289"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14481,7 +14485,7 @@
         <v>298500</v>
       </c>
       <c r="E261">
-        <f t="shared" ref="E261:E291" si="304">E260</f>
+        <f t="shared" ref="E261:E299" si="304">E260</f>
         <v>1</v>
       </c>
       <c r="F261" s="2">
@@ -14504,11 +14508,11 @@
         <v>60</v>
       </c>
       <c r="K261">
-        <f t="shared" ref="K261:K291" si="306">K260+200</f>
+        <f t="shared" ref="K261:K299" si="306">K260+200</f>
         <v>53800</v>
       </c>
       <c r="L261">
-        <f t="shared" ref="L261:L291" si="307">L260</f>
+        <f t="shared" ref="L261:L299" si="307">L260</f>
         <v>9031</v>
       </c>
       <c r="M261">
@@ -16076,9 +16080,425 @@
         <v>738250</v>
       </c>
     </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292" s="1" t="str">
+        <f t="shared" ref="B292:C292" si="368">B291</f>
+        <v>1-1</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="368"/>
+        <v>9031</v>
+      </c>
+      <c r="D292">
+        <f>VLOOKUP(A292,Balance!E:K,7,FALSE)</f>
+        <v>371625</v>
+      </c>
+      <c r="E292">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F292" s="2">
+        <f>VLOOKUP(A292,Balance!E:K,3,FALSE)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="G292">
+        <f t="shared" ref="G292:I292" si="369">G291</f>
+        <v>1000</v>
+      </c>
+      <c r="H292">
+        <f t="shared" si="369"/>
+        <v>8</v>
+      </c>
+      <c r="I292">
+        <f t="shared" si="369"/>
+        <v>0</v>
+      </c>
+      <c r="J292" t="s">
+        <v>60</v>
+      </c>
+      <c r="K292">
+        <f t="shared" si="306"/>
+        <v>60000</v>
+      </c>
+      <c r="L292">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M292">
+        <f>VLOOKUP(A292,Balance!E:L,8,FALSE)/2</f>
+        <v>743250</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293" s="1" t="str">
+        <f t="shared" ref="B293:C293" si="370">B292</f>
+        <v>1-1</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="370"/>
+        <v>9031</v>
+      </c>
+      <c r="D293">
+        <f>VLOOKUP(A293,Balance!E:K,7,FALSE)</f>
+        <v>374125</v>
+      </c>
+      <c r="E293">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F293" s="2">
+        <f>VLOOKUP(A293,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000005E+164</v>
+      </c>
+      <c r="G293">
+        <f t="shared" ref="G293:I293" si="371">G292</f>
+        <v>1000</v>
+      </c>
+      <c r="H293">
+        <f t="shared" si="371"/>
+        <v>8</v>
+      </c>
+      <c r="I293">
+        <f t="shared" si="371"/>
+        <v>0</v>
+      </c>
+      <c r="J293" t="s">
+        <v>60</v>
+      </c>
+      <c r="K293">
+        <f t="shared" si="306"/>
+        <v>60200</v>
+      </c>
+      <c r="L293">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M293">
+        <f>VLOOKUP(A293,Balance!E:L,8,FALSE)/2</f>
+        <v>748250</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294" s="1" t="str">
+        <f t="shared" ref="B294:C294" si="372">B293</f>
+        <v>1-1</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="372"/>
+        <v>9031</v>
+      </c>
+      <c r="D294">
+        <f>VLOOKUP(A294,Balance!E:K,7,FALSE)</f>
+        <v>376625</v>
+      </c>
+      <c r="E294">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F294" s="2">
+        <f>VLOOKUP(A294,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="G294">
+        <f t="shared" ref="G294:I294" si="373">G293</f>
+        <v>1000</v>
+      </c>
+      <c r="H294">
+        <f t="shared" si="373"/>
+        <v>8</v>
+      </c>
+      <c r="I294">
+        <f t="shared" si="373"/>
+        <v>0</v>
+      </c>
+      <c r="J294" t="s">
+        <v>60</v>
+      </c>
+      <c r="K294">
+        <f t="shared" si="306"/>
+        <v>60400</v>
+      </c>
+      <c r="L294">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M294">
+        <f>VLOOKUP(A294,Balance!E:L,8,FALSE)/2</f>
+        <v>753250</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295" s="1" t="str">
+        <f t="shared" ref="B295:C295" si="374">B294</f>
+        <v>1-1</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="374"/>
+        <v>9031</v>
+      </c>
+      <c r="D295">
+        <f>VLOOKUP(A295,Balance!E:K,7,FALSE)</f>
+        <v>379125</v>
+      </c>
+      <c r="E295">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F295" s="2">
+        <f>VLOOKUP(A295,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999997E+165</v>
+      </c>
+      <c r="G295">
+        <f t="shared" ref="G295:I295" si="375">G294</f>
+        <v>1000</v>
+      </c>
+      <c r="H295">
+        <f t="shared" si="375"/>
+        <v>8</v>
+      </c>
+      <c r="I295">
+        <f t="shared" si="375"/>
+        <v>0</v>
+      </c>
+      <c r="J295" t="s">
+        <v>60</v>
+      </c>
+      <c r="K295">
+        <f t="shared" si="306"/>
+        <v>60600</v>
+      </c>
+      <c r="L295">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M295">
+        <f>VLOOKUP(A295,Balance!E:L,8,FALSE)/2</f>
+        <v>758250</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296" s="1" t="str">
+        <f t="shared" ref="B296:C296" si="376">B295</f>
+        <v>1-1</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="376"/>
+        <v>9031</v>
+      </c>
+      <c r="D296">
+        <f>VLOOKUP(A296,Balance!E:K,7,FALSE)</f>
+        <v>381625</v>
+      </c>
+      <c r="E296">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F296" s="2">
+        <f>VLOOKUP(A296,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999994E+165</v>
+      </c>
+      <c r="G296">
+        <f t="shared" ref="G296:I296" si="377">G295</f>
+        <v>1000</v>
+      </c>
+      <c r="H296">
+        <f t="shared" si="377"/>
+        <v>8</v>
+      </c>
+      <c r="I296">
+        <f t="shared" si="377"/>
+        <v>0</v>
+      </c>
+      <c r="J296" t="s">
+        <v>60</v>
+      </c>
+      <c r="K296">
+        <f t="shared" si="306"/>
+        <v>60800</v>
+      </c>
+      <c r="L296">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M296">
+        <f>VLOOKUP(A296,Balance!E:L,8,FALSE)/2</f>
+        <v>763250</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297" s="1" t="str">
+        <f t="shared" ref="B297:C297" si="378">B296</f>
+        <v>1-1</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="378"/>
+        <v>9031</v>
+      </c>
+      <c r="D297">
+        <f>VLOOKUP(A297,Balance!E:K,7,FALSE)</f>
+        <v>384125</v>
+      </c>
+      <c r="E297">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F297" s="2">
+        <f>VLOOKUP(A297,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+166</v>
+      </c>
+      <c r="G297">
+        <f t="shared" ref="G297:I297" si="379">G296</f>
+        <v>1000</v>
+      </c>
+      <c r="H297">
+        <f t="shared" si="379"/>
+        <v>8</v>
+      </c>
+      <c r="I297">
+        <f t="shared" si="379"/>
+        <v>0</v>
+      </c>
+      <c r="J297" t="s">
+        <v>60</v>
+      </c>
+      <c r="K297">
+        <f t="shared" si="306"/>
+        <v>61000</v>
+      </c>
+      <c r="L297">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M297">
+        <f>VLOOKUP(A297,Balance!E:L,8,FALSE)/2</f>
+        <v>768250</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298" s="1" t="str">
+        <f t="shared" ref="B298:C298" si="380">B297</f>
+        <v>1-1</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="380"/>
+        <v>9031</v>
+      </c>
+      <c r="D298">
+        <f>VLOOKUP(A298,Balance!E:K,7,FALSE)</f>
+        <v>386625</v>
+      </c>
+      <c r="E298">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F298" s="2">
+        <f>VLOOKUP(A298,Balance!E:K,3,FALSE)</f>
+        <v>1E+167</v>
+      </c>
+      <c r="G298">
+        <f t="shared" ref="G298:I298" si="381">G297</f>
+        <v>1000</v>
+      </c>
+      <c r="H298">
+        <f t="shared" si="381"/>
+        <v>8</v>
+      </c>
+      <c r="I298">
+        <f t="shared" si="381"/>
+        <v>0</v>
+      </c>
+      <c r="J298" t="s">
+        <v>60</v>
+      </c>
+      <c r="K298">
+        <f t="shared" si="306"/>
+        <v>61200</v>
+      </c>
+      <c r="L298">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M298">
+        <f>VLOOKUP(A298,Balance!E:L,8,FALSE)/2</f>
+        <v>773250</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299" s="1" t="str">
+        <f t="shared" ref="B299:C299" si="382">B298</f>
+        <v>1-1</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="382"/>
+        <v>9031</v>
+      </c>
+      <c r="D299">
+        <f>VLOOKUP(A299,Balance!E:K,7,FALSE)</f>
+        <v>389125</v>
+      </c>
+      <c r="E299">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+      <c r="F299" s="2">
+        <f>VLOOKUP(A299,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999997E+167</v>
+      </c>
+      <c r="G299">
+        <f t="shared" ref="G299:I299" si="383">G298</f>
+        <v>1000</v>
+      </c>
+      <c r="H299">
+        <f t="shared" si="383"/>
+        <v>8</v>
+      </c>
+      <c r="I299">
+        <f t="shared" si="383"/>
+        <v>0</v>
+      </c>
+      <c r="J299" t="s">
+        <v>60</v>
+      </c>
+      <c r="K299">
+        <f t="shared" si="306"/>
+        <v>61400</v>
+      </c>
+      <c r="L299">
+        <f t="shared" si="307"/>
+        <v>9031</v>
+      </c>
+      <c r="M299">
+        <f>VLOOKUP(A299,Balance!E:L,8,FALSE)/2</f>
+        <v>778250</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L291">
+  <conditionalFormatting sqref="A2:L299">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -16090,10 +16510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z300"/>
+  <dimension ref="A1:Z307"/>
   <sheetViews>
-    <sheetView topLeftCell="B266" workbookViewId="0">
-      <selection activeCell="G295" sqref="G295"/>
+    <sheetView topLeftCell="B280" workbookViewId="0">
+      <selection activeCell="E307" sqref="E307:N307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18398,8 +18818,20 @@
         <v>42000</v>
       </c>
       <c r="M50" s="22"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
+      <c r="N50" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="O50" s="16">
+        <v>172</v>
+      </c>
+      <c r="P50" s="17">
+        <f t="shared" ref="P50" si="27">POWER(10,O50)</f>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="Q50" s="17" t="str">
+        <f t="shared" ref="Q50" si="28">RIGHT(P50,O50)</f>
+        <v>1E+172</v>
+      </c>
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
@@ -19203,7 +19635,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F132" si="27">H69&amp;I69</f>
+        <f t="shared" ref="F69:F132" si="29">H69&amp;I69</f>
         <v>10극</v>
       </c>
       <c r="G69" s="17">
@@ -19237,7 +19669,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50극</v>
       </c>
       <c r="G70" s="17">
@@ -19271,7 +19703,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100극</v>
       </c>
       <c r="G71" s="17">
@@ -19305,7 +19737,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500극</v>
       </c>
       <c r="G72" s="17">
@@ -19339,7 +19771,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000극</v>
       </c>
       <c r="G73" s="17">
@@ -19355,7 +19787,7 @@
         <v>극</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J136" si="28">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J136" si="30">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="K73" s="22">
@@ -19373,11 +19805,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000극</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G137" si="29">H74*J74</f>
+        <f t="shared" ref="G74:G137" si="31">H74*J74</f>
         <v>5E+51</v>
       </c>
       <c r="H74" s="17">
@@ -19389,11 +19821,11 @@
         <v>극</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+48</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" ref="K74:K137" si="30">L74*0.25</f>
+        <f t="shared" ref="K74:K137" si="32">L74*0.25</f>
         <v>22875</v>
       </c>
       <c r="L74" s="22">
@@ -19407,11 +19839,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1항</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="H75" s="17">
@@ -19423,15 +19855,15 @@
         <v>항</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+52</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>23500</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" ref="L75:L138" si="31">L74+500+QUOTIENT(E75,15)*500</f>
+        <f t="shared" ref="L75:L138" si="33">L74+500+QUOTIENT(E75,15)*500</f>
         <v>94000</v>
       </c>
       <c r="M75" s="22"/>
@@ -19441,11 +19873,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5항</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5E+52</v>
       </c>
       <c r="H76" s="17">
@@ -19457,15 +19889,15 @@
         <v>항</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+52</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>24125</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>96500</v>
       </c>
       <c r="M76" s="22"/>
@@ -19475,11 +19907,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10항</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999999E+52</v>
       </c>
       <c r="H77" s="17">
@@ -19491,15 +19923,15 @@
         <v>항</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+52</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>24750</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>99000</v>
       </c>
       <c r="M77" s="22"/>
@@ -19509,11 +19941,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50항</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000004E+53</v>
       </c>
       <c r="H78" s="17">
@@ -19525,15 +19957,15 @@
         <v>항</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+52</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>25375</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>101500</v>
       </c>
       <c r="M78" s="22"/>
@@ -19543,11 +19975,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100항</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+54</v>
       </c>
       <c r="H79" s="17">
@@ -19559,15 +19991,15 @@
         <v>항</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+52</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>26000</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>104000</v>
       </c>
       <c r="M79" s="22"/>
@@ -19577,11 +20009,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500항</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000001E+54</v>
       </c>
       <c r="H80" s="17">
@@ -19593,15 +20025,15 @@
         <v>항</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+52</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>26625</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>106500</v>
       </c>
       <c r="M80" s="22"/>
@@ -19611,11 +20043,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000항</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+55</v>
       </c>
       <c r="H81" s="17">
@@ -19627,15 +20059,15 @@
         <v>항</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+52</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>27250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>109000</v>
       </c>
       <c r="M81" s="22"/>
@@ -19645,15 +20077,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000항</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000005E+55</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" ref="H82:H145" si="32">H74</f>
+        <f t="shared" ref="H82:H145" si="34">H74</f>
         <v>5000</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -19661,11 +20093,11 @@
         <v>항</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+52</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>27875</v>
       </c>
       <c r="L82" s="22">
@@ -19679,15 +20111,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1아</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -19695,15 +20127,15 @@
         <v>아</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+56</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>28500</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>114000</v>
       </c>
       <c r="M83" s="22"/>
@@ -19713,15 +20145,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5아</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000002E+56</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -19729,15 +20161,15 @@
         <v>아</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+56</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>29250</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>117000</v>
       </c>
       <c r="M84" s="22"/>
@@ -19747,15 +20179,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10아</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+57</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -19763,15 +20195,15 @@
         <v>아</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+56</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>30000</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>120000</v>
       </c>
       <c r="M85" s="22"/>
@@ -19781,15 +20213,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50아</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000004E+57</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -19797,15 +20229,15 @@
         <v>아</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+56</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>30750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>123000</v>
       </c>
       <c r="M86" s="22"/>
@@ -19815,15 +20247,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100아</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+58</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -19831,15 +20263,15 @@
         <v>아</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+56</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>31500</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>126000</v>
       </c>
       <c r="M87" s="22"/>
@@ -19849,15 +20281,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500아</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000004E+58</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -19865,15 +20297,15 @@
         <v>아</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+56</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>32250</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>129000</v>
       </c>
       <c r="M88" s="22"/>
@@ -19883,15 +20315,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000아</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+59</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -19899,15 +20331,15 @@
         <v>아</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+56</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>33000</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>132000</v>
       </c>
       <c r="M89" s="22"/>
@@ -19917,15 +20349,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000아</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000006E+59</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -19933,15 +20365,15 @@
         <v>아</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+56</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>33750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>135000</v>
       </c>
       <c r="M90" s="22"/>
@@ -19951,15 +20383,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1나</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -19967,15 +20399,15 @@
         <v>나</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+60</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>34500</v>
       </c>
       <c r="L91" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>138000</v>
       </c>
       <c r="M91" s="22"/>
@@ -19985,15 +20417,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5나</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999997E+60</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -20001,15 +20433,15 @@
         <v>나</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+60</v>
       </c>
       <c r="K92" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>35250</v>
       </c>
       <c r="L92" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>141000</v>
       </c>
       <c r="M92" s="22"/>
@@ -20019,15 +20451,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10나</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999995E+60</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -20035,15 +20467,15 @@
         <v>나</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+60</v>
       </c>
       <c r="K93" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>36000</v>
       </c>
       <c r="L93" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>144000</v>
       </c>
       <c r="M93" s="22"/>
@@ -20053,15 +20485,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50나</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999996E+61</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -20069,15 +20501,15 @@
         <v>나</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+60</v>
       </c>
       <c r="K94" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>36750</v>
       </c>
       <c r="L94" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>147000</v>
       </c>
       <c r="M94" s="22"/>
@@ -20087,15 +20519,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100나</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999992E+61</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -20103,15 +20535,15 @@
         <v>나</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+60</v>
       </c>
       <c r="K95" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>37500</v>
       </c>
       <c r="L95" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>150000</v>
       </c>
       <c r="M95" s="22"/>
@@ -20121,15 +20553,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500나</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999994E+62</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -20137,15 +20569,15 @@
         <v>나</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+60</v>
       </c>
       <c r="K96" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>38250</v>
       </c>
       <c r="L96" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>153000</v>
       </c>
       <c r="M96" s="22"/>
@@ -20155,15 +20587,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000나</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999988E+62</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -20171,15 +20603,15 @@
         <v>나</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+60</v>
       </c>
       <c r="K97" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>39000</v>
       </c>
       <c r="L97" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>156000</v>
       </c>
       <c r="M97" s="22"/>
@@ -20189,15 +20621,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000나</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000001E+63</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -20205,15 +20637,15 @@
         <v>나</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+60</v>
       </c>
       <c r="K98" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>39750</v>
       </c>
       <c r="L98" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>159000</v>
       </c>
       <c r="M98" s="22"/>
@@ -20223,15 +20655,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1불</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+64</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -20239,15 +20671,15 @@
         <v>불</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+64</v>
       </c>
       <c r="K99" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>40625</v>
       </c>
       <c r="L99" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>162500</v>
       </c>
       <c r="M99" s="22"/>
@@ -20257,15 +20689,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5불</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5E+64</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -20273,15 +20705,15 @@
         <v>불</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+64</v>
       </c>
       <c r="K100" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>41500</v>
       </c>
       <c r="L100" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>166000</v>
       </c>
       <c r="M100" s="22"/>
@@ -20291,15 +20723,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10불</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999999E+64</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -20307,15 +20739,15 @@
         <v>불</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+64</v>
       </c>
       <c r="K101" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>42375</v>
       </c>
       <c r="L101" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>169500</v>
       </c>
       <c r="M101" s="22"/>
@@ -20325,15 +20757,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50불</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999997E+65</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -20341,15 +20773,15 @@
         <v>불</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+64</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>43250</v>
       </c>
       <c r="L102" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>173000</v>
       </c>
       <c r="M102" s="22"/>
@@ -20359,15 +20791,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100불</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999995E+65</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -20375,15 +20807,15 @@
         <v>불</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+64</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>44125</v>
       </c>
       <c r="L103" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>176500</v>
       </c>
       <c r="M103" s="22"/>
@@ -20393,15 +20825,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500불</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999999E+66</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -20409,15 +20841,15 @@
         <v>불</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+64</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>45000</v>
       </c>
       <c r="L104" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>180000</v>
       </c>
       <c r="M104" s="22"/>
@@ -20427,15 +20859,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000불</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999998E+66</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -20443,15 +20875,15 @@
         <v>불</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+64</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>45875</v>
       </c>
       <c r="L105" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>183500</v>
       </c>
       <c r="M105" s="22"/>
@@ -20461,15 +20893,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000불</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000004E+67</v>
       </c>
       <c r="H106" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -20477,15 +20909,15 @@
         <v>불</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+64</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>46750</v>
       </c>
       <c r="L106" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>187000</v>
       </c>
       <c r="M106" s="22"/>
@@ -20495,15 +20927,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1무</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="H107" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -20511,15 +20943,15 @@
         <v>무</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+68</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>47625</v>
       </c>
       <c r="L107" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>190500</v>
       </c>
       <c r="M107" s="22"/>
@@ -20529,15 +20961,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5무</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999994E+68</v>
       </c>
       <c r="H108" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -20545,15 +20977,15 @@
         <v>무</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+68</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>48500</v>
       </c>
       <c r="L108" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>194000</v>
       </c>
       <c r="M108" s="22"/>
@@ -20563,15 +20995,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10무</v>
       </c>
       <c r="G109" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999988E+68</v>
       </c>
       <c r="H109" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -20579,15 +21011,15 @@
         <v>무</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+68</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>49375</v>
       </c>
       <c r="L109" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>197500</v>
       </c>
       <c r="M109" s="22"/>
@@ -20597,15 +21029,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50무</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999996E+69</v>
       </c>
       <c r="H110" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -20613,15 +21045,15 @@
         <v>무</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+68</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50250</v>
       </c>
       <c r="L110" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>201000</v>
       </c>
       <c r="M110" s="22"/>
@@ -20631,15 +21063,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100무</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="H111" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -20647,15 +21079,15 @@
         <v>무</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+68</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>51125</v>
       </c>
       <c r="L111" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>204500</v>
       </c>
       <c r="M111" s="22"/>
@@ -20665,15 +21097,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500무</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999996E+70</v>
       </c>
       <c r="H112" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -20681,15 +21113,15 @@
         <v>무</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+68</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>52000</v>
       </c>
       <c r="L112" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>208000</v>
       </c>
       <c r="M112" s="22"/>
@@ -20699,15 +21131,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000무</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999992E+70</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -20715,15 +21147,15 @@
         <v>무</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+68</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>52875</v>
       </c>
       <c r="L113" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>211500</v>
       </c>
       <c r="M113" s="22"/>
@@ -20733,15 +21165,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000무</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999997E+71</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -20749,15 +21181,15 @@
         <v>무</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+68</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>53875</v>
       </c>
       <c r="L114" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>215500</v>
       </c>
       <c r="M114" s="22"/>
@@ -20767,15 +21199,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1대</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -20783,15 +21215,15 @@
         <v>대</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+72</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>54875</v>
       </c>
       <c r="L115" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>219500</v>
       </c>
       <c r="M115" s="22"/>
@@ -20801,15 +21233,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5대</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999999E+72</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -20817,15 +21249,15 @@
         <v>대</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+72</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>55875</v>
       </c>
       <c r="L116" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>223500</v>
       </c>
       <c r="M116" s="22"/>
@@ -20835,15 +21267,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10대</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -20851,15 +21283,15 @@
         <v>대</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+72</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>56875</v>
       </c>
       <c r="L117" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>227500</v>
       </c>
       <c r="M117" s="22"/>
@@ -20869,15 +21301,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50대</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999998E+73</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -20885,15 +21317,15 @@
         <v>대</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+72</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>57875</v>
       </c>
       <c r="L118" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>231500</v>
       </c>
       <c r="M118" s="22"/>
@@ -20903,15 +21335,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100대</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -20919,15 +21351,15 @@
         <v>대</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+72</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>58875</v>
       </c>
       <c r="L119" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>235500</v>
       </c>
       <c r="M119" s="22"/>
@@ -20937,15 +21369,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500대</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999996E+74</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -20953,15 +21385,15 @@
         <v>대</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+72</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>59875</v>
       </c>
       <c r="L120" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>239500</v>
       </c>
       <c r="M120" s="22"/>
@@ -20971,15 +21403,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000대</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -20987,15 +21419,15 @@
         <v>대</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+72</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>60875</v>
       </c>
       <c r="L121" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>243500</v>
       </c>
       <c r="M121" s="22"/>
@@ -21005,15 +21437,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000대</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999994E+75</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -21021,15 +21453,15 @@
         <v>대</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+72</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>61875</v>
       </c>
       <c r="L122" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>247500</v>
       </c>
       <c r="M122" s="22"/>
@@ -21039,15 +21471,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1겁</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+76</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -21055,15 +21487,15 @@
         <v>겁</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+76</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>62875</v>
       </c>
       <c r="L123" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>251500</v>
       </c>
       <c r="M123" s="22"/>
@@ -21073,15 +21505,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5겁</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000006E+76</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -21089,15 +21521,15 @@
         <v>겁</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+76</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>63875</v>
       </c>
       <c r="L124" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>255500</v>
       </c>
       <c r="M124" s="22"/>
@@ -21107,15 +21539,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10겁</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+77</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -21123,15 +21555,15 @@
         <v>겁</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+76</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>64875</v>
       </c>
       <c r="L125" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>259500</v>
       </c>
       <c r="M125" s="22"/>
@@ -21141,15 +21573,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>50겁</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5E+77</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -21157,15 +21589,15 @@
         <v>겁</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+76</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>65875</v>
       </c>
       <c r="L126" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>263500</v>
       </c>
       <c r="M126" s="22"/>
@@ -21175,15 +21607,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100겁</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+78</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -21191,15 +21623,15 @@
         <v>겁</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+76</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>66875</v>
       </c>
       <c r="L127" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>267500</v>
       </c>
       <c r="M127" s="22"/>
@@ -21209,15 +21641,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>500겁</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999998E+78</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -21225,15 +21657,15 @@
         <v>겁</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+76</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>67875</v>
       </c>
       <c r="L128" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>271500</v>
       </c>
       <c r="M128" s="22"/>
@@ -21243,15 +21675,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1000겁</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -21259,15 +21691,15 @@
         <v>겁</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+76</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>69000</v>
       </c>
       <c r="L129" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>276000</v>
       </c>
       <c r="M129" s="22"/>
@@ -21277,15 +21709,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5000겁</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5E+79</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -21293,15 +21725,15 @@
         <v>겁</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+76</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>70125</v>
       </c>
       <c r="L130" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>280500</v>
       </c>
       <c r="M130" s="22"/>
@@ -21311,15 +21743,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1업</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+80</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -21327,15 +21759,15 @@
         <v>업</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+80</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>71250</v>
       </c>
       <c r="L131" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>285000</v>
       </c>
       <c r="M131" s="22"/>
@@ -21345,15 +21777,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5업</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999996E+80</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -21361,15 +21793,15 @@
         <v>업</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+80</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>72375</v>
       </c>
       <c r="L132" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>289500</v>
       </c>
       <c r="M132" s="22"/>
@@ -21379,15 +21811,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" ref="F133:F184" si="33">H133&amp;I133</f>
+        <f t="shared" ref="F133:F184" si="35">H133&amp;I133</f>
         <v>10업</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -21395,15 +21827,15 @@
         <v>업</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+80</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>73500</v>
       </c>
       <c r="L133" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>294000</v>
       </c>
       <c r="M133" s="22"/>
@@ -21413,15 +21845,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50업</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9999999999999998E+81</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -21429,15 +21861,15 @@
         <v>업</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+80</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>74625</v>
       </c>
       <c r="L134" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>298500</v>
       </c>
       <c r="M134" s="22"/>
@@ -21447,15 +21879,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100업</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -21463,15 +21895,15 @@
         <v>업</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+80</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>75750</v>
       </c>
       <c r="L135" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>303000</v>
       </c>
       <c r="M135" s="22"/>
@@ -21481,15 +21913,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500업</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0000000000000002E+82</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -21497,15 +21929,15 @@
         <v>업</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+80</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>76875</v>
       </c>
       <c r="L136" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>307500</v>
       </c>
       <c r="M136" s="22"/>
@@ -21515,15 +21947,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000업</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+83</v>
       </c>
       <c r="H137" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I137" s="16" t="str" cm="1">
@@ -21531,15 +21963,15 @@
         <v>업</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" ref="J137:J200" si="34">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J137:J200" si="36">VLOOKUP(I137,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>78000</v>
       </c>
       <c r="L137" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>312000</v>
       </c>
       <c r="M137" s="22"/>
@@ -21549,15 +21981,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000업</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" ref="G138:G184" si="35">H138*J138</f>
+        <f t="shared" ref="G138:G184" si="37">H138*J138</f>
         <v>5.0000000000000003E+83</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="I138" s="16" t="str" cm="1">
@@ -21565,15 +21997,15 @@
         <v>업</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+80</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" ref="K138:K184" si="36">L138*0.25</f>
+        <f t="shared" ref="K138:K184" si="38">L138*0.25</f>
         <v>79125</v>
       </c>
       <c r="L138" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>316500</v>
       </c>
       <c r="M138" s="22"/>
@@ -21583,15 +22015,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1긍</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I139" s="16" t="str" cm="1">
@@ -21599,15 +22031,15 @@
         <v>긍</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+84</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>80250</v>
       </c>
       <c r="L139" s="22">
-        <f t="shared" ref="L139:L184" si="37">L138+500+QUOTIENT(E139,15)*500</f>
+        <f t="shared" ref="L139:L184" si="39">L138+500+QUOTIENT(E139,15)*500</f>
         <v>321000</v>
       </c>
       <c r="M139" s="22"/>
@@ -21617,15 +22049,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5긍</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000001E+84</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I140" s="16" t="str" cm="1">
@@ -21633,15 +22065,15 @@
         <v>긍</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+84</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>81375</v>
       </c>
       <c r="L140" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>325500</v>
       </c>
       <c r="M140" s="22"/>
@@ -21651,15 +22083,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10긍</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+85</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I141" s="16" t="str" cm="1">
@@ -21667,15 +22099,15 @@
         <v>긍</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+84</v>
       </c>
       <c r="K141" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>82500</v>
       </c>
       <c r="L141" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>330000</v>
       </c>
       <c r="M141" s="22"/>
@@ -21685,15 +22117,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50긍</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000001E+85</v>
       </c>
       <c r="H142" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="I142" s="16" t="str" cm="1">
@@ -21701,15 +22133,15 @@
         <v>긍</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+84</v>
       </c>
       <c r="K142" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>83625</v>
       </c>
       <c r="L142" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>334500</v>
       </c>
       <c r="M142" s="22"/>
@@ -21719,15 +22151,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100긍</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+86</v>
       </c>
       <c r="H143" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
       <c r="I143" s="16" t="str" cm="1">
@@ -21735,15 +22167,15 @@
         <v>긍</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+84</v>
       </c>
       <c r="K143" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>84750</v>
       </c>
       <c r="L143" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>339000</v>
       </c>
       <c r="M143" s="22"/>
@@ -21753,15 +22185,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500긍</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999998E+86</v>
       </c>
       <c r="H144" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>500</v>
       </c>
       <c r="I144" s="16" t="str" cm="1">
@@ -21769,15 +22201,15 @@
         <v>긍</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+84</v>
       </c>
       <c r="K144" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>86000</v>
       </c>
       <c r="L144" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>344000</v>
       </c>
       <c r="M144" s="22"/>
@@ -21787,15 +22219,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000긍</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="H145" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="I145" s="16" t="str" cm="1">
@@ -21803,15 +22235,15 @@
         <v>긍</v>
       </c>
       <c r="J145" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+84</v>
       </c>
       <c r="K145" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>87250</v>
       </c>
       <c r="L145" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>349000</v>
       </c>
       <c r="M145" s="22"/>
@@ -21821,15 +22253,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000긍</v>
       </c>
       <c r="G146" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000007E+87</v>
       </c>
       <c r="H146" s="17">
-        <f t="shared" ref="H146:H300" si="38">H138</f>
+        <f t="shared" ref="H146:H307" si="40">H138</f>
         <v>5000</v>
       </c>
       <c r="I146" s="16" t="str" cm="1">
@@ -21837,15 +22269,15 @@
         <v>긍</v>
       </c>
       <c r="J146" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+84</v>
       </c>
       <c r="K146" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>88500</v>
       </c>
       <c r="L146" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>354000</v>
       </c>
       <c r="M146" s="22"/>
@@ -21855,15 +22287,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1갈</v>
       </c>
       <c r="G147" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="H147" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="I147" s="16" t="str" cm="1">
@@ -21871,15 +22303,15 @@
         <v>갈</v>
       </c>
       <c r="J147" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+88</v>
       </c>
       <c r="K147" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>89750</v>
       </c>
       <c r="L147" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>359000</v>
       </c>
       <c r="M147" s="22"/>
@@ -21889,15 +22321,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5갈</v>
       </c>
       <c r="G148" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5E+88</v>
       </c>
       <c r="H148" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="I148" s="16" t="str" cm="1">
@@ -21905,15 +22337,15 @@
         <v>갈</v>
       </c>
       <c r="J148" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+88</v>
       </c>
       <c r="K148" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>91000</v>
       </c>
       <c r="L148" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>364000</v>
       </c>
       <c r="M148" s="22"/>
@@ -21923,15 +22355,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10갈</v>
       </c>
       <c r="G149" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="H149" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I149" s="16" t="str" cm="1">
@@ -21939,15 +22371,15 @@
         <v>갈</v>
       </c>
       <c r="J149" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+88</v>
       </c>
       <c r="K149" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>92250</v>
       </c>
       <c r="L149" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>369000</v>
       </c>
       <c r="M149" s="22"/>
@@ -21957,15 +22389,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50갈</v>
       </c>
       <c r="G150" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999998E+89</v>
       </c>
       <c r="H150" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I150" s="16" t="str" cm="1">
@@ -21973,15 +22405,15 @@
         <v>갈</v>
       </c>
       <c r="J150" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+88</v>
       </c>
       <c r="K150" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>93500</v>
       </c>
       <c r="L150" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>374000</v>
       </c>
       <c r="M150" s="22"/>
@@ -21991,15 +22423,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100갈</v>
       </c>
       <c r="G151" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="H151" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I151" s="16" t="str" cm="1">
@@ -22007,15 +22439,15 @@
         <v>갈</v>
       </c>
       <c r="J151" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+88</v>
       </c>
       <c r="K151" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>94750</v>
       </c>
       <c r="L151" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>379000</v>
       </c>
       <c r="M151" s="22"/>
@@ -22025,15 +22457,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500갈</v>
       </c>
       <c r="G152" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999995E+90</v>
       </c>
       <c r="H152" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I152" s="16" t="str" cm="1">
@@ -22041,15 +22473,15 @@
         <v>갈</v>
       </c>
       <c r="J152" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+88</v>
       </c>
       <c r="K152" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>96000</v>
       </c>
       <c r="L152" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>384000</v>
       </c>
       <c r="M152" s="22"/>
@@ -22059,15 +22491,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000갈</v>
       </c>
       <c r="G153" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="H153" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I153" s="16" t="str" cm="1">
@@ -22075,15 +22507,15 @@
         <v>갈</v>
       </c>
       <c r="J153" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+88</v>
       </c>
       <c r="K153" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>97250</v>
       </c>
       <c r="L153" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>389000</v>
       </c>
       <c r="M153" s="22"/>
@@ -22093,15 +22525,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000갈</v>
       </c>
       <c r="G154" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999995E+91</v>
       </c>
       <c r="H154" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000</v>
       </c>
       <c r="I154" s="16" t="str" cm="1">
@@ -22109,15 +22541,15 @@
         <v>갈</v>
       </c>
       <c r="J154" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+88</v>
       </c>
       <c r="K154" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>98500</v>
       </c>
       <c r="L154" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>394000</v>
       </c>
       <c r="M154" s="22"/>
@@ -22127,15 +22559,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1라</v>
       </c>
       <c r="G155" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+92</v>
       </c>
       <c r="H155" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="I155" s="16" t="str" cm="1">
@@ -22143,15 +22575,15 @@
         <v>라</v>
       </c>
       <c r="J155" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+92</v>
       </c>
       <c r="K155" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>99750</v>
       </c>
       <c r="L155" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>399000</v>
       </c>
       <c r="M155" s="22"/>
@@ -22161,15 +22593,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5라</v>
       </c>
       <c r="G156" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000002E+92</v>
       </c>
       <c r="H156" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="I156" s="16" t="str" cm="1">
@@ -22177,15 +22609,15 @@
         <v>라</v>
       </c>
       <c r="J156" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+92</v>
       </c>
       <c r="K156" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>101000</v>
       </c>
       <c r="L156" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>404000</v>
       </c>
       <c r="M156" s="22"/>
@@ -22195,15 +22627,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10라</v>
       </c>
       <c r="G157" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+93</v>
       </c>
       <c r="H157" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I157" s="16" t="str" cm="1">
@@ -22211,15 +22643,15 @@
         <v>라</v>
       </c>
       <c r="J157" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+92</v>
       </c>
       <c r="K157" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>102250</v>
       </c>
       <c r="L157" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>409000</v>
       </c>
       <c r="M157" s="22"/>
@@ -22229,15 +22661,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50라</v>
       </c>
       <c r="G158" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000001E+93</v>
       </c>
       <c r="H158" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I158" s="16" t="str" cm="1">
@@ -22245,15 +22677,15 @@
         <v>라</v>
       </c>
       <c r="J158" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+92</v>
       </c>
       <c r="K158" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>103500</v>
       </c>
       <c r="L158" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>414000</v>
       </c>
       <c r="M158" s="22"/>
@@ -22263,15 +22695,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100라</v>
       </c>
       <c r="G159" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+94</v>
       </c>
       <c r="H159" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I159" s="16" t="str" cm="1">
@@ -22279,15 +22711,15 @@
         <v>라</v>
       </c>
       <c r="J159" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+92</v>
       </c>
       <c r="K159" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>104875</v>
       </c>
       <c r="L159" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>419500</v>
       </c>
       <c r="M159" s="22"/>
@@ -22297,15 +22729,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500라</v>
       </c>
       <c r="G160" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000001E+94</v>
       </c>
       <c r="H160" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I160" s="16" t="str" cm="1">
@@ -22313,15 +22745,15 @@
         <v>라</v>
       </c>
       <c r="J160" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+92</v>
       </c>
       <c r="K160" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>106250</v>
       </c>
       <c r="L160" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>425000</v>
       </c>
       <c r="M160" s="22"/>
@@ -22331,15 +22763,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000라</v>
       </c>
       <c r="G161" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+95</v>
       </c>
       <c r="H161" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I161" s="16" t="str" cm="1">
@@ -22347,15 +22779,15 @@
         <v>라</v>
       </c>
       <c r="J161" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+92</v>
       </c>
       <c r="K161" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>107625</v>
       </c>
       <c r="L161" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>430500</v>
       </c>
       <c r="M161" s="22"/>
@@ -22365,15 +22797,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000라</v>
       </c>
       <c r="G162" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000002E+95</v>
       </c>
       <c r="H162" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000</v>
       </c>
       <c r="I162" s="16" t="str" cm="1">
@@ -22381,15 +22813,15 @@
         <v>라</v>
       </c>
       <c r="J162" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+92</v>
       </c>
       <c r="K162" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>109000</v>
       </c>
       <c r="L162" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>436000</v>
       </c>
       <c r="M162" s="22"/>
@@ -22399,15 +22831,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1가</v>
       </c>
       <c r="G163" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+96</v>
       </c>
       <c r="H163" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="I163" s="16" t="str" cm="1">
@@ -22415,15 +22847,15 @@
         <v>가</v>
       </c>
       <c r="J163" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+96</v>
       </c>
       <c r="K163" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>110375</v>
       </c>
       <c r="L163" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>441500</v>
       </c>
       <c r="M163" s="22"/>
@@ -22433,15 +22865,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5가</v>
       </c>
       <c r="G164" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000004E+96</v>
       </c>
       <c r="H164" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="I164" s="16" t="str" cm="1">
@@ -22449,15 +22881,15 @@
         <v>가</v>
       </c>
       <c r="J164" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+96</v>
       </c>
       <c r="K164" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>111750</v>
       </c>
       <c r="L164" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>447000</v>
       </c>
       <c r="M164" s="22"/>
@@ -22467,15 +22899,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10가</v>
       </c>
       <c r="G165" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H165" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I165" s="16" t="str" cm="1">
@@ -22483,15 +22915,15 @@
         <v>가</v>
       </c>
       <c r="J165" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+96</v>
       </c>
       <c r="K165" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>113125</v>
       </c>
       <c r="L165" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>452500</v>
       </c>
       <c r="M165" s="22"/>
@@ -22501,15 +22933,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50가</v>
       </c>
       <c r="G166" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5E+97</v>
       </c>
       <c r="H166" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I166" s="16" t="str" cm="1">
@@ -22517,15 +22949,15 @@
         <v>가</v>
       </c>
       <c r="J166" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+96</v>
       </c>
       <c r="K166" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>114500</v>
       </c>
       <c r="L166" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>458000</v>
       </c>
       <c r="M166" s="22"/>
@@ -22535,15 +22967,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100가</v>
       </c>
       <c r="G167" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+98</v>
       </c>
       <c r="H167" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I167" s="16" t="str" cm="1">
@@ -22551,15 +22983,15 @@
         <v>가</v>
       </c>
       <c r="J167" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+96</v>
       </c>
       <c r="K167" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>115875</v>
       </c>
       <c r="L167" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>463500</v>
       </c>
       <c r="M167" s="22"/>
@@ -22569,15 +23001,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500가</v>
       </c>
       <c r="G168" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000004E+98</v>
       </c>
       <c r="H168" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I168" s="16" t="str" cm="1">
@@ -22585,15 +23017,15 @@
         <v>가</v>
       </c>
       <c r="J168" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+96</v>
       </c>
       <c r="K168" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>117250</v>
       </c>
       <c r="L168" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>469000</v>
       </c>
       <c r="M168" s="22"/>
@@ -22603,15 +23035,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000가</v>
       </c>
       <c r="G169" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H169" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I169" s="16" t="str" cm="1">
@@ -22619,15 +23051,15 @@
         <v>가</v>
       </c>
       <c r="J169" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+96</v>
       </c>
       <c r="K169" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>118625</v>
       </c>
       <c r="L169" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>474500</v>
       </c>
       <c r="M169" s="22"/>
@@ -22637,15 +23069,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000가</v>
       </c>
       <c r="G170" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000001E+99</v>
       </c>
       <c r="H170" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000</v>
       </c>
       <c r="I170" s="16" t="str" cm="1">
@@ -22653,15 +23085,15 @@
         <v>가</v>
       </c>
       <c r="J170" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+96</v>
       </c>
       <c r="K170" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>120000</v>
       </c>
       <c r="L170" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>480000</v>
       </c>
       <c r="M170" s="22"/>
@@ -22671,15 +23103,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1언</v>
       </c>
       <c r="G171" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+100</v>
       </c>
       <c r="H171" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="I171" s="16" t="str" cm="1">
@@ -22687,15 +23119,15 @@
         <v>언</v>
       </c>
       <c r="J171" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+100</v>
       </c>
       <c r="K171" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>121375</v>
       </c>
       <c r="L171" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>485500</v>
       </c>
       <c r="M171" s="22"/>
@@ -22705,15 +23137,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5언</v>
       </c>
       <c r="G172" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999999E+100</v>
       </c>
       <c r="H172" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="I172" s="16" t="str" cm="1">
@@ -22721,15 +23153,15 @@
         <v>언</v>
       </c>
       <c r="J172" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+100</v>
       </c>
       <c r="K172" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>122750</v>
       </c>
       <c r="L172" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>491000</v>
       </c>
       <c r="M172" s="22"/>
@@ -22739,15 +23171,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10언</v>
       </c>
       <c r="G173" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H173" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I173" s="16" t="str" cm="1">
@@ -22755,15 +23187,15 @@
         <v>언</v>
       </c>
       <c r="J173" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+100</v>
       </c>
       <c r="K173" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>124125</v>
       </c>
       <c r="L173" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>496500</v>
       </c>
       <c r="M173" s="22"/>
@@ -22773,15 +23205,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50언</v>
       </c>
       <c r="G174" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999999E+101</v>
       </c>
       <c r="H174" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I174" s="16" t="str" cm="1">
@@ -22789,15 +23221,15 @@
         <v>언</v>
       </c>
       <c r="J174" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+100</v>
       </c>
       <c r="K174" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>125625</v>
       </c>
       <c r="L174" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>502500</v>
       </c>
       <c r="M174" s="22"/>
@@ -22807,15 +23239,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100언</v>
       </c>
       <c r="G175" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H175" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I175" s="16" t="str" cm="1">
@@ -22823,15 +23255,15 @@
         <v>언</v>
       </c>
       <c r="J175" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+100</v>
       </c>
       <c r="K175" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>127125</v>
       </c>
       <c r="L175" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>508500</v>
       </c>
       <c r="M175" s="22"/>
@@ -22841,15 +23273,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500언</v>
       </c>
       <c r="G176" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5E+102</v>
       </c>
       <c r="H176" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I176" s="16" t="str" cm="1">
@@ -22857,15 +23289,15 @@
         <v>언</v>
       </c>
       <c r="J176" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+100</v>
       </c>
       <c r="K176" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>128625</v>
       </c>
       <c r="L176" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>514500</v>
       </c>
       <c r="M176" s="22"/>
@@ -22875,15 +23307,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000언</v>
       </c>
       <c r="G177" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+103</v>
       </c>
       <c r="H177" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I177" s="16" t="str" cm="1">
@@ -22891,15 +23323,15 @@
         <v>언</v>
       </c>
       <c r="J177" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+100</v>
       </c>
       <c r="K177" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>130125</v>
       </c>
       <c r="L177" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>520500</v>
       </c>
       <c r="M177" s="22"/>
@@ -22909,15 +23341,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5000언</v>
       </c>
       <c r="G178" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5E+103</v>
       </c>
       <c r="H178" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000</v>
       </c>
       <c r="I178" s="16" t="str" cm="1">
@@ -22925,15 +23357,15 @@
         <v>언</v>
       </c>
       <c r="J178" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+100</v>
       </c>
       <c r="K178" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>131625</v>
       </c>
       <c r="L178" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>526500</v>
       </c>
       <c r="M178" s="22"/>
@@ -22943,15 +23375,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1승</v>
       </c>
       <c r="G179" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+104</v>
       </c>
       <c r="H179" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="I179" s="16" t="str" cm="1">
@@ -22959,15 +23391,15 @@
         <v>승</v>
       </c>
       <c r="J179" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+104</v>
       </c>
       <c r="K179" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>133125</v>
       </c>
       <c r="L179" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>532500</v>
       </c>
       <c r="M179" s="22"/>
@@ -22977,15 +23409,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5승</v>
       </c>
       <c r="G180" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999997E+104</v>
       </c>
       <c r="H180" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="I180" s="16" t="str" cm="1">
@@ -22993,15 +23425,15 @@
         <v>승</v>
       </c>
       <c r="J180" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+104</v>
       </c>
       <c r="K180" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>134625</v>
       </c>
       <c r="L180" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>538500</v>
       </c>
       <c r="M180" s="22"/>
@@ -23011,15 +23443,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10승</v>
       </c>
       <c r="G181" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H181" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I181" s="16" t="str" cm="1">
@@ -23027,15 +23459,15 @@
         <v>승</v>
       </c>
       <c r="J181" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+104</v>
       </c>
       <c r="K181" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>136125</v>
       </c>
       <c r="L181" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>544500</v>
       </c>
       <c r="M181" s="22"/>
@@ -23045,15 +23477,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>50승</v>
       </c>
       <c r="G182" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="H182" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I182" s="16" t="str" cm="1">
@@ -23061,15 +23493,15 @@
         <v>승</v>
       </c>
       <c r="J182" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+104</v>
       </c>
       <c r="K182" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>137625</v>
       </c>
       <c r="L182" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>550500</v>
       </c>
       <c r="M182" s="22"/>
@@ -23079,15 +23511,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100승</v>
       </c>
       <c r="G183" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H183" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I183" s="16" t="str" cm="1">
@@ -23095,15 +23527,15 @@
         <v>승</v>
       </c>
       <c r="J183" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+104</v>
       </c>
       <c r="K183" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>139125</v>
       </c>
       <c r="L183" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>556500</v>
       </c>
       <c r="M183" s="22"/>
@@ -23113,15 +23545,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>500승</v>
       </c>
       <c r="G184" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="H184" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I184" s="16" t="str" cm="1">
@@ -23129,15 +23561,15 @@
         <v>승</v>
       </c>
       <c r="J184" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+104</v>
       </c>
       <c r="K184" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>140625</v>
       </c>
       <c r="L184" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>562500</v>
       </c>
       <c r="M184" s="22"/>
@@ -23147,15 +23579,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="17" t="str">
-        <f t="shared" ref="F185:F234" si="39">H185&amp;I185</f>
+        <f t="shared" ref="F185:F234" si="41">H185&amp;I185</f>
         <v>1000승</v>
       </c>
       <c r="G185" s="17">
-        <f t="shared" ref="G185:G234" si="40">H185*J185</f>
+        <f t="shared" ref="G185:G234" si="42">H185*J185</f>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H185" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I185" s="16" t="str" cm="1">
@@ -23163,15 +23595,15 @@
         <v>승</v>
       </c>
       <c r="J185" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+104</v>
       </c>
       <c r="K185" s="22">
-        <f t="shared" ref="K185:K234" si="41">L185*0.25</f>
+        <f t="shared" ref="K185:K234" si="43">L185*0.25</f>
         <v>142125</v>
       </c>
       <c r="L185" s="22">
-        <f t="shared" ref="L185:L234" si="42">L184+500+QUOTIENT(E185,15)*500</f>
+        <f t="shared" ref="L185:L234" si="44">L184+500+QUOTIENT(E185,15)*500</f>
         <v>568500</v>
       </c>
     </row>
@@ -23180,15 +23612,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000승</v>
       </c>
       <c r="G186" s="17">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000002E+107</v>
+      </c>
+      <c r="H186" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000002E+107</v>
-      </c>
-      <c r="H186" s="17">
-        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I186" s="16" t="str" cm="1">
@@ -23196,15 +23628,15 @@
         <v>승</v>
       </c>
       <c r="J186" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+104</v>
       </c>
       <c r="K186" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>143625</v>
       </c>
       <c r="L186" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>574500</v>
       </c>
     </row>
@@ -23213,15 +23645,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1마</v>
       </c>
       <c r="G187" s="17">
+        <f t="shared" si="42"/>
+        <v>1E+108</v>
+      </c>
+      <c r="H187" s="17">
         <f t="shared" si="40"/>
-        <v>1E+108</v>
-      </c>
-      <c r="H187" s="17">
-        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I187" s="16" t="str" cm="1">
@@ -23229,15 +23661,15 @@
         <v>마</v>
       </c>
       <c r="J187" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+108</v>
       </c>
       <c r="K187" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>145125</v>
       </c>
       <c r="L187" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>580500</v>
       </c>
     </row>
@@ -23246,15 +23678,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5마</v>
       </c>
       <c r="G188" s="17">
+        <f t="shared" si="42"/>
+        <v>4.9999999999999999E+108</v>
+      </c>
+      <c r="H188" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999999E+108</v>
-      </c>
-      <c r="H188" s="17">
-        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I188" s="16" t="str" cm="1">
@@ -23262,15 +23694,15 @@
         <v>마</v>
       </c>
       <c r="J188" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+108</v>
       </c>
       <c r="K188" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>146625</v>
       </c>
       <c r="L188" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>586500</v>
       </c>
     </row>
@@ -23279,15 +23711,15 @@
         <v>180</v>
       </c>
       <c r="F189" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10마</v>
       </c>
       <c r="G189" s="17">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999998E+108</v>
+      </c>
+      <c r="H189" s="17">
         <f t="shared" si="40"/>
-        <v>9.9999999999999998E+108</v>
-      </c>
-      <c r="H189" s="17">
-        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I189" s="16" t="str" cm="1">
@@ -23295,15 +23727,15 @@
         <v>마</v>
       </c>
       <c r="J189" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+108</v>
       </c>
       <c r="K189" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>148250</v>
       </c>
       <c r="L189" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>593000</v>
       </c>
     </row>
@@ -23312,15 +23744,15 @@
         <v>181</v>
       </c>
       <c r="F190" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50마</v>
       </c>
       <c r="G190" s="17">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000001E+109</v>
+      </c>
+      <c r="H190" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000001E+109</v>
-      </c>
-      <c r="H190" s="17">
-        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I190" s="16" t="str" cm="1">
@@ -23328,15 +23760,15 @@
         <v>마</v>
       </c>
       <c r="J190" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+108</v>
       </c>
       <c r="K190" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>149875</v>
       </c>
       <c r="L190" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>599500</v>
       </c>
     </row>
@@ -23345,15 +23777,15 @@
         <v>182</v>
       </c>
       <c r="F191" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100마</v>
       </c>
       <c r="G191" s="17">
+        <f t="shared" si="42"/>
+        <v>1E+110</v>
+      </c>
+      <c r="H191" s="17">
         <f t="shared" si="40"/>
-        <v>1E+110</v>
-      </c>
-      <c r="H191" s="17">
-        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I191" s="16" t="str" cm="1">
@@ -23361,15 +23793,15 @@
         <v>마</v>
       </c>
       <c r="J191" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+108</v>
       </c>
       <c r="K191" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>151500</v>
       </c>
       <c r="L191" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>606000</v>
       </c>
     </row>
@@ -23378,15 +23810,15 @@
         <v>183</v>
       </c>
       <c r="F192" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500마</v>
       </c>
       <c r="G192" s="17">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000005E+110</v>
+      </c>
+      <c r="H192" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000005E+110</v>
-      </c>
-      <c r="H192" s="17">
-        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I192" s="16" t="str" cm="1">
@@ -23394,15 +23826,15 @@
         <v>마</v>
       </c>
       <c r="J192" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+108</v>
       </c>
       <c r="K192" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>153125</v>
       </c>
       <c r="L192" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>612500</v>
       </c>
     </row>
@@ -23411,15 +23843,15 @@
         <v>184</v>
       </c>
       <c r="F193" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000마</v>
       </c>
       <c r="G193" s="17">
+        <f t="shared" si="42"/>
+        <v>1.0000000000000001E+111</v>
+      </c>
+      <c r="H193" s="17">
         <f t="shared" si="40"/>
-        <v>1.0000000000000001E+111</v>
-      </c>
-      <c r="H193" s="17">
-        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I193" s="16" t="str" cm="1">
@@ -23427,15 +23859,15 @@
         <v>마</v>
       </c>
       <c r="J193" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+108</v>
       </c>
       <c r="K193" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>154750</v>
       </c>
       <c r="L193" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>619000</v>
       </c>
     </row>
@@ -23444,15 +23876,15 @@
         <v>185</v>
       </c>
       <c r="F194" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000마</v>
       </c>
       <c r="G194" s="17">
+        <f t="shared" si="42"/>
+        <v>4.9999999999999997E+111</v>
+      </c>
+      <c r="H194" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999997E+111</v>
-      </c>
-      <c r="H194" s="17">
-        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I194" s="16" t="str" cm="1">
@@ -23460,15 +23892,15 @@
         <v>마</v>
       </c>
       <c r="J194" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+108</v>
       </c>
       <c r="K194" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>156375</v>
       </c>
       <c r="L194" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>625500</v>
       </c>
     </row>
@@ -23477,15 +23909,15 @@
         <v>186</v>
       </c>
       <c r="F195" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1살</v>
       </c>
       <c r="G195" s="17">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999993E+111</v>
+      </c>
+      <c r="H195" s="17">
         <f t="shared" si="40"/>
-        <v>9.9999999999999993E+111</v>
-      </c>
-      <c r="H195" s="17">
-        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I195" s="16" t="str" cm="1">
@@ -23493,15 +23925,15 @@
         <v>살</v>
       </c>
       <c r="J195" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+112</v>
       </c>
       <c r="K195" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>158000</v>
       </c>
       <c r="L195" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>632000</v>
       </c>
     </row>
@@ -23510,15 +23942,15 @@
         <v>187</v>
       </c>
       <c r="F196" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5살</v>
       </c>
       <c r="G196" s="17">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000001E+112</v>
+      </c>
+      <c r="H196" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000001E+112</v>
-      </c>
-      <c r="H196" s="17">
-        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I196" s="16" t="str" cm="1">
@@ -23526,15 +23958,15 @@
         <v>살</v>
       </c>
       <c r="J196" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+112</v>
       </c>
       <c r="K196" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>159625</v>
       </c>
       <c r="L196" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>638500</v>
       </c>
     </row>
@@ -23543,15 +23975,15 @@
         <v>188</v>
       </c>
       <c r="F197" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10살</v>
       </c>
       <c r="G197" s="17">
+        <f t="shared" si="42"/>
+        <v>1E+113</v>
+      </c>
+      <c r="H197" s="17">
         <f t="shared" si="40"/>
-        <v>1E+113</v>
-      </c>
-      <c r="H197" s="17">
-        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I197" s="16" t="str" cm="1">
@@ -23559,15 +23991,15 @@
         <v>살</v>
       </c>
       <c r="J197" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+112</v>
       </c>
       <c r="K197" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>161250</v>
       </c>
       <c r="L197" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>645000</v>
       </c>
     </row>
@@ -23576,15 +24008,15 @@
         <v>189</v>
       </c>
       <c r="F198" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50살</v>
       </c>
       <c r="G198" s="17">
+        <f t="shared" si="42"/>
+        <v>4.9999999999999994E+113</v>
+      </c>
+      <c r="H198" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999994E+113</v>
-      </c>
-      <c r="H198" s="17">
-        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I198" s="16" t="str" cm="1">
@@ -23592,15 +24024,15 @@
         <v>살</v>
       </c>
       <c r="J198" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+112</v>
       </c>
       <c r="K198" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>162875</v>
       </c>
       <c r="L198" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>651500</v>
       </c>
     </row>
@@ -23609,15 +24041,15 @@
         <v>190</v>
       </c>
       <c r="F199" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100살</v>
       </c>
       <c r="G199" s="17">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999988E+113</v>
+      </c>
+      <c r="H199" s="17">
         <f t="shared" si="40"/>
-        <v>9.9999999999999988E+113</v>
-      </c>
-      <c r="H199" s="17">
-        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I199" s="16" t="str" cm="1">
@@ -23625,15 +24057,15 @@
         <v>살</v>
       </c>
       <c r="J199" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+112</v>
       </c>
       <c r="K199" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>164500</v>
       </c>
       <c r="L199" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>658000</v>
       </c>
     </row>
@@ -23642,15 +24074,15 @@
         <v>191</v>
       </c>
       <c r="F200" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500살</v>
       </c>
       <c r="G200" s="17">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000001E+114</v>
+      </c>
+      <c r="H200" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000001E+114</v>
-      </c>
-      <c r="H200" s="17">
-        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I200" s="16" t="str" cm="1">
@@ -23658,15 +24090,15 @@
         <v>살</v>
       </c>
       <c r="J200" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+112</v>
       </c>
       <c r="K200" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>166125</v>
       </c>
       <c r="L200" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>664500</v>
       </c>
     </row>
@@ -23675,15 +24107,15 @@
         <v>192</v>
       </c>
       <c r="F201" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000살</v>
       </c>
       <c r="G201" s="17">
+        <f t="shared" si="42"/>
+        <v>1E+115</v>
+      </c>
+      <c r="H201" s="17">
         <f t="shared" si="40"/>
-        <v>1E+115</v>
-      </c>
-      <c r="H201" s="17">
-        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I201" s="16" t="str" cm="1">
@@ -23691,15 +24123,15 @@
         <v>살</v>
       </c>
       <c r="J201" s="16" t="str">
-        <f t="shared" ref="J201:J234" si="43">VLOOKUP(I201,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J201:J234" si="45">VLOOKUP(I201,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K201" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>167750</v>
       </c>
       <c r="L201" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>671000</v>
       </c>
     </row>
@@ -23708,15 +24140,15 @@
         <v>193</v>
       </c>
       <c r="F202" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000살</v>
       </c>
       <c r="G202" s="17">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000001E+115</v>
+      </c>
+      <c r="H202" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000001E+115</v>
-      </c>
-      <c r="H202" s="17">
-        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I202" s="16" t="str" cm="1">
@@ -23724,15 +24156,15 @@
         <v>살</v>
       </c>
       <c r="J202" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+112</v>
+      </c>
+      <c r="K202" s="22">
         <f t="shared" si="43"/>
-        <v>1E+112</v>
-      </c>
-      <c r="K202" s="22">
-        <f t="shared" si="41"/>
         <v>169375</v>
       </c>
       <c r="L202" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>677500</v>
       </c>
     </row>
@@ -23741,15 +24173,15 @@
         <v>194</v>
       </c>
       <c r="F203" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1섬</v>
       </c>
       <c r="G203" s="17">
+        <f t="shared" si="42"/>
+        <v>1E+116</v>
+      </c>
+      <c r="H203" s="17">
         <f t="shared" si="40"/>
-        <v>1E+116</v>
-      </c>
-      <c r="H203" s="17">
-        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I203" s="16" t="str" cm="1">
@@ -23757,15 +24189,15 @@
         <v>섬</v>
       </c>
       <c r="J203" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K203" s="22">
         <f t="shared" si="43"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K203" s="22">
-        <f t="shared" si="41"/>
         <v>171000</v>
       </c>
       <c r="L203" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>684000</v>
       </c>
     </row>
@@ -23774,15 +24206,15 @@
         <v>195</v>
       </c>
       <c r="F204" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5섬</v>
       </c>
       <c r="G204" s="17">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000003E+116</v>
+      </c>
+      <c r="H204" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000003E+116</v>
-      </c>
-      <c r="H204" s="17">
-        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I204" s="16" t="str" cm="1">
@@ -23790,15 +24222,15 @@
         <v>섬</v>
       </c>
       <c r="J204" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K204" s="22">
         <f t="shared" si="43"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K204" s="22">
-        <f t="shared" si="41"/>
         <v>172750</v>
       </c>
       <c r="L204" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>691000</v>
       </c>
     </row>
@@ -23807,15 +24239,15 @@
         <v>196</v>
       </c>
       <c r="F205" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10섬</v>
       </c>
       <c r="G205" s="17">
+        <f t="shared" si="42"/>
+        <v>1.0000000000000001E+117</v>
+      </c>
+      <c r="H205" s="17">
         <f t="shared" si="40"/>
-        <v>1.0000000000000001E+117</v>
-      </c>
-      <c r="H205" s="17">
-        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I205" s="16" t="str" cm="1">
@@ -23823,15 +24255,15 @@
         <v>섬</v>
       </c>
       <c r="J205" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K205" s="22">
         <f t="shared" si="43"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K205" s="22">
-        <f t="shared" si="41"/>
         <v>174500</v>
       </c>
       <c r="L205" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>698000</v>
       </c>
     </row>
@@ -23840,15 +24272,15 @@
         <v>197</v>
       </c>
       <c r="F206" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50섬</v>
       </c>
       <c r="G206" s="17">
+        <f t="shared" si="42"/>
+        <v>4.9999999999999998E+117</v>
+      </c>
+      <c r="H206" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999998E+117</v>
-      </c>
-      <c r="H206" s="17">
-        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I206" s="16" t="str" cm="1">
@@ -23856,15 +24288,15 @@
         <v>섬</v>
       </c>
       <c r="J206" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K206" s="22">
         <f t="shared" si="43"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K206" s="22">
-        <f t="shared" si="41"/>
         <v>176250</v>
       </c>
       <c r="L206" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>705000</v>
       </c>
     </row>
@@ -23873,15 +24305,15 @@
         <v>198</v>
       </c>
       <c r="F207" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100섬</v>
       </c>
       <c r="G207" s="17">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999997E+117</v>
+      </c>
+      <c r="H207" s="17">
         <f t="shared" si="40"/>
-        <v>9.9999999999999997E+117</v>
-      </c>
-      <c r="H207" s="17">
-        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I207" s="16" t="str" cm="1">
@@ -23889,15 +24321,15 @@
         <v>섬</v>
       </c>
       <c r="J207" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K207" s="22">
         <f t="shared" si="43"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K207" s="22">
-        <f t="shared" si="41"/>
         <v>178000</v>
       </c>
       <c r="L207" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>712000</v>
       </c>
     </row>
@@ -23906,15 +24338,15 @@
         <v>199</v>
       </c>
       <c r="F208" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500섬</v>
       </c>
       <c r="G208" s="17">
+        <f t="shared" si="42"/>
+        <v>4.9999999999999997E+118</v>
+      </c>
+      <c r="H208" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999997E+118</v>
-      </c>
-      <c r="H208" s="17">
-        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I208" s="16" t="str" cm="1">
@@ -23922,15 +24354,15 @@
         <v>섬</v>
       </c>
       <c r="J208" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K208" s="22">
         <f t="shared" si="43"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K208" s="22">
-        <f t="shared" si="41"/>
         <v>179750</v>
       </c>
       <c r="L208" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>719000</v>
       </c>
     </row>
@@ -23939,15 +24371,15 @@
         <v>200</v>
       </c>
       <c r="F209" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000섬</v>
       </c>
       <c r="G209" s="17">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999994E+118</v>
+      </c>
+      <c r="H209" s="17">
         <f t="shared" si="40"/>
-        <v>9.9999999999999994E+118</v>
-      </c>
-      <c r="H209" s="17">
-        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I209" s="16" t="str" cm="1">
@@ -23955,15 +24387,15 @@
         <v>섬</v>
       </c>
       <c r="J209" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K209" s="22">
         <f t="shared" si="43"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K209" s="22">
-        <f t="shared" si="41"/>
         <v>181500</v>
       </c>
       <c r="L209" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>726000</v>
       </c>
     </row>
@@ -23972,15 +24404,15 @@
         <v>201</v>
       </c>
       <c r="F210" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000섬</v>
       </c>
       <c r="G210" s="17">
+        <f t="shared" si="42"/>
+        <v>4.9999999999999999E+119</v>
+      </c>
+      <c r="H210" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999999E+119</v>
-      </c>
-      <c r="H210" s="17">
-        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I210" s="16" t="str" cm="1">
@@ -23988,15 +24420,15 @@
         <v>섬</v>
       </c>
       <c r="J210" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+116</v>
+      </c>
+      <c r="K210" s="22">
         <f t="shared" si="43"/>
-        <v>1E+116</v>
-      </c>
-      <c r="K210" s="22">
-        <f t="shared" si="41"/>
         <v>183250</v>
       </c>
       <c r="L210" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>733000</v>
       </c>
     </row>
@@ -24005,15 +24437,15 @@
         <v>202</v>
       </c>
       <c r="F211" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1찰</v>
       </c>
       <c r="G211" s="17">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999998E+119</v>
+      </c>
+      <c r="H211" s="17">
         <f t="shared" si="40"/>
-        <v>9.9999999999999998E+119</v>
-      </c>
-      <c r="H211" s="17">
-        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I211" s="16" t="str" cm="1">
@@ -24021,15 +24453,15 @@
         <v>찰</v>
       </c>
       <c r="J211" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K211" s="22">
         <f t="shared" si="43"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K211" s="22">
-        <f t="shared" si="41"/>
         <v>185000</v>
       </c>
       <c r="L211" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>740000</v>
       </c>
     </row>
@@ -24038,15 +24470,15 @@
         <v>203</v>
       </c>
       <c r="F212" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5찰</v>
       </c>
       <c r="G212" s="17">
+        <f t="shared" si="42"/>
+        <v>4.9999999999999996E+120</v>
+      </c>
+      <c r="H212" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999996E+120</v>
-      </c>
-      <c r="H212" s="17">
-        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I212" s="16" t="str" cm="1">
@@ -24054,15 +24486,15 @@
         <v>찰</v>
       </c>
       <c r="J212" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K212" s="22">
         <f t="shared" si="43"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K212" s="22">
-        <f t="shared" si="41"/>
         <v>186750</v>
       </c>
       <c r="L212" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>747000</v>
       </c>
     </row>
@@ -24071,15 +24503,15 @@
         <v>204</v>
       </c>
       <c r="F213" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10찰</v>
       </c>
       <c r="G213" s="17">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999992E+120</v>
+      </c>
+      <c r="H213" s="17">
         <f t="shared" si="40"/>
-        <v>9.9999999999999992E+120</v>
-      </c>
-      <c r="H213" s="17">
-        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I213" s="16" t="str" cm="1">
@@ -24087,15 +24519,15 @@
         <v>찰</v>
       </c>
       <c r="J213" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K213" s="22">
         <f t="shared" si="43"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K213" s="22">
-        <f t="shared" si="41"/>
         <v>188500</v>
       </c>
       <c r="L213" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>754000</v>
       </c>
     </row>
@@ -24104,15 +24536,15 @@
         <v>205</v>
       </c>
       <c r="F214" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50찰</v>
       </c>
       <c r="G214" s="17">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000001E+121</v>
+      </c>
+      <c r="H214" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000001E+121</v>
-      </c>
-      <c r="H214" s="17">
-        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I214" s="16" t="str" cm="1">
@@ -24120,15 +24552,15 @@
         <v>찰</v>
       </c>
       <c r="J214" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K214" s="22">
         <f t="shared" si="43"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K214" s="22">
-        <f t="shared" si="41"/>
         <v>190250</v>
       </c>
       <c r="L214" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>761000</v>
       </c>
     </row>
@@ -24137,15 +24569,15 @@
         <v>206</v>
       </c>
       <c r="F215" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100찰</v>
       </c>
       <c r="G215" s="17">
+        <f t="shared" si="42"/>
+        <v>1E+122</v>
+      </c>
+      <c r="H215" s="17">
         <f t="shared" si="40"/>
-        <v>1E+122</v>
-      </c>
-      <c r="H215" s="17">
-        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I215" s="16" t="str" cm="1">
@@ -24153,15 +24585,15 @@
         <v>찰</v>
       </c>
       <c r="J215" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K215" s="22">
         <f t="shared" si="43"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K215" s="22">
-        <f t="shared" si="41"/>
         <v>192000</v>
       </c>
       <c r="L215" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>768000</v>
       </c>
     </row>
@@ -24170,15 +24602,15 @@
         <v>207</v>
       </c>
       <c r="F216" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500찰</v>
       </c>
       <c r="G216" s="17">
+        <f t="shared" si="42"/>
+        <v>4.9999999999999999E+122</v>
+      </c>
+      <c r="H216" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999999E+122</v>
-      </c>
-      <c r="H216" s="17">
-        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I216" s="16" t="str" cm="1">
@@ -24186,15 +24618,15 @@
         <v>찰</v>
       </c>
       <c r="J216" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K216" s="22">
         <f t="shared" si="43"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K216" s="22">
-        <f t="shared" si="41"/>
         <v>193750</v>
       </c>
       <c r="L216" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>775000</v>
       </c>
     </row>
@@ -24203,15 +24635,15 @@
         <v>208</v>
       </c>
       <c r="F217" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000찰</v>
       </c>
       <c r="G217" s="17">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999998E+122</v>
+      </c>
+      <c r="H217" s="17">
         <f t="shared" si="40"/>
-        <v>9.9999999999999998E+122</v>
-      </c>
-      <c r="H217" s="17">
-        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I217" s="16" t="str" cm="1">
@@ -24219,15 +24651,15 @@
         <v>찰</v>
       </c>
       <c r="J217" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K217" s="22">
         <f t="shared" si="43"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K217" s="22">
-        <f t="shared" si="41"/>
         <v>195500</v>
       </c>
       <c r="L217" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>782000</v>
       </c>
     </row>
@@ -24236,15 +24668,15 @@
         <v>209</v>
       </c>
       <c r="F218" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000찰</v>
       </c>
       <c r="G218" s="17">
+        <f t="shared" si="42"/>
+        <v>4.9999999999999997E+123</v>
+      </c>
+      <c r="H218" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999997E+123</v>
-      </c>
-      <c r="H218" s="17">
-        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I218" s="16" t="str" cm="1">
@@ -24252,15 +24684,15 @@
         <v>찰</v>
       </c>
       <c r="J218" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K218" s="22">
         <f t="shared" si="43"/>
-        <v>1E+120</v>
-      </c>
-      <c r="K218" s="22">
-        <f t="shared" si="41"/>
         <v>197250</v>
       </c>
       <c r="L218" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>789000</v>
       </c>
     </row>
@@ -24269,15 +24701,15 @@
         <v>210</v>
       </c>
       <c r="F219" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1교</v>
       </c>
       <c r="G219" s="17">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="H219" s="17">
         <f t="shared" si="40"/>
-        <v>9.9999999999999995E+123</v>
-      </c>
-      <c r="H219" s="17">
-        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I219" s="16" t="str" cm="1">
@@ -24285,15 +24717,15 @@
         <v>교</v>
       </c>
       <c r="J219" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K219" s="22">
         <f t="shared" si="43"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K219" s="22">
-        <f t="shared" si="41"/>
         <v>199125</v>
       </c>
       <c r="L219" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>796500</v>
       </c>
     </row>
@@ -24302,15 +24734,15 @@
         <v>211</v>
       </c>
       <c r="F220" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5교</v>
       </c>
       <c r="G220" s="17">
+        <f t="shared" si="42"/>
+        <v>4.9999999999999996E+124</v>
+      </c>
+      <c r="H220" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999996E+124</v>
-      </c>
-      <c r="H220" s="17">
-        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I220" s="16" t="str" cm="1">
@@ -24318,15 +24750,15 @@
         <v>교</v>
       </c>
       <c r="J220" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K220" s="22">
         <f t="shared" si="43"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K220" s="22">
-        <f t="shared" si="41"/>
         <v>201000</v>
       </c>
       <c r="L220" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>804000</v>
       </c>
     </row>
@@ -24335,15 +24767,15 @@
         <v>212</v>
       </c>
       <c r="F221" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10교</v>
       </c>
       <c r="G221" s="17">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999992E+124</v>
+      </c>
+      <c r="H221" s="17">
         <f t="shared" si="40"/>
-        <v>9.9999999999999992E+124</v>
-      </c>
-      <c r="H221" s="17">
-        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I221" s="16" t="str" cm="1">
@@ -24351,15 +24783,15 @@
         <v>교</v>
       </c>
       <c r="J221" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K221" s="22">
         <f t="shared" si="43"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K221" s="22">
-        <f t="shared" si="41"/>
         <v>202875</v>
       </c>
       <c r="L221" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>811500</v>
       </c>
     </row>
@@ -24368,15 +24800,15 @@
         <v>213</v>
       </c>
       <c r="F222" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50교</v>
       </c>
       <c r="G222" s="17">
+        <f t="shared" si="42"/>
+        <v>4.9999999999999996E+125</v>
+      </c>
+      <c r="H222" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999996E+125</v>
-      </c>
-      <c r="H222" s="17">
-        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I222" s="16" t="str" cm="1">
@@ -24384,15 +24816,15 @@
         <v>교</v>
       </c>
       <c r="J222" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K222" s="22">
         <f t="shared" si="43"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K222" s="22">
-        <f t="shared" si="41"/>
         <v>204750</v>
       </c>
       <c r="L222" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>819000</v>
       </c>
     </row>
@@ -24401,15 +24833,15 @@
         <v>214</v>
       </c>
       <c r="F223" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100교</v>
       </c>
       <c r="G223" s="17">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999992E+125</v>
+      </c>
+      <c r="H223" s="17">
         <f t="shared" si="40"/>
-        <v>9.9999999999999992E+125</v>
-      </c>
-      <c r="H223" s="17">
-        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I223" s="16" t="str" cm="1">
@@ -24417,15 +24849,15 @@
         <v>교</v>
       </c>
       <c r="J223" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K223" s="22">
         <f t="shared" si="43"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K223" s="22">
-        <f t="shared" si="41"/>
         <v>206625</v>
       </c>
       <c r="L223" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>826500</v>
       </c>
     </row>
@@ -24434,15 +24866,15 @@
         <v>215</v>
       </c>
       <c r="F224" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500교</v>
       </c>
       <c r="G224" s="17">
+        <f t="shared" si="42"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="H224" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999998E+126</v>
-      </c>
-      <c r="H224" s="17">
-        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I224" s="16" t="str" cm="1">
@@ -24450,15 +24882,15 @@
         <v>교</v>
       </c>
       <c r="J224" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K224" s="22">
         <f t="shared" si="43"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K224" s="22">
-        <f t="shared" si="41"/>
         <v>208500</v>
       </c>
       <c r="L224" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>834000</v>
       </c>
     </row>
@@ -24467,15 +24899,15 @@
         <v>216</v>
       </c>
       <c r="F225" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000교</v>
       </c>
       <c r="G225" s="17">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="H225" s="17">
         <f t="shared" si="40"/>
-        <v>9.9999999999999995E+126</v>
-      </c>
-      <c r="H225" s="17">
-        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I225" s="16" t="str" cm="1">
@@ -24483,15 +24915,15 @@
         <v>교</v>
       </c>
       <c r="J225" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K225" s="22">
         <f t="shared" si="43"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K225" s="22">
-        <f t="shared" si="41"/>
         <v>210375</v>
       </c>
       <c r="L225" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>841500</v>
       </c>
     </row>
@@ -24500,15 +24932,15 @@
         <v>217</v>
       </c>
       <c r="F226" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000교</v>
       </c>
       <c r="G226" s="17">
+        <f t="shared" si="42"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="H226" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999994E+127</v>
-      </c>
-      <c r="H226" s="17">
-        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I226" s="16" t="str" cm="1">
@@ -24516,15 +24948,15 @@
         <v>교</v>
       </c>
       <c r="J226" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K226" s="22">
         <f t="shared" si="43"/>
-        <v>1E+124</v>
-      </c>
-      <c r="K226" s="22">
-        <f t="shared" si="41"/>
         <v>212250</v>
       </c>
       <c r="L226" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>849000</v>
       </c>
     </row>
@@ -24533,15 +24965,15 @@
         <v>218</v>
       </c>
       <c r="F227" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1위</v>
       </c>
       <c r="G227" s="17">
+        <f t="shared" si="42"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="H227" s="17">
         <f t="shared" si="40"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="H227" s="17">
-        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I227" s="16" t="str" cm="1">
@@ -24549,15 +24981,15 @@
         <v>위</v>
       </c>
       <c r="J227" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K227" s="22">
         <f t="shared" si="43"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K227" s="22">
-        <f t="shared" si="41"/>
         <v>214125</v>
       </c>
       <c r="L227" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>856500</v>
       </c>
     </row>
@@ -24566,15 +24998,15 @@
         <v>219</v>
       </c>
       <c r="F228" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5위</v>
       </c>
       <c r="G228" s="17">
+        <f t="shared" si="42"/>
+        <v>5E+128</v>
+      </c>
+      <c r="H228" s="17">
         <f t="shared" si="40"/>
-        <v>5E+128</v>
-      </c>
-      <c r="H228" s="17">
-        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I228" s="16" t="str" cm="1">
@@ -24582,15 +25014,15 @@
         <v>위</v>
       </c>
       <c r="J228" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K228" s="22">
         <f t="shared" si="43"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K228" s="22">
-        <f t="shared" si="41"/>
         <v>216000</v>
       </c>
       <c r="L228" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>864000</v>
       </c>
     </row>
@@ -24599,15 +25031,15 @@
         <v>220</v>
       </c>
       <c r="F229" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10위</v>
       </c>
       <c r="G229" s="17">
+        <f t="shared" si="42"/>
+        <v>1E+129</v>
+      </c>
+      <c r="H229" s="17">
         <f t="shared" si="40"/>
-        <v>1E+129</v>
-      </c>
-      <c r="H229" s="17">
-        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="I229" s="16" t="str" cm="1">
@@ -24615,15 +25047,15 @@
         <v>위</v>
       </c>
       <c r="J229" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K229" s="22">
         <f t="shared" si="43"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K229" s="22">
-        <f t="shared" si="41"/>
         <v>217875</v>
       </c>
       <c r="L229" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>871500</v>
       </c>
     </row>
@@ -24632,15 +25064,15 @@
         <v>221</v>
       </c>
       <c r="F230" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50위</v>
       </c>
       <c r="G230" s="17">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="H230" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000003E+129</v>
-      </c>
-      <c r="H230" s="17">
-        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="I230" s="16" t="str" cm="1">
@@ -24648,15 +25080,15 @@
         <v>위</v>
       </c>
       <c r="J230" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K230" s="22">
         <f t="shared" si="43"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K230" s="22">
-        <f t="shared" si="41"/>
         <v>219750</v>
       </c>
       <c r="L230" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>879000</v>
       </c>
     </row>
@@ -24665,15 +25097,15 @@
         <v>222</v>
       </c>
       <c r="F231" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100위</v>
       </c>
       <c r="G231" s="17">
+        <f t="shared" si="42"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="H231" s="17">
         <f t="shared" si="40"/>
-        <v>1.0000000000000001E+130</v>
-      </c>
-      <c r="H231" s="17">
-        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="I231" s="16" t="str" cm="1">
@@ -24681,15 +25113,15 @@
         <v>위</v>
       </c>
       <c r="J231" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K231" s="22">
         <f t="shared" si="43"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K231" s="22">
-        <f t="shared" si="41"/>
         <v>221625</v>
       </c>
       <c r="L231" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>886500</v>
       </c>
     </row>
@@ -24698,15 +25130,15 @@
         <v>223</v>
       </c>
       <c r="F232" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500위</v>
       </c>
       <c r="G232" s="17">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="H232" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000005E+130</v>
-      </c>
-      <c r="H232" s="17">
-        <f t="shared" si="38"/>
         <v>500</v>
       </c>
       <c r="I232" s="16" t="str" cm="1">
@@ -24714,15 +25146,15 @@
         <v>위</v>
       </c>
       <c r="J232" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K232" s="22">
         <f t="shared" si="43"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K232" s="22">
-        <f t="shared" si="41"/>
         <v>223500</v>
       </c>
       <c r="L232" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>894000</v>
       </c>
     </row>
@@ -24731,15 +25163,15 @@
         <v>224</v>
       </c>
       <c r="F233" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000위</v>
       </c>
       <c r="G233" s="17">
+        <f t="shared" si="42"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="H233" s="17">
         <f t="shared" si="40"/>
-        <v>1.0000000000000001E+131</v>
-      </c>
-      <c r="H233" s="17">
-        <f t="shared" si="38"/>
         <v>1000</v>
       </c>
       <c r="I233" s="16" t="str" cm="1">
@@ -24747,15 +25179,15 @@
         <v>위</v>
       </c>
       <c r="J233" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K233" s="22">
         <f t="shared" si="43"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K233" s="22">
-        <f t="shared" si="41"/>
         <v>225375</v>
       </c>
       <c r="L233" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>901500</v>
       </c>
     </row>
@@ -24764,15 +25196,15 @@
         <v>225</v>
       </c>
       <c r="F234" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000위</v>
       </c>
       <c r="G234" s="17">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="H234" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000007E+131</v>
-      </c>
-      <c r="H234" s="17">
-        <f t="shared" si="38"/>
         <v>5000</v>
       </c>
       <c r="I234" s="16" t="str" cm="1">
@@ -24780,15 +25212,15 @@
         <v>위</v>
       </c>
       <c r="J234" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K234" s="22">
         <f t="shared" si="43"/>
-        <v>1E+128</v>
-      </c>
-      <c r="K234" s="22">
-        <f t="shared" si="41"/>
         <v>227375</v>
       </c>
       <c r="L234" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>909500</v>
       </c>
     </row>
@@ -24797,15 +25229,15 @@
         <v>226</v>
       </c>
       <c r="F235" s="17" t="str">
-        <f t="shared" ref="F235:F247" si="44">H235&amp;I235</f>
+        <f t="shared" ref="F235:F247" si="46">H235&amp;I235</f>
         <v>1설</v>
       </c>
       <c r="G235" s="17">
-        <f t="shared" ref="G235:G247" si="45">H235*J235</f>
+        <f t="shared" ref="G235:G247" si="47">H235*J235</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="H235" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="I235" s="16" t="str" cm="1">
@@ -24813,15 +25245,15 @@
         <v>설</v>
       </c>
       <c r="J235" s="16" t="str">
-        <f t="shared" ref="J235:J247" si="46">VLOOKUP(I235,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J235:J247" si="48">VLOOKUP(I235,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K235" s="22">
-        <f t="shared" ref="K235:K247" si="47">L235*0.25</f>
+        <f t="shared" ref="K235:K247" si="49">L235*0.25</f>
         <v>229375</v>
       </c>
       <c r="L235" s="22">
-        <f t="shared" ref="L235:L247" si="48">L234+500+QUOTIENT(E235,15)*500</f>
+        <f t="shared" ref="L235:L247" si="50">L234+500+QUOTIENT(E235,15)*500</f>
         <v>917500</v>
       </c>
     </row>
@@ -24830,15 +25262,15 @@
         <v>227</v>
       </c>
       <c r="F236" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5설</v>
       </c>
       <c r="G236" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="H236" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="I236" s="16" t="str" cm="1">
@@ -24846,15 +25278,15 @@
         <v>설</v>
       </c>
       <c r="J236" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+132</v>
       </c>
       <c r="K236" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>231375</v>
       </c>
       <c r="L236" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>925500</v>
       </c>
     </row>
@@ -24863,15 +25295,15 @@
         <v>228</v>
       </c>
       <c r="F237" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10설</v>
       </c>
       <c r="G237" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+133</v>
       </c>
       <c r="H237" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I237" s="16" t="str" cm="1">
@@ -24879,15 +25311,15 @@
         <v>설</v>
       </c>
       <c r="J237" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+132</v>
       </c>
       <c r="K237" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>233375</v>
       </c>
       <c r="L237" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>933500</v>
       </c>
     </row>
@@ -24896,15 +25328,15 @@
         <v>229</v>
       </c>
       <c r="F238" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>50설</v>
       </c>
       <c r="G238" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="H238" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I238" s="16" t="str" cm="1">
@@ -24912,15 +25344,15 @@
         <v>설</v>
       </c>
       <c r="J238" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+132</v>
       </c>
       <c r="K238" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>235375</v>
       </c>
       <c r="L238" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>941500</v>
       </c>
     </row>
@@ -24929,15 +25361,15 @@
         <v>230</v>
       </c>
       <c r="F239" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100설</v>
       </c>
       <c r="G239" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H239" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I239" s="16" t="str" cm="1">
@@ -24945,15 +25377,15 @@
         <v>설</v>
       </c>
       <c r="J239" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+132</v>
       </c>
       <c r="K239" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>237375</v>
       </c>
       <c r="L239" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>949500</v>
       </c>
     </row>
@@ -24962,15 +25394,15 @@
         <v>231</v>
       </c>
       <c r="F240" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>500설</v>
       </c>
       <c r="G240" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="H240" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I240" s="16" t="str" cm="1">
@@ -24978,15 +25410,15 @@
         <v>설</v>
       </c>
       <c r="J240" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+132</v>
       </c>
       <c r="K240" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>239375</v>
       </c>
       <c r="L240" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>957500</v>
       </c>
     </row>
@@ -24995,15 +25427,15 @@
         <v>232</v>
       </c>
       <c r="F241" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000설</v>
       </c>
       <c r="G241" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H241" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I241" s="16" t="str" cm="1">
@@ -25011,15 +25443,15 @@
         <v>설</v>
       </c>
       <c r="J241" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+132</v>
       </c>
       <c r="K241" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>241375</v>
       </c>
       <c r="L241" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>965500</v>
       </c>
     </row>
@@ -25028,15 +25460,15 @@
         <v>233</v>
       </c>
       <c r="F242" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5000설</v>
       </c>
       <c r="G242" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="H242" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000</v>
       </c>
       <c r="I242" s="16" t="str" cm="1">
@@ -25044,15 +25476,15 @@
         <v>설</v>
       </c>
       <c r="J242" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+132</v>
       </c>
       <c r="K242" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>243375</v>
       </c>
       <c r="L242" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>973500</v>
       </c>
     </row>
@@ -25061,15 +25493,15 @@
         <v>234</v>
       </c>
       <c r="F243" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1적</v>
       </c>
       <c r="G243" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H243" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="I243" s="16" t="str" cm="1">
@@ -25077,15 +25509,15 @@
         <v>적</v>
       </c>
       <c r="J243" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+136</v>
       </c>
       <c r="K243" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>245375</v>
       </c>
       <c r="L243" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>981500</v>
       </c>
     </row>
@@ -25094,15 +25526,15 @@
         <v>235</v>
       </c>
       <c r="F244" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5적</v>
       </c>
       <c r="G244" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5.0000000000000002E+136</v>
       </c>
       <c r="H244" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="I244" s="16" t="str" cm="1">
@@ -25110,15 +25542,15 @@
         <v>적</v>
       </c>
       <c r="J244" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+136</v>
       </c>
       <c r="K244" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>247375</v>
       </c>
       <c r="L244" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>989500</v>
       </c>
     </row>
@@ -25127,15 +25559,15 @@
         <v>236</v>
       </c>
       <c r="F245" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10적</v>
       </c>
       <c r="G245" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+137</v>
       </c>
       <c r="H245" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I245" s="16" t="str" cm="1">
@@ -25143,15 +25575,15 @@
         <v>적</v>
       </c>
       <c r="J245" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+136</v>
       </c>
       <c r="K245" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>249375</v>
       </c>
       <c r="L245" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>997500</v>
       </c>
     </row>
@@ -25160,15 +25592,15 @@
         <v>237</v>
       </c>
       <c r="F246" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>50적</v>
       </c>
       <c r="G246" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5.0000000000000002E+137</v>
       </c>
       <c r="H246" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I246" s="16" t="str" cm="1">
@@ -25176,15 +25608,15 @@
         <v>적</v>
       </c>
       <c r="J246" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+136</v>
       </c>
       <c r="K246" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>251375</v>
       </c>
       <c r="L246" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1005500</v>
       </c>
     </row>
@@ -25193,15 +25625,15 @@
         <v>238</v>
       </c>
       <c r="F247" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100적</v>
       </c>
       <c r="G247" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+138</v>
       </c>
       <c r="H247" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I247" s="16" t="str" cm="1">
@@ -25209,15 +25641,15 @@
         <v>적</v>
       </c>
       <c r="J247" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+136</v>
       </c>
       <c r="K247" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>253375</v>
       </c>
       <c r="L247" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1013500</v>
       </c>
     </row>
@@ -25226,15 +25658,15 @@
         <v>239</v>
       </c>
       <c r="F248" s="17" t="str">
-        <f t="shared" ref="F248:F257" si="49">H248&amp;I248</f>
+        <f t="shared" ref="F248:F257" si="51">H248&amp;I248</f>
         <v>500적</v>
       </c>
       <c r="G248" s="17">
-        <f t="shared" ref="G248:G257" si="50">H248*J248</f>
+        <f t="shared" ref="G248:G257" si="52">H248*J248</f>
         <v>5.0000000000000002E+138</v>
       </c>
       <c r="H248" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I248" s="16" t="str" cm="1">
@@ -25242,15 +25674,15 @@
         <v>적</v>
       </c>
       <c r="J248" s="16" t="str">
-        <f t="shared" ref="J248:J257" si="51">VLOOKUP(I248,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J248:J257" si="53">VLOOKUP(I248,N:Q,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K248" s="22">
-        <f t="shared" ref="K248:K257" si="52">L248*0.25</f>
+        <f t="shared" ref="K248:K257" si="54">L248*0.25</f>
         <v>255375</v>
       </c>
       <c r="L248" s="22">
-        <f t="shared" ref="L248:L257" si="53">L247+500+QUOTIENT(E248,15)*500</f>
+        <f t="shared" ref="L248:L257" si="55">L247+500+QUOTIENT(E248,15)*500</f>
         <v>1021500</v>
       </c>
     </row>
@@ -25259,15 +25691,15 @@
         <v>240</v>
       </c>
       <c r="F249" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000적</v>
       </c>
       <c r="G249" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+139</v>
       </c>
       <c r="H249" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I249" s="16" t="str" cm="1">
@@ -25275,15 +25707,15 @@
         <v>적</v>
       </c>
       <c r="J249" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+136</v>
       </c>
       <c r="K249" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>257500</v>
       </c>
       <c r="L249" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1030000</v>
       </c>
     </row>
@@ -25292,15 +25724,15 @@
         <v>241</v>
       </c>
       <c r="F250" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>5000적</v>
       </c>
       <c r="G250" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5.0000000000000003E+139</v>
       </c>
       <c r="H250" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000</v>
       </c>
       <c r="I250" s="16" t="str" cm="1">
@@ -25308,15 +25740,15 @@
         <v>적</v>
       </c>
       <c r="J250" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+136</v>
       </c>
       <c r="K250" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>259625</v>
       </c>
       <c r="L250" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1038500</v>
       </c>
     </row>
@@ -25325,15 +25757,15 @@
         <v>242</v>
       </c>
       <c r="F251" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1고</v>
       </c>
       <c r="G251" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H251" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="I251" s="16" t="str" cm="1">
@@ -25341,15 +25773,15 @@
         <v>고</v>
       </c>
       <c r="J251" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+140</v>
       </c>
       <c r="K251" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>261750</v>
       </c>
       <c r="L251" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1047000</v>
       </c>
     </row>
@@ -25358,15 +25790,15 @@
         <v>243</v>
       </c>
       <c r="F252" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>5고</v>
       </c>
       <c r="G252" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5.0000000000000001E+140</v>
       </c>
       <c r="H252" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="I252" s="16" t="str" cm="1">
@@ -25374,15 +25806,15 @@
         <v>고</v>
       </c>
       <c r="J252" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+140</v>
       </c>
       <c r="K252" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>263875</v>
       </c>
       <c r="L252" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1055500</v>
       </c>
     </row>
@@ -25391,15 +25823,15 @@
         <v>244</v>
       </c>
       <c r="F253" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10고</v>
       </c>
       <c r="G253" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+141</v>
       </c>
       <c r="H253" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I253" s="16" t="str" cm="1">
@@ -25407,15 +25839,15 @@
         <v>고</v>
       </c>
       <c r="J253" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+140</v>
       </c>
       <c r="K253" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>266000</v>
       </c>
       <c r="L253" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1064000</v>
       </c>
     </row>
@@ -25424,15 +25856,15 @@
         <v>245</v>
       </c>
       <c r="F254" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>50고</v>
       </c>
       <c r="G254" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5.0000000000000003E+141</v>
       </c>
       <c r="H254" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I254" s="16" t="str" cm="1">
@@ -25440,15 +25872,15 @@
         <v>고</v>
       </c>
       <c r="J254" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+140</v>
       </c>
       <c r="K254" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>268125</v>
       </c>
       <c r="L254" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1072500</v>
       </c>
     </row>
@@ -25457,15 +25889,15 @@
         <v>246</v>
       </c>
       <c r="F255" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100고</v>
       </c>
       <c r="G255" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H255" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I255" s="16" t="str" cm="1">
@@ -25473,15 +25905,15 @@
         <v>고</v>
       </c>
       <c r="J255" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+140</v>
       </c>
       <c r="K255" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>270250</v>
       </c>
       <c r="L255" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1081000</v>
       </c>
     </row>
@@ -25490,15 +25922,15 @@
         <v>247</v>
       </c>
       <c r="F256" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>500고</v>
       </c>
       <c r="G256" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="H256" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I256" s="16" t="str" cm="1">
@@ -25506,15 +25938,15 @@
         <v>고</v>
       </c>
       <c r="J256" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+140</v>
       </c>
       <c r="K256" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>272375</v>
       </c>
       <c r="L256" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1089500</v>
       </c>
     </row>
@@ -25523,15 +25955,15 @@
         <v>248</v>
       </c>
       <c r="F257" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000고</v>
       </c>
       <c r="G257" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+143</v>
       </c>
       <c r="H257" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I257" s="16" t="str" cm="1">
@@ -25539,15 +25971,15 @@
         <v>고</v>
       </c>
       <c r="J257" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+140</v>
       </c>
       <c r="K257" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>274500</v>
       </c>
       <c r="L257" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1098000</v>
       </c>
     </row>
@@ -25556,15 +25988,15 @@
         <v>249</v>
       </c>
       <c r="F258" s="17" t="str">
-        <f t="shared" ref="F258:F265" si="54">H258&amp;I258</f>
+        <f t="shared" ref="F258:F265" si="56">H258&amp;I258</f>
         <v>5000고</v>
       </c>
       <c r="G258" s="17">
-        <f t="shared" ref="G258:G265" si="55">H258*J258</f>
+        <f t="shared" ref="G258:G265" si="57">H258*J258</f>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="H258" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000</v>
       </c>
       <c r="I258" s="16" t="str" cm="1">
@@ -25572,15 +26004,15 @@
         <v>고</v>
       </c>
       <c r="J258" s="16" t="str">
-        <f t="shared" ref="J258:J265" si="56">VLOOKUP(I258,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J258:J265" si="58">VLOOKUP(I258,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K258" s="22">
-        <f t="shared" ref="K258:K265" si="57">L258*0.25</f>
+        <f t="shared" ref="K258:K265" si="59">L258*0.25</f>
         <v>276625</v>
       </c>
       <c r="L258" s="22">
-        <f t="shared" ref="L258:L265" si="58">L257+500+QUOTIENT(E258,15)*500</f>
+        <f t="shared" ref="L258:L265" si="60">L257+500+QUOTIENT(E258,15)*500</f>
         <v>1106500</v>
       </c>
     </row>
@@ -25589,15 +26021,15 @@
         <v>250</v>
       </c>
       <c r="F259" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1화</v>
       </c>
       <c r="G259" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+144</v>
       </c>
       <c r="H259" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="I259" s="16" t="str" cm="1">
@@ -25605,15 +26037,15 @@
         <v>화</v>
       </c>
       <c r="J259" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+144</v>
       </c>
       <c r="K259" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>278750</v>
       </c>
       <c r="L259" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1115000</v>
       </c>
     </row>
@@ -25622,15 +26054,15 @@
         <v>251</v>
       </c>
       <c r="F260" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>5화</v>
       </c>
       <c r="G260" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="H260" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="I260" s="16" t="str" cm="1">
@@ -25638,15 +26070,15 @@
         <v>화</v>
       </c>
       <c r="J260" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+144</v>
       </c>
       <c r="K260" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>280875</v>
       </c>
       <c r="L260" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1123500</v>
       </c>
     </row>
@@ -25655,15 +26087,15 @@
         <v>252</v>
       </c>
       <c r="F261" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>10화</v>
       </c>
       <c r="G261" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H261" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I261" s="16" t="str" cm="1">
@@ -25671,15 +26103,15 @@
         <v>화</v>
       </c>
       <c r="J261" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+144</v>
       </c>
       <c r="K261" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>283000</v>
       </c>
       <c r="L261" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1132000</v>
       </c>
     </row>
@@ -25688,15 +26120,15 @@
         <v>253</v>
       </c>
       <c r="F262" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>50화</v>
       </c>
       <c r="G262" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="H262" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I262" s="16" t="str" cm="1">
@@ -25704,15 +26136,15 @@
         <v>화</v>
       </c>
       <c r="J262" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+144</v>
       </c>
       <c r="K262" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>285125</v>
       </c>
       <c r="L262" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1140500</v>
       </c>
     </row>
@@ -25721,15 +26153,15 @@
         <v>254</v>
       </c>
       <c r="F263" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>100화</v>
       </c>
       <c r="G263" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H263" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I263" s="16" t="str" cm="1">
@@ -25737,15 +26169,15 @@
         <v>화</v>
       </c>
       <c r="J263" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+144</v>
       </c>
       <c r="K263" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>287250</v>
       </c>
       <c r="L263" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1149000</v>
       </c>
     </row>
@@ -25754,15 +26186,15 @@
         <v>255</v>
       </c>
       <c r="F264" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>500화</v>
       </c>
       <c r="G264" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="H264" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I264" s="16" t="str" cm="1">
@@ -25770,15 +26202,15 @@
         <v>화</v>
       </c>
       <c r="J264" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+144</v>
       </c>
       <c r="K264" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>289500</v>
       </c>
       <c r="L264" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1158000</v>
       </c>
     </row>
@@ -25787,15 +26219,15 @@
         <v>256</v>
       </c>
       <c r="F265" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1000화</v>
       </c>
       <c r="G265" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H265" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I265" s="16" t="str" cm="1">
@@ -25803,15 +26235,15 @@
         <v>화</v>
       </c>
       <c r="J265" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+144</v>
       </c>
       <c r="K265" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>291750</v>
       </c>
       <c r="L265" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1167000</v>
       </c>
     </row>
@@ -25820,15 +26252,15 @@
         <v>257</v>
       </c>
       <c r="F266" s="17" t="str">
-        <f t="shared" ref="F266:F274" si="59">H266&amp;I266</f>
+        <f t="shared" ref="F266:F274" si="61">H266&amp;I266</f>
         <v>5000화</v>
       </c>
       <c r="G266" s="17">
-        <f t="shared" ref="G266:G274" si="60">H266*J266</f>
+        <f t="shared" ref="G266:G274" si="62">H266*J266</f>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="H266" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000</v>
       </c>
       <c r="I266" s="16" t="str" cm="1">
@@ -25836,15 +26268,15 @@
         <v>화</v>
       </c>
       <c r="J266" s="16" t="str">
-        <f t="shared" ref="J266:J274" si="61">VLOOKUP(I266,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J266:J274" si="63">VLOOKUP(I266,N:Q,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K266" s="22">
-        <f t="shared" ref="K266:K274" si="62">L266*0.25</f>
+        <f t="shared" ref="K266:K274" si="64">L266*0.25</f>
         <v>294000</v>
       </c>
       <c r="L266" s="22">
-        <f t="shared" ref="L266:L274" si="63">L265+500+QUOTIENT(E266,15)*500</f>
+        <f t="shared" ref="L266:L274" si="65">L265+500+QUOTIENT(E266,15)*500</f>
         <v>1176000</v>
       </c>
     </row>
@@ -25853,15 +26285,15 @@
         <v>258</v>
       </c>
       <c r="F267" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1명</v>
       </c>
       <c r="G267" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+148</v>
       </c>
       <c r="H267" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="I267" s="16" t="str" cm="1">
@@ -25869,15 +26301,15 @@
         <v>명</v>
       </c>
       <c r="J267" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+148</v>
       </c>
       <c r="K267" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>296250</v>
       </c>
       <c r="L267" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1185000</v>
       </c>
     </row>
@@ -25886,15 +26318,15 @@
         <v>259</v>
       </c>
       <c r="F268" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>5명</v>
       </c>
       <c r="G268" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>5.0000000000000002E+148</v>
       </c>
       <c r="H268" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="I268" s="16" t="str" cm="1">
@@ -25902,15 +26334,15 @@
         <v>명</v>
       </c>
       <c r="J268" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+148</v>
       </c>
       <c r="K268" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>298500</v>
       </c>
       <c r="L268" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1194000</v>
       </c>
     </row>
@@ -25919,15 +26351,15 @@
         <v>260</v>
       </c>
       <c r="F269" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>10명</v>
       </c>
       <c r="G269" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+149</v>
       </c>
       <c r="H269" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I269" s="16" t="str" cm="1">
@@ -25935,15 +26367,15 @@
         <v>명</v>
       </c>
       <c r="J269" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+148</v>
       </c>
       <c r="K269" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>300750</v>
       </c>
       <c r="L269" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1203000</v>
       </c>
     </row>
@@ -25952,15 +26384,15 @@
         <v>261</v>
       </c>
       <c r="F270" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>50명</v>
       </c>
       <c r="G270" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>4.9999999999999999E+149</v>
       </c>
       <c r="H270" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I270" s="16" t="str" cm="1">
@@ -25968,15 +26400,15 @@
         <v>명</v>
       </c>
       <c r="J270" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+148</v>
       </c>
       <c r="K270" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>303000</v>
       </c>
       <c r="L270" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1212000</v>
       </c>
     </row>
@@ -25985,15 +26417,15 @@
         <v>262</v>
       </c>
       <c r="F271" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>100명</v>
       </c>
       <c r="G271" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H271" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I271" s="16" t="str" cm="1">
@@ -26001,15 +26433,15 @@
         <v>명</v>
       </c>
       <c r="J271" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+148</v>
       </c>
       <c r="K271" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>305250</v>
       </c>
       <c r="L271" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1221000</v>
       </c>
     </row>
@@ -26018,15 +26450,15 @@
         <v>263</v>
       </c>
       <c r="F272" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>500명</v>
       </c>
       <c r="G272" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>5.0000000000000001E+150</v>
       </c>
       <c r="H272" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I272" s="16" t="str" cm="1">
@@ -26034,15 +26466,15 @@
         <v>명</v>
       </c>
       <c r="J272" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+148</v>
       </c>
       <c r="K272" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>307500</v>
       </c>
       <c r="L272" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1230000</v>
       </c>
     </row>
@@ -26051,15 +26483,15 @@
         <v>264</v>
       </c>
       <c r="F273" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1000명</v>
       </c>
       <c r="G273" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+151</v>
       </c>
       <c r="H273" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I273" s="16" t="str" cm="1">
@@ -26067,15 +26499,15 @@
         <v>명</v>
       </c>
       <c r="J273" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+148</v>
       </c>
       <c r="K273" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>309750</v>
       </c>
       <c r="L273" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1239000</v>
       </c>
     </row>
@@ -26084,15 +26516,15 @@
         <v>265</v>
       </c>
       <c r="F274" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>5000명</v>
       </c>
       <c r="G274" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>5.0000000000000002E+151</v>
       </c>
       <c r="H274" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000</v>
       </c>
       <c r="I274" s="16" t="str" cm="1">
@@ -26100,15 +26532,15 @@
         <v>명</v>
       </c>
       <c r="J274" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+148</v>
       </c>
       <c r="K274" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>312000</v>
       </c>
       <c r="L274" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1248000</v>
       </c>
     </row>
@@ -26117,15 +26549,15 @@
         <v>266</v>
       </c>
       <c r="F275" s="17" t="str">
-        <f t="shared" ref="F275:F282" si="64">H275&amp;I275</f>
+        <f t="shared" ref="F275:F282" si="66">H275&amp;I275</f>
         <v>1월</v>
       </c>
       <c r="G275" s="17">
-        <f t="shared" ref="G275:G282" si="65">H275*J275</f>
+        <f t="shared" ref="G275:G282" si="67">H275*J275</f>
         <v>1E+152</v>
       </c>
       <c r="H275" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="I275" s="16" t="str" cm="1">
@@ -26133,15 +26565,15 @@
         <v>월</v>
       </c>
       <c r="J275" s="16" t="str">
-        <f t="shared" ref="J275:J282" si="66">VLOOKUP(I275,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J275:J282" si="68">VLOOKUP(I275,N:Q,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K275" s="22">
-        <f t="shared" ref="K275:K282" si="67">L275*0.25</f>
+        <f t="shared" ref="K275:K282" si="69">L275*0.25</f>
         <v>314250</v>
       </c>
       <c r="L275" s="22">
-        <f t="shared" ref="L275:L282" si="68">L274+500+QUOTIENT(E275,15)*500</f>
+        <f t="shared" ref="L275:L282" si="70">L274+500+QUOTIENT(E275,15)*500</f>
         <v>1257000</v>
       </c>
     </row>
@@ -26150,15 +26582,15 @@
         <v>267</v>
       </c>
       <c r="F276" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5월</v>
       </c>
       <c r="G276" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>5E+152</v>
       </c>
       <c r="H276" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="I276" s="16" t="str" cm="1">
@@ -26166,15 +26598,15 @@
         <v>월</v>
       </c>
       <c r="J276" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+152</v>
       </c>
       <c r="K276" s="22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>316500</v>
       </c>
       <c r="L276" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1266000</v>
       </c>
     </row>
@@ -26183,15 +26615,15 @@
         <v>268</v>
       </c>
       <c r="F277" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>10월</v>
       </c>
       <c r="G277" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+153</v>
       </c>
       <c r="H277" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I277" s="16" t="str" cm="1">
@@ -26199,15 +26631,15 @@
         <v>월</v>
       </c>
       <c r="J277" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+152</v>
       </c>
       <c r="K277" s="22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>318750</v>
       </c>
       <c r="L277" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1275000</v>
       </c>
     </row>
@@ -26216,15 +26648,15 @@
         <v>269</v>
       </c>
       <c r="F278" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>50월</v>
       </c>
       <c r="G278" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>5.0000000000000002E+153</v>
       </c>
       <c r="H278" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I278" s="16" t="str" cm="1">
@@ -26232,15 +26664,15 @@
         <v>월</v>
       </c>
       <c r="J278" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+152</v>
       </c>
       <c r="K278" s="22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>321000</v>
       </c>
       <c r="L278" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1284000</v>
       </c>
     </row>
@@ -26249,15 +26681,15 @@
         <v>270</v>
       </c>
       <c r="F279" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>100월</v>
       </c>
       <c r="G279" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+154</v>
       </c>
       <c r="H279" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I279" s="16" t="str" cm="1">
@@ -26265,15 +26697,15 @@
         <v>월</v>
       </c>
       <c r="J279" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+152</v>
       </c>
       <c r="K279" s="22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>323375</v>
       </c>
       <c r="L279" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1293500</v>
       </c>
     </row>
@@ -26282,15 +26714,15 @@
         <v>271</v>
       </c>
       <c r="F280" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>500월</v>
       </c>
       <c r="G280" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>5E+154</v>
       </c>
       <c r="H280" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I280" s="16" t="str" cm="1">
@@ -26298,15 +26730,15 @@
         <v>월</v>
       </c>
       <c r="J280" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+152</v>
       </c>
       <c r="K280" s="22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>325750</v>
       </c>
       <c r="L280" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1303000</v>
       </c>
     </row>
@@ -26315,15 +26747,15 @@
         <v>272</v>
       </c>
       <c r="F281" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1000월</v>
       </c>
       <c r="G281" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+155</v>
       </c>
       <c r="H281" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I281" s="16" t="str" cm="1">
@@ -26331,15 +26763,15 @@
         <v>월</v>
       </c>
       <c r="J281" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+152</v>
       </c>
       <c r="K281" s="22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>328125</v>
       </c>
       <c r="L281" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1312500</v>
       </c>
     </row>
@@ -26348,15 +26780,15 @@
         <v>273</v>
       </c>
       <c r="F282" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5000월</v>
       </c>
       <c r="G282" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>4.9999999999999999E+155</v>
       </c>
       <c r="H282" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000</v>
       </c>
       <c r="I282" s="16" t="str" cm="1">
@@ -26364,15 +26796,15 @@
         <v>월</v>
       </c>
       <c r="J282" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+152</v>
       </c>
       <c r="K282" s="22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>330500</v>
       </c>
       <c r="L282" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1322000</v>
       </c>
     </row>
@@ -26381,15 +26813,15 @@
         <v>274</v>
       </c>
       <c r="F283" s="17" t="str">
-        <f t="shared" ref="F283:F290" si="69">H283&amp;I283</f>
+        <f t="shared" ref="F283:F290" si="71">H283&amp;I283</f>
         <v>1후</v>
       </c>
       <c r="G283" s="17">
-        <f t="shared" ref="G283:G290" si="70">H283*J283</f>
+        <f t="shared" ref="G283:G290" si="72">H283*J283</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H283" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="I283" s="16" t="str" cm="1">
@@ -26397,15 +26829,15 @@
         <v>후</v>
       </c>
       <c r="J283" s="16" t="str">
-        <f t="shared" ref="J283:J290" si="71">VLOOKUP(I283,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J283:J290" si="73">VLOOKUP(I283,N:Q,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K283" s="22">
-        <f t="shared" ref="K283:K290" si="72">L283*0.25</f>
+        <f t="shared" ref="K283:K290" si="74">L283*0.25</f>
         <v>332875</v>
       </c>
       <c r="L283" s="22">
-        <f t="shared" ref="L283:L290" si="73">L282+500+QUOTIENT(E283,15)*500</f>
+        <f t="shared" ref="L283:L290" si="75">L282+500+QUOTIENT(E283,15)*500</f>
         <v>1331500</v>
       </c>
     </row>
@@ -26414,15 +26846,15 @@
         <v>275</v>
       </c>
       <c r="F284" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>5후</v>
       </c>
       <c r="G284" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>4.9999999999999999E+156</v>
       </c>
       <c r="H284" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="I284" s="16" t="str" cm="1">
@@ -26430,15 +26862,15 @@
         <v>후</v>
       </c>
       <c r="J284" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+156</v>
       </c>
       <c r="K284" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>335250</v>
       </c>
       <c r="L284" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1341000</v>
       </c>
     </row>
@@ -26447,15 +26879,15 @@
         <v>276</v>
       </c>
       <c r="F285" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>10후</v>
       </c>
       <c r="G285" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H285" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I285" s="16" t="str" cm="1">
@@ -26463,15 +26895,15 @@
         <v>후</v>
       </c>
       <c r="J285" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+156</v>
       </c>
       <c r="K285" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>337625</v>
       </c>
       <c r="L285" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1350500</v>
       </c>
     </row>
@@ -26480,15 +26912,15 @@
         <v>277</v>
       </c>
       <c r="F286" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>50후</v>
       </c>
       <c r="G286" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>4.9999999999999998E+157</v>
       </c>
       <c r="H286" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I286" s="16" t="str" cm="1">
@@ -26496,15 +26928,15 @@
         <v>후</v>
       </c>
       <c r="J286" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+156</v>
       </c>
       <c r="K286" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>340000</v>
       </c>
       <c r="L286" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1360000</v>
       </c>
     </row>
@@ -26513,15 +26945,15 @@
         <v>278</v>
       </c>
       <c r="F287" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>100후</v>
       </c>
       <c r="G287" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H287" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I287" s="16" t="str" cm="1">
@@ -26529,15 +26961,15 @@
         <v>후</v>
       </c>
       <c r="J287" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+156</v>
       </c>
       <c r="K287" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>342375</v>
       </c>
       <c r="L287" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1369500</v>
       </c>
     </row>
@@ -26546,15 +26978,15 @@
         <v>279</v>
       </c>
       <c r="F288" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>500후</v>
       </c>
       <c r="G288" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>4.9999999999999996E+158</v>
       </c>
       <c r="H288" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I288" s="16" t="str" cm="1">
@@ -26562,15 +26994,15 @@
         <v>후</v>
       </c>
       <c r="J288" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+156</v>
       </c>
       <c r="K288" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>344750</v>
       </c>
       <c r="L288" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1379000</v>
       </c>
     </row>
@@ -26579,15 +27011,15 @@
         <v>280</v>
       </c>
       <c r="F289" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1000후</v>
       </c>
       <c r="G289" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H289" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I289" s="16" t="str" cm="1">
@@ -26595,15 +27027,15 @@
         <v>후</v>
       </c>
       <c r="J289" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+156</v>
       </c>
       <c r="K289" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>347125</v>
       </c>
       <c r="L289" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1388500</v>
       </c>
     </row>
@@ -26612,15 +27044,15 @@
         <v>281</v>
       </c>
       <c r="F290" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>5000후</v>
       </c>
       <c r="G290" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>5E+159</v>
       </c>
       <c r="H290" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000</v>
       </c>
       <c r="I290" s="16" t="str" cm="1">
@@ -26628,15 +27060,15 @@
         <v>후</v>
       </c>
       <c r="J290" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+156</v>
       </c>
       <c r="K290" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>349500</v>
       </c>
       <c r="L290" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1398000</v>
       </c>
     </row>
@@ -26645,15 +27077,15 @@
         <v>282</v>
       </c>
       <c r="F291" s="17" t="str">
-        <f t="shared" ref="F291:F300" si="74">H291&amp;I291</f>
+        <f t="shared" ref="F291:F298" si="76">H291&amp;I291</f>
         <v>1단</v>
       </c>
       <c r="G291" s="17">
-        <f t="shared" ref="G291:G300" si="75">H291*J291</f>
+        <f t="shared" ref="G291:G298" si="77">H291*J291</f>
         <v>1E+160</v>
       </c>
       <c r="H291" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="I291" s="16" t="str" cm="1">
@@ -26661,15 +27093,15 @@
         <v>단</v>
       </c>
       <c r="J291" s="16" t="str">
-        <f t="shared" ref="J291:J300" si="76">VLOOKUP(I291,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J291:J298" si="78">VLOOKUP(I291,N:Q,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K291" s="22">
-        <f t="shared" ref="K291:K300" si="77">L291*0.25</f>
+        <f t="shared" ref="K291:K298" si="79">L291*0.25</f>
         <v>351875</v>
       </c>
       <c r="L291" s="22">
-        <f t="shared" ref="L291:L300" si="78">L290+500+QUOTIENT(E291,15)*500</f>
+        <f t="shared" ref="L291:L298" si="80">L290+500+QUOTIENT(E291,15)*500</f>
         <v>1407500</v>
       </c>
     </row>
@@ -26678,15 +27110,15 @@
         <v>283</v>
       </c>
       <c r="F292" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>5단</v>
       </c>
       <c r="G292" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>5.0000000000000002E+160</v>
       </c>
       <c r="H292" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="I292" s="16" t="str" cm="1">
@@ -26694,15 +27126,15 @@
         <v>단</v>
       </c>
       <c r="J292" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+160</v>
       </c>
       <c r="K292" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>354250</v>
       </c>
       <c r="L292" s="22">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1417000</v>
       </c>
     </row>
@@ -26711,15 +27143,15 @@
         <v>284</v>
       </c>
       <c r="F293" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>10단</v>
       </c>
       <c r="G293" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+161</v>
       </c>
       <c r="H293" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="I293" s="16" t="str" cm="1">
@@ -26727,15 +27159,15 @@
         <v>단</v>
       </c>
       <c r="J293" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+160</v>
       </c>
       <c r="K293" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>356625</v>
       </c>
       <c r="L293" s="22">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1426500</v>
       </c>
     </row>
@@ -26744,15 +27176,15 @@
         <v>285</v>
       </c>
       <c r="F294" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>50단</v>
       </c>
       <c r="G294" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>4.9999999999999997E+161</v>
       </c>
       <c r="H294" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="I294" s="16" t="str" cm="1">
@@ -26760,15 +27192,15 @@
         <v>단</v>
       </c>
       <c r="J294" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+160</v>
       </c>
       <c r="K294" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>359125</v>
       </c>
       <c r="L294" s="22">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1436500</v>
       </c>
     </row>
@@ -26777,15 +27209,15 @@
         <v>286</v>
       </c>
       <c r="F295" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>100단</v>
       </c>
       <c r="G295" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H295" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="I295" s="16" t="str" cm="1">
@@ -26793,15 +27225,15 @@
         <v>단</v>
       </c>
       <c r="J295" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+160</v>
       </c>
       <c r="K295" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>361625</v>
       </c>
       <c r="L295" s="22">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1446500</v>
       </c>
     </row>
@@ -26810,15 +27242,15 @@
         <v>287</v>
       </c>
       <c r="F296" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>500단</v>
       </c>
       <c r="G296" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>4.9999999999999997E+162</v>
       </c>
       <c r="H296" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>500</v>
       </c>
       <c r="I296" s="16" t="str" cm="1">
@@ -26826,15 +27258,15 @@
         <v>단</v>
       </c>
       <c r="J296" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+160</v>
       </c>
       <c r="K296" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>364125</v>
       </c>
       <c r="L296" s="22">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1456500</v>
       </c>
     </row>
@@ -26843,15 +27275,15 @@
         <v>288</v>
       </c>
       <c r="F297" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1000단</v>
       </c>
       <c r="G297" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="H297" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000</v>
       </c>
       <c r="I297" s="16" t="str" cm="1">
@@ -26859,15 +27291,15 @@
         <v>단</v>
       </c>
       <c r="J297" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+160</v>
       </c>
       <c r="K297" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>366625</v>
       </c>
       <c r="L297" s="22">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1466500</v>
       </c>
     </row>
@@ -26876,15 +27308,15 @@
         <v>289</v>
       </c>
       <c r="F298" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>5000단</v>
       </c>
       <c r="G298" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>5E+163</v>
       </c>
       <c r="H298" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5000</v>
       </c>
       <c r="I298" s="16" t="str" cm="1">
@@ -26892,37 +27324,291 @@
         <v>단</v>
       </c>
       <c r="J298" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+160</v>
       </c>
       <c r="K298" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>369125</v>
       </c>
       <c r="L298" s="22">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1476500</v>
       </c>
     </row>
     <row r="299" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E299" s="16"/>
-      <c r="F299" s="17"/>
-      <c r="G299" s="17"/>
-      <c r="H299" s="17"/>
-      <c r="I299" s="16"/>
-      <c r="J299" s="16"/>
-      <c r="K299" s="22"/>
-      <c r="L299" s="22"/>
+      <c r="E299" s="16">
+        <v>290</v>
+      </c>
+      <c r="F299" s="17" t="str">
+        <f t="shared" ref="F299:F307" si="81">H299&amp;I299</f>
+        <v>1절</v>
+      </c>
+      <c r="G299" s="17">
+        <f t="shared" ref="G299:G307" si="82">H299*J299</f>
+        <v>1E+164</v>
+      </c>
+      <c r="H299" s="17">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="I299" s="16" t="str" cm="1">
+        <f t="array" ref="I299">IF(AND(H298&gt;1000,H299&lt;2),INDEX(N:N,MATCH(I298,N:N,0)+1,0),I298)</f>
+        <v>절</v>
+      </c>
+      <c r="J299" s="16" t="str">
+        <f t="shared" ref="J299:J307" si="83">VLOOKUP(I299,N:Q,4,FALSE)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="K299" s="22">
+        <f t="shared" ref="K299:K307" si="84">L299*0.25</f>
+        <v>371625</v>
+      </c>
+      <c r="L299" s="22">
+        <f t="shared" ref="L299:L307" si="85">L298+500+QUOTIENT(E299,15)*500</f>
+        <v>1486500</v>
+      </c>
     </row>
     <row r="300" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E300" s="16"/>
-      <c r="F300" s="17"/>
-      <c r="G300" s="17"/>
-      <c r="H300" s="17"/>
-      <c r="I300" s="16"/>
-      <c r="J300" s="16"/>
-      <c r="K300" s="22"/>
-      <c r="L300" s="22"/>
+      <c r="E300" s="16">
+        <v>291</v>
+      </c>
+      <c r="F300" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v>5절</v>
+      </c>
+      <c r="G300" s="17">
+        <f t="shared" si="82"/>
+        <v>5.0000000000000005E+164</v>
+      </c>
+      <c r="H300" s="17">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="I300" s="16" t="str" cm="1">
+        <f t="array" ref="I300">IF(AND(H299&gt;1000,H300&lt;2),INDEX(N:N,MATCH(I299,N:N,0)+1,0),I299)</f>
+        <v>절</v>
+      </c>
+      <c r="J300" s="16" t="str">
+        <f t="shared" si="83"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K300" s="22">
+        <f t="shared" si="84"/>
+        <v>374125</v>
+      </c>
+      <c r="L300" s="22">
+        <f t="shared" si="85"/>
+        <v>1496500</v>
+      </c>
+    </row>
+    <row r="301" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E301" s="16">
+        <v>292</v>
+      </c>
+      <c r="F301" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v>10절</v>
+      </c>
+      <c r="G301" s="17">
+        <f t="shared" si="82"/>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="H301" s="17">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="I301" s="16" t="str" cm="1">
+        <f t="array" ref="I301">IF(AND(H300&gt;1000,H301&lt;2),INDEX(N:N,MATCH(I300,N:N,0)+1,0),I300)</f>
+        <v>절</v>
+      </c>
+      <c r="J301" s="16" t="str">
+        <f t="shared" si="83"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K301" s="22">
+        <f t="shared" si="84"/>
+        <v>376625</v>
+      </c>
+      <c r="L301" s="22">
+        <f t="shared" si="85"/>
+        <v>1506500</v>
+      </c>
+    </row>
+    <row r="302" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E302" s="16">
+        <v>293</v>
+      </c>
+      <c r="F302" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v>50절</v>
+      </c>
+      <c r="G302" s="17">
+        <f t="shared" si="82"/>
+        <v>4.9999999999999997E+165</v>
+      </c>
+      <c r="H302" s="17">
+        <f t="shared" si="40"/>
+        <v>50</v>
+      </c>
+      <c r="I302" s="16" t="str" cm="1">
+        <f t="array" ref="I302">IF(AND(H301&gt;1000,H302&lt;2),INDEX(N:N,MATCH(I301,N:N,0)+1,0),I301)</f>
+        <v>절</v>
+      </c>
+      <c r="J302" s="16" t="str">
+        <f t="shared" si="83"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K302" s="22">
+        <f t="shared" si="84"/>
+        <v>379125</v>
+      </c>
+      <c r="L302" s="22">
+        <f t="shared" si="85"/>
+        <v>1516500</v>
+      </c>
+    </row>
+    <row r="303" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E303" s="16">
+        <v>294</v>
+      </c>
+      <c r="F303" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v>100절</v>
+      </c>
+      <c r="G303" s="17">
+        <f t="shared" si="82"/>
+        <v>9.9999999999999994E+165</v>
+      </c>
+      <c r="H303" s="17">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="I303" s="16" t="str" cm="1">
+        <f t="array" ref="I303">IF(AND(H302&gt;1000,H303&lt;2),INDEX(N:N,MATCH(I302,N:N,0)+1,0),I302)</f>
+        <v>절</v>
+      </c>
+      <c r="J303" s="16" t="str">
+        <f t="shared" si="83"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K303" s="22">
+        <f t="shared" si="84"/>
+        <v>381625</v>
+      </c>
+      <c r="L303" s="22">
+        <f t="shared" si="85"/>
+        <v>1526500</v>
+      </c>
+    </row>
+    <row r="304" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E304" s="16">
+        <v>295</v>
+      </c>
+      <c r="F304" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v>500절</v>
+      </c>
+      <c r="G304" s="17">
+        <f t="shared" si="82"/>
+        <v>5.0000000000000002E+166</v>
+      </c>
+      <c r="H304" s="17">
+        <f t="shared" si="40"/>
+        <v>500</v>
+      </c>
+      <c r="I304" s="16" t="str" cm="1">
+        <f t="array" ref="I304">IF(AND(H303&gt;1000,H304&lt;2),INDEX(N:N,MATCH(I303,N:N,0)+1,0),I303)</f>
+        <v>절</v>
+      </c>
+      <c r="J304" s="16" t="str">
+        <f t="shared" si="83"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K304" s="22">
+        <f t="shared" si="84"/>
+        <v>384125</v>
+      </c>
+      <c r="L304" s="22">
+        <f t="shared" si="85"/>
+        <v>1536500</v>
+      </c>
+    </row>
+    <row r="305" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E305" s="16">
+        <v>296</v>
+      </c>
+      <c r="F305" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v>1000절</v>
+      </c>
+      <c r="G305" s="17">
+        <f t="shared" si="82"/>
+        <v>1E+167</v>
+      </c>
+      <c r="H305" s="17">
+        <f t="shared" si="40"/>
+        <v>1000</v>
+      </c>
+      <c r="I305" s="16" t="str" cm="1">
+        <f t="array" ref="I305">IF(AND(H304&gt;1000,H305&lt;2),INDEX(N:N,MATCH(I304,N:N,0)+1,0),I304)</f>
+        <v>절</v>
+      </c>
+      <c r="J305" s="16" t="str">
+        <f t="shared" si="83"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K305" s="22">
+        <f t="shared" si="84"/>
+        <v>386625</v>
+      </c>
+      <c r="L305" s="22">
+        <f t="shared" si="85"/>
+        <v>1546500</v>
+      </c>
+    </row>
+    <row r="306" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E306" s="16">
+        <v>297</v>
+      </c>
+      <c r="F306" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v>5000절</v>
+      </c>
+      <c r="G306" s="17">
+        <f t="shared" si="82"/>
+        <v>4.9999999999999997E+167</v>
+      </c>
+      <c r="H306" s="17">
+        <f t="shared" si="40"/>
+        <v>5000</v>
+      </c>
+      <c r="I306" s="16" t="str" cm="1">
+        <f t="array" ref="I306">IF(AND(H305&gt;1000,H306&lt;2),INDEX(N:N,MATCH(I305,N:N,0)+1,0),I305)</f>
+        <v>절</v>
+      </c>
+      <c r="J306" s="16" t="str">
+        <f t="shared" si="83"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K306" s="22">
+        <f t="shared" si="84"/>
+        <v>389125</v>
+      </c>
+      <c r="L306" s="22">
+        <f t="shared" si="85"/>
+        <v>1556500</v>
+      </c>
+    </row>
+    <row r="307" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E307" s="16"/>
+      <c r="F307" s="17"/>
+      <c r="G307" s="17"/>
+      <c r="H307" s="17"/>
+      <c r="I307" s="16"/>
+      <c r="J307" s="16"/>
+      <c r="K307" s="22"/>
+      <c r="L307" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/DosulTower.xlsx
+++ b/Assets/06.Table/DosulTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583286E3-3FE9-480F-B508-76EEC4212C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA8950E-32A1-4AFA-AC56-512718089612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="89">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1002,11 +1002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M411"/>
+  <dimension ref="A1:M419"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F407" sqref="F407"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F412" sqref="F412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21197,7 +21197,7 @@
         <v>652000</v>
       </c>
       <c r="E389">
-        <f t="shared" ref="E389:E411" si="562">E388</f>
+        <f t="shared" ref="E389:E419" si="562">E388</f>
         <v>1</v>
       </c>
       <c r="F389" s="2">
@@ -21220,11 +21220,11 @@
         <v>60</v>
       </c>
       <c r="K389">
-        <f t="shared" ref="K389:K411" si="564">K388+200</f>
+        <f t="shared" ref="K389:K419" si="564">K388+200</f>
         <v>79400</v>
       </c>
       <c r="L389">
-        <f t="shared" ref="L389:L411" si="565">L388</f>
+        <f t="shared" ref="L389:L419" si="565">L388</f>
         <v>9031</v>
       </c>
       <c r="M389">
@@ -22376,9 +22376,425 @@
         <v>1453250</v>
       </c>
     </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412" s="1" t="str">
+        <f t="shared" ref="B412:C412" si="610">B411</f>
+        <v>1-1</v>
+      </c>
+      <c r="C412">
+        <f t="shared" si="610"/>
+        <v>9031</v>
+      </c>
+      <c r="D412">
+        <f>VLOOKUP(A412,Balance!E:K,7,FALSE)</f>
+        <v>730125</v>
+      </c>
+      <c r="E412">
+        <f t="shared" si="562"/>
+        <v>1</v>
+      </c>
+      <c r="F412" s="2">
+        <f>VLOOKUP(A412,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="G412">
+        <f t="shared" ref="G412:I412" si="611">G411</f>
+        <v>1000</v>
+      </c>
+      <c r="H412">
+        <f t="shared" si="611"/>
+        <v>8</v>
+      </c>
+      <c r="I412">
+        <f t="shared" si="611"/>
+        <v>0</v>
+      </c>
+      <c r="J412" t="s">
+        <v>60</v>
+      </c>
+      <c r="K412">
+        <f t="shared" si="564"/>
+        <v>84000</v>
+      </c>
+      <c r="L412">
+        <f t="shared" si="565"/>
+        <v>9031</v>
+      </c>
+      <c r="M412">
+        <f>VLOOKUP(A412,Balance!E:L,8,FALSE)/2</f>
+        <v>1460250</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413" s="1" t="str">
+        <f t="shared" ref="B413:C413" si="612">B412</f>
+        <v>1-1</v>
+      </c>
+      <c r="C413">
+        <f t="shared" si="612"/>
+        <v>9031</v>
+      </c>
+      <c r="D413">
+        <f>VLOOKUP(A413,Balance!E:K,7,FALSE)</f>
+        <v>733625</v>
+      </c>
+      <c r="E413">
+        <f t="shared" si="562"/>
+        <v>1</v>
+      </c>
+      <c r="F413" s="2">
+        <f>VLOOKUP(A413,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999996E+224</v>
+      </c>
+      <c r="G413">
+        <f t="shared" ref="G413:I413" si="613">G412</f>
+        <v>1000</v>
+      </c>
+      <c r="H413">
+        <f t="shared" si="613"/>
+        <v>8</v>
+      </c>
+      <c r="I413">
+        <f t="shared" si="613"/>
+        <v>0</v>
+      </c>
+      <c r="J413" t="s">
+        <v>60</v>
+      </c>
+      <c r="K413">
+        <f t="shared" si="564"/>
+        <v>84200</v>
+      </c>
+      <c r="L413">
+        <f t="shared" si="565"/>
+        <v>9031</v>
+      </c>
+      <c r="M413">
+        <f>VLOOKUP(A413,Balance!E:L,8,FALSE)/2</f>
+        <v>1467250</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414" s="1" t="str">
+        <f t="shared" ref="B414:C414" si="614">B413</f>
+        <v>1-1</v>
+      </c>
+      <c r="C414">
+        <f t="shared" si="614"/>
+        <v>9031</v>
+      </c>
+      <c r="D414">
+        <f>VLOOKUP(A414,Balance!E:K,7,FALSE)</f>
+        <v>737125</v>
+      </c>
+      <c r="E414">
+        <f t="shared" si="562"/>
+        <v>1</v>
+      </c>
+      <c r="F414" s="2">
+        <f>VLOOKUP(A414,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999993E+224</v>
+      </c>
+      <c r="G414">
+        <f t="shared" ref="G414:I414" si="615">G413</f>
+        <v>1000</v>
+      </c>
+      <c r="H414">
+        <f t="shared" si="615"/>
+        <v>8</v>
+      </c>
+      <c r="I414">
+        <f t="shared" si="615"/>
+        <v>0</v>
+      </c>
+      <c r="J414" t="s">
+        <v>60</v>
+      </c>
+      <c r="K414">
+        <f t="shared" si="564"/>
+        <v>84400</v>
+      </c>
+      <c r="L414">
+        <f t="shared" si="565"/>
+        <v>9031</v>
+      </c>
+      <c r="M414">
+        <f>VLOOKUP(A414,Balance!E:L,8,FALSE)/2</f>
+        <v>1474250</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415" s="1" t="str">
+        <f t="shared" ref="B415:C415" si="616">B414</f>
+        <v>1-1</v>
+      </c>
+      <c r="C415">
+        <f t="shared" si="616"/>
+        <v>9031</v>
+      </c>
+      <c r="D415">
+        <f>VLOOKUP(A415,Balance!E:K,7,FALSE)</f>
+        <v>740625</v>
+      </c>
+      <c r="E415">
+        <f t="shared" si="562"/>
+        <v>1</v>
+      </c>
+      <c r="F415" s="2">
+        <f>VLOOKUP(A415,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999998E+225</v>
+      </c>
+      <c r="G415">
+        <f t="shared" ref="G415:I415" si="617">G414</f>
+        <v>1000</v>
+      </c>
+      <c r="H415">
+        <f t="shared" si="617"/>
+        <v>8</v>
+      </c>
+      <c r="I415">
+        <f t="shared" si="617"/>
+        <v>0</v>
+      </c>
+      <c r="J415" t="s">
+        <v>60</v>
+      </c>
+      <c r="K415">
+        <f t="shared" si="564"/>
+        <v>84600</v>
+      </c>
+      <c r="L415">
+        <f t="shared" si="565"/>
+        <v>9031</v>
+      </c>
+      <c r="M415">
+        <f>VLOOKUP(A415,Balance!E:L,8,FALSE)/2</f>
+        <v>1481250</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416" s="1" t="str">
+        <f t="shared" ref="B416:C416" si="618">B415</f>
+        <v>1-1</v>
+      </c>
+      <c r="C416">
+        <f t="shared" si="618"/>
+        <v>9031</v>
+      </c>
+      <c r="D416">
+        <f>VLOOKUP(A416,Balance!E:K,7,FALSE)</f>
+        <v>744125</v>
+      </c>
+      <c r="E416">
+        <f t="shared" si="562"/>
+        <v>1</v>
+      </c>
+      <c r="F416" s="2">
+        <f>VLOOKUP(A416,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999996E+225</v>
+      </c>
+      <c r="G416">
+        <f t="shared" ref="G416:I416" si="619">G415</f>
+        <v>1000</v>
+      </c>
+      <c r="H416">
+        <f t="shared" si="619"/>
+        <v>8</v>
+      </c>
+      <c r="I416">
+        <f t="shared" si="619"/>
+        <v>0</v>
+      </c>
+      <c r="J416" t="s">
+        <v>60</v>
+      </c>
+      <c r="K416">
+        <f t="shared" si="564"/>
+        <v>84800</v>
+      </c>
+      <c r="L416">
+        <f t="shared" si="565"/>
+        <v>9031</v>
+      </c>
+      <c r="M416">
+        <f>VLOOKUP(A416,Balance!E:L,8,FALSE)/2</f>
+        <v>1488250</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417" s="1" t="str">
+        <f t="shared" ref="B417:C417" si="620">B416</f>
+        <v>1-1</v>
+      </c>
+      <c r="C417">
+        <f t="shared" si="620"/>
+        <v>9031</v>
+      </c>
+      <c r="D417">
+        <f>VLOOKUP(A417,Balance!E:K,7,FALSE)</f>
+        <v>747625</v>
+      </c>
+      <c r="E417">
+        <f t="shared" si="562"/>
+        <v>1</v>
+      </c>
+      <c r="F417" s="2">
+        <f>VLOOKUP(A417,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999994E+226</v>
+      </c>
+      <c r="G417">
+        <f t="shared" ref="G417:I417" si="621">G416</f>
+        <v>1000</v>
+      </c>
+      <c r="H417">
+        <f t="shared" si="621"/>
+        <v>8</v>
+      </c>
+      <c r="I417">
+        <f t="shared" si="621"/>
+        <v>0</v>
+      </c>
+      <c r="J417" t="s">
+        <v>60</v>
+      </c>
+      <c r="K417">
+        <f t="shared" si="564"/>
+        <v>85000</v>
+      </c>
+      <c r="L417">
+        <f t="shared" si="565"/>
+        <v>9031</v>
+      </c>
+      <c r="M417">
+        <f>VLOOKUP(A417,Balance!E:L,8,FALSE)/2</f>
+        <v>1495250</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418" s="1" t="str">
+        <f t="shared" ref="B418:C418" si="622">B417</f>
+        <v>1-1</v>
+      </c>
+      <c r="C418">
+        <f t="shared" si="622"/>
+        <v>9031</v>
+      </c>
+      <c r="D418">
+        <f>VLOOKUP(A418,Balance!E:K,7,FALSE)</f>
+        <v>751125</v>
+      </c>
+      <c r="E418">
+        <f t="shared" si="562"/>
+        <v>1</v>
+      </c>
+      <c r="F418" s="2">
+        <f>VLOOKUP(A418,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999988E+226</v>
+      </c>
+      <c r="G418">
+        <f t="shared" ref="G418:I418" si="623">G417</f>
+        <v>1000</v>
+      </c>
+      <c r="H418">
+        <f t="shared" si="623"/>
+        <v>8</v>
+      </c>
+      <c r="I418">
+        <f t="shared" si="623"/>
+        <v>0</v>
+      </c>
+      <c r="J418" t="s">
+        <v>60</v>
+      </c>
+      <c r="K418">
+        <f t="shared" si="564"/>
+        <v>85200</v>
+      </c>
+      <c r="L418">
+        <f t="shared" si="565"/>
+        <v>9031</v>
+      </c>
+      <c r="M418">
+        <f>VLOOKUP(A418,Balance!E:L,8,FALSE)/2</f>
+        <v>1502250</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419" s="1" t="str">
+        <f t="shared" ref="B419:C419" si="624">B418</f>
+        <v>1-1</v>
+      </c>
+      <c r="C419">
+        <f t="shared" si="624"/>
+        <v>9031</v>
+      </c>
+      <c r="D419">
+        <f>VLOOKUP(A419,Balance!E:K,7,FALSE)</f>
+        <v>754625</v>
+      </c>
+      <c r="E419">
+        <f t="shared" si="562"/>
+        <v>1</v>
+      </c>
+      <c r="F419" s="2">
+        <f>VLOOKUP(A419,Balance!E:K,3,FALSE)</f>
+        <v>4.9999999999999996E+227</v>
+      </c>
+      <c r="G419">
+        <f t="shared" ref="G419:I419" si="625">G418</f>
+        <v>1000</v>
+      </c>
+      <c r="H419">
+        <f t="shared" si="625"/>
+        <v>8</v>
+      </c>
+      <c r="I419">
+        <f t="shared" si="625"/>
+        <v>0</v>
+      </c>
+      <c r="J419" t="s">
+        <v>60</v>
+      </c>
+      <c r="K419">
+        <f t="shared" si="564"/>
+        <v>85400</v>
+      </c>
+      <c r="L419">
+        <f t="shared" si="565"/>
+        <v>9031</v>
+      </c>
+      <c r="M419">
+        <f>VLOOKUP(A419,Balance!E:L,8,FALSE)/2</f>
+        <v>1509250</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L411">
+  <conditionalFormatting sqref="A2:L419">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -22390,10 +22806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z423"/>
+  <dimension ref="A1:Z429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B395" workbookViewId="0">
-      <selection activeCell="H414" sqref="H414"/>
+    <sheetView topLeftCell="B407" workbookViewId="0">
+      <selection activeCell="E427" sqref="E427:L430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -36763,7 +37179,7 @@
         <v>9.9999999999999991E+214</v>
       </c>
       <c r="H401" s="17">
-        <f t="shared" ref="H401:H423" si="141">H393</f>
+        <f t="shared" ref="H401:H429" si="141">H393</f>
         <v>1000</v>
       </c>
       <c r="I401" s="16" t="str" cm="1">
@@ -36821,11 +37237,11 @@
         <v>394</v>
       </c>
       <c r="F403" s="17" t="str">
-        <f t="shared" ref="F403:F423" si="142">H403&amp;I403</f>
+        <f t="shared" ref="F403:F418" si="142">H403&amp;I403</f>
         <v>1관</v>
       </c>
       <c r="G403" s="17">
-        <f t="shared" ref="G403:G423" si="143">H403*J403</f>
+        <f t="shared" ref="G403:G418" si="143">H403*J403</f>
         <v>1E+216</v>
       </c>
       <c r="H403" s="17">
@@ -36837,15 +37253,15 @@
         <v>관</v>
       </c>
       <c r="J403" s="16" t="str">
-        <f t="shared" ref="J403:J423" si="144">VLOOKUP(I403,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J403:J418" si="144">VLOOKUP(I403,N:Q,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K403" s="22">
-        <f t="shared" ref="K403:K423" si="145">L403*0.25</f>
+        <f t="shared" ref="K403:K418" si="145">L403*0.25</f>
         <v>675375</v>
       </c>
       <c r="L403" s="22">
-        <f t="shared" ref="L403:L423" si="146">L402+500+QUOTIENT(E403,15)*500</f>
+        <f t="shared" ref="L403:L418" si="146">L402+500+QUOTIENT(E403,15)*500</f>
         <v>2701500</v>
       </c>
     </row>
@@ -37345,54 +37761,298 @@
       </c>
     </row>
     <row r="419" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E419" s="16"/>
-      <c r="F419" s="17"/>
-      <c r="G419" s="17"/>
-      <c r="H419" s="17"/>
-      <c r="I419" s="16"/>
-      <c r="J419" s="16"/>
-      <c r="K419" s="22"/>
-      <c r="L419" s="22"/>
+      <c r="E419" s="16">
+        <v>410</v>
+      </c>
+      <c r="F419" s="17" t="str">
+        <f t="shared" ref="F419:F429" si="147">H419&amp;I419</f>
+        <v>1혈</v>
+      </c>
+      <c r="G419" s="17">
+        <f t="shared" ref="G419:G429" si="148">H419*J419</f>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="H419" s="17">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="I419" s="16" t="str" cm="1">
+        <f t="array" ref="I419">IF(AND(H418&gt;1000,H419&lt;2),INDEX(N:N,MATCH(I418,N:N,0)+1,0),I418)</f>
+        <v>혈</v>
+      </c>
+      <c r="J419" s="16" t="str">
+        <f t="shared" ref="J419:J429" si="149">VLOOKUP(I419,N:Q,4,FALSE)</f>
+        <v>1E+224</v>
+      </c>
+      <c r="K419" s="22">
+        <f t="shared" ref="K419:K429" si="150">L419*0.25</f>
+        <v>730125</v>
+      </c>
+      <c r="L419" s="22">
+        <f t="shared" ref="L419:L429" si="151">L418+500+QUOTIENT(E419,15)*500</f>
+        <v>2920500</v>
+      </c>
     </row>
     <row r="420" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E420" s="16"/>
-      <c r="F420" s="17"/>
-      <c r="G420" s="17"/>
-      <c r="H420" s="17"/>
-      <c r="I420" s="16"/>
-      <c r="J420" s="16"/>
-      <c r="K420" s="22"/>
-      <c r="L420" s="22"/>
+      <c r="E420" s="16">
+        <v>411</v>
+      </c>
+      <c r="F420" s="17" t="str">
+        <f t="shared" si="147"/>
+        <v>5혈</v>
+      </c>
+      <c r="G420" s="17">
+        <f t="shared" si="148"/>
+        <v>4.9999999999999996E+224</v>
+      </c>
+      <c r="H420" s="17">
+        <f t="shared" si="141"/>
+        <v>5</v>
+      </c>
+      <c r="I420" s="16" t="str" cm="1">
+        <f t="array" ref="I420">IF(AND(H419&gt;1000,H420&lt;2),INDEX(N:N,MATCH(I419,N:N,0)+1,0),I419)</f>
+        <v>혈</v>
+      </c>
+      <c r="J420" s="16" t="str">
+        <f t="shared" si="149"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K420" s="22">
+        <f t="shared" si="150"/>
+        <v>733625</v>
+      </c>
+      <c r="L420" s="22">
+        <f t="shared" si="151"/>
+        <v>2934500</v>
+      </c>
     </row>
     <row r="421" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E421" s="16"/>
-      <c r="F421" s="17"/>
-      <c r="G421" s="17"/>
-      <c r="H421" s="17"/>
-      <c r="I421" s="16"/>
-      <c r="J421" s="16"/>
-      <c r="K421" s="22"/>
-      <c r="L421" s="22"/>
+      <c r="E421" s="16">
+        <v>412</v>
+      </c>
+      <c r="F421" s="17" t="str">
+        <f t="shared" si="147"/>
+        <v>10혈</v>
+      </c>
+      <c r="G421" s="17">
+        <f t="shared" si="148"/>
+        <v>9.9999999999999993E+224</v>
+      </c>
+      <c r="H421" s="17">
+        <f t="shared" si="141"/>
+        <v>10</v>
+      </c>
+      <c r="I421" s="16" t="str" cm="1">
+        <f t="array" ref="I421">IF(AND(H420&gt;1000,H421&lt;2),INDEX(N:N,MATCH(I420,N:N,0)+1,0),I420)</f>
+        <v>혈</v>
+      </c>
+      <c r="J421" s="16" t="str">
+        <f t="shared" si="149"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K421" s="22">
+        <f t="shared" si="150"/>
+        <v>737125</v>
+      </c>
+      <c r="L421" s="22">
+        <f t="shared" si="151"/>
+        <v>2948500</v>
+      </c>
     </row>
     <row r="422" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E422" s="16"/>
-      <c r="F422" s="17"/>
-      <c r="G422" s="17"/>
-      <c r="H422" s="17"/>
-      <c r="I422" s="16"/>
-      <c r="J422" s="16"/>
-      <c r="K422" s="22"/>
-      <c r="L422" s="22"/>
+      <c r="E422" s="16">
+        <v>413</v>
+      </c>
+      <c r="F422" s="17" t="str">
+        <f t="shared" si="147"/>
+        <v>50혈</v>
+      </c>
+      <c r="G422" s="17">
+        <f t="shared" si="148"/>
+        <v>4.9999999999999998E+225</v>
+      </c>
+      <c r="H422" s="17">
+        <f t="shared" si="141"/>
+        <v>50</v>
+      </c>
+      <c r="I422" s="16" t="str" cm="1">
+        <f t="array" ref="I422">IF(AND(H421&gt;1000,H422&lt;2),INDEX(N:N,MATCH(I421,N:N,0)+1,0),I421)</f>
+        <v>혈</v>
+      </c>
+      <c r="J422" s="16" t="str">
+        <f t="shared" si="149"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K422" s="22">
+        <f t="shared" si="150"/>
+        <v>740625</v>
+      </c>
+      <c r="L422" s="22">
+        <f t="shared" si="151"/>
+        <v>2962500</v>
+      </c>
     </row>
     <row r="423" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E423" s="16"/>
-      <c r="F423" s="17"/>
-      <c r="G423" s="17"/>
-      <c r="H423" s="17"/>
-      <c r="I423" s="16"/>
-      <c r="J423" s="16"/>
-      <c r="K423" s="22"/>
-      <c r="L423" s="22"/>
+      <c r="E423" s="16">
+        <v>414</v>
+      </c>
+      <c r="F423" s="17" t="str">
+        <f t="shared" si="147"/>
+        <v>100혈</v>
+      </c>
+      <c r="G423" s="17">
+        <f t="shared" si="148"/>
+        <v>9.9999999999999996E+225</v>
+      </c>
+      <c r="H423" s="17">
+        <f t="shared" si="141"/>
+        <v>100</v>
+      </c>
+      <c r="I423" s="16" t="str" cm="1">
+        <f t="array" ref="I423">IF(AND(H422&gt;1000,H423&lt;2),INDEX(N:N,MATCH(I422,N:N,0)+1,0),I422)</f>
+        <v>혈</v>
+      </c>
+      <c r="J423" s="16" t="str">
+        <f t="shared" si="149"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K423" s="22">
+        <f t="shared" si="150"/>
+        <v>744125</v>
+      </c>
+      <c r="L423" s="22">
+        <f t="shared" si="151"/>
+        <v>2976500</v>
+      </c>
+    </row>
+    <row r="424" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E424" s="16">
+        <v>415</v>
+      </c>
+      <c r="F424" s="17" t="str">
+        <f t="shared" si="147"/>
+        <v>500혈</v>
+      </c>
+      <c r="G424" s="17">
+        <f t="shared" si="148"/>
+        <v>4.9999999999999994E+226</v>
+      </c>
+      <c r="H424" s="17">
+        <f t="shared" si="141"/>
+        <v>500</v>
+      </c>
+      <c r="I424" s="16" t="str" cm="1">
+        <f t="array" ref="I424">IF(AND(H423&gt;1000,H424&lt;2),INDEX(N:N,MATCH(I423,N:N,0)+1,0),I423)</f>
+        <v>혈</v>
+      </c>
+      <c r="J424" s="16" t="str">
+        <f t="shared" si="149"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K424" s="22">
+        <f t="shared" si="150"/>
+        <v>747625</v>
+      </c>
+      <c r="L424" s="22">
+        <f t="shared" si="151"/>
+        <v>2990500</v>
+      </c>
+    </row>
+    <row r="425" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E425" s="16">
+        <v>416</v>
+      </c>
+      <c r="F425" s="17" t="str">
+        <f t="shared" si="147"/>
+        <v>1000혈</v>
+      </c>
+      <c r="G425" s="17">
+        <f t="shared" si="148"/>
+        <v>9.9999999999999988E+226</v>
+      </c>
+      <c r="H425" s="17">
+        <f t="shared" si="141"/>
+        <v>1000</v>
+      </c>
+      <c r="I425" s="16" t="str" cm="1">
+        <f t="array" ref="I425">IF(AND(H424&gt;1000,H425&lt;2),INDEX(N:N,MATCH(I424,N:N,0)+1,0),I424)</f>
+        <v>혈</v>
+      </c>
+      <c r="J425" s="16" t="str">
+        <f t="shared" si="149"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K425" s="22">
+        <f t="shared" si="150"/>
+        <v>751125</v>
+      </c>
+      <c r="L425" s="22">
+        <f t="shared" si="151"/>
+        <v>3004500</v>
+      </c>
+    </row>
+    <row r="426" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E426" s="16">
+        <v>417</v>
+      </c>
+      <c r="F426" s="17" t="str">
+        <f t="shared" si="147"/>
+        <v>5000혈</v>
+      </c>
+      <c r="G426" s="17">
+        <f t="shared" si="148"/>
+        <v>4.9999999999999996E+227</v>
+      </c>
+      <c r="H426" s="17">
+        <f t="shared" si="141"/>
+        <v>5000</v>
+      </c>
+      <c r="I426" s="16" t="str" cm="1">
+        <f t="array" ref="I426">IF(AND(H425&gt;1000,H426&lt;2),INDEX(N:N,MATCH(I425,N:N,0)+1,0),I425)</f>
+        <v>혈</v>
+      </c>
+      <c r="J426" s="16" t="str">
+        <f t="shared" si="149"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K426" s="22">
+        <f t="shared" si="150"/>
+        <v>754625</v>
+      </c>
+      <c r="L426" s="22">
+        <f t="shared" si="151"/>
+        <v>3018500</v>
+      </c>
+    </row>
+    <row r="427" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E427" s="16"/>
+      <c r="F427" s="17"/>
+      <c r="G427" s="17"/>
+      <c r="H427" s="17"/>
+      <c r="I427" s="16"/>
+      <c r="J427" s="16"/>
+      <c r="K427" s="22"/>
+      <c r="L427" s="22"/>
+    </row>
+    <row r="428" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E428" s="16"/>
+      <c r="F428" s="17"/>
+      <c r="G428" s="17"/>
+      <c r="H428" s="17"/>
+      <c r="I428" s="16"/>
+      <c r="J428" s="16"/>
+      <c r="K428" s="22"/>
+      <c r="L428" s="22"/>
+    </row>
+    <row r="429" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E429" s="16"/>
+      <c r="F429" s="17"/>
+      <c r="G429" s="17"/>
+      <c r="H429" s="17"/>
+      <c r="I429" s="16"/>
+      <c r="J429" s="16"/>
+      <c r="K429" s="22"/>
+      <c r="L429" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/DosulTower.xlsx
+++ b/Assets/06.Table/DosulTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31CCB15-4545-49BA-891F-6FEF343F053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B872CD-80F5-4B65-A011-35C50D62A15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="95">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1026,11 +1026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M459"/>
+  <dimension ref="A1:M467"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H454" sqref="H454"/>
+      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C462" sqref="C462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24549,7 +24549,7 @@
         <v>880000</v>
       </c>
       <c r="E453">
-        <f t="shared" ref="E453:E459" si="693">E452</f>
+        <f t="shared" ref="E453:E467" si="693">E452</f>
         <v>1</v>
       </c>
       <c r="F453" s="2">
@@ -24572,11 +24572,11 @@
         <v>60</v>
       </c>
       <c r="K453">
-        <f t="shared" ref="K453:K459" si="695">K452+200</f>
+        <f t="shared" ref="K453:K467" si="695">K452+200</f>
         <v>92200</v>
       </c>
       <c r="L453">
-        <f t="shared" ref="L453:L459" si="696">L452</f>
+        <f t="shared" ref="L453:L467" si="696">L452</f>
         <v>9031</v>
       </c>
       <c r="M453">
@@ -24896,9 +24896,425 @@
         <v>1806500</v>
       </c>
     </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>458</v>
+      </c>
+      <c r="B460" s="1" t="str">
+        <f t="shared" ref="B460:C460" si="709">B459</f>
+        <v>1-1</v>
+      </c>
+      <c r="C460">
+        <f t="shared" si="709"/>
+        <v>9031</v>
+      </c>
+      <c r="D460">
+        <f>VLOOKUP(A460,Balance!E:K,7,FALSE)</f>
+        <v>907125</v>
+      </c>
+      <c r="E460">
+        <f t="shared" si="693"/>
+        <v>1</v>
+      </c>
+      <c r="F460" s="2">
+        <f>VLOOKUP(A460,Balance!E:K,3,FALSE)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="G460">
+        <f t="shared" ref="G460:I460" si="710">G459</f>
+        <v>1000</v>
+      </c>
+      <c r="H460">
+        <f t="shared" si="710"/>
+        <v>8</v>
+      </c>
+      <c r="I460">
+        <f t="shared" si="710"/>
+        <v>0</v>
+      </c>
+      <c r="J460" t="s">
+        <v>60</v>
+      </c>
+      <c r="K460">
+        <f t="shared" si="695"/>
+        <v>93600</v>
+      </c>
+      <c r="L460">
+        <f t="shared" si="696"/>
+        <v>9031</v>
+      </c>
+      <c r="M460">
+        <f>VLOOKUP(A460,Balance!E:L,8,FALSE)/2</f>
+        <v>1814250</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>459</v>
+      </c>
+      <c r="B461" s="1" t="str">
+        <f t="shared" ref="B461:C461" si="711">B460</f>
+        <v>1-1</v>
+      </c>
+      <c r="C461">
+        <f t="shared" si="711"/>
+        <v>9031</v>
+      </c>
+      <c r="D461">
+        <f>VLOOKUP(A461,Balance!E:K,7,FALSE)</f>
+        <v>911000</v>
+      </c>
+      <c r="E461">
+        <f t="shared" si="693"/>
+        <v>1</v>
+      </c>
+      <c r="F461" s="2">
+        <f>VLOOKUP(A461,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000006E+248</v>
+      </c>
+      <c r="G461">
+        <f t="shared" ref="G461:I461" si="712">G460</f>
+        <v>1000</v>
+      </c>
+      <c r="H461">
+        <f t="shared" si="712"/>
+        <v>8</v>
+      </c>
+      <c r="I461">
+        <f t="shared" si="712"/>
+        <v>0</v>
+      </c>
+      <c r="J461" t="s">
+        <v>60</v>
+      </c>
+      <c r="K461">
+        <f t="shared" si="695"/>
+        <v>93800</v>
+      </c>
+      <c r="L461">
+        <f t="shared" si="696"/>
+        <v>9031</v>
+      </c>
+      <c r="M461">
+        <f>VLOOKUP(A461,Balance!E:L,8,FALSE)/2</f>
+        <v>1822000</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>460</v>
+      </c>
+      <c r="B462" s="1" t="str">
+        <f t="shared" ref="B462:C462" si="713">B461</f>
+        <v>1-1</v>
+      </c>
+      <c r="C462">
+        <f t="shared" si="713"/>
+        <v>9031</v>
+      </c>
+      <c r="D462">
+        <f>VLOOKUP(A462,Balance!E:K,7,FALSE)</f>
+        <v>914875</v>
+      </c>
+      <c r="E462">
+        <f t="shared" si="693"/>
+        <v>1</v>
+      </c>
+      <c r="F462" s="2">
+        <f>VLOOKUP(A462,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+249</v>
+      </c>
+      <c r="G462">
+        <f t="shared" ref="G462:I462" si="714">G461</f>
+        <v>1000</v>
+      </c>
+      <c r="H462">
+        <f t="shared" si="714"/>
+        <v>8</v>
+      </c>
+      <c r="I462">
+        <f t="shared" si="714"/>
+        <v>0</v>
+      </c>
+      <c r="J462" t="s">
+        <v>60</v>
+      </c>
+      <c r="K462">
+        <f t="shared" si="695"/>
+        <v>94000</v>
+      </c>
+      <c r="L462">
+        <f t="shared" si="696"/>
+        <v>9031</v>
+      </c>
+      <c r="M462">
+        <f>VLOOKUP(A462,Balance!E:L,8,FALSE)/2</f>
+        <v>1829750</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>461</v>
+      </c>
+      <c r="B463" s="1" t="str">
+        <f t="shared" ref="B463:C463" si="715">B462</f>
+        <v>1-1</v>
+      </c>
+      <c r="C463">
+        <f t="shared" si="715"/>
+        <v>9031</v>
+      </c>
+      <c r="D463">
+        <f>VLOOKUP(A463,Balance!E:K,7,FALSE)</f>
+        <v>918750</v>
+      </c>
+      <c r="E463">
+        <f t="shared" si="693"/>
+        <v>1</v>
+      </c>
+      <c r="F463" s="2">
+        <f>VLOOKUP(A463,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000004E+249</v>
+      </c>
+      <c r="G463">
+        <f t="shared" ref="G463:I463" si="716">G462</f>
+        <v>1000</v>
+      </c>
+      <c r="H463">
+        <f t="shared" si="716"/>
+        <v>8</v>
+      </c>
+      <c r="I463">
+        <f t="shared" si="716"/>
+        <v>0</v>
+      </c>
+      <c r="J463" t="s">
+        <v>60</v>
+      </c>
+      <c r="K463">
+        <f t="shared" si="695"/>
+        <v>94200</v>
+      </c>
+      <c r="L463">
+        <f t="shared" si="696"/>
+        <v>9031</v>
+      </c>
+      <c r="M463">
+        <f>VLOOKUP(A463,Balance!E:L,8,FALSE)/2</f>
+        <v>1837500</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>462</v>
+      </c>
+      <c r="B464" s="1" t="str">
+        <f t="shared" ref="B464:C464" si="717">B463</f>
+        <v>1-1</v>
+      </c>
+      <c r="C464">
+        <f t="shared" si="717"/>
+        <v>9031</v>
+      </c>
+      <c r="D464">
+        <f>VLOOKUP(A464,Balance!E:K,7,FALSE)</f>
+        <v>922625</v>
+      </c>
+      <c r="E464">
+        <f t="shared" si="693"/>
+        <v>1</v>
+      </c>
+      <c r="F464" s="2">
+        <f>VLOOKUP(A464,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+250</v>
+      </c>
+      <c r="G464">
+        <f t="shared" ref="G464:I464" si="718">G463</f>
+        <v>1000</v>
+      </c>
+      <c r="H464">
+        <f t="shared" si="718"/>
+        <v>8</v>
+      </c>
+      <c r="I464">
+        <f t="shared" si="718"/>
+        <v>0</v>
+      </c>
+      <c r="J464" t="s">
+        <v>60</v>
+      </c>
+      <c r="K464">
+        <f t="shared" si="695"/>
+        <v>94400</v>
+      </c>
+      <c r="L464">
+        <f t="shared" si="696"/>
+        <v>9031</v>
+      </c>
+      <c r="M464">
+        <f>VLOOKUP(A464,Balance!E:L,8,FALSE)/2</f>
+        <v>1845250</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>463</v>
+      </c>
+      <c r="B465" s="1" t="str">
+        <f t="shared" ref="B465:C465" si="719">B464</f>
+        <v>1-1</v>
+      </c>
+      <c r="C465">
+        <f t="shared" si="719"/>
+        <v>9031</v>
+      </c>
+      <c r="D465">
+        <f>VLOOKUP(A465,Balance!E:K,7,FALSE)</f>
+        <v>926500</v>
+      </c>
+      <c r="E465">
+        <f t="shared" si="693"/>
+        <v>1</v>
+      </c>
+      <c r="F465" s="2">
+        <f>VLOOKUP(A465,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000002E+250</v>
+      </c>
+      <c r="G465">
+        <f t="shared" ref="G465:I465" si="720">G464</f>
+        <v>1000</v>
+      </c>
+      <c r="H465">
+        <f t="shared" si="720"/>
+        <v>8</v>
+      </c>
+      <c r="I465">
+        <f t="shared" si="720"/>
+        <v>0</v>
+      </c>
+      <c r="J465" t="s">
+        <v>60</v>
+      </c>
+      <c r="K465">
+        <f t="shared" si="695"/>
+        <v>94600</v>
+      </c>
+      <c r="L465">
+        <f t="shared" si="696"/>
+        <v>9031</v>
+      </c>
+      <c r="M465">
+        <f>VLOOKUP(A465,Balance!E:L,8,FALSE)/2</f>
+        <v>1853000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>464</v>
+      </c>
+      <c r="B466" s="1" t="str">
+        <f t="shared" ref="B466:C466" si="721">B465</f>
+        <v>1-1</v>
+      </c>
+      <c r="C466">
+        <f t="shared" si="721"/>
+        <v>9031</v>
+      </c>
+      <c r="D466">
+        <f>VLOOKUP(A466,Balance!E:K,7,FALSE)</f>
+        <v>930375</v>
+      </c>
+      <c r="E466">
+        <f t="shared" si="693"/>
+        <v>1</v>
+      </c>
+      <c r="F466" s="2">
+        <f>VLOOKUP(A466,Balance!E:K,3,FALSE)</f>
+        <v>1E+251</v>
+      </c>
+      <c r="G466">
+        <f t="shared" ref="G466:I466" si="722">G465</f>
+        <v>1000</v>
+      </c>
+      <c r="H466">
+        <f t="shared" si="722"/>
+        <v>8</v>
+      </c>
+      <c r="I466">
+        <f t="shared" si="722"/>
+        <v>0</v>
+      </c>
+      <c r="J466" t="s">
+        <v>60</v>
+      </c>
+      <c r="K466">
+        <f t="shared" si="695"/>
+        <v>94800</v>
+      </c>
+      <c r="L466">
+        <f t="shared" si="696"/>
+        <v>9031</v>
+      </c>
+      <c r="M466">
+        <f>VLOOKUP(A466,Balance!E:L,8,FALSE)/2</f>
+        <v>1860750</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>465</v>
+      </c>
+      <c r="B467" s="1" t="str">
+        <f t="shared" ref="B467:C467" si="723">B466</f>
+        <v>1-1</v>
+      </c>
+      <c r="C467">
+        <f t="shared" si="723"/>
+        <v>9031</v>
+      </c>
+      <c r="D467">
+        <f>VLOOKUP(A467,Balance!E:K,7,FALSE)</f>
+        <v>934375</v>
+      </c>
+      <c r="E467">
+        <f t="shared" si="693"/>
+        <v>1</v>
+      </c>
+      <c r="F467" s="2">
+        <f>VLOOKUP(A467,Balance!E:K,3,FALSE)</f>
+        <v>5.0000000000000005E+251</v>
+      </c>
+      <c r="G467">
+        <f t="shared" ref="G467:I467" si="724">G466</f>
+        <v>1000</v>
+      </c>
+      <c r="H467">
+        <f t="shared" si="724"/>
+        <v>8</v>
+      </c>
+      <c r="I467">
+        <f t="shared" si="724"/>
+        <v>0</v>
+      </c>
+      <c r="J467" t="s">
+        <v>60</v>
+      </c>
+      <c r="K467">
+        <f t="shared" si="695"/>
+        <v>95000</v>
+      </c>
+      <c r="L467">
+        <f t="shared" si="696"/>
+        <v>9031</v>
+      </c>
+      <c r="M467">
+        <f>VLOOKUP(A467,Balance!E:L,8,FALSE)/2</f>
+        <v>1868750</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L459">
+  <conditionalFormatting sqref="A2:L467">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -24910,10 +25326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z466"/>
+  <dimension ref="A1:Z474"/>
   <sheetViews>
-    <sheetView topLeftCell="B439" workbookViewId="0">
-      <selection activeCell="G462" sqref="G462"/>
+    <sheetView topLeftCell="B451" workbookViewId="0">
+      <selection activeCell="G470" sqref="G470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -39363,7 +39779,7 @@
         <v>9.9999999999999991E+214</v>
       </c>
       <c r="H401" s="17">
-        <f t="shared" ref="H401:H466" si="134">H393</f>
+        <f t="shared" ref="H401:H474" si="134">H393</f>
         <v>1000</v>
       </c>
       <c r="I401" s="16" t="str" cm="1">
@@ -41526,6 +41942,270 @@
       <c r="L466" s="22">
         <f t="shared" si="162"/>
         <v>3613000</v>
+      </c>
+    </row>
+    <row r="467" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E467" s="16">
+        <v>458</v>
+      </c>
+      <c r="F467" s="17" t="str">
+        <f t="shared" ref="F467:F474" si="163">H467&amp;I467</f>
+        <v>1토</v>
+      </c>
+      <c r="G467" s="17">
+        <f t="shared" ref="G467:G474" si="164">H467*J467</f>
+        <v>1E+248</v>
+      </c>
+      <c r="H467" s="17">
+        <f t="shared" si="134"/>
+        <v>1</v>
+      </c>
+      <c r="I467" s="16" t="str" cm="1">
+        <f t="array" ref="I467">IF(AND(H466&gt;1000,H467&lt;2),INDEX(N:N,MATCH(I466,N:N,0)+1,0),I466)</f>
+        <v>토</v>
+      </c>
+      <c r="J467" s="16" t="str">
+        <f>VLOOKUP(I467,N:Q,4,FALSE)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="K467" s="22">
+        <f t="shared" ref="K467:K474" si="165">L467*0.25</f>
+        <v>907125</v>
+      </c>
+      <c r="L467" s="22">
+        <f t="shared" ref="L467:L474" si="166">L466+500+QUOTIENT(E467,15)*500</f>
+        <v>3628500</v>
+      </c>
+    </row>
+    <row r="468" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E468" s="16">
+        <v>459</v>
+      </c>
+      <c r="F468" s="17" t="str">
+        <f t="shared" si="163"/>
+        <v>5토</v>
+      </c>
+      <c r="G468" s="17">
+        <f t="shared" si="164"/>
+        <v>5.0000000000000006E+248</v>
+      </c>
+      <c r="H468" s="17">
+        <f t="shared" si="134"/>
+        <v>5</v>
+      </c>
+      <c r="I468" s="16" t="str" cm="1">
+        <f t="array" ref="I468">IF(AND(H467&gt;1000,H468&lt;2),INDEX(N:N,MATCH(I467,N:N,0)+1,0),I467)</f>
+        <v>토</v>
+      </c>
+      <c r="J468" s="16" t="str">
+        <f>VLOOKUP(I468,N:Q,4,FALSE)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="K468" s="22">
+        <f t="shared" si="165"/>
+        <v>911000</v>
+      </c>
+      <c r="L468" s="22">
+        <f t="shared" si="166"/>
+        <v>3644000</v>
+      </c>
+    </row>
+    <row r="469" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E469" s="16">
+        <v>460</v>
+      </c>
+      <c r="F469" s="17" t="str">
+        <f t="shared" si="163"/>
+        <v>10토</v>
+      </c>
+      <c r="G469" s="17">
+        <f t="shared" si="164"/>
+        <v>1.0000000000000001E+249</v>
+      </c>
+      <c r="H469" s="17">
+        <f t="shared" si="134"/>
+        <v>10</v>
+      </c>
+      <c r="I469" s="16" t="str" cm="1">
+        <f t="array" ref="I469">IF(AND(H468&gt;1000,H469&lt;2),INDEX(N:N,MATCH(I468,N:N,0)+1,0),I468)</f>
+        <v>토</v>
+      </c>
+      <c r="J469" s="16" t="str">
+        <f>VLOOKUP(I469,N:Q,4,FALSE)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="K469" s="22">
+        <f t="shared" si="165"/>
+        <v>914875</v>
+      </c>
+      <c r="L469" s="22">
+        <f t="shared" si="166"/>
+        <v>3659500</v>
+      </c>
+    </row>
+    <row r="470" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E470" s="16">
+        <v>461</v>
+      </c>
+      <c r="F470" s="17" t="str">
+        <f t="shared" si="163"/>
+        <v>50토</v>
+      </c>
+      <c r="G470" s="17">
+        <f t="shared" si="164"/>
+        <v>5.0000000000000004E+249</v>
+      </c>
+      <c r="H470" s="17">
+        <f t="shared" si="134"/>
+        <v>50</v>
+      </c>
+      <c r="I470" s="16" t="str" cm="1">
+        <f t="array" ref="I470">IF(AND(H469&gt;1000,H470&lt;2),INDEX(N:N,MATCH(I469,N:N,0)+1,0),I469)</f>
+        <v>토</v>
+      </c>
+      <c r="J470" s="16" t="str">
+        <f>VLOOKUP(I470,N:Q,4,FALSE)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="K470" s="22">
+        <f t="shared" si="165"/>
+        <v>918750</v>
+      </c>
+      <c r="L470" s="22">
+        <f t="shared" si="166"/>
+        <v>3675000</v>
+      </c>
+    </row>
+    <row r="471" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E471" s="16">
+        <v>462</v>
+      </c>
+      <c r="F471" s="17" t="str">
+        <f t="shared" si="163"/>
+        <v>100토</v>
+      </c>
+      <c r="G471" s="17">
+        <f t="shared" si="164"/>
+        <v>1.0000000000000001E+250</v>
+      </c>
+      <c r="H471" s="17">
+        <f t="shared" si="134"/>
+        <v>100</v>
+      </c>
+      <c r="I471" s="16" t="str" cm="1">
+        <f t="array" ref="I471">IF(AND(H470&gt;1000,H471&lt;2),INDEX(N:N,MATCH(I470,N:N,0)+1,0),I470)</f>
+        <v>토</v>
+      </c>
+      <c r="J471" s="16" t="str">
+        <f>VLOOKUP(I471,N:Q,4,FALSE)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="K471" s="22">
+        <f t="shared" si="165"/>
+        <v>922625</v>
+      </c>
+      <c r="L471" s="22">
+        <f t="shared" si="166"/>
+        <v>3690500</v>
+      </c>
+    </row>
+    <row r="472" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E472" s="16">
+        <v>463</v>
+      </c>
+      <c r="F472" s="17" t="str">
+        <f t="shared" si="163"/>
+        <v>500토</v>
+      </c>
+      <c r="G472" s="17">
+        <f t="shared" si="164"/>
+        <v>5.0000000000000002E+250</v>
+      </c>
+      <c r="H472" s="17">
+        <f t="shared" si="134"/>
+        <v>500</v>
+      </c>
+      <c r="I472" s="16" t="str" cm="1">
+        <f t="array" ref="I472">IF(AND(H471&gt;1000,H472&lt;2),INDEX(N:N,MATCH(I471,N:N,0)+1,0),I471)</f>
+        <v>토</v>
+      </c>
+      <c r="J472" s="16" t="str">
+        <f>VLOOKUP(I472,N:Q,4,FALSE)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="K472" s="22">
+        <f t="shared" si="165"/>
+        <v>926500</v>
+      </c>
+      <c r="L472" s="22">
+        <f t="shared" si="166"/>
+        <v>3706000</v>
+      </c>
+    </row>
+    <row r="473" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E473" s="16">
+        <v>464</v>
+      </c>
+      <c r="F473" s="17" t="str">
+        <f t="shared" si="163"/>
+        <v>1000토</v>
+      </c>
+      <c r="G473" s="17">
+        <f t="shared" si="164"/>
+        <v>1E+251</v>
+      </c>
+      <c r="H473" s="17">
+        <f t="shared" si="134"/>
+        <v>1000</v>
+      </c>
+      <c r="I473" s="16" t="str" cm="1">
+        <f t="array" ref="I473">IF(AND(H472&gt;1000,H473&lt;2),INDEX(N:N,MATCH(I472,N:N,0)+1,0),I472)</f>
+        <v>토</v>
+      </c>
+      <c r="J473" s="16" t="str">
+        <f>VLOOKUP(I473,N:Q,4,FALSE)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="K473" s="22">
+        <f t="shared" si="165"/>
+        <v>930375</v>
+      </c>
+      <c r="L473" s="22">
+        <f t="shared" si="166"/>
+        <v>3721500</v>
+      </c>
+    </row>
+    <row r="474" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E474" s="16">
+        <v>465</v>
+      </c>
+      <c r="F474" s="17" t="str">
+        <f t="shared" si="163"/>
+        <v>5000토</v>
+      </c>
+      <c r="G474" s="17">
+        <f t="shared" si="164"/>
+        <v>5.0000000000000005E+251</v>
+      </c>
+      <c r="H474" s="17">
+        <f t="shared" si="134"/>
+        <v>5000</v>
+      </c>
+      <c r="I474" s="16" t="str" cm="1">
+        <f t="array" ref="I474">IF(AND(H473&gt;1000,H474&lt;2),INDEX(N:N,MATCH(I473,N:N,0)+1,0),I473)</f>
+        <v>토</v>
+      </c>
+      <c r="J474" s="16" t="str">
+        <f>VLOOKUP(I474,N:Q,4,FALSE)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="K474" s="22">
+        <f t="shared" si="165"/>
+        <v>934375</v>
+      </c>
+      <c r="L474" s="22">
+        <f t="shared" si="166"/>
+        <v>3737500</v>
       </c>
     </row>
   </sheetData>
